--- a/data/Switches.xlsx
+++ b/data/Switches.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="422">
   <si>
     <t>ID</t>
   </si>
@@ -1259,6 +1259,30 @@
   </si>
   <si>
     <t>f8</t>
+  </si>
+  <si>
+    <t>Pyramid tiles 1</t>
+  </si>
+  <si>
+    <t>Pyramid tiles 2</t>
+  </si>
+  <si>
+    <t>Got Hieroglyph 5</t>
+  </si>
+  <si>
+    <t>Got Hieroglyph 1</t>
+  </si>
+  <si>
+    <t>Got Hieroglyph 2</t>
+  </si>
+  <si>
+    <t>Got Hieroglyph 3</t>
+  </si>
+  <si>
+    <t>Got Hieroglyph 4</t>
+  </si>
+  <si>
+    <t>Got Hieroglyph 6</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1958,6 +1982,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1965,7 +2017,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2281,12 +2333,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="45" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2302,52 +2348,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2365,34 +2402,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2401,7 +2417,64 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2714,8 +2787,8 @@
   <dimension ref="A1:O513"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="H32:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2788,17 +2861,17 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="112" t="s">
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="110" t="s">
         <v>400</v>
       </c>
     </row>
@@ -2815,15 +2888,15 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="112" t="s">
+      <c r="D3" s="118"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="110" t="s">
         <v>401</v>
       </c>
     </row>
@@ -2864,7 +2937,7 @@
       <c r="K4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="111">
+      <c r="L4" s="109">
         <v>10</v>
       </c>
     </row>
@@ -2905,7 +2978,7 @@
       <c r="K5" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="112">
+      <c r="L5" s="110">
         <v>18</v>
       </c>
     </row>
@@ -2987,7 +3060,7 @@
       <c r="K7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="112">
+      <c r="L7" s="110">
         <v>28</v>
       </c>
     </row>
@@ -3016,7 +3089,7 @@
       <c r="G8" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="88" t="s">
+      <c r="H8" s="149" t="s">
         <v>42</v>
       </c>
       <c r="I8" s="100" t="s">
@@ -3028,7 +3101,7 @@
       <c r="K8" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="112">
+      <c r="L8" s="110">
         <v>30</v>
       </c>
     </row>
@@ -3057,7 +3130,7 @@
       <c r="G9" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="150" t="s">
         <v>51</v>
       </c>
       <c r="I9" s="85" t="s">
@@ -3065,7 +3138,7 @@
       </c>
       <c r="J9" s="30"/>
       <c r="K9" s="28"/>
-      <c r="L9" s="112">
+      <c r="L9" s="110">
         <v>38</v>
       </c>
     </row>
@@ -3100,13 +3173,13 @@
       <c r="I10" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="110" t="s">
+      <c r="J10" s="108" t="s">
         <v>57</v>
       </c>
       <c r="K10" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="112">
+      <c r="L10" s="110">
         <v>40</v>
       </c>
     </row>
@@ -3147,7 +3220,7 @@
       <c r="K11" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="112">
+      <c r="L11" s="110">
         <v>48</v>
       </c>
       <c r="O11" t="s">
@@ -3191,7 +3264,7 @@
       <c r="K12" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="112">
+      <c r="L12" s="110">
         <v>50</v>
       </c>
     </row>
@@ -3232,7 +3305,7 @@
       <c r="K13" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="L13" s="112">
+      <c r="L13" s="110">
         <v>58</v>
       </c>
     </row>
@@ -3273,7 +3346,7 @@
       <c r="K14" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="112">
+      <c r="L14" s="110">
         <v>60</v>
       </c>
     </row>
@@ -3299,7 +3372,7 @@
       <c r="F15" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="18" t="s">
         <v>97</v>
       </c>
       <c r="H15" s="19" t="s">
@@ -3314,7 +3387,7 @@
       <c r="K15" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="L15" s="112">
+      <c r="L15" s="110">
         <v>68</v>
       </c>
     </row>
@@ -3340,7 +3413,7 @@
       <c r="F16" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="18" t="s">
         <v>106</v>
       </c>
       <c r="H16" s="19" t="s">
@@ -3355,7 +3428,7 @@
       <c r="K16" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="112">
+      <c r="L16" s="110">
         <v>70</v>
       </c>
     </row>
@@ -3381,7 +3454,7 @@
       <c r="F17" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="145" t="s">
         <v>115</v>
       </c>
       <c r="H17" s="35" t="s">
@@ -3396,7 +3469,7 @@
       <c r="K17" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="113">
+      <c r="L17" s="111">
         <v>78</v>
       </c>
       <c r="M17" s="58"/>
@@ -3424,7 +3497,7 @@
       <c r="F18" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="18" t="s">
         <v>122</v>
       </c>
       <c r="H18" s="41" t="s">
@@ -3439,7 +3512,7 @@
       <c r="K18" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="L18" s="112">
+      <c r="L18" s="110">
         <v>80</v>
       </c>
     </row>
@@ -3506,10 +3579,10 @@
       <c r="F20" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="19" t="s">
         <v>139</v>
       </c>
       <c r="I20" s="27" t="s">
@@ -3550,7 +3623,7 @@
       <c r="G21" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="147" t="s">
+      <c r="H21" s="151" t="s">
         <v>147</v>
       </c>
       <c r="I21" s="88" t="s">
@@ -3588,10 +3661,10 @@
       <c r="F22" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="93" t="s">
+      <c r="H22" s="152" t="s">
         <v>394</v>
       </c>
       <c r="I22" s="93" t="s">
@@ -3670,10 +3743,10 @@
       <c r="F24" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="105" t="s">
+      <c r="G24" s="146" t="s">
         <v>167</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="19" t="s">
         <v>168</v>
       </c>
       <c r="I24" s="17" t="s">
@@ -3746,23 +3819,23 @@
         <f t="shared" si="1"/>
         <v>192-199</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>17</v>
+      <c r="D26" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>417</v>
       </c>
       <c r="J26" s="25" t="s">
         <v>180</v>
@@ -3799,7 +3872,7 @@
       <c r="G27" s="88" t="s">
         <v>184</v>
       </c>
-      <c r="H27" s="88" t="s">
+      <c r="H27" s="153" t="s">
         <v>185</v>
       </c>
       <c r="I27" s="21" t="s">
@@ -3837,10 +3910,10 @@
       <c r="F28" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="G28" s="107" t="s">
+      <c r="G28" s="147" t="s">
         <v>190</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="29" t="s">
         <v>191</v>
       </c>
       <c r="I28" s="21" t="s">
@@ -3878,10 +3951,10 @@
       <c r="F29" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="G29" s="108" t="s">
+      <c r="G29" s="148" t="s">
         <v>198</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="154" t="s">
         <v>17</v>
       </c>
       <c r="I29" s="88" t="s">
@@ -3893,7 +3966,7 @@
       <c r="K29" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="L29" s="112" t="s">
+      <c r="L29" s="110" t="s">
         <v>409</v>
       </c>
     </row>
@@ -3919,10 +3992,10 @@
       <c r="F30" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="G30" s="109" t="s">
+      <c r="G30" s="107" t="s">
         <v>206</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="150" t="s">
         <v>207</v>
       </c>
       <c r="I30" s="24" t="s">
@@ -3938,7 +4011,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" ht="15.75" thickBot="1">
       <c r="A31" s="12">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -3977,7 +4050,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="15.75" thickBot="1">
       <c r="A32" s="12">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -3994,13 +4067,17 @@
         <v>218</v>
       </c>
       <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="89" t="s">
+      <c r="F32" s="89" t="s">
         <v>219</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="G32" s="21" t="s">
         <v>220</v>
+      </c>
+      <c r="H32" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>414</v>
       </c>
       <c r="J32" s="31" t="s">
         <v>221</v>
@@ -4008,7 +4085,7 @@
       <c r="K32" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="L32" s="112" t="s">
+      <c r="L32" s="110" t="s">
         <v>412</v>
       </c>
     </row>
@@ -8777,16 +8854,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="114" t="s">
+      <c r="D168" s="144" t="s">
         <v>339</v>
       </c>
-      <c r="E168" s="114"/>
-      <c r="F168" s="114"/>
-      <c r="G168" s="114"/>
-      <c r="H168" s="114"/>
-      <c r="I168" s="114"/>
-      <c r="J168" s="114"/>
-      <c r="K168" s="114"/>
+      <c r="E168" s="144"/>
+      <c r="F168" s="144"/>
+      <c r="G168" s="144"/>
+      <c r="H168" s="144"/>
+      <c r="I168" s="144"/>
+      <c r="J168" s="144"/>
+      <c r="K168" s="144"/>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="12">
@@ -8912,16 +8989,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="114" t="s">
+      <c r="D175" s="144" t="s">
         <v>340</v>
       </c>
-      <c r="E175" s="114"/>
-      <c r="F175" s="114"/>
-      <c r="G175" s="114"/>
-      <c r="H175" s="114"/>
-      <c r="I175" s="114"/>
-      <c r="J175" s="114"/>
-      <c r="K175" s="114"/>
+      <c r="E175" s="144"/>
+      <c r="F175" s="144"/>
+      <c r="G175" s="144"/>
+      <c r="H175" s="144"/>
+      <c r="I175" s="144"/>
+      <c r="J175" s="144"/>
+      <c r="K175" s="144"/>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="12">
@@ -8974,16 +9051,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="114" t="s">
+      <c r="D178" s="144" t="s">
         <v>341</v>
       </c>
-      <c r="E178" s="114"/>
-      <c r="F178" s="114"/>
-      <c r="G178" s="114"/>
-      <c r="H178" s="114"/>
-      <c r="I178" s="114"/>
-      <c r="J178" s="114"/>
-      <c r="K178" s="114"/>
+      <c r="E178" s="144"/>
+      <c r="F178" s="144"/>
+      <c r="G178" s="144"/>
+      <c r="H178" s="144"/>
+      <c r="I178" s="144"/>
+      <c r="J178" s="144"/>
+      <c r="K178" s="144"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -9052,16 +9129,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="115" t="s">
+      <c r="D182" s="130" t="s">
         <v>342</v>
       </c>
-      <c r="E182" s="116"/>
-      <c r="F182" s="116"/>
-      <c r="G182" s="116"/>
-      <c r="H182" s="116"/>
-      <c r="I182" s="116"/>
-      <c r="J182" s="116"/>
-      <c r="K182" s="117"/>
+      <c r="E182" s="131"/>
+      <c r="F182" s="131"/>
+      <c r="G182" s="131"/>
+      <c r="H182" s="131"/>
+      <c r="I182" s="131"/>
+      <c r="J182" s="131"/>
+      <c r="K182" s="132"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -9073,16 +9150,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="115" t="s">
+      <c r="D183" s="130" t="s">
         <v>343</v>
       </c>
-      <c r="E183" s="116"/>
-      <c r="F183" s="116"/>
-      <c r="G183" s="116"/>
-      <c r="H183" s="116"/>
-      <c r="I183" s="116"/>
-      <c r="J183" s="116"/>
-      <c r="K183" s="117"/>
+      <c r="E183" s="131"/>
+      <c r="F183" s="131"/>
+      <c r="G183" s="131"/>
+      <c r="H183" s="131"/>
+      <c r="I183" s="131"/>
+      <c r="J183" s="131"/>
+      <c r="K183" s="132"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -9094,16 +9171,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="115" t="s">
+      <c r="D184" s="130" t="s">
         <v>344</v>
       </c>
-      <c r="E184" s="116"/>
-      <c r="F184" s="116"/>
-      <c r="G184" s="116"/>
-      <c r="H184" s="116"/>
-      <c r="I184" s="116"/>
-      <c r="J184" s="116"/>
-      <c r="K184" s="117"/>
+      <c r="E184" s="131"/>
+      <c r="F184" s="131"/>
+      <c r="G184" s="131"/>
+      <c r="H184" s="131"/>
+      <c r="I184" s="131"/>
+      <c r="J184" s="131"/>
+      <c r="K184" s="132"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -9115,16 +9192,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="115" t="s">
+      <c r="D185" s="130" t="s">
         <v>345</v>
       </c>
-      <c r="E185" s="116"/>
-      <c r="F185" s="116"/>
-      <c r="G185" s="116"/>
-      <c r="H185" s="116"/>
-      <c r="I185" s="116"/>
-      <c r="J185" s="116"/>
-      <c r="K185" s="117"/>
+      <c r="E185" s="131"/>
+      <c r="F185" s="131"/>
+      <c r="G185" s="131"/>
+      <c r="H185" s="131"/>
+      <c r="I185" s="131"/>
+      <c r="J185" s="131"/>
+      <c r="K185" s="132"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -9136,16 +9213,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="115" t="s">
+      <c r="D186" s="130" t="s">
         <v>346</v>
       </c>
-      <c r="E186" s="116"/>
-      <c r="F186" s="116"/>
-      <c r="G186" s="116"/>
-      <c r="H186" s="116"/>
-      <c r="I186" s="116"/>
-      <c r="J186" s="116"/>
-      <c r="K186" s="117"/>
+      <c r="E186" s="131"/>
+      <c r="F186" s="131"/>
+      <c r="G186" s="131"/>
+      <c r="H186" s="131"/>
+      <c r="I186" s="131"/>
+      <c r="J186" s="131"/>
+      <c r="K186" s="132"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -9157,16 +9234,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="115" t="s">
+      <c r="D187" s="130" t="s">
         <v>347</v>
       </c>
-      <c r="E187" s="116"/>
-      <c r="F187" s="116"/>
-      <c r="G187" s="116"/>
-      <c r="H187" s="116"/>
-      <c r="I187" s="116"/>
-      <c r="J187" s="116"/>
-      <c r="K187" s="117"/>
+      <c r="E187" s="131"/>
+      <c r="F187" s="131"/>
+      <c r="G187" s="131"/>
+      <c r="H187" s="131"/>
+      <c r="I187" s="131"/>
+      <c r="J187" s="131"/>
+      <c r="K187" s="132"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -9178,16 +9255,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="115" t="s">
+      <c r="D188" s="130" t="s">
         <v>348</v>
       </c>
-      <c r="E188" s="116"/>
-      <c r="F188" s="116"/>
-      <c r="G188" s="116"/>
-      <c r="H188" s="116"/>
-      <c r="I188" s="116"/>
-      <c r="J188" s="116"/>
-      <c r="K188" s="117"/>
+      <c r="E188" s="131"/>
+      <c r="F188" s="131"/>
+      <c r="G188" s="131"/>
+      <c r="H188" s="131"/>
+      <c r="I188" s="131"/>
+      <c r="J188" s="131"/>
+      <c r="K188" s="132"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -9199,16 +9276,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="115" t="s">
+      <c r="D189" s="130" t="s">
         <v>349</v>
       </c>
-      <c r="E189" s="116"/>
-      <c r="F189" s="116"/>
-      <c r="G189" s="116"/>
-      <c r="H189" s="116"/>
-      <c r="I189" s="116"/>
-      <c r="J189" s="116"/>
-      <c r="K189" s="117"/>
+      <c r="E189" s="131"/>
+      <c r="F189" s="131"/>
+      <c r="G189" s="131"/>
+      <c r="H189" s="131"/>
+      <c r="I189" s="131"/>
+      <c r="J189" s="131"/>
+      <c r="K189" s="132"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -9220,16 +9297,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="115" t="s">
+      <c r="D190" s="130" t="s">
         <v>350</v>
       </c>
-      <c r="E190" s="116"/>
-      <c r="F190" s="116"/>
-      <c r="G190" s="116"/>
-      <c r="H190" s="116"/>
-      <c r="I190" s="116"/>
-      <c r="J190" s="116"/>
-      <c r="K190" s="117"/>
+      <c r="E190" s="131"/>
+      <c r="F190" s="131"/>
+      <c r="G190" s="131"/>
+      <c r="H190" s="131"/>
+      <c r="I190" s="131"/>
+      <c r="J190" s="131"/>
+      <c r="K190" s="132"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -9241,16 +9318,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="115" t="s">
+      <c r="D191" s="130" t="s">
         <v>351</v>
       </c>
-      <c r="E191" s="116"/>
-      <c r="F191" s="116"/>
-      <c r="G191" s="116"/>
-      <c r="H191" s="116"/>
-      <c r="I191" s="116"/>
-      <c r="J191" s="116"/>
-      <c r="K191" s="117"/>
+      <c r="E191" s="131"/>
+      <c r="F191" s="131"/>
+      <c r="G191" s="131"/>
+      <c r="H191" s="131"/>
+      <c r="I191" s="131"/>
+      <c r="J191" s="131"/>
+      <c r="K191" s="132"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -9262,16 +9339,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="115" t="s">
+      <c r="D192" s="130" t="s">
         <v>352</v>
       </c>
-      <c r="E192" s="116"/>
-      <c r="F192" s="116"/>
-      <c r="G192" s="116"/>
-      <c r="H192" s="116"/>
-      <c r="I192" s="116"/>
-      <c r="J192" s="116"/>
-      <c r="K192" s="117"/>
+      <c r="E192" s="131"/>
+      <c r="F192" s="131"/>
+      <c r="G192" s="131"/>
+      <c r="H192" s="131"/>
+      <c r="I192" s="131"/>
+      <c r="J192" s="131"/>
+      <c r="K192" s="132"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -9283,16 +9360,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="118" t="s">
+      <c r="D193" s="141" t="s">
         <v>353</v>
       </c>
-      <c r="E193" s="119"/>
-      <c r="F193" s="119"/>
-      <c r="G193" s="119"/>
-      <c r="H193" s="119"/>
-      <c r="I193" s="119"/>
-      <c r="J193" s="119"/>
-      <c r="K193" s="120"/>
+      <c r="E193" s="142"/>
+      <c r="F193" s="142"/>
+      <c r="G193" s="142"/>
+      <c r="H193" s="142"/>
+      <c r="I193" s="142"/>
+      <c r="J193" s="142"/>
+      <c r="K193" s="143"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -9307,16 +9384,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="121" t="s">
+      <c r="D194" s="123" t="s">
         <v>354</v>
       </c>
-      <c r="E194" s="122"/>
-      <c r="F194" s="122"/>
-      <c r="G194" s="122"/>
-      <c r="H194" s="122"/>
-      <c r="I194" s="122"/>
-      <c r="J194" s="122"/>
-      <c r="K194" s="123"/>
+      <c r="E194" s="116"/>
+      <c r="F194" s="116"/>
+      <c r="G194" s="116"/>
+      <c r="H194" s="116"/>
+      <c r="I194" s="116"/>
+      <c r="J194" s="116"/>
+      <c r="K194" s="124"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -9328,16 +9405,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="115" t="s">
+      <c r="D195" s="130" t="s">
         <v>355</v>
       </c>
-      <c r="E195" s="116"/>
-      <c r="F195" s="116"/>
-      <c r="G195" s="116"/>
-      <c r="H195" s="116"/>
-      <c r="I195" s="116"/>
-      <c r="J195" s="116"/>
-      <c r="K195" s="117"/>
+      <c r="E195" s="131"/>
+      <c r="F195" s="131"/>
+      <c r="G195" s="131"/>
+      <c r="H195" s="131"/>
+      <c r="I195" s="131"/>
+      <c r="J195" s="131"/>
+      <c r="K195" s="132"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -9349,16 +9426,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="115" t="s">
+      <c r="D196" s="130" t="s">
         <v>356</v>
       </c>
-      <c r="E196" s="116"/>
-      <c r="F196" s="116"/>
-      <c r="G196" s="116"/>
-      <c r="H196" s="116"/>
-      <c r="I196" s="116"/>
-      <c r="J196" s="116"/>
-      <c r="K196" s="117"/>
+      <c r="E196" s="131"/>
+      <c r="F196" s="131"/>
+      <c r="G196" s="131"/>
+      <c r="H196" s="131"/>
+      <c r="I196" s="131"/>
+      <c r="J196" s="131"/>
+      <c r="K196" s="132"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -9370,16 +9447,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="115" t="s">
+      <c r="D197" s="130" t="s">
         <v>357</v>
       </c>
-      <c r="E197" s="116"/>
-      <c r="F197" s="116"/>
-      <c r="G197" s="116"/>
-      <c r="H197" s="116"/>
-      <c r="I197" s="116"/>
-      <c r="J197" s="116"/>
-      <c r="K197" s="117"/>
+      <c r="E197" s="131"/>
+      <c r="F197" s="131"/>
+      <c r="G197" s="131"/>
+      <c r="H197" s="131"/>
+      <c r="I197" s="131"/>
+      <c r="J197" s="131"/>
+      <c r="K197" s="132"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -9391,16 +9468,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="115" t="s">
+      <c r="D198" s="130" t="s">
         <v>358</v>
       </c>
-      <c r="E198" s="116"/>
-      <c r="F198" s="116"/>
-      <c r="G198" s="116"/>
-      <c r="H198" s="116"/>
-      <c r="I198" s="116"/>
-      <c r="J198" s="116"/>
-      <c r="K198" s="117"/>
+      <c r="E198" s="131"/>
+      <c r="F198" s="131"/>
+      <c r="G198" s="131"/>
+      <c r="H198" s="131"/>
+      <c r="I198" s="131"/>
+      <c r="J198" s="131"/>
+      <c r="K198" s="132"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -9431,16 +9508,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="115" t="s">
+      <c r="D200" s="130" t="s">
         <v>359</v>
       </c>
-      <c r="E200" s="116"/>
-      <c r="F200" s="116"/>
-      <c r="G200" s="116"/>
-      <c r="H200" s="116"/>
-      <c r="I200" s="116"/>
-      <c r="J200" s="116"/>
-      <c r="K200" s="117"/>
+      <c r="E200" s="131"/>
+      <c r="F200" s="131"/>
+      <c r="G200" s="131"/>
+      <c r="H200" s="131"/>
+      <c r="I200" s="131"/>
+      <c r="J200" s="131"/>
+      <c r="K200" s="132"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -9471,16 +9548,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="124" t="s">
+      <c r="D202" s="138" t="s">
         <v>360</v>
       </c>
-      <c r="E202" s="125"/>
-      <c r="F202" s="125"/>
-      <c r="G202" s="125"/>
-      <c r="H202" s="125"/>
-      <c r="I202" s="125"/>
-      <c r="J202" s="125"/>
-      <c r="K202" s="126"/>
+      <c r="E202" s="139"/>
+      <c r="F202" s="139"/>
+      <c r="G202" s="139"/>
+      <c r="H202" s="139"/>
+      <c r="I202" s="139"/>
+      <c r="J202" s="139"/>
+      <c r="K202" s="140"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -9511,16 +9588,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="115" t="s">
+      <c r="D204" s="130" t="s">
         <v>361</v>
       </c>
-      <c r="E204" s="116"/>
-      <c r="F204" s="116"/>
-      <c r="G204" s="116"/>
-      <c r="H204" s="116"/>
-      <c r="I204" s="116"/>
-      <c r="J204" s="116"/>
-      <c r="K204" s="117"/>
+      <c r="E204" s="131"/>
+      <c r="F204" s="131"/>
+      <c r="G204" s="131"/>
+      <c r="H204" s="131"/>
+      <c r="I204" s="131"/>
+      <c r="J204" s="131"/>
+      <c r="K204" s="132"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -9551,16 +9628,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="115" t="s">
+      <c r="D206" s="130" t="s">
         <v>361</v>
       </c>
-      <c r="E206" s="116"/>
-      <c r="F206" s="116"/>
-      <c r="G206" s="116"/>
-      <c r="H206" s="116"/>
-      <c r="I206" s="116"/>
-      <c r="J206" s="116"/>
-      <c r="K206" s="117"/>
+      <c r="E206" s="131"/>
+      <c r="F206" s="131"/>
+      <c r="G206" s="131"/>
+      <c r="H206" s="131"/>
+      <c r="I206" s="131"/>
+      <c r="J206" s="131"/>
+      <c r="K206" s="132"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -9591,16 +9668,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="115" t="s">
+      <c r="D208" s="130" t="s">
         <v>362</v>
       </c>
-      <c r="E208" s="116"/>
-      <c r="F208" s="116"/>
-      <c r="G208" s="116"/>
-      <c r="H208" s="116"/>
-      <c r="I208" s="116"/>
-      <c r="J208" s="116"/>
-      <c r="K208" s="117"/>
+      <c r="E208" s="131"/>
+      <c r="F208" s="131"/>
+      <c r="G208" s="131"/>
+      <c r="H208" s="131"/>
+      <c r="I208" s="131"/>
+      <c r="J208" s="131"/>
+      <c r="K208" s="132"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -9634,16 +9711,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="121" t="s">
+      <c r="D210" s="123" t="s">
         <v>362</v>
       </c>
-      <c r="E210" s="122"/>
-      <c r="F210" s="122"/>
-      <c r="G210" s="122"/>
-      <c r="H210" s="122"/>
-      <c r="I210" s="122"/>
-      <c r="J210" s="122"/>
-      <c r="K210" s="123"/>
+      <c r="E210" s="116"/>
+      <c r="F210" s="116"/>
+      <c r="G210" s="116"/>
+      <c r="H210" s="116"/>
+      <c r="I210" s="116"/>
+      <c r="J210" s="116"/>
+      <c r="K210" s="124"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -9712,16 +9789,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="115" t="s">
+      <c r="D214" s="130" t="s">
         <v>363</v>
       </c>
-      <c r="E214" s="116"/>
-      <c r="F214" s="116"/>
-      <c r="G214" s="116"/>
-      <c r="H214" s="116"/>
-      <c r="I214" s="116"/>
-      <c r="J214" s="116"/>
-      <c r="K214" s="117"/>
+      <c r="E214" s="131"/>
+      <c r="F214" s="131"/>
+      <c r="G214" s="131"/>
+      <c r="H214" s="131"/>
+      <c r="I214" s="131"/>
+      <c r="J214" s="131"/>
+      <c r="K214" s="132"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -9752,16 +9829,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="141" t="s">
+      <c r="D216" s="121" t="s">
         <v>364</v>
       </c>
-      <c r="E216" s="136"/>
-      <c r="F216" s="136"/>
-      <c r="G216" s="136"/>
-      <c r="H216" s="136"/>
-      <c r="I216" s="136"/>
-      <c r="J216" s="136"/>
-      <c r="K216" s="142"/>
+      <c r="E216" s="113"/>
+      <c r="F216" s="113"/>
+      <c r="G216" s="113"/>
+      <c r="H216" s="113"/>
+      <c r="I216" s="113"/>
+      <c r="J216" s="113"/>
+      <c r="K216" s="122"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -9773,14 +9850,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="121"/>
-      <c r="E217" s="122"/>
-      <c r="F217" s="122"/>
-      <c r="G217" s="122"/>
-      <c r="H217" s="122"/>
-      <c r="I217" s="122"/>
-      <c r="J217" s="122"/>
-      <c r="K217" s="123"/>
+      <c r="D217" s="123"/>
+      <c r="E217" s="116"/>
+      <c r="F217" s="116"/>
+      <c r="G217" s="116"/>
+      <c r="H217" s="116"/>
+      <c r="I217" s="116"/>
+      <c r="J217" s="116"/>
+      <c r="K217" s="124"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -9792,16 +9869,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="141" t="s">
+      <c r="D218" s="121" t="s">
         <v>365</v>
       </c>
-      <c r="E218" s="136"/>
-      <c r="F218" s="136"/>
-      <c r="G218" s="136"/>
-      <c r="H218" s="136"/>
-      <c r="I218" s="136"/>
-      <c r="J218" s="136"/>
-      <c r="K218" s="142"/>
+      <c r="E218" s="113"/>
+      <c r="F218" s="113"/>
+      <c r="G218" s="113"/>
+      <c r="H218" s="113"/>
+      <c r="I218" s="113"/>
+      <c r="J218" s="113"/>
+      <c r="K218" s="122"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -9813,14 +9890,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="121"/>
-      <c r="E219" s="122"/>
-      <c r="F219" s="122"/>
-      <c r="G219" s="122"/>
-      <c r="H219" s="122"/>
-      <c r="I219" s="122"/>
-      <c r="J219" s="122"/>
-      <c r="K219" s="123"/>
+      <c r="D219" s="123"/>
+      <c r="E219" s="116"/>
+      <c r="F219" s="116"/>
+      <c r="G219" s="116"/>
+      <c r="H219" s="116"/>
+      <c r="I219" s="116"/>
+      <c r="J219" s="116"/>
+      <c r="K219" s="124"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -9832,16 +9909,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="141" t="s">
+      <c r="D220" s="121" t="s">
         <v>366</v>
       </c>
-      <c r="E220" s="136"/>
-      <c r="F220" s="136"/>
-      <c r="G220" s="136"/>
-      <c r="H220" s="136"/>
-      <c r="I220" s="136"/>
-      <c r="J220" s="136"/>
-      <c r="K220" s="142"/>
+      <c r="E220" s="113"/>
+      <c r="F220" s="113"/>
+      <c r="G220" s="113"/>
+      <c r="H220" s="113"/>
+      <c r="I220" s="113"/>
+      <c r="J220" s="113"/>
+      <c r="K220" s="122"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -9853,14 +9930,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="121"/>
-      <c r="E221" s="122"/>
-      <c r="F221" s="122"/>
-      <c r="G221" s="122"/>
-      <c r="H221" s="122"/>
-      <c r="I221" s="122"/>
-      <c r="J221" s="122"/>
-      <c r="K221" s="123"/>
+      <c r="D221" s="123"/>
+      <c r="E221" s="116"/>
+      <c r="F221" s="116"/>
+      <c r="G221" s="116"/>
+      <c r="H221" s="116"/>
+      <c r="I221" s="116"/>
+      <c r="J221" s="116"/>
+      <c r="K221" s="124"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -9872,16 +9949,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="115" t="s">
+      <c r="D222" s="130" t="s">
         <v>367</v>
       </c>
-      <c r="E222" s="116"/>
-      <c r="F222" s="116"/>
-      <c r="G222" s="116"/>
-      <c r="H222" s="116"/>
-      <c r="I222" s="116"/>
-      <c r="J222" s="116"/>
-      <c r="K222" s="117"/>
+      <c r="E222" s="131"/>
+      <c r="F222" s="131"/>
+      <c r="G222" s="131"/>
+      <c r="H222" s="131"/>
+      <c r="I222" s="131"/>
+      <c r="J222" s="131"/>
+      <c r="K222" s="132"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -9912,16 +9989,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="115" t="s">
+      <c r="D224" s="130" t="s">
         <v>368</v>
       </c>
-      <c r="E224" s="116"/>
-      <c r="F224" s="116"/>
-      <c r="G224" s="116"/>
-      <c r="H224" s="116"/>
-      <c r="I224" s="116"/>
-      <c r="J224" s="116"/>
-      <c r="K224" s="117"/>
+      <c r="E224" s="131"/>
+      <c r="F224" s="131"/>
+      <c r="G224" s="131"/>
+      <c r="H224" s="131"/>
+      <c r="I224" s="131"/>
+      <c r="J224" s="131"/>
+      <c r="K224" s="132"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -9955,16 +10032,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="127" t="s">
+      <c r="D226" s="135" t="s">
         <v>369</v>
       </c>
-      <c r="E226" s="128"/>
-      <c r="F226" s="128"/>
-      <c r="G226" s="128"/>
-      <c r="H226" s="128"/>
-      <c r="I226" s="128"/>
-      <c r="J226" s="128"/>
-      <c r="K226" s="129"/>
+      <c r="E226" s="136"/>
+      <c r="F226" s="136"/>
+      <c r="G226" s="136"/>
+      <c r="H226" s="136"/>
+      <c r="I226" s="136"/>
+      <c r="J226" s="136"/>
+      <c r="K226" s="137"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -10109,16 +10186,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="130" t="s">
+      <c r="D234" s="125" t="s">
         <v>370</v>
       </c>
-      <c r="E234" s="131"/>
-      <c r="F234" s="131"/>
-      <c r="G234" s="131"/>
-      <c r="H234" s="131"/>
-      <c r="I234" s="131"/>
-      <c r="J234" s="131"/>
-      <c r="K234" s="132"/>
+      <c r="E234" s="126"/>
+      <c r="F234" s="126"/>
+      <c r="G234" s="126"/>
+      <c r="H234" s="126"/>
+      <c r="I234" s="126"/>
+      <c r="J234" s="126"/>
+      <c r="K234" s="127"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -10187,16 +10264,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="135" t="s">
+      <c r="D238" s="112" t="s">
         <v>371</v>
       </c>
-      <c r="E238" s="136"/>
-      <c r="F238" s="136"/>
-      <c r="G238" s="136"/>
-      <c r="H238" s="136"/>
-      <c r="I238" s="136"/>
-      <c r="J238" s="136"/>
-      <c r="K238" s="137"/>
+      <c r="E238" s="113"/>
+      <c r="F238" s="113"/>
+      <c r="G238" s="113"/>
+      <c r="H238" s="113"/>
+      <c r="I238" s="113"/>
+      <c r="J238" s="113"/>
+      <c r="K238" s="114"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -10208,14 +10285,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="143"/>
-      <c r="E239" s="122"/>
-      <c r="F239" s="122"/>
-      <c r="G239" s="122"/>
-      <c r="H239" s="122"/>
-      <c r="I239" s="122"/>
-      <c r="J239" s="122"/>
-      <c r="K239" s="144"/>
+      <c r="D239" s="115"/>
+      <c r="E239" s="116"/>
+      <c r="F239" s="116"/>
+      <c r="G239" s="116"/>
+      <c r="H239" s="116"/>
+      <c r="I239" s="116"/>
+      <c r="J239" s="116"/>
+      <c r="K239" s="117"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -10227,16 +10304,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="136" t="s">
+      <c r="D240" s="113" t="s">
         <v>372</v>
       </c>
-      <c r="E240" s="136"/>
-      <c r="F240" s="136"/>
-      <c r="G240" s="136"/>
-      <c r="H240" s="136"/>
-      <c r="I240" s="136"/>
-      <c r="J240" s="136"/>
-      <c r="K240" s="137"/>
+      <c r="E240" s="113"/>
+      <c r="F240" s="113"/>
+      <c r="G240" s="113"/>
+      <c r="H240" s="113"/>
+      <c r="I240" s="113"/>
+      <c r="J240" s="113"/>
+      <c r="K240" s="114"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -10248,14 +10325,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="145"/>
-      <c r="E241" s="145"/>
-      <c r="F241" s="145"/>
-      <c r="G241" s="145"/>
-      <c r="H241" s="145"/>
-      <c r="I241" s="145"/>
-      <c r="J241" s="145"/>
-      <c r="K241" s="146"/>
+      <c r="D241" s="133"/>
+      <c r="E241" s="133"/>
+      <c r="F241" s="133"/>
+      <c r="G241" s="133"/>
+      <c r="H241" s="133"/>
+      <c r="I241" s="133"/>
+      <c r="J241" s="133"/>
+      <c r="K241" s="134"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -10446,16 +10523,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="133" t="s">
+      <c r="D250" s="128" t="s">
         <v>373</v>
       </c>
-      <c r="E250" s="131"/>
-      <c r="F250" s="131"/>
-      <c r="G250" s="131"/>
-      <c r="H250" s="131"/>
-      <c r="I250" s="131"/>
-      <c r="J250" s="131"/>
-      <c r="K250" s="134"/>
+      <c r="E250" s="126"/>
+      <c r="F250" s="126"/>
+      <c r="G250" s="126"/>
+      <c r="H250" s="126"/>
+      <c r="I250" s="126"/>
+      <c r="J250" s="126"/>
+      <c r="K250" s="129"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -11024,16 +11101,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="115" t="s">
+      <c r="D280" s="130" t="s">
         <v>374</v>
       </c>
-      <c r="E280" s="116"/>
-      <c r="F280" s="116"/>
-      <c r="G280" s="116"/>
-      <c r="H280" s="116"/>
-      <c r="I280" s="116"/>
-      <c r="J280" s="116"/>
-      <c r="K280" s="117"/>
+      <c r="E280" s="131"/>
+      <c r="F280" s="131"/>
+      <c r="G280" s="131"/>
+      <c r="H280" s="131"/>
+      <c r="I280" s="131"/>
+      <c r="J280" s="131"/>
+      <c r="K280" s="132"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -11140,16 +11217,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="115" t="s">
+      <c r="D286" s="130" t="s">
         <v>375</v>
       </c>
-      <c r="E286" s="116"/>
-      <c r="F286" s="116"/>
-      <c r="G286" s="116"/>
-      <c r="H286" s="116"/>
-      <c r="I286" s="116"/>
-      <c r="J286" s="116"/>
-      <c r="K286" s="117"/>
+      <c r="E286" s="131"/>
+      <c r="F286" s="131"/>
+      <c r="G286" s="131"/>
+      <c r="H286" s="131"/>
+      <c r="I286" s="131"/>
+      <c r="J286" s="131"/>
+      <c r="K286" s="132"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -11337,16 +11414,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="115" t="s">
+      <c r="D296" s="130" t="s">
         <v>377</v>
       </c>
-      <c r="E296" s="116"/>
-      <c r="F296" s="116"/>
-      <c r="G296" s="116"/>
-      <c r="H296" s="116"/>
-      <c r="I296" s="116"/>
-      <c r="J296" s="116"/>
-      <c r="K296" s="117"/>
+      <c r="E296" s="131"/>
+      <c r="F296" s="131"/>
+      <c r="G296" s="131"/>
+      <c r="H296" s="131"/>
+      <c r="I296" s="131"/>
+      <c r="J296" s="131"/>
+      <c r="K296" s="132"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -11377,16 +11454,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="135" t="s">
+      <c r="D298" s="112" t="s">
         <v>378</v>
       </c>
-      <c r="E298" s="136"/>
-      <c r="F298" s="136"/>
-      <c r="G298" s="136"/>
-      <c r="H298" s="136"/>
-      <c r="I298" s="136"/>
-      <c r="J298" s="136"/>
-      <c r="K298" s="137"/>
+      <c r="E298" s="113"/>
+      <c r="F298" s="113"/>
+      <c r="G298" s="113"/>
+      <c r="H298" s="113"/>
+      <c r="I298" s="113"/>
+      <c r="J298" s="113"/>
+      <c r="K298" s="114"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -11398,14 +11475,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="143"/>
-      <c r="E299" s="122"/>
-      <c r="F299" s="122"/>
-      <c r="G299" s="122"/>
-      <c r="H299" s="122"/>
-      <c r="I299" s="122"/>
-      <c r="J299" s="122"/>
-      <c r="K299" s="144"/>
+      <c r="D299" s="115"/>
+      <c r="E299" s="116"/>
+      <c r="F299" s="116"/>
+      <c r="G299" s="116"/>
+      <c r="H299" s="116"/>
+      <c r="I299" s="116"/>
+      <c r="J299" s="116"/>
+      <c r="K299" s="117"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -11417,16 +11494,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="135" t="s">
+      <c r="D300" s="112" t="s">
         <v>379</v>
       </c>
-      <c r="E300" s="136"/>
-      <c r="F300" s="136"/>
-      <c r="G300" s="136"/>
-      <c r="H300" s="136"/>
-      <c r="I300" s="136"/>
-      <c r="J300" s="136"/>
-      <c r="K300" s="137"/>
+      <c r="E300" s="113"/>
+      <c r="F300" s="113"/>
+      <c r="G300" s="113"/>
+      <c r="H300" s="113"/>
+      <c r="I300" s="113"/>
+      <c r="J300" s="113"/>
+      <c r="K300" s="114"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -11438,14 +11515,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="143"/>
-      <c r="E301" s="122"/>
-      <c r="F301" s="122"/>
-      <c r="G301" s="122"/>
-      <c r="H301" s="122"/>
-      <c r="I301" s="122"/>
-      <c r="J301" s="122"/>
-      <c r="K301" s="144"/>
+      <c r="D301" s="115"/>
+      <c r="E301" s="116"/>
+      <c r="F301" s="116"/>
+      <c r="G301" s="116"/>
+      <c r="H301" s="116"/>
+      <c r="I301" s="116"/>
+      <c r="J301" s="116"/>
+      <c r="K301" s="117"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -11457,16 +11534,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="135" t="s">
+      <c r="D302" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="E302" s="136"/>
-      <c r="F302" s="136"/>
-      <c r="G302" s="136"/>
-      <c r="H302" s="136"/>
-      <c r="I302" s="136"/>
-      <c r="J302" s="136"/>
-      <c r="K302" s="137"/>
+      <c r="E302" s="113"/>
+      <c r="F302" s="113"/>
+      <c r="G302" s="113"/>
+      <c r="H302" s="113"/>
+      <c r="I302" s="113"/>
+      <c r="J302" s="113"/>
+      <c r="K302" s="114"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -11478,14 +11555,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="143"/>
-      <c r="E303" s="122"/>
-      <c r="F303" s="122"/>
-      <c r="G303" s="122"/>
-      <c r="H303" s="122"/>
-      <c r="I303" s="122"/>
-      <c r="J303" s="122"/>
-      <c r="K303" s="144"/>
+      <c r="D303" s="115"/>
+      <c r="E303" s="116"/>
+      <c r="F303" s="116"/>
+      <c r="G303" s="116"/>
+      <c r="H303" s="116"/>
+      <c r="I303" s="116"/>
+      <c r="J303" s="116"/>
+      <c r="K303" s="117"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -11497,16 +11574,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="135" t="s">
+      <c r="D304" s="112" t="s">
         <v>381</v>
       </c>
-      <c r="E304" s="136"/>
-      <c r="F304" s="136"/>
-      <c r="G304" s="136"/>
-      <c r="H304" s="136"/>
-      <c r="I304" s="136"/>
-      <c r="J304" s="136"/>
-      <c r="K304" s="137"/>
+      <c r="E304" s="113"/>
+      <c r="F304" s="113"/>
+      <c r="G304" s="113"/>
+      <c r="H304" s="113"/>
+      <c r="I304" s="113"/>
+      <c r="J304" s="113"/>
+      <c r="K304" s="114"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -11518,14 +11595,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="143"/>
-      <c r="E305" s="122"/>
-      <c r="F305" s="122"/>
-      <c r="G305" s="122"/>
-      <c r="H305" s="122"/>
-      <c r="I305" s="122"/>
-      <c r="J305" s="122"/>
-      <c r="K305" s="144"/>
+      <c r="D305" s="115"/>
+      <c r="E305" s="116"/>
+      <c r="F305" s="116"/>
+      <c r="G305" s="116"/>
+      <c r="H305" s="116"/>
+      <c r="I305" s="116"/>
+      <c r="J305" s="116"/>
+      <c r="K305" s="117"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -11540,16 +11617,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="135" t="s">
+      <c r="D306" s="112" t="s">
         <v>382</v>
       </c>
-      <c r="E306" s="136"/>
-      <c r="F306" s="136"/>
-      <c r="G306" s="136"/>
-      <c r="H306" s="136"/>
-      <c r="I306" s="136"/>
-      <c r="J306" s="136"/>
-      <c r="K306" s="137"/>
+      <c r="E306" s="113"/>
+      <c r="F306" s="113"/>
+      <c r="G306" s="113"/>
+      <c r="H306" s="113"/>
+      <c r="I306" s="113"/>
+      <c r="J306" s="113"/>
+      <c r="K306" s="114"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -11561,14 +11638,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="143"/>
-      <c r="E307" s="122"/>
-      <c r="F307" s="122"/>
-      <c r="G307" s="122"/>
-      <c r="H307" s="122"/>
-      <c r="I307" s="122"/>
-      <c r="J307" s="122"/>
-      <c r="K307" s="144"/>
+      <c r="D307" s="115"/>
+      <c r="E307" s="116"/>
+      <c r="F307" s="116"/>
+      <c r="G307" s="116"/>
+      <c r="H307" s="116"/>
+      <c r="I307" s="116"/>
+      <c r="J307" s="116"/>
+      <c r="K307" s="117"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -11580,16 +11657,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="135" t="s">
+      <c r="D308" s="112" t="s">
         <v>383</v>
       </c>
-      <c r="E308" s="136"/>
-      <c r="F308" s="136"/>
-      <c r="G308" s="136"/>
-      <c r="H308" s="136"/>
-      <c r="I308" s="136"/>
-      <c r="J308" s="136"/>
-      <c r="K308" s="137"/>
+      <c r="E308" s="113"/>
+      <c r="F308" s="113"/>
+      <c r="G308" s="113"/>
+      <c r="H308" s="113"/>
+      <c r="I308" s="113"/>
+      <c r="J308" s="113"/>
+      <c r="K308" s="114"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -11601,14 +11678,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="143"/>
-      <c r="E309" s="122"/>
-      <c r="F309" s="122"/>
-      <c r="G309" s="122"/>
-      <c r="H309" s="122"/>
-      <c r="I309" s="122"/>
-      <c r="J309" s="122"/>
-      <c r="K309" s="144"/>
+      <c r="D309" s="115"/>
+      <c r="E309" s="116"/>
+      <c r="F309" s="116"/>
+      <c r="G309" s="116"/>
+      <c r="H309" s="116"/>
+      <c r="I309" s="116"/>
+      <c r="J309" s="116"/>
+      <c r="K309" s="117"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -15488,23 +15565,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D168:K168"/>
+    <mergeCell ref="D175:K175"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D250:K250"/>
+    <mergeCell ref="D280:K280"/>
+    <mergeCell ref="D286:K286"/>
+    <mergeCell ref="D296:K296"/>
+    <mergeCell ref="D240:K241"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="D216:K217"/>
     <mergeCell ref="D218:K219"/>
     <mergeCell ref="D220:K221"/>
     <mergeCell ref="D238:K239"/>
     <mergeCell ref="D234:K234"/>
-    <mergeCell ref="D250:K250"/>
-    <mergeCell ref="D280:K280"/>
-    <mergeCell ref="D286:K286"/>
-    <mergeCell ref="D296:K296"/>
-    <mergeCell ref="D240:K241"/>
     <mergeCell ref="D210:K210"/>
     <mergeCell ref="D214:K214"/>
     <mergeCell ref="D222:K222"/>
@@ -15515,26 +15606,12 @@
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
     <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D168:K168"/>
-    <mergeCell ref="D175:K175"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape"/>
@@ -15620,16 +15697,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="137"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="114"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -15651,14 +15728,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="140"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="120"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -15704,7 +15781,7 @@
       <c r="K4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="111" t="s">
+      <c r="L4" s="109" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="3">
@@ -15746,7 +15823,7 @@
         <v>22</v>
       </c>
       <c r="K5" s="55"/>
-      <c r="L5" s="112" t="s">
+      <c r="L5" s="110" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3">
@@ -15830,7 +15907,7 @@
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="28"/>
-      <c r="L7" s="112" t="s">
+      <c r="L7" s="110" t="s">
         <v>37</v>
       </c>
       <c r="M7" s="3">
@@ -15872,7 +15949,7 @@
       <c r="K8" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="112" t="s">
+      <c r="L8" s="110" t="s">
         <v>46</v>
       </c>
       <c r="M8" s="3">
@@ -15916,7 +15993,7 @@
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="28"/>
-      <c r="L9" s="112" t="s">
+      <c r="L9" s="110" t="s">
         <v>53</v>
       </c>
       <c r="M9" s="3">
@@ -15956,7 +16033,7 @@
       <c r="K10" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="112" t="s">
+      <c r="L10" s="110" t="s">
         <v>59</v>
       </c>
       <c r="M10" s="3">
@@ -16004,7 +16081,7 @@
       <c r="K11" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="112" t="s">
+      <c r="L11" s="110" t="s">
         <v>68</v>
       </c>
       <c r="M11" s="3">
@@ -16051,7 +16128,7 @@
       <c r="K12" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="112" t="s">
+      <c r="L12" s="110" t="s">
         <v>76</v>
       </c>
       <c r="M12" s="3">
@@ -16097,7 +16174,7 @@
       <c r="K13" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="L13" s="112" t="s">
+      <c r="L13" s="110" t="s">
         <v>84</v>
       </c>
       <c r="M13" s="3">
@@ -16145,7 +16222,7 @@
       <c r="K14" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="112" t="s">
+      <c r="L14" s="110" t="s">
         <v>93</v>
       </c>
       <c r="M14" s="3">
@@ -16193,7 +16270,7 @@
       <c r="K15" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="L15" s="112" t="s">
+      <c r="L15" s="110" t="s">
         <v>102</v>
       </c>
       <c r="M15" s="3">
@@ -16241,7 +16318,7 @@
       <c r="K16" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="112" t="s">
+      <c r="L16" s="110" t="s">
         <v>111</v>
       </c>
       <c r="M16" s="3">
@@ -16289,7 +16366,7 @@
       <c r="K17" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="113" t="s">
+      <c r="L17" s="111" t="s">
         <v>59</v>
       </c>
       <c r="M17" s="58">
@@ -16337,7 +16414,7 @@
       <c r="K18" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="L18" s="112" t="s">
+      <c r="L18" s="110" t="s">
         <v>127</v>
       </c>
       <c r="M18" s="3">
@@ -16781,7 +16858,7 @@
       <c r="K29" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="L29" s="112" t="s">
+      <c r="L29" s="110" t="s">
         <v>202</v>
       </c>
       <c r="M29" s="3">
@@ -16905,7 +16982,7 @@
       <c r="K32" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="L32" s="112" t="s">
+      <c r="L32" s="110" t="s">
         <v>46</v>
       </c>
       <c r="M32" s="3">
@@ -21907,16 +21984,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="114" t="s">
+      <c r="D178" s="144" t="s">
         <v>341</v>
       </c>
-      <c r="E178" s="114"/>
-      <c r="F178" s="114"/>
-      <c r="G178" s="114"/>
-      <c r="H178" s="114"/>
-      <c r="I178" s="114"/>
-      <c r="J178" s="114"/>
-      <c r="K178" s="114"/>
+      <c r="E178" s="144"/>
+      <c r="F178" s="144"/>
+      <c r="G178" s="144"/>
+      <c r="H178" s="144"/>
+      <c r="I178" s="144"/>
+      <c r="J178" s="144"/>
+      <c r="K178" s="144"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -21985,16 +22062,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="115" t="s">
+      <c r="D182" s="130" t="s">
         <v>342</v>
       </c>
-      <c r="E182" s="116"/>
-      <c r="F182" s="116"/>
-      <c r="G182" s="116"/>
-      <c r="H182" s="116"/>
-      <c r="I182" s="116"/>
-      <c r="J182" s="116"/>
-      <c r="K182" s="117"/>
+      <c r="E182" s="131"/>
+      <c r="F182" s="131"/>
+      <c r="G182" s="131"/>
+      <c r="H182" s="131"/>
+      <c r="I182" s="131"/>
+      <c r="J182" s="131"/>
+      <c r="K182" s="132"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -22006,16 +22083,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="115" t="s">
+      <c r="D183" s="130" t="s">
         <v>343</v>
       </c>
-      <c r="E183" s="116"/>
-      <c r="F183" s="116"/>
-      <c r="G183" s="116"/>
-      <c r="H183" s="116"/>
-      <c r="I183" s="116"/>
-      <c r="J183" s="116"/>
-      <c r="K183" s="117"/>
+      <c r="E183" s="131"/>
+      <c r="F183" s="131"/>
+      <c r="G183" s="131"/>
+      <c r="H183" s="131"/>
+      <c r="I183" s="131"/>
+      <c r="J183" s="131"/>
+      <c r="K183" s="132"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -22027,16 +22104,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="115" t="s">
+      <c r="D184" s="130" t="s">
         <v>344</v>
       </c>
-      <c r="E184" s="116"/>
-      <c r="F184" s="116"/>
-      <c r="G184" s="116"/>
-      <c r="H184" s="116"/>
-      <c r="I184" s="116"/>
-      <c r="J184" s="116"/>
-      <c r="K184" s="117"/>
+      <c r="E184" s="131"/>
+      <c r="F184" s="131"/>
+      <c r="G184" s="131"/>
+      <c r="H184" s="131"/>
+      <c r="I184" s="131"/>
+      <c r="J184" s="131"/>
+      <c r="K184" s="132"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -22048,16 +22125,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="115" t="s">
+      <c r="D185" s="130" t="s">
         <v>345</v>
       </c>
-      <c r="E185" s="116"/>
-      <c r="F185" s="116"/>
-      <c r="G185" s="116"/>
-      <c r="H185" s="116"/>
-      <c r="I185" s="116"/>
-      <c r="J185" s="116"/>
-      <c r="K185" s="117"/>
+      <c r="E185" s="131"/>
+      <c r="F185" s="131"/>
+      <c r="G185" s="131"/>
+      <c r="H185" s="131"/>
+      <c r="I185" s="131"/>
+      <c r="J185" s="131"/>
+      <c r="K185" s="132"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -22069,16 +22146,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="115" t="s">
+      <c r="D186" s="130" t="s">
         <v>346</v>
       </c>
-      <c r="E186" s="116"/>
-      <c r="F186" s="116"/>
-      <c r="G186" s="116"/>
-      <c r="H186" s="116"/>
-      <c r="I186" s="116"/>
-      <c r="J186" s="116"/>
-      <c r="K186" s="117"/>
+      <c r="E186" s="131"/>
+      <c r="F186" s="131"/>
+      <c r="G186" s="131"/>
+      <c r="H186" s="131"/>
+      <c r="I186" s="131"/>
+      <c r="J186" s="131"/>
+      <c r="K186" s="132"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -22090,16 +22167,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="115" t="s">
+      <c r="D187" s="130" t="s">
         <v>347</v>
       </c>
-      <c r="E187" s="116"/>
-      <c r="F187" s="116"/>
-      <c r="G187" s="116"/>
-      <c r="H187" s="116"/>
-      <c r="I187" s="116"/>
-      <c r="J187" s="116"/>
-      <c r="K187" s="117"/>
+      <c r="E187" s="131"/>
+      <c r="F187" s="131"/>
+      <c r="G187" s="131"/>
+      <c r="H187" s="131"/>
+      <c r="I187" s="131"/>
+      <c r="J187" s="131"/>
+      <c r="K187" s="132"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -22111,16 +22188,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="115" t="s">
+      <c r="D188" s="130" t="s">
         <v>348</v>
       </c>
-      <c r="E188" s="116"/>
-      <c r="F188" s="116"/>
-      <c r="G188" s="116"/>
-      <c r="H188" s="116"/>
-      <c r="I188" s="116"/>
-      <c r="J188" s="116"/>
-      <c r="K188" s="117"/>
+      <c r="E188" s="131"/>
+      <c r="F188" s="131"/>
+      <c r="G188" s="131"/>
+      <c r="H188" s="131"/>
+      <c r="I188" s="131"/>
+      <c r="J188" s="131"/>
+      <c r="K188" s="132"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -22132,16 +22209,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="115" t="s">
+      <c r="D189" s="130" t="s">
         <v>349</v>
       </c>
-      <c r="E189" s="116"/>
-      <c r="F189" s="116"/>
-      <c r="G189" s="116"/>
-      <c r="H189" s="116"/>
-      <c r="I189" s="116"/>
-      <c r="J189" s="116"/>
-      <c r="K189" s="117"/>
+      <c r="E189" s="131"/>
+      <c r="F189" s="131"/>
+      <c r="G189" s="131"/>
+      <c r="H189" s="131"/>
+      <c r="I189" s="131"/>
+      <c r="J189" s="131"/>
+      <c r="K189" s="132"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -22153,16 +22230,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="115" t="s">
+      <c r="D190" s="130" t="s">
         <v>350</v>
       </c>
-      <c r="E190" s="116"/>
-      <c r="F190" s="116"/>
-      <c r="G190" s="116"/>
-      <c r="H190" s="116"/>
-      <c r="I190" s="116"/>
-      <c r="J190" s="116"/>
-      <c r="K190" s="117"/>
+      <c r="E190" s="131"/>
+      <c r="F190" s="131"/>
+      <c r="G190" s="131"/>
+      <c r="H190" s="131"/>
+      <c r="I190" s="131"/>
+      <c r="J190" s="131"/>
+      <c r="K190" s="132"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -22174,16 +22251,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="115" t="s">
+      <c r="D191" s="130" t="s">
         <v>351</v>
       </c>
-      <c r="E191" s="116"/>
-      <c r="F191" s="116"/>
-      <c r="G191" s="116"/>
-      <c r="H191" s="116"/>
-      <c r="I191" s="116"/>
-      <c r="J191" s="116"/>
-      <c r="K191" s="117"/>
+      <c r="E191" s="131"/>
+      <c r="F191" s="131"/>
+      <c r="G191" s="131"/>
+      <c r="H191" s="131"/>
+      <c r="I191" s="131"/>
+      <c r="J191" s="131"/>
+      <c r="K191" s="132"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -22195,16 +22272,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="115" t="s">
+      <c r="D192" s="130" t="s">
         <v>352</v>
       </c>
-      <c r="E192" s="116"/>
-      <c r="F192" s="116"/>
-      <c r="G192" s="116"/>
-      <c r="H192" s="116"/>
-      <c r="I192" s="116"/>
-      <c r="J192" s="116"/>
-      <c r="K192" s="117"/>
+      <c r="E192" s="131"/>
+      <c r="F192" s="131"/>
+      <c r="G192" s="131"/>
+      <c r="H192" s="131"/>
+      <c r="I192" s="131"/>
+      <c r="J192" s="131"/>
+      <c r="K192" s="132"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -22216,16 +22293,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="118" t="s">
+      <c r="D193" s="141" t="s">
         <v>353</v>
       </c>
-      <c r="E193" s="119"/>
-      <c r="F193" s="119"/>
-      <c r="G193" s="119"/>
-      <c r="H193" s="119"/>
-      <c r="I193" s="119"/>
-      <c r="J193" s="119"/>
-      <c r="K193" s="120"/>
+      <c r="E193" s="142"/>
+      <c r="F193" s="142"/>
+      <c r="G193" s="142"/>
+      <c r="H193" s="142"/>
+      <c r="I193" s="142"/>
+      <c r="J193" s="142"/>
+      <c r="K193" s="143"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -22240,16 +22317,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="121" t="s">
+      <c r="D194" s="123" t="s">
         <v>354</v>
       </c>
-      <c r="E194" s="122"/>
-      <c r="F194" s="122"/>
-      <c r="G194" s="122"/>
-      <c r="H194" s="122"/>
-      <c r="I194" s="122"/>
-      <c r="J194" s="122"/>
-      <c r="K194" s="123"/>
+      <c r="E194" s="116"/>
+      <c r="F194" s="116"/>
+      <c r="G194" s="116"/>
+      <c r="H194" s="116"/>
+      <c r="I194" s="116"/>
+      <c r="J194" s="116"/>
+      <c r="K194" s="124"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -22261,16 +22338,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="115" t="s">
+      <c r="D195" s="130" t="s">
         <v>355</v>
       </c>
-      <c r="E195" s="116"/>
-      <c r="F195" s="116"/>
-      <c r="G195" s="116"/>
-      <c r="H195" s="116"/>
-      <c r="I195" s="116"/>
-      <c r="J195" s="116"/>
-      <c r="K195" s="117"/>
+      <c r="E195" s="131"/>
+      <c r="F195" s="131"/>
+      <c r="G195" s="131"/>
+      <c r="H195" s="131"/>
+      <c r="I195" s="131"/>
+      <c r="J195" s="131"/>
+      <c r="K195" s="132"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -22282,16 +22359,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="115" t="s">
+      <c r="D196" s="130" t="s">
         <v>356</v>
       </c>
-      <c r="E196" s="116"/>
-      <c r="F196" s="116"/>
-      <c r="G196" s="116"/>
-      <c r="H196" s="116"/>
-      <c r="I196" s="116"/>
-      <c r="J196" s="116"/>
-      <c r="K196" s="117"/>
+      <c r="E196" s="131"/>
+      <c r="F196" s="131"/>
+      <c r="G196" s="131"/>
+      <c r="H196" s="131"/>
+      <c r="I196" s="131"/>
+      <c r="J196" s="131"/>
+      <c r="K196" s="132"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -22303,16 +22380,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="115" t="s">
+      <c r="D197" s="130" t="s">
         <v>357</v>
       </c>
-      <c r="E197" s="116"/>
-      <c r="F197" s="116"/>
-      <c r="G197" s="116"/>
-      <c r="H197" s="116"/>
-      <c r="I197" s="116"/>
-      <c r="J197" s="116"/>
-      <c r="K197" s="117"/>
+      <c r="E197" s="131"/>
+      <c r="F197" s="131"/>
+      <c r="G197" s="131"/>
+      <c r="H197" s="131"/>
+      <c r="I197" s="131"/>
+      <c r="J197" s="131"/>
+      <c r="K197" s="132"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -22324,16 +22401,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="115" t="s">
+      <c r="D198" s="130" t="s">
         <v>358</v>
       </c>
-      <c r="E198" s="116"/>
-      <c r="F198" s="116"/>
-      <c r="G198" s="116"/>
-      <c r="H198" s="116"/>
-      <c r="I198" s="116"/>
-      <c r="J198" s="116"/>
-      <c r="K198" s="117"/>
+      <c r="E198" s="131"/>
+      <c r="F198" s="131"/>
+      <c r="G198" s="131"/>
+      <c r="H198" s="131"/>
+      <c r="I198" s="131"/>
+      <c r="J198" s="131"/>
+      <c r="K198" s="132"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -22364,16 +22441,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="115" t="s">
+      <c r="D200" s="130" t="s">
         <v>359</v>
       </c>
-      <c r="E200" s="116"/>
-      <c r="F200" s="116"/>
-      <c r="G200" s="116"/>
-      <c r="H200" s="116"/>
-      <c r="I200" s="116"/>
-      <c r="J200" s="116"/>
-      <c r="K200" s="117"/>
+      <c r="E200" s="131"/>
+      <c r="F200" s="131"/>
+      <c r="G200" s="131"/>
+      <c r="H200" s="131"/>
+      <c r="I200" s="131"/>
+      <c r="J200" s="131"/>
+      <c r="K200" s="132"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -22404,16 +22481,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="124" t="s">
+      <c r="D202" s="138" t="s">
         <v>360</v>
       </c>
-      <c r="E202" s="125"/>
-      <c r="F202" s="125"/>
-      <c r="G202" s="125"/>
-      <c r="H202" s="125"/>
-      <c r="I202" s="125"/>
-      <c r="J202" s="125"/>
-      <c r="K202" s="126"/>
+      <c r="E202" s="139"/>
+      <c r="F202" s="139"/>
+      <c r="G202" s="139"/>
+      <c r="H202" s="139"/>
+      <c r="I202" s="139"/>
+      <c r="J202" s="139"/>
+      <c r="K202" s="140"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -22444,16 +22521,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="115" t="s">
+      <c r="D204" s="130" t="s">
         <v>361</v>
       </c>
-      <c r="E204" s="116"/>
-      <c r="F204" s="116"/>
-      <c r="G204" s="116"/>
-      <c r="H204" s="116"/>
-      <c r="I204" s="116"/>
-      <c r="J204" s="116"/>
-      <c r="K204" s="117"/>
+      <c r="E204" s="131"/>
+      <c r="F204" s="131"/>
+      <c r="G204" s="131"/>
+      <c r="H204" s="131"/>
+      <c r="I204" s="131"/>
+      <c r="J204" s="131"/>
+      <c r="K204" s="132"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -22484,16 +22561,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="115" t="s">
+      <c r="D206" s="130" t="s">
         <v>361</v>
       </c>
-      <c r="E206" s="116"/>
-      <c r="F206" s="116"/>
-      <c r="G206" s="116"/>
-      <c r="H206" s="116"/>
-      <c r="I206" s="116"/>
-      <c r="J206" s="116"/>
-      <c r="K206" s="117"/>
+      <c r="E206" s="131"/>
+      <c r="F206" s="131"/>
+      <c r="G206" s="131"/>
+      <c r="H206" s="131"/>
+      <c r="I206" s="131"/>
+      <c r="J206" s="131"/>
+      <c r="K206" s="132"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -22524,16 +22601,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="115" t="s">
+      <c r="D208" s="130" t="s">
         <v>362</v>
       </c>
-      <c r="E208" s="116"/>
-      <c r="F208" s="116"/>
-      <c r="G208" s="116"/>
-      <c r="H208" s="116"/>
-      <c r="I208" s="116"/>
-      <c r="J208" s="116"/>
-      <c r="K208" s="117"/>
+      <c r="E208" s="131"/>
+      <c r="F208" s="131"/>
+      <c r="G208" s="131"/>
+      <c r="H208" s="131"/>
+      <c r="I208" s="131"/>
+      <c r="J208" s="131"/>
+      <c r="K208" s="132"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -22567,16 +22644,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="121" t="s">
+      <c r="D210" s="123" t="s">
         <v>362</v>
       </c>
-      <c r="E210" s="122"/>
-      <c r="F210" s="122"/>
-      <c r="G210" s="122"/>
-      <c r="H210" s="122"/>
-      <c r="I210" s="122"/>
-      <c r="J210" s="122"/>
-      <c r="K210" s="123"/>
+      <c r="E210" s="116"/>
+      <c r="F210" s="116"/>
+      <c r="G210" s="116"/>
+      <c r="H210" s="116"/>
+      <c r="I210" s="116"/>
+      <c r="J210" s="116"/>
+      <c r="K210" s="124"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -22645,16 +22722,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="115" t="s">
+      <c r="D214" s="130" t="s">
         <v>363</v>
       </c>
-      <c r="E214" s="116"/>
-      <c r="F214" s="116"/>
-      <c r="G214" s="116"/>
-      <c r="H214" s="116"/>
-      <c r="I214" s="116"/>
-      <c r="J214" s="116"/>
-      <c r="K214" s="117"/>
+      <c r="E214" s="131"/>
+      <c r="F214" s="131"/>
+      <c r="G214" s="131"/>
+      <c r="H214" s="131"/>
+      <c r="I214" s="131"/>
+      <c r="J214" s="131"/>
+      <c r="K214" s="132"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -22685,16 +22762,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="141" t="s">
+      <c r="D216" s="121" t="s">
         <v>364</v>
       </c>
-      <c r="E216" s="136"/>
-      <c r="F216" s="136"/>
-      <c r="G216" s="136"/>
-      <c r="H216" s="136"/>
-      <c r="I216" s="136"/>
-      <c r="J216" s="136"/>
-      <c r="K216" s="142"/>
+      <c r="E216" s="113"/>
+      <c r="F216" s="113"/>
+      <c r="G216" s="113"/>
+      <c r="H216" s="113"/>
+      <c r="I216" s="113"/>
+      <c r="J216" s="113"/>
+      <c r="K216" s="122"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -22706,14 +22783,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="121"/>
-      <c r="E217" s="122"/>
-      <c r="F217" s="122"/>
-      <c r="G217" s="122"/>
-      <c r="H217" s="122"/>
-      <c r="I217" s="122"/>
-      <c r="J217" s="122"/>
-      <c r="K217" s="123"/>
+      <c r="D217" s="123"/>
+      <c r="E217" s="116"/>
+      <c r="F217" s="116"/>
+      <c r="G217" s="116"/>
+      <c r="H217" s="116"/>
+      <c r="I217" s="116"/>
+      <c r="J217" s="116"/>
+      <c r="K217" s="124"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -22725,16 +22802,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="141" t="s">
+      <c r="D218" s="121" t="s">
         <v>365</v>
       </c>
-      <c r="E218" s="136"/>
-      <c r="F218" s="136"/>
-      <c r="G218" s="136"/>
-      <c r="H218" s="136"/>
-      <c r="I218" s="136"/>
-      <c r="J218" s="136"/>
-      <c r="K218" s="142"/>
+      <c r="E218" s="113"/>
+      <c r="F218" s="113"/>
+      <c r="G218" s="113"/>
+      <c r="H218" s="113"/>
+      <c r="I218" s="113"/>
+      <c r="J218" s="113"/>
+      <c r="K218" s="122"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -22746,14 +22823,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="121"/>
-      <c r="E219" s="122"/>
-      <c r="F219" s="122"/>
-      <c r="G219" s="122"/>
-      <c r="H219" s="122"/>
-      <c r="I219" s="122"/>
-      <c r="J219" s="122"/>
-      <c r="K219" s="123"/>
+      <c r="D219" s="123"/>
+      <c r="E219" s="116"/>
+      <c r="F219" s="116"/>
+      <c r="G219" s="116"/>
+      <c r="H219" s="116"/>
+      <c r="I219" s="116"/>
+      <c r="J219" s="116"/>
+      <c r="K219" s="124"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -22765,16 +22842,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="141" t="s">
+      <c r="D220" s="121" t="s">
         <v>366</v>
       </c>
-      <c r="E220" s="136"/>
-      <c r="F220" s="136"/>
-      <c r="G220" s="136"/>
-      <c r="H220" s="136"/>
-      <c r="I220" s="136"/>
-      <c r="J220" s="136"/>
-      <c r="K220" s="142"/>
+      <c r="E220" s="113"/>
+      <c r="F220" s="113"/>
+      <c r="G220" s="113"/>
+      <c r="H220" s="113"/>
+      <c r="I220" s="113"/>
+      <c r="J220" s="113"/>
+      <c r="K220" s="122"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -22786,14 +22863,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="121"/>
-      <c r="E221" s="122"/>
-      <c r="F221" s="122"/>
-      <c r="G221" s="122"/>
-      <c r="H221" s="122"/>
-      <c r="I221" s="122"/>
-      <c r="J221" s="122"/>
-      <c r="K221" s="123"/>
+      <c r="D221" s="123"/>
+      <c r="E221" s="116"/>
+      <c r="F221" s="116"/>
+      <c r="G221" s="116"/>
+      <c r="H221" s="116"/>
+      <c r="I221" s="116"/>
+      <c r="J221" s="116"/>
+      <c r="K221" s="124"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -22805,16 +22882,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="115" t="s">
+      <c r="D222" s="130" t="s">
         <v>367</v>
       </c>
-      <c r="E222" s="116"/>
-      <c r="F222" s="116"/>
-      <c r="G222" s="116"/>
-      <c r="H222" s="116"/>
-      <c r="I222" s="116"/>
-      <c r="J222" s="116"/>
-      <c r="K222" s="117"/>
+      <c r="E222" s="131"/>
+      <c r="F222" s="131"/>
+      <c r="G222" s="131"/>
+      <c r="H222" s="131"/>
+      <c r="I222" s="131"/>
+      <c r="J222" s="131"/>
+      <c r="K222" s="132"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -22845,16 +22922,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="115" t="s">
+      <c r="D224" s="130" t="s">
         <v>368</v>
       </c>
-      <c r="E224" s="116"/>
-      <c r="F224" s="116"/>
-      <c r="G224" s="116"/>
-      <c r="H224" s="116"/>
-      <c r="I224" s="116"/>
-      <c r="J224" s="116"/>
-      <c r="K224" s="117"/>
+      <c r="E224" s="131"/>
+      <c r="F224" s="131"/>
+      <c r="G224" s="131"/>
+      <c r="H224" s="131"/>
+      <c r="I224" s="131"/>
+      <c r="J224" s="131"/>
+      <c r="K224" s="132"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -22888,16 +22965,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="127" t="s">
+      <c r="D226" s="135" t="s">
         <v>369</v>
       </c>
-      <c r="E226" s="128"/>
-      <c r="F226" s="128"/>
-      <c r="G226" s="128"/>
-      <c r="H226" s="128"/>
-      <c r="I226" s="128"/>
-      <c r="J226" s="128"/>
-      <c r="K226" s="129"/>
+      <c r="E226" s="136"/>
+      <c r="F226" s="136"/>
+      <c r="G226" s="136"/>
+      <c r="H226" s="136"/>
+      <c r="I226" s="136"/>
+      <c r="J226" s="136"/>
+      <c r="K226" s="137"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -23042,16 +23119,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="130" t="s">
+      <c r="D234" s="125" t="s">
         <v>370</v>
       </c>
-      <c r="E234" s="131"/>
-      <c r="F234" s="131"/>
-      <c r="G234" s="131"/>
-      <c r="H234" s="131"/>
-      <c r="I234" s="131"/>
-      <c r="J234" s="131"/>
-      <c r="K234" s="132"/>
+      <c r="E234" s="126"/>
+      <c r="F234" s="126"/>
+      <c r="G234" s="126"/>
+      <c r="H234" s="126"/>
+      <c r="I234" s="126"/>
+      <c r="J234" s="126"/>
+      <c r="K234" s="127"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -23120,16 +23197,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="135" t="s">
+      <c r="D238" s="112" t="s">
         <v>371</v>
       </c>
-      <c r="E238" s="136"/>
-      <c r="F238" s="136"/>
-      <c r="G238" s="136"/>
-      <c r="H238" s="136"/>
-      <c r="I238" s="136"/>
-      <c r="J238" s="136"/>
-      <c r="K238" s="137"/>
+      <c r="E238" s="113"/>
+      <c r="F238" s="113"/>
+      <c r="G238" s="113"/>
+      <c r="H238" s="113"/>
+      <c r="I238" s="113"/>
+      <c r="J238" s="113"/>
+      <c r="K238" s="114"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -23141,14 +23218,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="143"/>
-      <c r="E239" s="122"/>
-      <c r="F239" s="122"/>
-      <c r="G239" s="122"/>
-      <c r="H239" s="122"/>
-      <c r="I239" s="122"/>
-      <c r="J239" s="122"/>
-      <c r="K239" s="144"/>
+      <c r="D239" s="115"/>
+      <c r="E239" s="116"/>
+      <c r="F239" s="116"/>
+      <c r="G239" s="116"/>
+      <c r="H239" s="116"/>
+      <c r="I239" s="116"/>
+      <c r="J239" s="116"/>
+      <c r="K239" s="117"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -23160,16 +23237,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="136" t="s">
+      <c r="D240" s="113" t="s">
         <v>372</v>
       </c>
-      <c r="E240" s="136"/>
-      <c r="F240" s="136"/>
-      <c r="G240" s="136"/>
-      <c r="H240" s="136"/>
-      <c r="I240" s="136"/>
-      <c r="J240" s="136"/>
-      <c r="K240" s="137"/>
+      <c r="E240" s="113"/>
+      <c r="F240" s="113"/>
+      <c r="G240" s="113"/>
+      <c r="H240" s="113"/>
+      <c r="I240" s="113"/>
+      <c r="J240" s="113"/>
+      <c r="K240" s="114"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -23181,14 +23258,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="145"/>
-      <c r="E241" s="145"/>
-      <c r="F241" s="145"/>
-      <c r="G241" s="145"/>
-      <c r="H241" s="145"/>
-      <c r="I241" s="145"/>
-      <c r="J241" s="145"/>
-      <c r="K241" s="146"/>
+      <c r="D241" s="133"/>
+      <c r="E241" s="133"/>
+      <c r="F241" s="133"/>
+      <c r="G241" s="133"/>
+      <c r="H241" s="133"/>
+      <c r="I241" s="133"/>
+      <c r="J241" s="133"/>
+      <c r="K241" s="134"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -23379,16 +23456,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="133" t="s">
+      <c r="D250" s="128" t="s">
         <v>373</v>
       </c>
-      <c r="E250" s="131"/>
-      <c r="F250" s="131"/>
-      <c r="G250" s="131"/>
-      <c r="H250" s="131"/>
-      <c r="I250" s="131"/>
-      <c r="J250" s="131"/>
-      <c r="K250" s="134"/>
+      <c r="E250" s="126"/>
+      <c r="F250" s="126"/>
+      <c r="G250" s="126"/>
+      <c r="H250" s="126"/>
+      <c r="I250" s="126"/>
+      <c r="J250" s="126"/>
+      <c r="K250" s="129"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -23957,16 +24034,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="115" t="s">
+      <c r="D280" s="130" t="s">
         <v>374</v>
       </c>
-      <c r="E280" s="116"/>
-      <c r="F280" s="116"/>
-      <c r="G280" s="116"/>
-      <c r="H280" s="116"/>
-      <c r="I280" s="116"/>
-      <c r="J280" s="116"/>
-      <c r="K280" s="117"/>
+      <c r="E280" s="131"/>
+      <c r="F280" s="131"/>
+      <c r="G280" s="131"/>
+      <c r="H280" s="131"/>
+      <c r="I280" s="131"/>
+      <c r="J280" s="131"/>
+      <c r="K280" s="132"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -24073,16 +24150,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="115" t="s">
+      <c r="D286" s="130" t="s">
         <v>375</v>
       </c>
-      <c r="E286" s="116"/>
-      <c r="F286" s="116"/>
-      <c r="G286" s="116"/>
-      <c r="H286" s="116"/>
-      <c r="I286" s="116"/>
-      <c r="J286" s="116"/>
-      <c r="K286" s="117"/>
+      <c r="E286" s="131"/>
+      <c r="F286" s="131"/>
+      <c r="G286" s="131"/>
+      <c r="H286" s="131"/>
+      <c r="I286" s="131"/>
+      <c r="J286" s="131"/>
+      <c r="K286" s="132"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -24270,16 +24347,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="115" t="s">
+      <c r="D296" s="130" t="s">
         <v>377</v>
       </c>
-      <c r="E296" s="116"/>
-      <c r="F296" s="116"/>
-      <c r="G296" s="116"/>
-      <c r="H296" s="116"/>
-      <c r="I296" s="116"/>
-      <c r="J296" s="116"/>
-      <c r="K296" s="117"/>
+      <c r="E296" s="131"/>
+      <c r="F296" s="131"/>
+      <c r="G296" s="131"/>
+      <c r="H296" s="131"/>
+      <c r="I296" s="131"/>
+      <c r="J296" s="131"/>
+      <c r="K296" s="132"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -24310,16 +24387,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="135" t="s">
+      <c r="D298" s="112" t="s">
         <v>378</v>
       </c>
-      <c r="E298" s="136"/>
-      <c r="F298" s="136"/>
-      <c r="G298" s="136"/>
-      <c r="H298" s="136"/>
-      <c r="I298" s="136"/>
-      <c r="J298" s="136"/>
-      <c r="K298" s="137"/>
+      <c r="E298" s="113"/>
+      <c r="F298" s="113"/>
+      <c r="G298" s="113"/>
+      <c r="H298" s="113"/>
+      <c r="I298" s="113"/>
+      <c r="J298" s="113"/>
+      <c r="K298" s="114"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -24331,14 +24408,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="143"/>
-      <c r="E299" s="122"/>
-      <c r="F299" s="122"/>
-      <c r="G299" s="122"/>
-      <c r="H299" s="122"/>
-      <c r="I299" s="122"/>
-      <c r="J299" s="122"/>
-      <c r="K299" s="144"/>
+      <c r="D299" s="115"/>
+      <c r="E299" s="116"/>
+      <c r="F299" s="116"/>
+      <c r="G299" s="116"/>
+      <c r="H299" s="116"/>
+      <c r="I299" s="116"/>
+      <c r="J299" s="116"/>
+      <c r="K299" s="117"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -24350,16 +24427,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="135" t="s">
+      <c r="D300" s="112" t="s">
         <v>379</v>
       </c>
-      <c r="E300" s="136"/>
-      <c r="F300" s="136"/>
-      <c r="G300" s="136"/>
-      <c r="H300" s="136"/>
-      <c r="I300" s="136"/>
-      <c r="J300" s="136"/>
-      <c r="K300" s="137"/>
+      <c r="E300" s="113"/>
+      <c r="F300" s="113"/>
+      <c r="G300" s="113"/>
+      <c r="H300" s="113"/>
+      <c r="I300" s="113"/>
+      <c r="J300" s="113"/>
+      <c r="K300" s="114"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -24371,14 +24448,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="143"/>
-      <c r="E301" s="122"/>
-      <c r="F301" s="122"/>
-      <c r="G301" s="122"/>
-      <c r="H301" s="122"/>
-      <c r="I301" s="122"/>
-      <c r="J301" s="122"/>
-      <c r="K301" s="144"/>
+      <c r="D301" s="115"/>
+      <c r="E301" s="116"/>
+      <c r="F301" s="116"/>
+      <c r="G301" s="116"/>
+      <c r="H301" s="116"/>
+      <c r="I301" s="116"/>
+      <c r="J301" s="116"/>
+      <c r="K301" s="117"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -24390,16 +24467,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="135" t="s">
+      <c r="D302" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="E302" s="136"/>
-      <c r="F302" s="136"/>
-      <c r="G302" s="136"/>
-      <c r="H302" s="136"/>
-      <c r="I302" s="136"/>
-      <c r="J302" s="136"/>
-      <c r="K302" s="137"/>
+      <c r="E302" s="113"/>
+      <c r="F302" s="113"/>
+      <c r="G302" s="113"/>
+      <c r="H302" s="113"/>
+      <c r="I302" s="113"/>
+      <c r="J302" s="113"/>
+      <c r="K302" s="114"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -24411,14 +24488,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="143"/>
-      <c r="E303" s="122"/>
-      <c r="F303" s="122"/>
-      <c r="G303" s="122"/>
-      <c r="H303" s="122"/>
-      <c r="I303" s="122"/>
-      <c r="J303" s="122"/>
-      <c r="K303" s="144"/>
+      <c r="D303" s="115"/>
+      <c r="E303" s="116"/>
+      <c r="F303" s="116"/>
+      <c r="G303" s="116"/>
+      <c r="H303" s="116"/>
+      <c r="I303" s="116"/>
+      <c r="J303" s="116"/>
+      <c r="K303" s="117"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -24430,16 +24507,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="135" t="s">
+      <c r="D304" s="112" t="s">
         <v>381</v>
       </c>
-      <c r="E304" s="136"/>
-      <c r="F304" s="136"/>
-      <c r="G304" s="136"/>
-      <c r="H304" s="136"/>
-      <c r="I304" s="136"/>
-      <c r="J304" s="136"/>
-      <c r="K304" s="137"/>
+      <c r="E304" s="113"/>
+      <c r="F304" s="113"/>
+      <c r="G304" s="113"/>
+      <c r="H304" s="113"/>
+      <c r="I304" s="113"/>
+      <c r="J304" s="113"/>
+      <c r="K304" s="114"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -24451,14 +24528,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="143"/>
-      <c r="E305" s="122"/>
-      <c r="F305" s="122"/>
-      <c r="G305" s="122"/>
-      <c r="H305" s="122"/>
-      <c r="I305" s="122"/>
-      <c r="J305" s="122"/>
-      <c r="K305" s="144"/>
+      <c r="D305" s="115"/>
+      <c r="E305" s="116"/>
+      <c r="F305" s="116"/>
+      <c r="G305" s="116"/>
+      <c r="H305" s="116"/>
+      <c r="I305" s="116"/>
+      <c r="J305" s="116"/>
+      <c r="K305" s="117"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -24473,16 +24550,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="135" t="s">
+      <c r="D306" s="112" t="s">
         <v>382</v>
       </c>
-      <c r="E306" s="136"/>
-      <c r="F306" s="136"/>
-      <c r="G306" s="136"/>
-      <c r="H306" s="136"/>
-      <c r="I306" s="136"/>
-      <c r="J306" s="136"/>
-      <c r="K306" s="137"/>
+      <c r="E306" s="113"/>
+      <c r="F306" s="113"/>
+      <c r="G306" s="113"/>
+      <c r="H306" s="113"/>
+      <c r="I306" s="113"/>
+      <c r="J306" s="113"/>
+      <c r="K306" s="114"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -24494,14 +24571,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="143"/>
-      <c r="E307" s="122"/>
-      <c r="F307" s="122"/>
-      <c r="G307" s="122"/>
-      <c r="H307" s="122"/>
-      <c r="I307" s="122"/>
-      <c r="J307" s="122"/>
-      <c r="K307" s="144"/>
+      <c r="D307" s="115"/>
+      <c r="E307" s="116"/>
+      <c r="F307" s="116"/>
+      <c r="G307" s="116"/>
+      <c r="H307" s="116"/>
+      <c r="I307" s="116"/>
+      <c r="J307" s="116"/>
+      <c r="K307" s="117"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -24513,16 +24590,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="135" t="s">
+      <c r="D308" s="112" t="s">
         <v>383</v>
       </c>
-      <c r="E308" s="136"/>
-      <c r="F308" s="136"/>
-      <c r="G308" s="136"/>
-      <c r="H308" s="136"/>
-      <c r="I308" s="136"/>
-      <c r="J308" s="136"/>
-      <c r="K308" s="137"/>
+      <c r="E308" s="113"/>
+      <c r="F308" s="113"/>
+      <c r="G308" s="113"/>
+      <c r="H308" s="113"/>
+      <c r="I308" s="113"/>
+      <c r="J308" s="113"/>
+      <c r="K308" s="114"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -24534,14 +24611,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="143"/>
-      <c r="E309" s="122"/>
-      <c r="F309" s="122"/>
-      <c r="G309" s="122"/>
-      <c r="H309" s="122"/>
-      <c r="I309" s="122"/>
-      <c r="J309" s="122"/>
-      <c r="K309" s="144"/>
+      <c r="D309" s="115"/>
+      <c r="E309" s="116"/>
+      <c r="F309" s="116"/>
+      <c r="G309" s="116"/>
+      <c r="H309" s="116"/>
+      <c r="I309" s="116"/>
+      <c r="J309" s="116"/>
+      <c r="K309" s="117"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -28421,12 +28498,29 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="D214:K214"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="D202:K202"/>
     <mergeCell ref="D280:K280"/>
     <mergeCell ref="D286:K286"/>
     <mergeCell ref="D296:K296"/>
@@ -28443,29 +28537,12 @@
     <mergeCell ref="D250:K250"/>
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="D214:K214"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D200:K200"/>
-    <mergeCell ref="D202:K202"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape"/>

--- a/data/Switches.xlsx
+++ b/data/Switches.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="424">
   <si>
     <t>ID</t>
   </si>
@@ -1286,6 +1286,9 @@
   </si>
   <si>
     <t>Give away Journal</t>
+  </si>
+  <si>
+    <t>Great Wall Hidden DS</t>
   </si>
 </sst>
 </file>
@@ -2389,52 +2392,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2452,10 +2449,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2464,31 +2464,34 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2800,9 +2803,9 @@
   </sheetPr>
   <dimension ref="A1:O513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2875,16 +2878,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="147" t="s">
+      <c r="D2" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="144"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="125"/>
       <c r="L2" s="119" t="s">
         <v>7</v>
       </c>
@@ -2902,14 +2905,14 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="150"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="131"/>
       <c r="L3" s="119" t="s">
         <v>8</v>
       </c>
@@ -4038,7 +4041,7 @@
         <f t="shared" si="1"/>
         <v>232-239</v>
       </c>
-      <c r="D31" s="155" t="s">
+      <c r="D31" s="122" t="s">
         <v>422</v>
       </c>
       <c r="E31" s="25" t="s">
@@ -4639,8 +4642,8 @@
       <c r="F48" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="G48" s="22" t="s">
-        <v>321</v>
+      <c r="G48" s="26" t="s">
+        <v>423</v>
       </c>
       <c r="H48" s="49" t="s">
         <v>322</v>
@@ -8966,16 +8969,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="122" t="s">
+      <c r="D168" s="155" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="122"/>
-      <c r="F168" s="122"/>
-      <c r="G168" s="122"/>
-      <c r="H168" s="122"/>
-      <c r="I168" s="122"/>
-      <c r="J168" s="122"/>
-      <c r="K168" s="122"/>
+      <c r="E168" s="155"/>
+      <c r="F168" s="155"/>
+      <c r="G168" s="155"/>
+      <c r="H168" s="155"/>
+      <c r="I168" s="155"/>
+      <c r="J168" s="155"/>
+      <c r="K168" s="155"/>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="12">
@@ -9101,16 +9104,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="122" t="s">
+      <c r="D175" s="155" t="s">
         <v>349</v>
       </c>
-      <c r="E175" s="122"/>
-      <c r="F175" s="122"/>
-      <c r="G175" s="122"/>
-      <c r="H175" s="122"/>
-      <c r="I175" s="122"/>
-      <c r="J175" s="122"/>
-      <c r="K175" s="122"/>
+      <c r="E175" s="155"/>
+      <c r="F175" s="155"/>
+      <c r="G175" s="155"/>
+      <c r="H175" s="155"/>
+      <c r="I175" s="155"/>
+      <c r="J175" s="155"/>
+      <c r="K175" s="155"/>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="12">
@@ -9163,16 +9166,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="122" t="s">
+      <c r="D178" s="155" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="122"/>
-      <c r="F178" s="122"/>
-      <c r="G178" s="122"/>
-      <c r="H178" s="122"/>
-      <c r="I178" s="122"/>
-      <c r="J178" s="122"/>
-      <c r="K178" s="122"/>
+      <c r="E178" s="155"/>
+      <c r="F178" s="155"/>
+      <c r="G178" s="155"/>
+      <c r="H178" s="155"/>
+      <c r="I178" s="155"/>
+      <c r="J178" s="155"/>
+      <c r="K178" s="155"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -9241,16 +9244,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="123" t="s">
+      <c r="D182" s="141" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="124"/>
-      <c r="F182" s="124"/>
-      <c r="G182" s="124"/>
-      <c r="H182" s="124"/>
-      <c r="I182" s="124"/>
-      <c r="J182" s="124"/>
-      <c r="K182" s="125"/>
+      <c r="E182" s="142"/>
+      <c r="F182" s="142"/>
+      <c r="G182" s="142"/>
+      <c r="H182" s="142"/>
+      <c r="I182" s="142"/>
+      <c r="J182" s="142"/>
+      <c r="K182" s="143"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -9262,16 +9265,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="123" t="s">
+      <c r="D183" s="141" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="124"/>
-      <c r="F183" s="124"/>
-      <c r="G183" s="124"/>
-      <c r="H183" s="124"/>
-      <c r="I183" s="124"/>
-      <c r="J183" s="124"/>
-      <c r="K183" s="125"/>
+      <c r="E183" s="142"/>
+      <c r="F183" s="142"/>
+      <c r="G183" s="142"/>
+      <c r="H183" s="142"/>
+      <c r="I183" s="142"/>
+      <c r="J183" s="142"/>
+      <c r="K183" s="143"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -9283,16 +9286,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="123" t="s">
+      <c r="D184" s="141" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="124"/>
-      <c r="F184" s="124"/>
-      <c r="G184" s="124"/>
-      <c r="H184" s="124"/>
-      <c r="I184" s="124"/>
-      <c r="J184" s="124"/>
-      <c r="K184" s="125"/>
+      <c r="E184" s="142"/>
+      <c r="F184" s="142"/>
+      <c r="G184" s="142"/>
+      <c r="H184" s="142"/>
+      <c r="I184" s="142"/>
+      <c r="J184" s="142"/>
+      <c r="K184" s="143"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -9304,16 +9307,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="123" t="s">
+      <c r="D185" s="141" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="124"/>
-      <c r="F185" s="124"/>
-      <c r="G185" s="124"/>
-      <c r="H185" s="124"/>
-      <c r="I185" s="124"/>
-      <c r="J185" s="124"/>
-      <c r="K185" s="125"/>
+      <c r="E185" s="142"/>
+      <c r="F185" s="142"/>
+      <c r="G185" s="142"/>
+      <c r="H185" s="142"/>
+      <c r="I185" s="142"/>
+      <c r="J185" s="142"/>
+      <c r="K185" s="143"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -9325,16 +9328,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="123" t="s">
+      <c r="D186" s="141" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="124"/>
-      <c r="F186" s="124"/>
-      <c r="G186" s="124"/>
-      <c r="H186" s="124"/>
-      <c r="I186" s="124"/>
-      <c r="J186" s="124"/>
-      <c r="K186" s="125"/>
+      <c r="E186" s="142"/>
+      <c r="F186" s="142"/>
+      <c r="G186" s="142"/>
+      <c r="H186" s="142"/>
+      <c r="I186" s="142"/>
+      <c r="J186" s="142"/>
+      <c r="K186" s="143"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -9346,16 +9349,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="123" t="s">
+      <c r="D187" s="141" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="124"/>
-      <c r="F187" s="124"/>
-      <c r="G187" s="124"/>
-      <c r="H187" s="124"/>
-      <c r="I187" s="124"/>
-      <c r="J187" s="124"/>
-      <c r="K187" s="125"/>
+      <c r="E187" s="142"/>
+      <c r="F187" s="142"/>
+      <c r="G187" s="142"/>
+      <c r="H187" s="142"/>
+      <c r="I187" s="142"/>
+      <c r="J187" s="142"/>
+      <c r="K187" s="143"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -9367,16 +9370,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="123" t="s">
+      <c r="D188" s="141" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="124"/>
-      <c r="F188" s="124"/>
-      <c r="G188" s="124"/>
-      <c r="H188" s="124"/>
-      <c r="I188" s="124"/>
-      <c r="J188" s="124"/>
-      <c r="K188" s="125"/>
+      <c r="E188" s="142"/>
+      <c r="F188" s="142"/>
+      <c r="G188" s="142"/>
+      <c r="H188" s="142"/>
+      <c r="I188" s="142"/>
+      <c r="J188" s="142"/>
+      <c r="K188" s="143"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -9388,16 +9391,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="123" t="s">
+      <c r="D189" s="141" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="124"/>
-      <c r="F189" s="124"/>
-      <c r="G189" s="124"/>
-      <c r="H189" s="124"/>
-      <c r="I189" s="124"/>
-      <c r="J189" s="124"/>
-      <c r="K189" s="125"/>
+      <c r="E189" s="142"/>
+      <c r="F189" s="142"/>
+      <c r="G189" s="142"/>
+      <c r="H189" s="142"/>
+      <c r="I189" s="142"/>
+      <c r="J189" s="142"/>
+      <c r="K189" s="143"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -9409,16 +9412,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="123" t="s">
+      <c r="D190" s="141" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="124"/>
-      <c r="F190" s="124"/>
-      <c r="G190" s="124"/>
-      <c r="H190" s="124"/>
-      <c r="I190" s="124"/>
-      <c r="J190" s="124"/>
-      <c r="K190" s="125"/>
+      <c r="E190" s="142"/>
+      <c r="F190" s="142"/>
+      <c r="G190" s="142"/>
+      <c r="H190" s="142"/>
+      <c r="I190" s="142"/>
+      <c r="J190" s="142"/>
+      <c r="K190" s="143"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -9430,16 +9433,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="123" t="s">
+      <c r="D191" s="141" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="124"/>
-      <c r="F191" s="124"/>
-      <c r="G191" s="124"/>
-      <c r="H191" s="124"/>
-      <c r="I191" s="124"/>
-      <c r="J191" s="124"/>
-      <c r="K191" s="125"/>
+      <c r="E191" s="142"/>
+      <c r="F191" s="142"/>
+      <c r="G191" s="142"/>
+      <c r="H191" s="142"/>
+      <c r="I191" s="142"/>
+      <c r="J191" s="142"/>
+      <c r="K191" s="143"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -9451,16 +9454,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="123" t="s">
+      <c r="D192" s="141" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="124"/>
-      <c r="F192" s="124"/>
-      <c r="G192" s="124"/>
-      <c r="H192" s="124"/>
-      <c r="I192" s="124"/>
-      <c r="J192" s="124"/>
-      <c r="K192" s="125"/>
+      <c r="E192" s="142"/>
+      <c r="F192" s="142"/>
+      <c r="G192" s="142"/>
+      <c r="H192" s="142"/>
+      <c r="I192" s="142"/>
+      <c r="J192" s="142"/>
+      <c r="K192" s="143"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -9472,16 +9475,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="126" t="s">
+      <c r="D193" s="152" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="127"/>
-      <c r="F193" s="127"/>
-      <c r="G193" s="127"/>
-      <c r="H193" s="127"/>
-      <c r="I193" s="127"/>
-      <c r="J193" s="127"/>
-      <c r="K193" s="128"/>
+      <c r="E193" s="153"/>
+      <c r="F193" s="153"/>
+      <c r="G193" s="153"/>
+      <c r="H193" s="153"/>
+      <c r="I193" s="153"/>
+      <c r="J193" s="153"/>
+      <c r="K193" s="154"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -9496,16 +9499,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="129" t="s">
+      <c r="D194" s="134" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="130"/>
-      <c r="F194" s="130"/>
-      <c r="G194" s="130"/>
-      <c r="H194" s="130"/>
-      <c r="I194" s="130"/>
-      <c r="J194" s="130"/>
-      <c r="K194" s="131"/>
+      <c r="E194" s="127"/>
+      <c r="F194" s="127"/>
+      <c r="G194" s="127"/>
+      <c r="H194" s="127"/>
+      <c r="I194" s="127"/>
+      <c r="J194" s="127"/>
+      <c r="K194" s="135"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -9517,16 +9520,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="123" t="s">
+      <c r="D195" s="141" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="124"/>
-      <c r="F195" s="124"/>
-      <c r="G195" s="124"/>
-      <c r="H195" s="124"/>
-      <c r="I195" s="124"/>
-      <c r="J195" s="124"/>
-      <c r="K195" s="125"/>
+      <c r="E195" s="142"/>
+      <c r="F195" s="142"/>
+      <c r="G195" s="142"/>
+      <c r="H195" s="142"/>
+      <c r="I195" s="142"/>
+      <c r="J195" s="142"/>
+      <c r="K195" s="143"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -9538,16 +9541,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="123" t="s">
+      <c r="D196" s="141" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="124"/>
-      <c r="F196" s="124"/>
-      <c r="G196" s="124"/>
-      <c r="H196" s="124"/>
-      <c r="I196" s="124"/>
-      <c r="J196" s="124"/>
-      <c r="K196" s="125"/>
+      <c r="E196" s="142"/>
+      <c r="F196" s="142"/>
+      <c r="G196" s="142"/>
+      <c r="H196" s="142"/>
+      <c r="I196" s="142"/>
+      <c r="J196" s="142"/>
+      <c r="K196" s="143"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -9559,16 +9562,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="123" t="s">
+      <c r="D197" s="141" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="124"/>
-      <c r="F197" s="124"/>
-      <c r="G197" s="124"/>
-      <c r="H197" s="124"/>
-      <c r="I197" s="124"/>
-      <c r="J197" s="124"/>
-      <c r="K197" s="125"/>
+      <c r="E197" s="142"/>
+      <c r="F197" s="142"/>
+      <c r="G197" s="142"/>
+      <c r="H197" s="142"/>
+      <c r="I197" s="142"/>
+      <c r="J197" s="142"/>
+      <c r="K197" s="143"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -9580,16 +9583,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="123" t="s">
+      <c r="D198" s="141" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="124"/>
-      <c r="F198" s="124"/>
-      <c r="G198" s="124"/>
-      <c r="H198" s="124"/>
-      <c r="I198" s="124"/>
-      <c r="J198" s="124"/>
-      <c r="K198" s="125"/>
+      <c r="E198" s="142"/>
+      <c r="F198" s="142"/>
+      <c r="G198" s="142"/>
+      <c r="H198" s="142"/>
+      <c r="I198" s="142"/>
+      <c r="J198" s="142"/>
+      <c r="K198" s="143"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -9620,16 +9623,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="123" t="s">
+      <c r="D200" s="141" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="124"/>
-      <c r="F200" s="124"/>
-      <c r="G200" s="124"/>
-      <c r="H200" s="124"/>
-      <c r="I200" s="124"/>
-      <c r="J200" s="124"/>
-      <c r="K200" s="125"/>
+      <c r="E200" s="142"/>
+      <c r="F200" s="142"/>
+      <c r="G200" s="142"/>
+      <c r="H200" s="142"/>
+      <c r="I200" s="142"/>
+      <c r="J200" s="142"/>
+      <c r="K200" s="143"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -9660,16 +9663,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="132" t="s">
+      <c r="D202" s="149" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="133"/>
-      <c r="F202" s="133"/>
-      <c r="G202" s="133"/>
-      <c r="H202" s="133"/>
-      <c r="I202" s="133"/>
-      <c r="J202" s="133"/>
-      <c r="K202" s="134"/>
+      <c r="E202" s="150"/>
+      <c r="F202" s="150"/>
+      <c r="G202" s="150"/>
+      <c r="H202" s="150"/>
+      <c r="I202" s="150"/>
+      <c r="J202" s="150"/>
+      <c r="K202" s="151"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -9700,16 +9703,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="123" t="s">
+      <c r="D204" s="141" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="124"/>
-      <c r="F204" s="124"/>
-      <c r="G204" s="124"/>
-      <c r="H204" s="124"/>
-      <c r="I204" s="124"/>
-      <c r="J204" s="124"/>
-      <c r="K204" s="125"/>
+      <c r="E204" s="142"/>
+      <c r="F204" s="142"/>
+      <c r="G204" s="142"/>
+      <c r="H204" s="142"/>
+      <c r="I204" s="142"/>
+      <c r="J204" s="142"/>
+      <c r="K204" s="143"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -9740,16 +9743,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="123" t="s">
+      <c r="D206" s="141" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="124"/>
-      <c r="F206" s="124"/>
-      <c r="G206" s="124"/>
-      <c r="H206" s="124"/>
-      <c r="I206" s="124"/>
-      <c r="J206" s="124"/>
-      <c r="K206" s="125"/>
+      <c r="E206" s="142"/>
+      <c r="F206" s="142"/>
+      <c r="G206" s="142"/>
+      <c r="H206" s="142"/>
+      <c r="I206" s="142"/>
+      <c r="J206" s="142"/>
+      <c r="K206" s="143"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -9780,16 +9783,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="123" t="s">
+      <c r="D208" s="141" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="124"/>
-      <c r="F208" s="124"/>
-      <c r="G208" s="124"/>
-      <c r="H208" s="124"/>
-      <c r="I208" s="124"/>
-      <c r="J208" s="124"/>
-      <c r="K208" s="125"/>
+      <c r="E208" s="142"/>
+      <c r="F208" s="142"/>
+      <c r="G208" s="142"/>
+      <c r="H208" s="142"/>
+      <c r="I208" s="142"/>
+      <c r="J208" s="142"/>
+      <c r="K208" s="143"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -9823,16 +9826,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="129" t="s">
+      <c r="D210" s="134" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="130"/>
-      <c r="F210" s="130"/>
-      <c r="G210" s="130"/>
-      <c r="H210" s="130"/>
-      <c r="I210" s="130"/>
-      <c r="J210" s="130"/>
-      <c r="K210" s="131"/>
+      <c r="E210" s="127"/>
+      <c r="F210" s="127"/>
+      <c r="G210" s="127"/>
+      <c r="H210" s="127"/>
+      <c r="I210" s="127"/>
+      <c r="J210" s="127"/>
+      <c r="K210" s="135"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -9901,16 +9904,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="123" t="s">
+      <c r="D214" s="141" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="124"/>
-      <c r="F214" s="124"/>
-      <c r="G214" s="124"/>
-      <c r="H214" s="124"/>
-      <c r="I214" s="124"/>
-      <c r="J214" s="124"/>
-      <c r="K214" s="125"/>
+      <c r="E214" s="142"/>
+      <c r="F214" s="142"/>
+      <c r="G214" s="142"/>
+      <c r="H214" s="142"/>
+      <c r="I214" s="142"/>
+      <c r="J214" s="142"/>
+      <c r="K214" s="143"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -9941,16 +9944,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="151" t="s">
+      <c r="D216" s="132" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="143"/>
-      <c r="F216" s="143"/>
-      <c r="G216" s="143"/>
-      <c r="H216" s="143"/>
-      <c r="I216" s="143"/>
-      <c r="J216" s="143"/>
-      <c r="K216" s="152"/>
+      <c r="E216" s="124"/>
+      <c r="F216" s="124"/>
+      <c r="G216" s="124"/>
+      <c r="H216" s="124"/>
+      <c r="I216" s="124"/>
+      <c r="J216" s="124"/>
+      <c r="K216" s="133"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -9962,14 +9965,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="129"/>
-      <c r="E217" s="130"/>
-      <c r="F217" s="130"/>
-      <c r="G217" s="130"/>
-      <c r="H217" s="130"/>
-      <c r="I217" s="130"/>
-      <c r="J217" s="130"/>
-      <c r="K217" s="131"/>
+      <c r="D217" s="134"/>
+      <c r="E217" s="127"/>
+      <c r="F217" s="127"/>
+      <c r="G217" s="127"/>
+      <c r="H217" s="127"/>
+      <c r="I217" s="127"/>
+      <c r="J217" s="127"/>
+      <c r="K217" s="135"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -9981,16 +9984,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="151" t="s">
+      <c r="D218" s="132" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="143"/>
-      <c r="F218" s="143"/>
-      <c r="G218" s="143"/>
-      <c r="H218" s="143"/>
-      <c r="I218" s="143"/>
-      <c r="J218" s="143"/>
-      <c r="K218" s="152"/>
+      <c r="E218" s="124"/>
+      <c r="F218" s="124"/>
+      <c r="G218" s="124"/>
+      <c r="H218" s="124"/>
+      <c r="I218" s="124"/>
+      <c r="J218" s="124"/>
+      <c r="K218" s="133"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -10002,14 +10005,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="129"/>
-      <c r="E219" s="130"/>
-      <c r="F219" s="130"/>
-      <c r="G219" s="130"/>
-      <c r="H219" s="130"/>
-      <c r="I219" s="130"/>
-      <c r="J219" s="130"/>
-      <c r="K219" s="131"/>
+      <c r="D219" s="134"/>
+      <c r="E219" s="127"/>
+      <c r="F219" s="127"/>
+      <c r="G219" s="127"/>
+      <c r="H219" s="127"/>
+      <c r="I219" s="127"/>
+      <c r="J219" s="127"/>
+      <c r="K219" s="135"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -10021,16 +10024,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="151" t="s">
+      <c r="D220" s="132" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="143"/>
-      <c r="F220" s="143"/>
-      <c r="G220" s="143"/>
-      <c r="H220" s="143"/>
-      <c r="I220" s="143"/>
-      <c r="J220" s="143"/>
-      <c r="K220" s="152"/>
+      <c r="E220" s="124"/>
+      <c r="F220" s="124"/>
+      <c r="G220" s="124"/>
+      <c r="H220" s="124"/>
+      <c r="I220" s="124"/>
+      <c r="J220" s="124"/>
+      <c r="K220" s="133"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -10042,14 +10045,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="129"/>
-      <c r="E221" s="130"/>
-      <c r="F221" s="130"/>
-      <c r="G221" s="130"/>
-      <c r="H221" s="130"/>
-      <c r="I221" s="130"/>
-      <c r="J221" s="130"/>
-      <c r="K221" s="131"/>
+      <c r="D221" s="134"/>
+      <c r="E221" s="127"/>
+      <c r="F221" s="127"/>
+      <c r="G221" s="127"/>
+      <c r="H221" s="127"/>
+      <c r="I221" s="127"/>
+      <c r="J221" s="127"/>
+      <c r="K221" s="135"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -10061,16 +10064,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="123" t="s">
+      <c r="D222" s="141" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="124"/>
-      <c r="F222" s="124"/>
-      <c r="G222" s="124"/>
-      <c r="H222" s="124"/>
-      <c r="I222" s="124"/>
-      <c r="J222" s="124"/>
-      <c r="K222" s="125"/>
+      <c r="E222" s="142"/>
+      <c r="F222" s="142"/>
+      <c r="G222" s="142"/>
+      <c r="H222" s="142"/>
+      <c r="I222" s="142"/>
+      <c r="J222" s="142"/>
+      <c r="K222" s="143"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -10101,16 +10104,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="123" t="s">
+      <c r="D224" s="141" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="124"/>
-      <c r="F224" s="124"/>
-      <c r="G224" s="124"/>
-      <c r="H224" s="124"/>
-      <c r="I224" s="124"/>
-      <c r="J224" s="124"/>
-      <c r="K224" s="125"/>
+      <c r="E224" s="142"/>
+      <c r="F224" s="142"/>
+      <c r="G224" s="142"/>
+      <c r="H224" s="142"/>
+      <c r="I224" s="142"/>
+      <c r="J224" s="142"/>
+      <c r="K224" s="143"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -10144,16 +10147,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="135" t="s">
+      <c r="D226" s="146" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="136"/>
-      <c r="F226" s="136"/>
-      <c r="G226" s="136"/>
-      <c r="H226" s="136"/>
-      <c r="I226" s="136"/>
-      <c r="J226" s="136"/>
-      <c r="K226" s="137"/>
+      <c r="E226" s="147"/>
+      <c r="F226" s="147"/>
+      <c r="G226" s="147"/>
+      <c r="H226" s="147"/>
+      <c r="I226" s="147"/>
+      <c r="J226" s="147"/>
+      <c r="K226" s="148"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -10298,16 +10301,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="138" t="s">
+      <c r="D234" s="136" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="139"/>
-      <c r="F234" s="139"/>
-      <c r="G234" s="139"/>
-      <c r="H234" s="139"/>
-      <c r="I234" s="139"/>
-      <c r="J234" s="139"/>
-      <c r="K234" s="140"/>
+      <c r="E234" s="137"/>
+      <c r="F234" s="137"/>
+      <c r="G234" s="137"/>
+      <c r="H234" s="137"/>
+      <c r="I234" s="137"/>
+      <c r="J234" s="137"/>
+      <c r="K234" s="138"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -10376,16 +10379,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="147" t="s">
+      <c r="D238" s="123" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="143"/>
-      <c r="F238" s="143"/>
-      <c r="G238" s="143"/>
-      <c r="H238" s="143"/>
-      <c r="I238" s="143"/>
-      <c r="J238" s="143"/>
-      <c r="K238" s="144"/>
+      <c r="E238" s="124"/>
+      <c r="F238" s="124"/>
+      <c r="G238" s="124"/>
+      <c r="H238" s="124"/>
+      <c r="I238" s="124"/>
+      <c r="J238" s="124"/>
+      <c r="K238" s="125"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -10397,14 +10400,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="153"/>
-      <c r="E239" s="130"/>
-      <c r="F239" s="130"/>
-      <c r="G239" s="130"/>
-      <c r="H239" s="130"/>
-      <c r="I239" s="130"/>
-      <c r="J239" s="130"/>
-      <c r="K239" s="154"/>
+      <c r="D239" s="126"/>
+      <c r="E239" s="127"/>
+      <c r="F239" s="127"/>
+      <c r="G239" s="127"/>
+      <c r="H239" s="127"/>
+      <c r="I239" s="127"/>
+      <c r="J239" s="127"/>
+      <c r="K239" s="128"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -10416,16 +10419,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="143" t="s">
+      <c r="D240" s="124" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="143"/>
-      <c r="F240" s="143"/>
-      <c r="G240" s="143"/>
-      <c r="H240" s="143"/>
-      <c r="I240" s="143"/>
-      <c r="J240" s="143"/>
-      <c r="K240" s="144"/>
+      <c r="E240" s="124"/>
+      <c r="F240" s="124"/>
+      <c r="G240" s="124"/>
+      <c r="H240" s="124"/>
+      <c r="I240" s="124"/>
+      <c r="J240" s="124"/>
+      <c r="K240" s="125"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -10437,14 +10440,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="145"/>
-      <c r="E241" s="145"/>
-      <c r="F241" s="145"/>
-      <c r="G241" s="145"/>
-      <c r="H241" s="145"/>
-      <c r="I241" s="145"/>
-      <c r="J241" s="145"/>
-      <c r="K241" s="146"/>
+      <c r="D241" s="144"/>
+      <c r="E241" s="144"/>
+      <c r="F241" s="144"/>
+      <c r="G241" s="144"/>
+      <c r="H241" s="144"/>
+      <c r="I241" s="144"/>
+      <c r="J241" s="144"/>
+      <c r="K241" s="145"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -10635,16 +10638,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="141" t="s">
+      <c r="D250" s="139" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="139"/>
-      <c r="F250" s="139"/>
-      <c r="G250" s="139"/>
-      <c r="H250" s="139"/>
-      <c r="I250" s="139"/>
-      <c r="J250" s="139"/>
-      <c r="K250" s="142"/>
+      <c r="E250" s="137"/>
+      <c r="F250" s="137"/>
+      <c r="G250" s="137"/>
+      <c r="H250" s="137"/>
+      <c r="I250" s="137"/>
+      <c r="J250" s="137"/>
+      <c r="K250" s="140"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -11213,16 +11216,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="123" t="s">
+      <c r="D280" s="141" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="124"/>
-      <c r="F280" s="124"/>
-      <c r="G280" s="124"/>
-      <c r="H280" s="124"/>
-      <c r="I280" s="124"/>
-      <c r="J280" s="124"/>
-      <c r="K280" s="125"/>
+      <c r="E280" s="142"/>
+      <c r="F280" s="142"/>
+      <c r="G280" s="142"/>
+      <c r="H280" s="142"/>
+      <c r="I280" s="142"/>
+      <c r="J280" s="142"/>
+      <c r="K280" s="143"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -11329,16 +11332,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="123" t="s">
+      <c r="D286" s="141" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="124"/>
-      <c r="F286" s="124"/>
-      <c r="G286" s="124"/>
-      <c r="H286" s="124"/>
-      <c r="I286" s="124"/>
-      <c r="J286" s="124"/>
-      <c r="K286" s="125"/>
+      <c r="E286" s="142"/>
+      <c r="F286" s="142"/>
+      <c r="G286" s="142"/>
+      <c r="H286" s="142"/>
+      <c r="I286" s="142"/>
+      <c r="J286" s="142"/>
+      <c r="K286" s="143"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -11526,16 +11529,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="123" t="s">
+      <c r="D296" s="141" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="124"/>
-      <c r="F296" s="124"/>
-      <c r="G296" s="124"/>
-      <c r="H296" s="124"/>
-      <c r="I296" s="124"/>
-      <c r="J296" s="124"/>
-      <c r="K296" s="125"/>
+      <c r="E296" s="142"/>
+      <c r="F296" s="142"/>
+      <c r="G296" s="142"/>
+      <c r="H296" s="142"/>
+      <c r="I296" s="142"/>
+      <c r="J296" s="142"/>
+      <c r="K296" s="143"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -11566,16 +11569,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="147" t="s">
+      <c r="D298" s="123" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="143"/>
-      <c r="F298" s="143"/>
-      <c r="G298" s="143"/>
-      <c r="H298" s="143"/>
-      <c r="I298" s="143"/>
-      <c r="J298" s="143"/>
-      <c r="K298" s="144"/>
+      <c r="E298" s="124"/>
+      <c r="F298" s="124"/>
+      <c r="G298" s="124"/>
+      <c r="H298" s="124"/>
+      <c r="I298" s="124"/>
+      <c r="J298" s="124"/>
+      <c r="K298" s="125"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -11587,14 +11590,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="153"/>
-      <c r="E299" s="130"/>
-      <c r="F299" s="130"/>
-      <c r="G299" s="130"/>
-      <c r="H299" s="130"/>
-      <c r="I299" s="130"/>
-      <c r="J299" s="130"/>
-      <c r="K299" s="154"/>
+      <c r="D299" s="126"/>
+      <c r="E299" s="127"/>
+      <c r="F299" s="127"/>
+      <c r="G299" s="127"/>
+      <c r="H299" s="127"/>
+      <c r="I299" s="127"/>
+      <c r="J299" s="127"/>
+      <c r="K299" s="128"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -11606,16 +11609,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="147" t="s">
+      <c r="D300" s="123" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="143"/>
-      <c r="F300" s="143"/>
-      <c r="G300" s="143"/>
-      <c r="H300" s="143"/>
-      <c r="I300" s="143"/>
-      <c r="J300" s="143"/>
-      <c r="K300" s="144"/>
+      <c r="E300" s="124"/>
+      <c r="F300" s="124"/>
+      <c r="G300" s="124"/>
+      <c r="H300" s="124"/>
+      <c r="I300" s="124"/>
+      <c r="J300" s="124"/>
+      <c r="K300" s="125"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -11627,14 +11630,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="153"/>
-      <c r="E301" s="130"/>
-      <c r="F301" s="130"/>
-      <c r="G301" s="130"/>
-      <c r="H301" s="130"/>
-      <c r="I301" s="130"/>
-      <c r="J301" s="130"/>
-      <c r="K301" s="154"/>
+      <c r="D301" s="126"/>
+      <c r="E301" s="127"/>
+      <c r="F301" s="127"/>
+      <c r="G301" s="127"/>
+      <c r="H301" s="127"/>
+      <c r="I301" s="127"/>
+      <c r="J301" s="127"/>
+      <c r="K301" s="128"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -11646,16 +11649,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="147" t="s">
+      <c r="D302" s="123" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="143"/>
-      <c r="F302" s="143"/>
-      <c r="G302" s="143"/>
-      <c r="H302" s="143"/>
-      <c r="I302" s="143"/>
-      <c r="J302" s="143"/>
-      <c r="K302" s="144"/>
+      <c r="E302" s="124"/>
+      <c r="F302" s="124"/>
+      <c r="G302" s="124"/>
+      <c r="H302" s="124"/>
+      <c r="I302" s="124"/>
+      <c r="J302" s="124"/>
+      <c r="K302" s="125"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -11667,14 +11670,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="153"/>
-      <c r="E303" s="130"/>
-      <c r="F303" s="130"/>
-      <c r="G303" s="130"/>
-      <c r="H303" s="130"/>
-      <c r="I303" s="130"/>
-      <c r="J303" s="130"/>
-      <c r="K303" s="154"/>
+      <c r="D303" s="126"/>
+      <c r="E303" s="127"/>
+      <c r="F303" s="127"/>
+      <c r="G303" s="127"/>
+      <c r="H303" s="127"/>
+      <c r="I303" s="127"/>
+      <c r="J303" s="127"/>
+      <c r="K303" s="128"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -11686,16 +11689,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="147" t="s">
+      <c r="D304" s="123" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="143"/>
-      <c r="F304" s="143"/>
-      <c r="G304" s="143"/>
-      <c r="H304" s="143"/>
-      <c r="I304" s="143"/>
-      <c r="J304" s="143"/>
-      <c r="K304" s="144"/>
+      <c r="E304" s="124"/>
+      <c r="F304" s="124"/>
+      <c r="G304" s="124"/>
+      <c r="H304" s="124"/>
+      <c r="I304" s="124"/>
+      <c r="J304" s="124"/>
+      <c r="K304" s="125"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -11707,14 +11710,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="153"/>
-      <c r="E305" s="130"/>
-      <c r="F305" s="130"/>
-      <c r="G305" s="130"/>
-      <c r="H305" s="130"/>
-      <c r="I305" s="130"/>
-      <c r="J305" s="130"/>
-      <c r="K305" s="154"/>
+      <c r="D305" s="126"/>
+      <c r="E305" s="127"/>
+      <c r="F305" s="127"/>
+      <c r="G305" s="127"/>
+      <c r="H305" s="127"/>
+      <c r="I305" s="127"/>
+      <c r="J305" s="127"/>
+      <c r="K305" s="128"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -11729,16 +11732,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="147" t="s">
+      <c r="D306" s="123" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="143"/>
-      <c r="F306" s="143"/>
-      <c r="G306" s="143"/>
-      <c r="H306" s="143"/>
-      <c r="I306" s="143"/>
-      <c r="J306" s="143"/>
-      <c r="K306" s="144"/>
+      <c r="E306" s="124"/>
+      <c r="F306" s="124"/>
+      <c r="G306" s="124"/>
+      <c r="H306" s="124"/>
+      <c r="I306" s="124"/>
+      <c r="J306" s="124"/>
+      <c r="K306" s="125"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -11750,14 +11753,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="153"/>
-      <c r="E307" s="130"/>
-      <c r="F307" s="130"/>
-      <c r="G307" s="130"/>
-      <c r="H307" s="130"/>
-      <c r="I307" s="130"/>
-      <c r="J307" s="130"/>
-      <c r="K307" s="154"/>
+      <c r="D307" s="126"/>
+      <c r="E307" s="127"/>
+      <c r="F307" s="127"/>
+      <c r="G307" s="127"/>
+      <c r="H307" s="127"/>
+      <c r="I307" s="127"/>
+      <c r="J307" s="127"/>
+      <c r="K307" s="128"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -11769,16 +11772,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="147" t="s">
+      <c r="D308" s="123" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="143"/>
-      <c r="F308" s="143"/>
-      <c r="G308" s="143"/>
-      <c r="H308" s="143"/>
-      <c r="I308" s="143"/>
-      <c r="J308" s="143"/>
-      <c r="K308" s="144"/>
+      <c r="E308" s="124"/>
+      <c r="F308" s="124"/>
+      <c r="G308" s="124"/>
+      <c r="H308" s="124"/>
+      <c r="I308" s="124"/>
+      <c r="J308" s="124"/>
+      <c r="K308" s="125"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -11790,14 +11793,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="153"/>
-      <c r="E309" s="130"/>
-      <c r="F309" s="130"/>
-      <c r="G309" s="130"/>
-      <c r="H309" s="130"/>
-      <c r="I309" s="130"/>
-      <c r="J309" s="130"/>
-      <c r="K309" s="154"/>
+      <c r="D309" s="126"/>
+      <c r="E309" s="127"/>
+      <c r="F309" s="127"/>
+      <c r="G309" s="127"/>
+      <c r="H309" s="127"/>
+      <c r="I309" s="127"/>
+      <c r="J309" s="127"/>
+      <c r="K309" s="128"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -15677,23 +15680,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D168:K168"/>
+    <mergeCell ref="D175:K175"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D250:K250"/>
+    <mergeCell ref="D280:K280"/>
+    <mergeCell ref="D286:K286"/>
+    <mergeCell ref="D296:K296"/>
+    <mergeCell ref="D240:K241"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="D216:K217"/>
     <mergeCell ref="D218:K219"/>
     <mergeCell ref="D220:K221"/>
     <mergeCell ref="D238:K239"/>
     <mergeCell ref="D234:K234"/>
-    <mergeCell ref="D250:K250"/>
-    <mergeCell ref="D280:K280"/>
-    <mergeCell ref="D286:K286"/>
-    <mergeCell ref="D296:K296"/>
-    <mergeCell ref="D240:K241"/>
     <mergeCell ref="D210:K210"/>
     <mergeCell ref="D214:K214"/>
     <mergeCell ref="D222:K222"/>
@@ -15704,26 +15721,12 @@
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
     <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D168:K168"/>
-    <mergeCell ref="D175:K175"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -15809,16 +15812,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="147" t="s">
+      <c r="D2" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="144"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="125"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -15840,14 +15843,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="153"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="150"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="131"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -22096,16 +22099,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="122" t="s">
+      <c r="D178" s="155" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="122"/>
-      <c r="F178" s="122"/>
-      <c r="G178" s="122"/>
-      <c r="H178" s="122"/>
-      <c r="I178" s="122"/>
-      <c r="J178" s="122"/>
-      <c r="K178" s="122"/>
+      <c r="E178" s="155"/>
+      <c r="F178" s="155"/>
+      <c r="G178" s="155"/>
+      <c r="H178" s="155"/>
+      <c r="I178" s="155"/>
+      <c r="J178" s="155"/>
+      <c r="K178" s="155"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -22174,16 +22177,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="123" t="s">
+      <c r="D182" s="141" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="124"/>
-      <c r="F182" s="124"/>
-      <c r="G182" s="124"/>
-      <c r="H182" s="124"/>
-      <c r="I182" s="124"/>
-      <c r="J182" s="124"/>
-      <c r="K182" s="125"/>
+      <c r="E182" s="142"/>
+      <c r="F182" s="142"/>
+      <c r="G182" s="142"/>
+      <c r="H182" s="142"/>
+      <c r="I182" s="142"/>
+      <c r="J182" s="142"/>
+      <c r="K182" s="143"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -22195,16 +22198,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="123" t="s">
+      <c r="D183" s="141" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="124"/>
-      <c r="F183" s="124"/>
-      <c r="G183" s="124"/>
-      <c r="H183" s="124"/>
-      <c r="I183" s="124"/>
-      <c r="J183" s="124"/>
-      <c r="K183" s="125"/>
+      <c r="E183" s="142"/>
+      <c r="F183" s="142"/>
+      <c r="G183" s="142"/>
+      <c r="H183" s="142"/>
+      <c r="I183" s="142"/>
+      <c r="J183" s="142"/>
+      <c r="K183" s="143"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -22216,16 +22219,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="123" t="s">
+      <c r="D184" s="141" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="124"/>
-      <c r="F184" s="124"/>
-      <c r="G184" s="124"/>
-      <c r="H184" s="124"/>
-      <c r="I184" s="124"/>
-      <c r="J184" s="124"/>
-      <c r="K184" s="125"/>
+      <c r="E184" s="142"/>
+      <c r="F184" s="142"/>
+      <c r="G184" s="142"/>
+      <c r="H184" s="142"/>
+      <c r="I184" s="142"/>
+      <c r="J184" s="142"/>
+      <c r="K184" s="143"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -22237,16 +22240,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="123" t="s">
+      <c r="D185" s="141" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="124"/>
-      <c r="F185" s="124"/>
-      <c r="G185" s="124"/>
-      <c r="H185" s="124"/>
-      <c r="I185" s="124"/>
-      <c r="J185" s="124"/>
-      <c r="K185" s="125"/>
+      <c r="E185" s="142"/>
+      <c r="F185" s="142"/>
+      <c r="G185" s="142"/>
+      <c r="H185" s="142"/>
+      <c r="I185" s="142"/>
+      <c r="J185" s="142"/>
+      <c r="K185" s="143"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -22258,16 +22261,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="123" t="s">
+      <c r="D186" s="141" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="124"/>
-      <c r="F186" s="124"/>
-      <c r="G186" s="124"/>
-      <c r="H186" s="124"/>
-      <c r="I186" s="124"/>
-      <c r="J186" s="124"/>
-      <c r="K186" s="125"/>
+      <c r="E186" s="142"/>
+      <c r="F186" s="142"/>
+      <c r="G186" s="142"/>
+      <c r="H186" s="142"/>
+      <c r="I186" s="142"/>
+      <c r="J186" s="142"/>
+      <c r="K186" s="143"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -22279,16 +22282,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="123" t="s">
+      <c r="D187" s="141" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="124"/>
-      <c r="F187" s="124"/>
-      <c r="G187" s="124"/>
-      <c r="H187" s="124"/>
-      <c r="I187" s="124"/>
-      <c r="J187" s="124"/>
-      <c r="K187" s="125"/>
+      <c r="E187" s="142"/>
+      <c r="F187" s="142"/>
+      <c r="G187" s="142"/>
+      <c r="H187" s="142"/>
+      <c r="I187" s="142"/>
+      <c r="J187" s="142"/>
+      <c r="K187" s="143"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -22300,16 +22303,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="123" t="s">
+      <c r="D188" s="141" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="124"/>
-      <c r="F188" s="124"/>
-      <c r="G188" s="124"/>
-      <c r="H188" s="124"/>
-      <c r="I188" s="124"/>
-      <c r="J188" s="124"/>
-      <c r="K188" s="125"/>
+      <c r="E188" s="142"/>
+      <c r="F188" s="142"/>
+      <c r="G188" s="142"/>
+      <c r="H188" s="142"/>
+      <c r="I188" s="142"/>
+      <c r="J188" s="142"/>
+      <c r="K188" s="143"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -22321,16 +22324,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="123" t="s">
+      <c r="D189" s="141" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="124"/>
-      <c r="F189" s="124"/>
-      <c r="G189" s="124"/>
-      <c r="H189" s="124"/>
-      <c r="I189" s="124"/>
-      <c r="J189" s="124"/>
-      <c r="K189" s="125"/>
+      <c r="E189" s="142"/>
+      <c r="F189" s="142"/>
+      <c r="G189" s="142"/>
+      <c r="H189" s="142"/>
+      <c r="I189" s="142"/>
+      <c r="J189" s="142"/>
+      <c r="K189" s="143"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -22342,16 +22345,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="123" t="s">
+      <c r="D190" s="141" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="124"/>
-      <c r="F190" s="124"/>
-      <c r="G190" s="124"/>
-      <c r="H190" s="124"/>
-      <c r="I190" s="124"/>
-      <c r="J190" s="124"/>
-      <c r="K190" s="125"/>
+      <c r="E190" s="142"/>
+      <c r="F190" s="142"/>
+      <c r="G190" s="142"/>
+      <c r="H190" s="142"/>
+      <c r="I190" s="142"/>
+      <c r="J190" s="142"/>
+      <c r="K190" s="143"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -22363,16 +22366,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="123" t="s">
+      <c r="D191" s="141" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="124"/>
-      <c r="F191" s="124"/>
-      <c r="G191" s="124"/>
-      <c r="H191" s="124"/>
-      <c r="I191" s="124"/>
-      <c r="J191" s="124"/>
-      <c r="K191" s="125"/>
+      <c r="E191" s="142"/>
+      <c r="F191" s="142"/>
+      <c r="G191" s="142"/>
+      <c r="H191" s="142"/>
+      <c r="I191" s="142"/>
+      <c r="J191" s="142"/>
+      <c r="K191" s="143"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -22384,16 +22387,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="123" t="s">
+      <c r="D192" s="141" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="124"/>
-      <c r="F192" s="124"/>
-      <c r="G192" s="124"/>
-      <c r="H192" s="124"/>
-      <c r="I192" s="124"/>
-      <c r="J192" s="124"/>
-      <c r="K192" s="125"/>
+      <c r="E192" s="142"/>
+      <c r="F192" s="142"/>
+      <c r="G192" s="142"/>
+      <c r="H192" s="142"/>
+      <c r="I192" s="142"/>
+      <c r="J192" s="142"/>
+      <c r="K192" s="143"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -22405,16 +22408,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="126" t="s">
+      <c r="D193" s="152" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="127"/>
-      <c r="F193" s="127"/>
-      <c r="G193" s="127"/>
-      <c r="H193" s="127"/>
-      <c r="I193" s="127"/>
-      <c r="J193" s="127"/>
-      <c r="K193" s="128"/>
+      <c r="E193" s="153"/>
+      <c r="F193" s="153"/>
+      <c r="G193" s="153"/>
+      <c r="H193" s="153"/>
+      <c r="I193" s="153"/>
+      <c r="J193" s="153"/>
+      <c r="K193" s="154"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -22429,16 +22432,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="129" t="s">
+      <c r="D194" s="134" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="130"/>
-      <c r="F194" s="130"/>
-      <c r="G194" s="130"/>
-      <c r="H194" s="130"/>
-      <c r="I194" s="130"/>
-      <c r="J194" s="130"/>
-      <c r="K194" s="131"/>
+      <c r="E194" s="127"/>
+      <c r="F194" s="127"/>
+      <c r="G194" s="127"/>
+      <c r="H194" s="127"/>
+      <c r="I194" s="127"/>
+      <c r="J194" s="127"/>
+      <c r="K194" s="135"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -22450,16 +22453,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="123" t="s">
+      <c r="D195" s="141" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="124"/>
-      <c r="F195" s="124"/>
-      <c r="G195" s="124"/>
-      <c r="H195" s="124"/>
-      <c r="I195" s="124"/>
-      <c r="J195" s="124"/>
-      <c r="K195" s="125"/>
+      <c r="E195" s="142"/>
+      <c r="F195" s="142"/>
+      <c r="G195" s="142"/>
+      <c r="H195" s="142"/>
+      <c r="I195" s="142"/>
+      <c r="J195" s="142"/>
+      <c r="K195" s="143"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -22471,16 +22474,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="123" t="s">
+      <c r="D196" s="141" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="124"/>
-      <c r="F196" s="124"/>
-      <c r="G196" s="124"/>
-      <c r="H196" s="124"/>
-      <c r="I196" s="124"/>
-      <c r="J196" s="124"/>
-      <c r="K196" s="125"/>
+      <c r="E196" s="142"/>
+      <c r="F196" s="142"/>
+      <c r="G196" s="142"/>
+      <c r="H196" s="142"/>
+      <c r="I196" s="142"/>
+      <c r="J196" s="142"/>
+      <c r="K196" s="143"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -22492,16 +22495,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="123" t="s">
+      <c r="D197" s="141" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="124"/>
-      <c r="F197" s="124"/>
-      <c r="G197" s="124"/>
-      <c r="H197" s="124"/>
-      <c r="I197" s="124"/>
-      <c r="J197" s="124"/>
-      <c r="K197" s="125"/>
+      <c r="E197" s="142"/>
+      <c r="F197" s="142"/>
+      <c r="G197" s="142"/>
+      <c r="H197" s="142"/>
+      <c r="I197" s="142"/>
+      <c r="J197" s="142"/>
+      <c r="K197" s="143"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -22513,16 +22516,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="123" t="s">
+      <c r="D198" s="141" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="124"/>
-      <c r="F198" s="124"/>
-      <c r="G198" s="124"/>
-      <c r="H198" s="124"/>
-      <c r="I198" s="124"/>
-      <c r="J198" s="124"/>
-      <c r="K198" s="125"/>
+      <c r="E198" s="142"/>
+      <c r="F198" s="142"/>
+      <c r="G198" s="142"/>
+      <c r="H198" s="142"/>
+      <c r="I198" s="142"/>
+      <c r="J198" s="142"/>
+      <c r="K198" s="143"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -22553,16 +22556,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="123" t="s">
+      <c r="D200" s="141" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="124"/>
-      <c r="F200" s="124"/>
-      <c r="G200" s="124"/>
-      <c r="H200" s="124"/>
-      <c r="I200" s="124"/>
-      <c r="J200" s="124"/>
-      <c r="K200" s="125"/>
+      <c r="E200" s="142"/>
+      <c r="F200" s="142"/>
+      <c r="G200" s="142"/>
+      <c r="H200" s="142"/>
+      <c r="I200" s="142"/>
+      <c r="J200" s="142"/>
+      <c r="K200" s="143"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -22593,16 +22596,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="132" t="s">
+      <c r="D202" s="149" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="133"/>
-      <c r="F202" s="133"/>
-      <c r="G202" s="133"/>
-      <c r="H202" s="133"/>
-      <c r="I202" s="133"/>
-      <c r="J202" s="133"/>
-      <c r="K202" s="134"/>
+      <c r="E202" s="150"/>
+      <c r="F202" s="150"/>
+      <c r="G202" s="150"/>
+      <c r="H202" s="150"/>
+      <c r="I202" s="150"/>
+      <c r="J202" s="150"/>
+      <c r="K202" s="151"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -22633,16 +22636,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="123" t="s">
+      <c r="D204" s="141" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="124"/>
-      <c r="F204" s="124"/>
-      <c r="G204" s="124"/>
-      <c r="H204" s="124"/>
-      <c r="I204" s="124"/>
-      <c r="J204" s="124"/>
-      <c r="K204" s="125"/>
+      <c r="E204" s="142"/>
+      <c r="F204" s="142"/>
+      <c r="G204" s="142"/>
+      <c r="H204" s="142"/>
+      <c r="I204" s="142"/>
+      <c r="J204" s="142"/>
+      <c r="K204" s="143"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -22673,16 +22676,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="123" t="s">
+      <c r="D206" s="141" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="124"/>
-      <c r="F206" s="124"/>
-      <c r="G206" s="124"/>
-      <c r="H206" s="124"/>
-      <c r="I206" s="124"/>
-      <c r="J206" s="124"/>
-      <c r="K206" s="125"/>
+      <c r="E206" s="142"/>
+      <c r="F206" s="142"/>
+      <c r="G206" s="142"/>
+      <c r="H206" s="142"/>
+      <c r="I206" s="142"/>
+      <c r="J206" s="142"/>
+      <c r="K206" s="143"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -22713,16 +22716,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="123" t="s">
+      <c r="D208" s="141" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="124"/>
-      <c r="F208" s="124"/>
-      <c r="G208" s="124"/>
-      <c r="H208" s="124"/>
-      <c r="I208" s="124"/>
-      <c r="J208" s="124"/>
-      <c r="K208" s="125"/>
+      <c r="E208" s="142"/>
+      <c r="F208" s="142"/>
+      <c r="G208" s="142"/>
+      <c r="H208" s="142"/>
+      <c r="I208" s="142"/>
+      <c r="J208" s="142"/>
+      <c r="K208" s="143"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -22756,16 +22759,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="129" t="s">
+      <c r="D210" s="134" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="130"/>
-      <c r="F210" s="130"/>
-      <c r="G210" s="130"/>
-      <c r="H210" s="130"/>
-      <c r="I210" s="130"/>
-      <c r="J210" s="130"/>
-      <c r="K210" s="131"/>
+      <c r="E210" s="127"/>
+      <c r="F210" s="127"/>
+      <c r="G210" s="127"/>
+      <c r="H210" s="127"/>
+      <c r="I210" s="127"/>
+      <c r="J210" s="127"/>
+      <c r="K210" s="135"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -22834,16 +22837,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="123" t="s">
+      <c r="D214" s="141" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="124"/>
-      <c r="F214" s="124"/>
-      <c r="G214" s="124"/>
-      <c r="H214" s="124"/>
-      <c r="I214" s="124"/>
-      <c r="J214" s="124"/>
-      <c r="K214" s="125"/>
+      <c r="E214" s="142"/>
+      <c r="F214" s="142"/>
+      <c r="G214" s="142"/>
+      <c r="H214" s="142"/>
+      <c r="I214" s="142"/>
+      <c r="J214" s="142"/>
+      <c r="K214" s="143"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -22874,16 +22877,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="151" t="s">
+      <c r="D216" s="132" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="143"/>
-      <c r="F216" s="143"/>
-      <c r="G216" s="143"/>
-      <c r="H216" s="143"/>
-      <c r="I216" s="143"/>
-      <c r="J216" s="143"/>
-      <c r="K216" s="152"/>
+      <c r="E216" s="124"/>
+      <c r="F216" s="124"/>
+      <c r="G216" s="124"/>
+      <c r="H216" s="124"/>
+      <c r="I216" s="124"/>
+      <c r="J216" s="124"/>
+      <c r="K216" s="133"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -22895,14 +22898,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="129"/>
-      <c r="E217" s="130"/>
-      <c r="F217" s="130"/>
-      <c r="G217" s="130"/>
-      <c r="H217" s="130"/>
-      <c r="I217" s="130"/>
-      <c r="J217" s="130"/>
-      <c r="K217" s="131"/>
+      <c r="D217" s="134"/>
+      <c r="E217" s="127"/>
+      <c r="F217" s="127"/>
+      <c r="G217" s="127"/>
+      <c r="H217" s="127"/>
+      <c r="I217" s="127"/>
+      <c r="J217" s="127"/>
+      <c r="K217" s="135"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -22914,16 +22917,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="151" t="s">
+      <c r="D218" s="132" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="143"/>
-      <c r="F218" s="143"/>
-      <c r="G218" s="143"/>
-      <c r="H218" s="143"/>
-      <c r="I218" s="143"/>
-      <c r="J218" s="143"/>
-      <c r="K218" s="152"/>
+      <c r="E218" s="124"/>
+      <c r="F218" s="124"/>
+      <c r="G218" s="124"/>
+      <c r="H218" s="124"/>
+      <c r="I218" s="124"/>
+      <c r="J218" s="124"/>
+      <c r="K218" s="133"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -22935,14 +22938,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="129"/>
-      <c r="E219" s="130"/>
-      <c r="F219" s="130"/>
-      <c r="G219" s="130"/>
-      <c r="H219" s="130"/>
-      <c r="I219" s="130"/>
-      <c r="J219" s="130"/>
-      <c r="K219" s="131"/>
+      <c r="D219" s="134"/>
+      <c r="E219" s="127"/>
+      <c r="F219" s="127"/>
+      <c r="G219" s="127"/>
+      <c r="H219" s="127"/>
+      <c r="I219" s="127"/>
+      <c r="J219" s="127"/>
+      <c r="K219" s="135"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -22954,16 +22957,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="151" t="s">
+      <c r="D220" s="132" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="143"/>
-      <c r="F220" s="143"/>
-      <c r="G220" s="143"/>
-      <c r="H220" s="143"/>
-      <c r="I220" s="143"/>
-      <c r="J220" s="143"/>
-      <c r="K220" s="152"/>
+      <c r="E220" s="124"/>
+      <c r="F220" s="124"/>
+      <c r="G220" s="124"/>
+      <c r="H220" s="124"/>
+      <c r="I220" s="124"/>
+      <c r="J220" s="124"/>
+      <c r="K220" s="133"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -22975,14 +22978,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="129"/>
-      <c r="E221" s="130"/>
-      <c r="F221" s="130"/>
-      <c r="G221" s="130"/>
-      <c r="H221" s="130"/>
-      <c r="I221" s="130"/>
-      <c r="J221" s="130"/>
-      <c r="K221" s="131"/>
+      <c r="D221" s="134"/>
+      <c r="E221" s="127"/>
+      <c r="F221" s="127"/>
+      <c r="G221" s="127"/>
+      <c r="H221" s="127"/>
+      <c r="I221" s="127"/>
+      <c r="J221" s="127"/>
+      <c r="K221" s="135"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -22994,16 +22997,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="123" t="s">
+      <c r="D222" s="141" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="124"/>
-      <c r="F222" s="124"/>
-      <c r="G222" s="124"/>
-      <c r="H222" s="124"/>
-      <c r="I222" s="124"/>
-      <c r="J222" s="124"/>
-      <c r="K222" s="125"/>
+      <c r="E222" s="142"/>
+      <c r="F222" s="142"/>
+      <c r="G222" s="142"/>
+      <c r="H222" s="142"/>
+      <c r="I222" s="142"/>
+      <c r="J222" s="142"/>
+      <c r="K222" s="143"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -23034,16 +23037,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="123" t="s">
+      <c r="D224" s="141" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="124"/>
-      <c r="F224" s="124"/>
-      <c r="G224" s="124"/>
-      <c r="H224" s="124"/>
-      <c r="I224" s="124"/>
-      <c r="J224" s="124"/>
-      <c r="K224" s="125"/>
+      <c r="E224" s="142"/>
+      <c r="F224" s="142"/>
+      <c r="G224" s="142"/>
+      <c r="H224" s="142"/>
+      <c r="I224" s="142"/>
+      <c r="J224" s="142"/>
+      <c r="K224" s="143"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -23077,16 +23080,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="135" t="s">
+      <c r="D226" s="146" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="136"/>
-      <c r="F226" s="136"/>
-      <c r="G226" s="136"/>
-      <c r="H226" s="136"/>
-      <c r="I226" s="136"/>
-      <c r="J226" s="136"/>
-      <c r="K226" s="137"/>
+      <c r="E226" s="147"/>
+      <c r="F226" s="147"/>
+      <c r="G226" s="147"/>
+      <c r="H226" s="147"/>
+      <c r="I226" s="147"/>
+      <c r="J226" s="147"/>
+      <c r="K226" s="148"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -23231,16 +23234,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="138" t="s">
+      <c r="D234" s="136" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="139"/>
-      <c r="F234" s="139"/>
-      <c r="G234" s="139"/>
-      <c r="H234" s="139"/>
-      <c r="I234" s="139"/>
-      <c r="J234" s="139"/>
-      <c r="K234" s="140"/>
+      <c r="E234" s="137"/>
+      <c r="F234" s="137"/>
+      <c r="G234" s="137"/>
+      <c r="H234" s="137"/>
+      <c r="I234" s="137"/>
+      <c r="J234" s="137"/>
+      <c r="K234" s="138"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -23309,16 +23312,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="147" t="s">
+      <c r="D238" s="123" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="143"/>
-      <c r="F238" s="143"/>
-      <c r="G238" s="143"/>
-      <c r="H238" s="143"/>
-      <c r="I238" s="143"/>
-      <c r="J238" s="143"/>
-      <c r="K238" s="144"/>
+      <c r="E238" s="124"/>
+      <c r="F238" s="124"/>
+      <c r="G238" s="124"/>
+      <c r="H238" s="124"/>
+      <c r="I238" s="124"/>
+      <c r="J238" s="124"/>
+      <c r="K238" s="125"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -23330,14 +23333,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="153"/>
-      <c r="E239" s="130"/>
-      <c r="F239" s="130"/>
-      <c r="G239" s="130"/>
-      <c r="H239" s="130"/>
-      <c r="I239" s="130"/>
-      <c r="J239" s="130"/>
-      <c r="K239" s="154"/>
+      <c r="D239" s="126"/>
+      <c r="E239" s="127"/>
+      <c r="F239" s="127"/>
+      <c r="G239" s="127"/>
+      <c r="H239" s="127"/>
+      <c r="I239" s="127"/>
+      <c r="J239" s="127"/>
+      <c r="K239" s="128"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -23349,16 +23352,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="143" t="s">
+      <c r="D240" s="124" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="143"/>
-      <c r="F240" s="143"/>
-      <c r="G240" s="143"/>
-      <c r="H240" s="143"/>
-      <c r="I240" s="143"/>
-      <c r="J240" s="143"/>
-      <c r="K240" s="144"/>
+      <c r="E240" s="124"/>
+      <c r="F240" s="124"/>
+      <c r="G240" s="124"/>
+      <c r="H240" s="124"/>
+      <c r="I240" s="124"/>
+      <c r="J240" s="124"/>
+      <c r="K240" s="125"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -23370,14 +23373,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="145"/>
-      <c r="E241" s="145"/>
-      <c r="F241" s="145"/>
-      <c r="G241" s="145"/>
-      <c r="H241" s="145"/>
-      <c r="I241" s="145"/>
-      <c r="J241" s="145"/>
-      <c r="K241" s="146"/>
+      <c r="D241" s="144"/>
+      <c r="E241" s="144"/>
+      <c r="F241" s="144"/>
+      <c r="G241" s="144"/>
+      <c r="H241" s="144"/>
+      <c r="I241" s="144"/>
+      <c r="J241" s="144"/>
+      <c r="K241" s="145"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -23568,16 +23571,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="141" t="s">
+      <c r="D250" s="139" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="139"/>
-      <c r="F250" s="139"/>
-      <c r="G250" s="139"/>
-      <c r="H250" s="139"/>
-      <c r="I250" s="139"/>
-      <c r="J250" s="139"/>
-      <c r="K250" s="142"/>
+      <c r="E250" s="137"/>
+      <c r="F250" s="137"/>
+      <c r="G250" s="137"/>
+      <c r="H250" s="137"/>
+      <c r="I250" s="137"/>
+      <c r="J250" s="137"/>
+      <c r="K250" s="140"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -24146,16 +24149,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="123" t="s">
+      <c r="D280" s="141" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="124"/>
-      <c r="F280" s="124"/>
-      <c r="G280" s="124"/>
-      <c r="H280" s="124"/>
-      <c r="I280" s="124"/>
-      <c r="J280" s="124"/>
-      <c r="K280" s="125"/>
+      <c r="E280" s="142"/>
+      <c r="F280" s="142"/>
+      <c r="G280" s="142"/>
+      <c r="H280" s="142"/>
+      <c r="I280" s="142"/>
+      <c r="J280" s="142"/>
+      <c r="K280" s="143"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -24262,16 +24265,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="123" t="s">
+      <c r="D286" s="141" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="124"/>
-      <c r="F286" s="124"/>
-      <c r="G286" s="124"/>
-      <c r="H286" s="124"/>
-      <c r="I286" s="124"/>
-      <c r="J286" s="124"/>
-      <c r="K286" s="125"/>
+      <c r="E286" s="142"/>
+      <c r="F286" s="142"/>
+      <c r="G286" s="142"/>
+      <c r="H286" s="142"/>
+      <c r="I286" s="142"/>
+      <c r="J286" s="142"/>
+      <c r="K286" s="143"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -24459,16 +24462,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="123" t="s">
+      <c r="D296" s="141" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="124"/>
-      <c r="F296" s="124"/>
-      <c r="G296" s="124"/>
-      <c r="H296" s="124"/>
-      <c r="I296" s="124"/>
-      <c r="J296" s="124"/>
-      <c r="K296" s="125"/>
+      <c r="E296" s="142"/>
+      <c r="F296" s="142"/>
+      <c r="G296" s="142"/>
+      <c r="H296" s="142"/>
+      <c r="I296" s="142"/>
+      <c r="J296" s="142"/>
+      <c r="K296" s="143"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -24499,16 +24502,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="147" t="s">
+      <c r="D298" s="123" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="143"/>
-      <c r="F298" s="143"/>
-      <c r="G298" s="143"/>
-      <c r="H298" s="143"/>
-      <c r="I298" s="143"/>
-      <c r="J298" s="143"/>
-      <c r="K298" s="144"/>
+      <c r="E298" s="124"/>
+      <c r="F298" s="124"/>
+      <c r="G298" s="124"/>
+      <c r="H298" s="124"/>
+      <c r="I298" s="124"/>
+      <c r="J298" s="124"/>
+      <c r="K298" s="125"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -24520,14 +24523,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="153"/>
-      <c r="E299" s="130"/>
-      <c r="F299" s="130"/>
-      <c r="G299" s="130"/>
-      <c r="H299" s="130"/>
-      <c r="I299" s="130"/>
-      <c r="J299" s="130"/>
-      <c r="K299" s="154"/>
+      <c r="D299" s="126"/>
+      <c r="E299" s="127"/>
+      <c r="F299" s="127"/>
+      <c r="G299" s="127"/>
+      <c r="H299" s="127"/>
+      <c r="I299" s="127"/>
+      <c r="J299" s="127"/>
+      <c r="K299" s="128"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -24539,16 +24542,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="147" t="s">
+      <c r="D300" s="123" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="143"/>
-      <c r="F300" s="143"/>
-      <c r="G300" s="143"/>
-      <c r="H300" s="143"/>
-      <c r="I300" s="143"/>
-      <c r="J300" s="143"/>
-      <c r="K300" s="144"/>
+      <c r="E300" s="124"/>
+      <c r="F300" s="124"/>
+      <c r="G300" s="124"/>
+      <c r="H300" s="124"/>
+      <c r="I300" s="124"/>
+      <c r="J300" s="124"/>
+      <c r="K300" s="125"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -24560,14 +24563,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="153"/>
-      <c r="E301" s="130"/>
-      <c r="F301" s="130"/>
-      <c r="G301" s="130"/>
-      <c r="H301" s="130"/>
-      <c r="I301" s="130"/>
-      <c r="J301" s="130"/>
-      <c r="K301" s="154"/>
+      <c r="D301" s="126"/>
+      <c r="E301" s="127"/>
+      <c r="F301" s="127"/>
+      <c r="G301" s="127"/>
+      <c r="H301" s="127"/>
+      <c r="I301" s="127"/>
+      <c r="J301" s="127"/>
+      <c r="K301" s="128"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -24579,16 +24582,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="147" t="s">
+      <c r="D302" s="123" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="143"/>
-      <c r="F302" s="143"/>
-      <c r="G302" s="143"/>
-      <c r="H302" s="143"/>
-      <c r="I302" s="143"/>
-      <c r="J302" s="143"/>
-      <c r="K302" s="144"/>
+      <c r="E302" s="124"/>
+      <c r="F302" s="124"/>
+      <c r="G302" s="124"/>
+      <c r="H302" s="124"/>
+      <c r="I302" s="124"/>
+      <c r="J302" s="124"/>
+      <c r="K302" s="125"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -24600,14 +24603,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="153"/>
-      <c r="E303" s="130"/>
-      <c r="F303" s="130"/>
-      <c r="G303" s="130"/>
-      <c r="H303" s="130"/>
-      <c r="I303" s="130"/>
-      <c r="J303" s="130"/>
-      <c r="K303" s="154"/>
+      <c r="D303" s="126"/>
+      <c r="E303" s="127"/>
+      <c r="F303" s="127"/>
+      <c r="G303" s="127"/>
+      <c r="H303" s="127"/>
+      <c r="I303" s="127"/>
+      <c r="J303" s="127"/>
+      <c r="K303" s="128"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -24619,16 +24622,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="147" t="s">
+      <c r="D304" s="123" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="143"/>
-      <c r="F304" s="143"/>
-      <c r="G304" s="143"/>
-      <c r="H304" s="143"/>
-      <c r="I304" s="143"/>
-      <c r="J304" s="143"/>
-      <c r="K304" s="144"/>
+      <c r="E304" s="124"/>
+      <c r="F304" s="124"/>
+      <c r="G304" s="124"/>
+      <c r="H304" s="124"/>
+      <c r="I304" s="124"/>
+      <c r="J304" s="124"/>
+      <c r="K304" s="125"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -24640,14 +24643,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="153"/>
-      <c r="E305" s="130"/>
-      <c r="F305" s="130"/>
-      <c r="G305" s="130"/>
-      <c r="H305" s="130"/>
-      <c r="I305" s="130"/>
-      <c r="J305" s="130"/>
-      <c r="K305" s="154"/>
+      <c r="D305" s="126"/>
+      <c r="E305" s="127"/>
+      <c r="F305" s="127"/>
+      <c r="G305" s="127"/>
+      <c r="H305" s="127"/>
+      <c r="I305" s="127"/>
+      <c r="J305" s="127"/>
+      <c r="K305" s="128"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -24662,16 +24665,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="147" t="s">
+      <c r="D306" s="123" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="143"/>
-      <c r="F306" s="143"/>
-      <c r="G306" s="143"/>
-      <c r="H306" s="143"/>
-      <c r="I306" s="143"/>
-      <c r="J306" s="143"/>
-      <c r="K306" s="144"/>
+      <c r="E306" s="124"/>
+      <c r="F306" s="124"/>
+      <c r="G306" s="124"/>
+      <c r="H306" s="124"/>
+      <c r="I306" s="124"/>
+      <c r="J306" s="124"/>
+      <c r="K306" s="125"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -24683,14 +24686,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="153"/>
-      <c r="E307" s="130"/>
-      <c r="F307" s="130"/>
-      <c r="G307" s="130"/>
-      <c r="H307" s="130"/>
-      <c r="I307" s="130"/>
-      <c r="J307" s="130"/>
-      <c r="K307" s="154"/>
+      <c r="D307" s="126"/>
+      <c r="E307" s="127"/>
+      <c r="F307" s="127"/>
+      <c r="G307" s="127"/>
+      <c r="H307" s="127"/>
+      <c r="I307" s="127"/>
+      <c r="J307" s="127"/>
+      <c r="K307" s="128"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -24702,16 +24705,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="147" t="s">
+      <c r="D308" s="123" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="143"/>
-      <c r="F308" s="143"/>
-      <c r="G308" s="143"/>
-      <c r="H308" s="143"/>
-      <c r="I308" s="143"/>
-      <c r="J308" s="143"/>
-      <c r="K308" s="144"/>
+      <c r="E308" s="124"/>
+      <c r="F308" s="124"/>
+      <c r="G308" s="124"/>
+      <c r="H308" s="124"/>
+      <c r="I308" s="124"/>
+      <c r="J308" s="124"/>
+      <c r="K308" s="125"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -24723,14 +24726,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="153"/>
-      <c r="E309" s="130"/>
-      <c r="F309" s="130"/>
-      <c r="G309" s="130"/>
-      <c r="H309" s="130"/>
-      <c r="I309" s="130"/>
-      <c r="J309" s="130"/>
-      <c r="K309" s="154"/>
+      <c r="D309" s="126"/>
+      <c r="E309" s="127"/>
+      <c r="F309" s="127"/>
+      <c r="G309" s="127"/>
+      <c r="H309" s="127"/>
+      <c r="I309" s="127"/>
+      <c r="J309" s="127"/>
+      <c r="K309" s="128"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -28610,12 +28613,29 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="D214:K214"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="D202:K202"/>
     <mergeCell ref="D280:K280"/>
     <mergeCell ref="D286:K286"/>
     <mergeCell ref="D296:K296"/>
@@ -28632,29 +28652,12 @@
     <mergeCell ref="D250:K250"/>
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="D214:K214"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D200:K200"/>
-    <mergeCell ref="D202:K202"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape"/>

--- a/data/Switches.xlsx
+++ b/data/Switches.xlsx
@@ -2395,7 +2395,43 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2404,13 +2440,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2428,40 +2464,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2480,18 +2492,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2805,7 +2805,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2878,16 +2878,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
       <c r="L2" s="119" t="s">
         <v>7</v>
       </c>
@@ -2905,14 +2905,14 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="131"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="143"/>
       <c r="L3" s="119" t="s">
         <v>8</v>
       </c>
@@ -4204,7 +4204,7 @@
       <c r="F35" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="79" t="s">
         <v>248</v>
       </c>
       <c r="H35" s="49" t="s">
@@ -4374,13 +4374,13 @@
       <c r="D40" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="76" t="s">
         <v>277</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="76" t="s">
         <v>278</v>
       </c>
       <c r="H40" s="49" t="s">
@@ -8969,16 +8969,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="155" t="s">
+      <c r="D168" s="123" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="155"/>
-      <c r="F168" s="155"/>
-      <c r="G168" s="155"/>
-      <c r="H168" s="155"/>
-      <c r="I168" s="155"/>
-      <c r="J168" s="155"/>
-      <c r="K168" s="155"/>
+      <c r="E168" s="123"/>
+      <c r="F168" s="123"/>
+      <c r="G168" s="123"/>
+      <c r="H168" s="123"/>
+      <c r="I168" s="123"/>
+      <c r="J168" s="123"/>
+      <c r="K168" s="123"/>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="12">
@@ -9104,16 +9104,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="155" t="s">
+      <c r="D175" s="123" t="s">
         <v>349</v>
       </c>
-      <c r="E175" s="155"/>
-      <c r="F175" s="155"/>
-      <c r="G175" s="155"/>
-      <c r="H175" s="155"/>
-      <c r="I175" s="155"/>
-      <c r="J175" s="155"/>
-      <c r="K175" s="155"/>
+      <c r="E175" s="123"/>
+      <c r="F175" s="123"/>
+      <c r="G175" s="123"/>
+      <c r="H175" s="123"/>
+      <c r="I175" s="123"/>
+      <c r="J175" s="123"/>
+      <c r="K175" s="123"/>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="12">
@@ -9166,16 +9166,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="155" t="s">
+      <c r="D178" s="123" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="155"/>
-      <c r="F178" s="155"/>
-      <c r="G178" s="155"/>
-      <c r="H178" s="155"/>
-      <c r="I178" s="155"/>
-      <c r="J178" s="155"/>
-      <c r="K178" s="155"/>
+      <c r="E178" s="123"/>
+      <c r="F178" s="123"/>
+      <c r="G178" s="123"/>
+      <c r="H178" s="123"/>
+      <c r="I178" s="123"/>
+      <c r="J178" s="123"/>
+      <c r="K178" s="123"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -9244,16 +9244,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="141" t="s">
+      <c r="D182" s="124" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="142"/>
-      <c r="F182" s="142"/>
-      <c r="G182" s="142"/>
-      <c r="H182" s="142"/>
-      <c r="I182" s="142"/>
-      <c r="J182" s="142"/>
-      <c r="K182" s="143"/>
+      <c r="E182" s="125"/>
+      <c r="F182" s="125"/>
+      <c r="G182" s="125"/>
+      <c r="H182" s="125"/>
+      <c r="I182" s="125"/>
+      <c r="J182" s="125"/>
+      <c r="K182" s="126"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -9265,16 +9265,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="141" t="s">
+      <c r="D183" s="124" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="142"/>
-      <c r="F183" s="142"/>
-      <c r="G183" s="142"/>
-      <c r="H183" s="142"/>
-      <c r="I183" s="142"/>
-      <c r="J183" s="142"/>
-      <c r="K183" s="143"/>
+      <c r="E183" s="125"/>
+      <c r="F183" s="125"/>
+      <c r="G183" s="125"/>
+      <c r="H183" s="125"/>
+      <c r="I183" s="125"/>
+      <c r="J183" s="125"/>
+      <c r="K183" s="126"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -9286,16 +9286,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="141" t="s">
+      <c r="D184" s="124" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="142"/>
-      <c r="F184" s="142"/>
-      <c r="G184" s="142"/>
-      <c r="H184" s="142"/>
-      <c r="I184" s="142"/>
-      <c r="J184" s="142"/>
-      <c r="K184" s="143"/>
+      <c r="E184" s="125"/>
+      <c r="F184" s="125"/>
+      <c r="G184" s="125"/>
+      <c r="H184" s="125"/>
+      <c r="I184" s="125"/>
+      <c r="J184" s="125"/>
+      <c r="K184" s="126"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -9307,16 +9307,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="141" t="s">
+      <c r="D185" s="124" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="142"/>
-      <c r="F185" s="142"/>
-      <c r="G185" s="142"/>
-      <c r="H185" s="142"/>
-      <c r="I185" s="142"/>
-      <c r="J185" s="142"/>
-      <c r="K185" s="143"/>
+      <c r="E185" s="125"/>
+      <c r="F185" s="125"/>
+      <c r="G185" s="125"/>
+      <c r="H185" s="125"/>
+      <c r="I185" s="125"/>
+      <c r="J185" s="125"/>
+      <c r="K185" s="126"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -9328,16 +9328,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="141" t="s">
+      <c r="D186" s="124" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="142"/>
-      <c r="F186" s="142"/>
-      <c r="G186" s="142"/>
-      <c r="H186" s="142"/>
-      <c r="I186" s="142"/>
-      <c r="J186" s="142"/>
-      <c r="K186" s="143"/>
+      <c r="E186" s="125"/>
+      <c r="F186" s="125"/>
+      <c r="G186" s="125"/>
+      <c r="H186" s="125"/>
+      <c r="I186" s="125"/>
+      <c r="J186" s="125"/>
+      <c r="K186" s="126"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -9349,16 +9349,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="141" t="s">
+      <c r="D187" s="124" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="142"/>
-      <c r="F187" s="142"/>
-      <c r="G187" s="142"/>
-      <c r="H187" s="142"/>
-      <c r="I187" s="142"/>
-      <c r="J187" s="142"/>
-      <c r="K187" s="143"/>
+      <c r="E187" s="125"/>
+      <c r="F187" s="125"/>
+      <c r="G187" s="125"/>
+      <c r="H187" s="125"/>
+      <c r="I187" s="125"/>
+      <c r="J187" s="125"/>
+      <c r="K187" s="126"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -9370,16 +9370,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="141" t="s">
+      <c r="D188" s="124" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="142"/>
-      <c r="F188" s="142"/>
-      <c r="G188" s="142"/>
-      <c r="H188" s="142"/>
-      <c r="I188" s="142"/>
-      <c r="J188" s="142"/>
-      <c r="K188" s="143"/>
+      <c r="E188" s="125"/>
+      <c r="F188" s="125"/>
+      <c r="G188" s="125"/>
+      <c r="H188" s="125"/>
+      <c r="I188" s="125"/>
+      <c r="J188" s="125"/>
+      <c r="K188" s="126"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -9391,16 +9391,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="141" t="s">
+      <c r="D189" s="124" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="142"/>
-      <c r="F189" s="142"/>
-      <c r="G189" s="142"/>
-      <c r="H189" s="142"/>
-      <c r="I189" s="142"/>
-      <c r="J189" s="142"/>
-      <c r="K189" s="143"/>
+      <c r="E189" s="125"/>
+      <c r="F189" s="125"/>
+      <c r="G189" s="125"/>
+      <c r="H189" s="125"/>
+      <c r="I189" s="125"/>
+      <c r="J189" s="125"/>
+      <c r="K189" s="126"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -9412,16 +9412,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="141" t="s">
+      <c r="D190" s="124" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="142"/>
-      <c r="F190" s="142"/>
-      <c r="G190" s="142"/>
-      <c r="H190" s="142"/>
-      <c r="I190" s="142"/>
-      <c r="J190" s="142"/>
-      <c r="K190" s="143"/>
+      <c r="E190" s="125"/>
+      <c r="F190" s="125"/>
+      <c r="G190" s="125"/>
+      <c r="H190" s="125"/>
+      <c r="I190" s="125"/>
+      <c r="J190" s="125"/>
+      <c r="K190" s="126"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -9433,16 +9433,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="141" t="s">
+      <c r="D191" s="124" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="142"/>
-      <c r="F191" s="142"/>
-      <c r="G191" s="142"/>
-      <c r="H191" s="142"/>
-      <c r="I191" s="142"/>
-      <c r="J191" s="142"/>
-      <c r="K191" s="143"/>
+      <c r="E191" s="125"/>
+      <c r="F191" s="125"/>
+      <c r="G191" s="125"/>
+      <c r="H191" s="125"/>
+      <c r="I191" s="125"/>
+      <c r="J191" s="125"/>
+      <c r="K191" s="126"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -9454,16 +9454,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="141" t="s">
+      <c r="D192" s="124" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="142"/>
-      <c r="F192" s="142"/>
-      <c r="G192" s="142"/>
-      <c r="H192" s="142"/>
-      <c r="I192" s="142"/>
-      <c r="J192" s="142"/>
-      <c r="K192" s="143"/>
+      <c r="E192" s="125"/>
+      <c r="F192" s="125"/>
+      <c r="G192" s="125"/>
+      <c r="H192" s="125"/>
+      <c r="I192" s="125"/>
+      <c r="J192" s="125"/>
+      <c r="K192" s="126"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -9475,16 +9475,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="152" t="s">
+      <c r="D193" s="127" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="153"/>
-      <c r="F193" s="153"/>
-      <c r="G193" s="153"/>
-      <c r="H193" s="153"/>
-      <c r="I193" s="153"/>
-      <c r="J193" s="153"/>
-      <c r="K193" s="154"/>
+      <c r="E193" s="128"/>
+      <c r="F193" s="128"/>
+      <c r="G193" s="128"/>
+      <c r="H193" s="128"/>
+      <c r="I193" s="128"/>
+      <c r="J193" s="128"/>
+      <c r="K193" s="129"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -9499,16 +9499,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="134" t="s">
+      <c r="D194" s="130" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="127"/>
-      <c r="F194" s="127"/>
-      <c r="G194" s="127"/>
-      <c r="H194" s="127"/>
-      <c r="I194" s="127"/>
-      <c r="J194" s="127"/>
-      <c r="K194" s="135"/>
+      <c r="E194" s="131"/>
+      <c r="F194" s="131"/>
+      <c r="G194" s="131"/>
+      <c r="H194" s="131"/>
+      <c r="I194" s="131"/>
+      <c r="J194" s="131"/>
+      <c r="K194" s="132"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -9520,16 +9520,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="141" t="s">
+      <c r="D195" s="124" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="142"/>
-      <c r="F195" s="142"/>
-      <c r="G195" s="142"/>
-      <c r="H195" s="142"/>
-      <c r="I195" s="142"/>
-      <c r="J195" s="142"/>
-      <c r="K195" s="143"/>
+      <c r="E195" s="125"/>
+      <c r="F195" s="125"/>
+      <c r="G195" s="125"/>
+      <c r="H195" s="125"/>
+      <c r="I195" s="125"/>
+      <c r="J195" s="125"/>
+      <c r="K195" s="126"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -9541,16 +9541,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="141" t="s">
+      <c r="D196" s="124" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="142"/>
-      <c r="F196" s="142"/>
-      <c r="G196" s="142"/>
-      <c r="H196" s="142"/>
-      <c r="I196" s="142"/>
-      <c r="J196" s="142"/>
-      <c r="K196" s="143"/>
+      <c r="E196" s="125"/>
+      <c r="F196" s="125"/>
+      <c r="G196" s="125"/>
+      <c r="H196" s="125"/>
+      <c r="I196" s="125"/>
+      <c r="J196" s="125"/>
+      <c r="K196" s="126"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -9562,16 +9562,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="141" t="s">
+      <c r="D197" s="124" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="142"/>
-      <c r="F197" s="142"/>
-      <c r="G197" s="142"/>
-      <c r="H197" s="142"/>
-      <c r="I197" s="142"/>
-      <c r="J197" s="142"/>
-      <c r="K197" s="143"/>
+      <c r="E197" s="125"/>
+      <c r="F197" s="125"/>
+      <c r="G197" s="125"/>
+      <c r="H197" s="125"/>
+      <c r="I197" s="125"/>
+      <c r="J197" s="125"/>
+      <c r="K197" s="126"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -9583,16 +9583,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="141" t="s">
+      <c r="D198" s="124" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="142"/>
-      <c r="F198" s="142"/>
-      <c r="G198" s="142"/>
-      <c r="H198" s="142"/>
-      <c r="I198" s="142"/>
-      <c r="J198" s="142"/>
-      <c r="K198" s="143"/>
+      <c r="E198" s="125"/>
+      <c r="F198" s="125"/>
+      <c r="G198" s="125"/>
+      <c r="H198" s="125"/>
+      <c r="I198" s="125"/>
+      <c r="J198" s="125"/>
+      <c r="K198" s="126"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -9623,16 +9623,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="141" t="s">
+      <c r="D200" s="124" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="142"/>
-      <c r="F200" s="142"/>
-      <c r="G200" s="142"/>
-      <c r="H200" s="142"/>
-      <c r="I200" s="142"/>
-      <c r="J200" s="142"/>
-      <c r="K200" s="143"/>
+      <c r="E200" s="125"/>
+      <c r="F200" s="125"/>
+      <c r="G200" s="125"/>
+      <c r="H200" s="125"/>
+      <c r="I200" s="125"/>
+      <c r="J200" s="125"/>
+      <c r="K200" s="126"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -9663,16 +9663,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="149" t="s">
+      <c r="D202" s="153" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="150"/>
-      <c r="F202" s="150"/>
-      <c r="G202" s="150"/>
-      <c r="H202" s="150"/>
-      <c r="I202" s="150"/>
-      <c r="J202" s="150"/>
-      <c r="K202" s="151"/>
+      <c r="E202" s="154"/>
+      <c r="F202" s="154"/>
+      <c r="G202" s="154"/>
+      <c r="H202" s="154"/>
+      <c r="I202" s="154"/>
+      <c r="J202" s="154"/>
+      <c r="K202" s="155"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -9703,16 +9703,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="141" t="s">
+      <c r="D204" s="124" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="142"/>
-      <c r="F204" s="142"/>
-      <c r="G204" s="142"/>
-      <c r="H204" s="142"/>
-      <c r="I204" s="142"/>
-      <c r="J204" s="142"/>
-      <c r="K204" s="143"/>
+      <c r="E204" s="125"/>
+      <c r="F204" s="125"/>
+      <c r="G204" s="125"/>
+      <c r="H204" s="125"/>
+      <c r="I204" s="125"/>
+      <c r="J204" s="125"/>
+      <c r="K204" s="126"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -9743,16 +9743,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="141" t="s">
+      <c r="D206" s="124" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="142"/>
-      <c r="F206" s="142"/>
-      <c r="G206" s="142"/>
-      <c r="H206" s="142"/>
-      <c r="I206" s="142"/>
-      <c r="J206" s="142"/>
-      <c r="K206" s="143"/>
+      <c r="E206" s="125"/>
+      <c r="F206" s="125"/>
+      <c r="G206" s="125"/>
+      <c r="H206" s="125"/>
+      <c r="I206" s="125"/>
+      <c r="J206" s="125"/>
+      <c r="K206" s="126"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -9783,16 +9783,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="141" t="s">
+      <c r="D208" s="124" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="142"/>
-      <c r="F208" s="142"/>
-      <c r="G208" s="142"/>
-      <c r="H208" s="142"/>
-      <c r="I208" s="142"/>
-      <c r="J208" s="142"/>
-      <c r="K208" s="143"/>
+      <c r="E208" s="125"/>
+      <c r="F208" s="125"/>
+      <c r="G208" s="125"/>
+      <c r="H208" s="125"/>
+      <c r="I208" s="125"/>
+      <c r="J208" s="125"/>
+      <c r="K208" s="126"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -9826,16 +9826,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="134" t="s">
+      <c r="D210" s="130" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="127"/>
-      <c r="F210" s="127"/>
-      <c r="G210" s="127"/>
-      <c r="H210" s="127"/>
-      <c r="I210" s="127"/>
-      <c r="J210" s="127"/>
-      <c r="K210" s="135"/>
+      <c r="E210" s="131"/>
+      <c r="F210" s="131"/>
+      <c r="G210" s="131"/>
+      <c r="H210" s="131"/>
+      <c r="I210" s="131"/>
+      <c r="J210" s="131"/>
+      <c r="K210" s="132"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -9904,16 +9904,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="141" t="s">
+      <c r="D214" s="124" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="142"/>
-      <c r="F214" s="142"/>
-      <c r="G214" s="142"/>
-      <c r="H214" s="142"/>
-      <c r="I214" s="142"/>
-      <c r="J214" s="142"/>
-      <c r="K214" s="143"/>
+      <c r="E214" s="125"/>
+      <c r="F214" s="125"/>
+      <c r="G214" s="125"/>
+      <c r="H214" s="125"/>
+      <c r="I214" s="125"/>
+      <c r="J214" s="125"/>
+      <c r="K214" s="126"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -9944,16 +9944,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="132" t="s">
+      <c r="D216" s="144" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="124"/>
-      <c r="F216" s="124"/>
-      <c r="G216" s="124"/>
-      <c r="H216" s="124"/>
-      <c r="I216" s="124"/>
-      <c r="J216" s="124"/>
-      <c r="K216" s="133"/>
+      <c r="E216" s="136"/>
+      <c r="F216" s="136"/>
+      <c r="G216" s="136"/>
+      <c r="H216" s="136"/>
+      <c r="I216" s="136"/>
+      <c r="J216" s="136"/>
+      <c r="K216" s="145"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -9965,14 +9965,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="134"/>
-      <c r="E217" s="127"/>
-      <c r="F217" s="127"/>
-      <c r="G217" s="127"/>
-      <c r="H217" s="127"/>
-      <c r="I217" s="127"/>
-      <c r="J217" s="127"/>
-      <c r="K217" s="135"/>
+      <c r="D217" s="130"/>
+      <c r="E217" s="131"/>
+      <c r="F217" s="131"/>
+      <c r="G217" s="131"/>
+      <c r="H217" s="131"/>
+      <c r="I217" s="131"/>
+      <c r="J217" s="131"/>
+      <c r="K217" s="132"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -9984,16 +9984,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="132" t="s">
+      <c r="D218" s="144" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="124"/>
-      <c r="F218" s="124"/>
-      <c r="G218" s="124"/>
-      <c r="H218" s="124"/>
-      <c r="I218" s="124"/>
-      <c r="J218" s="124"/>
-      <c r="K218" s="133"/>
+      <c r="E218" s="136"/>
+      <c r="F218" s="136"/>
+      <c r="G218" s="136"/>
+      <c r="H218" s="136"/>
+      <c r="I218" s="136"/>
+      <c r="J218" s="136"/>
+      <c r="K218" s="145"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -10005,14 +10005,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="134"/>
-      <c r="E219" s="127"/>
-      <c r="F219" s="127"/>
-      <c r="G219" s="127"/>
-      <c r="H219" s="127"/>
-      <c r="I219" s="127"/>
-      <c r="J219" s="127"/>
-      <c r="K219" s="135"/>
+      <c r="D219" s="130"/>
+      <c r="E219" s="131"/>
+      <c r="F219" s="131"/>
+      <c r="G219" s="131"/>
+      <c r="H219" s="131"/>
+      <c r="I219" s="131"/>
+      <c r="J219" s="131"/>
+      <c r="K219" s="132"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -10024,16 +10024,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="132" t="s">
+      <c r="D220" s="144" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="124"/>
-      <c r="F220" s="124"/>
-      <c r="G220" s="124"/>
-      <c r="H220" s="124"/>
-      <c r="I220" s="124"/>
-      <c r="J220" s="124"/>
-      <c r="K220" s="133"/>
+      <c r="E220" s="136"/>
+      <c r="F220" s="136"/>
+      <c r="G220" s="136"/>
+      <c r="H220" s="136"/>
+      <c r="I220" s="136"/>
+      <c r="J220" s="136"/>
+      <c r="K220" s="145"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -10045,14 +10045,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="134"/>
-      <c r="E221" s="127"/>
-      <c r="F221" s="127"/>
-      <c r="G221" s="127"/>
-      <c r="H221" s="127"/>
-      <c r="I221" s="127"/>
-      <c r="J221" s="127"/>
-      <c r="K221" s="135"/>
+      <c r="D221" s="130"/>
+      <c r="E221" s="131"/>
+      <c r="F221" s="131"/>
+      <c r="G221" s="131"/>
+      <c r="H221" s="131"/>
+      <c r="I221" s="131"/>
+      <c r="J221" s="131"/>
+      <c r="K221" s="132"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -10064,16 +10064,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="141" t="s">
+      <c r="D222" s="124" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="142"/>
-      <c r="F222" s="142"/>
-      <c r="G222" s="142"/>
-      <c r="H222" s="142"/>
-      <c r="I222" s="142"/>
-      <c r="J222" s="142"/>
-      <c r="K222" s="143"/>
+      <c r="E222" s="125"/>
+      <c r="F222" s="125"/>
+      <c r="G222" s="125"/>
+      <c r="H222" s="125"/>
+      <c r="I222" s="125"/>
+      <c r="J222" s="125"/>
+      <c r="K222" s="126"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -10104,16 +10104,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="141" t="s">
+      <c r="D224" s="124" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="142"/>
-      <c r="F224" s="142"/>
-      <c r="G224" s="142"/>
-      <c r="H224" s="142"/>
-      <c r="I224" s="142"/>
-      <c r="J224" s="142"/>
-      <c r="K224" s="143"/>
+      <c r="E224" s="125"/>
+      <c r="F224" s="125"/>
+      <c r="G224" s="125"/>
+      <c r="H224" s="125"/>
+      <c r="I224" s="125"/>
+      <c r="J224" s="125"/>
+      <c r="K224" s="126"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -10147,16 +10147,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="146" t="s">
+      <c r="D226" s="150" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="147"/>
-      <c r="F226" s="147"/>
-      <c r="G226" s="147"/>
-      <c r="H226" s="147"/>
-      <c r="I226" s="147"/>
-      <c r="J226" s="147"/>
-      <c r="K226" s="148"/>
+      <c r="E226" s="151"/>
+      <c r="F226" s="151"/>
+      <c r="G226" s="151"/>
+      <c r="H226" s="151"/>
+      <c r="I226" s="151"/>
+      <c r="J226" s="151"/>
+      <c r="K226" s="152"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -10301,16 +10301,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="136" t="s">
+      <c r="D234" s="148" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="137"/>
-      <c r="F234" s="137"/>
-      <c r="G234" s="137"/>
-      <c r="H234" s="137"/>
-      <c r="I234" s="137"/>
-      <c r="J234" s="137"/>
-      <c r="K234" s="138"/>
+      <c r="E234" s="134"/>
+      <c r="F234" s="134"/>
+      <c r="G234" s="134"/>
+      <c r="H234" s="134"/>
+      <c r="I234" s="134"/>
+      <c r="J234" s="134"/>
+      <c r="K234" s="149"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -10379,16 +10379,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="123" t="s">
+      <c r="D238" s="140" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="124"/>
-      <c r="F238" s="124"/>
-      <c r="G238" s="124"/>
-      <c r="H238" s="124"/>
-      <c r="I238" s="124"/>
-      <c r="J238" s="124"/>
-      <c r="K238" s="125"/>
+      <c r="E238" s="136"/>
+      <c r="F238" s="136"/>
+      <c r="G238" s="136"/>
+      <c r="H238" s="136"/>
+      <c r="I238" s="136"/>
+      <c r="J238" s="136"/>
+      <c r="K238" s="137"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -10400,14 +10400,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="126"/>
-      <c r="E239" s="127"/>
-      <c r="F239" s="127"/>
-      <c r="G239" s="127"/>
-      <c r="H239" s="127"/>
-      <c r="I239" s="127"/>
-      <c r="J239" s="127"/>
-      <c r="K239" s="128"/>
+      <c r="D239" s="146"/>
+      <c r="E239" s="131"/>
+      <c r="F239" s="131"/>
+      <c r="G239" s="131"/>
+      <c r="H239" s="131"/>
+      <c r="I239" s="131"/>
+      <c r="J239" s="131"/>
+      <c r="K239" s="147"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -10419,16 +10419,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="124" t="s">
+      <c r="D240" s="136" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="124"/>
-      <c r="F240" s="124"/>
-      <c r="G240" s="124"/>
-      <c r="H240" s="124"/>
-      <c r="I240" s="124"/>
-      <c r="J240" s="124"/>
-      <c r="K240" s="125"/>
+      <c r="E240" s="136"/>
+      <c r="F240" s="136"/>
+      <c r="G240" s="136"/>
+      <c r="H240" s="136"/>
+      <c r="I240" s="136"/>
+      <c r="J240" s="136"/>
+      <c r="K240" s="137"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -10440,14 +10440,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="144"/>
-      <c r="E241" s="144"/>
-      <c r="F241" s="144"/>
-      <c r="G241" s="144"/>
-      <c r="H241" s="144"/>
-      <c r="I241" s="144"/>
-      <c r="J241" s="144"/>
-      <c r="K241" s="145"/>
+      <c r="D241" s="138"/>
+      <c r="E241" s="138"/>
+      <c r="F241" s="138"/>
+      <c r="G241" s="138"/>
+      <c r="H241" s="138"/>
+      <c r="I241" s="138"/>
+      <c r="J241" s="138"/>
+      <c r="K241" s="139"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -10638,16 +10638,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="139" t="s">
+      <c r="D250" s="133" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="137"/>
-      <c r="F250" s="137"/>
-      <c r="G250" s="137"/>
-      <c r="H250" s="137"/>
-      <c r="I250" s="137"/>
-      <c r="J250" s="137"/>
-      <c r="K250" s="140"/>
+      <c r="E250" s="134"/>
+      <c r="F250" s="134"/>
+      <c r="G250" s="134"/>
+      <c r="H250" s="134"/>
+      <c r="I250" s="134"/>
+      <c r="J250" s="134"/>
+      <c r="K250" s="135"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -11216,16 +11216,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="141" t="s">
+      <c r="D280" s="124" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="142"/>
-      <c r="F280" s="142"/>
-      <c r="G280" s="142"/>
-      <c r="H280" s="142"/>
-      <c r="I280" s="142"/>
-      <c r="J280" s="142"/>
-      <c r="K280" s="143"/>
+      <c r="E280" s="125"/>
+      <c r="F280" s="125"/>
+      <c r="G280" s="125"/>
+      <c r="H280" s="125"/>
+      <c r="I280" s="125"/>
+      <c r="J280" s="125"/>
+      <c r="K280" s="126"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -11332,16 +11332,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="141" t="s">
+      <c r="D286" s="124" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="142"/>
-      <c r="F286" s="142"/>
-      <c r="G286" s="142"/>
-      <c r="H286" s="142"/>
-      <c r="I286" s="142"/>
-      <c r="J286" s="142"/>
-      <c r="K286" s="143"/>
+      <c r="E286" s="125"/>
+      <c r="F286" s="125"/>
+      <c r="G286" s="125"/>
+      <c r="H286" s="125"/>
+      <c r="I286" s="125"/>
+      <c r="J286" s="125"/>
+      <c r="K286" s="126"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -11529,16 +11529,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="141" t="s">
+      <c r="D296" s="124" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="142"/>
-      <c r="F296" s="142"/>
-      <c r="G296" s="142"/>
-      <c r="H296" s="142"/>
-      <c r="I296" s="142"/>
-      <c r="J296" s="142"/>
-      <c r="K296" s="143"/>
+      <c r="E296" s="125"/>
+      <c r="F296" s="125"/>
+      <c r="G296" s="125"/>
+      <c r="H296" s="125"/>
+      <c r="I296" s="125"/>
+      <c r="J296" s="125"/>
+      <c r="K296" s="126"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -11569,16 +11569,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="123" t="s">
+      <c r="D298" s="140" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="124"/>
-      <c r="F298" s="124"/>
-      <c r="G298" s="124"/>
-      <c r="H298" s="124"/>
-      <c r="I298" s="124"/>
-      <c r="J298" s="124"/>
-      <c r="K298" s="125"/>
+      <c r="E298" s="136"/>
+      <c r="F298" s="136"/>
+      <c r="G298" s="136"/>
+      <c r="H298" s="136"/>
+      <c r="I298" s="136"/>
+      <c r="J298" s="136"/>
+      <c r="K298" s="137"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -11590,14 +11590,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="126"/>
-      <c r="E299" s="127"/>
-      <c r="F299" s="127"/>
-      <c r="G299" s="127"/>
-      <c r="H299" s="127"/>
-      <c r="I299" s="127"/>
-      <c r="J299" s="127"/>
-      <c r="K299" s="128"/>
+      <c r="D299" s="146"/>
+      <c r="E299" s="131"/>
+      <c r="F299" s="131"/>
+      <c r="G299" s="131"/>
+      <c r="H299" s="131"/>
+      <c r="I299" s="131"/>
+      <c r="J299" s="131"/>
+      <c r="K299" s="147"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -11609,16 +11609,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="123" t="s">
+      <c r="D300" s="140" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="124"/>
-      <c r="F300" s="124"/>
-      <c r="G300" s="124"/>
-      <c r="H300" s="124"/>
-      <c r="I300" s="124"/>
-      <c r="J300" s="124"/>
-      <c r="K300" s="125"/>
+      <c r="E300" s="136"/>
+      <c r="F300" s="136"/>
+      <c r="G300" s="136"/>
+      <c r="H300" s="136"/>
+      <c r="I300" s="136"/>
+      <c r="J300" s="136"/>
+      <c r="K300" s="137"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -11630,14 +11630,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="126"/>
-      <c r="E301" s="127"/>
-      <c r="F301" s="127"/>
-      <c r="G301" s="127"/>
-      <c r="H301" s="127"/>
-      <c r="I301" s="127"/>
-      <c r="J301" s="127"/>
-      <c r="K301" s="128"/>
+      <c r="D301" s="146"/>
+      <c r="E301" s="131"/>
+      <c r="F301" s="131"/>
+      <c r="G301" s="131"/>
+      <c r="H301" s="131"/>
+      <c r="I301" s="131"/>
+      <c r="J301" s="131"/>
+      <c r="K301" s="147"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -11649,16 +11649,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="123" t="s">
+      <c r="D302" s="140" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="124"/>
-      <c r="F302" s="124"/>
-      <c r="G302" s="124"/>
-      <c r="H302" s="124"/>
-      <c r="I302" s="124"/>
-      <c r="J302" s="124"/>
-      <c r="K302" s="125"/>
+      <c r="E302" s="136"/>
+      <c r="F302" s="136"/>
+      <c r="G302" s="136"/>
+      <c r="H302" s="136"/>
+      <c r="I302" s="136"/>
+      <c r="J302" s="136"/>
+      <c r="K302" s="137"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -11670,14 +11670,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="126"/>
-      <c r="E303" s="127"/>
-      <c r="F303" s="127"/>
-      <c r="G303" s="127"/>
-      <c r="H303" s="127"/>
-      <c r="I303" s="127"/>
-      <c r="J303" s="127"/>
-      <c r="K303" s="128"/>
+      <c r="D303" s="146"/>
+      <c r="E303" s="131"/>
+      <c r="F303" s="131"/>
+      <c r="G303" s="131"/>
+      <c r="H303" s="131"/>
+      <c r="I303" s="131"/>
+      <c r="J303" s="131"/>
+      <c r="K303" s="147"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -11689,16 +11689,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="123" t="s">
+      <c r="D304" s="140" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="124"/>
-      <c r="F304" s="124"/>
-      <c r="G304" s="124"/>
-      <c r="H304" s="124"/>
-      <c r="I304" s="124"/>
-      <c r="J304" s="124"/>
-      <c r="K304" s="125"/>
+      <c r="E304" s="136"/>
+      <c r="F304" s="136"/>
+      <c r="G304" s="136"/>
+      <c r="H304" s="136"/>
+      <c r="I304" s="136"/>
+      <c r="J304" s="136"/>
+      <c r="K304" s="137"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -11710,14 +11710,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="126"/>
-      <c r="E305" s="127"/>
-      <c r="F305" s="127"/>
-      <c r="G305" s="127"/>
-      <c r="H305" s="127"/>
-      <c r="I305" s="127"/>
-      <c r="J305" s="127"/>
-      <c r="K305" s="128"/>
+      <c r="D305" s="146"/>
+      <c r="E305" s="131"/>
+      <c r="F305" s="131"/>
+      <c r="G305" s="131"/>
+      <c r="H305" s="131"/>
+      <c r="I305" s="131"/>
+      <c r="J305" s="131"/>
+      <c r="K305" s="147"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -11732,16 +11732,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="123" t="s">
+      <c r="D306" s="140" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="124"/>
-      <c r="F306" s="124"/>
-      <c r="G306" s="124"/>
-      <c r="H306" s="124"/>
-      <c r="I306" s="124"/>
-      <c r="J306" s="124"/>
-      <c r="K306" s="125"/>
+      <c r="E306" s="136"/>
+      <c r="F306" s="136"/>
+      <c r="G306" s="136"/>
+      <c r="H306" s="136"/>
+      <c r="I306" s="136"/>
+      <c r="J306" s="136"/>
+      <c r="K306" s="137"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -11753,14 +11753,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="126"/>
-      <c r="E307" s="127"/>
-      <c r="F307" s="127"/>
-      <c r="G307" s="127"/>
-      <c r="H307" s="127"/>
-      <c r="I307" s="127"/>
-      <c r="J307" s="127"/>
-      <c r="K307" s="128"/>
+      <c r="D307" s="146"/>
+      <c r="E307" s="131"/>
+      <c r="F307" s="131"/>
+      <c r="G307" s="131"/>
+      <c r="H307" s="131"/>
+      <c r="I307" s="131"/>
+      <c r="J307" s="131"/>
+      <c r="K307" s="147"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -11772,16 +11772,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="123" t="s">
+      <c r="D308" s="140" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="124"/>
-      <c r="F308" s="124"/>
-      <c r="G308" s="124"/>
-      <c r="H308" s="124"/>
-      <c r="I308" s="124"/>
-      <c r="J308" s="124"/>
-      <c r="K308" s="125"/>
+      <c r="E308" s="136"/>
+      <c r="F308" s="136"/>
+      <c r="G308" s="136"/>
+      <c r="H308" s="136"/>
+      <c r="I308" s="136"/>
+      <c r="J308" s="136"/>
+      <c r="K308" s="137"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -11793,14 +11793,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="126"/>
-      <c r="E309" s="127"/>
-      <c r="F309" s="127"/>
-      <c r="G309" s="127"/>
-      <c r="H309" s="127"/>
-      <c r="I309" s="127"/>
-      <c r="J309" s="127"/>
-      <c r="K309" s="128"/>
+      <c r="D309" s="146"/>
+      <c r="E309" s="131"/>
+      <c r="F309" s="131"/>
+      <c r="G309" s="131"/>
+      <c r="H309" s="131"/>
+      <c r="I309" s="131"/>
+      <c r="J309" s="131"/>
+      <c r="K309" s="147"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -15680,31 +15680,12 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="D168:K168"/>
-    <mergeCell ref="D175:K175"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D250:K250"/>
-    <mergeCell ref="D280:K280"/>
-    <mergeCell ref="D286:K286"/>
-    <mergeCell ref="D296:K296"/>
-    <mergeCell ref="D240:K241"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="D216:K217"/>
     <mergeCell ref="D218:K219"/>
@@ -15721,12 +15702,31 @@
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
     <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D250:K250"/>
+    <mergeCell ref="D280:K280"/>
+    <mergeCell ref="D286:K286"/>
+    <mergeCell ref="D296:K296"/>
+    <mergeCell ref="D240:K241"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D168:K168"/>
+    <mergeCell ref="D175:K175"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -15812,16 +15812,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -15843,14 +15843,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="131"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="143"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -22099,16 +22099,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="155" t="s">
+      <c r="D178" s="123" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="155"/>
-      <c r="F178" s="155"/>
-      <c r="G178" s="155"/>
-      <c r="H178" s="155"/>
-      <c r="I178" s="155"/>
-      <c r="J178" s="155"/>
-      <c r="K178" s="155"/>
+      <c r="E178" s="123"/>
+      <c r="F178" s="123"/>
+      <c r="G178" s="123"/>
+      <c r="H178" s="123"/>
+      <c r="I178" s="123"/>
+      <c r="J178" s="123"/>
+      <c r="K178" s="123"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -22177,16 +22177,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="141" t="s">
+      <c r="D182" s="124" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="142"/>
-      <c r="F182" s="142"/>
-      <c r="G182" s="142"/>
-      <c r="H182" s="142"/>
-      <c r="I182" s="142"/>
-      <c r="J182" s="142"/>
-      <c r="K182" s="143"/>
+      <c r="E182" s="125"/>
+      <c r="F182" s="125"/>
+      <c r="G182" s="125"/>
+      <c r="H182" s="125"/>
+      <c r="I182" s="125"/>
+      <c r="J182" s="125"/>
+      <c r="K182" s="126"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -22198,16 +22198,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="141" t="s">
+      <c r="D183" s="124" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="142"/>
-      <c r="F183" s="142"/>
-      <c r="G183" s="142"/>
-      <c r="H183" s="142"/>
-      <c r="I183" s="142"/>
-      <c r="J183" s="142"/>
-      <c r="K183" s="143"/>
+      <c r="E183" s="125"/>
+      <c r="F183" s="125"/>
+      <c r="G183" s="125"/>
+      <c r="H183" s="125"/>
+      <c r="I183" s="125"/>
+      <c r="J183" s="125"/>
+      <c r="K183" s="126"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -22219,16 +22219,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="141" t="s">
+      <c r="D184" s="124" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="142"/>
-      <c r="F184" s="142"/>
-      <c r="G184" s="142"/>
-      <c r="H184" s="142"/>
-      <c r="I184" s="142"/>
-      <c r="J184" s="142"/>
-      <c r="K184" s="143"/>
+      <c r="E184" s="125"/>
+      <c r="F184" s="125"/>
+      <c r="G184" s="125"/>
+      <c r="H184" s="125"/>
+      <c r="I184" s="125"/>
+      <c r="J184" s="125"/>
+      <c r="K184" s="126"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -22240,16 +22240,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="141" t="s">
+      <c r="D185" s="124" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="142"/>
-      <c r="F185" s="142"/>
-      <c r="G185" s="142"/>
-      <c r="H185" s="142"/>
-      <c r="I185" s="142"/>
-      <c r="J185" s="142"/>
-      <c r="K185" s="143"/>
+      <c r="E185" s="125"/>
+      <c r="F185" s="125"/>
+      <c r="G185" s="125"/>
+      <c r="H185" s="125"/>
+      <c r="I185" s="125"/>
+      <c r="J185" s="125"/>
+      <c r="K185" s="126"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -22261,16 +22261,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="141" t="s">
+      <c r="D186" s="124" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="142"/>
-      <c r="F186" s="142"/>
-      <c r="G186" s="142"/>
-      <c r="H186" s="142"/>
-      <c r="I186" s="142"/>
-      <c r="J186" s="142"/>
-      <c r="K186" s="143"/>
+      <c r="E186" s="125"/>
+      <c r="F186" s="125"/>
+      <c r="G186" s="125"/>
+      <c r="H186" s="125"/>
+      <c r="I186" s="125"/>
+      <c r="J186" s="125"/>
+      <c r="K186" s="126"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -22282,16 +22282,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="141" t="s">
+      <c r="D187" s="124" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="142"/>
-      <c r="F187" s="142"/>
-      <c r="G187" s="142"/>
-      <c r="H187" s="142"/>
-      <c r="I187" s="142"/>
-      <c r="J187" s="142"/>
-      <c r="K187" s="143"/>
+      <c r="E187" s="125"/>
+      <c r="F187" s="125"/>
+      <c r="G187" s="125"/>
+      <c r="H187" s="125"/>
+      <c r="I187" s="125"/>
+      <c r="J187" s="125"/>
+      <c r="K187" s="126"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -22303,16 +22303,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="141" t="s">
+      <c r="D188" s="124" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="142"/>
-      <c r="F188" s="142"/>
-      <c r="G188" s="142"/>
-      <c r="H188" s="142"/>
-      <c r="I188" s="142"/>
-      <c r="J188" s="142"/>
-      <c r="K188" s="143"/>
+      <c r="E188" s="125"/>
+      <c r="F188" s="125"/>
+      <c r="G188" s="125"/>
+      <c r="H188" s="125"/>
+      <c r="I188" s="125"/>
+      <c r="J188" s="125"/>
+      <c r="K188" s="126"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -22324,16 +22324,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="141" t="s">
+      <c r="D189" s="124" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="142"/>
-      <c r="F189" s="142"/>
-      <c r="G189" s="142"/>
-      <c r="H189" s="142"/>
-      <c r="I189" s="142"/>
-      <c r="J189" s="142"/>
-      <c r="K189" s="143"/>
+      <c r="E189" s="125"/>
+      <c r="F189" s="125"/>
+      <c r="G189" s="125"/>
+      <c r="H189" s="125"/>
+      <c r="I189" s="125"/>
+      <c r="J189" s="125"/>
+      <c r="K189" s="126"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -22345,16 +22345,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="141" t="s">
+      <c r="D190" s="124" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="142"/>
-      <c r="F190" s="142"/>
-      <c r="G190" s="142"/>
-      <c r="H190" s="142"/>
-      <c r="I190" s="142"/>
-      <c r="J190" s="142"/>
-      <c r="K190" s="143"/>
+      <c r="E190" s="125"/>
+      <c r="F190" s="125"/>
+      <c r="G190" s="125"/>
+      <c r="H190" s="125"/>
+      <c r="I190" s="125"/>
+      <c r="J190" s="125"/>
+      <c r="K190" s="126"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -22366,16 +22366,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="141" t="s">
+      <c r="D191" s="124" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="142"/>
-      <c r="F191" s="142"/>
-      <c r="G191" s="142"/>
-      <c r="H191" s="142"/>
-      <c r="I191" s="142"/>
-      <c r="J191" s="142"/>
-      <c r="K191" s="143"/>
+      <c r="E191" s="125"/>
+      <c r="F191" s="125"/>
+      <c r="G191" s="125"/>
+      <c r="H191" s="125"/>
+      <c r="I191" s="125"/>
+      <c r="J191" s="125"/>
+      <c r="K191" s="126"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -22387,16 +22387,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="141" t="s">
+      <c r="D192" s="124" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="142"/>
-      <c r="F192" s="142"/>
-      <c r="G192" s="142"/>
-      <c r="H192" s="142"/>
-      <c r="I192" s="142"/>
-      <c r="J192" s="142"/>
-      <c r="K192" s="143"/>
+      <c r="E192" s="125"/>
+      <c r="F192" s="125"/>
+      <c r="G192" s="125"/>
+      <c r="H192" s="125"/>
+      <c r="I192" s="125"/>
+      <c r="J192" s="125"/>
+      <c r="K192" s="126"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -22408,16 +22408,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="152" t="s">
+      <c r="D193" s="127" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="153"/>
-      <c r="F193" s="153"/>
-      <c r="G193" s="153"/>
-      <c r="H193" s="153"/>
-      <c r="I193" s="153"/>
-      <c r="J193" s="153"/>
-      <c r="K193" s="154"/>
+      <c r="E193" s="128"/>
+      <c r="F193" s="128"/>
+      <c r="G193" s="128"/>
+      <c r="H193" s="128"/>
+      <c r="I193" s="128"/>
+      <c r="J193" s="128"/>
+      <c r="K193" s="129"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -22432,16 +22432,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="134" t="s">
+      <c r="D194" s="130" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="127"/>
-      <c r="F194" s="127"/>
-      <c r="G194" s="127"/>
-      <c r="H194" s="127"/>
-      <c r="I194" s="127"/>
-      <c r="J194" s="127"/>
-      <c r="K194" s="135"/>
+      <c r="E194" s="131"/>
+      <c r="F194" s="131"/>
+      <c r="G194" s="131"/>
+      <c r="H194" s="131"/>
+      <c r="I194" s="131"/>
+      <c r="J194" s="131"/>
+      <c r="K194" s="132"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -22453,16 +22453,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="141" t="s">
+      <c r="D195" s="124" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="142"/>
-      <c r="F195" s="142"/>
-      <c r="G195" s="142"/>
-      <c r="H195" s="142"/>
-      <c r="I195" s="142"/>
-      <c r="J195" s="142"/>
-      <c r="K195" s="143"/>
+      <c r="E195" s="125"/>
+      <c r="F195" s="125"/>
+      <c r="G195" s="125"/>
+      <c r="H195" s="125"/>
+      <c r="I195" s="125"/>
+      <c r="J195" s="125"/>
+      <c r="K195" s="126"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -22474,16 +22474,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="141" t="s">
+      <c r="D196" s="124" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="142"/>
-      <c r="F196" s="142"/>
-      <c r="G196" s="142"/>
-      <c r="H196" s="142"/>
-      <c r="I196" s="142"/>
-      <c r="J196" s="142"/>
-      <c r="K196" s="143"/>
+      <c r="E196" s="125"/>
+      <c r="F196" s="125"/>
+      <c r="G196" s="125"/>
+      <c r="H196" s="125"/>
+      <c r="I196" s="125"/>
+      <c r="J196" s="125"/>
+      <c r="K196" s="126"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -22495,16 +22495,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="141" t="s">
+      <c r="D197" s="124" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="142"/>
-      <c r="F197" s="142"/>
-      <c r="G197" s="142"/>
-      <c r="H197" s="142"/>
-      <c r="I197" s="142"/>
-      <c r="J197" s="142"/>
-      <c r="K197" s="143"/>
+      <c r="E197" s="125"/>
+      <c r="F197" s="125"/>
+      <c r="G197" s="125"/>
+      <c r="H197" s="125"/>
+      <c r="I197" s="125"/>
+      <c r="J197" s="125"/>
+      <c r="K197" s="126"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -22516,16 +22516,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="141" t="s">
+      <c r="D198" s="124" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="142"/>
-      <c r="F198" s="142"/>
-      <c r="G198" s="142"/>
-      <c r="H198" s="142"/>
-      <c r="I198" s="142"/>
-      <c r="J198" s="142"/>
-      <c r="K198" s="143"/>
+      <c r="E198" s="125"/>
+      <c r="F198" s="125"/>
+      <c r="G198" s="125"/>
+      <c r="H198" s="125"/>
+      <c r="I198" s="125"/>
+      <c r="J198" s="125"/>
+      <c r="K198" s="126"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -22556,16 +22556,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="141" t="s">
+      <c r="D200" s="124" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="142"/>
-      <c r="F200" s="142"/>
-      <c r="G200" s="142"/>
-      <c r="H200" s="142"/>
-      <c r="I200" s="142"/>
-      <c r="J200" s="142"/>
-      <c r="K200" s="143"/>
+      <c r="E200" s="125"/>
+      <c r="F200" s="125"/>
+      <c r="G200" s="125"/>
+      <c r="H200" s="125"/>
+      <c r="I200" s="125"/>
+      <c r="J200" s="125"/>
+      <c r="K200" s="126"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -22596,16 +22596,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="149" t="s">
+      <c r="D202" s="153" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="150"/>
-      <c r="F202" s="150"/>
-      <c r="G202" s="150"/>
-      <c r="H202" s="150"/>
-      <c r="I202" s="150"/>
-      <c r="J202" s="150"/>
-      <c r="K202" s="151"/>
+      <c r="E202" s="154"/>
+      <c r="F202" s="154"/>
+      <c r="G202" s="154"/>
+      <c r="H202" s="154"/>
+      <c r="I202" s="154"/>
+      <c r="J202" s="154"/>
+      <c r="K202" s="155"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -22636,16 +22636,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="141" t="s">
+      <c r="D204" s="124" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="142"/>
-      <c r="F204" s="142"/>
-      <c r="G204" s="142"/>
-      <c r="H204" s="142"/>
-      <c r="I204" s="142"/>
-      <c r="J204" s="142"/>
-      <c r="K204" s="143"/>
+      <c r="E204" s="125"/>
+      <c r="F204" s="125"/>
+      <c r="G204" s="125"/>
+      <c r="H204" s="125"/>
+      <c r="I204" s="125"/>
+      <c r="J204" s="125"/>
+      <c r="K204" s="126"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -22676,16 +22676,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="141" t="s">
+      <c r="D206" s="124" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="142"/>
-      <c r="F206" s="142"/>
-      <c r="G206" s="142"/>
-      <c r="H206" s="142"/>
-      <c r="I206" s="142"/>
-      <c r="J206" s="142"/>
-      <c r="K206" s="143"/>
+      <c r="E206" s="125"/>
+      <c r="F206" s="125"/>
+      <c r="G206" s="125"/>
+      <c r="H206" s="125"/>
+      <c r="I206" s="125"/>
+      <c r="J206" s="125"/>
+      <c r="K206" s="126"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -22716,16 +22716,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="141" t="s">
+      <c r="D208" s="124" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="142"/>
-      <c r="F208" s="142"/>
-      <c r="G208" s="142"/>
-      <c r="H208" s="142"/>
-      <c r="I208" s="142"/>
-      <c r="J208" s="142"/>
-      <c r="K208" s="143"/>
+      <c r="E208" s="125"/>
+      <c r="F208" s="125"/>
+      <c r="G208" s="125"/>
+      <c r="H208" s="125"/>
+      <c r="I208" s="125"/>
+      <c r="J208" s="125"/>
+      <c r="K208" s="126"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -22759,16 +22759,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="134" t="s">
+      <c r="D210" s="130" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="127"/>
-      <c r="F210" s="127"/>
-      <c r="G210" s="127"/>
-      <c r="H210" s="127"/>
-      <c r="I210" s="127"/>
-      <c r="J210" s="127"/>
-      <c r="K210" s="135"/>
+      <c r="E210" s="131"/>
+      <c r="F210" s="131"/>
+      <c r="G210" s="131"/>
+      <c r="H210" s="131"/>
+      <c r="I210" s="131"/>
+      <c r="J210" s="131"/>
+      <c r="K210" s="132"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -22837,16 +22837,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="141" t="s">
+      <c r="D214" s="124" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="142"/>
-      <c r="F214" s="142"/>
-      <c r="G214" s="142"/>
-      <c r="H214" s="142"/>
-      <c r="I214" s="142"/>
-      <c r="J214" s="142"/>
-      <c r="K214" s="143"/>
+      <c r="E214" s="125"/>
+      <c r="F214" s="125"/>
+      <c r="G214" s="125"/>
+      <c r="H214" s="125"/>
+      <c r="I214" s="125"/>
+      <c r="J214" s="125"/>
+      <c r="K214" s="126"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -22877,16 +22877,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="132" t="s">
+      <c r="D216" s="144" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="124"/>
-      <c r="F216" s="124"/>
-      <c r="G216" s="124"/>
-      <c r="H216" s="124"/>
-      <c r="I216" s="124"/>
-      <c r="J216" s="124"/>
-      <c r="K216" s="133"/>
+      <c r="E216" s="136"/>
+      <c r="F216" s="136"/>
+      <c r="G216" s="136"/>
+      <c r="H216" s="136"/>
+      <c r="I216" s="136"/>
+      <c r="J216" s="136"/>
+      <c r="K216" s="145"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -22898,14 +22898,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="134"/>
-      <c r="E217" s="127"/>
-      <c r="F217" s="127"/>
-      <c r="G217" s="127"/>
-      <c r="H217" s="127"/>
-      <c r="I217" s="127"/>
-      <c r="J217" s="127"/>
-      <c r="K217" s="135"/>
+      <c r="D217" s="130"/>
+      <c r="E217" s="131"/>
+      <c r="F217" s="131"/>
+      <c r="G217" s="131"/>
+      <c r="H217" s="131"/>
+      <c r="I217" s="131"/>
+      <c r="J217" s="131"/>
+      <c r="K217" s="132"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -22917,16 +22917,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="132" t="s">
+      <c r="D218" s="144" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="124"/>
-      <c r="F218" s="124"/>
-      <c r="G218" s="124"/>
-      <c r="H218" s="124"/>
-      <c r="I218" s="124"/>
-      <c r="J218" s="124"/>
-      <c r="K218" s="133"/>
+      <c r="E218" s="136"/>
+      <c r="F218" s="136"/>
+      <c r="G218" s="136"/>
+      <c r="H218" s="136"/>
+      <c r="I218" s="136"/>
+      <c r="J218" s="136"/>
+      <c r="K218" s="145"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -22938,14 +22938,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="134"/>
-      <c r="E219" s="127"/>
-      <c r="F219" s="127"/>
-      <c r="G219" s="127"/>
-      <c r="H219" s="127"/>
-      <c r="I219" s="127"/>
-      <c r="J219" s="127"/>
-      <c r="K219" s="135"/>
+      <c r="D219" s="130"/>
+      <c r="E219" s="131"/>
+      <c r="F219" s="131"/>
+      <c r="G219" s="131"/>
+      <c r="H219" s="131"/>
+      <c r="I219" s="131"/>
+      <c r="J219" s="131"/>
+      <c r="K219" s="132"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -22957,16 +22957,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="132" t="s">
+      <c r="D220" s="144" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="124"/>
-      <c r="F220" s="124"/>
-      <c r="G220" s="124"/>
-      <c r="H220" s="124"/>
-      <c r="I220" s="124"/>
-      <c r="J220" s="124"/>
-      <c r="K220" s="133"/>
+      <c r="E220" s="136"/>
+      <c r="F220" s="136"/>
+      <c r="G220" s="136"/>
+      <c r="H220" s="136"/>
+      <c r="I220" s="136"/>
+      <c r="J220" s="136"/>
+      <c r="K220" s="145"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -22978,14 +22978,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="134"/>
-      <c r="E221" s="127"/>
-      <c r="F221" s="127"/>
-      <c r="G221" s="127"/>
-      <c r="H221" s="127"/>
-      <c r="I221" s="127"/>
-      <c r="J221" s="127"/>
-      <c r="K221" s="135"/>
+      <c r="D221" s="130"/>
+      <c r="E221" s="131"/>
+      <c r="F221" s="131"/>
+      <c r="G221" s="131"/>
+      <c r="H221" s="131"/>
+      <c r="I221" s="131"/>
+      <c r="J221" s="131"/>
+      <c r="K221" s="132"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -22997,16 +22997,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="141" t="s">
+      <c r="D222" s="124" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="142"/>
-      <c r="F222" s="142"/>
-      <c r="G222" s="142"/>
-      <c r="H222" s="142"/>
-      <c r="I222" s="142"/>
-      <c r="J222" s="142"/>
-      <c r="K222" s="143"/>
+      <c r="E222" s="125"/>
+      <c r="F222" s="125"/>
+      <c r="G222" s="125"/>
+      <c r="H222" s="125"/>
+      <c r="I222" s="125"/>
+      <c r="J222" s="125"/>
+      <c r="K222" s="126"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -23037,16 +23037,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="141" t="s">
+      <c r="D224" s="124" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="142"/>
-      <c r="F224" s="142"/>
-      <c r="G224" s="142"/>
-      <c r="H224" s="142"/>
-      <c r="I224" s="142"/>
-      <c r="J224" s="142"/>
-      <c r="K224" s="143"/>
+      <c r="E224" s="125"/>
+      <c r="F224" s="125"/>
+      <c r="G224" s="125"/>
+      <c r="H224" s="125"/>
+      <c r="I224" s="125"/>
+      <c r="J224" s="125"/>
+      <c r="K224" s="126"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -23080,16 +23080,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="146" t="s">
+      <c r="D226" s="150" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="147"/>
-      <c r="F226" s="147"/>
-      <c r="G226" s="147"/>
-      <c r="H226" s="147"/>
-      <c r="I226" s="147"/>
-      <c r="J226" s="147"/>
-      <c r="K226" s="148"/>
+      <c r="E226" s="151"/>
+      <c r="F226" s="151"/>
+      <c r="G226" s="151"/>
+      <c r="H226" s="151"/>
+      <c r="I226" s="151"/>
+      <c r="J226" s="151"/>
+      <c r="K226" s="152"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -23234,16 +23234,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="136" t="s">
+      <c r="D234" s="148" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="137"/>
-      <c r="F234" s="137"/>
-      <c r="G234" s="137"/>
-      <c r="H234" s="137"/>
-      <c r="I234" s="137"/>
-      <c r="J234" s="137"/>
-      <c r="K234" s="138"/>
+      <c r="E234" s="134"/>
+      <c r="F234" s="134"/>
+      <c r="G234" s="134"/>
+      <c r="H234" s="134"/>
+      <c r="I234" s="134"/>
+      <c r="J234" s="134"/>
+      <c r="K234" s="149"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -23312,16 +23312,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="123" t="s">
+      <c r="D238" s="140" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="124"/>
-      <c r="F238" s="124"/>
-      <c r="G238" s="124"/>
-      <c r="H238" s="124"/>
-      <c r="I238" s="124"/>
-      <c r="J238" s="124"/>
-      <c r="K238" s="125"/>
+      <c r="E238" s="136"/>
+      <c r="F238" s="136"/>
+      <c r="G238" s="136"/>
+      <c r="H238" s="136"/>
+      <c r="I238" s="136"/>
+      <c r="J238" s="136"/>
+      <c r="K238" s="137"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -23333,14 +23333,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="126"/>
-      <c r="E239" s="127"/>
-      <c r="F239" s="127"/>
-      <c r="G239" s="127"/>
-      <c r="H239" s="127"/>
-      <c r="I239" s="127"/>
-      <c r="J239" s="127"/>
-      <c r="K239" s="128"/>
+      <c r="D239" s="146"/>
+      <c r="E239" s="131"/>
+      <c r="F239" s="131"/>
+      <c r="G239" s="131"/>
+      <c r="H239" s="131"/>
+      <c r="I239" s="131"/>
+      <c r="J239" s="131"/>
+      <c r="K239" s="147"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -23352,16 +23352,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="124" t="s">
+      <c r="D240" s="136" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="124"/>
-      <c r="F240" s="124"/>
-      <c r="G240" s="124"/>
-      <c r="H240" s="124"/>
-      <c r="I240" s="124"/>
-      <c r="J240" s="124"/>
-      <c r="K240" s="125"/>
+      <c r="E240" s="136"/>
+      <c r="F240" s="136"/>
+      <c r="G240" s="136"/>
+      <c r="H240" s="136"/>
+      <c r="I240" s="136"/>
+      <c r="J240" s="136"/>
+      <c r="K240" s="137"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -23373,14 +23373,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="144"/>
-      <c r="E241" s="144"/>
-      <c r="F241" s="144"/>
-      <c r="G241" s="144"/>
-      <c r="H241" s="144"/>
-      <c r="I241" s="144"/>
-      <c r="J241" s="144"/>
-      <c r="K241" s="145"/>
+      <c r="D241" s="138"/>
+      <c r="E241" s="138"/>
+      <c r="F241" s="138"/>
+      <c r="G241" s="138"/>
+      <c r="H241" s="138"/>
+      <c r="I241" s="138"/>
+      <c r="J241" s="138"/>
+      <c r="K241" s="139"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -23571,16 +23571,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="139" t="s">
+      <c r="D250" s="133" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="137"/>
-      <c r="F250" s="137"/>
-      <c r="G250" s="137"/>
-      <c r="H250" s="137"/>
-      <c r="I250" s="137"/>
-      <c r="J250" s="137"/>
-      <c r="K250" s="140"/>
+      <c r="E250" s="134"/>
+      <c r="F250" s="134"/>
+      <c r="G250" s="134"/>
+      <c r="H250" s="134"/>
+      <c r="I250" s="134"/>
+      <c r="J250" s="134"/>
+      <c r="K250" s="135"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -24149,16 +24149,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="141" t="s">
+      <c r="D280" s="124" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="142"/>
-      <c r="F280" s="142"/>
-      <c r="G280" s="142"/>
-      <c r="H280" s="142"/>
-      <c r="I280" s="142"/>
-      <c r="J280" s="142"/>
-      <c r="K280" s="143"/>
+      <c r="E280" s="125"/>
+      <c r="F280" s="125"/>
+      <c r="G280" s="125"/>
+      <c r="H280" s="125"/>
+      <c r="I280" s="125"/>
+      <c r="J280" s="125"/>
+      <c r="K280" s="126"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -24265,16 +24265,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="141" t="s">
+      <c r="D286" s="124" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="142"/>
-      <c r="F286" s="142"/>
-      <c r="G286" s="142"/>
-      <c r="H286" s="142"/>
-      <c r="I286" s="142"/>
-      <c r="J286" s="142"/>
-      <c r="K286" s="143"/>
+      <c r="E286" s="125"/>
+      <c r="F286" s="125"/>
+      <c r="G286" s="125"/>
+      <c r="H286" s="125"/>
+      <c r="I286" s="125"/>
+      <c r="J286" s="125"/>
+      <c r="K286" s="126"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -24462,16 +24462,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="141" t="s">
+      <c r="D296" s="124" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="142"/>
-      <c r="F296" s="142"/>
-      <c r="G296" s="142"/>
-      <c r="H296" s="142"/>
-      <c r="I296" s="142"/>
-      <c r="J296" s="142"/>
-      <c r="K296" s="143"/>
+      <c r="E296" s="125"/>
+      <c r="F296" s="125"/>
+      <c r="G296" s="125"/>
+      <c r="H296" s="125"/>
+      <c r="I296" s="125"/>
+      <c r="J296" s="125"/>
+      <c r="K296" s="126"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -24502,16 +24502,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="123" t="s">
+      <c r="D298" s="140" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="124"/>
-      <c r="F298" s="124"/>
-      <c r="G298" s="124"/>
-      <c r="H298" s="124"/>
-      <c r="I298" s="124"/>
-      <c r="J298" s="124"/>
-      <c r="K298" s="125"/>
+      <c r="E298" s="136"/>
+      <c r="F298" s="136"/>
+      <c r="G298" s="136"/>
+      <c r="H298" s="136"/>
+      <c r="I298" s="136"/>
+      <c r="J298" s="136"/>
+      <c r="K298" s="137"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -24523,14 +24523,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="126"/>
-      <c r="E299" s="127"/>
-      <c r="F299" s="127"/>
-      <c r="G299" s="127"/>
-      <c r="H299" s="127"/>
-      <c r="I299" s="127"/>
-      <c r="J299" s="127"/>
-      <c r="K299" s="128"/>
+      <c r="D299" s="146"/>
+      <c r="E299" s="131"/>
+      <c r="F299" s="131"/>
+      <c r="G299" s="131"/>
+      <c r="H299" s="131"/>
+      <c r="I299" s="131"/>
+      <c r="J299" s="131"/>
+      <c r="K299" s="147"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -24542,16 +24542,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="123" t="s">
+      <c r="D300" s="140" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="124"/>
-      <c r="F300" s="124"/>
-      <c r="G300" s="124"/>
-      <c r="H300" s="124"/>
-      <c r="I300" s="124"/>
-      <c r="J300" s="124"/>
-      <c r="K300" s="125"/>
+      <c r="E300" s="136"/>
+      <c r="F300" s="136"/>
+      <c r="G300" s="136"/>
+      <c r="H300" s="136"/>
+      <c r="I300" s="136"/>
+      <c r="J300" s="136"/>
+      <c r="K300" s="137"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -24563,14 +24563,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="126"/>
-      <c r="E301" s="127"/>
-      <c r="F301" s="127"/>
-      <c r="G301" s="127"/>
-      <c r="H301" s="127"/>
-      <c r="I301" s="127"/>
-      <c r="J301" s="127"/>
-      <c r="K301" s="128"/>
+      <c r="D301" s="146"/>
+      <c r="E301" s="131"/>
+      <c r="F301" s="131"/>
+      <c r="G301" s="131"/>
+      <c r="H301" s="131"/>
+      <c r="I301" s="131"/>
+      <c r="J301" s="131"/>
+      <c r="K301" s="147"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -24582,16 +24582,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="123" t="s">
+      <c r="D302" s="140" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="124"/>
-      <c r="F302" s="124"/>
-      <c r="G302" s="124"/>
-      <c r="H302" s="124"/>
-      <c r="I302" s="124"/>
-      <c r="J302" s="124"/>
-      <c r="K302" s="125"/>
+      <c r="E302" s="136"/>
+      <c r="F302" s="136"/>
+      <c r="G302" s="136"/>
+      <c r="H302" s="136"/>
+      <c r="I302" s="136"/>
+      <c r="J302" s="136"/>
+      <c r="K302" s="137"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -24603,14 +24603,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="126"/>
-      <c r="E303" s="127"/>
-      <c r="F303" s="127"/>
-      <c r="G303" s="127"/>
-      <c r="H303" s="127"/>
-      <c r="I303" s="127"/>
-      <c r="J303" s="127"/>
-      <c r="K303" s="128"/>
+      <c r="D303" s="146"/>
+      <c r="E303" s="131"/>
+      <c r="F303" s="131"/>
+      <c r="G303" s="131"/>
+      <c r="H303" s="131"/>
+      <c r="I303" s="131"/>
+      <c r="J303" s="131"/>
+      <c r="K303" s="147"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -24622,16 +24622,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="123" t="s">
+      <c r="D304" s="140" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="124"/>
-      <c r="F304" s="124"/>
-      <c r="G304" s="124"/>
-      <c r="H304" s="124"/>
-      <c r="I304" s="124"/>
-      <c r="J304" s="124"/>
-      <c r="K304" s="125"/>
+      <c r="E304" s="136"/>
+      <c r="F304" s="136"/>
+      <c r="G304" s="136"/>
+      <c r="H304" s="136"/>
+      <c r="I304" s="136"/>
+      <c r="J304" s="136"/>
+      <c r="K304" s="137"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -24643,14 +24643,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="126"/>
-      <c r="E305" s="127"/>
-      <c r="F305" s="127"/>
-      <c r="G305" s="127"/>
-      <c r="H305" s="127"/>
-      <c r="I305" s="127"/>
-      <c r="J305" s="127"/>
-      <c r="K305" s="128"/>
+      <c r="D305" s="146"/>
+      <c r="E305" s="131"/>
+      <c r="F305" s="131"/>
+      <c r="G305" s="131"/>
+      <c r="H305" s="131"/>
+      <c r="I305" s="131"/>
+      <c r="J305" s="131"/>
+      <c r="K305" s="147"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -24665,16 +24665,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="123" t="s">
+      <c r="D306" s="140" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="124"/>
-      <c r="F306" s="124"/>
-      <c r="G306" s="124"/>
-      <c r="H306" s="124"/>
-      <c r="I306" s="124"/>
-      <c r="J306" s="124"/>
-      <c r="K306" s="125"/>
+      <c r="E306" s="136"/>
+      <c r="F306" s="136"/>
+      <c r="G306" s="136"/>
+      <c r="H306" s="136"/>
+      <c r="I306" s="136"/>
+      <c r="J306" s="136"/>
+      <c r="K306" s="137"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -24686,14 +24686,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="126"/>
-      <c r="E307" s="127"/>
-      <c r="F307" s="127"/>
-      <c r="G307" s="127"/>
-      <c r="H307" s="127"/>
-      <c r="I307" s="127"/>
-      <c r="J307" s="127"/>
-      <c r="K307" s="128"/>
+      <c r="D307" s="146"/>
+      <c r="E307" s="131"/>
+      <c r="F307" s="131"/>
+      <c r="G307" s="131"/>
+      <c r="H307" s="131"/>
+      <c r="I307" s="131"/>
+      <c r="J307" s="131"/>
+      <c r="K307" s="147"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -24705,16 +24705,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="123" t="s">
+      <c r="D308" s="140" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="124"/>
-      <c r="F308" s="124"/>
-      <c r="G308" s="124"/>
-      <c r="H308" s="124"/>
-      <c r="I308" s="124"/>
-      <c r="J308" s="124"/>
-      <c r="K308" s="125"/>
+      <c r="E308" s="136"/>
+      <c r="F308" s="136"/>
+      <c r="G308" s="136"/>
+      <c r="H308" s="136"/>
+      <c r="I308" s="136"/>
+      <c r="J308" s="136"/>
+      <c r="K308" s="137"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -24726,14 +24726,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="126"/>
-      <c r="E309" s="127"/>
-      <c r="F309" s="127"/>
-      <c r="G309" s="127"/>
-      <c r="H309" s="127"/>
-      <c r="I309" s="127"/>
-      <c r="J309" s="127"/>
-      <c r="K309" s="128"/>
+      <c r="D309" s="146"/>
+      <c r="E309" s="131"/>
+      <c r="F309" s="131"/>
+      <c r="G309" s="131"/>
+      <c r="H309" s="131"/>
+      <c r="I309" s="131"/>
+      <c r="J309" s="131"/>
+      <c r="K309" s="147"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -28613,29 +28613,12 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="D214:K214"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D200:K200"/>
-    <mergeCell ref="D202:K202"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
     <mergeCell ref="D280:K280"/>
     <mergeCell ref="D286:K286"/>
     <mergeCell ref="D296:K296"/>
@@ -28652,12 +28635,29 @@
     <mergeCell ref="D250:K250"/>
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="D214:K214"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="D202:K202"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape"/>

--- a/data/Switches.xlsx
+++ b/data/Switches.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="425">
   <si>
     <t>ID</t>
   </si>
@@ -1289,6 +1289,9 @@
   </si>
   <si>
     <t>Great Wall Hidden DS</t>
+  </si>
+  <si>
+    <t>Talk to teacher</t>
   </si>
 </sst>
 </file>
@@ -1308,28 +1311,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1337,7 +1340,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1345,7 +1348,7 @@
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1353,7 +1356,7 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2395,7 +2398,43 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2404,13 +2443,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2428,40 +2467,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2480,18 +2495,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2804,8 +2807,8 @@
   <dimension ref="A1:O513"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2878,16 +2881,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
       <c r="L2" s="119" t="s">
         <v>7</v>
       </c>
@@ -2905,14 +2908,14 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="131"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="143"/>
       <c r="L3" s="119" t="s">
         <v>8</v>
       </c>
@@ -3081,7 +3084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1">
       <c r="A8" s="12">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -3122,7 +3125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1">
       <c r="A9" s="12">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3154,12 +3157,14 @@
         <v>50</v>
       </c>
       <c r="J9" s="30"/>
-      <c r="K9" s="28"/>
+      <c r="K9" s="99" t="s">
+        <v>424</v>
+      </c>
       <c r="L9" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1">
       <c r="A10" s="12">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -8969,16 +8974,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="155" t="s">
+      <c r="D168" s="123" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="155"/>
-      <c r="F168" s="155"/>
-      <c r="G168" s="155"/>
-      <c r="H168" s="155"/>
-      <c r="I168" s="155"/>
-      <c r="J168" s="155"/>
-      <c r="K168" s="155"/>
+      <c r="E168" s="123"/>
+      <c r="F168" s="123"/>
+      <c r="G168" s="123"/>
+      <c r="H168" s="123"/>
+      <c r="I168" s="123"/>
+      <c r="J168" s="123"/>
+      <c r="K168" s="123"/>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="12">
@@ -9104,16 +9109,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="155" t="s">
+      <c r="D175" s="123" t="s">
         <v>349</v>
       </c>
-      <c r="E175" s="155"/>
-      <c r="F175" s="155"/>
-      <c r="G175" s="155"/>
-      <c r="H175" s="155"/>
-      <c r="I175" s="155"/>
-      <c r="J175" s="155"/>
-      <c r="K175" s="155"/>
+      <c r="E175" s="123"/>
+      <c r="F175" s="123"/>
+      <c r="G175" s="123"/>
+      <c r="H175" s="123"/>
+      <c r="I175" s="123"/>
+      <c r="J175" s="123"/>
+      <c r="K175" s="123"/>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="12">
@@ -9166,16 +9171,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="155" t="s">
+      <c r="D178" s="123" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="155"/>
-      <c r="F178" s="155"/>
-      <c r="G178" s="155"/>
-      <c r="H178" s="155"/>
-      <c r="I178" s="155"/>
-      <c r="J178" s="155"/>
-      <c r="K178" s="155"/>
+      <c r="E178" s="123"/>
+      <c r="F178" s="123"/>
+      <c r="G178" s="123"/>
+      <c r="H178" s="123"/>
+      <c r="I178" s="123"/>
+      <c r="J178" s="123"/>
+      <c r="K178" s="123"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -9244,16 +9249,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="141" t="s">
+      <c r="D182" s="124" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="142"/>
-      <c r="F182" s="142"/>
-      <c r="G182" s="142"/>
-      <c r="H182" s="142"/>
-      <c r="I182" s="142"/>
-      <c r="J182" s="142"/>
-      <c r="K182" s="143"/>
+      <c r="E182" s="125"/>
+      <c r="F182" s="125"/>
+      <c r="G182" s="125"/>
+      <c r="H182" s="125"/>
+      <c r="I182" s="125"/>
+      <c r="J182" s="125"/>
+      <c r="K182" s="126"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -9265,16 +9270,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="141" t="s">
+      <c r="D183" s="124" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="142"/>
-      <c r="F183" s="142"/>
-      <c r="G183" s="142"/>
-      <c r="H183" s="142"/>
-      <c r="I183" s="142"/>
-      <c r="J183" s="142"/>
-      <c r="K183" s="143"/>
+      <c r="E183" s="125"/>
+      <c r="F183" s="125"/>
+      <c r="G183" s="125"/>
+      <c r="H183" s="125"/>
+      <c r="I183" s="125"/>
+      <c r="J183" s="125"/>
+      <c r="K183" s="126"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -9286,16 +9291,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="141" t="s">
+      <c r="D184" s="124" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="142"/>
-      <c r="F184" s="142"/>
-      <c r="G184" s="142"/>
-      <c r="H184" s="142"/>
-      <c r="I184" s="142"/>
-      <c r="J184" s="142"/>
-      <c r="K184" s="143"/>
+      <c r="E184" s="125"/>
+      <c r="F184" s="125"/>
+      <c r="G184" s="125"/>
+      <c r="H184" s="125"/>
+      <c r="I184" s="125"/>
+      <c r="J184" s="125"/>
+      <c r="K184" s="126"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -9307,16 +9312,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="141" t="s">
+      <c r="D185" s="124" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="142"/>
-      <c r="F185" s="142"/>
-      <c r="G185" s="142"/>
-      <c r="H185" s="142"/>
-      <c r="I185" s="142"/>
-      <c r="J185" s="142"/>
-      <c r="K185" s="143"/>
+      <c r="E185" s="125"/>
+      <c r="F185" s="125"/>
+      <c r="G185" s="125"/>
+      <c r="H185" s="125"/>
+      <c r="I185" s="125"/>
+      <c r="J185" s="125"/>
+      <c r="K185" s="126"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -9328,16 +9333,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="141" t="s">
+      <c r="D186" s="124" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="142"/>
-      <c r="F186" s="142"/>
-      <c r="G186" s="142"/>
-      <c r="H186" s="142"/>
-      <c r="I186" s="142"/>
-      <c r="J186" s="142"/>
-      <c r="K186" s="143"/>
+      <c r="E186" s="125"/>
+      <c r="F186" s="125"/>
+      <c r="G186" s="125"/>
+      <c r="H186" s="125"/>
+      <c r="I186" s="125"/>
+      <c r="J186" s="125"/>
+      <c r="K186" s="126"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -9349,16 +9354,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="141" t="s">
+      <c r="D187" s="124" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="142"/>
-      <c r="F187" s="142"/>
-      <c r="G187" s="142"/>
-      <c r="H187" s="142"/>
-      <c r="I187" s="142"/>
-      <c r="J187" s="142"/>
-      <c r="K187" s="143"/>
+      <c r="E187" s="125"/>
+      <c r="F187" s="125"/>
+      <c r="G187" s="125"/>
+      <c r="H187" s="125"/>
+      <c r="I187" s="125"/>
+      <c r="J187" s="125"/>
+      <c r="K187" s="126"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -9370,16 +9375,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="141" t="s">
+      <c r="D188" s="124" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="142"/>
-      <c r="F188" s="142"/>
-      <c r="G188" s="142"/>
-      <c r="H188" s="142"/>
-      <c r="I188" s="142"/>
-      <c r="J188" s="142"/>
-      <c r="K188" s="143"/>
+      <c r="E188" s="125"/>
+      <c r="F188" s="125"/>
+      <c r="G188" s="125"/>
+      <c r="H188" s="125"/>
+      <c r="I188" s="125"/>
+      <c r="J188" s="125"/>
+      <c r="K188" s="126"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -9391,16 +9396,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="141" t="s">
+      <c r="D189" s="124" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="142"/>
-      <c r="F189" s="142"/>
-      <c r="G189" s="142"/>
-      <c r="H189" s="142"/>
-      <c r="I189" s="142"/>
-      <c r="J189" s="142"/>
-      <c r="K189" s="143"/>
+      <c r="E189" s="125"/>
+      <c r="F189" s="125"/>
+      <c r="G189" s="125"/>
+      <c r="H189" s="125"/>
+      <c r="I189" s="125"/>
+      <c r="J189" s="125"/>
+      <c r="K189" s="126"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -9412,16 +9417,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="141" t="s">
+      <c r="D190" s="124" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="142"/>
-      <c r="F190" s="142"/>
-      <c r="G190" s="142"/>
-      <c r="H190" s="142"/>
-      <c r="I190" s="142"/>
-      <c r="J190" s="142"/>
-      <c r="K190" s="143"/>
+      <c r="E190" s="125"/>
+      <c r="F190" s="125"/>
+      <c r="G190" s="125"/>
+      <c r="H190" s="125"/>
+      <c r="I190" s="125"/>
+      <c r="J190" s="125"/>
+      <c r="K190" s="126"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -9433,16 +9438,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="141" t="s">
+      <c r="D191" s="124" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="142"/>
-      <c r="F191" s="142"/>
-      <c r="G191" s="142"/>
-      <c r="H191" s="142"/>
-      <c r="I191" s="142"/>
-      <c r="J191" s="142"/>
-      <c r="K191" s="143"/>
+      <c r="E191" s="125"/>
+      <c r="F191" s="125"/>
+      <c r="G191" s="125"/>
+      <c r="H191" s="125"/>
+      <c r="I191" s="125"/>
+      <c r="J191" s="125"/>
+      <c r="K191" s="126"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -9454,16 +9459,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="141" t="s">
+      <c r="D192" s="124" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="142"/>
-      <c r="F192" s="142"/>
-      <c r="G192" s="142"/>
-      <c r="H192" s="142"/>
-      <c r="I192" s="142"/>
-      <c r="J192" s="142"/>
-      <c r="K192" s="143"/>
+      <c r="E192" s="125"/>
+      <c r="F192" s="125"/>
+      <c r="G192" s="125"/>
+      <c r="H192" s="125"/>
+      <c r="I192" s="125"/>
+      <c r="J192" s="125"/>
+      <c r="K192" s="126"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -9475,16 +9480,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="152" t="s">
+      <c r="D193" s="127" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="153"/>
-      <c r="F193" s="153"/>
-      <c r="G193" s="153"/>
-      <c r="H193" s="153"/>
-      <c r="I193" s="153"/>
-      <c r="J193" s="153"/>
-      <c r="K193" s="154"/>
+      <c r="E193" s="128"/>
+      <c r="F193" s="128"/>
+      <c r="G193" s="128"/>
+      <c r="H193" s="128"/>
+      <c r="I193" s="128"/>
+      <c r="J193" s="128"/>
+      <c r="K193" s="129"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -9499,16 +9504,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="134" t="s">
+      <c r="D194" s="130" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="127"/>
-      <c r="F194" s="127"/>
-      <c r="G194" s="127"/>
-      <c r="H194" s="127"/>
-      <c r="I194" s="127"/>
-      <c r="J194" s="127"/>
-      <c r="K194" s="135"/>
+      <c r="E194" s="131"/>
+      <c r="F194" s="131"/>
+      <c r="G194" s="131"/>
+      <c r="H194" s="131"/>
+      <c r="I194" s="131"/>
+      <c r="J194" s="131"/>
+      <c r="K194" s="132"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -9520,16 +9525,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="141" t="s">
+      <c r="D195" s="124" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="142"/>
-      <c r="F195" s="142"/>
-      <c r="G195" s="142"/>
-      <c r="H195" s="142"/>
-      <c r="I195" s="142"/>
-      <c r="J195" s="142"/>
-      <c r="K195" s="143"/>
+      <c r="E195" s="125"/>
+      <c r="F195" s="125"/>
+      <c r="G195" s="125"/>
+      <c r="H195" s="125"/>
+      <c r="I195" s="125"/>
+      <c r="J195" s="125"/>
+      <c r="K195" s="126"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -9541,16 +9546,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="141" t="s">
+      <c r="D196" s="124" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="142"/>
-      <c r="F196" s="142"/>
-      <c r="G196" s="142"/>
-      <c r="H196" s="142"/>
-      <c r="I196" s="142"/>
-      <c r="J196" s="142"/>
-      <c r="K196" s="143"/>
+      <c r="E196" s="125"/>
+      <c r="F196" s="125"/>
+      <c r="G196" s="125"/>
+      <c r="H196" s="125"/>
+      <c r="I196" s="125"/>
+      <c r="J196" s="125"/>
+      <c r="K196" s="126"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -9562,16 +9567,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="141" t="s">
+      <c r="D197" s="124" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="142"/>
-      <c r="F197" s="142"/>
-      <c r="G197" s="142"/>
-      <c r="H197" s="142"/>
-      <c r="I197" s="142"/>
-      <c r="J197" s="142"/>
-      <c r="K197" s="143"/>
+      <c r="E197" s="125"/>
+      <c r="F197" s="125"/>
+      <c r="G197" s="125"/>
+      <c r="H197" s="125"/>
+      <c r="I197" s="125"/>
+      <c r="J197" s="125"/>
+      <c r="K197" s="126"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -9583,16 +9588,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="141" t="s">
+      <c r="D198" s="124" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="142"/>
-      <c r="F198" s="142"/>
-      <c r="G198" s="142"/>
-      <c r="H198" s="142"/>
-      <c r="I198" s="142"/>
-      <c r="J198" s="142"/>
-      <c r="K198" s="143"/>
+      <c r="E198" s="125"/>
+      <c r="F198" s="125"/>
+      <c r="G198" s="125"/>
+      <c r="H198" s="125"/>
+      <c r="I198" s="125"/>
+      <c r="J198" s="125"/>
+      <c r="K198" s="126"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -9623,16 +9628,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="141" t="s">
+      <c r="D200" s="124" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="142"/>
-      <c r="F200" s="142"/>
-      <c r="G200" s="142"/>
-      <c r="H200" s="142"/>
-      <c r="I200" s="142"/>
-      <c r="J200" s="142"/>
-      <c r="K200" s="143"/>
+      <c r="E200" s="125"/>
+      <c r="F200" s="125"/>
+      <c r="G200" s="125"/>
+      <c r="H200" s="125"/>
+      <c r="I200" s="125"/>
+      <c r="J200" s="125"/>
+      <c r="K200" s="126"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -9663,16 +9668,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="149" t="s">
+      <c r="D202" s="153" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="150"/>
-      <c r="F202" s="150"/>
-      <c r="G202" s="150"/>
-      <c r="H202" s="150"/>
-      <c r="I202" s="150"/>
-      <c r="J202" s="150"/>
-      <c r="K202" s="151"/>
+      <c r="E202" s="154"/>
+      <c r="F202" s="154"/>
+      <c r="G202" s="154"/>
+      <c r="H202" s="154"/>
+      <c r="I202" s="154"/>
+      <c r="J202" s="154"/>
+      <c r="K202" s="155"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -9703,16 +9708,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="141" t="s">
+      <c r="D204" s="124" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="142"/>
-      <c r="F204" s="142"/>
-      <c r="G204" s="142"/>
-      <c r="H204" s="142"/>
-      <c r="I204" s="142"/>
-      <c r="J204" s="142"/>
-      <c r="K204" s="143"/>
+      <c r="E204" s="125"/>
+      <c r="F204" s="125"/>
+      <c r="G204" s="125"/>
+      <c r="H204" s="125"/>
+      <c r="I204" s="125"/>
+      <c r="J204" s="125"/>
+      <c r="K204" s="126"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -9743,16 +9748,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="141" t="s">
+      <c r="D206" s="124" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="142"/>
-      <c r="F206" s="142"/>
-      <c r="G206" s="142"/>
-      <c r="H206" s="142"/>
-      <c r="I206" s="142"/>
-      <c r="J206" s="142"/>
-      <c r="K206" s="143"/>
+      <c r="E206" s="125"/>
+      <c r="F206" s="125"/>
+      <c r="G206" s="125"/>
+      <c r="H206" s="125"/>
+      <c r="I206" s="125"/>
+      <c r="J206" s="125"/>
+      <c r="K206" s="126"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -9783,16 +9788,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="141" t="s">
+      <c r="D208" s="124" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="142"/>
-      <c r="F208" s="142"/>
-      <c r="G208" s="142"/>
-      <c r="H208" s="142"/>
-      <c r="I208" s="142"/>
-      <c r="J208" s="142"/>
-      <c r="K208" s="143"/>
+      <c r="E208" s="125"/>
+      <c r="F208" s="125"/>
+      <c r="G208" s="125"/>
+      <c r="H208" s="125"/>
+      <c r="I208" s="125"/>
+      <c r="J208" s="125"/>
+      <c r="K208" s="126"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -9826,16 +9831,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="134" t="s">
+      <c r="D210" s="130" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="127"/>
-      <c r="F210" s="127"/>
-      <c r="G210" s="127"/>
-      <c r="H210" s="127"/>
-      <c r="I210" s="127"/>
-      <c r="J210" s="127"/>
-      <c r="K210" s="135"/>
+      <c r="E210" s="131"/>
+      <c r="F210" s="131"/>
+      <c r="G210" s="131"/>
+      <c r="H210" s="131"/>
+      <c r="I210" s="131"/>
+      <c r="J210" s="131"/>
+      <c r="K210" s="132"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -9904,16 +9909,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="141" t="s">
+      <c r="D214" s="124" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="142"/>
-      <c r="F214" s="142"/>
-      <c r="G214" s="142"/>
-      <c r="H214" s="142"/>
-      <c r="I214" s="142"/>
-      <c r="J214" s="142"/>
-      <c r="K214" s="143"/>
+      <c r="E214" s="125"/>
+      <c r="F214" s="125"/>
+      <c r="G214" s="125"/>
+      <c r="H214" s="125"/>
+      <c r="I214" s="125"/>
+      <c r="J214" s="125"/>
+      <c r="K214" s="126"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -9944,16 +9949,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="132" t="s">
+      <c r="D216" s="144" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="124"/>
-      <c r="F216" s="124"/>
-      <c r="G216" s="124"/>
-      <c r="H216" s="124"/>
-      <c r="I216" s="124"/>
-      <c r="J216" s="124"/>
-      <c r="K216" s="133"/>
+      <c r="E216" s="136"/>
+      <c r="F216" s="136"/>
+      <c r="G216" s="136"/>
+      <c r="H216" s="136"/>
+      <c r="I216" s="136"/>
+      <c r="J216" s="136"/>
+      <c r="K216" s="145"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -9965,14 +9970,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="134"/>
-      <c r="E217" s="127"/>
-      <c r="F217" s="127"/>
-      <c r="G217" s="127"/>
-      <c r="H217" s="127"/>
-      <c r="I217" s="127"/>
-      <c r="J217" s="127"/>
-      <c r="K217" s="135"/>
+      <c r="D217" s="130"/>
+      <c r="E217" s="131"/>
+      <c r="F217" s="131"/>
+      <c r="G217" s="131"/>
+      <c r="H217" s="131"/>
+      <c r="I217" s="131"/>
+      <c r="J217" s="131"/>
+      <c r="K217" s="132"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -9984,16 +9989,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="132" t="s">
+      <c r="D218" s="144" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="124"/>
-      <c r="F218" s="124"/>
-      <c r="G218" s="124"/>
-      <c r="H218" s="124"/>
-      <c r="I218" s="124"/>
-      <c r="J218" s="124"/>
-      <c r="K218" s="133"/>
+      <c r="E218" s="136"/>
+      <c r="F218" s="136"/>
+      <c r="G218" s="136"/>
+      <c r="H218" s="136"/>
+      <c r="I218" s="136"/>
+      <c r="J218" s="136"/>
+      <c r="K218" s="145"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -10005,14 +10010,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="134"/>
-      <c r="E219" s="127"/>
-      <c r="F219" s="127"/>
-      <c r="G219" s="127"/>
-      <c r="H219" s="127"/>
-      <c r="I219" s="127"/>
-      <c r="J219" s="127"/>
-      <c r="K219" s="135"/>
+      <c r="D219" s="130"/>
+      <c r="E219" s="131"/>
+      <c r="F219" s="131"/>
+      <c r="G219" s="131"/>
+      <c r="H219" s="131"/>
+      <c r="I219" s="131"/>
+      <c r="J219" s="131"/>
+      <c r="K219" s="132"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -10024,16 +10029,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="132" t="s">
+      <c r="D220" s="144" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="124"/>
-      <c r="F220" s="124"/>
-      <c r="G220" s="124"/>
-      <c r="H220" s="124"/>
-      <c r="I220" s="124"/>
-      <c r="J220" s="124"/>
-      <c r="K220" s="133"/>
+      <c r="E220" s="136"/>
+      <c r="F220" s="136"/>
+      <c r="G220" s="136"/>
+      <c r="H220" s="136"/>
+      <c r="I220" s="136"/>
+      <c r="J220" s="136"/>
+      <c r="K220" s="145"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -10045,14 +10050,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="134"/>
-      <c r="E221" s="127"/>
-      <c r="F221" s="127"/>
-      <c r="G221" s="127"/>
-      <c r="H221" s="127"/>
-      <c r="I221" s="127"/>
-      <c r="J221" s="127"/>
-      <c r="K221" s="135"/>
+      <c r="D221" s="130"/>
+      <c r="E221" s="131"/>
+      <c r="F221" s="131"/>
+      <c r="G221" s="131"/>
+      <c r="H221" s="131"/>
+      <c r="I221" s="131"/>
+      <c r="J221" s="131"/>
+      <c r="K221" s="132"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -10064,16 +10069,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="141" t="s">
+      <c r="D222" s="124" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="142"/>
-      <c r="F222" s="142"/>
-      <c r="G222" s="142"/>
-      <c r="H222" s="142"/>
-      <c r="I222" s="142"/>
-      <c r="J222" s="142"/>
-      <c r="K222" s="143"/>
+      <c r="E222" s="125"/>
+      <c r="F222" s="125"/>
+      <c r="G222" s="125"/>
+      <c r="H222" s="125"/>
+      <c r="I222" s="125"/>
+      <c r="J222" s="125"/>
+      <c r="K222" s="126"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -10104,16 +10109,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="141" t="s">
+      <c r="D224" s="124" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="142"/>
-      <c r="F224" s="142"/>
-      <c r="G224" s="142"/>
-      <c r="H224" s="142"/>
-      <c r="I224" s="142"/>
-      <c r="J224" s="142"/>
-      <c r="K224" s="143"/>
+      <c r="E224" s="125"/>
+      <c r="F224" s="125"/>
+      <c r="G224" s="125"/>
+      <c r="H224" s="125"/>
+      <c r="I224" s="125"/>
+      <c r="J224" s="125"/>
+      <c r="K224" s="126"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -10147,16 +10152,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="146" t="s">
+      <c r="D226" s="150" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="147"/>
-      <c r="F226" s="147"/>
-      <c r="G226" s="147"/>
-      <c r="H226" s="147"/>
-      <c r="I226" s="147"/>
-      <c r="J226" s="147"/>
-      <c r="K226" s="148"/>
+      <c r="E226" s="151"/>
+      <c r="F226" s="151"/>
+      <c r="G226" s="151"/>
+      <c r="H226" s="151"/>
+      <c r="I226" s="151"/>
+      <c r="J226" s="151"/>
+      <c r="K226" s="152"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -10301,16 +10306,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="136" t="s">
+      <c r="D234" s="148" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="137"/>
-      <c r="F234" s="137"/>
-      <c r="G234" s="137"/>
-      <c r="H234" s="137"/>
-      <c r="I234" s="137"/>
-      <c r="J234" s="137"/>
-      <c r="K234" s="138"/>
+      <c r="E234" s="134"/>
+      <c r="F234" s="134"/>
+      <c r="G234" s="134"/>
+      <c r="H234" s="134"/>
+      <c r="I234" s="134"/>
+      <c r="J234" s="134"/>
+      <c r="K234" s="149"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -10379,16 +10384,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="123" t="s">
+      <c r="D238" s="140" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="124"/>
-      <c r="F238" s="124"/>
-      <c r="G238" s="124"/>
-      <c r="H238" s="124"/>
-      <c r="I238" s="124"/>
-      <c r="J238" s="124"/>
-      <c r="K238" s="125"/>
+      <c r="E238" s="136"/>
+      <c r="F238" s="136"/>
+      <c r="G238" s="136"/>
+      <c r="H238" s="136"/>
+      <c r="I238" s="136"/>
+      <c r="J238" s="136"/>
+      <c r="K238" s="137"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -10400,14 +10405,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="126"/>
-      <c r="E239" s="127"/>
-      <c r="F239" s="127"/>
-      <c r="G239" s="127"/>
-      <c r="H239" s="127"/>
-      <c r="I239" s="127"/>
-      <c r="J239" s="127"/>
-      <c r="K239" s="128"/>
+      <c r="D239" s="146"/>
+      <c r="E239" s="131"/>
+      <c r="F239" s="131"/>
+      <c r="G239" s="131"/>
+      <c r="H239" s="131"/>
+      <c r="I239" s="131"/>
+      <c r="J239" s="131"/>
+      <c r="K239" s="147"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -10419,16 +10424,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="124" t="s">
+      <c r="D240" s="136" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="124"/>
-      <c r="F240" s="124"/>
-      <c r="G240" s="124"/>
-      <c r="H240" s="124"/>
-      <c r="I240" s="124"/>
-      <c r="J240" s="124"/>
-      <c r="K240" s="125"/>
+      <c r="E240" s="136"/>
+      <c r="F240" s="136"/>
+      <c r="G240" s="136"/>
+      <c r="H240" s="136"/>
+      <c r="I240" s="136"/>
+      <c r="J240" s="136"/>
+      <c r="K240" s="137"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -10440,14 +10445,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="144"/>
-      <c r="E241" s="144"/>
-      <c r="F241" s="144"/>
-      <c r="G241" s="144"/>
-      <c r="H241" s="144"/>
-      <c r="I241" s="144"/>
-      <c r="J241" s="144"/>
-      <c r="K241" s="145"/>
+      <c r="D241" s="138"/>
+      <c r="E241" s="138"/>
+      <c r="F241" s="138"/>
+      <c r="G241" s="138"/>
+      <c r="H241" s="138"/>
+      <c r="I241" s="138"/>
+      <c r="J241" s="138"/>
+      <c r="K241" s="139"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -10638,16 +10643,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="139" t="s">
+      <c r="D250" s="133" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="137"/>
-      <c r="F250" s="137"/>
-      <c r="G250" s="137"/>
-      <c r="H250" s="137"/>
-      <c r="I250" s="137"/>
-      <c r="J250" s="137"/>
-      <c r="K250" s="140"/>
+      <c r="E250" s="134"/>
+      <c r="F250" s="134"/>
+      <c r="G250" s="134"/>
+      <c r="H250" s="134"/>
+      <c r="I250" s="134"/>
+      <c r="J250" s="134"/>
+      <c r="K250" s="135"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -11216,16 +11221,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="141" t="s">
+      <c r="D280" s="124" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="142"/>
-      <c r="F280" s="142"/>
-      <c r="G280" s="142"/>
-      <c r="H280" s="142"/>
-      <c r="I280" s="142"/>
-      <c r="J280" s="142"/>
-      <c r="K280" s="143"/>
+      <c r="E280" s="125"/>
+      <c r="F280" s="125"/>
+      <c r="G280" s="125"/>
+      <c r="H280" s="125"/>
+      <c r="I280" s="125"/>
+      <c r="J280" s="125"/>
+      <c r="K280" s="126"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -11332,16 +11337,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="141" t="s">
+      <c r="D286" s="124" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="142"/>
-      <c r="F286" s="142"/>
-      <c r="G286" s="142"/>
-      <c r="H286" s="142"/>
-      <c r="I286" s="142"/>
-      <c r="J286" s="142"/>
-      <c r="K286" s="143"/>
+      <c r="E286" s="125"/>
+      <c r="F286" s="125"/>
+      <c r="G286" s="125"/>
+      <c r="H286" s="125"/>
+      <c r="I286" s="125"/>
+      <c r="J286" s="125"/>
+      <c r="K286" s="126"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -11529,16 +11534,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="141" t="s">
+      <c r="D296" s="124" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="142"/>
-      <c r="F296" s="142"/>
-      <c r="G296" s="142"/>
-      <c r="H296" s="142"/>
-      <c r="I296" s="142"/>
-      <c r="J296" s="142"/>
-      <c r="K296" s="143"/>
+      <c r="E296" s="125"/>
+      <c r="F296" s="125"/>
+      <c r="G296" s="125"/>
+      <c r="H296" s="125"/>
+      <c r="I296" s="125"/>
+      <c r="J296" s="125"/>
+      <c r="K296" s="126"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -11569,16 +11574,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="123" t="s">
+      <c r="D298" s="140" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="124"/>
-      <c r="F298" s="124"/>
-      <c r="G298" s="124"/>
-      <c r="H298" s="124"/>
-      <c r="I298" s="124"/>
-      <c r="J298" s="124"/>
-      <c r="K298" s="125"/>
+      <c r="E298" s="136"/>
+      <c r="F298" s="136"/>
+      <c r="G298" s="136"/>
+      <c r="H298" s="136"/>
+      <c r="I298" s="136"/>
+      <c r="J298" s="136"/>
+      <c r="K298" s="137"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -11590,14 +11595,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="126"/>
-      <c r="E299" s="127"/>
-      <c r="F299" s="127"/>
-      <c r="G299" s="127"/>
-      <c r="H299" s="127"/>
-      <c r="I299" s="127"/>
-      <c r="J299" s="127"/>
-      <c r="K299" s="128"/>
+      <c r="D299" s="146"/>
+      <c r="E299" s="131"/>
+      <c r="F299" s="131"/>
+      <c r="G299" s="131"/>
+      <c r="H299" s="131"/>
+      <c r="I299" s="131"/>
+      <c r="J299" s="131"/>
+      <c r="K299" s="147"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -11609,16 +11614,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="123" t="s">
+      <c r="D300" s="140" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="124"/>
-      <c r="F300" s="124"/>
-      <c r="G300" s="124"/>
-      <c r="H300" s="124"/>
-      <c r="I300" s="124"/>
-      <c r="J300" s="124"/>
-      <c r="K300" s="125"/>
+      <c r="E300" s="136"/>
+      <c r="F300" s="136"/>
+      <c r="G300" s="136"/>
+      <c r="H300" s="136"/>
+      <c r="I300" s="136"/>
+      <c r="J300" s="136"/>
+      <c r="K300" s="137"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -11630,14 +11635,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="126"/>
-      <c r="E301" s="127"/>
-      <c r="F301" s="127"/>
-      <c r="G301" s="127"/>
-      <c r="H301" s="127"/>
-      <c r="I301" s="127"/>
-      <c r="J301" s="127"/>
-      <c r="K301" s="128"/>
+      <c r="D301" s="146"/>
+      <c r="E301" s="131"/>
+      <c r="F301" s="131"/>
+      <c r="G301" s="131"/>
+      <c r="H301" s="131"/>
+      <c r="I301" s="131"/>
+      <c r="J301" s="131"/>
+      <c r="K301" s="147"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -11649,16 +11654,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="123" t="s">
+      <c r="D302" s="140" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="124"/>
-      <c r="F302" s="124"/>
-      <c r="G302" s="124"/>
-      <c r="H302" s="124"/>
-      <c r="I302" s="124"/>
-      <c r="J302" s="124"/>
-      <c r="K302" s="125"/>
+      <c r="E302" s="136"/>
+      <c r="F302" s="136"/>
+      <c r="G302" s="136"/>
+      <c r="H302" s="136"/>
+      <c r="I302" s="136"/>
+      <c r="J302" s="136"/>
+      <c r="K302" s="137"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -11670,14 +11675,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="126"/>
-      <c r="E303" s="127"/>
-      <c r="F303" s="127"/>
-      <c r="G303" s="127"/>
-      <c r="H303" s="127"/>
-      <c r="I303" s="127"/>
-      <c r="J303" s="127"/>
-      <c r="K303" s="128"/>
+      <c r="D303" s="146"/>
+      <c r="E303" s="131"/>
+      <c r="F303" s="131"/>
+      <c r="G303" s="131"/>
+      <c r="H303" s="131"/>
+      <c r="I303" s="131"/>
+      <c r="J303" s="131"/>
+      <c r="K303" s="147"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -11689,16 +11694,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="123" t="s">
+      <c r="D304" s="140" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="124"/>
-      <c r="F304" s="124"/>
-      <c r="G304" s="124"/>
-      <c r="H304" s="124"/>
-      <c r="I304" s="124"/>
-      <c r="J304" s="124"/>
-      <c r="K304" s="125"/>
+      <c r="E304" s="136"/>
+      <c r="F304" s="136"/>
+      <c r="G304" s="136"/>
+      <c r="H304" s="136"/>
+      <c r="I304" s="136"/>
+      <c r="J304" s="136"/>
+      <c r="K304" s="137"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -11710,14 +11715,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="126"/>
-      <c r="E305" s="127"/>
-      <c r="F305" s="127"/>
-      <c r="G305" s="127"/>
-      <c r="H305" s="127"/>
-      <c r="I305" s="127"/>
-      <c r="J305" s="127"/>
-      <c r="K305" s="128"/>
+      <c r="D305" s="146"/>
+      <c r="E305" s="131"/>
+      <c r="F305" s="131"/>
+      <c r="G305" s="131"/>
+      <c r="H305" s="131"/>
+      <c r="I305" s="131"/>
+      <c r="J305" s="131"/>
+      <c r="K305" s="147"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -11732,16 +11737,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="123" t="s">
+      <c r="D306" s="140" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="124"/>
-      <c r="F306" s="124"/>
-      <c r="G306" s="124"/>
-      <c r="H306" s="124"/>
-      <c r="I306" s="124"/>
-      <c r="J306" s="124"/>
-      <c r="K306" s="125"/>
+      <c r="E306" s="136"/>
+      <c r="F306" s="136"/>
+      <c r="G306" s="136"/>
+      <c r="H306" s="136"/>
+      <c r="I306" s="136"/>
+      <c r="J306" s="136"/>
+      <c r="K306" s="137"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -11753,14 +11758,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="126"/>
-      <c r="E307" s="127"/>
-      <c r="F307" s="127"/>
-      <c r="G307" s="127"/>
-      <c r="H307" s="127"/>
-      <c r="I307" s="127"/>
-      <c r="J307" s="127"/>
-      <c r="K307" s="128"/>
+      <c r="D307" s="146"/>
+      <c r="E307" s="131"/>
+      <c r="F307" s="131"/>
+      <c r="G307" s="131"/>
+      <c r="H307" s="131"/>
+      <c r="I307" s="131"/>
+      <c r="J307" s="131"/>
+      <c r="K307" s="147"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -11772,16 +11777,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="123" t="s">
+      <c r="D308" s="140" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="124"/>
-      <c r="F308" s="124"/>
-      <c r="G308" s="124"/>
-      <c r="H308" s="124"/>
-      <c r="I308" s="124"/>
-      <c r="J308" s="124"/>
-      <c r="K308" s="125"/>
+      <c r="E308" s="136"/>
+      <c r="F308" s="136"/>
+      <c r="G308" s="136"/>
+      <c r="H308" s="136"/>
+      <c r="I308" s="136"/>
+      <c r="J308" s="136"/>
+      <c r="K308" s="137"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -11793,14 +11798,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="126"/>
-      <c r="E309" s="127"/>
-      <c r="F309" s="127"/>
-      <c r="G309" s="127"/>
-      <c r="H309" s="127"/>
-      <c r="I309" s="127"/>
-      <c r="J309" s="127"/>
-      <c r="K309" s="128"/>
+      <c r="D309" s="146"/>
+      <c r="E309" s="131"/>
+      <c r="F309" s="131"/>
+      <c r="G309" s="131"/>
+      <c r="H309" s="131"/>
+      <c r="I309" s="131"/>
+      <c r="J309" s="131"/>
+      <c r="K309" s="147"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -15680,31 +15685,12 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="D168:K168"/>
-    <mergeCell ref="D175:K175"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D250:K250"/>
-    <mergeCell ref="D280:K280"/>
-    <mergeCell ref="D286:K286"/>
-    <mergeCell ref="D296:K296"/>
-    <mergeCell ref="D240:K241"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="D216:K217"/>
     <mergeCell ref="D218:K219"/>
@@ -15721,12 +15707,31 @@
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
     <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D250:K250"/>
+    <mergeCell ref="D280:K280"/>
+    <mergeCell ref="D286:K286"/>
+    <mergeCell ref="D296:K296"/>
+    <mergeCell ref="D240:K241"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D168:K168"/>
+    <mergeCell ref="D175:K175"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -15812,16 +15817,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -15843,14 +15848,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="131"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="143"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -22099,16 +22104,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="155" t="s">
+      <c r="D178" s="123" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="155"/>
-      <c r="F178" s="155"/>
-      <c r="G178" s="155"/>
-      <c r="H178" s="155"/>
-      <c r="I178" s="155"/>
-      <c r="J178" s="155"/>
-      <c r="K178" s="155"/>
+      <c r="E178" s="123"/>
+      <c r="F178" s="123"/>
+      <c r="G178" s="123"/>
+      <c r="H178" s="123"/>
+      <c r="I178" s="123"/>
+      <c r="J178" s="123"/>
+      <c r="K178" s="123"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -22177,16 +22182,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="141" t="s">
+      <c r="D182" s="124" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="142"/>
-      <c r="F182" s="142"/>
-      <c r="G182" s="142"/>
-      <c r="H182" s="142"/>
-      <c r="I182" s="142"/>
-      <c r="J182" s="142"/>
-      <c r="K182" s="143"/>
+      <c r="E182" s="125"/>
+      <c r="F182" s="125"/>
+      <c r="G182" s="125"/>
+      <c r="H182" s="125"/>
+      <c r="I182" s="125"/>
+      <c r="J182" s="125"/>
+      <c r="K182" s="126"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -22198,16 +22203,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="141" t="s">
+      <c r="D183" s="124" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="142"/>
-      <c r="F183" s="142"/>
-      <c r="G183" s="142"/>
-      <c r="H183" s="142"/>
-      <c r="I183" s="142"/>
-      <c r="J183" s="142"/>
-      <c r="K183" s="143"/>
+      <c r="E183" s="125"/>
+      <c r="F183" s="125"/>
+      <c r="G183" s="125"/>
+      <c r="H183" s="125"/>
+      <c r="I183" s="125"/>
+      <c r="J183" s="125"/>
+      <c r="K183" s="126"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -22219,16 +22224,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="141" t="s">
+      <c r="D184" s="124" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="142"/>
-      <c r="F184" s="142"/>
-      <c r="G184" s="142"/>
-      <c r="H184" s="142"/>
-      <c r="I184" s="142"/>
-      <c r="J184" s="142"/>
-      <c r="K184" s="143"/>
+      <c r="E184" s="125"/>
+      <c r="F184" s="125"/>
+      <c r="G184" s="125"/>
+      <c r="H184" s="125"/>
+      <c r="I184" s="125"/>
+      <c r="J184" s="125"/>
+      <c r="K184" s="126"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -22240,16 +22245,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="141" t="s">
+      <c r="D185" s="124" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="142"/>
-      <c r="F185" s="142"/>
-      <c r="G185" s="142"/>
-      <c r="H185" s="142"/>
-      <c r="I185" s="142"/>
-      <c r="J185" s="142"/>
-      <c r="K185" s="143"/>
+      <c r="E185" s="125"/>
+      <c r="F185" s="125"/>
+      <c r="G185" s="125"/>
+      <c r="H185" s="125"/>
+      <c r="I185" s="125"/>
+      <c r="J185" s="125"/>
+      <c r="K185" s="126"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -22261,16 +22266,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="141" t="s">
+      <c r="D186" s="124" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="142"/>
-      <c r="F186" s="142"/>
-      <c r="G186" s="142"/>
-      <c r="H186" s="142"/>
-      <c r="I186" s="142"/>
-      <c r="J186" s="142"/>
-      <c r="K186" s="143"/>
+      <c r="E186" s="125"/>
+      <c r="F186" s="125"/>
+      <c r="G186" s="125"/>
+      <c r="H186" s="125"/>
+      <c r="I186" s="125"/>
+      <c r="J186" s="125"/>
+      <c r="K186" s="126"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -22282,16 +22287,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="141" t="s">
+      <c r="D187" s="124" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="142"/>
-      <c r="F187" s="142"/>
-      <c r="G187" s="142"/>
-      <c r="H187" s="142"/>
-      <c r="I187" s="142"/>
-      <c r="J187" s="142"/>
-      <c r="K187" s="143"/>
+      <c r="E187" s="125"/>
+      <c r="F187" s="125"/>
+      <c r="G187" s="125"/>
+      <c r="H187" s="125"/>
+      <c r="I187" s="125"/>
+      <c r="J187" s="125"/>
+      <c r="K187" s="126"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -22303,16 +22308,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="141" t="s">
+      <c r="D188" s="124" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="142"/>
-      <c r="F188" s="142"/>
-      <c r="G188" s="142"/>
-      <c r="H188" s="142"/>
-      <c r="I188" s="142"/>
-      <c r="J188" s="142"/>
-      <c r="K188" s="143"/>
+      <c r="E188" s="125"/>
+      <c r="F188" s="125"/>
+      <c r="G188" s="125"/>
+      <c r="H188" s="125"/>
+      <c r="I188" s="125"/>
+      <c r="J188" s="125"/>
+      <c r="K188" s="126"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -22324,16 +22329,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="141" t="s">
+      <c r="D189" s="124" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="142"/>
-      <c r="F189" s="142"/>
-      <c r="G189" s="142"/>
-      <c r="H189" s="142"/>
-      <c r="I189" s="142"/>
-      <c r="J189" s="142"/>
-      <c r="K189" s="143"/>
+      <c r="E189" s="125"/>
+      <c r="F189" s="125"/>
+      <c r="G189" s="125"/>
+      <c r="H189" s="125"/>
+      <c r="I189" s="125"/>
+      <c r="J189" s="125"/>
+      <c r="K189" s="126"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -22345,16 +22350,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="141" t="s">
+      <c r="D190" s="124" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="142"/>
-      <c r="F190" s="142"/>
-      <c r="G190" s="142"/>
-      <c r="H190" s="142"/>
-      <c r="I190" s="142"/>
-      <c r="J190" s="142"/>
-      <c r="K190" s="143"/>
+      <c r="E190" s="125"/>
+      <c r="F190" s="125"/>
+      <c r="G190" s="125"/>
+      <c r="H190" s="125"/>
+      <c r="I190" s="125"/>
+      <c r="J190" s="125"/>
+      <c r="K190" s="126"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -22366,16 +22371,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="141" t="s">
+      <c r="D191" s="124" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="142"/>
-      <c r="F191" s="142"/>
-      <c r="G191" s="142"/>
-      <c r="H191" s="142"/>
-      <c r="I191" s="142"/>
-      <c r="J191" s="142"/>
-      <c r="K191" s="143"/>
+      <c r="E191" s="125"/>
+      <c r="F191" s="125"/>
+      <c r="G191" s="125"/>
+      <c r="H191" s="125"/>
+      <c r="I191" s="125"/>
+      <c r="J191" s="125"/>
+      <c r="K191" s="126"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -22387,16 +22392,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="141" t="s">
+      <c r="D192" s="124" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="142"/>
-      <c r="F192" s="142"/>
-      <c r="G192" s="142"/>
-      <c r="H192" s="142"/>
-      <c r="I192" s="142"/>
-      <c r="J192" s="142"/>
-      <c r="K192" s="143"/>
+      <c r="E192" s="125"/>
+      <c r="F192" s="125"/>
+      <c r="G192" s="125"/>
+      <c r="H192" s="125"/>
+      <c r="I192" s="125"/>
+      <c r="J192" s="125"/>
+      <c r="K192" s="126"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -22408,16 +22413,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="152" t="s">
+      <c r="D193" s="127" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="153"/>
-      <c r="F193" s="153"/>
-      <c r="G193" s="153"/>
-      <c r="H193" s="153"/>
-      <c r="I193" s="153"/>
-      <c r="J193" s="153"/>
-      <c r="K193" s="154"/>
+      <c r="E193" s="128"/>
+      <c r="F193" s="128"/>
+      <c r="G193" s="128"/>
+      <c r="H193" s="128"/>
+      <c r="I193" s="128"/>
+      <c r="J193" s="128"/>
+      <c r="K193" s="129"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -22432,16 +22437,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="134" t="s">
+      <c r="D194" s="130" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="127"/>
-      <c r="F194" s="127"/>
-      <c r="G194" s="127"/>
-      <c r="H194" s="127"/>
-      <c r="I194" s="127"/>
-      <c r="J194" s="127"/>
-      <c r="K194" s="135"/>
+      <c r="E194" s="131"/>
+      <c r="F194" s="131"/>
+      <c r="G194" s="131"/>
+      <c r="H194" s="131"/>
+      <c r="I194" s="131"/>
+      <c r="J194" s="131"/>
+      <c r="K194" s="132"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -22453,16 +22458,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="141" t="s">
+      <c r="D195" s="124" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="142"/>
-      <c r="F195" s="142"/>
-      <c r="G195" s="142"/>
-      <c r="H195" s="142"/>
-      <c r="I195" s="142"/>
-      <c r="J195" s="142"/>
-      <c r="K195" s="143"/>
+      <c r="E195" s="125"/>
+      <c r="F195" s="125"/>
+      <c r="G195" s="125"/>
+      <c r="H195" s="125"/>
+      <c r="I195" s="125"/>
+      <c r="J195" s="125"/>
+      <c r="K195" s="126"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -22474,16 +22479,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="141" t="s">
+      <c r="D196" s="124" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="142"/>
-      <c r="F196" s="142"/>
-      <c r="G196" s="142"/>
-      <c r="H196" s="142"/>
-      <c r="I196" s="142"/>
-      <c r="J196" s="142"/>
-      <c r="K196" s="143"/>
+      <c r="E196" s="125"/>
+      <c r="F196" s="125"/>
+      <c r="G196" s="125"/>
+      <c r="H196" s="125"/>
+      <c r="I196" s="125"/>
+      <c r="J196" s="125"/>
+      <c r="K196" s="126"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -22495,16 +22500,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="141" t="s">
+      <c r="D197" s="124" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="142"/>
-      <c r="F197" s="142"/>
-      <c r="G197" s="142"/>
-      <c r="H197" s="142"/>
-      <c r="I197" s="142"/>
-      <c r="J197" s="142"/>
-      <c r="K197" s="143"/>
+      <c r="E197" s="125"/>
+      <c r="F197" s="125"/>
+      <c r="G197" s="125"/>
+      <c r="H197" s="125"/>
+      <c r="I197" s="125"/>
+      <c r="J197" s="125"/>
+      <c r="K197" s="126"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -22516,16 +22521,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="141" t="s">
+      <c r="D198" s="124" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="142"/>
-      <c r="F198" s="142"/>
-      <c r="G198" s="142"/>
-      <c r="H198" s="142"/>
-      <c r="I198" s="142"/>
-      <c r="J198" s="142"/>
-      <c r="K198" s="143"/>
+      <c r="E198" s="125"/>
+      <c r="F198" s="125"/>
+      <c r="G198" s="125"/>
+      <c r="H198" s="125"/>
+      <c r="I198" s="125"/>
+      <c r="J198" s="125"/>
+      <c r="K198" s="126"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -22556,16 +22561,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="141" t="s">
+      <c r="D200" s="124" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="142"/>
-      <c r="F200" s="142"/>
-      <c r="G200" s="142"/>
-      <c r="H200" s="142"/>
-      <c r="I200" s="142"/>
-      <c r="J200" s="142"/>
-      <c r="K200" s="143"/>
+      <c r="E200" s="125"/>
+      <c r="F200" s="125"/>
+      <c r="G200" s="125"/>
+      <c r="H200" s="125"/>
+      <c r="I200" s="125"/>
+      <c r="J200" s="125"/>
+      <c r="K200" s="126"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -22596,16 +22601,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="149" t="s">
+      <c r="D202" s="153" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="150"/>
-      <c r="F202" s="150"/>
-      <c r="G202" s="150"/>
-      <c r="H202" s="150"/>
-      <c r="I202" s="150"/>
-      <c r="J202" s="150"/>
-      <c r="K202" s="151"/>
+      <c r="E202" s="154"/>
+      <c r="F202" s="154"/>
+      <c r="G202" s="154"/>
+      <c r="H202" s="154"/>
+      <c r="I202" s="154"/>
+      <c r="J202" s="154"/>
+      <c r="K202" s="155"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -22636,16 +22641,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="141" t="s">
+      <c r="D204" s="124" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="142"/>
-      <c r="F204" s="142"/>
-      <c r="G204" s="142"/>
-      <c r="H204" s="142"/>
-      <c r="I204" s="142"/>
-      <c r="J204" s="142"/>
-      <c r="K204" s="143"/>
+      <c r="E204" s="125"/>
+      <c r="F204" s="125"/>
+      <c r="G204" s="125"/>
+      <c r="H204" s="125"/>
+      <c r="I204" s="125"/>
+      <c r="J204" s="125"/>
+      <c r="K204" s="126"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -22676,16 +22681,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="141" t="s">
+      <c r="D206" s="124" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="142"/>
-      <c r="F206" s="142"/>
-      <c r="G206" s="142"/>
-      <c r="H206" s="142"/>
-      <c r="I206" s="142"/>
-      <c r="J206" s="142"/>
-      <c r="K206" s="143"/>
+      <c r="E206" s="125"/>
+      <c r="F206" s="125"/>
+      <c r="G206" s="125"/>
+      <c r="H206" s="125"/>
+      <c r="I206" s="125"/>
+      <c r="J206" s="125"/>
+      <c r="K206" s="126"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -22716,16 +22721,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="141" t="s">
+      <c r="D208" s="124" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="142"/>
-      <c r="F208" s="142"/>
-      <c r="G208" s="142"/>
-      <c r="H208" s="142"/>
-      <c r="I208" s="142"/>
-      <c r="J208" s="142"/>
-      <c r="K208" s="143"/>
+      <c r="E208" s="125"/>
+      <c r="F208" s="125"/>
+      <c r="G208" s="125"/>
+      <c r="H208" s="125"/>
+      <c r="I208" s="125"/>
+      <c r="J208" s="125"/>
+      <c r="K208" s="126"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -22759,16 +22764,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="134" t="s">
+      <c r="D210" s="130" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="127"/>
-      <c r="F210" s="127"/>
-      <c r="G210" s="127"/>
-      <c r="H210" s="127"/>
-      <c r="I210" s="127"/>
-      <c r="J210" s="127"/>
-      <c r="K210" s="135"/>
+      <c r="E210" s="131"/>
+      <c r="F210" s="131"/>
+      <c r="G210" s="131"/>
+      <c r="H210" s="131"/>
+      <c r="I210" s="131"/>
+      <c r="J210" s="131"/>
+      <c r="K210" s="132"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -22837,16 +22842,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="141" t="s">
+      <c r="D214" s="124" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="142"/>
-      <c r="F214" s="142"/>
-      <c r="G214" s="142"/>
-      <c r="H214" s="142"/>
-      <c r="I214" s="142"/>
-      <c r="J214" s="142"/>
-      <c r="K214" s="143"/>
+      <c r="E214" s="125"/>
+      <c r="F214" s="125"/>
+      <c r="G214" s="125"/>
+      <c r="H214" s="125"/>
+      <c r="I214" s="125"/>
+      <c r="J214" s="125"/>
+      <c r="K214" s="126"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -22877,16 +22882,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="132" t="s">
+      <c r="D216" s="144" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="124"/>
-      <c r="F216" s="124"/>
-      <c r="G216" s="124"/>
-      <c r="H216" s="124"/>
-      <c r="I216" s="124"/>
-      <c r="J216" s="124"/>
-      <c r="K216" s="133"/>
+      <c r="E216" s="136"/>
+      <c r="F216" s="136"/>
+      <c r="G216" s="136"/>
+      <c r="H216" s="136"/>
+      <c r="I216" s="136"/>
+      <c r="J216" s="136"/>
+      <c r="K216" s="145"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -22898,14 +22903,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="134"/>
-      <c r="E217" s="127"/>
-      <c r="F217" s="127"/>
-      <c r="G217" s="127"/>
-      <c r="H217" s="127"/>
-      <c r="I217" s="127"/>
-      <c r="J217" s="127"/>
-      <c r="K217" s="135"/>
+      <c r="D217" s="130"/>
+      <c r="E217" s="131"/>
+      <c r="F217" s="131"/>
+      <c r="G217" s="131"/>
+      <c r="H217" s="131"/>
+      <c r="I217" s="131"/>
+      <c r="J217" s="131"/>
+      <c r="K217" s="132"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -22917,16 +22922,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="132" t="s">
+      <c r="D218" s="144" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="124"/>
-      <c r="F218" s="124"/>
-      <c r="G218" s="124"/>
-      <c r="H218" s="124"/>
-      <c r="I218" s="124"/>
-      <c r="J218" s="124"/>
-      <c r="K218" s="133"/>
+      <c r="E218" s="136"/>
+      <c r="F218" s="136"/>
+      <c r="G218" s="136"/>
+      <c r="H218" s="136"/>
+      <c r="I218" s="136"/>
+      <c r="J218" s="136"/>
+      <c r="K218" s="145"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -22938,14 +22943,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="134"/>
-      <c r="E219" s="127"/>
-      <c r="F219" s="127"/>
-      <c r="G219" s="127"/>
-      <c r="H219" s="127"/>
-      <c r="I219" s="127"/>
-      <c r="J219" s="127"/>
-      <c r="K219" s="135"/>
+      <c r="D219" s="130"/>
+      <c r="E219" s="131"/>
+      <c r="F219" s="131"/>
+      <c r="G219" s="131"/>
+      <c r="H219" s="131"/>
+      <c r="I219" s="131"/>
+      <c r="J219" s="131"/>
+      <c r="K219" s="132"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -22957,16 +22962,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="132" t="s">
+      <c r="D220" s="144" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="124"/>
-      <c r="F220" s="124"/>
-      <c r="G220" s="124"/>
-      <c r="H220" s="124"/>
-      <c r="I220" s="124"/>
-      <c r="J220" s="124"/>
-      <c r="K220" s="133"/>
+      <c r="E220" s="136"/>
+      <c r="F220" s="136"/>
+      <c r="G220" s="136"/>
+      <c r="H220" s="136"/>
+      <c r="I220" s="136"/>
+      <c r="J220" s="136"/>
+      <c r="K220" s="145"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -22978,14 +22983,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="134"/>
-      <c r="E221" s="127"/>
-      <c r="F221" s="127"/>
-      <c r="G221" s="127"/>
-      <c r="H221" s="127"/>
-      <c r="I221" s="127"/>
-      <c r="J221" s="127"/>
-      <c r="K221" s="135"/>
+      <c r="D221" s="130"/>
+      <c r="E221" s="131"/>
+      <c r="F221" s="131"/>
+      <c r="G221" s="131"/>
+      <c r="H221" s="131"/>
+      <c r="I221" s="131"/>
+      <c r="J221" s="131"/>
+      <c r="K221" s="132"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -22997,16 +23002,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="141" t="s">
+      <c r="D222" s="124" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="142"/>
-      <c r="F222" s="142"/>
-      <c r="G222" s="142"/>
-      <c r="H222" s="142"/>
-      <c r="I222" s="142"/>
-      <c r="J222" s="142"/>
-      <c r="K222" s="143"/>
+      <c r="E222" s="125"/>
+      <c r="F222" s="125"/>
+      <c r="G222" s="125"/>
+      <c r="H222" s="125"/>
+      <c r="I222" s="125"/>
+      <c r="J222" s="125"/>
+      <c r="K222" s="126"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -23037,16 +23042,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="141" t="s">
+      <c r="D224" s="124" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="142"/>
-      <c r="F224" s="142"/>
-      <c r="G224" s="142"/>
-      <c r="H224" s="142"/>
-      <c r="I224" s="142"/>
-      <c r="J224" s="142"/>
-      <c r="K224" s="143"/>
+      <c r="E224" s="125"/>
+      <c r="F224" s="125"/>
+      <c r="G224" s="125"/>
+      <c r="H224" s="125"/>
+      <c r="I224" s="125"/>
+      <c r="J224" s="125"/>
+      <c r="K224" s="126"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -23080,16 +23085,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="146" t="s">
+      <c r="D226" s="150" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="147"/>
-      <c r="F226" s="147"/>
-      <c r="G226" s="147"/>
-      <c r="H226" s="147"/>
-      <c r="I226" s="147"/>
-      <c r="J226" s="147"/>
-      <c r="K226" s="148"/>
+      <c r="E226" s="151"/>
+      <c r="F226" s="151"/>
+      <c r="G226" s="151"/>
+      <c r="H226" s="151"/>
+      <c r="I226" s="151"/>
+      <c r="J226" s="151"/>
+      <c r="K226" s="152"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -23234,16 +23239,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="136" t="s">
+      <c r="D234" s="148" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="137"/>
-      <c r="F234" s="137"/>
-      <c r="G234" s="137"/>
-      <c r="H234" s="137"/>
-      <c r="I234" s="137"/>
-      <c r="J234" s="137"/>
-      <c r="K234" s="138"/>
+      <c r="E234" s="134"/>
+      <c r="F234" s="134"/>
+      <c r="G234" s="134"/>
+      <c r="H234" s="134"/>
+      <c r="I234" s="134"/>
+      <c r="J234" s="134"/>
+      <c r="K234" s="149"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -23312,16 +23317,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="123" t="s">
+      <c r="D238" s="140" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="124"/>
-      <c r="F238" s="124"/>
-      <c r="G238" s="124"/>
-      <c r="H238" s="124"/>
-      <c r="I238" s="124"/>
-      <c r="J238" s="124"/>
-      <c r="K238" s="125"/>
+      <c r="E238" s="136"/>
+      <c r="F238" s="136"/>
+      <c r="G238" s="136"/>
+      <c r="H238" s="136"/>
+      <c r="I238" s="136"/>
+      <c r="J238" s="136"/>
+      <c r="K238" s="137"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -23333,14 +23338,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="126"/>
-      <c r="E239" s="127"/>
-      <c r="F239" s="127"/>
-      <c r="G239" s="127"/>
-      <c r="H239" s="127"/>
-      <c r="I239" s="127"/>
-      <c r="J239" s="127"/>
-      <c r="K239" s="128"/>
+      <c r="D239" s="146"/>
+      <c r="E239" s="131"/>
+      <c r="F239" s="131"/>
+      <c r="G239" s="131"/>
+      <c r="H239" s="131"/>
+      <c r="I239" s="131"/>
+      <c r="J239" s="131"/>
+      <c r="K239" s="147"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -23352,16 +23357,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="124" t="s">
+      <c r="D240" s="136" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="124"/>
-      <c r="F240" s="124"/>
-      <c r="G240" s="124"/>
-      <c r="H240" s="124"/>
-      <c r="I240" s="124"/>
-      <c r="J240" s="124"/>
-      <c r="K240" s="125"/>
+      <c r="E240" s="136"/>
+      <c r="F240" s="136"/>
+      <c r="G240" s="136"/>
+      <c r="H240" s="136"/>
+      <c r="I240" s="136"/>
+      <c r="J240" s="136"/>
+      <c r="K240" s="137"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -23373,14 +23378,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="144"/>
-      <c r="E241" s="144"/>
-      <c r="F241" s="144"/>
-      <c r="G241" s="144"/>
-      <c r="H241" s="144"/>
-      <c r="I241" s="144"/>
-      <c r="J241" s="144"/>
-      <c r="K241" s="145"/>
+      <c r="D241" s="138"/>
+      <c r="E241" s="138"/>
+      <c r="F241" s="138"/>
+      <c r="G241" s="138"/>
+      <c r="H241" s="138"/>
+      <c r="I241" s="138"/>
+      <c r="J241" s="138"/>
+      <c r="K241" s="139"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -23571,16 +23576,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="139" t="s">
+      <c r="D250" s="133" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="137"/>
-      <c r="F250" s="137"/>
-      <c r="G250" s="137"/>
-      <c r="H250" s="137"/>
-      <c r="I250" s="137"/>
-      <c r="J250" s="137"/>
-      <c r="K250" s="140"/>
+      <c r="E250" s="134"/>
+      <c r="F250" s="134"/>
+      <c r="G250" s="134"/>
+      <c r="H250" s="134"/>
+      <c r="I250" s="134"/>
+      <c r="J250" s="134"/>
+      <c r="K250" s="135"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -24149,16 +24154,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="141" t="s">
+      <c r="D280" s="124" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="142"/>
-      <c r="F280" s="142"/>
-      <c r="G280" s="142"/>
-      <c r="H280" s="142"/>
-      <c r="I280" s="142"/>
-      <c r="J280" s="142"/>
-      <c r="K280" s="143"/>
+      <c r="E280" s="125"/>
+      <c r="F280" s="125"/>
+      <c r="G280" s="125"/>
+      <c r="H280" s="125"/>
+      <c r="I280" s="125"/>
+      <c r="J280" s="125"/>
+      <c r="K280" s="126"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -24265,16 +24270,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="141" t="s">
+      <c r="D286" s="124" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="142"/>
-      <c r="F286" s="142"/>
-      <c r="G286" s="142"/>
-      <c r="H286" s="142"/>
-      <c r="I286" s="142"/>
-      <c r="J286" s="142"/>
-      <c r="K286" s="143"/>
+      <c r="E286" s="125"/>
+      <c r="F286" s="125"/>
+      <c r="G286" s="125"/>
+      <c r="H286" s="125"/>
+      <c r="I286" s="125"/>
+      <c r="J286" s="125"/>
+      <c r="K286" s="126"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -24462,16 +24467,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="141" t="s">
+      <c r="D296" s="124" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="142"/>
-      <c r="F296" s="142"/>
-      <c r="G296" s="142"/>
-      <c r="H296" s="142"/>
-      <c r="I296" s="142"/>
-      <c r="J296" s="142"/>
-      <c r="K296" s="143"/>
+      <c r="E296" s="125"/>
+      <c r="F296" s="125"/>
+      <c r="G296" s="125"/>
+      <c r="H296" s="125"/>
+      <c r="I296" s="125"/>
+      <c r="J296" s="125"/>
+      <c r="K296" s="126"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -24502,16 +24507,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="123" t="s">
+      <c r="D298" s="140" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="124"/>
-      <c r="F298" s="124"/>
-      <c r="G298" s="124"/>
-      <c r="H298" s="124"/>
-      <c r="I298" s="124"/>
-      <c r="J298" s="124"/>
-      <c r="K298" s="125"/>
+      <c r="E298" s="136"/>
+      <c r="F298" s="136"/>
+      <c r="G298" s="136"/>
+      <c r="H298" s="136"/>
+      <c r="I298" s="136"/>
+      <c r="J298" s="136"/>
+      <c r="K298" s="137"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -24523,14 +24528,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="126"/>
-      <c r="E299" s="127"/>
-      <c r="F299" s="127"/>
-      <c r="G299" s="127"/>
-      <c r="H299" s="127"/>
-      <c r="I299" s="127"/>
-      <c r="J299" s="127"/>
-      <c r="K299" s="128"/>
+      <c r="D299" s="146"/>
+      <c r="E299" s="131"/>
+      <c r="F299" s="131"/>
+      <c r="G299" s="131"/>
+      <c r="H299" s="131"/>
+      <c r="I299" s="131"/>
+      <c r="J299" s="131"/>
+      <c r="K299" s="147"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -24542,16 +24547,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="123" t="s">
+      <c r="D300" s="140" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="124"/>
-      <c r="F300" s="124"/>
-      <c r="G300" s="124"/>
-      <c r="H300" s="124"/>
-      <c r="I300" s="124"/>
-      <c r="J300" s="124"/>
-      <c r="K300" s="125"/>
+      <c r="E300" s="136"/>
+      <c r="F300" s="136"/>
+      <c r="G300" s="136"/>
+      <c r="H300" s="136"/>
+      <c r="I300" s="136"/>
+      <c r="J300" s="136"/>
+      <c r="K300" s="137"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -24563,14 +24568,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="126"/>
-      <c r="E301" s="127"/>
-      <c r="F301" s="127"/>
-      <c r="G301" s="127"/>
-      <c r="H301" s="127"/>
-      <c r="I301" s="127"/>
-      <c r="J301" s="127"/>
-      <c r="K301" s="128"/>
+      <c r="D301" s="146"/>
+      <c r="E301" s="131"/>
+      <c r="F301" s="131"/>
+      <c r="G301" s="131"/>
+      <c r="H301" s="131"/>
+      <c r="I301" s="131"/>
+      <c r="J301" s="131"/>
+      <c r="K301" s="147"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -24582,16 +24587,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="123" t="s">
+      <c r="D302" s="140" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="124"/>
-      <c r="F302" s="124"/>
-      <c r="G302" s="124"/>
-      <c r="H302" s="124"/>
-      <c r="I302" s="124"/>
-      <c r="J302" s="124"/>
-      <c r="K302" s="125"/>
+      <c r="E302" s="136"/>
+      <c r="F302" s="136"/>
+      <c r="G302" s="136"/>
+      <c r="H302" s="136"/>
+      <c r="I302" s="136"/>
+      <c r="J302" s="136"/>
+      <c r="K302" s="137"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -24603,14 +24608,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="126"/>
-      <c r="E303" s="127"/>
-      <c r="F303" s="127"/>
-      <c r="G303" s="127"/>
-      <c r="H303" s="127"/>
-      <c r="I303" s="127"/>
-      <c r="J303" s="127"/>
-      <c r="K303" s="128"/>
+      <c r="D303" s="146"/>
+      <c r="E303" s="131"/>
+      <c r="F303" s="131"/>
+      <c r="G303" s="131"/>
+      <c r="H303" s="131"/>
+      <c r="I303" s="131"/>
+      <c r="J303" s="131"/>
+      <c r="K303" s="147"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -24622,16 +24627,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="123" t="s">
+      <c r="D304" s="140" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="124"/>
-      <c r="F304" s="124"/>
-      <c r="G304" s="124"/>
-      <c r="H304" s="124"/>
-      <c r="I304" s="124"/>
-      <c r="J304" s="124"/>
-      <c r="K304" s="125"/>
+      <c r="E304" s="136"/>
+      <c r="F304" s="136"/>
+      <c r="G304" s="136"/>
+      <c r="H304" s="136"/>
+      <c r="I304" s="136"/>
+      <c r="J304" s="136"/>
+      <c r="K304" s="137"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -24643,14 +24648,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="126"/>
-      <c r="E305" s="127"/>
-      <c r="F305" s="127"/>
-      <c r="G305" s="127"/>
-      <c r="H305" s="127"/>
-      <c r="I305" s="127"/>
-      <c r="J305" s="127"/>
-      <c r="K305" s="128"/>
+      <c r="D305" s="146"/>
+      <c r="E305" s="131"/>
+      <c r="F305" s="131"/>
+      <c r="G305" s="131"/>
+      <c r="H305" s="131"/>
+      <c r="I305" s="131"/>
+      <c r="J305" s="131"/>
+      <c r="K305" s="147"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -24665,16 +24670,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="123" t="s">
+      <c r="D306" s="140" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="124"/>
-      <c r="F306" s="124"/>
-      <c r="G306" s="124"/>
-      <c r="H306" s="124"/>
-      <c r="I306" s="124"/>
-      <c r="J306" s="124"/>
-      <c r="K306" s="125"/>
+      <c r="E306" s="136"/>
+      <c r="F306" s="136"/>
+      <c r="G306" s="136"/>
+      <c r="H306" s="136"/>
+      <c r="I306" s="136"/>
+      <c r="J306" s="136"/>
+      <c r="K306" s="137"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -24686,14 +24691,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="126"/>
-      <c r="E307" s="127"/>
-      <c r="F307" s="127"/>
-      <c r="G307" s="127"/>
-      <c r="H307" s="127"/>
-      <c r="I307" s="127"/>
-      <c r="J307" s="127"/>
-      <c r="K307" s="128"/>
+      <c r="D307" s="146"/>
+      <c r="E307" s="131"/>
+      <c r="F307" s="131"/>
+      <c r="G307" s="131"/>
+      <c r="H307" s="131"/>
+      <c r="I307" s="131"/>
+      <c r="J307" s="131"/>
+      <c r="K307" s="147"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -24705,16 +24710,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="123" t="s">
+      <c r="D308" s="140" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="124"/>
-      <c r="F308" s="124"/>
-      <c r="G308" s="124"/>
-      <c r="H308" s="124"/>
-      <c r="I308" s="124"/>
-      <c r="J308" s="124"/>
-      <c r="K308" s="125"/>
+      <c r="E308" s="136"/>
+      <c r="F308" s="136"/>
+      <c r="G308" s="136"/>
+      <c r="H308" s="136"/>
+      <c r="I308" s="136"/>
+      <c r="J308" s="136"/>
+      <c r="K308" s="137"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -24726,14 +24731,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="126"/>
-      <c r="E309" s="127"/>
-      <c r="F309" s="127"/>
-      <c r="G309" s="127"/>
-      <c r="H309" s="127"/>
-      <c r="I309" s="127"/>
-      <c r="J309" s="127"/>
-      <c r="K309" s="128"/>
+      <c r="D309" s="146"/>
+      <c r="E309" s="131"/>
+      <c r="F309" s="131"/>
+      <c r="G309" s="131"/>
+      <c r="H309" s="131"/>
+      <c r="I309" s="131"/>
+      <c r="J309" s="131"/>
+      <c r="K309" s="147"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -28613,29 +28618,12 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="D214:K214"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D200:K200"/>
-    <mergeCell ref="D202:K202"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
     <mergeCell ref="D280:K280"/>
     <mergeCell ref="D286:K286"/>
     <mergeCell ref="D296:K296"/>
@@ -28652,12 +28640,29 @@
     <mergeCell ref="D250:K250"/>
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="D214:K214"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="D202:K202"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape"/>

--- a/data/Switches.xlsx
+++ b/data/Switches.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="424">
   <si>
     <t>ID</t>
   </si>
@@ -1289,9 +1289,6 @@
   </si>
   <si>
     <t>Great Wall Hidden DS</t>
-  </si>
-  <si>
-    <t>Talk to teacher</t>
   </si>
 </sst>
 </file>
@@ -1311,28 +1308,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1340,7 +1337,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1348,7 +1345,7 @@
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1356,7 +1353,7 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2398,43 +2395,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2443,13 +2404,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2467,16 +2428,40 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2495,6 +2480,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2807,8 +2804,8 @@
   <dimension ref="A1:O513"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2881,16 +2878,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="140" t="s">
+      <c r="D2" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="137"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="125"/>
       <c r="L2" s="119" t="s">
         <v>7</v>
       </c>
@@ -2908,14 +2905,14 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="143"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="131"/>
       <c r="L3" s="119" t="s">
         <v>8</v>
       </c>
@@ -3084,7 +3081,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1">
+    <row r="8" spans="1:15">
       <c r="A8" s="12">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -3125,7 +3122,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1">
+    <row r="9" spans="1:15">
       <c r="A9" s="12">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3157,14 +3154,12 @@
         <v>50</v>
       </c>
       <c r="J9" s="30"/>
-      <c r="K9" s="99" t="s">
-        <v>424</v>
-      </c>
+      <c r="K9" s="28"/>
       <c r="L9" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1">
+    <row r="10" spans="1:15">
       <c r="A10" s="12">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -8974,16 +8969,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="123" t="s">
+      <c r="D168" s="155" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="123"/>
-      <c r="F168" s="123"/>
-      <c r="G168" s="123"/>
-      <c r="H168" s="123"/>
-      <c r="I168" s="123"/>
-      <c r="J168" s="123"/>
-      <c r="K168" s="123"/>
+      <c r="E168" s="155"/>
+      <c r="F168" s="155"/>
+      <c r="G168" s="155"/>
+      <c r="H168" s="155"/>
+      <c r="I168" s="155"/>
+      <c r="J168" s="155"/>
+      <c r="K168" s="155"/>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="12">
@@ -9109,16 +9104,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="123" t="s">
+      <c r="D175" s="155" t="s">
         <v>349</v>
       </c>
-      <c r="E175" s="123"/>
-      <c r="F175" s="123"/>
-      <c r="G175" s="123"/>
-      <c r="H175" s="123"/>
-      <c r="I175" s="123"/>
-      <c r="J175" s="123"/>
-      <c r="K175" s="123"/>
+      <c r="E175" s="155"/>
+      <c r="F175" s="155"/>
+      <c r="G175" s="155"/>
+      <c r="H175" s="155"/>
+      <c r="I175" s="155"/>
+      <c r="J175" s="155"/>
+      <c r="K175" s="155"/>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="12">
@@ -9171,16 +9166,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="123" t="s">
+      <c r="D178" s="155" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="123"/>
-      <c r="F178" s="123"/>
-      <c r="G178" s="123"/>
-      <c r="H178" s="123"/>
-      <c r="I178" s="123"/>
-      <c r="J178" s="123"/>
-      <c r="K178" s="123"/>
+      <c r="E178" s="155"/>
+      <c r="F178" s="155"/>
+      <c r="G178" s="155"/>
+      <c r="H178" s="155"/>
+      <c r="I178" s="155"/>
+      <c r="J178" s="155"/>
+      <c r="K178" s="155"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -9249,16 +9244,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="124" t="s">
+      <c r="D182" s="141" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="125"/>
-      <c r="F182" s="125"/>
-      <c r="G182" s="125"/>
-      <c r="H182" s="125"/>
-      <c r="I182" s="125"/>
-      <c r="J182" s="125"/>
-      <c r="K182" s="126"/>
+      <c r="E182" s="142"/>
+      <c r="F182" s="142"/>
+      <c r="G182" s="142"/>
+      <c r="H182" s="142"/>
+      <c r="I182" s="142"/>
+      <c r="J182" s="142"/>
+      <c r="K182" s="143"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -9270,16 +9265,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="124" t="s">
+      <c r="D183" s="141" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="125"/>
-      <c r="F183" s="125"/>
-      <c r="G183" s="125"/>
-      <c r="H183" s="125"/>
-      <c r="I183" s="125"/>
-      <c r="J183" s="125"/>
-      <c r="K183" s="126"/>
+      <c r="E183" s="142"/>
+      <c r="F183" s="142"/>
+      <c r="G183" s="142"/>
+      <c r="H183" s="142"/>
+      <c r="I183" s="142"/>
+      <c r="J183" s="142"/>
+      <c r="K183" s="143"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -9291,16 +9286,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="124" t="s">
+      <c r="D184" s="141" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="125"/>
-      <c r="F184" s="125"/>
-      <c r="G184" s="125"/>
-      <c r="H184" s="125"/>
-      <c r="I184" s="125"/>
-      <c r="J184" s="125"/>
-      <c r="K184" s="126"/>
+      <c r="E184" s="142"/>
+      <c r="F184" s="142"/>
+      <c r="G184" s="142"/>
+      <c r="H184" s="142"/>
+      <c r="I184" s="142"/>
+      <c r="J184" s="142"/>
+      <c r="K184" s="143"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -9312,16 +9307,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="124" t="s">
+      <c r="D185" s="141" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="125"/>
-      <c r="F185" s="125"/>
-      <c r="G185" s="125"/>
-      <c r="H185" s="125"/>
-      <c r="I185" s="125"/>
-      <c r="J185" s="125"/>
-      <c r="K185" s="126"/>
+      <c r="E185" s="142"/>
+      <c r="F185" s="142"/>
+      <c r="G185" s="142"/>
+      <c r="H185" s="142"/>
+      <c r="I185" s="142"/>
+      <c r="J185" s="142"/>
+      <c r="K185" s="143"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -9333,16 +9328,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="124" t="s">
+      <c r="D186" s="141" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="125"/>
-      <c r="F186" s="125"/>
-      <c r="G186" s="125"/>
-      <c r="H186" s="125"/>
-      <c r="I186" s="125"/>
-      <c r="J186" s="125"/>
-      <c r="K186" s="126"/>
+      <c r="E186" s="142"/>
+      <c r="F186" s="142"/>
+      <c r="G186" s="142"/>
+      <c r="H186" s="142"/>
+      <c r="I186" s="142"/>
+      <c r="J186" s="142"/>
+      <c r="K186" s="143"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -9354,16 +9349,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="124" t="s">
+      <c r="D187" s="141" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="125"/>
-      <c r="F187" s="125"/>
-      <c r="G187" s="125"/>
-      <c r="H187" s="125"/>
-      <c r="I187" s="125"/>
-      <c r="J187" s="125"/>
-      <c r="K187" s="126"/>
+      <c r="E187" s="142"/>
+      <c r="F187" s="142"/>
+      <c r="G187" s="142"/>
+      <c r="H187" s="142"/>
+      <c r="I187" s="142"/>
+      <c r="J187" s="142"/>
+      <c r="K187" s="143"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -9375,16 +9370,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="124" t="s">
+      <c r="D188" s="141" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="125"/>
-      <c r="F188" s="125"/>
-      <c r="G188" s="125"/>
-      <c r="H188" s="125"/>
-      <c r="I188" s="125"/>
-      <c r="J188" s="125"/>
-      <c r="K188" s="126"/>
+      <c r="E188" s="142"/>
+      <c r="F188" s="142"/>
+      <c r="G188" s="142"/>
+      <c r="H188" s="142"/>
+      <c r="I188" s="142"/>
+      <c r="J188" s="142"/>
+      <c r="K188" s="143"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -9396,16 +9391,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="124" t="s">
+      <c r="D189" s="141" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="125"/>
-      <c r="F189" s="125"/>
-      <c r="G189" s="125"/>
-      <c r="H189" s="125"/>
-      <c r="I189" s="125"/>
-      <c r="J189" s="125"/>
-      <c r="K189" s="126"/>
+      <c r="E189" s="142"/>
+      <c r="F189" s="142"/>
+      <c r="G189" s="142"/>
+      <c r="H189" s="142"/>
+      <c r="I189" s="142"/>
+      <c r="J189" s="142"/>
+      <c r="K189" s="143"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -9417,16 +9412,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="124" t="s">
+      <c r="D190" s="141" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="125"/>
-      <c r="F190" s="125"/>
-      <c r="G190" s="125"/>
-      <c r="H190" s="125"/>
-      <c r="I190" s="125"/>
-      <c r="J190" s="125"/>
-      <c r="K190" s="126"/>
+      <c r="E190" s="142"/>
+      <c r="F190" s="142"/>
+      <c r="G190" s="142"/>
+      <c r="H190" s="142"/>
+      <c r="I190" s="142"/>
+      <c r="J190" s="142"/>
+      <c r="K190" s="143"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -9438,16 +9433,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="124" t="s">
+      <c r="D191" s="141" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="125"/>
-      <c r="F191" s="125"/>
-      <c r="G191" s="125"/>
-      <c r="H191" s="125"/>
-      <c r="I191" s="125"/>
-      <c r="J191" s="125"/>
-      <c r="K191" s="126"/>
+      <c r="E191" s="142"/>
+      <c r="F191" s="142"/>
+      <c r="G191" s="142"/>
+      <c r="H191" s="142"/>
+      <c r="I191" s="142"/>
+      <c r="J191" s="142"/>
+      <c r="K191" s="143"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -9459,16 +9454,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="124" t="s">
+      <c r="D192" s="141" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="125"/>
-      <c r="F192" s="125"/>
-      <c r="G192" s="125"/>
-      <c r="H192" s="125"/>
-      <c r="I192" s="125"/>
-      <c r="J192" s="125"/>
-      <c r="K192" s="126"/>
+      <c r="E192" s="142"/>
+      <c r="F192" s="142"/>
+      <c r="G192" s="142"/>
+      <c r="H192" s="142"/>
+      <c r="I192" s="142"/>
+      <c r="J192" s="142"/>
+      <c r="K192" s="143"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -9480,16 +9475,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="127" t="s">
+      <c r="D193" s="152" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="128"/>
-      <c r="F193" s="128"/>
-      <c r="G193" s="128"/>
-      <c r="H193" s="128"/>
-      <c r="I193" s="128"/>
-      <c r="J193" s="128"/>
-      <c r="K193" s="129"/>
+      <c r="E193" s="153"/>
+      <c r="F193" s="153"/>
+      <c r="G193" s="153"/>
+      <c r="H193" s="153"/>
+      <c r="I193" s="153"/>
+      <c r="J193" s="153"/>
+      <c r="K193" s="154"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -9504,16 +9499,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="130" t="s">
+      <c r="D194" s="134" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="131"/>
-      <c r="F194" s="131"/>
-      <c r="G194" s="131"/>
-      <c r="H194" s="131"/>
-      <c r="I194" s="131"/>
-      <c r="J194" s="131"/>
-      <c r="K194" s="132"/>
+      <c r="E194" s="127"/>
+      <c r="F194" s="127"/>
+      <c r="G194" s="127"/>
+      <c r="H194" s="127"/>
+      <c r="I194" s="127"/>
+      <c r="J194" s="127"/>
+      <c r="K194" s="135"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -9525,16 +9520,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="124" t="s">
+      <c r="D195" s="141" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="125"/>
-      <c r="F195" s="125"/>
-      <c r="G195" s="125"/>
-      <c r="H195" s="125"/>
-      <c r="I195" s="125"/>
-      <c r="J195" s="125"/>
-      <c r="K195" s="126"/>
+      <c r="E195" s="142"/>
+      <c r="F195" s="142"/>
+      <c r="G195" s="142"/>
+      <c r="H195" s="142"/>
+      <c r="I195" s="142"/>
+      <c r="J195" s="142"/>
+      <c r="K195" s="143"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -9546,16 +9541,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="124" t="s">
+      <c r="D196" s="141" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="125"/>
-      <c r="F196" s="125"/>
-      <c r="G196" s="125"/>
-      <c r="H196" s="125"/>
-      <c r="I196" s="125"/>
-      <c r="J196" s="125"/>
-      <c r="K196" s="126"/>
+      <c r="E196" s="142"/>
+      <c r="F196" s="142"/>
+      <c r="G196" s="142"/>
+      <c r="H196" s="142"/>
+      <c r="I196" s="142"/>
+      <c r="J196" s="142"/>
+      <c r="K196" s="143"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -9567,16 +9562,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="124" t="s">
+      <c r="D197" s="141" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="125"/>
-      <c r="F197" s="125"/>
-      <c r="G197" s="125"/>
-      <c r="H197" s="125"/>
-      <c r="I197" s="125"/>
-      <c r="J197" s="125"/>
-      <c r="K197" s="126"/>
+      <c r="E197" s="142"/>
+      <c r="F197" s="142"/>
+      <c r="G197" s="142"/>
+      <c r="H197" s="142"/>
+      <c r="I197" s="142"/>
+      <c r="J197" s="142"/>
+      <c r="K197" s="143"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -9588,16 +9583,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="124" t="s">
+      <c r="D198" s="141" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="125"/>
-      <c r="F198" s="125"/>
-      <c r="G198" s="125"/>
-      <c r="H198" s="125"/>
-      <c r="I198" s="125"/>
-      <c r="J198" s="125"/>
-      <c r="K198" s="126"/>
+      <c r="E198" s="142"/>
+      <c r="F198" s="142"/>
+      <c r="G198" s="142"/>
+      <c r="H198" s="142"/>
+      <c r="I198" s="142"/>
+      <c r="J198" s="142"/>
+      <c r="K198" s="143"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -9628,16 +9623,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="124" t="s">
+      <c r="D200" s="141" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="125"/>
-      <c r="F200" s="125"/>
-      <c r="G200" s="125"/>
-      <c r="H200" s="125"/>
-      <c r="I200" s="125"/>
-      <c r="J200" s="125"/>
-      <c r="K200" s="126"/>
+      <c r="E200" s="142"/>
+      <c r="F200" s="142"/>
+      <c r="G200" s="142"/>
+      <c r="H200" s="142"/>
+      <c r="I200" s="142"/>
+      <c r="J200" s="142"/>
+      <c r="K200" s="143"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -9668,16 +9663,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="153" t="s">
+      <c r="D202" s="149" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="154"/>
-      <c r="F202" s="154"/>
-      <c r="G202" s="154"/>
-      <c r="H202" s="154"/>
-      <c r="I202" s="154"/>
-      <c r="J202" s="154"/>
-      <c r="K202" s="155"/>
+      <c r="E202" s="150"/>
+      <c r="F202" s="150"/>
+      <c r="G202" s="150"/>
+      <c r="H202" s="150"/>
+      <c r="I202" s="150"/>
+      <c r="J202" s="150"/>
+      <c r="K202" s="151"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -9708,16 +9703,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="124" t="s">
+      <c r="D204" s="141" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="125"/>
-      <c r="F204" s="125"/>
-      <c r="G204" s="125"/>
-      <c r="H204" s="125"/>
-      <c r="I204" s="125"/>
-      <c r="J204" s="125"/>
-      <c r="K204" s="126"/>
+      <c r="E204" s="142"/>
+      <c r="F204" s="142"/>
+      <c r="G204" s="142"/>
+      <c r="H204" s="142"/>
+      <c r="I204" s="142"/>
+      <c r="J204" s="142"/>
+      <c r="K204" s="143"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -9748,16 +9743,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="124" t="s">
+      <c r="D206" s="141" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="125"/>
-      <c r="F206" s="125"/>
-      <c r="G206" s="125"/>
-      <c r="H206" s="125"/>
-      <c r="I206" s="125"/>
-      <c r="J206" s="125"/>
-      <c r="K206" s="126"/>
+      <c r="E206" s="142"/>
+      <c r="F206" s="142"/>
+      <c r="G206" s="142"/>
+      <c r="H206" s="142"/>
+      <c r="I206" s="142"/>
+      <c r="J206" s="142"/>
+      <c r="K206" s="143"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -9788,16 +9783,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="124" t="s">
+      <c r="D208" s="141" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="125"/>
-      <c r="F208" s="125"/>
-      <c r="G208" s="125"/>
-      <c r="H208" s="125"/>
-      <c r="I208" s="125"/>
-      <c r="J208" s="125"/>
-      <c r="K208" s="126"/>
+      <c r="E208" s="142"/>
+      <c r="F208" s="142"/>
+      <c r="G208" s="142"/>
+      <c r="H208" s="142"/>
+      <c r="I208" s="142"/>
+      <c r="J208" s="142"/>
+      <c r="K208" s="143"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -9831,16 +9826,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="130" t="s">
+      <c r="D210" s="134" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="131"/>
-      <c r="F210" s="131"/>
-      <c r="G210" s="131"/>
-      <c r="H210" s="131"/>
-      <c r="I210" s="131"/>
-      <c r="J210" s="131"/>
-      <c r="K210" s="132"/>
+      <c r="E210" s="127"/>
+      <c r="F210" s="127"/>
+      <c r="G210" s="127"/>
+      <c r="H210" s="127"/>
+      <c r="I210" s="127"/>
+      <c r="J210" s="127"/>
+      <c r="K210" s="135"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -9909,16 +9904,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="124" t="s">
+      <c r="D214" s="141" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="125"/>
-      <c r="F214" s="125"/>
-      <c r="G214" s="125"/>
-      <c r="H214" s="125"/>
-      <c r="I214" s="125"/>
-      <c r="J214" s="125"/>
-      <c r="K214" s="126"/>
+      <c r="E214" s="142"/>
+      <c r="F214" s="142"/>
+      <c r="G214" s="142"/>
+      <c r="H214" s="142"/>
+      <c r="I214" s="142"/>
+      <c r="J214" s="142"/>
+      <c r="K214" s="143"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -9949,16 +9944,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="144" t="s">
+      <c r="D216" s="132" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="136"/>
-      <c r="F216" s="136"/>
-      <c r="G216" s="136"/>
-      <c r="H216" s="136"/>
-      <c r="I216" s="136"/>
-      <c r="J216" s="136"/>
-      <c r="K216" s="145"/>
+      <c r="E216" s="124"/>
+      <c r="F216" s="124"/>
+      <c r="G216" s="124"/>
+      <c r="H216" s="124"/>
+      <c r="I216" s="124"/>
+      <c r="J216" s="124"/>
+      <c r="K216" s="133"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -9970,14 +9965,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="130"/>
-      <c r="E217" s="131"/>
-      <c r="F217" s="131"/>
-      <c r="G217" s="131"/>
-      <c r="H217" s="131"/>
-      <c r="I217" s="131"/>
-      <c r="J217" s="131"/>
-      <c r="K217" s="132"/>
+      <c r="D217" s="134"/>
+      <c r="E217" s="127"/>
+      <c r="F217" s="127"/>
+      <c r="G217" s="127"/>
+      <c r="H217" s="127"/>
+      <c r="I217" s="127"/>
+      <c r="J217" s="127"/>
+      <c r="K217" s="135"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -9989,16 +9984,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="144" t="s">
+      <c r="D218" s="132" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="136"/>
-      <c r="F218" s="136"/>
-      <c r="G218" s="136"/>
-      <c r="H218" s="136"/>
-      <c r="I218" s="136"/>
-      <c r="J218" s="136"/>
-      <c r="K218" s="145"/>
+      <c r="E218" s="124"/>
+      <c r="F218" s="124"/>
+      <c r="G218" s="124"/>
+      <c r="H218" s="124"/>
+      <c r="I218" s="124"/>
+      <c r="J218" s="124"/>
+      <c r="K218" s="133"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -10010,14 +10005,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="130"/>
-      <c r="E219" s="131"/>
-      <c r="F219" s="131"/>
-      <c r="G219" s="131"/>
-      <c r="H219" s="131"/>
-      <c r="I219" s="131"/>
-      <c r="J219" s="131"/>
-      <c r="K219" s="132"/>
+      <c r="D219" s="134"/>
+      <c r="E219" s="127"/>
+      <c r="F219" s="127"/>
+      <c r="G219" s="127"/>
+      <c r="H219" s="127"/>
+      <c r="I219" s="127"/>
+      <c r="J219" s="127"/>
+      <c r="K219" s="135"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -10029,16 +10024,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="144" t="s">
+      <c r="D220" s="132" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="136"/>
-      <c r="F220" s="136"/>
-      <c r="G220" s="136"/>
-      <c r="H220" s="136"/>
-      <c r="I220" s="136"/>
-      <c r="J220" s="136"/>
-      <c r="K220" s="145"/>
+      <c r="E220" s="124"/>
+      <c r="F220" s="124"/>
+      <c r="G220" s="124"/>
+      <c r="H220" s="124"/>
+      <c r="I220" s="124"/>
+      <c r="J220" s="124"/>
+      <c r="K220" s="133"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -10050,14 +10045,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="130"/>
-      <c r="E221" s="131"/>
-      <c r="F221" s="131"/>
-      <c r="G221" s="131"/>
-      <c r="H221" s="131"/>
-      <c r="I221" s="131"/>
-      <c r="J221" s="131"/>
-      <c r="K221" s="132"/>
+      <c r="D221" s="134"/>
+      <c r="E221" s="127"/>
+      <c r="F221" s="127"/>
+      <c r="G221" s="127"/>
+      <c r="H221" s="127"/>
+      <c r="I221" s="127"/>
+      <c r="J221" s="127"/>
+      <c r="K221" s="135"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -10069,16 +10064,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="124" t="s">
+      <c r="D222" s="141" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="125"/>
-      <c r="F222" s="125"/>
-      <c r="G222" s="125"/>
-      <c r="H222" s="125"/>
-      <c r="I222" s="125"/>
-      <c r="J222" s="125"/>
-      <c r="K222" s="126"/>
+      <c r="E222" s="142"/>
+      <c r="F222" s="142"/>
+      <c r="G222" s="142"/>
+      <c r="H222" s="142"/>
+      <c r="I222" s="142"/>
+      <c r="J222" s="142"/>
+      <c r="K222" s="143"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -10109,16 +10104,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="124" t="s">
+      <c r="D224" s="141" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="125"/>
-      <c r="F224" s="125"/>
-      <c r="G224" s="125"/>
-      <c r="H224" s="125"/>
-      <c r="I224" s="125"/>
-      <c r="J224" s="125"/>
-      <c r="K224" s="126"/>
+      <c r="E224" s="142"/>
+      <c r="F224" s="142"/>
+      <c r="G224" s="142"/>
+      <c r="H224" s="142"/>
+      <c r="I224" s="142"/>
+      <c r="J224" s="142"/>
+      <c r="K224" s="143"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -10152,16 +10147,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="150" t="s">
+      <c r="D226" s="146" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="151"/>
-      <c r="F226" s="151"/>
-      <c r="G226" s="151"/>
-      <c r="H226" s="151"/>
-      <c r="I226" s="151"/>
-      <c r="J226" s="151"/>
-      <c r="K226" s="152"/>
+      <c r="E226" s="147"/>
+      <c r="F226" s="147"/>
+      <c r="G226" s="147"/>
+      <c r="H226" s="147"/>
+      <c r="I226" s="147"/>
+      <c r="J226" s="147"/>
+      <c r="K226" s="148"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -10306,16 +10301,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="148" t="s">
+      <c r="D234" s="136" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="134"/>
-      <c r="F234" s="134"/>
-      <c r="G234" s="134"/>
-      <c r="H234" s="134"/>
-      <c r="I234" s="134"/>
-      <c r="J234" s="134"/>
-      <c r="K234" s="149"/>
+      <c r="E234" s="137"/>
+      <c r="F234" s="137"/>
+      <c r="G234" s="137"/>
+      <c r="H234" s="137"/>
+      <c r="I234" s="137"/>
+      <c r="J234" s="137"/>
+      <c r="K234" s="138"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -10384,16 +10379,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="140" t="s">
+      <c r="D238" s="123" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="136"/>
-      <c r="F238" s="136"/>
-      <c r="G238" s="136"/>
-      <c r="H238" s="136"/>
-      <c r="I238" s="136"/>
-      <c r="J238" s="136"/>
-      <c r="K238" s="137"/>
+      <c r="E238" s="124"/>
+      <c r="F238" s="124"/>
+      <c r="G238" s="124"/>
+      <c r="H238" s="124"/>
+      <c r="I238" s="124"/>
+      <c r="J238" s="124"/>
+      <c r="K238" s="125"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -10405,14 +10400,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="146"/>
-      <c r="E239" s="131"/>
-      <c r="F239" s="131"/>
-      <c r="G239" s="131"/>
-      <c r="H239" s="131"/>
-      <c r="I239" s="131"/>
-      <c r="J239" s="131"/>
-      <c r="K239" s="147"/>
+      <c r="D239" s="126"/>
+      <c r="E239" s="127"/>
+      <c r="F239" s="127"/>
+      <c r="G239" s="127"/>
+      <c r="H239" s="127"/>
+      <c r="I239" s="127"/>
+      <c r="J239" s="127"/>
+      <c r="K239" s="128"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -10424,16 +10419,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="136" t="s">
+      <c r="D240" s="124" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="136"/>
-      <c r="F240" s="136"/>
-      <c r="G240" s="136"/>
-      <c r="H240" s="136"/>
-      <c r="I240" s="136"/>
-      <c r="J240" s="136"/>
-      <c r="K240" s="137"/>
+      <c r="E240" s="124"/>
+      <c r="F240" s="124"/>
+      <c r="G240" s="124"/>
+      <c r="H240" s="124"/>
+      <c r="I240" s="124"/>
+      <c r="J240" s="124"/>
+      <c r="K240" s="125"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -10445,14 +10440,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="138"/>
-      <c r="E241" s="138"/>
-      <c r="F241" s="138"/>
-      <c r="G241" s="138"/>
-      <c r="H241" s="138"/>
-      <c r="I241" s="138"/>
-      <c r="J241" s="138"/>
-      <c r="K241" s="139"/>
+      <c r="D241" s="144"/>
+      <c r="E241" s="144"/>
+      <c r="F241" s="144"/>
+      <c r="G241" s="144"/>
+      <c r="H241" s="144"/>
+      <c r="I241" s="144"/>
+      <c r="J241" s="144"/>
+      <c r="K241" s="145"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -10643,16 +10638,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="133" t="s">
+      <c r="D250" s="139" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="134"/>
-      <c r="F250" s="134"/>
-      <c r="G250" s="134"/>
-      <c r="H250" s="134"/>
-      <c r="I250" s="134"/>
-      <c r="J250" s="134"/>
-      <c r="K250" s="135"/>
+      <c r="E250" s="137"/>
+      <c r="F250" s="137"/>
+      <c r="G250" s="137"/>
+      <c r="H250" s="137"/>
+      <c r="I250" s="137"/>
+      <c r="J250" s="137"/>
+      <c r="K250" s="140"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -11221,16 +11216,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="124" t="s">
+      <c r="D280" s="141" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="125"/>
-      <c r="F280" s="125"/>
-      <c r="G280" s="125"/>
-      <c r="H280" s="125"/>
-      <c r="I280" s="125"/>
-      <c r="J280" s="125"/>
-      <c r="K280" s="126"/>
+      <c r="E280" s="142"/>
+      <c r="F280" s="142"/>
+      <c r="G280" s="142"/>
+      <c r="H280" s="142"/>
+      <c r="I280" s="142"/>
+      <c r="J280" s="142"/>
+      <c r="K280" s="143"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -11337,16 +11332,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="124" t="s">
+      <c r="D286" s="141" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="125"/>
-      <c r="F286" s="125"/>
-      <c r="G286" s="125"/>
-      <c r="H286" s="125"/>
-      <c r="I286" s="125"/>
-      <c r="J286" s="125"/>
-      <c r="K286" s="126"/>
+      <c r="E286" s="142"/>
+      <c r="F286" s="142"/>
+      <c r="G286" s="142"/>
+      <c r="H286" s="142"/>
+      <c r="I286" s="142"/>
+      <c r="J286" s="142"/>
+      <c r="K286" s="143"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -11534,16 +11529,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="124" t="s">
+      <c r="D296" s="141" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="125"/>
-      <c r="F296" s="125"/>
-      <c r="G296" s="125"/>
-      <c r="H296" s="125"/>
-      <c r="I296" s="125"/>
-      <c r="J296" s="125"/>
-      <c r="K296" s="126"/>
+      <c r="E296" s="142"/>
+      <c r="F296" s="142"/>
+      <c r="G296" s="142"/>
+      <c r="H296" s="142"/>
+      <c r="I296" s="142"/>
+      <c r="J296" s="142"/>
+      <c r="K296" s="143"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -11574,16 +11569,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="140" t="s">
+      <c r="D298" s="123" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="136"/>
-      <c r="F298" s="136"/>
-      <c r="G298" s="136"/>
-      <c r="H298" s="136"/>
-      <c r="I298" s="136"/>
-      <c r="J298" s="136"/>
-      <c r="K298" s="137"/>
+      <c r="E298" s="124"/>
+      <c r="F298" s="124"/>
+      <c r="G298" s="124"/>
+      <c r="H298" s="124"/>
+      <c r="I298" s="124"/>
+      <c r="J298" s="124"/>
+      <c r="K298" s="125"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -11595,14 +11590,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="146"/>
-      <c r="E299" s="131"/>
-      <c r="F299" s="131"/>
-      <c r="G299" s="131"/>
-      <c r="H299" s="131"/>
-      <c r="I299" s="131"/>
-      <c r="J299" s="131"/>
-      <c r="K299" s="147"/>
+      <c r="D299" s="126"/>
+      <c r="E299" s="127"/>
+      <c r="F299" s="127"/>
+      <c r="G299" s="127"/>
+      <c r="H299" s="127"/>
+      <c r="I299" s="127"/>
+      <c r="J299" s="127"/>
+      <c r="K299" s="128"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -11614,16 +11609,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="140" t="s">
+      <c r="D300" s="123" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="136"/>
-      <c r="F300" s="136"/>
-      <c r="G300" s="136"/>
-      <c r="H300" s="136"/>
-      <c r="I300" s="136"/>
-      <c r="J300" s="136"/>
-      <c r="K300" s="137"/>
+      <c r="E300" s="124"/>
+      <c r="F300" s="124"/>
+      <c r="G300" s="124"/>
+      <c r="H300" s="124"/>
+      <c r="I300" s="124"/>
+      <c r="J300" s="124"/>
+      <c r="K300" s="125"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -11635,14 +11630,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="146"/>
-      <c r="E301" s="131"/>
-      <c r="F301" s="131"/>
-      <c r="G301" s="131"/>
-      <c r="H301" s="131"/>
-      <c r="I301" s="131"/>
-      <c r="J301" s="131"/>
-      <c r="K301" s="147"/>
+      <c r="D301" s="126"/>
+      <c r="E301" s="127"/>
+      <c r="F301" s="127"/>
+      <c r="G301" s="127"/>
+      <c r="H301" s="127"/>
+      <c r="I301" s="127"/>
+      <c r="J301" s="127"/>
+      <c r="K301" s="128"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -11654,16 +11649,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="140" t="s">
+      <c r="D302" s="123" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="136"/>
-      <c r="F302" s="136"/>
-      <c r="G302" s="136"/>
-      <c r="H302" s="136"/>
-      <c r="I302" s="136"/>
-      <c r="J302" s="136"/>
-      <c r="K302" s="137"/>
+      <c r="E302" s="124"/>
+      <c r="F302" s="124"/>
+      <c r="G302" s="124"/>
+      <c r="H302" s="124"/>
+      <c r="I302" s="124"/>
+      <c r="J302" s="124"/>
+      <c r="K302" s="125"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -11675,14 +11670,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="146"/>
-      <c r="E303" s="131"/>
-      <c r="F303" s="131"/>
-      <c r="G303" s="131"/>
-      <c r="H303" s="131"/>
-      <c r="I303" s="131"/>
-      <c r="J303" s="131"/>
-      <c r="K303" s="147"/>
+      <c r="D303" s="126"/>
+      <c r="E303" s="127"/>
+      <c r="F303" s="127"/>
+      <c r="G303" s="127"/>
+      <c r="H303" s="127"/>
+      <c r="I303" s="127"/>
+      <c r="J303" s="127"/>
+      <c r="K303" s="128"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -11694,16 +11689,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="140" t="s">
+      <c r="D304" s="123" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="136"/>
-      <c r="F304" s="136"/>
-      <c r="G304" s="136"/>
-      <c r="H304" s="136"/>
-      <c r="I304" s="136"/>
-      <c r="J304" s="136"/>
-      <c r="K304" s="137"/>
+      <c r="E304" s="124"/>
+      <c r="F304" s="124"/>
+      <c r="G304" s="124"/>
+      <c r="H304" s="124"/>
+      <c r="I304" s="124"/>
+      <c r="J304" s="124"/>
+      <c r="K304" s="125"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -11715,14 +11710,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="146"/>
-      <c r="E305" s="131"/>
-      <c r="F305" s="131"/>
-      <c r="G305" s="131"/>
-      <c r="H305" s="131"/>
-      <c r="I305" s="131"/>
-      <c r="J305" s="131"/>
-      <c r="K305" s="147"/>
+      <c r="D305" s="126"/>
+      <c r="E305" s="127"/>
+      <c r="F305" s="127"/>
+      <c r="G305" s="127"/>
+      <c r="H305" s="127"/>
+      <c r="I305" s="127"/>
+      <c r="J305" s="127"/>
+      <c r="K305" s="128"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -11737,16 +11732,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="140" t="s">
+      <c r="D306" s="123" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="136"/>
-      <c r="F306" s="136"/>
-      <c r="G306" s="136"/>
-      <c r="H306" s="136"/>
-      <c r="I306" s="136"/>
-      <c r="J306" s="136"/>
-      <c r="K306" s="137"/>
+      <c r="E306" s="124"/>
+      <c r="F306" s="124"/>
+      <c r="G306" s="124"/>
+      <c r="H306" s="124"/>
+      <c r="I306" s="124"/>
+      <c r="J306" s="124"/>
+      <c r="K306" s="125"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -11758,14 +11753,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="146"/>
-      <c r="E307" s="131"/>
-      <c r="F307" s="131"/>
-      <c r="G307" s="131"/>
-      <c r="H307" s="131"/>
-      <c r="I307" s="131"/>
-      <c r="J307" s="131"/>
-      <c r="K307" s="147"/>
+      <c r="D307" s="126"/>
+      <c r="E307" s="127"/>
+      <c r="F307" s="127"/>
+      <c r="G307" s="127"/>
+      <c r="H307" s="127"/>
+      <c r="I307" s="127"/>
+      <c r="J307" s="127"/>
+      <c r="K307" s="128"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -11777,16 +11772,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="140" t="s">
+      <c r="D308" s="123" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="136"/>
-      <c r="F308" s="136"/>
-      <c r="G308" s="136"/>
-      <c r="H308" s="136"/>
-      <c r="I308" s="136"/>
-      <c r="J308" s="136"/>
-      <c r="K308" s="137"/>
+      <c r="E308" s="124"/>
+      <c r="F308" s="124"/>
+      <c r="G308" s="124"/>
+      <c r="H308" s="124"/>
+      <c r="I308" s="124"/>
+      <c r="J308" s="124"/>
+      <c r="K308" s="125"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -11798,14 +11793,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="146"/>
-      <c r="E309" s="131"/>
-      <c r="F309" s="131"/>
-      <c r="G309" s="131"/>
-      <c r="H309" s="131"/>
-      <c r="I309" s="131"/>
-      <c r="J309" s="131"/>
-      <c r="K309" s="147"/>
+      <c r="D309" s="126"/>
+      <c r="E309" s="127"/>
+      <c r="F309" s="127"/>
+      <c r="G309" s="127"/>
+      <c r="H309" s="127"/>
+      <c r="I309" s="127"/>
+      <c r="J309" s="127"/>
+      <c r="K309" s="128"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -15685,12 +15680,31 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D168:K168"/>
+    <mergeCell ref="D175:K175"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D250:K250"/>
+    <mergeCell ref="D280:K280"/>
+    <mergeCell ref="D286:K286"/>
+    <mergeCell ref="D296:K296"/>
+    <mergeCell ref="D240:K241"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="D216:K217"/>
     <mergeCell ref="D218:K219"/>
@@ -15707,31 +15721,12 @@
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
     <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D250:K250"/>
-    <mergeCell ref="D280:K280"/>
-    <mergeCell ref="D286:K286"/>
-    <mergeCell ref="D296:K296"/>
-    <mergeCell ref="D240:K241"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D168:K168"/>
-    <mergeCell ref="D175:K175"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -15817,16 +15812,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="140" t="s">
+      <c r="D2" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="137"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="125"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -15848,14 +15843,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="143"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="131"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -22104,16 +22099,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="123" t="s">
+      <c r="D178" s="155" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="123"/>
-      <c r="F178" s="123"/>
-      <c r="G178" s="123"/>
-      <c r="H178" s="123"/>
-      <c r="I178" s="123"/>
-      <c r="J178" s="123"/>
-      <c r="K178" s="123"/>
+      <c r="E178" s="155"/>
+      <c r="F178" s="155"/>
+      <c r="G178" s="155"/>
+      <c r="H178" s="155"/>
+      <c r="I178" s="155"/>
+      <c r="J178" s="155"/>
+      <c r="K178" s="155"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -22182,16 +22177,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="124" t="s">
+      <c r="D182" s="141" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="125"/>
-      <c r="F182" s="125"/>
-      <c r="G182" s="125"/>
-      <c r="H182" s="125"/>
-      <c r="I182" s="125"/>
-      <c r="J182" s="125"/>
-      <c r="K182" s="126"/>
+      <c r="E182" s="142"/>
+      <c r="F182" s="142"/>
+      <c r="G182" s="142"/>
+      <c r="H182" s="142"/>
+      <c r="I182" s="142"/>
+      <c r="J182" s="142"/>
+      <c r="K182" s="143"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -22203,16 +22198,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="124" t="s">
+      <c r="D183" s="141" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="125"/>
-      <c r="F183" s="125"/>
-      <c r="G183" s="125"/>
-      <c r="H183" s="125"/>
-      <c r="I183" s="125"/>
-      <c r="J183" s="125"/>
-      <c r="K183" s="126"/>
+      <c r="E183" s="142"/>
+      <c r="F183" s="142"/>
+      <c r="G183" s="142"/>
+      <c r="H183" s="142"/>
+      <c r="I183" s="142"/>
+      <c r="J183" s="142"/>
+      <c r="K183" s="143"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -22224,16 +22219,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="124" t="s">
+      <c r="D184" s="141" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="125"/>
-      <c r="F184" s="125"/>
-      <c r="G184" s="125"/>
-      <c r="H184" s="125"/>
-      <c r="I184" s="125"/>
-      <c r="J184" s="125"/>
-      <c r="K184" s="126"/>
+      <c r="E184" s="142"/>
+      <c r="F184" s="142"/>
+      <c r="G184" s="142"/>
+      <c r="H184" s="142"/>
+      <c r="I184" s="142"/>
+      <c r="J184" s="142"/>
+      <c r="K184" s="143"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -22245,16 +22240,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="124" t="s">
+      <c r="D185" s="141" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="125"/>
-      <c r="F185" s="125"/>
-      <c r="G185" s="125"/>
-      <c r="H185" s="125"/>
-      <c r="I185" s="125"/>
-      <c r="J185" s="125"/>
-      <c r="K185" s="126"/>
+      <c r="E185" s="142"/>
+      <c r="F185" s="142"/>
+      <c r="G185" s="142"/>
+      <c r="H185" s="142"/>
+      <c r="I185" s="142"/>
+      <c r="J185" s="142"/>
+      <c r="K185" s="143"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -22266,16 +22261,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="124" t="s">
+      <c r="D186" s="141" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="125"/>
-      <c r="F186" s="125"/>
-      <c r="G186" s="125"/>
-      <c r="H186" s="125"/>
-      <c r="I186" s="125"/>
-      <c r="J186" s="125"/>
-      <c r="K186" s="126"/>
+      <c r="E186" s="142"/>
+      <c r="F186" s="142"/>
+      <c r="G186" s="142"/>
+      <c r="H186" s="142"/>
+      <c r="I186" s="142"/>
+      <c r="J186" s="142"/>
+      <c r="K186" s="143"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -22287,16 +22282,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="124" t="s">
+      <c r="D187" s="141" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="125"/>
-      <c r="F187" s="125"/>
-      <c r="G187" s="125"/>
-      <c r="H187" s="125"/>
-      <c r="I187" s="125"/>
-      <c r="J187" s="125"/>
-      <c r="K187" s="126"/>
+      <c r="E187" s="142"/>
+      <c r="F187" s="142"/>
+      <c r="G187" s="142"/>
+      <c r="H187" s="142"/>
+      <c r="I187" s="142"/>
+      <c r="J187" s="142"/>
+      <c r="K187" s="143"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -22308,16 +22303,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="124" t="s">
+      <c r="D188" s="141" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="125"/>
-      <c r="F188" s="125"/>
-      <c r="G188" s="125"/>
-      <c r="H188" s="125"/>
-      <c r="I188" s="125"/>
-      <c r="J188" s="125"/>
-      <c r="K188" s="126"/>
+      <c r="E188" s="142"/>
+      <c r="F188" s="142"/>
+      <c r="G188" s="142"/>
+      <c r="H188" s="142"/>
+      <c r="I188" s="142"/>
+      <c r="J188" s="142"/>
+      <c r="K188" s="143"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -22329,16 +22324,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="124" t="s">
+      <c r="D189" s="141" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="125"/>
-      <c r="F189" s="125"/>
-      <c r="G189" s="125"/>
-      <c r="H189" s="125"/>
-      <c r="I189" s="125"/>
-      <c r="J189" s="125"/>
-      <c r="K189" s="126"/>
+      <c r="E189" s="142"/>
+      <c r="F189" s="142"/>
+      <c r="G189" s="142"/>
+      <c r="H189" s="142"/>
+      <c r="I189" s="142"/>
+      <c r="J189" s="142"/>
+      <c r="K189" s="143"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -22350,16 +22345,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="124" t="s">
+      <c r="D190" s="141" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="125"/>
-      <c r="F190" s="125"/>
-      <c r="G190" s="125"/>
-      <c r="H190" s="125"/>
-      <c r="I190" s="125"/>
-      <c r="J190" s="125"/>
-      <c r="K190" s="126"/>
+      <c r="E190" s="142"/>
+      <c r="F190" s="142"/>
+      <c r="G190" s="142"/>
+      <c r="H190" s="142"/>
+      <c r="I190" s="142"/>
+      <c r="J190" s="142"/>
+      <c r="K190" s="143"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -22371,16 +22366,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="124" t="s">
+      <c r="D191" s="141" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="125"/>
-      <c r="F191" s="125"/>
-      <c r="G191" s="125"/>
-      <c r="H191" s="125"/>
-      <c r="I191" s="125"/>
-      <c r="J191" s="125"/>
-      <c r="K191" s="126"/>
+      <c r="E191" s="142"/>
+      <c r="F191" s="142"/>
+      <c r="G191" s="142"/>
+      <c r="H191" s="142"/>
+      <c r="I191" s="142"/>
+      <c r="J191" s="142"/>
+      <c r="K191" s="143"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -22392,16 +22387,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="124" t="s">
+      <c r="D192" s="141" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="125"/>
-      <c r="F192" s="125"/>
-      <c r="G192" s="125"/>
-      <c r="H192" s="125"/>
-      <c r="I192" s="125"/>
-      <c r="J192" s="125"/>
-      <c r="K192" s="126"/>
+      <c r="E192" s="142"/>
+      <c r="F192" s="142"/>
+      <c r="G192" s="142"/>
+      <c r="H192" s="142"/>
+      <c r="I192" s="142"/>
+      <c r="J192" s="142"/>
+      <c r="K192" s="143"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -22413,16 +22408,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="127" t="s">
+      <c r="D193" s="152" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="128"/>
-      <c r="F193" s="128"/>
-      <c r="G193" s="128"/>
-      <c r="H193" s="128"/>
-      <c r="I193" s="128"/>
-      <c r="J193" s="128"/>
-      <c r="K193" s="129"/>
+      <c r="E193" s="153"/>
+      <c r="F193" s="153"/>
+      <c r="G193" s="153"/>
+      <c r="H193" s="153"/>
+      <c r="I193" s="153"/>
+      <c r="J193" s="153"/>
+      <c r="K193" s="154"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -22437,16 +22432,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="130" t="s">
+      <c r="D194" s="134" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="131"/>
-      <c r="F194" s="131"/>
-      <c r="G194" s="131"/>
-      <c r="H194" s="131"/>
-      <c r="I194" s="131"/>
-      <c r="J194" s="131"/>
-      <c r="K194" s="132"/>
+      <c r="E194" s="127"/>
+      <c r="F194" s="127"/>
+      <c r="G194" s="127"/>
+      <c r="H194" s="127"/>
+      <c r="I194" s="127"/>
+      <c r="J194" s="127"/>
+      <c r="K194" s="135"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -22458,16 +22453,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="124" t="s">
+      <c r="D195" s="141" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="125"/>
-      <c r="F195" s="125"/>
-      <c r="G195" s="125"/>
-      <c r="H195" s="125"/>
-      <c r="I195" s="125"/>
-      <c r="J195" s="125"/>
-      <c r="K195" s="126"/>
+      <c r="E195" s="142"/>
+      <c r="F195" s="142"/>
+      <c r="G195" s="142"/>
+      <c r="H195" s="142"/>
+      <c r="I195" s="142"/>
+      <c r="J195" s="142"/>
+      <c r="K195" s="143"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -22479,16 +22474,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="124" t="s">
+      <c r="D196" s="141" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="125"/>
-      <c r="F196" s="125"/>
-      <c r="G196" s="125"/>
-      <c r="H196" s="125"/>
-      <c r="I196" s="125"/>
-      <c r="J196" s="125"/>
-      <c r="K196" s="126"/>
+      <c r="E196" s="142"/>
+      <c r="F196" s="142"/>
+      <c r="G196" s="142"/>
+      <c r="H196" s="142"/>
+      <c r="I196" s="142"/>
+      <c r="J196" s="142"/>
+      <c r="K196" s="143"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -22500,16 +22495,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="124" t="s">
+      <c r="D197" s="141" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="125"/>
-      <c r="F197" s="125"/>
-      <c r="G197" s="125"/>
-      <c r="H197" s="125"/>
-      <c r="I197" s="125"/>
-      <c r="J197" s="125"/>
-      <c r="K197" s="126"/>
+      <c r="E197" s="142"/>
+      <c r="F197" s="142"/>
+      <c r="G197" s="142"/>
+      <c r="H197" s="142"/>
+      <c r="I197" s="142"/>
+      <c r="J197" s="142"/>
+      <c r="K197" s="143"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -22521,16 +22516,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="124" t="s">
+      <c r="D198" s="141" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="125"/>
-      <c r="F198" s="125"/>
-      <c r="G198" s="125"/>
-      <c r="H198" s="125"/>
-      <c r="I198" s="125"/>
-      <c r="J198" s="125"/>
-      <c r="K198" s="126"/>
+      <c r="E198" s="142"/>
+      <c r="F198" s="142"/>
+      <c r="G198" s="142"/>
+      <c r="H198" s="142"/>
+      <c r="I198" s="142"/>
+      <c r="J198" s="142"/>
+      <c r="K198" s="143"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -22561,16 +22556,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="124" t="s">
+      <c r="D200" s="141" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="125"/>
-      <c r="F200" s="125"/>
-      <c r="G200" s="125"/>
-      <c r="H200" s="125"/>
-      <c r="I200" s="125"/>
-      <c r="J200" s="125"/>
-      <c r="K200" s="126"/>
+      <c r="E200" s="142"/>
+      <c r="F200" s="142"/>
+      <c r="G200" s="142"/>
+      <c r="H200" s="142"/>
+      <c r="I200" s="142"/>
+      <c r="J200" s="142"/>
+      <c r="K200" s="143"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -22601,16 +22596,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="153" t="s">
+      <c r="D202" s="149" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="154"/>
-      <c r="F202" s="154"/>
-      <c r="G202" s="154"/>
-      <c r="H202" s="154"/>
-      <c r="I202" s="154"/>
-      <c r="J202" s="154"/>
-      <c r="K202" s="155"/>
+      <c r="E202" s="150"/>
+      <c r="F202" s="150"/>
+      <c r="G202" s="150"/>
+      <c r="H202" s="150"/>
+      <c r="I202" s="150"/>
+      <c r="J202" s="150"/>
+      <c r="K202" s="151"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -22641,16 +22636,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="124" t="s">
+      <c r="D204" s="141" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="125"/>
-      <c r="F204" s="125"/>
-      <c r="G204" s="125"/>
-      <c r="H204" s="125"/>
-      <c r="I204" s="125"/>
-      <c r="J204" s="125"/>
-      <c r="K204" s="126"/>
+      <c r="E204" s="142"/>
+      <c r="F204" s="142"/>
+      <c r="G204" s="142"/>
+      <c r="H204" s="142"/>
+      <c r="I204" s="142"/>
+      <c r="J204" s="142"/>
+      <c r="K204" s="143"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -22681,16 +22676,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="124" t="s">
+      <c r="D206" s="141" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="125"/>
-      <c r="F206" s="125"/>
-      <c r="G206" s="125"/>
-      <c r="H206" s="125"/>
-      <c r="I206" s="125"/>
-      <c r="J206" s="125"/>
-      <c r="K206" s="126"/>
+      <c r="E206" s="142"/>
+      <c r="F206" s="142"/>
+      <c r="G206" s="142"/>
+      <c r="H206" s="142"/>
+      <c r="I206" s="142"/>
+      <c r="J206" s="142"/>
+      <c r="K206" s="143"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -22721,16 +22716,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="124" t="s">
+      <c r="D208" s="141" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="125"/>
-      <c r="F208" s="125"/>
-      <c r="G208" s="125"/>
-      <c r="H208" s="125"/>
-      <c r="I208" s="125"/>
-      <c r="J208" s="125"/>
-      <c r="K208" s="126"/>
+      <c r="E208" s="142"/>
+      <c r="F208" s="142"/>
+      <c r="G208" s="142"/>
+      <c r="H208" s="142"/>
+      <c r="I208" s="142"/>
+      <c r="J208" s="142"/>
+      <c r="K208" s="143"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -22764,16 +22759,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="130" t="s">
+      <c r="D210" s="134" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="131"/>
-      <c r="F210" s="131"/>
-      <c r="G210" s="131"/>
-      <c r="H210" s="131"/>
-      <c r="I210" s="131"/>
-      <c r="J210" s="131"/>
-      <c r="K210" s="132"/>
+      <c r="E210" s="127"/>
+      <c r="F210" s="127"/>
+      <c r="G210" s="127"/>
+      <c r="H210" s="127"/>
+      <c r="I210" s="127"/>
+      <c r="J210" s="127"/>
+      <c r="K210" s="135"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -22842,16 +22837,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="124" t="s">
+      <c r="D214" s="141" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="125"/>
-      <c r="F214" s="125"/>
-      <c r="G214" s="125"/>
-      <c r="H214" s="125"/>
-      <c r="I214" s="125"/>
-      <c r="J214" s="125"/>
-      <c r="K214" s="126"/>
+      <c r="E214" s="142"/>
+      <c r="F214" s="142"/>
+      <c r="G214" s="142"/>
+      <c r="H214" s="142"/>
+      <c r="I214" s="142"/>
+      <c r="J214" s="142"/>
+      <c r="K214" s="143"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -22882,16 +22877,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="144" t="s">
+      <c r="D216" s="132" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="136"/>
-      <c r="F216" s="136"/>
-      <c r="G216" s="136"/>
-      <c r="H216" s="136"/>
-      <c r="I216" s="136"/>
-      <c r="J216" s="136"/>
-      <c r="K216" s="145"/>
+      <c r="E216" s="124"/>
+      <c r="F216" s="124"/>
+      <c r="G216" s="124"/>
+      <c r="H216" s="124"/>
+      <c r="I216" s="124"/>
+      <c r="J216" s="124"/>
+      <c r="K216" s="133"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -22903,14 +22898,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="130"/>
-      <c r="E217" s="131"/>
-      <c r="F217" s="131"/>
-      <c r="G217" s="131"/>
-      <c r="H217" s="131"/>
-      <c r="I217" s="131"/>
-      <c r="J217" s="131"/>
-      <c r="K217" s="132"/>
+      <c r="D217" s="134"/>
+      <c r="E217" s="127"/>
+      <c r="F217" s="127"/>
+      <c r="G217" s="127"/>
+      <c r="H217" s="127"/>
+      <c r="I217" s="127"/>
+      <c r="J217" s="127"/>
+      <c r="K217" s="135"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -22922,16 +22917,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="144" t="s">
+      <c r="D218" s="132" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="136"/>
-      <c r="F218" s="136"/>
-      <c r="G218" s="136"/>
-      <c r="H218" s="136"/>
-      <c r="I218" s="136"/>
-      <c r="J218" s="136"/>
-      <c r="K218" s="145"/>
+      <c r="E218" s="124"/>
+      <c r="F218" s="124"/>
+      <c r="G218" s="124"/>
+      <c r="H218" s="124"/>
+      <c r="I218" s="124"/>
+      <c r="J218" s="124"/>
+      <c r="K218" s="133"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -22943,14 +22938,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="130"/>
-      <c r="E219" s="131"/>
-      <c r="F219" s="131"/>
-      <c r="G219" s="131"/>
-      <c r="H219" s="131"/>
-      <c r="I219" s="131"/>
-      <c r="J219" s="131"/>
-      <c r="K219" s="132"/>
+      <c r="D219" s="134"/>
+      <c r="E219" s="127"/>
+      <c r="F219" s="127"/>
+      <c r="G219" s="127"/>
+      <c r="H219" s="127"/>
+      <c r="I219" s="127"/>
+      <c r="J219" s="127"/>
+      <c r="K219" s="135"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -22962,16 +22957,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="144" t="s">
+      <c r="D220" s="132" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="136"/>
-      <c r="F220" s="136"/>
-      <c r="G220" s="136"/>
-      <c r="H220" s="136"/>
-      <c r="I220" s="136"/>
-      <c r="J220" s="136"/>
-      <c r="K220" s="145"/>
+      <c r="E220" s="124"/>
+      <c r="F220" s="124"/>
+      <c r="G220" s="124"/>
+      <c r="H220" s="124"/>
+      <c r="I220" s="124"/>
+      <c r="J220" s="124"/>
+      <c r="K220" s="133"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -22983,14 +22978,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="130"/>
-      <c r="E221" s="131"/>
-      <c r="F221" s="131"/>
-      <c r="G221" s="131"/>
-      <c r="H221" s="131"/>
-      <c r="I221" s="131"/>
-      <c r="J221" s="131"/>
-      <c r="K221" s="132"/>
+      <c r="D221" s="134"/>
+      <c r="E221" s="127"/>
+      <c r="F221" s="127"/>
+      <c r="G221" s="127"/>
+      <c r="H221" s="127"/>
+      <c r="I221" s="127"/>
+      <c r="J221" s="127"/>
+      <c r="K221" s="135"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -23002,16 +22997,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="124" t="s">
+      <c r="D222" s="141" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="125"/>
-      <c r="F222" s="125"/>
-      <c r="G222" s="125"/>
-      <c r="H222" s="125"/>
-      <c r="I222" s="125"/>
-      <c r="J222" s="125"/>
-      <c r="K222" s="126"/>
+      <c r="E222" s="142"/>
+      <c r="F222" s="142"/>
+      <c r="G222" s="142"/>
+      <c r="H222" s="142"/>
+      <c r="I222" s="142"/>
+      <c r="J222" s="142"/>
+      <c r="K222" s="143"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -23042,16 +23037,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="124" t="s">
+      <c r="D224" s="141" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="125"/>
-      <c r="F224" s="125"/>
-      <c r="G224" s="125"/>
-      <c r="H224" s="125"/>
-      <c r="I224" s="125"/>
-      <c r="J224" s="125"/>
-      <c r="K224" s="126"/>
+      <c r="E224" s="142"/>
+      <c r="F224" s="142"/>
+      <c r="G224" s="142"/>
+      <c r="H224" s="142"/>
+      <c r="I224" s="142"/>
+      <c r="J224" s="142"/>
+      <c r="K224" s="143"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -23085,16 +23080,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="150" t="s">
+      <c r="D226" s="146" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="151"/>
-      <c r="F226" s="151"/>
-      <c r="G226" s="151"/>
-      <c r="H226" s="151"/>
-      <c r="I226" s="151"/>
-      <c r="J226" s="151"/>
-      <c r="K226" s="152"/>
+      <c r="E226" s="147"/>
+      <c r="F226" s="147"/>
+      <c r="G226" s="147"/>
+      <c r="H226" s="147"/>
+      <c r="I226" s="147"/>
+      <c r="J226" s="147"/>
+      <c r="K226" s="148"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -23239,16 +23234,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="148" t="s">
+      <c r="D234" s="136" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="134"/>
-      <c r="F234" s="134"/>
-      <c r="G234" s="134"/>
-      <c r="H234" s="134"/>
-      <c r="I234" s="134"/>
-      <c r="J234" s="134"/>
-      <c r="K234" s="149"/>
+      <c r="E234" s="137"/>
+      <c r="F234" s="137"/>
+      <c r="G234" s="137"/>
+      <c r="H234" s="137"/>
+      <c r="I234" s="137"/>
+      <c r="J234" s="137"/>
+      <c r="K234" s="138"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -23317,16 +23312,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="140" t="s">
+      <c r="D238" s="123" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="136"/>
-      <c r="F238" s="136"/>
-      <c r="G238" s="136"/>
-      <c r="H238" s="136"/>
-      <c r="I238" s="136"/>
-      <c r="J238" s="136"/>
-      <c r="K238" s="137"/>
+      <c r="E238" s="124"/>
+      <c r="F238" s="124"/>
+      <c r="G238" s="124"/>
+      <c r="H238" s="124"/>
+      <c r="I238" s="124"/>
+      <c r="J238" s="124"/>
+      <c r="K238" s="125"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -23338,14 +23333,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="146"/>
-      <c r="E239" s="131"/>
-      <c r="F239" s="131"/>
-      <c r="G239" s="131"/>
-      <c r="H239" s="131"/>
-      <c r="I239" s="131"/>
-      <c r="J239" s="131"/>
-      <c r="K239" s="147"/>
+      <c r="D239" s="126"/>
+      <c r="E239" s="127"/>
+      <c r="F239" s="127"/>
+      <c r="G239" s="127"/>
+      <c r="H239" s="127"/>
+      <c r="I239" s="127"/>
+      <c r="J239" s="127"/>
+      <c r="K239" s="128"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -23357,16 +23352,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="136" t="s">
+      <c r="D240" s="124" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="136"/>
-      <c r="F240" s="136"/>
-      <c r="G240" s="136"/>
-      <c r="H240" s="136"/>
-      <c r="I240" s="136"/>
-      <c r="J240" s="136"/>
-      <c r="K240" s="137"/>
+      <c r="E240" s="124"/>
+      <c r="F240" s="124"/>
+      <c r="G240" s="124"/>
+      <c r="H240" s="124"/>
+      <c r="I240" s="124"/>
+      <c r="J240" s="124"/>
+      <c r="K240" s="125"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -23378,14 +23373,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="138"/>
-      <c r="E241" s="138"/>
-      <c r="F241" s="138"/>
-      <c r="G241" s="138"/>
-      <c r="H241" s="138"/>
-      <c r="I241" s="138"/>
-      <c r="J241" s="138"/>
-      <c r="K241" s="139"/>
+      <c r="D241" s="144"/>
+      <c r="E241" s="144"/>
+      <c r="F241" s="144"/>
+      <c r="G241" s="144"/>
+      <c r="H241" s="144"/>
+      <c r="I241" s="144"/>
+      <c r="J241" s="144"/>
+      <c r="K241" s="145"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -23576,16 +23571,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="133" t="s">
+      <c r="D250" s="139" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="134"/>
-      <c r="F250" s="134"/>
-      <c r="G250" s="134"/>
-      <c r="H250" s="134"/>
-      <c r="I250" s="134"/>
-      <c r="J250" s="134"/>
-      <c r="K250" s="135"/>
+      <c r="E250" s="137"/>
+      <c r="F250" s="137"/>
+      <c r="G250" s="137"/>
+      <c r="H250" s="137"/>
+      <c r="I250" s="137"/>
+      <c r="J250" s="137"/>
+      <c r="K250" s="140"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -24154,16 +24149,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="124" t="s">
+      <c r="D280" s="141" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="125"/>
-      <c r="F280" s="125"/>
-      <c r="G280" s="125"/>
-      <c r="H280" s="125"/>
-      <c r="I280" s="125"/>
-      <c r="J280" s="125"/>
-      <c r="K280" s="126"/>
+      <c r="E280" s="142"/>
+      <c r="F280" s="142"/>
+      <c r="G280" s="142"/>
+      <c r="H280" s="142"/>
+      <c r="I280" s="142"/>
+      <c r="J280" s="142"/>
+      <c r="K280" s="143"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -24270,16 +24265,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="124" t="s">
+      <c r="D286" s="141" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="125"/>
-      <c r="F286" s="125"/>
-      <c r="G286" s="125"/>
-      <c r="H286" s="125"/>
-      <c r="I286" s="125"/>
-      <c r="J286" s="125"/>
-      <c r="K286" s="126"/>
+      <c r="E286" s="142"/>
+      <c r="F286" s="142"/>
+      <c r="G286" s="142"/>
+      <c r="H286" s="142"/>
+      <c r="I286" s="142"/>
+      <c r="J286" s="142"/>
+      <c r="K286" s="143"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -24467,16 +24462,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="124" t="s">
+      <c r="D296" s="141" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="125"/>
-      <c r="F296" s="125"/>
-      <c r="G296" s="125"/>
-      <c r="H296" s="125"/>
-      <c r="I296" s="125"/>
-      <c r="J296" s="125"/>
-      <c r="K296" s="126"/>
+      <c r="E296" s="142"/>
+      <c r="F296" s="142"/>
+      <c r="G296" s="142"/>
+      <c r="H296" s="142"/>
+      <c r="I296" s="142"/>
+      <c r="J296" s="142"/>
+      <c r="K296" s="143"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -24507,16 +24502,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="140" t="s">
+      <c r="D298" s="123" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="136"/>
-      <c r="F298" s="136"/>
-      <c r="G298" s="136"/>
-      <c r="H298" s="136"/>
-      <c r="I298" s="136"/>
-      <c r="J298" s="136"/>
-      <c r="K298" s="137"/>
+      <c r="E298" s="124"/>
+      <c r="F298" s="124"/>
+      <c r="G298" s="124"/>
+      <c r="H298" s="124"/>
+      <c r="I298" s="124"/>
+      <c r="J298" s="124"/>
+      <c r="K298" s="125"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -24528,14 +24523,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="146"/>
-      <c r="E299" s="131"/>
-      <c r="F299" s="131"/>
-      <c r="G299" s="131"/>
-      <c r="H299" s="131"/>
-      <c r="I299" s="131"/>
-      <c r="J299" s="131"/>
-      <c r="K299" s="147"/>
+      <c r="D299" s="126"/>
+      <c r="E299" s="127"/>
+      <c r="F299" s="127"/>
+      <c r="G299" s="127"/>
+      <c r="H299" s="127"/>
+      <c r="I299" s="127"/>
+      <c r="J299" s="127"/>
+      <c r="K299" s="128"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -24547,16 +24542,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="140" t="s">
+      <c r="D300" s="123" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="136"/>
-      <c r="F300" s="136"/>
-      <c r="G300" s="136"/>
-      <c r="H300" s="136"/>
-      <c r="I300" s="136"/>
-      <c r="J300" s="136"/>
-      <c r="K300" s="137"/>
+      <c r="E300" s="124"/>
+      <c r="F300" s="124"/>
+      <c r="G300" s="124"/>
+      <c r="H300" s="124"/>
+      <c r="I300" s="124"/>
+      <c r="J300" s="124"/>
+      <c r="K300" s="125"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -24568,14 +24563,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="146"/>
-      <c r="E301" s="131"/>
-      <c r="F301" s="131"/>
-      <c r="G301" s="131"/>
-      <c r="H301" s="131"/>
-      <c r="I301" s="131"/>
-      <c r="J301" s="131"/>
-      <c r="K301" s="147"/>
+      <c r="D301" s="126"/>
+      <c r="E301" s="127"/>
+      <c r="F301" s="127"/>
+      <c r="G301" s="127"/>
+      <c r="H301" s="127"/>
+      <c r="I301" s="127"/>
+      <c r="J301" s="127"/>
+      <c r="K301" s="128"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -24587,16 +24582,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="140" t="s">
+      <c r="D302" s="123" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="136"/>
-      <c r="F302" s="136"/>
-      <c r="G302" s="136"/>
-      <c r="H302" s="136"/>
-      <c r="I302" s="136"/>
-      <c r="J302" s="136"/>
-      <c r="K302" s="137"/>
+      <c r="E302" s="124"/>
+      <c r="F302" s="124"/>
+      <c r="G302" s="124"/>
+      <c r="H302" s="124"/>
+      <c r="I302" s="124"/>
+      <c r="J302" s="124"/>
+      <c r="K302" s="125"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -24608,14 +24603,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="146"/>
-      <c r="E303" s="131"/>
-      <c r="F303" s="131"/>
-      <c r="G303" s="131"/>
-      <c r="H303" s="131"/>
-      <c r="I303" s="131"/>
-      <c r="J303" s="131"/>
-      <c r="K303" s="147"/>
+      <c r="D303" s="126"/>
+      <c r="E303" s="127"/>
+      <c r="F303" s="127"/>
+      <c r="G303" s="127"/>
+      <c r="H303" s="127"/>
+      <c r="I303" s="127"/>
+      <c r="J303" s="127"/>
+      <c r="K303" s="128"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -24627,16 +24622,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="140" t="s">
+      <c r="D304" s="123" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="136"/>
-      <c r="F304" s="136"/>
-      <c r="G304" s="136"/>
-      <c r="H304" s="136"/>
-      <c r="I304" s="136"/>
-      <c r="J304" s="136"/>
-      <c r="K304" s="137"/>
+      <c r="E304" s="124"/>
+      <c r="F304" s="124"/>
+      <c r="G304" s="124"/>
+      <c r="H304" s="124"/>
+      <c r="I304" s="124"/>
+      <c r="J304" s="124"/>
+      <c r="K304" s="125"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -24648,14 +24643,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="146"/>
-      <c r="E305" s="131"/>
-      <c r="F305" s="131"/>
-      <c r="G305" s="131"/>
-      <c r="H305" s="131"/>
-      <c r="I305" s="131"/>
-      <c r="J305" s="131"/>
-      <c r="K305" s="147"/>
+      <c r="D305" s="126"/>
+      <c r="E305" s="127"/>
+      <c r="F305" s="127"/>
+      <c r="G305" s="127"/>
+      <c r="H305" s="127"/>
+      <c r="I305" s="127"/>
+      <c r="J305" s="127"/>
+      <c r="K305" s="128"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -24670,16 +24665,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="140" t="s">
+      <c r="D306" s="123" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="136"/>
-      <c r="F306" s="136"/>
-      <c r="G306" s="136"/>
-      <c r="H306" s="136"/>
-      <c r="I306" s="136"/>
-      <c r="J306" s="136"/>
-      <c r="K306" s="137"/>
+      <c r="E306" s="124"/>
+      <c r="F306" s="124"/>
+      <c r="G306" s="124"/>
+      <c r="H306" s="124"/>
+      <c r="I306" s="124"/>
+      <c r="J306" s="124"/>
+      <c r="K306" s="125"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -24691,14 +24686,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="146"/>
-      <c r="E307" s="131"/>
-      <c r="F307" s="131"/>
-      <c r="G307" s="131"/>
-      <c r="H307" s="131"/>
-      <c r="I307" s="131"/>
-      <c r="J307" s="131"/>
-      <c r="K307" s="147"/>
+      <c r="D307" s="126"/>
+      <c r="E307" s="127"/>
+      <c r="F307" s="127"/>
+      <c r="G307" s="127"/>
+      <c r="H307" s="127"/>
+      <c r="I307" s="127"/>
+      <c r="J307" s="127"/>
+      <c r="K307" s="128"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -24710,16 +24705,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="140" t="s">
+      <c r="D308" s="123" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="136"/>
-      <c r="F308" s="136"/>
-      <c r="G308" s="136"/>
-      <c r="H308" s="136"/>
-      <c r="I308" s="136"/>
-      <c r="J308" s="136"/>
-      <c r="K308" s="137"/>
+      <c r="E308" s="124"/>
+      <c r="F308" s="124"/>
+      <c r="G308" s="124"/>
+      <c r="H308" s="124"/>
+      <c r="I308" s="124"/>
+      <c r="J308" s="124"/>
+      <c r="K308" s="125"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -24731,14 +24726,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="146"/>
-      <c r="E309" s="131"/>
-      <c r="F309" s="131"/>
-      <c r="G309" s="131"/>
-      <c r="H309" s="131"/>
-      <c r="I309" s="131"/>
-      <c r="J309" s="131"/>
-      <c r="K309" s="147"/>
+      <c r="D309" s="126"/>
+      <c r="E309" s="127"/>
+      <c r="F309" s="127"/>
+      <c r="G309" s="127"/>
+      <c r="H309" s="127"/>
+      <c r="I309" s="127"/>
+      <c r="J309" s="127"/>
+      <c r="K309" s="128"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -28618,12 +28613,29 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="D214:K214"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="D202:K202"/>
     <mergeCell ref="D280:K280"/>
     <mergeCell ref="D286:K286"/>
     <mergeCell ref="D296:K296"/>
@@ -28640,29 +28652,12 @@
     <mergeCell ref="D250:K250"/>
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="D214:K214"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D200:K200"/>
-    <mergeCell ref="D202:K202"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape"/>

--- a/data/Switches.xlsx
+++ b/data/Switches.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="424">
   <si>
     <t>ID</t>
   </si>
@@ -2395,43 +2395,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2440,13 +2404,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2464,16 +2428,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2492,6 +2468,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2803,9 +2803,9 @@
   </sheetPr>
   <dimension ref="A1:O513"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2878,16 +2878,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="140" t="s">
+      <c r="D2" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="137"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="125"/>
       <c r="L2" s="119" t="s">
         <v>7</v>
       </c>
@@ -2905,14 +2905,14 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="143"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="131"/>
       <c r="L3" s="119" t="s">
         <v>8</v>
       </c>
@@ -8969,16 +8969,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="123" t="s">
+      <c r="D168" s="155" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="123"/>
-      <c r="F168" s="123"/>
-      <c r="G168" s="123"/>
-      <c r="H168" s="123"/>
-      <c r="I168" s="123"/>
-      <c r="J168" s="123"/>
-      <c r="K168" s="123"/>
+      <c r="E168" s="155"/>
+      <c r="F168" s="155"/>
+      <c r="G168" s="155"/>
+      <c r="H168" s="155"/>
+      <c r="I168" s="155"/>
+      <c r="J168" s="155"/>
+      <c r="K168" s="155"/>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="12">
@@ -9085,14 +9085,16 @@
         <v>AAC</v>
       </c>
       <c r="C174" s="13"/>
-      <c r="D174" s="48"/>
-      <c r="E174" s="12"/>
-      <c r="F174" s="12"/>
-      <c r="G174" s="22"/>
-      <c r="H174" s="49"/>
-      <c r="I174" s="12"/>
-      <c r="J174" s="12"/>
-      <c r="K174" s="22"/>
+      <c r="D174" s="155" t="s">
+        <v>349</v>
+      </c>
+      <c r="E174" s="155"/>
+      <c r="F174" s="155"/>
+      <c r="G174" s="155"/>
+      <c r="H174" s="155"/>
+      <c r="I174" s="155"/>
+      <c r="J174" s="155"/>
+      <c r="K174" s="155"/>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="12">
@@ -9104,16 +9106,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="123" t="s">
+      <c r="D175" s="155" t="s">
         <v>349</v>
       </c>
-      <c r="E175" s="123"/>
-      <c r="F175" s="123"/>
-      <c r="G175" s="123"/>
-      <c r="H175" s="123"/>
-      <c r="I175" s="123"/>
-      <c r="J175" s="123"/>
-      <c r="K175" s="123"/>
+      <c r="E175" s="155"/>
+      <c r="F175" s="155"/>
+      <c r="G175" s="155"/>
+      <c r="H175" s="155"/>
+      <c r="I175" s="155"/>
+      <c r="J175" s="155"/>
+      <c r="K175" s="155"/>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="12">
@@ -9166,16 +9168,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="123" t="s">
+      <c r="D178" s="155" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="123"/>
-      <c r="F178" s="123"/>
-      <c r="G178" s="123"/>
-      <c r="H178" s="123"/>
-      <c r="I178" s="123"/>
-      <c r="J178" s="123"/>
-      <c r="K178" s="123"/>
+      <c r="E178" s="155"/>
+      <c r="F178" s="155"/>
+      <c r="G178" s="155"/>
+      <c r="H178" s="155"/>
+      <c r="I178" s="155"/>
+      <c r="J178" s="155"/>
+      <c r="K178" s="155"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -9244,16 +9246,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="124" t="s">
+      <c r="D182" s="139" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="125"/>
-      <c r="F182" s="125"/>
-      <c r="G182" s="125"/>
-      <c r="H182" s="125"/>
-      <c r="I182" s="125"/>
-      <c r="J182" s="125"/>
-      <c r="K182" s="126"/>
+      <c r="E182" s="140"/>
+      <c r="F182" s="140"/>
+      <c r="G182" s="140"/>
+      <c r="H182" s="140"/>
+      <c r="I182" s="140"/>
+      <c r="J182" s="140"/>
+      <c r="K182" s="141"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -9265,16 +9267,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="124" t="s">
+      <c r="D183" s="139" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="125"/>
-      <c r="F183" s="125"/>
-      <c r="G183" s="125"/>
-      <c r="H183" s="125"/>
-      <c r="I183" s="125"/>
-      <c r="J183" s="125"/>
-      <c r="K183" s="126"/>
+      <c r="E183" s="140"/>
+      <c r="F183" s="140"/>
+      <c r="G183" s="140"/>
+      <c r="H183" s="140"/>
+      <c r="I183" s="140"/>
+      <c r="J183" s="140"/>
+      <c r="K183" s="141"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -9286,16 +9288,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="124" t="s">
+      <c r="D184" s="139" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="125"/>
-      <c r="F184" s="125"/>
-      <c r="G184" s="125"/>
-      <c r="H184" s="125"/>
-      <c r="I184" s="125"/>
-      <c r="J184" s="125"/>
-      <c r="K184" s="126"/>
+      <c r="E184" s="140"/>
+      <c r="F184" s="140"/>
+      <c r="G184" s="140"/>
+      <c r="H184" s="140"/>
+      <c r="I184" s="140"/>
+      <c r="J184" s="140"/>
+      <c r="K184" s="141"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -9307,16 +9309,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="124" t="s">
+      <c r="D185" s="139" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="125"/>
-      <c r="F185" s="125"/>
-      <c r="G185" s="125"/>
-      <c r="H185" s="125"/>
-      <c r="I185" s="125"/>
-      <c r="J185" s="125"/>
-      <c r="K185" s="126"/>
+      <c r="E185" s="140"/>
+      <c r="F185" s="140"/>
+      <c r="G185" s="140"/>
+      <c r="H185" s="140"/>
+      <c r="I185" s="140"/>
+      <c r="J185" s="140"/>
+      <c r="K185" s="141"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -9328,16 +9330,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="124" t="s">
+      <c r="D186" s="139" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="125"/>
-      <c r="F186" s="125"/>
-      <c r="G186" s="125"/>
-      <c r="H186" s="125"/>
-      <c r="I186" s="125"/>
-      <c r="J186" s="125"/>
-      <c r="K186" s="126"/>
+      <c r="E186" s="140"/>
+      <c r="F186" s="140"/>
+      <c r="G186" s="140"/>
+      <c r="H186" s="140"/>
+      <c r="I186" s="140"/>
+      <c r="J186" s="140"/>
+      <c r="K186" s="141"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -9349,16 +9351,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="124" t="s">
+      <c r="D187" s="139" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="125"/>
-      <c r="F187" s="125"/>
-      <c r="G187" s="125"/>
-      <c r="H187" s="125"/>
-      <c r="I187" s="125"/>
-      <c r="J187" s="125"/>
-      <c r="K187" s="126"/>
+      <c r="E187" s="140"/>
+      <c r="F187" s="140"/>
+      <c r="G187" s="140"/>
+      <c r="H187" s="140"/>
+      <c r="I187" s="140"/>
+      <c r="J187" s="140"/>
+      <c r="K187" s="141"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -9370,16 +9372,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="124" t="s">
+      <c r="D188" s="139" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="125"/>
-      <c r="F188" s="125"/>
-      <c r="G188" s="125"/>
-      <c r="H188" s="125"/>
-      <c r="I188" s="125"/>
-      <c r="J188" s="125"/>
-      <c r="K188" s="126"/>
+      <c r="E188" s="140"/>
+      <c r="F188" s="140"/>
+      <c r="G188" s="140"/>
+      <c r="H188" s="140"/>
+      <c r="I188" s="140"/>
+      <c r="J188" s="140"/>
+      <c r="K188" s="141"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -9391,16 +9393,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="124" t="s">
+      <c r="D189" s="139" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="125"/>
-      <c r="F189" s="125"/>
-      <c r="G189" s="125"/>
-      <c r="H189" s="125"/>
-      <c r="I189" s="125"/>
-      <c r="J189" s="125"/>
-      <c r="K189" s="126"/>
+      <c r="E189" s="140"/>
+      <c r="F189" s="140"/>
+      <c r="G189" s="140"/>
+      <c r="H189" s="140"/>
+      <c r="I189" s="140"/>
+      <c r="J189" s="140"/>
+      <c r="K189" s="141"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -9412,16 +9414,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="124" t="s">
+      <c r="D190" s="139" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="125"/>
-      <c r="F190" s="125"/>
-      <c r="G190" s="125"/>
-      <c r="H190" s="125"/>
-      <c r="I190" s="125"/>
-      <c r="J190" s="125"/>
-      <c r="K190" s="126"/>
+      <c r="E190" s="140"/>
+      <c r="F190" s="140"/>
+      <c r="G190" s="140"/>
+      <c r="H190" s="140"/>
+      <c r="I190" s="140"/>
+      <c r="J190" s="140"/>
+      <c r="K190" s="141"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -9433,16 +9435,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="124" t="s">
+      <c r="D191" s="139" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="125"/>
-      <c r="F191" s="125"/>
-      <c r="G191" s="125"/>
-      <c r="H191" s="125"/>
-      <c r="I191" s="125"/>
-      <c r="J191" s="125"/>
-      <c r="K191" s="126"/>
+      <c r="E191" s="140"/>
+      <c r="F191" s="140"/>
+      <c r="G191" s="140"/>
+      <c r="H191" s="140"/>
+      <c r="I191" s="140"/>
+      <c r="J191" s="140"/>
+      <c r="K191" s="141"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -9454,16 +9456,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="124" t="s">
+      <c r="D192" s="139" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="125"/>
-      <c r="F192" s="125"/>
-      <c r="G192" s="125"/>
-      <c r="H192" s="125"/>
-      <c r="I192" s="125"/>
-      <c r="J192" s="125"/>
-      <c r="K192" s="126"/>
+      <c r="E192" s="140"/>
+      <c r="F192" s="140"/>
+      <c r="G192" s="140"/>
+      <c r="H192" s="140"/>
+      <c r="I192" s="140"/>
+      <c r="J192" s="140"/>
+      <c r="K192" s="141"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -9475,16 +9477,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="127" t="s">
+      <c r="D193" s="152" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="128"/>
-      <c r="F193" s="128"/>
-      <c r="G193" s="128"/>
-      <c r="H193" s="128"/>
-      <c r="I193" s="128"/>
-      <c r="J193" s="128"/>
-      <c r="K193" s="129"/>
+      <c r="E193" s="153"/>
+      <c r="F193" s="153"/>
+      <c r="G193" s="153"/>
+      <c r="H193" s="153"/>
+      <c r="I193" s="153"/>
+      <c r="J193" s="153"/>
+      <c r="K193" s="154"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -9499,16 +9501,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="130" t="s">
+      <c r="D194" s="134" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="131"/>
-      <c r="F194" s="131"/>
-      <c r="G194" s="131"/>
-      <c r="H194" s="131"/>
-      <c r="I194" s="131"/>
-      <c r="J194" s="131"/>
-      <c r="K194" s="132"/>
+      <c r="E194" s="127"/>
+      <c r="F194" s="127"/>
+      <c r="G194" s="127"/>
+      <c r="H194" s="127"/>
+      <c r="I194" s="127"/>
+      <c r="J194" s="127"/>
+      <c r="K194" s="135"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -9520,16 +9522,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="124" t="s">
+      <c r="D195" s="139" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="125"/>
-      <c r="F195" s="125"/>
-      <c r="G195" s="125"/>
-      <c r="H195" s="125"/>
-      <c r="I195" s="125"/>
-      <c r="J195" s="125"/>
-      <c r="K195" s="126"/>
+      <c r="E195" s="140"/>
+      <c r="F195" s="140"/>
+      <c r="G195" s="140"/>
+      <c r="H195" s="140"/>
+      <c r="I195" s="140"/>
+      <c r="J195" s="140"/>
+      <c r="K195" s="141"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -9541,16 +9543,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="124" t="s">
+      <c r="D196" s="139" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="125"/>
-      <c r="F196" s="125"/>
-      <c r="G196" s="125"/>
-      <c r="H196" s="125"/>
-      <c r="I196" s="125"/>
-      <c r="J196" s="125"/>
-      <c r="K196" s="126"/>
+      <c r="E196" s="140"/>
+      <c r="F196" s="140"/>
+      <c r="G196" s="140"/>
+      <c r="H196" s="140"/>
+      <c r="I196" s="140"/>
+      <c r="J196" s="140"/>
+      <c r="K196" s="141"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -9562,16 +9564,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="124" t="s">
+      <c r="D197" s="139" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="125"/>
-      <c r="F197" s="125"/>
-      <c r="G197" s="125"/>
-      <c r="H197" s="125"/>
-      <c r="I197" s="125"/>
-      <c r="J197" s="125"/>
-      <c r="K197" s="126"/>
+      <c r="E197" s="140"/>
+      <c r="F197" s="140"/>
+      <c r="G197" s="140"/>
+      <c r="H197" s="140"/>
+      <c r="I197" s="140"/>
+      <c r="J197" s="140"/>
+      <c r="K197" s="141"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -9583,16 +9585,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="124" t="s">
+      <c r="D198" s="139" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="125"/>
-      <c r="F198" s="125"/>
-      <c r="G198" s="125"/>
-      <c r="H198" s="125"/>
-      <c r="I198" s="125"/>
-      <c r="J198" s="125"/>
-      <c r="K198" s="126"/>
+      <c r="E198" s="140"/>
+      <c r="F198" s="140"/>
+      <c r="G198" s="140"/>
+      <c r="H198" s="140"/>
+      <c r="I198" s="140"/>
+      <c r="J198" s="140"/>
+      <c r="K198" s="141"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -9623,16 +9625,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="124" t="s">
+      <c r="D200" s="139" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="125"/>
-      <c r="F200" s="125"/>
-      <c r="G200" s="125"/>
-      <c r="H200" s="125"/>
-      <c r="I200" s="125"/>
-      <c r="J200" s="125"/>
-      <c r="K200" s="126"/>
+      <c r="E200" s="140"/>
+      <c r="F200" s="140"/>
+      <c r="G200" s="140"/>
+      <c r="H200" s="140"/>
+      <c r="I200" s="140"/>
+      <c r="J200" s="140"/>
+      <c r="K200" s="141"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -9663,16 +9665,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="153" t="s">
+      <c r="D202" s="145" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="154"/>
-      <c r="F202" s="154"/>
-      <c r="G202" s="154"/>
-      <c r="H202" s="154"/>
-      <c r="I202" s="154"/>
-      <c r="J202" s="154"/>
-      <c r="K202" s="155"/>
+      <c r="E202" s="146"/>
+      <c r="F202" s="146"/>
+      <c r="G202" s="146"/>
+      <c r="H202" s="146"/>
+      <c r="I202" s="146"/>
+      <c r="J202" s="146"/>
+      <c r="K202" s="147"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -9703,16 +9705,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="124" t="s">
+      <c r="D204" s="139" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="125"/>
-      <c r="F204" s="125"/>
-      <c r="G204" s="125"/>
-      <c r="H204" s="125"/>
-      <c r="I204" s="125"/>
-      <c r="J204" s="125"/>
-      <c r="K204" s="126"/>
+      <c r="E204" s="140"/>
+      <c r="F204" s="140"/>
+      <c r="G204" s="140"/>
+      <c r="H204" s="140"/>
+      <c r="I204" s="140"/>
+      <c r="J204" s="140"/>
+      <c r="K204" s="141"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -9743,16 +9745,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="124" t="s">
+      <c r="D206" s="139" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="125"/>
-      <c r="F206" s="125"/>
-      <c r="G206" s="125"/>
-      <c r="H206" s="125"/>
-      <c r="I206" s="125"/>
-      <c r="J206" s="125"/>
-      <c r="K206" s="126"/>
+      <c r="E206" s="140"/>
+      <c r="F206" s="140"/>
+      <c r="G206" s="140"/>
+      <c r="H206" s="140"/>
+      <c r="I206" s="140"/>
+      <c r="J206" s="140"/>
+      <c r="K206" s="141"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -9783,16 +9785,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="124" t="s">
+      <c r="D208" s="139" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="125"/>
-      <c r="F208" s="125"/>
-      <c r="G208" s="125"/>
-      <c r="H208" s="125"/>
-      <c r="I208" s="125"/>
-      <c r="J208" s="125"/>
-      <c r="K208" s="126"/>
+      <c r="E208" s="140"/>
+      <c r="F208" s="140"/>
+      <c r="G208" s="140"/>
+      <c r="H208" s="140"/>
+      <c r="I208" s="140"/>
+      <c r="J208" s="140"/>
+      <c r="K208" s="141"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -9826,16 +9828,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="130" t="s">
+      <c r="D210" s="134" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="131"/>
-      <c r="F210" s="131"/>
-      <c r="G210" s="131"/>
-      <c r="H210" s="131"/>
-      <c r="I210" s="131"/>
-      <c r="J210" s="131"/>
-      <c r="K210" s="132"/>
+      <c r="E210" s="127"/>
+      <c r="F210" s="127"/>
+      <c r="G210" s="127"/>
+      <c r="H210" s="127"/>
+      <c r="I210" s="127"/>
+      <c r="J210" s="127"/>
+      <c r="K210" s="135"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -9904,16 +9906,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="124" t="s">
+      <c r="D214" s="139" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="125"/>
-      <c r="F214" s="125"/>
-      <c r="G214" s="125"/>
-      <c r="H214" s="125"/>
-      <c r="I214" s="125"/>
-      <c r="J214" s="125"/>
-      <c r="K214" s="126"/>
+      <c r="E214" s="140"/>
+      <c r="F214" s="140"/>
+      <c r="G214" s="140"/>
+      <c r="H214" s="140"/>
+      <c r="I214" s="140"/>
+      <c r="J214" s="140"/>
+      <c r="K214" s="141"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -9944,16 +9946,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="144" t="s">
+      <c r="D216" s="132" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="136"/>
-      <c r="F216" s="136"/>
-      <c r="G216" s="136"/>
-      <c r="H216" s="136"/>
-      <c r="I216" s="136"/>
-      <c r="J216" s="136"/>
-      <c r="K216" s="145"/>
+      <c r="E216" s="124"/>
+      <c r="F216" s="124"/>
+      <c r="G216" s="124"/>
+      <c r="H216" s="124"/>
+      <c r="I216" s="124"/>
+      <c r="J216" s="124"/>
+      <c r="K216" s="133"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -9965,14 +9967,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="130"/>
-      <c r="E217" s="131"/>
-      <c r="F217" s="131"/>
-      <c r="G217" s="131"/>
-      <c r="H217" s="131"/>
-      <c r="I217" s="131"/>
-      <c r="J217" s="131"/>
-      <c r="K217" s="132"/>
+      <c r="D217" s="134"/>
+      <c r="E217" s="127"/>
+      <c r="F217" s="127"/>
+      <c r="G217" s="127"/>
+      <c r="H217" s="127"/>
+      <c r="I217" s="127"/>
+      <c r="J217" s="127"/>
+      <c r="K217" s="135"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -9984,16 +9986,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="144" t="s">
+      <c r="D218" s="132" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="136"/>
-      <c r="F218" s="136"/>
-      <c r="G218" s="136"/>
-      <c r="H218" s="136"/>
-      <c r="I218" s="136"/>
-      <c r="J218" s="136"/>
-      <c r="K218" s="145"/>
+      <c r="E218" s="124"/>
+      <c r="F218" s="124"/>
+      <c r="G218" s="124"/>
+      <c r="H218" s="124"/>
+      <c r="I218" s="124"/>
+      <c r="J218" s="124"/>
+      <c r="K218" s="133"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -10005,14 +10007,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="130"/>
-      <c r="E219" s="131"/>
-      <c r="F219" s="131"/>
-      <c r="G219" s="131"/>
-      <c r="H219" s="131"/>
-      <c r="I219" s="131"/>
-      <c r="J219" s="131"/>
-      <c r="K219" s="132"/>
+      <c r="D219" s="134"/>
+      <c r="E219" s="127"/>
+      <c r="F219" s="127"/>
+      <c r="G219" s="127"/>
+      <c r="H219" s="127"/>
+      <c r="I219" s="127"/>
+      <c r="J219" s="127"/>
+      <c r="K219" s="135"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -10024,16 +10026,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="144" t="s">
+      <c r="D220" s="132" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="136"/>
-      <c r="F220" s="136"/>
-      <c r="G220" s="136"/>
-      <c r="H220" s="136"/>
-      <c r="I220" s="136"/>
-      <c r="J220" s="136"/>
-      <c r="K220" s="145"/>
+      <c r="E220" s="124"/>
+      <c r="F220" s="124"/>
+      <c r="G220" s="124"/>
+      <c r="H220" s="124"/>
+      <c r="I220" s="124"/>
+      <c r="J220" s="124"/>
+      <c r="K220" s="133"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -10045,14 +10047,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="130"/>
-      <c r="E221" s="131"/>
-      <c r="F221" s="131"/>
-      <c r="G221" s="131"/>
-      <c r="H221" s="131"/>
-      <c r="I221" s="131"/>
-      <c r="J221" s="131"/>
-      <c r="K221" s="132"/>
+      <c r="D221" s="134"/>
+      <c r="E221" s="127"/>
+      <c r="F221" s="127"/>
+      <c r="G221" s="127"/>
+      <c r="H221" s="127"/>
+      <c r="I221" s="127"/>
+      <c r="J221" s="127"/>
+      <c r="K221" s="135"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -10064,16 +10066,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="124" t="s">
+      <c r="D222" s="139" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="125"/>
-      <c r="F222" s="125"/>
-      <c r="G222" s="125"/>
-      <c r="H222" s="125"/>
-      <c r="I222" s="125"/>
-      <c r="J222" s="125"/>
-      <c r="K222" s="126"/>
+      <c r="E222" s="140"/>
+      <c r="F222" s="140"/>
+      <c r="G222" s="140"/>
+      <c r="H222" s="140"/>
+      <c r="I222" s="140"/>
+      <c r="J222" s="140"/>
+      <c r="K222" s="141"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -10104,16 +10106,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="124" t="s">
+      <c r="D224" s="139" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="125"/>
-      <c r="F224" s="125"/>
-      <c r="G224" s="125"/>
-      <c r="H224" s="125"/>
-      <c r="I224" s="125"/>
-      <c r="J224" s="125"/>
-      <c r="K224" s="126"/>
+      <c r="E224" s="140"/>
+      <c r="F224" s="140"/>
+      <c r="G224" s="140"/>
+      <c r="H224" s="140"/>
+      <c r="I224" s="140"/>
+      <c r="J224" s="140"/>
+      <c r="K224" s="141"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -10147,16 +10149,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="150" t="s">
+      <c r="D226" s="142" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="151"/>
-      <c r="F226" s="151"/>
-      <c r="G226" s="151"/>
-      <c r="H226" s="151"/>
-      <c r="I226" s="151"/>
-      <c r="J226" s="151"/>
-      <c r="K226" s="152"/>
+      <c r="E226" s="143"/>
+      <c r="F226" s="143"/>
+      <c r="G226" s="143"/>
+      <c r="H226" s="143"/>
+      <c r="I226" s="143"/>
+      <c r="J226" s="143"/>
+      <c r="K226" s="144"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -10301,16 +10303,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="148" t="s">
+      <c r="D234" s="136" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="134"/>
-      <c r="F234" s="134"/>
-      <c r="G234" s="134"/>
-      <c r="H234" s="134"/>
-      <c r="I234" s="134"/>
-      <c r="J234" s="134"/>
-      <c r="K234" s="149"/>
+      <c r="E234" s="137"/>
+      <c r="F234" s="137"/>
+      <c r="G234" s="137"/>
+      <c r="H234" s="137"/>
+      <c r="I234" s="137"/>
+      <c r="J234" s="137"/>
+      <c r="K234" s="138"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -10379,16 +10381,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="140" t="s">
+      <c r="D238" s="123" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="136"/>
-      <c r="F238" s="136"/>
-      <c r="G238" s="136"/>
-      <c r="H238" s="136"/>
-      <c r="I238" s="136"/>
-      <c r="J238" s="136"/>
-      <c r="K238" s="137"/>
+      <c r="E238" s="124"/>
+      <c r="F238" s="124"/>
+      <c r="G238" s="124"/>
+      <c r="H238" s="124"/>
+      <c r="I238" s="124"/>
+      <c r="J238" s="124"/>
+      <c r="K238" s="125"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -10400,14 +10402,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="146"/>
-      <c r="E239" s="131"/>
-      <c r="F239" s="131"/>
-      <c r="G239" s="131"/>
-      <c r="H239" s="131"/>
-      <c r="I239" s="131"/>
-      <c r="J239" s="131"/>
-      <c r="K239" s="147"/>
+      <c r="D239" s="126"/>
+      <c r="E239" s="127"/>
+      <c r="F239" s="127"/>
+      <c r="G239" s="127"/>
+      <c r="H239" s="127"/>
+      <c r="I239" s="127"/>
+      <c r="J239" s="127"/>
+      <c r="K239" s="128"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -10419,16 +10421,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="136" t="s">
+      <c r="D240" s="124" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="136"/>
-      <c r="F240" s="136"/>
-      <c r="G240" s="136"/>
-      <c r="H240" s="136"/>
-      <c r="I240" s="136"/>
-      <c r="J240" s="136"/>
-      <c r="K240" s="137"/>
+      <c r="E240" s="124"/>
+      <c r="F240" s="124"/>
+      <c r="G240" s="124"/>
+      <c r="H240" s="124"/>
+      <c r="I240" s="124"/>
+      <c r="J240" s="124"/>
+      <c r="K240" s="125"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -10440,14 +10442,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="138"/>
-      <c r="E241" s="138"/>
-      <c r="F241" s="138"/>
-      <c r="G241" s="138"/>
-      <c r="H241" s="138"/>
-      <c r="I241" s="138"/>
-      <c r="J241" s="138"/>
-      <c r="K241" s="139"/>
+      <c r="D241" s="150"/>
+      <c r="E241" s="150"/>
+      <c r="F241" s="150"/>
+      <c r="G241" s="150"/>
+      <c r="H241" s="150"/>
+      <c r="I241" s="150"/>
+      <c r="J241" s="150"/>
+      <c r="K241" s="151"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -10638,16 +10640,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="133" t="s">
+      <c r="D250" s="148" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="134"/>
-      <c r="F250" s="134"/>
-      <c r="G250" s="134"/>
-      <c r="H250" s="134"/>
-      <c r="I250" s="134"/>
-      <c r="J250" s="134"/>
-      <c r="K250" s="135"/>
+      <c r="E250" s="137"/>
+      <c r="F250" s="137"/>
+      <c r="G250" s="137"/>
+      <c r="H250" s="137"/>
+      <c r="I250" s="137"/>
+      <c r="J250" s="137"/>
+      <c r="K250" s="149"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -11216,16 +11218,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="124" t="s">
+      <c r="D280" s="139" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="125"/>
-      <c r="F280" s="125"/>
-      <c r="G280" s="125"/>
-      <c r="H280" s="125"/>
-      <c r="I280" s="125"/>
-      <c r="J280" s="125"/>
-      <c r="K280" s="126"/>
+      <c r="E280" s="140"/>
+      <c r="F280" s="140"/>
+      <c r="G280" s="140"/>
+      <c r="H280" s="140"/>
+      <c r="I280" s="140"/>
+      <c r="J280" s="140"/>
+      <c r="K280" s="141"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -11332,16 +11334,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="124" t="s">
+      <c r="D286" s="139" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="125"/>
-      <c r="F286" s="125"/>
-      <c r="G286" s="125"/>
-      <c r="H286" s="125"/>
-      <c r="I286" s="125"/>
-      <c r="J286" s="125"/>
-      <c r="K286" s="126"/>
+      <c r="E286" s="140"/>
+      <c r="F286" s="140"/>
+      <c r="G286" s="140"/>
+      <c r="H286" s="140"/>
+      <c r="I286" s="140"/>
+      <c r="J286" s="140"/>
+      <c r="K286" s="141"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -11529,16 +11531,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="124" t="s">
+      <c r="D296" s="139" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="125"/>
-      <c r="F296" s="125"/>
-      <c r="G296" s="125"/>
-      <c r="H296" s="125"/>
-      <c r="I296" s="125"/>
-      <c r="J296" s="125"/>
-      <c r="K296" s="126"/>
+      <c r="E296" s="140"/>
+      <c r="F296" s="140"/>
+      <c r="G296" s="140"/>
+      <c r="H296" s="140"/>
+      <c r="I296" s="140"/>
+      <c r="J296" s="140"/>
+      <c r="K296" s="141"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -11569,16 +11571,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="140" t="s">
+      <c r="D298" s="123" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="136"/>
-      <c r="F298" s="136"/>
-      <c r="G298" s="136"/>
-      <c r="H298" s="136"/>
-      <c r="I298" s="136"/>
-      <c r="J298" s="136"/>
-      <c r="K298" s="137"/>
+      <c r="E298" s="124"/>
+      <c r="F298" s="124"/>
+      <c r="G298" s="124"/>
+      <c r="H298" s="124"/>
+      <c r="I298" s="124"/>
+      <c r="J298" s="124"/>
+      <c r="K298" s="125"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -11590,14 +11592,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="146"/>
-      <c r="E299" s="131"/>
-      <c r="F299" s="131"/>
-      <c r="G299" s="131"/>
-      <c r="H299" s="131"/>
-      <c r="I299" s="131"/>
-      <c r="J299" s="131"/>
-      <c r="K299" s="147"/>
+      <c r="D299" s="126"/>
+      <c r="E299" s="127"/>
+      <c r="F299" s="127"/>
+      <c r="G299" s="127"/>
+      <c r="H299" s="127"/>
+      <c r="I299" s="127"/>
+      <c r="J299" s="127"/>
+      <c r="K299" s="128"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -11609,16 +11611,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="140" t="s">
+      <c r="D300" s="123" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="136"/>
-      <c r="F300" s="136"/>
-      <c r="G300" s="136"/>
-      <c r="H300" s="136"/>
-      <c r="I300" s="136"/>
-      <c r="J300" s="136"/>
-      <c r="K300" s="137"/>
+      <c r="E300" s="124"/>
+      <c r="F300" s="124"/>
+      <c r="G300" s="124"/>
+      <c r="H300" s="124"/>
+      <c r="I300" s="124"/>
+      <c r="J300" s="124"/>
+      <c r="K300" s="125"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -11630,14 +11632,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="146"/>
-      <c r="E301" s="131"/>
-      <c r="F301" s="131"/>
-      <c r="G301" s="131"/>
-      <c r="H301" s="131"/>
-      <c r="I301" s="131"/>
-      <c r="J301" s="131"/>
-      <c r="K301" s="147"/>
+      <c r="D301" s="126"/>
+      <c r="E301" s="127"/>
+      <c r="F301" s="127"/>
+      <c r="G301" s="127"/>
+      <c r="H301" s="127"/>
+      <c r="I301" s="127"/>
+      <c r="J301" s="127"/>
+      <c r="K301" s="128"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -11649,16 +11651,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="140" t="s">
+      <c r="D302" s="123" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="136"/>
-      <c r="F302" s="136"/>
-      <c r="G302" s="136"/>
-      <c r="H302" s="136"/>
-      <c r="I302" s="136"/>
-      <c r="J302" s="136"/>
-      <c r="K302" s="137"/>
+      <c r="E302" s="124"/>
+      <c r="F302" s="124"/>
+      <c r="G302" s="124"/>
+      <c r="H302" s="124"/>
+      <c r="I302" s="124"/>
+      <c r="J302" s="124"/>
+      <c r="K302" s="125"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -11670,14 +11672,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="146"/>
-      <c r="E303" s="131"/>
-      <c r="F303" s="131"/>
-      <c r="G303" s="131"/>
-      <c r="H303" s="131"/>
-      <c r="I303" s="131"/>
-      <c r="J303" s="131"/>
-      <c r="K303" s="147"/>
+      <c r="D303" s="126"/>
+      <c r="E303" s="127"/>
+      <c r="F303" s="127"/>
+      <c r="G303" s="127"/>
+      <c r="H303" s="127"/>
+      <c r="I303" s="127"/>
+      <c r="J303" s="127"/>
+      <c r="K303" s="128"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -11689,16 +11691,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="140" t="s">
+      <c r="D304" s="123" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="136"/>
-      <c r="F304" s="136"/>
-      <c r="G304" s="136"/>
-      <c r="H304" s="136"/>
-      <c r="I304" s="136"/>
-      <c r="J304" s="136"/>
-      <c r="K304" s="137"/>
+      <c r="E304" s="124"/>
+      <c r="F304" s="124"/>
+      <c r="G304" s="124"/>
+      <c r="H304" s="124"/>
+      <c r="I304" s="124"/>
+      <c r="J304" s="124"/>
+      <c r="K304" s="125"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -11710,14 +11712,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="146"/>
-      <c r="E305" s="131"/>
-      <c r="F305" s="131"/>
-      <c r="G305" s="131"/>
-      <c r="H305" s="131"/>
-      <c r="I305" s="131"/>
-      <c r="J305" s="131"/>
-      <c r="K305" s="147"/>
+      <c r="D305" s="126"/>
+      <c r="E305" s="127"/>
+      <c r="F305" s="127"/>
+      <c r="G305" s="127"/>
+      <c r="H305" s="127"/>
+      <c r="I305" s="127"/>
+      <c r="J305" s="127"/>
+      <c r="K305" s="128"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -11732,16 +11734,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="140" t="s">
+      <c r="D306" s="123" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="136"/>
-      <c r="F306" s="136"/>
-      <c r="G306" s="136"/>
-      <c r="H306" s="136"/>
-      <c r="I306" s="136"/>
-      <c r="J306" s="136"/>
-      <c r="K306" s="137"/>
+      <c r="E306" s="124"/>
+      <c r="F306" s="124"/>
+      <c r="G306" s="124"/>
+      <c r="H306" s="124"/>
+      <c r="I306" s="124"/>
+      <c r="J306" s="124"/>
+      <c r="K306" s="125"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -11753,14 +11755,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="146"/>
-      <c r="E307" s="131"/>
-      <c r="F307" s="131"/>
-      <c r="G307" s="131"/>
-      <c r="H307" s="131"/>
-      <c r="I307" s="131"/>
-      <c r="J307" s="131"/>
-      <c r="K307" s="147"/>
+      <c r="D307" s="126"/>
+      <c r="E307" s="127"/>
+      <c r="F307" s="127"/>
+      <c r="G307" s="127"/>
+      <c r="H307" s="127"/>
+      <c r="I307" s="127"/>
+      <c r="J307" s="127"/>
+      <c r="K307" s="128"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -11772,16 +11774,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="140" t="s">
+      <c r="D308" s="123" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="136"/>
-      <c r="F308" s="136"/>
-      <c r="G308" s="136"/>
-      <c r="H308" s="136"/>
-      <c r="I308" s="136"/>
-      <c r="J308" s="136"/>
-      <c r="K308" s="137"/>
+      <c r="E308" s="124"/>
+      <c r="F308" s="124"/>
+      <c r="G308" s="124"/>
+      <c r="H308" s="124"/>
+      <c r="I308" s="124"/>
+      <c r="J308" s="124"/>
+      <c r="K308" s="125"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -11793,14 +11795,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="146"/>
-      <c r="E309" s="131"/>
-      <c r="F309" s="131"/>
-      <c r="G309" s="131"/>
-      <c r="H309" s="131"/>
-      <c r="I309" s="131"/>
-      <c r="J309" s="131"/>
-      <c r="K309" s="147"/>
+      <c r="D309" s="126"/>
+      <c r="E309" s="127"/>
+      <c r="F309" s="127"/>
+      <c r="G309" s="127"/>
+      <c r="H309" s="127"/>
+      <c r="I309" s="127"/>
+      <c r="J309" s="127"/>
+      <c r="K309" s="128"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -15679,13 +15681,33 @@
       <c r="K513" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
+  <mergeCells count="48">
+    <mergeCell ref="D168:K168"/>
+    <mergeCell ref="D175:K175"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D174:K174"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D250:K250"/>
+    <mergeCell ref="D280:K280"/>
+    <mergeCell ref="D286:K286"/>
+    <mergeCell ref="D296:K296"/>
+    <mergeCell ref="D240:K241"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="D216:K217"/>
     <mergeCell ref="D218:K219"/>
@@ -15702,31 +15724,12 @@
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
     <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D250:K250"/>
-    <mergeCell ref="D280:K280"/>
-    <mergeCell ref="D286:K286"/>
-    <mergeCell ref="D296:K296"/>
-    <mergeCell ref="D240:K241"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D168:K168"/>
-    <mergeCell ref="D175:K175"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -15812,16 +15815,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="140" t="s">
+      <c r="D2" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="137"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="125"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -15843,14 +15846,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="143"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="131"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -22099,16 +22102,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="123" t="s">
+      <c r="D178" s="155" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="123"/>
-      <c r="F178" s="123"/>
-      <c r="G178" s="123"/>
-      <c r="H178" s="123"/>
-      <c r="I178" s="123"/>
-      <c r="J178" s="123"/>
-      <c r="K178" s="123"/>
+      <c r="E178" s="155"/>
+      <c r="F178" s="155"/>
+      <c r="G178" s="155"/>
+      <c r="H178" s="155"/>
+      <c r="I178" s="155"/>
+      <c r="J178" s="155"/>
+      <c r="K178" s="155"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -22177,16 +22180,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="124" t="s">
+      <c r="D182" s="139" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="125"/>
-      <c r="F182" s="125"/>
-      <c r="G182" s="125"/>
-      <c r="H182" s="125"/>
-      <c r="I182" s="125"/>
-      <c r="J182" s="125"/>
-      <c r="K182" s="126"/>
+      <c r="E182" s="140"/>
+      <c r="F182" s="140"/>
+      <c r="G182" s="140"/>
+      <c r="H182" s="140"/>
+      <c r="I182" s="140"/>
+      <c r="J182" s="140"/>
+      <c r="K182" s="141"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -22198,16 +22201,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="124" t="s">
+      <c r="D183" s="139" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="125"/>
-      <c r="F183" s="125"/>
-      <c r="G183" s="125"/>
-      <c r="H183" s="125"/>
-      <c r="I183" s="125"/>
-      <c r="J183" s="125"/>
-      <c r="K183" s="126"/>
+      <c r="E183" s="140"/>
+      <c r="F183" s="140"/>
+      <c r="G183" s="140"/>
+      <c r="H183" s="140"/>
+      <c r="I183" s="140"/>
+      <c r="J183" s="140"/>
+      <c r="K183" s="141"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -22219,16 +22222,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="124" t="s">
+      <c r="D184" s="139" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="125"/>
-      <c r="F184" s="125"/>
-      <c r="G184" s="125"/>
-      <c r="H184" s="125"/>
-      <c r="I184" s="125"/>
-      <c r="J184" s="125"/>
-      <c r="K184" s="126"/>
+      <c r="E184" s="140"/>
+      <c r="F184" s="140"/>
+      <c r="G184" s="140"/>
+      <c r="H184" s="140"/>
+      <c r="I184" s="140"/>
+      <c r="J184" s="140"/>
+      <c r="K184" s="141"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -22240,16 +22243,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="124" t="s">
+      <c r="D185" s="139" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="125"/>
-      <c r="F185" s="125"/>
-      <c r="G185" s="125"/>
-      <c r="H185" s="125"/>
-      <c r="I185" s="125"/>
-      <c r="J185" s="125"/>
-      <c r="K185" s="126"/>
+      <c r="E185" s="140"/>
+      <c r="F185" s="140"/>
+      <c r="G185" s="140"/>
+      <c r="H185" s="140"/>
+      <c r="I185" s="140"/>
+      <c r="J185" s="140"/>
+      <c r="K185" s="141"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -22261,16 +22264,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="124" t="s">
+      <c r="D186" s="139" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="125"/>
-      <c r="F186" s="125"/>
-      <c r="G186" s="125"/>
-      <c r="H186" s="125"/>
-      <c r="I186" s="125"/>
-      <c r="J186" s="125"/>
-      <c r="K186" s="126"/>
+      <c r="E186" s="140"/>
+      <c r="F186" s="140"/>
+      <c r="G186" s="140"/>
+      <c r="H186" s="140"/>
+      <c r="I186" s="140"/>
+      <c r="J186" s="140"/>
+      <c r="K186" s="141"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -22282,16 +22285,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="124" t="s">
+      <c r="D187" s="139" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="125"/>
-      <c r="F187" s="125"/>
-      <c r="G187" s="125"/>
-      <c r="H187" s="125"/>
-      <c r="I187" s="125"/>
-      <c r="J187" s="125"/>
-      <c r="K187" s="126"/>
+      <c r="E187" s="140"/>
+      <c r="F187" s="140"/>
+      <c r="G187" s="140"/>
+      <c r="H187" s="140"/>
+      <c r="I187" s="140"/>
+      <c r="J187" s="140"/>
+      <c r="K187" s="141"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -22303,16 +22306,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="124" t="s">
+      <c r="D188" s="139" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="125"/>
-      <c r="F188" s="125"/>
-      <c r="G188" s="125"/>
-      <c r="H188" s="125"/>
-      <c r="I188" s="125"/>
-      <c r="J188" s="125"/>
-      <c r="K188" s="126"/>
+      <c r="E188" s="140"/>
+      <c r="F188" s="140"/>
+      <c r="G188" s="140"/>
+      <c r="H188" s="140"/>
+      <c r="I188" s="140"/>
+      <c r="J188" s="140"/>
+      <c r="K188" s="141"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -22324,16 +22327,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="124" t="s">
+      <c r="D189" s="139" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="125"/>
-      <c r="F189" s="125"/>
-      <c r="G189" s="125"/>
-      <c r="H189" s="125"/>
-      <c r="I189" s="125"/>
-      <c r="J189" s="125"/>
-      <c r="K189" s="126"/>
+      <c r="E189" s="140"/>
+      <c r="F189" s="140"/>
+      <c r="G189" s="140"/>
+      <c r="H189" s="140"/>
+      <c r="I189" s="140"/>
+      <c r="J189" s="140"/>
+      <c r="K189" s="141"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -22345,16 +22348,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="124" t="s">
+      <c r="D190" s="139" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="125"/>
-      <c r="F190" s="125"/>
-      <c r="G190" s="125"/>
-      <c r="H190" s="125"/>
-      <c r="I190" s="125"/>
-      <c r="J190" s="125"/>
-      <c r="K190" s="126"/>
+      <c r="E190" s="140"/>
+      <c r="F190" s="140"/>
+      <c r="G190" s="140"/>
+      <c r="H190" s="140"/>
+      <c r="I190" s="140"/>
+      <c r="J190" s="140"/>
+      <c r="K190" s="141"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -22366,16 +22369,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="124" t="s">
+      <c r="D191" s="139" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="125"/>
-      <c r="F191" s="125"/>
-      <c r="G191" s="125"/>
-      <c r="H191" s="125"/>
-      <c r="I191" s="125"/>
-      <c r="J191" s="125"/>
-      <c r="K191" s="126"/>
+      <c r="E191" s="140"/>
+      <c r="F191" s="140"/>
+      <c r="G191" s="140"/>
+      <c r="H191" s="140"/>
+      <c r="I191" s="140"/>
+      <c r="J191" s="140"/>
+      <c r="K191" s="141"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -22387,16 +22390,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="124" t="s">
+      <c r="D192" s="139" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="125"/>
-      <c r="F192" s="125"/>
-      <c r="G192" s="125"/>
-      <c r="H192" s="125"/>
-      <c r="I192" s="125"/>
-      <c r="J192" s="125"/>
-      <c r="K192" s="126"/>
+      <c r="E192" s="140"/>
+      <c r="F192" s="140"/>
+      <c r="G192" s="140"/>
+      <c r="H192" s="140"/>
+      <c r="I192" s="140"/>
+      <c r="J192" s="140"/>
+      <c r="K192" s="141"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -22408,16 +22411,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="127" t="s">
+      <c r="D193" s="152" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="128"/>
-      <c r="F193" s="128"/>
-      <c r="G193" s="128"/>
-      <c r="H193" s="128"/>
-      <c r="I193" s="128"/>
-      <c r="J193" s="128"/>
-      <c r="K193" s="129"/>
+      <c r="E193" s="153"/>
+      <c r="F193" s="153"/>
+      <c r="G193" s="153"/>
+      <c r="H193" s="153"/>
+      <c r="I193" s="153"/>
+      <c r="J193" s="153"/>
+      <c r="K193" s="154"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -22432,16 +22435,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="130" t="s">
+      <c r="D194" s="134" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="131"/>
-      <c r="F194" s="131"/>
-      <c r="G194" s="131"/>
-      <c r="H194" s="131"/>
-      <c r="I194" s="131"/>
-      <c r="J194" s="131"/>
-      <c r="K194" s="132"/>
+      <c r="E194" s="127"/>
+      <c r="F194" s="127"/>
+      <c r="G194" s="127"/>
+      <c r="H194" s="127"/>
+      <c r="I194" s="127"/>
+      <c r="J194" s="127"/>
+      <c r="K194" s="135"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -22453,16 +22456,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="124" t="s">
+      <c r="D195" s="139" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="125"/>
-      <c r="F195" s="125"/>
-      <c r="G195" s="125"/>
-      <c r="H195" s="125"/>
-      <c r="I195" s="125"/>
-      <c r="J195" s="125"/>
-      <c r="K195" s="126"/>
+      <c r="E195" s="140"/>
+      <c r="F195" s="140"/>
+      <c r="G195" s="140"/>
+      <c r="H195" s="140"/>
+      <c r="I195" s="140"/>
+      <c r="J195" s="140"/>
+      <c r="K195" s="141"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -22474,16 +22477,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="124" t="s">
+      <c r="D196" s="139" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="125"/>
-      <c r="F196" s="125"/>
-      <c r="G196" s="125"/>
-      <c r="H196" s="125"/>
-      <c r="I196" s="125"/>
-      <c r="J196" s="125"/>
-      <c r="K196" s="126"/>
+      <c r="E196" s="140"/>
+      <c r="F196" s="140"/>
+      <c r="G196" s="140"/>
+      <c r="H196" s="140"/>
+      <c r="I196" s="140"/>
+      <c r="J196" s="140"/>
+      <c r="K196" s="141"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -22495,16 +22498,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="124" t="s">
+      <c r="D197" s="139" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="125"/>
-      <c r="F197" s="125"/>
-      <c r="G197" s="125"/>
-      <c r="H197" s="125"/>
-      <c r="I197" s="125"/>
-      <c r="J197" s="125"/>
-      <c r="K197" s="126"/>
+      <c r="E197" s="140"/>
+      <c r="F197" s="140"/>
+      <c r="G197" s="140"/>
+      <c r="H197" s="140"/>
+      <c r="I197" s="140"/>
+      <c r="J197" s="140"/>
+      <c r="K197" s="141"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -22516,16 +22519,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="124" t="s">
+      <c r="D198" s="139" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="125"/>
-      <c r="F198" s="125"/>
-      <c r="G198" s="125"/>
-      <c r="H198" s="125"/>
-      <c r="I198" s="125"/>
-      <c r="J198" s="125"/>
-      <c r="K198" s="126"/>
+      <c r="E198" s="140"/>
+      <c r="F198" s="140"/>
+      <c r="G198" s="140"/>
+      <c r="H198" s="140"/>
+      <c r="I198" s="140"/>
+      <c r="J198" s="140"/>
+      <c r="K198" s="141"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -22556,16 +22559,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="124" t="s">
+      <c r="D200" s="139" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="125"/>
-      <c r="F200" s="125"/>
-      <c r="G200" s="125"/>
-      <c r="H200" s="125"/>
-      <c r="I200" s="125"/>
-      <c r="J200" s="125"/>
-      <c r="K200" s="126"/>
+      <c r="E200" s="140"/>
+      <c r="F200" s="140"/>
+      <c r="G200" s="140"/>
+      <c r="H200" s="140"/>
+      <c r="I200" s="140"/>
+      <c r="J200" s="140"/>
+      <c r="K200" s="141"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -22596,16 +22599,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="153" t="s">
+      <c r="D202" s="145" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="154"/>
-      <c r="F202" s="154"/>
-      <c r="G202" s="154"/>
-      <c r="H202" s="154"/>
-      <c r="I202" s="154"/>
-      <c r="J202" s="154"/>
-      <c r="K202" s="155"/>
+      <c r="E202" s="146"/>
+      <c r="F202" s="146"/>
+      <c r="G202" s="146"/>
+      <c r="H202" s="146"/>
+      <c r="I202" s="146"/>
+      <c r="J202" s="146"/>
+      <c r="K202" s="147"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -22636,16 +22639,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="124" t="s">
+      <c r="D204" s="139" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="125"/>
-      <c r="F204" s="125"/>
-      <c r="G204" s="125"/>
-      <c r="H204" s="125"/>
-      <c r="I204" s="125"/>
-      <c r="J204" s="125"/>
-      <c r="K204" s="126"/>
+      <c r="E204" s="140"/>
+      <c r="F204" s="140"/>
+      <c r="G204" s="140"/>
+      <c r="H204" s="140"/>
+      <c r="I204" s="140"/>
+      <c r="J204" s="140"/>
+      <c r="K204" s="141"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -22676,16 +22679,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="124" t="s">
+      <c r="D206" s="139" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="125"/>
-      <c r="F206" s="125"/>
-      <c r="G206" s="125"/>
-      <c r="H206" s="125"/>
-      <c r="I206" s="125"/>
-      <c r="J206" s="125"/>
-      <c r="K206" s="126"/>
+      <c r="E206" s="140"/>
+      <c r="F206" s="140"/>
+      <c r="G206" s="140"/>
+      <c r="H206" s="140"/>
+      <c r="I206" s="140"/>
+      <c r="J206" s="140"/>
+      <c r="K206" s="141"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -22716,16 +22719,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="124" t="s">
+      <c r="D208" s="139" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="125"/>
-      <c r="F208" s="125"/>
-      <c r="G208" s="125"/>
-      <c r="H208" s="125"/>
-      <c r="I208" s="125"/>
-      <c r="J208" s="125"/>
-      <c r="K208" s="126"/>
+      <c r="E208" s="140"/>
+      <c r="F208" s="140"/>
+      <c r="G208" s="140"/>
+      <c r="H208" s="140"/>
+      <c r="I208" s="140"/>
+      <c r="J208" s="140"/>
+      <c r="K208" s="141"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -22759,16 +22762,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="130" t="s">
+      <c r="D210" s="134" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="131"/>
-      <c r="F210" s="131"/>
-      <c r="G210" s="131"/>
-      <c r="H210" s="131"/>
-      <c r="I210" s="131"/>
-      <c r="J210" s="131"/>
-      <c r="K210" s="132"/>
+      <c r="E210" s="127"/>
+      <c r="F210" s="127"/>
+      <c r="G210" s="127"/>
+      <c r="H210" s="127"/>
+      <c r="I210" s="127"/>
+      <c r="J210" s="127"/>
+      <c r="K210" s="135"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -22837,16 +22840,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="124" t="s">
+      <c r="D214" s="139" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="125"/>
-      <c r="F214" s="125"/>
-      <c r="G214" s="125"/>
-      <c r="H214" s="125"/>
-      <c r="I214" s="125"/>
-      <c r="J214" s="125"/>
-      <c r="K214" s="126"/>
+      <c r="E214" s="140"/>
+      <c r="F214" s="140"/>
+      <c r="G214" s="140"/>
+      <c r="H214" s="140"/>
+      <c r="I214" s="140"/>
+      <c r="J214" s="140"/>
+      <c r="K214" s="141"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -22877,16 +22880,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="144" t="s">
+      <c r="D216" s="132" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="136"/>
-      <c r="F216" s="136"/>
-      <c r="G216" s="136"/>
-      <c r="H216" s="136"/>
-      <c r="I216" s="136"/>
-      <c r="J216" s="136"/>
-      <c r="K216" s="145"/>
+      <c r="E216" s="124"/>
+      <c r="F216" s="124"/>
+      <c r="G216" s="124"/>
+      <c r="H216" s="124"/>
+      <c r="I216" s="124"/>
+      <c r="J216" s="124"/>
+      <c r="K216" s="133"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -22898,14 +22901,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="130"/>
-      <c r="E217" s="131"/>
-      <c r="F217" s="131"/>
-      <c r="G217" s="131"/>
-      <c r="H217" s="131"/>
-      <c r="I217" s="131"/>
-      <c r="J217" s="131"/>
-      <c r="K217" s="132"/>
+      <c r="D217" s="134"/>
+      <c r="E217" s="127"/>
+      <c r="F217" s="127"/>
+      <c r="G217" s="127"/>
+      <c r="H217" s="127"/>
+      <c r="I217" s="127"/>
+      <c r="J217" s="127"/>
+      <c r="K217" s="135"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -22917,16 +22920,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="144" t="s">
+      <c r="D218" s="132" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="136"/>
-      <c r="F218" s="136"/>
-      <c r="G218" s="136"/>
-      <c r="H218" s="136"/>
-      <c r="I218" s="136"/>
-      <c r="J218" s="136"/>
-      <c r="K218" s="145"/>
+      <c r="E218" s="124"/>
+      <c r="F218" s="124"/>
+      <c r="G218" s="124"/>
+      <c r="H218" s="124"/>
+      <c r="I218" s="124"/>
+      <c r="J218" s="124"/>
+      <c r="K218" s="133"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -22938,14 +22941,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="130"/>
-      <c r="E219" s="131"/>
-      <c r="F219" s="131"/>
-      <c r="G219" s="131"/>
-      <c r="H219" s="131"/>
-      <c r="I219" s="131"/>
-      <c r="J219" s="131"/>
-      <c r="K219" s="132"/>
+      <c r="D219" s="134"/>
+      <c r="E219" s="127"/>
+      <c r="F219" s="127"/>
+      <c r="G219" s="127"/>
+      <c r="H219" s="127"/>
+      <c r="I219" s="127"/>
+      <c r="J219" s="127"/>
+      <c r="K219" s="135"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -22957,16 +22960,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="144" t="s">
+      <c r="D220" s="132" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="136"/>
-      <c r="F220" s="136"/>
-      <c r="G220" s="136"/>
-      <c r="H220" s="136"/>
-      <c r="I220" s="136"/>
-      <c r="J220" s="136"/>
-      <c r="K220" s="145"/>
+      <c r="E220" s="124"/>
+      <c r="F220" s="124"/>
+      <c r="G220" s="124"/>
+      <c r="H220" s="124"/>
+      <c r="I220" s="124"/>
+      <c r="J220" s="124"/>
+      <c r="K220" s="133"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -22978,14 +22981,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="130"/>
-      <c r="E221" s="131"/>
-      <c r="F221" s="131"/>
-      <c r="G221" s="131"/>
-      <c r="H221" s="131"/>
-      <c r="I221" s="131"/>
-      <c r="J221" s="131"/>
-      <c r="K221" s="132"/>
+      <c r="D221" s="134"/>
+      <c r="E221" s="127"/>
+      <c r="F221" s="127"/>
+      <c r="G221" s="127"/>
+      <c r="H221" s="127"/>
+      <c r="I221" s="127"/>
+      <c r="J221" s="127"/>
+      <c r="K221" s="135"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -22997,16 +23000,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="124" t="s">
+      <c r="D222" s="139" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="125"/>
-      <c r="F222" s="125"/>
-      <c r="G222" s="125"/>
-      <c r="H222" s="125"/>
-      <c r="I222" s="125"/>
-      <c r="J222" s="125"/>
-      <c r="K222" s="126"/>
+      <c r="E222" s="140"/>
+      <c r="F222" s="140"/>
+      <c r="G222" s="140"/>
+      <c r="H222" s="140"/>
+      <c r="I222" s="140"/>
+      <c r="J222" s="140"/>
+      <c r="K222" s="141"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -23037,16 +23040,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="124" t="s">
+      <c r="D224" s="139" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="125"/>
-      <c r="F224" s="125"/>
-      <c r="G224" s="125"/>
-      <c r="H224" s="125"/>
-      <c r="I224" s="125"/>
-      <c r="J224" s="125"/>
-      <c r="K224" s="126"/>
+      <c r="E224" s="140"/>
+      <c r="F224" s="140"/>
+      <c r="G224" s="140"/>
+      <c r="H224" s="140"/>
+      <c r="I224" s="140"/>
+      <c r="J224" s="140"/>
+      <c r="K224" s="141"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -23080,16 +23083,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="150" t="s">
+      <c r="D226" s="142" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="151"/>
-      <c r="F226" s="151"/>
-      <c r="G226" s="151"/>
-      <c r="H226" s="151"/>
-      <c r="I226" s="151"/>
-      <c r="J226" s="151"/>
-      <c r="K226" s="152"/>
+      <c r="E226" s="143"/>
+      <c r="F226" s="143"/>
+      <c r="G226" s="143"/>
+      <c r="H226" s="143"/>
+      <c r="I226" s="143"/>
+      <c r="J226" s="143"/>
+      <c r="K226" s="144"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -23234,16 +23237,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="148" t="s">
+      <c r="D234" s="136" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="134"/>
-      <c r="F234" s="134"/>
-      <c r="G234" s="134"/>
-      <c r="H234" s="134"/>
-      <c r="I234" s="134"/>
-      <c r="J234" s="134"/>
-      <c r="K234" s="149"/>
+      <c r="E234" s="137"/>
+      <c r="F234" s="137"/>
+      <c r="G234" s="137"/>
+      <c r="H234" s="137"/>
+      <c r="I234" s="137"/>
+      <c r="J234" s="137"/>
+      <c r="K234" s="138"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -23312,16 +23315,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="140" t="s">
+      <c r="D238" s="123" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="136"/>
-      <c r="F238" s="136"/>
-      <c r="G238" s="136"/>
-      <c r="H238" s="136"/>
-      <c r="I238" s="136"/>
-      <c r="J238" s="136"/>
-      <c r="K238" s="137"/>
+      <c r="E238" s="124"/>
+      <c r="F238" s="124"/>
+      <c r="G238" s="124"/>
+      <c r="H238" s="124"/>
+      <c r="I238" s="124"/>
+      <c r="J238" s="124"/>
+      <c r="K238" s="125"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -23333,14 +23336,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="146"/>
-      <c r="E239" s="131"/>
-      <c r="F239" s="131"/>
-      <c r="G239" s="131"/>
-      <c r="H239" s="131"/>
-      <c r="I239" s="131"/>
-      <c r="J239" s="131"/>
-      <c r="K239" s="147"/>
+      <c r="D239" s="126"/>
+      <c r="E239" s="127"/>
+      <c r="F239" s="127"/>
+      <c r="G239" s="127"/>
+      <c r="H239" s="127"/>
+      <c r="I239" s="127"/>
+      <c r="J239" s="127"/>
+      <c r="K239" s="128"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -23352,16 +23355,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="136" t="s">
+      <c r="D240" s="124" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="136"/>
-      <c r="F240" s="136"/>
-      <c r="G240" s="136"/>
-      <c r="H240" s="136"/>
-      <c r="I240" s="136"/>
-      <c r="J240" s="136"/>
-      <c r="K240" s="137"/>
+      <c r="E240" s="124"/>
+      <c r="F240" s="124"/>
+      <c r="G240" s="124"/>
+      <c r="H240" s="124"/>
+      <c r="I240" s="124"/>
+      <c r="J240" s="124"/>
+      <c r="K240" s="125"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -23373,14 +23376,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="138"/>
-      <c r="E241" s="138"/>
-      <c r="F241" s="138"/>
-      <c r="G241" s="138"/>
-      <c r="H241" s="138"/>
-      <c r="I241" s="138"/>
-      <c r="J241" s="138"/>
-      <c r="K241" s="139"/>
+      <c r="D241" s="150"/>
+      <c r="E241" s="150"/>
+      <c r="F241" s="150"/>
+      <c r="G241" s="150"/>
+      <c r="H241" s="150"/>
+      <c r="I241" s="150"/>
+      <c r="J241" s="150"/>
+      <c r="K241" s="151"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -23571,16 +23574,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="133" t="s">
+      <c r="D250" s="148" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="134"/>
-      <c r="F250" s="134"/>
-      <c r="G250" s="134"/>
-      <c r="H250" s="134"/>
-      <c r="I250" s="134"/>
-      <c r="J250" s="134"/>
-      <c r="K250" s="135"/>
+      <c r="E250" s="137"/>
+      <c r="F250" s="137"/>
+      <c r="G250" s="137"/>
+      <c r="H250" s="137"/>
+      <c r="I250" s="137"/>
+      <c r="J250" s="137"/>
+      <c r="K250" s="149"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -24149,16 +24152,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="124" t="s">
+      <c r="D280" s="139" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="125"/>
-      <c r="F280" s="125"/>
-      <c r="G280" s="125"/>
-      <c r="H280" s="125"/>
-      <c r="I280" s="125"/>
-      <c r="J280" s="125"/>
-      <c r="K280" s="126"/>
+      <c r="E280" s="140"/>
+      <c r="F280" s="140"/>
+      <c r="G280" s="140"/>
+      <c r="H280" s="140"/>
+      <c r="I280" s="140"/>
+      <c r="J280" s="140"/>
+      <c r="K280" s="141"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -24265,16 +24268,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="124" t="s">
+      <c r="D286" s="139" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="125"/>
-      <c r="F286" s="125"/>
-      <c r="G286" s="125"/>
-      <c r="H286" s="125"/>
-      <c r="I286" s="125"/>
-      <c r="J286" s="125"/>
-      <c r="K286" s="126"/>
+      <c r="E286" s="140"/>
+      <c r="F286" s="140"/>
+      <c r="G286" s="140"/>
+      <c r="H286" s="140"/>
+      <c r="I286" s="140"/>
+      <c r="J286" s="140"/>
+      <c r="K286" s="141"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -24462,16 +24465,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="124" t="s">
+      <c r="D296" s="139" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="125"/>
-      <c r="F296" s="125"/>
-      <c r="G296" s="125"/>
-      <c r="H296" s="125"/>
-      <c r="I296" s="125"/>
-      <c r="J296" s="125"/>
-      <c r="K296" s="126"/>
+      <c r="E296" s="140"/>
+      <c r="F296" s="140"/>
+      <c r="G296" s="140"/>
+      <c r="H296" s="140"/>
+      <c r="I296" s="140"/>
+      <c r="J296" s="140"/>
+      <c r="K296" s="141"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -24502,16 +24505,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="140" t="s">
+      <c r="D298" s="123" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="136"/>
-      <c r="F298" s="136"/>
-      <c r="G298" s="136"/>
-      <c r="H298" s="136"/>
-      <c r="I298" s="136"/>
-      <c r="J298" s="136"/>
-      <c r="K298" s="137"/>
+      <c r="E298" s="124"/>
+      <c r="F298" s="124"/>
+      <c r="G298" s="124"/>
+      <c r="H298" s="124"/>
+      <c r="I298" s="124"/>
+      <c r="J298" s="124"/>
+      <c r="K298" s="125"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -24523,14 +24526,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="146"/>
-      <c r="E299" s="131"/>
-      <c r="F299" s="131"/>
-      <c r="G299" s="131"/>
-      <c r="H299" s="131"/>
-      <c r="I299" s="131"/>
-      <c r="J299" s="131"/>
-      <c r="K299" s="147"/>
+      <c r="D299" s="126"/>
+      <c r="E299" s="127"/>
+      <c r="F299" s="127"/>
+      <c r="G299" s="127"/>
+      <c r="H299" s="127"/>
+      <c r="I299" s="127"/>
+      <c r="J299" s="127"/>
+      <c r="K299" s="128"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -24542,16 +24545,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="140" t="s">
+      <c r="D300" s="123" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="136"/>
-      <c r="F300" s="136"/>
-      <c r="G300" s="136"/>
-      <c r="H300" s="136"/>
-      <c r="I300" s="136"/>
-      <c r="J300" s="136"/>
-      <c r="K300" s="137"/>
+      <c r="E300" s="124"/>
+      <c r="F300" s="124"/>
+      <c r="G300" s="124"/>
+      <c r="H300" s="124"/>
+      <c r="I300" s="124"/>
+      <c r="J300" s="124"/>
+      <c r="K300" s="125"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -24563,14 +24566,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="146"/>
-      <c r="E301" s="131"/>
-      <c r="F301" s="131"/>
-      <c r="G301" s="131"/>
-      <c r="H301" s="131"/>
-      <c r="I301" s="131"/>
-      <c r="J301" s="131"/>
-      <c r="K301" s="147"/>
+      <c r="D301" s="126"/>
+      <c r="E301" s="127"/>
+      <c r="F301" s="127"/>
+      <c r="G301" s="127"/>
+      <c r="H301" s="127"/>
+      <c r="I301" s="127"/>
+      <c r="J301" s="127"/>
+      <c r="K301" s="128"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -24582,16 +24585,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="140" t="s">
+      <c r="D302" s="123" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="136"/>
-      <c r="F302" s="136"/>
-      <c r="G302" s="136"/>
-      <c r="H302" s="136"/>
-      <c r="I302" s="136"/>
-      <c r="J302" s="136"/>
-      <c r="K302" s="137"/>
+      <c r="E302" s="124"/>
+      <c r="F302" s="124"/>
+      <c r="G302" s="124"/>
+      <c r="H302" s="124"/>
+      <c r="I302" s="124"/>
+      <c r="J302" s="124"/>
+      <c r="K302" s="125"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -24603,14 +24606,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="146"/>
-      <c r="E303" s="131"/>
-      <c r="F303" s="131"/>
-      <c r="G303" s="131"/>
-      <c r="H303" s="131"/>
-      <c r="I303" s="131"/>
-      <c r="J303" s="131"/>
-      <c r="K303" s="147"/>
+      <c r="D303" s="126"/>
+      <c r="E303" s="127"/>
+      <c r="F303" s="127"/>
+      <c r="G303" s="127"/>
+      <c r="H303" s="127"/>
+      <c r="I303" s="127"/>
+      <c r="J303" s="127"/>
+      <c r="K303" s="128"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -24622,16 +24625,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="140" t="s">
+      <c r="D304" s="123" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="136"/>
-      <c r="F304" s="136"/>
-      <c r="G304" s="136"/>
-      <c r="H304" s="136"/>
-      <c r="I304" s="136"/>
-      <c r="J304" s="136"/>
-      <c r="K304" s="137"/>
+      <c r="E304" s="124"/>
+      <c r="F304" s="124"/>
+      <c r="G304" s="124"/>
+      <c r="H304" s="124"/>
+      <c r="I304" s="124"/>
+      <c r="J304" s="124"/>
+      <c r="K304" s="125"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -24643,14 +24646,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="146"/>
-      <c r="E305" s="131"/>
-      <c r="F305" s="131"/>
-      <c r="G305" s="131"/>
-      <c r="H305" s="131"/>
-      <c r="I305" s="131"/>
-      <c r="J305" s="131"/>
-      <c r="K305" s="147"/>
+      <c r="D305" s="126"/>
+      <c r="E305" s="127"/>
+      <c r="F305" s="127"/>
+      <c r="G305" s="127"/>
+      <c r="H305" s="127"/>
+      <c r="I305" s="127"/>
+      <c r="J305" s="127"/>
+      <c r="K305" s="128"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -24665,16 +24668,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="140" t="s">
+      <c r="D306" s="123" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="136"/>
-      <c r="F306" s="136"/>
-      <c r="G306" s="136"/>
-      <c r="H306" s="136"/>
-      <c r="I306" s="136"/>
-      <c r="J306" s="136"/>
-      <c r="K306" s="137"/>
+      <c r="E306" s="124"/>
+      <c r="F306" s="124"/>
+      <c r="G306" s="124"/>
+      <c r="H306" s="124"/>
+      <c r="I306" s="124"/>
+      <c r="J306" s="124"/>
+      <c r="K306" s="125"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -24686,14 +24689,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="146"/>
-      <c r="E307" s="131"/>
-      <c r="F307" s="131"/>
-      <c r="G307" s="131"/>
-      <c r="H307" s="131"/>
-      <c r="I307" s="131"/>
-      <c r="J307" s="131"/>
-      <c r="K307" s="147"/>
+      <c r="D307" s="126"/>
+      <c r="E307" s="127"/>
+      <c r="F307" s="127"/>
+      <c r="G307" s="127"/>
+      <c r="H307" s="127"/>
+      <c r="I307" s="127"/>
+      <c r="J307" s="127"/>
+      <c r="K307" s="128"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -24705,16 +24708,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="140" t="s">
+      <c r="D308" s="123" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="136"/>
-      <c r="F308" s="136"/>
-      <c r="G308" s="136"/>
-      <c r="H308" s="136"/>
-      <c r="I308" s="136"/>
-      <c r="J308" s="136"/>
-      <c r="K308" s="137"/>
+      <c r="E308" s="124"/>
+      <c r="F308" s="124"/>
+      <c r="G308" s="124"/>
+      <c r="H308" s="124"/>
+      <c r="I308" s="124"/>
+      <c r="J308" s="124"/>
+      <c r="K308" s="125"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -24726,14 +24729,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="146"/>
-      <c r="E309" s="131"/>
-      <c r="F309" s="131"/>
-      <c r="G309" s="131"/>
-      <c r="H309" s="131"/>
-      <c r="I309" s="131"/>
-      <c r="J309" s="131"/>
-      <c r="K309" s="147"/>
+      <c r="D309" s="126"/>
+      <c r="E309" s="127"/>
+      <c r="F309" s="127"/>
+      <c r="G309" s="127"/>
+      <c r="H309" s="127"/>
+      <c r="I309" s="127"/>
+      <c r="J309" s="127"/>
+      <c r="K309" s="128"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -28613,12 +28616,29 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="D214:K214"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="D202:K202"/>
     <mergeCell ref="D280:K280"/>
     <mergeCell ref="D286:K286"/>
     <mergeCell ref="D296:K296"/>
@@ -28635,29 +28655,12 @@
     <mergeCell ref="D250:K250"/>
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="D214:K214"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D200:K200"/>
-    <mergeCell ref="D202:K202"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape"/>

--- a/data/Switches.xlsx
+++ b/data/Switches.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="437">
   <si>
     <t>ID</t>
   </si>
@@ -1289,6 +1289,45 @@
   </si>
   <si>
     <t>Great Wall Hidden DS</t>
+  </si>
+  <si>
+    <t>Statue 1 Required</t>
+  </si>
+  <si>
+    <t>Statue 2 Required</t>
+  </si>
+  <si>
+    <t>Statue 3 Required</t>
+  </si>
+  <si>
+    <t>Statue 4 Required</t>
+  </si>
+  <si>
+    <t>Statue 5 Required</t>
+  </si>
+  <si>
+    <t>Statue 6 Required</t>
+  </si>
+  <si>
+    <t>Kara Location (01 = Ed's, 02 = Mine, 03 = Angel, 04 = Kress, 05 = Ankor Wat)</t>
+  </si>
+  <si>
+    <t>Hieroglyph Order 6</t>
+  </si>
+  <si>
+    <t>Hieroglyph Order 1</t>
+  </si>
+  <si>
+    <t>Hieroglyph Order 2</t>
+  </si>
+  <si>
+    <t>Hieroglyph Order 3</t>
+  </si>
+  <si>
+    <t>Hieroglyph Order 4</t>
+  </si>
+  <si>
+    <t>Hieroglyph Order 5</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -2024,6 +2063,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2031,7 +2096,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2395,7 +2460,49 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2404,13 +2511,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2428,28 +2535,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2470,28 +2565,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="50" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2804,8 +2905,8 @@
   <dimension ref="A1:O513"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2878,16 +2979,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="139"/>
       <c r="L2" s="119" t="s">
         <v>7</v>
       </c>
@@ -2905,14 +3006,14 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="131"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="145"/>
       <c r="L3" s="119" t="s">
         <v>8</v>
       </c>
@@ -5845,14 +5946,14 @@
         <v>A54</v>
       </c>
       <c r="C86" s="13"/>
-      <c r="D86" s="48"/>
+      <c r="D86" s="124"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
-      <c r="G86" s="22"/>
+      <c r="G86" s="123"/>
       <c r="H86" s="49"/>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
-      <c r="K86" s="22"/>
+      <c r="K86" s="123"/>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="12">
@@ -5864,14 +5965,14 @@
         <v>A55</v>
       </c>
       <c r="C87" s="13"/>
-      <c r="D87" s="48"/>
+      <c r="D87" s="124"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
-      <c r="G87" s="22"/>
+      <c r="G87" s="123"/>
       <c r="H87" s="49"/>
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
-      <c r="K87" s="22"/>
+      <c r="K87" s="123"/>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="12">
@@ -5883,14 +5984,14 @@
         <v>A56</v>
       </c>
       <c r="C88" s="13"/>
-      <c r="D88" s="48"/>
+      <c r="D88" s="124"/>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
-      <c r="G88" s="22"/>
+      <c r="G88" s="123"/>
       <c r="H88" s="49"/>
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
-      <c r="K88" s="22"/>
+      <c r="K88" s="123"/>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="12">
@@ -5902,14 +6003,14 @@
         <v>A57</v>
       </c>
       <c r="C89" s="13"/>
-      <c r="D89" s="48"/>
+      <c r="D89" s="124"/>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
-      <c r="G89" s="22"/>
+      <c r="G89" s="123"/>
       <c r="H89" s="49"/>
       <c r="I89" s="12"/>
       <c r="J89" s="12"/>
-      <c r="K89" s="22"/>
+      <c r="K89" s="123"/>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="12">
@@ -5921,14 +6022,16 @@
         <v>A58</v>
       </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="49"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="22"/>
+      <c r="D90" s="158" t="s">
+        <v>432</v>
+      </c>
+      <c r="E90" s="159"/>
+      <c r="F90" s="159"/>
+      <c r="G90" s="159"/>
+      <c r="H90" s="159"/>
+      <c r="I90" s="159"/>
+      <c r="J90" s="159"/>
+      <c r="K90" s="160"/>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="12">
@@ -5940,14 +6043,16 @@
         <v>A59</v>
       </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="49"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="22"/>
+      <c r="D91" s="158" t="s">
+        <v>433</v>
+      </c>
+      <c r="E91" s="159"/>
+      <c r="F91" s="159"/>
+      <c r="G91" s="159"/>
+      <c r="H91" s="159"/>
+      <c r="I91" s="159"/>
+      <c r="J91" s="159"/>
+      <c r="K91" s="160"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="12">
@@ -5959,14 +6064,16 @@
         <v>A5A</v>
       </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="22"/>
+      <c r="D92" s="158" t="s">
+        <v>434</v>
+      </c>
+      <c r="E92" s="159"/>
+      <c r="F92" s="159"/>
+      <c r="G92" s="159"/>
+      <c r="H92" s="159"/>
+      <c r="I92" s="159"/>
+      <c r="J92" s="159"/>
+      <c r="K92" s="160"/>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="12">
@@ -5978,14 +6085,16 @@
         <v>A5B</v>
       </c>
       <c r="C93" s="13"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="49"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="22"/>
+      <c r="D93" s="161" t="s">
+        <v>435</v>
+      </c>
+      <c r="E93" s="162"/>
+      <c r="F93" s="162"/>
+      <c r="G93" s="162"/>
+      <c r="H93" s="162"/>
+      <c r="I93" s="162"/>
+      <c r="J93" s="162"/>
+      <c r="K93" s="163"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="12">
@@ -5997,14 +6106,16 @@
         <v>A5C</v>
       </c>
       <c r="C94" s="13"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="49"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="22"/>
+      <c r="D94" s="161" t="s">
+        <v>436</v>
+      </c>
+      <c r="E94" s="162"/>
+      <c r="F94" s="162"/>
+      <c r="G94" s="162"/>
+      <c r="H94" s="162"/>
+      <c r="I94" s="162"/>
+      <c r="J94" s="162"/>
+      <c r="K94" s="163"/>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="12">
@@ -6016,14 +6127,16 @@
         <v>A5D</v>
       </c>
       <c r="C95" s="13"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="49"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="22"/>
+      <c r="D95" s="161" t="s">
+        <v>431</v>
+      </c>
+      <c r="E95" s="162"/>
+      <c r="F95" s="162"/>
+      <c r="G95" s="162"/>
+      <c r="H95" s="162"/>
+      <c r="I95" s="162"/>
+      <c r="J95" s="162"/>
+      <c r="K95" s="163"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="12">
@@ -6035,14 +6148,16 @@
         <v>A5E</v>
       </c>
       <c r="C96" s="13"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="49"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="22"/>
+      <c r="D96" s="158" t="s">
+        <v>430</v>
+      </c>
+      <c r="E96" s="159"/>
+      <c r="F96" s="159"/>
+      <c r="G96" s="159"/>
+      <c r="H96" s="159"/>
+      <c r="I96" s="159"/>
+      <c r="J96" s="159"/>
+      <c r="K96" s="160"/>
     </row>
     <row r="97" spans="1:14" s="1" customFormat="1">
       <c r="A97" s="32">
@@ -6054,14 +6169,26 @@
         <v>A5F</v>
       </c>
       <c r="C97" s="33"/>
-      <c r="D97" s="50"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="32"/>
-      <c r="G97" s="51"/>
-      <c r="H97" s="52"/>
-      <c r="I97" s="32"/>
-      <c r="J97" s="32"/>
-      <c r="K97" s="51"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="164"/>
+      <c r="F97" s="165" t="s">
+        <v>429</v>
+      </c>
+      <c r="G97" s="165" t="s">
+        <v>428</v>
+      </c>
+      <c r="H97" s="166" t="s">
+        <v>427</v>
+      </c>
+      <c r="I97" s="165" t="s">
+        <v>426</v>
+      </c>
+      <c r="J97" s="165" t="s">
+        <v>425</v>
+      </c>
+      <c r="K97" s="167" t="s">
+        <v>424</v>
+      </c>
       <c r="L97" s="57"/>
       <c r="M97" s="58"/>
       <c r="N97" s="58"/>
@@ -6088,7 +6215,7 @@
         <f t="shared" si="7"/>
         <v>Room reward 5</v>
       </c>
-      <c r="G98" s="59" t="str">
+      <c r="G98" s="60" t="str">
         <f t="shared" si="7"/>
         <v>Room reward 4</v>
       </c>
@@ -8969,16 +9096,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="155" t="s">
+      <c r="D168" s="125" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="155"/>
-      <c r="F168" s="155"/>
-      <c r="G168" s="155"/>
-      <c r="H168" s="155"/>
-      <c r="I168" s="155"/>
-      <c r="J168" s="155"/>
-      <c r="K168" s="155"/>
+      <c r="E168" s="125"/>
+      <c r="F168" s="125"/>
+      <c r="G168" s="125"/>
+      <c r="H168" s="125"/>
+      <c r="I168" s="125"/>
+      <c r="J168" s="125"/>
+      <c r="K168" s="125"/>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="12">
@@ -9085,16 +9212,16 @@
         <v>AAC</v>
       </c>
       <c r="C174" s="13"/>
-      <c r="D174" s="155" t="s">
+      <c r="D174" s="125" t="s">
         <v>349</v>
       </c>
-      <c r="E174" s="155"/>
-      <c r="F174" s="155"/>
-      <c r="G174" s="155"/>
-      <c r="H174" s="155"/>
-      <c r="I174" s="155"/>
-      <c r="J174" s="155"/>
-      <c r="K174" s="155"/>
+      <c r="E174" s="125"/>
+      <c r="F174" s="125"/>
+      <c r="G174" s="125"/>
+      <c r="H174" s="125"/>
+      <c r="I174" s="125"/>
+      <c r="J174" s="125"/>
+      <c r="K174" s="125"/>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="12">
@@ -9106,16 +9233,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="155" t="s">
+      <c r="D175" s="125" t="s">
         <v>349</v>
       </c>
-      <c r="E175" s="155"/>
-      <c r="F175" s="155"/>
-      <c r="G175" s="155"/>
-      <c r="H175" s="155"/>
-      <c r="I175" s="155"/>
-      <c r="J175" s="155"/>
-      <c r="K175" s="155"/>
+      <c r="E175" s="125"/>
+      <c r="F175" s="125"/>
+      <c r="G175" s="125"/>
+      <c r="H175" s="125"/>
+      <c r="I175" s="125"/>
+      <c r="J175" s="125"/>
+      <c r="K175" s="125"/>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="12">
@@ -9168,16 +9295,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="155" t="s">
+      <c r="D178" s="125" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="155"/>
-      <c r="F178" s="155"/>
-      <c r="G178" s="155"/>
-      <c r="H178" s="155"/>
-      <c r="I178" s="155"/>
-      <c r="J178" s="155"/>
-      <c r="K178" s="155"/>
+      <c r="E178" s="125"/>
+      <c r="F178" s="125"/>
+      <c r="G178" s="125"/>
+      <c r="H178" s="125"/>
+      <c r="I178" s="125"/>
+      <c r="J178" s="125"/>
+      <c r="K178" s="125"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -9246,16 +9373,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="139" t="s">
+      <c r="D182" s="126" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="140"/>
-      <c r="F182" s="140"/>
-      <c r="G182" s="140"/>
-      <c r="H182" s="140"/>
-      <c r="I182" s="140"/>
-      <c r="J182" s="140"/>
-      <c r="K182" s="141"/>
+      <c r="E182" s="127"/>
+      <c r="F182" s="127"/>
+      <c r="G182" s="127"/>
+      <c r="H182" s="127"/>
+      <c r="I182" s="127"/>
+      <c r="J182" s="127"/>
+      <c r="K182" s="128"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -9267,16 +9394,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="139" t="s">
+      <c r="D183" s="126" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="140"/>
-      <c r="F183" s="140"/>
-      <c r="G183" s="140"/>
-      <c r="H183" s="140"/>
-      <c r="I183" s="140"/>
-      <c r="J183" s="140"/>
-      <c r="K183" s="141"/>
+      <c r="E183" s="127"/>
+      <c r="F183" s="127"/>
+      <c r="G183" s="127"/>
+      <c r="H183" s="127"/>
+      <c r="I183" s="127"/>
+      <c r="J183" s="127"/>
+      <c r="K183" s="128"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -9288,16 +9415,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="139" t="s">
+      <c r="D184" s="126" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="140"/>
-      <c r="F184" s="140"/>
-      <c r="G184" s="140"/>
-      <c r="H184" s="140"/>
-      <c r="I184" s="140"/>
-      <c r="J184" s="140"/>
-      <c r="K184" s="141"/>
+      <c r="E184" s="127"/>
+      <c r="F184" s="127"/>
+      <c r="G184" s="127"/>
+      <c r="H184" s="127"/>
+      <c r="I184" s="127"/>
+      <c r="J184" s="127"/>
+      <c r="K184" s="128"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -9309,16 +9436,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="139" t="s">
+      <c r="D185" s="126" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="140"/>
-      <c r="F185" s="140"/>
-      <c r="G185" s="140"/>
-      <c r="H185" s="140"/>
-      <c r="I185" s="140"/>
-      <c r="J185" s="140"/>
-      <c r="K185" s="141"/>
+      <c r="E185" s="127"/>
+      <c r="F185" s="127"/>
+      <c r="G185" s="127"/>
+      <c r="H185" s="127"/>
+      <c r="I185" s="127"/>
+      <c r="J185" s="127"/>
+      <c r="K185" s="128"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -9330,16 +9457,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="139" t="s">
+      <c r="D186" s="126" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="140"/>
-      <c r="F186" s="140"/>
-      <c r="G186" s="140"/>
-      <c r="H186" s="140"/>
-      <c r="I186" s="140"/>
-      <c r="J186" s="140"/>
-      <c r="K186" s="141"/>
+      <c r="E186" s="127"/>
+      <c r="F186" s="127"/>
+      <c r="G186" s="127"/>
+      <c r="H186" s="127"/>
+      <c r="I186" s="127"/>
+      <c r="J186" s="127"/>
+      <c r="K186" s="128"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -9351,16 +9478,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="139" t="s">
+      <c r="D187" s="126" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="140"/>
-      <c r="F187" s="140"/>
-      <c r="G187" s="140"/>
-      <c r="H187" s="140"/>
-      <c r="I187" s="140"/>
-      <c r="J187" s="140"/>
-      <c r="K187" s="141"/>
+      <c r="E187" s="127"/>
+      <c r="F187" s="127"/>
+      <c r="G187" s="127"/>
+      <c r="H187" s="127"/>
+      <c r="I187" s="127"/>
+      <c r="J187" s="127"/>
+      <c r="K187" s="128"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -9372,16 +9499,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="139" t="s">
+      <c r="D188" s="126" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="140"/>
-      <c r="F188" s="140"/>
-      <c r="G188" s="140"/>
-      <c r="H188" s="140"/>
-      <c r="I188" s="140"/>
-      <c r="J188" s="140"/>
-      <c r="K188" s="141"/>
+      <c r="E188" s="127"/>
+      <c r="F188" s="127"/>
+      <c r="G188" s="127"/>
+      <c r="H188" s="127"/>
+      <c r="I188" s="127"/>
+      <c r="J188" s="127"/>
+      <c r="K188" s="128"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -9393,16 +9520,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="139" t="s">
+      <c r="D189" s="126" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="140"/>
-      <c r="F189" s="140"/>
-      <c r="G189" s="140"/>
-      <c r="H189" s="140"/>
-      <c r="I189" s="140"/>
-      <c r="J189" s="140"/>
-      <c r="K189" s="141"/>
+      <c r="E189" s="127"/>
+      <c r="F189" s="127"/>
+      <c r="G189" s="127"/>
+      <c r="H189" s="127"/>
+      <c r="I189" s="127"/>
+      <c r="J189" s="127"/>
+      <c r="K189" s="128"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -9414,16 +9541,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="139" t="s">
+      <c r="D190" s="126" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="140"/>
-      <c r="F190" s="140"/>
-      <c r="G190" s="140"/>
-      <c r="H190" s="140"/>
-      <c r="I190" s="140"/>
-      <c r="J190" s="140"/>
-      <c r="K190" s="141"/>
+      <c r="E190" s="127"/>
+      <c r="F190" s="127"/>
+      <c r="G190" s="127"/>
+      <c r="H190" s="127"/>
+      <c r="I190" s="127"/>
+      <c r="J190" s="127"/>
+      <c r="K190" s="128"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -9435,16 +9562,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="139" t="s">
+      <c r="D191" s="126" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="140"/>
-      <c r="F191" s="140"/>
-      <c r="G191" s="140"/>
-      <c r="H191" s="140"/>
-      <c r="I191" s="140"/>
-      <c r="J191" s="140"/>
-      <c r="K191" s="141"/>
+      <c r="E191" s="127"/>
+      <c r="F191" s="127"/>
+      <c r="G191" s="127"/>
+      <c r="H191" s="127"/>
+      <c r="I191" s="127"/>
+      <c r="J191" s="127"/>
+      <c r="K191" s="128"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -9456,16 +9583,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="139" t="s">
+      <c r="D192" s="126" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="140"/>
-      <c r="F192" s="140"/>
-      <c r="G192" s="140"/>
-      <c r="H192" s="140"/>
-      <c r="I192" s="140"/>
-      <c r="J192" s="140"/>
-      <c r="K192" s="141"/>
+      <c r="E192" s="127"/>
+      <c r="F192" s="127"/>
+      <c r="G192" s="127"/>
+      <c r="H192" s="127"/>
+      <c r="I192" s="127"/>
+      <c r="J192" s="127"/>
+      <c r="K192" s="128"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -9477,16 +9604,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="152" t="s">
+      <c r="D193" s="129" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="153"/>
-      <c r="F193" s="153"/>
-      <c r="G193" s="153"/>
-      <c r="H193" s="153"/>
-      <c r="I193" s="153"/>
-      <c r="J193" s="153"/>
-      <c r="K193" s="154"/>
+      <c r="E193" s="130"/>
+      <c r="F193" s="130"/>
+      <c r="G193" s="130"/>
+      <c r="H193" s="130"/>
+      <c r="I193" s="130"/>
+      <c r="J193" s="130"/>
+      <c r="K193" s="131"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -9501,16 +9628,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="134" t="s">
+      <c r="D194" s="132" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="127"/>
-      <c r="F194" s="127"/>
-      <c r="G194" s="127"/>
-      <c r="H194" s="127"/>
-      <c r="I194" s="127"/>
-      <c r="J194" s="127"/>
-      <c r="K194" s="135"/>
+      <c r="E194" s="133"/>
+      <c r="F194" s="133"/>
+      <c r="G194" s="133"/>
+      <c r="H194" s="133"/>
+      <c r="I194" s="133"/>
+      <c r="J194" s="133"/>
+      <c r="K194" s="134"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -9522,16 +9649,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="139" t="s">
+      <c r="D195" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="140"/>
-      <c r="F195" s="140"/>
-      <c r="G195" s="140"/>
-      <c r="H195" s="140"/>
-      <c r="I195" s="140"/>
-      <c r="J195" s="140"/>
-      <c r="K195" s="141"/>
+      <c r="E195" s="127"/>
+      <c r="F195" s="127"/>
+      <c r="G195" s="127"/>
+      <c r="H195" s="127"/>
+      <c r="I195" s="127"/>
+      <c r="J195" s="127"/>
+      <c r="K195" s="128"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -9543,16 +9670,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="139" t="s">
+      <c r="D196" s="126" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="140"/>
-      <c r="F196" s="140"/>
-      <c r="G196" s="140"/>
-      <c r="H196" s="140"/>
-      <c r="I196" s="140"/>
-      <c r="J196" s="140"/>
-      <c r="K196" s="141"/>
+      <c r="E196" s="127"/>
+      <c r="F196" s="127"/>
+      <c r="G196" s="127"/>
+      <c r="H196" s="127"/>
+      <c r="I196" s="127"/>
+      <c r="J196" s="127"/>
+      <c r="K196" s="128"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -9564,16 +9691,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="139" t="s">
+      <c r="D197" s="126" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="140"/>
-      <c r="F197" s="140"/>
-      <c r="G197" s="140"/>
-      <c r="H197" s="140"/>
-      <c r="I197" s="140"/>
-      <c r="J197" s="140"/>
-      <c r="K197" s="141"/>
+      <c r="E197" s="127"/>
+      <c r="F197" s="127"/>
+      <c r="G197" s="127"/>
+      <c r="H197" s="127"/>
+      <c r="I197" s="127"/>
+      <c r="J197" s="127"/>
+      <c r="K197" s="128"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -9585,16 +9712,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="139" t="s">
+      <c r="D198" s="126" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="140"/>
-      <c r="F198" s="140"/>
-      <c r="G198" s="140"/>
-      <c r="H198" s="140"/>
-      <c r="I198" s="140"/>
-      <c r="J198" s="140"/>
-      <c r="K198" s="141"/>
+      <c r="E198" s="127"/>
+      <c r="F198" s="127"/>
+      <c r="G198" s="127"/>
+      <c r="H198" s="127"/>
+      <c r="I198" s="127"/>
+      <c r="J198" s="127"/>
+      <c r="K198" s="128"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -9625,16 +9752,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="139" t="s">
+      <c r="D200" s="126" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="140"/>
-      <c r="F200" s="140"/>
-      <c r="G200" s="140"/>
-      <c r="H200" s="140"/>
-      <c r="I200" s="140"/>
-      <c r="J200" s="140"/>
-      <c r="K200" s="141"/>
+      <c r="E200" s="127"/>
+      <c r="F200" s="127"/>
+      <c r="G200" s="127"/>
+      <c r="H200" s="127"/>
+      <c r="I200" s="127"/>
+      <c r="J200" s="127"/>
+      <c r="K200" s="128"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -9665,16 +9792,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="145" t="s">
+      <c r="D202" s="155" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="146"/>
-      <c r="F202" s="146"/>
-      <c r="G202" s="146"/>
-      <c r="H202" s="146"/>
-      <c r="I202" s="146"/>
-      <c r="J202" s="146"/>
-      <c r="K202" s="147"/>
+      <c r="E202" s="156"/>
+      <c r="F202" s="156"/>
+      <c r="G202" s="156"/>
+      <c r="H202" s="156"/>
+      <c r="I202" s="156"/>
+      <c r="J202" s="156"/>
+      <c r="K202" s="157"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -9705,16 +9832,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="139" t="s">
+      <c r="D204" s="126" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="140"/>
-      <c r="F204" s="140"/>
-      <c r="G204" s="140"/>
-      <c r="H204" s="140"/>
-      <c r="I204" s="140"/>
-      <c r="J204" s="140"/>
-      <c r="K204" s="141"/>
+      <c r="E204" s="127"/>
+      <c r="F204" s="127"/>
+      <c r="G204" s="127"/>
+      <c r="H204" s="127"/>
+      <c r="I204" s="127"/>
+      <c r="J204" s="127"/>
+      <c r="K204" s="128"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -9745,16 +9872,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="139" t="s">
+      <c r="D206" s="126" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="140"/>
-      <c r="F206" s="140"/>
-      <c r="G206" s="140"/>
-      <c r="H206" s="140"/>
-      <c r="I206" s="140"/>
-      <c r="J206" s="140"/>
-      <c r="K206" s="141"/>
+      <c r="E206" s="127"/>
+      <c r="F206" s="127"/>
+      <c r="G206" s="127"/>
+      <c r="H206" s="127"/>
+      <c r="I206" s="127"/>
+      <c r="J206" s="127"/>
+      <c r="K206" s="128"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -9785,16 +9912,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="139" t="s">
+      <c r="D208" s="126" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="140"/>
-      <c r="F208" s="140"/>
-      <c r="G208" s="140"/>
-      <c r="H208" s="140"/>
-      <c r="I208" s="140"/>
-      <c r="J208" s="140"/>
-      <c r="K208" s="141"/>
+      <c r="E208" s="127"/>
+      <c r="F208" s="127"/>
+      <c r="G208" s="127"/>
+      <c r="H208" s="127"/>
+      <c r="I208" s="127"/>
+      <c r="J208" s="127"/>
+      <c r="K208" s="128"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -9828,16 +9955,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="134" t="s">
+      <c r="D210" s="132" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="127"/>
-      <c r="F210" s="127"/>
-      <c r="G210" s="127"/>
-      <c r="H210" s="127"/>
-      <c r="I210" s="127"/>
-      <c r="J210" s="127"/>
-      <c r="K210" s="135"/>
+      <c r="E210" s="133"/>
+      <c r="F210" s="133"/>
+      <c r="G210" s="133"/>
+      <c r="H210" s="133"/>
+      <c r="I210" s="133"/>
+      <c r="J210" s="133"/>
+      <c r="K210" s="134"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -9906,16 +10033,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="139" t="s">
+      <c r="D214" s="126" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="140"/>
-      <c r="F214" s="140"/>
-      <c r="G214" s="140"/>
-      <c r="H214" s="140"/>
-      <c r="I214" s="140"/>
-      <c r="J214" s="140"/>
-      <c r="K214" s="141"/>
+      <c r="E214" s="127"/>
+      <c r="F214" s="127"/>
+      <c r="G214" s="127"/>
+      <c r="H214" s="127"/>
+      <c r="I214" s="127"/>
+      <c r="J214" s="127"/>
+      <c r="K214" s="128"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -9946,16 +10073,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="132" t="s">
+      <c r="D216" s="146" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="124"/>
-      <c r="F216" s="124"/>
-      <c r="G216" s="124"/>
-      <c r="H216" s="124"/>
-      <c r="I216" s="124"/>
-      <c r="J216" s="124"/>
-      <c r="K216" s="133"/>
+      <c r="E216" s="138"/>
+      <c r="F216" s="138"/>
+      <c r="G216" s="138"/>
+      <c r="H216" s="138"/>
+      <c r="I216" s="138"/>
+      <c r="J216" s="138"/>
+      <c r="K216" s="147"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -9967,14 +10094,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="134"/>
-      <c r="E217" s="127"/>
-      <c r="F217" s="127"/>
-      <c r="G217" s="127"/>
-      <c r="H217" s="127"/>
-      <c r="I217" s="127"/>
-      <c r="J217" s="127"/>
-      <c r="K217" s="135"/>
+      <c r="D217" s="132"/>
+      <c r="E217" s="133"/>
+      <c r="F217" s="133"/>
+      <c r="G217" s="133"/>
+      <c r="H217" s="133"/>
+      <c r="I217" s="133"/>
+      <c r="J217" s="133"/>
+      <c r="K217" s="134"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -9986,16 +10113,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="132" t="s">
+      <c r="D218" s="146" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="124"/>
-      <c r="F218" s="124"/>
-      <c r="G218" s="124"/>
-      <c r="H218" s="124"/>
-      <c r="I218" s="124"/>
-      <c r="J218" s="124"/>
-      <c r="K218" s="133"/>
+      <c r="E218" s="138"/>
+      <c r="F218" s="138"/>
+      <c r="G218" s="138"/>
+      <c r="H218" s="138"/>
+      <c r="I218" s="138"/>
+      <c r="J218" s="138"/>
+      <c r="K218" s="147"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -10007,14 +10134,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="134"/>
-      <c r="E219" s="127"/>
-      <c r="F219" s="127"/>
-      <c r="G219" s="127"/>
-      <c r="H219" s="127"/>
-      <c r="I219" s="127"/>
-      <c r="J219" s="127"/>
-      <c r="K219" s="135"/>
+      <c r="D219" s="132"/>
+      <c r="E219" s="133"/>
+      <c r="F219" s="133"/>
+      <c r="G219" s="133"/>
+      <c r="H219" s="133"/>
+      <c r="I219" s="133"/>
+      <c r="J219" s="133"/>
+      <c r="K219" s="134"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -10026,16 +10153,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="132" t="s">
+      <c r="D220" s="146" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="124"/>
-      <c r="F220" s="124"/>
-      <c r="G220" s="124"/>
-      <c r="H220" s="124"/>
-      <c r="I220" s="124"/>
-      <c r="J220" s="124"/>
-      <c r="K220" s="133"/>
+      <c r="E220" s="138"/>
+      <c r="F220" s="138"/>
+      <c r="G220" s="138"/>
+      <c r="H220" s="138"/>
+      <c r="I220" s="138"/>
+      <c r="J220" s="138"/>
+      <c r="K220" s="147"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -10047,14 +10174,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="134"/>
-      <c r="E221" s="127"/>
-      <c r="F221" s="127"/>
-      <c r="G221" s="127"/>
-      <c r="H221" s="127"/>
-      <c r="I221" s="127"/>
-      <c r="J221" s="127"/>
-      <c r="K221" s="135"/>
+      <c r="D221" s="132"/>
+      <c r="E221" s="133"/>
+      <c r="F221" s="133"/>
+      <c r="G221" s="133"/>
+      <c r="H221" s="133"/>
+      <c r="I221" s="133"/>
+      <c r="J221" s="133"/>
+      <c r="K221" s="134"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -10066,16 +10193,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="139" t="s">
+      <c r="D222" s="126" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="140"/>
-      <c r="F222" s="140"/>
-      <c r="G222" s="140"/>
-      <c r="H222" s="140"/>
-      <c r="I222" s="140"/>
-      <c r="J222" s="140"/>
-      <c r="K222" s="141"/>
+      <c r="E222" s="127"/>
+      <c r="F222" s="127"/>
+      <c r="G222" s="127"/>
+      <c r="H222" s="127"/>
+      <c r="I222" s="127"/>
+      <c r="J222" s="127"/>
+      <c r="K222" s="128"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -10106,16 +10233,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="139" t="s">
+      <c r="D224" s="126" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="140"/>
-      <c r="F224" s="140"/>
-      <c r="G224" s="140"/>
-      <c r="H224" s="140"/>
-      <c r="I224" s="140"/>
-      <c r="J224" s="140"/>
-      <c r="K224" s="141"/>
+      <c r="E224" s="127"/>
+      <c r="F224" s="127"/>
+      <c r="G224" s="127"/>
+      <c r="H224" s="127"/>
+      <c r="I224" s="127"/>
+      <c r="J224" s="127"/>
+      <c r="K224" s="128"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -10149,16 +10276,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="142" t="s">
+      <c r="D226" s="152" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="143"/>
-      <c r="F226" s="143"/>
-      <c r="G226" s="143"/>
-      <c r="H226" s="143"/>
-      <c r="I226" s="143"/>
-      <c r="J226" s="143"/>
-      <c r="K226" s="144"/>
+      <c r="E226" s="153"/>
+      <c r="F226" s="153"/>
+      <c r="G226" s="153"/>
+      <c r="H226" s="153"/>
+      <c r="I226" s="153"/>
+      <c r="J226" s="153"/>
+      <c r="K226" s="154"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -10303,16 +10430,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="136" t="s">
+      <c r="D234" s="150" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="137"/>
-      <c r="F234" s="137"/>
-      <c r="G234" s="137"/>
-      <c r="H234" s="137"/>
-      <c r="I234" s="137"/>
-      <c r="J234" s="137"/>
-      <c r="K234" s="138"/>
+      <c r="E234" s="136"/>
+      <c r="F234" s="136"/>
+      <c r="G234" s="136"/>
+      <c r="H234" s="136"/>
+      <c r="I234" s="136"/>
+      <c r="J234" s="136"/>
+      <c r="K234" s="151"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -10381,16 +10508,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="123" t="s">
+      <c r="D238" s="142" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="124"/>
-      <c r="F238" s="124"/>
-      <c r="G238" s="124"/>
-      <c r="H238" s="124"/>
-      <c r="I238" s="124"/>
-      <c r="J238" s="124"/>
-      <c r="K238" s="125"/>
+      <c r="E238" s="138"/>
+      <c r="F238" s="138"/>
+      <c r="G238" s="138"/>
+      <c r="H238" s="138"/>
+      <c r="I238" s="138"/>
+      <c r="J238" s="138"/>
+      <c r="K238" s="139"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -10402,14 +10529,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="126"/>
-      <c r="E239" s="127"/>
-      <c r="F239" s="127"/>
-      <c r="G239" s="127"/>
-      <c r="H239" s="127"/>
-      <c r="I239" s="127"/>
-      <c r="J239" s="127"/>
-      <c r="K239" s="128"/>
+      <c r="D239" s="148"/>
+      <c r="E239" s="133"/>
+      <c r="F239" s="133"/>
+      <c r="G239" s="133"/>
+      <c r="H239" s="133"/>
+      <c r="I239" s="133"/>
+      <c r="J239" s="133"/>
+      <c r="K239" s="149"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -10421,16 +10548,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="124" t="s">
+      <c r="D240" s="138" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="124"/>
-      <c r="F240" s="124"/>
-      <c r="G240" s="124"/>
-      <c r="H240" s="124"/>
-      <c r="I240" s="124"/>
-      <c r="J240" s="124"/>
-      <c r="K240" s="125"/>
+      <c r="E240" s="138"/>
+      <c r="F240" s="138"/>
+      <c r="G240" s="138"/>
+      <c r="H240" s="138"/>
+      <c r="I240" s="138"/>
+      <c r="J240" s="138"/>
+      <c r="K240" s="139"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -10442,14 +10569,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="150"/>
-      <c r="E241" s="150"/>
-      <c r="F241" s="150"/>
-      <c r="G241" s="150"/>
-      <c r="H241" s="150"/>
-      <c r="I241" s="150"/>
-      <c r="J241" s="150"/>
-      <c r="K241" s="151"/>
+      <c r="D241" s="140"/>
+      <c r="E241" s="140"/>
+      <c r="F241" s="140"/>
+      <c r="G241" s="140"/>
+      <c r="H241" s="140"/>
+      <c r="I241" s="140"/>
+      <c r="J241" s="140"/>
+      <c r="K241" s="141"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -10640,16 +10767,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="148" t="s">
+      <c r="D250" s="135" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="137"/>
-      <c r="F250" s="137"/>
-      <c r="G250" s="137"/>
-      <c r="H250" s="137"/>
-      <c r="I250" s="137"/>
-      <c r="J250" s="137"/>
-      <c r="K250" s="149"/>
+      <c r="E250" s="136"/>
+      <c r="F250" s="136"/>
+      <c r="G250" s="136"/>
+      <c r="H250" s="136"/>
+      <c r="I250" s="136"/>
+      <c r="J250" s="136"/>
+      <c r="K250" s="137"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -11218,16 +11345,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="139" t="s">
+      <c r="D280" s="126" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="140"/>
-      <c r="F280" s="140"/>
-      <c r="G280" s="140"/>
-      <c r="H280" s="140"/>
-      <c r="I280" s="140"/>
-      <c r="J280" s="140"/>
-      <c r="K280" s="141"/>
+      <c r="E280" s="127"/>
+      <c r="F280" s="127"/>
+      <c r="G280" s="127"/>
+      <c r="H280" s="127"/>
+      <c r="I280" s="127"/>
+      <c r="J280" s="127"/>
+      <c r="K280" s="128"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -11334,16 +11461,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="139" t="s">
+      <c r="D286" s="126" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="140"/>
-      <c r="F286" s="140"/>
-      <c r="G286" s="140"/>
-      <c r="H286" s="140"/>
-      <c r="I286" s="140"/>
-      <c r="J286" s="140"/>
-      <c r="K286" s="141"/>
+      <c r="E286" s="127"/>
+      <c r="F286" s="127"/>
+      <c r="G286" s="127"/>
+      <c r="H286" s="127"/>
+      <c r="I286" s="127"/>
+      <c r="J286" s="127"/>
+      <c r="K286" s="128"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -11531,16 +11658,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="139" t="s">
+      <c r="D296" s="126" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="140"/>
-      <c r="F296" s="140"/>
-      <c r="G296" s="140"/>
-      <c r="H296" s="140"/>
-      <c r="I296" s="140"/>
-      <c r="J296" s="140"/>
-      <c r="K296" s="141"/>
+      <c r="E296" s="127"/>
+      <c r="F296" s="127"/>
+      <c r="G296" s="127"/>
+      <c r="H296" s="127"/>
+      <c r="I296" s="127"/>
+      <c r="J296" s="127"/>
+      <c r="K296" s="128"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -11571,16 +11698,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="123" t="s">
+      <c r="D298" s="142" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="124"/>
-      <c r="F298" s="124"/>
-      <c r="G298" s="124"/>
-      <c r="H298" s="124"/>
-      <c r="I298" s="124"/>
-      <c r="J298" s="124"/>
-      <c r="K298" s="125"/>
+      <c r="E298" s="138"/>
+      <c r="F298" s="138"/>
+      <c r="G298" s="138"/>
+      <c r="H298" s="138"/>
+      <c r="I298" s="138"/>
+      <c r="J298" s="138"/>
+      <c r="K298" s="139"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -11592,14 +11719,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="126"/>
-      <c r="E299" s="127"/>
-      <c r="F299" s="127"/>
-      <c r="G299" s="127"/>
-      <c r="H299" s="127"/>
-      <c r="I299" s="127"/>
-      <c r="J299" s="127"/>
-      <c r="K299" s="128"/>
+      <c r="D299" s="148"/>
+      <c r="E299" s="133"/>
+      <c r="F299" s="133"/>
+      <c r="G299" s="133"/>
+      <c r="H299" s="133"/>
+      <c r="I299" s="133"/>
+      <c r="J299" s="133"/>
+      <c r="K299" s="149"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -11611,16 +11738,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="123" t="s">
+      <c r="D300" s="142" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="124"/>
-      <c r="F300" s="124"/>
-      <c r="G300" s="124"/>
-      <c r="H300" s="124"/>
-      <c r="I300" s="124"/>
-      <c r="J300" s="124"/>
-      <c r="K300" s="125"/>
+      <c r="E300" s="138"/>
+      <c r="F300" s="138"/>
+      <c r="G300" s="138"/>
+      <c r="H300" s="138"/>
+      <c r="I300" s="138"/>
+      <c r="J300" s="138"/>
+      <c r="K300" s="139"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -11632,14 +11759,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="126"/>
-      <c r="E301" s="127"/>
-      <c r="F301" s="127"/>
-      <c r="G301" s="127"/>
-      <c r="H301" s="127"/>
-      <c r="I301" s="127"/>
-      <c r="J301" s="127"/>
-      <c r="K301" s="128"/>
+      <c r="D301" s="148"/>
+      <c r="E301" s="133"/>
+      <c r="F301" s="133"/>
+      <c r="G301" s="133"/>
+      <c r="H301" s="133"/>
+      <c r="I301" s="133"/>
+      <c r="J301" s="133"/>
+      <c r="K301" s="149"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -11651,16 +11778,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="123" t="s">
+      <c r="D302" s="142" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="124"/>
-      <c r="F302" s="124"/>
-      <c r="G302" s="124"/>
-      <c r="H302" s="124"/>
-      <c r="I302" s="124"/>
-      <c r="J302" s="124"/>
-      <c r="K302" s="125"/>
+      <c r="E302" s="138"/>
+      <c r="F302" s="138"/>
+      <c r="G302" s="138"/>
+      <c r="H302" s="138"/>
+      <c r="I302" s="138"/>
+      <c r="J302" s="138"/>
+      <c r="K302" s="139"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -11672,14 +11799,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="126"/>
-      <c r="E303" s="127"/>
-      <c r="F303" s="127"/>
-      <c r="G303" s="127"/>
-      <c r="H303" s="127"/>
-      <c r="I303" s="127"/>
-      <c r="J303" s="127"/>
-      <c r="K303" s="128"/>
+      <c r="D303" s="148"/>
+      <c r="E303" s="133"/>
+      <c r="F303" s="133"/>
+      <c r="G303" s="133"/>
+      <c r="H303" s="133"/>
+      <c r="I303" s="133"/>
+      <c r="J303" s="133"/>
+      <c r="K303" s="149"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -11691,16 +11818,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="123" t="s">
+      <c r="D304" s="142" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="124"/>
-      <c r="F304" s="124"/>
-      <c r="G304" s="124"/>
-      <c r="H304" s="124"/>
-      <c r="I304" s="124"/>
-      <c r="J304" s="124"/>
-      <c r="K304" s="125"/>
+      <c r="E304" s="138"/>
+      <c r="F304" s="138"/>
+      <c r="G304" s="138"/>
+      <c r="H304" s="138"/>
+      <c r="I304" s="138"/>
+      <c r="J304" s="138"/>
+      <c r="K304" s="139"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -11712,14 +11839,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="126"/>
-      <c r="E305" s="127"/>
-      <c r="F305" s="127"/>
-      <c r="G305" s="127"/>
-      <c r="H305" s="127"/>
-      <c r="I305" s="127"/>
-      <c r="J305" s="127"/>
-      <c r="K305" s="128"/>
+      <c r="D305" s="148"/>
+      <c r="E305" s="133"/>
+      <c r="F305" s="133"/>
+      <c r="G305" s="133"/>
+      <c r="H305" s="133"/>
+      <c r="I305" s="133"/>
+      <c r="J305" s="133"/>
+      <c r="K305" s="149"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -11734,16 +11861,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="123" t="s">
+      <c r="D306" s="142" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="124"/>
-      <c r="F306" s="124"/>
-      <c r="G306" s="124"/>
-      <c r="H306" s="124"/>
-      <c r="I306" s="124"/>
-      <c r="J306" s="124"/>
-      <c r="K306" s="125"/>
+      <c r="E306" s="138"/>
+      <c r="F306" s="138"/>
+      <c r="G306" s="138"/>
+      <c r="H306" s="138"/>
+      <c r="I306" s="138"/>
+      <c r="J306" s="138"/>
+      <c r="K306" s="139"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -11755,14 +11882,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="126"/>
-      <c r="E307" s="127"/>
-      <c r="F307" s="127"/>
-      <c r="G307" s="127"/>
-      <c r="H307" s="127"/>
-      <c r="I307" s="127"/>
-      <c r="J307" s="127"/>
-      <c r="K307" s="128"/>
+      <c r="D307" s="148"/>
+      <c r="E307" s="133"/>
+      <c r="F307" s="133"/>
+      <c r="G307" s="133"/>
+      <c r="H307" s="133"/>
+      <c r="I307" s="133"/>
+      <c r="J307" s="133"/>
+      <c r="K307" s="149"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -11774,16 +11901,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="123" t="s">
+      <c r="D308" s="142" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="124"/>
-      <c r="F308" s="124"/>
-      <c r="G308" s="124"/>
-      <c r="H308" s="124"/>
-      <c r="I308" s="124"/>
-      <c r="J308" s="124"/>
-      <c r="K308" s="125"/>
+      <c r="E308" s="138"/>
+      <c r="F308" s="138"/>
+      <c r="G308" s="138"/>
+      <c r="H308" s="138"/>
+      <c r="I308" s="138"/>
+      <c r="J308" s="138"/>
+      <c r="K308" s="139"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -11795,14 +11922,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="126"/>
-      <c r="E309" s="127"/>
-      <c r="F309" s="127"/>
-      <c r="G309" s="127"/>
-      <c r="H309" s="127"/>
-      <c r="I309" s="127"/>
-      <c r="J309" s="127"/>
-      <c r="K309" s="128"/>
+      <c r="D309" s="148"/>
+      <c r="E309" s="133"/>
+      <c r="F309" s="133"/>
+      <c r="G309" s="133"/>
+      <c r="H309" s="133"/>
+      <c r="I309" s="133"/>
+      <c r="J309" s="133"/>
+      <c r="K309" s="149"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -15681,33 +15808,20 @@
       <c r="K513" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="D168:K168"/>
-    <mergeCell ref="D175:K175"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D174:K174"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D250:K250"/>
-    <mergeCell ref="D280:K280"/>
-    <mergeCell ref="D286:K286"/>
-    <mergeCell ref="D296:K296"/>
-    <mergeCell ref="D240:K241"/>
+  <mergeCells count="55">
+    <mergeCell ref="D93:K93"/>
+    <mergeCell ref="D96:K96"/>
+    <mergeCell ref="D94:K94"/>
+    <mergeCell ref="D95:K95"/>
+    <mergeCell ref="D92:K92"/>
+    <mergeCell ref="D91:K91"/>
+    <mergeCell ref="D90:K90"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="D216:K217"/>
     <mergeCell ref="D218:K219"/>
@@ -15724,12 +15838,32 @@
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
     <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D250:K250"/>
+    <mergeCell ref="D280:K280"/>
+    <mergeCell ref="D286:K286"/>
+    <mergeCell ref="D296:K296"/>
+    <mergeCell ref="D240:K241"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D168:K168"/>
+    <mergeCell ref="D175:K175"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D174:K174"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -15815,16 +15949,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="139"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -15846,14 +15980,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="131"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="145"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -22102,16 +22236,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="155" t="s">
+      <c r="D178" s="125" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="155"/>
-      <c r="F178" s="155"/>
-      <c r="G178" s="155"/>
-      <c r="H178" s="155"/>
-      <c r="I178" s="155"/>
-      <c r="J178" s="155"/>
-      <c r="K178" s="155"/>
+      <c r="E178" s="125"/>
+      <c r="F178" s="125"/>
+      <c r="G178" s="125"/>
+      <c r="H178" s="125"/>
+      <c r="I178" s="125"/>
+      <c r="J178" s="125"/>
+      <c r="K178" s="125"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -22180,16 +22314,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="139" t="s">
+      <c r="D182" s="126" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="140"/>
-      <c r="F182" s="140"/>
-      <c r="G182" s="140"/>
-      <c r="H182" s="140"/>
-      <c r="I182" s="140"/>
-      <c r="J182" s="140"/>
-      <c r="K182" s="141"/>
+      <c r="E182" s="127"/>
+      <c r="F182" s="127"/>
+      <c r="G182" s="127"/>
+      <c r="H182" s="127"/>
+      <c r="I182" s="127"/>
+      <c r="J182" s="127"/>
+      <c r="K182" s="128"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -22201,16 +22335,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="139" t="s">
+      <c r="D183" s="126" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="140"/>
-      <c r="F183" s="140"/>
-      <c r="G183" s="140"/>
-      <c r="H183" s="140"/>
-      <c r="I183" s="140"/>
-      <c r="J183" s="140"/>
-      <c r="K183" s="141"/>
+      <c r="E183" s="127"/>
+      <c r="F183" s="127"/>
+      <c r="G183" s="127"/>
+      <c r="H183" s="127"/>
+      <c r="I183" s="127"/>
+      <c r="J183" s="127"/>
+      <c r="K183" s="128"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -22222,16 +22356,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="139" t="s">
+      <c r="D184" s="126" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="140"/>
-      <c r="F184" s="140"/>
-      <c r="G184" s="140"/>
-      <c r="H184" s="140"/>
-      <c r="I184" s="140"/>
-      <c r="J184" s="140"/>
-      <c r="K184" s="141"/>
+      <c r="E184" s="127"/>
+      <c r="F184" s="127"/>
+      <c r="G184" s="127"/>
+      <c r="H184" s="127"/>
+      <c r="I184" s="127"/>
+      <c r="J184" s="127"/>
+      <c r="K184" s="128"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -22243,16 +22377,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="139" t="s">
+      <c r="D185" s="126" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="140"/>
-      <c r="F185" s="140"/>
-      <c r="G185" s="140"/>
-      <c r="H185" s="140"/>
-      <c r="I185" s="140"/>
-      <c r="J185" s="140"/>
-      <c r="K185" s="141"/>
+      <c r="E185" s="127"/>
+      <c r="F185" s="127"/>
+      <c r="G185" s="127"/>
+      <c r="H185" s="127"/>
+      <c r="I185" s="127"/>
+      <c r="J185" s="127"/>
+      <c r="K185" s="128"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -22264,16 +22398,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="139" t="s">
+      <c r="D186" s="126" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="140"/>
-      <c r="F186" s="140"/>
-      <c r="G186" s="140"/>
-      <c r="H186" s="140"/>
-      <c r="I186" s="140"/>
-      <c r="J186" s="140"/>
-      <c r="K186" s="141"/>
+      <c r="E186" s="127"/>
+      <c r="F186" s="127"/>
+      <c r="G186" s="127"/>
+      <c r="H186" s="127"/>
+      <c r="I186" s="127"/>
+      <c r="J186" s="127"/>
+      <c r="K186" s="128"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -22285,16 +22419,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="139" t="s">
+      <c r="D187" s="126" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="140"/>
-      <c r="F187" s="140"/>
-      <c r="G187" s="140"/>
-      <c r="H187" s="140"/>
-      <c r="I187" s="140"/>
-      <c r="J187" s="140"/>
-      <c r="K187" s="141"/>
+      <c r="E187" s="127"/>
+      <c r="F187" s="127"/>
+      <c r="G187" s="127"/>
+      <c r="H187" s="127"/>
+      <c r="I187" s="127"/>
+      <c r="J187" s="127"/>
+      <c r="K187" s="128"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -22306,16 +22440,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="139" t="s">
+      <c r="D188" s="126" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="140"/>
-      <c r="F188" s="140"/>
-      <c r="G188" s="140"/>
-      <c r="H188" s="140"/>
-      <c r="I188" s="140"/>
-      <c r="J188" s="140"/>
-      <c r="K188" s="141"/>
+      <c r="E188" s="127"/>
+      <c r="F188" s="127"/>
+      <c r="G188" s="127"/>
+      <c r="H188" s="127"/>
+      <c r="I188" s="127"/>
+      <c r="J188" s="127"/>
+      <c r="K188" s="128"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -22327,16 +22461,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="139" t="s">
+      <c r="D189" s="126" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="140"/>
-      <c r="F189" s="140"/>
-      <c r="G189" s="140"/>
-      <c r="H189" s="140"/>
-      <c r="I189" s="140"/>
-      <c r="J189" s="140"/>
-      <c r="K189" s="141"/>
+      <c r="E189" s="127"/>
+      <c r="F189" s="127"/>
+      <c r="G189" s="127"/>
+      <c r="H189" s="127"/>
+      <c r="I189" s="127"/>
+      <c r="J189" s="127"/>
+      <c r="K189" s="128"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -22348,16 +22482,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="139" t="s">
+      <c r="D190" s="126" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="140"/>
-      <c r="F190" s="140"/>
-      <c r="G190" s="140"/>
-      <c r="H190" s="140"/>
-      <c r="I190" s="140"/>
-      <c r="J190" s="140"/>
-      <c r="K190" s="141"/>
+      <c r="E190" s="127"/>
+      <c r="F190" s="127"/>
+      <c r="G190" s="127"/>
+      <c r="H190" s="127"/>
+      <c r="I190" s="127"/>
+      <c r="J190" s="127"/>
+      <c r="K190" s="128"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -22369,16 +22503,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="139" t="s">
+      <c r="D191" s="126" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="140"/>
-      <c r="F191" s="140"/>
-      <c r="G191" s="140"/>
-      <c r="H191" s="140"/>
-      <c r="I191" s="140"/>
-      <c r="J191" s="140"/>
-      <c r="K191" s="141"/>
+      <c r="E191" s="127"/>
+      <c r="F191" s="127"/>
+      <c r="G191" s="127"/>
+      <c r="H191" s="127"/>
+      <c r="I191" s="127"/>
+      <c r="J191" s="127"/>
+      <c r="K191" s="128"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -22390,16 +22524,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="139" t="s">
+      <c r="D192" s="126" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="140"/>
-      <c r="F192" s="140"/>
-      <c r="G192" s="140"/>
-      <c r="H192" s="140"/>
-      <c r="I192" s="140"/>
-      <c r="J192" s="140"/>
-      <c r="K192" s="141"/>
+      <c r="E192" s="127"/>
+      <c r="F192" s="127"/>
+      <c r="G192" s="127"/>
+      <c r="H192" s="127"/>
+      <c r="I192" s="127"/>
+      <c r="J192" s="127"/>
+      <c r="K192" s="128"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -22411,16 +22545,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="152" t="s">
+      <c r="D193" s="129" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="153"/>
-      <c r="F193" s="153"/>
-      <c r="G193" s="153"/>
-      <c r="H193" s="153"/>
-      <c r="I193" s="153"/>
-      <c r="J193" s="153"/>
-      <c r="K193" s="154"/>
+      <c r="E193" s="130"/>
+      <c r="F193" s="130"/>
+      <c r="G193" s="130"/>
+      <c r="H193" s="130"/>
+      <c r="I193" s="130"/>
+      <c r="J193" s="130"/>
+      <c r="K193" s="131"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -22435,16 +22569,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="134" t="s">
+      <c r="D194" s="132" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="127"/>
-      <c r="F194" s="127"/>
-      <c r="G194" s="127"/>
-      <c r="H194" s="127"/>
-      <c r="I194" s="127"/>
-      <c r="J194" s="127"/>
-      <c r="K194" s="135"/>
+      <c r="E194" s="133"/>
+      <c r="F194" s="133"/>
+      <c r="G194" s="133"/>
+      <c r="H194" s="133"/>
+      <c r="I194" s="133"/>
+      <c r="J194" s="133"/>
+      <c r="K194" s="134"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -22456,16 +22590,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="139" t="s">
+      <c r="D195" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="140"/>
-      <c r="F195" s="140"/>
-      <c r="G195" s="140"/>
-      <c r="H195" s="140"/>
-      <c r="I195" s="140"/>
-      <c r="J195" s="140"/>
-      <c r="K195" s="141"/>
+      <c r="E195" s="127"/>
+      <c r="F195" s="127"/>
+      <c r="G195" s="127"/>
+      <c r="H195" s="127"/>
+      <c r="I195" s="127"/>
+      <c r="J195" s="127"/>
+      <c r="K195" s="128"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -22477,16 +22611,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="139" t="s">
+      <c r="D196" s="126" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="140"/>
-      <c r="F196" s="140"/>
-      <c r="G196" s="140"/>
-      <c r="H196" s="140"/>
-      <c r="I196" s="140"/>
-      <c r="J196" s="140"/>
-      <c r="K196" s="141"/>
+      <c r="E196" s="127"/>
+      <c r="F196" s="127"/>
+      <c r="G196" s="127"/>
+      <c r="H196" s="127"/>
+      <c r="I196" s="127"/>
+      <c r="J196" s="127"/>
+      <c r="K196" s="128"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -22498,16 +22632,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="139" t="s">
+      <c r="D197" s="126" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="140"/>
-      <c r="F197" s="140"/>
-      <c r="G197" s="140"/>
-      <c r="H197" s="140"/>
-      <c r="I197" s="140"/>
-      <c r="J197" s="140"/>
-      <c r="K197" s="141"/>
+      <c r="E197" s="127"/>
+      <c r="F197" s="127"/>
+      <c r="G197" s="127"/>
+      <c r="H197" s="127"/>
+      <c r="I197" s="127"/>
+      <c r="J197" s="127"/>
+      <c r="K197" s="128"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -22519,16 +22653,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="139" t="s">
+      <c r="D198" s="126" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="140"/>
-      <c r="F198" s="140"/>
-      <c r="G198" s="140"/>
-      <c r="H198" s="140"/>
-      <c r="I198" s="140"/>
-      <c r="J198" s="140"/>
-      <c r="K198" s="141"/>
+      <c r="E198" s="127"/>
+      <c r="F198" s="127"/>
+      <c r="G198" s="127"/>
+      <c r="H198" s="127"/>
+      <c r="I198" s="127"/>
+      <c r="J198" s="127"/>
+      <c r="K198" s="128"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -22559,16 +22693,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="139" t="s">
+      <c r="D200" s="126" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="140"/>
-      <c r="F200" s="140"/>
-      <c r="G200" s="140"/>
-      <c r="H200" s="140"/>
-      <c r="I200" s="140"/>
-      <c r="J200" s="140"/>
-      <c r="K200" s="141"/>
+      <c r="E200" s="127"/>
+      <c r="F200" s="127"/>
+      <c r="G200" s="127"/>
+      <c r="H200" s="127"/>
+      <c r="I200" s="127"/>
+      <c r="J200" s="127"/>
+      <c r="K200" s="128"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -22599,16 +22733,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="145" t="s">
+      <c r="D202" s="155" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="146"/>
-      <c r="F202" s="146"/>
-      <c r="G202" s="146"/>
-      <c r="H202" s="146"/>
-      <c r="I202" s="146"/>
-      <c r="J202" s="146"/>
-      <c r="K202" s="147"/>
+      <c r="E202" s="156"/>
+      <c r="F202" s="156"/>
+      <c r="G202" s="156"/>
+      <c r="H202" s="156"/>
+      <c r="I202" s="156"/>
+      <c r="J202" s="156"/>
+      <c r="K202" s="157"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -22639,16 +22773,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="139" t="s">
+      <c r="D204" s="126" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="140"/>
-      <c r="F204" s="140"/>
-      <c r="G204" s="140"/>
-      <c r="H204" s="140"/>
-      <c r="I204" s="140"/>
-      <c r="J204" s="140"/>
-      <c r="K204" s="141"/>
+      <c r="E204" s="127"/>
+      <c r="F204" s="127"/>
+      <c r="G204" s="127"/>
+      <c r="H204" s="127"/>
+      <c r="I204" s="127"/>
+      <c r="J204" s="127"/>
+      <c r="K204" s="128"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -22679,16 +22813,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="139" t="s">
+      <c r="D206" s="126" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="140"/>
-      <c r="F206" s="140"/>
-      <c r="G206" s="140"/>
-      <c r="H206" s="140"/>
-      <c r="I206" s="140"/>
-      <c r="J206" s="140"/>
-      <c r="K206" s="141"/>
+      <c r="E206" s="127"/>
+      <c r="F206" s="127"/>
+      <c r="G206" s="127"/>
+      <c r="H206" s="127"/>
+      <c r="I206" s="127"/>
+      <c r="J206" s="127"/>
+      <c r="K206" s="128"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -22719,16 +22853,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="139" t="s">
+      <c r="D208" s="126" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="140"/>
-      <c r="F208" s="140"/>
-      <c r="G208" s="140"/>
-      <c r="H208" s="140"/>
-      <c r="I208" s="140"/>
-      <c r="J208" s="140"/>
-      <c r="K208" s="141"/>
+      <c r="E208" s="127"/>
+      <c r="F208" s="127"/>
+      <c r="G208" s="127"/>
+      <c r="H208" s="127"/>
+      <c r="I208" s="127"/>
+      <c r="J208" s="127"/>
+      <c r="K208" s="128"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -22762,16 +22896,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="134" t="s">
+      <c r="D210" s="132" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="127"/>
-      <c r="F210" s="127"/>
-      <c r="G210" s="127"/>
-      <c r="H210" s="127"/>
-      <c r="I210" s="127"/>
-      <c r="J210" s="127"/>
-      <c r="K210" s="135"/>
+      <c r="E210" s="133"/>
+      <c r="F210" s="133"/>
+      <c r="G210" s="133"/>
+      <c r="H210" s="133"/>
+      <c r="I210" s="133"/>
+      <c r="J210" s="133"/>
+      <c r="K210" s="134"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -22840,16 +22974,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="139" t="s">
+      <c r="D214" s="126" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="140"/>
-      <c r="F214" s="140"/>
-      <c r="G214" s="140"/>
-      <c r="H214" s="140"/>
-      <c r="I214" s="140"/>
-      <c r="J214" s="140"/>
-      <c r="K214" s="141"/>
+      <c r="E214" s="127"/>
+      <c r="F214" s="127"/>
+      <c r="G214" s="127"/>
+      <c r="H214" s="127"/>
+      <c r="I214" s="127"/>
+      <c r="J214" s="127"/>
+      <c r="K214" s="128"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -22880,16 +23014,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="132" t="s">
+      <c r="D216" s="146" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="124"/>
-      <c r="F216" s="124"/>
-      <c r="G216" s="124"/>
-      <c r="H216" s="124"/>
-      <c r="I216" s="124"/>
-      <c r="J216" s="124"/>
-      <c r="K216" s="133"/>
+      <c r="E216" s="138"/>
+      <c r="F216" s="138"/>
+      <c r="G216" s="138"/>
+      <c r="H216" s="138"/>
+      <c r="I216" s="138"/>
+      <c r="J216" s="138"/>
+      <c r="K216" s="147"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -22901,14 +23035,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="134"/>
-      <c r="E217" s="127"/>
-      <c r="F217" s="127"/>
-      <c r="G217" s="127"/>
-      <c r="H217" s="127"/>
-      <c r="I217" s="127"/>
-      <c r="J217" s="127"/>
-      <c r="K217" s="135"/>
+      <c r="D217" s="132"/>
+      <c r="E217" s="133"/>
+      <c r="F217" s="133"/>
+      <c r="G217" s="133"/>
+      <c r="H217" s="133"/>
+      <c r="I217" s="133"/>
+      <c r="J217" s="133"/>
+      <c r="K217" s="134"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -22920,16 +23054,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="132" t="s">
+      <c r="D218" s="146" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="124"/>
-      <c r="F218" s="124"/>
-      <c r="G218" s="124"/>
-      <c r="H218" s="124"/>
-      <c r="I218" s="124"/>
-      <c r="J218" s="124"/>
-      <c r="K218" s="133"/>
+      <c r="E218" s="138"/>
+      <c r="F218" s="138"/>
+      <c r="G218" s="138"/>
+      <c r="H218" s="138"/>
+      <c r="I218" s="138"/>
+      <c r="J218" s="138"/>
+      <c r="K218" s="147"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -22941,14 +23075,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="134"/>
-      <c r="E219" s="127"/>
-      <c r="F219" s="127"/>
-      <c r="G219" s="127"/>
-      <c r="H219" s="127"/>
-      <c r="I219" s="127"/>
-      <c r="J219" s="127"/>
-      <c r="K219" s="135"/>
+      <c r="D219" s="132"/>
+      <c r="E219" s="133"/>
+      <c r="F219" s="133"/>
+      <c r="G219" s="133"/>
+      <c r="H219" s="133"/>
+      <c r="I219" s="133"/>
+      <c r="J219" s="133"/>
+      <c r="K219" s="134"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -22960,16 +23094,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="132" t="s">
+      <c r="D220" s="146" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="124"/>
-      <c r="F220" s="124"/>
-      <c r="G220" s="124"/>
-      <c r="H220" s="124"/>
-      <c r="I220" s="124"/>
-      <c r="J220" s="124"/>
-      <c r="K220" s="133"/>
+      <c r="E220" s="138"/>
+      <c r="F220" s="138"/>
+      <c r="G220" s="138"/>
+      <c r="H220" s="138"/>
+      <c r="I220" s="138"/>
+      <c r="J220" s="138"/>
+      <c r="K220" s="147"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -22981,14 +23115,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="134"/>
-      <c r="E221" s="127"/>
-      <c r="F221" s="127"/>
-      <c r="G221" s="127"/>
-      <c r="H221" s="127"/>
-      <c r="I221" s="127"/>
-      <c r="J221" s="127"/>
-      <c r="K221" s="135"/>
+      <c r="D221" s="132"/>
+      <c r="E221" s="133"/>
+      <c r="F221" s="133"/>
+      <c r="G221" s="133"/>
+      <c r="H221" s="133"/>
+      <c r="I221" s="133"/>
+      <c r="J221" s="133"/>
+      <c r="K221" s="134"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -23000,16 +23134,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="139" t="s">
+      <c r="D222" s="126" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="140"/>
-      <c r="F222" s="140"/>
-      <c r="G222" s="140"/>
-      <c r="H222" s="140"/>
-      <c r="I222" s="140"/>
-      <c r="J222" s="140"/>
-      <c r="K222" s="141"/>
+      <c r="E222" s="127"/>
+      <c r="F222" s="127"/>
+      <c r="G222" s="127"/>
+      <c r="H222" s="127"/>
+      <c r="I222" s="127"/>
+      <c r="J222" s="127"/>
+      <c r="K222" s="128"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -23040,16 +23174,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="139" t="s">
+      <c r="D224" s="126" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="140"/>
-      <c r="F224" s="140"/>
-      <c r="G224" s="140"/>
-      <c r="H224" s="140"/>
-      <c r="I224" s="140"/>
-      <c r="J224" s="140"/>
-      <c r="K224" s="141"/>
+      <c r="E224" s="127"/>
+      <c r="F224" s="127"/>
+      <c r="G224" s="127"/>
+      <c r="H224" s="127"/>
+      <c r="I224" s="127"/>
+      <c r="J224" s="127"/>
+      <c r="K224" s="128"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -23083,16 +23217,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="142" t="s">
+      <c r="D226" s="152" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="143"/>
-      <c r="F226" s="143"/>
-      <c r="G226" s="143"/>
-      <c r="H226" s="143"/>
-      <c r="I226" s="143"/>
-      <c r="J226" s="143"/>
-      <c r="K226" s="144"/>
+      <c r="E226" s="153"/>
+      <c r="F226" s="153"/>
+      <c r="G226" s="153"/>
+      <c r="H226" s="153"/>
+      <c r="I226" s="153"/>
+      <c r="J226" s="153"/>
+      <c r="K226" s="154"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -23237,16 +23371,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="136" t="s">
+      <c r="D234" s="150" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="137"/>
-      <c r="F234" s="137"/>
-      <c r="G234" s="137"/>
-      <c r="H234" s="137"/>
-      <c r="I234" s="137"/>
-      <c r="J234" s="137"/>
-      <c r="K234" s="138"/>
+      <c r="E234" s="136"/>
+      <c r="F234" s="136"/>
+      <c r="G234" s="136"/>
+      <c r="H234" s="136"/>
+      <c r="I234" s="136"/>
+      <c r="J234" s="136"/>
+      <c r="K234" s="151"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -23315,16 +23449,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="123" t="s">
+      <c r="D238" s="142" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="124"/>
-      <c r="F238" s="124"/>
-      <c r="G238" s="124"/>
-      <c r="H238" s="124"/>
-      <c r="I238" s="124"/>
-      <c r="J238" s="124"/>
-      <c r="K238" s="125"/>
+      <c r="E238" s="138"/>
+      <c r="F238" s="138"/>
+      <c r="G238" s="138"/>
+      <c r="H238" s="138"/>
+      <c r="I238" s="138"/>
+      <c r="J238" s="138"/>
+      <c r="K238" s="139"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -23336,14 +23470,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="126"/>
-      <c r="E239" s="127"/>
-      <c r="F239" s="127"/>
-      <c r="G239" s="127"/>
-      <c r="H239" s="127"/>
-      <c r="I239" s="127"/>
-      <c r="J239" s="127"/>
-      <c r="K239" s="128"/>
+      <c r="D239" s="148"/>
+      <c r="E239" s="133"/>
+      <c r="F239" s="133"/>
+      <c r="G239" s="133"/>
+      <c r="H239" s="133"/>
+      <c r="I239" s="133"/>
+      <c r="J239" s="133"/>
+      <c r="K239" s="149"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -23355,16 +23489,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="124" t="s">
+      <c r="D240" s="138" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="124"/>
-      <c r="F240" s="124"/>
-      <c r="G240" s="124"/>
-      <c r="H240" s="124"/>
-      <c r="I240" s="124"/>
-      <c r="J240" s="124"/>
-      <c r="K240" s="125"/>
+      <c r="E240" s="138"/>
+      <c r="F240" s="138"/>
+      <c r="G240" s="138"/>
+      <c r="H240" s="138"/>
+      <c r="I240" s="138"/>
+      <c r="J240" s="138"/>
+      <c r="K240" s="139"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -23376,14 +23510,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="150"/>
-      <c r="E241" s="150"/>
-      <c r="F241" s="150"/>
-      <c r="G241" s="150"/>
-      <c r="H241" s="150"/>
-      <c r="I241" s="150"/>
-      <c r="J241" s="150"/>
-      <c r="K241" s="151"/>
+      <c r="D241" s="140"/>
+      <c r="E241" s="140"/>
+      <c r="F241" s="140"/>
+      <c r="G241" s="140"/>
+      <c r="H241" s="140"/>
+      <c r="I241" s="140"/>
+      <c r="J241" s="140"/>
+      <c r="K241" s="141"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -23574,16 +23708,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="148" t="s">
+      <c r="D250" s="135" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="137"/>
-      <c r="F250" s="137"/>
-      <c r="G250" s="137"/>
-      <c r="H250" s="137"/>
-      <c r="I250" s="137"/>
-      <c r="J250" s="137"/>
-      <c r="K250" s="149"/>
+      <c r="E250" s="136"/>
+      <c r="F250" s="136"/>
+      <c r="G250" s="136"/>
+      <c r="H250" s="136"/>
+      <c r="I250" s="136"/>
+      <c r="J250" s="136"/>
+      <c r="K250" s="137"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -24152,16 +24286,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="139" t="s">
+      <c r="D280" s="126" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="140"/>
-      <c r="F280" s="140"/>
-      <c r="G280" s="140"/>
-      <c r="H280" s="140"/>
-      <c r="I280" s="140"/>
-      <c r="J280" s="140"/>
-      <c r="K280" s="141"/>
+      <c r="E280" s="127"/>
+      <c r="F280" s="127"/>
+      <c r="G280" s="127"/>
+      <c r="H280" s="127"/>
+      <c r="I280" s="127"/>
+      <c r="J280" s="127"/>
+      <c r="K280" s="128"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -24268,16 +24402,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="139" t="s">
+      <c r="D286" s="126" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="140"/>
-      <c r="F286" s="140"/>
-      <c r="G286" s="140"/>
-      <c r="H286" s="140"/>
-      <c r="I286" s="140"/>
-      <c r="J286" s="140"/>
-      <c r="K286" s="141"/>
+      <c r="E286" s="127"/>
+      <c r="F286" s="127"/>
+      <c r="G286" s="127"/>
+      <c r="H286" s="127"/>
+      <c r="I286" s="127"/>
+      <c r="J286" s="127"/>
+      <c r="K286" s="128"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -24465,16 +24599,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="139" t="s">
+      <c r="D296" s="126" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="140"/>
-      <c r="F296" s="140"/>
-      <c r="G296" s="140"/>
-      <c r="H296" s="140"/>
-      <c r="I296" s="140"/>
-      <c r="J296" s="140"/>
-      <c r="K296" s="141"/>
+      <c r="E296" s="127"/>
+      <c r="F296" s="127"/>
+      <c r="G296" s="127"/>
+      <c r="H296" s="127"/>
+      <c r="I296" s="127"/>
+      <c r="J296" s="127"/>
+      <c r="K296" s="128"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -24505,16 +24639,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="123" t="s">
+      <c r="D298" s="142" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="124"/>
-      <c r="F298" s="124"/>
-      <c r="G298" s="124"/>
-      <c r="H298" s="124"/>
-      <c r="I298" s="124"/>
-      <c r="J298" s="124"/>
-      <c r="K298" s="125"/>
+      <c r="E298" s="138"/>
+      <c r="F298" s="138"/>
+      <c r="G298" s="138"/>
+      <c r="H298" s="138"/>
+      <c r="I298" s="138"/>
+      <c r="J298" s="138"/>
+      <c r="K298" s="139"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -24526,14 +24660,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="126"/>
-      <c r="E299" s="127"/>
-      <c r="F299" s="127"/>
-      <c r="G299" s="127"/>
-      <c r="H299" s="127"/>
-      <c r="I299" s="127"/>
-      <c r="J299" s="127"/>
-      <c r="K299" s="128"/>
+      <c r="D299" s="148"/>
+      <c r="E299" s="133"/>
+      <c r="F299" s="133"/>
+      <c r="G299" s="133"/>
+      <c r="H299" s="133"/>
+      <c r="I299" s="133"/>
+      <c r="J299" s="133"/>
+      <c r="K299" s="149"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -24545,16 +24679,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="123" t="s">
+      <c r="D300" s="142" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="124"/>
-      <c r="F300" s="124"/>
-      <c r="G300" s="124"/>
-      <c r="H300" s="124"/>
-      <c r="I300" s="124"/>
-      <c r="J300" s="124"/>
-      <c r="K300" s="125"/>
+      <c r="E300" s="138"/>
+      <c r="F300" s="138"/>
+      <c r="G300" s="138"/>
+      <c r="H300" s="138"/>
+      <c r="I300" s="138"/>
+      <c r="J300" s="138"/>
+      <c r="K300" s="139"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -24566,14 +24700,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="126"/>
-      <c r="E301" s="127"/>
-      <c r="F301" s="127"/>
-      <c r="G301" s="127"/>
-      <c r="H301" s="127"/>
-      <c r="I301" s="127"/>
-      <c r="J301" s="127"/>
-      <c r="K301" s="128"/>
+      <c r="D301" s="148"/>
+      <c r="E301" s="133"/>
+      <c r="F301" s="133"/>
+      <c r="G301" s="133"/>
+      <c r="H301" s="133"/>
+      <c r="I301" s="133"/>
+      <c r="J301" s="133"/>
+      <c r="K301" s="149"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -24585,16 +24719,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="123" t="s">
+      <c r="D302" s="142" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="124"/>
-      <c r="F302" s="124"/>
-      <c r="G302" s="124"/>
-      <c r="H302" s="124"/>
-      <c r="I302" s="124"/>
-      <c r="J302" s="124"/>
-      <c r="K302" s="125"/>
+      <c r="E302" s="138"/>
+      <c r="F302" s="138"/>
+      <c r="G302" s="138"/>
+      <c r="H302" s="138"/>
+      <c r="I302" s="138"/>
+      <c r="J302" s="138"/>
+      <c r="K302" s="139"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -24606,14 +24740,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="126"/>
-      <c r="E303" s="127"/>
-      <c r="F303" s="127"/>
-      <c r="G303" s="127"/>
-      <c r="H303" s="127"/>
-      <c r="I303" s="127"/>
-      <c r="J303" s="127"/>
-      <c r="K303" s="128"/>
+      <c r="D303" s="148"/>
+      <c r="E303" s="133"/>
+      <c r="F303" s="133"/>
+      <c r="G303" s="133"/>
+      <c r="H303" s="133"/>
+      <c r="I303" s="133"/>
+      <c r="J303" s="133"/>
+      <c r="K303" s="149"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -24625,16 +24759,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="123" t="s">
+      <c r="D304" s="142" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="124"/>
-      <c r="F304" s="124"/>
-      <c r="G304" s="124"/>
-      <c r="H304" s="124"/>
-      <c r="I304" s="124"/>
-      <c r="J304" s="124"/>
-      <c r="K304" s="125"/>
+      <c r="E304" s="138"/>
+      <c r="F304" s="138"/>
+      <c r="G304" s="138"/>
+      <c r="H304" s="138"/>
+      <c r="I304" s="138"/>
+      <c r="J304" s="138"/>
+      <c r="K304" s="139"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -24646,14 +24780,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="126"/>
-      <c r="E305" s="127"/>
-      <c r="F305" s="127"/>
-      <c r="G305" s="127"/>
-      <c r="H305" s="127"/>
-      <c r="I305" s="127"/>
-      <c r="J305" s="127"/>
-      <c r="K305" s="128"/>
+      <c r="D305" s="148"/>
+      <c r="E305" s="133"/>
+      <c r="F305" s="133"/>
+      <c r="G305" s="133"/>
+      <c r="H305" s="133"/>
+      <c r="I305" s="133"/>
+      <c r="J305" s="133"/>
+      <c r="K305" s="149"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -24668,16 +24802,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="123" t="s">
+      <c r="D306" s="142" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="124"/>
-      <c r="F306" s="124"/>
-      <c r="G306" s="124"/>
-      <c r="H306" s="124"/>
-      <c r="I306" s="124"/>
-      <c r="J306" s="124"/>
-      <c r="K306" s="125"/>
+      <c r="E306" s="138"/>
+      <c r="F306" s="138"/>
+      <c r="G306" s="138"/>
+      <c r="H306" s="138"/>
+      <c r="I306" s="138"/>
+      <c r="J306" s="138"/>
+      <c r="K306" s="139"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -24689,14 +24823,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="126"/>
-      <c r="E307" s="127"/>
-      <c r="F307" s="127"/>
-      <c r="G307" s="127"/>
-      <c r="H307" s="127"/>
-      <c r="I307" s="127"/>
-      <c r="J307" s="127"/>
-      <c r="K307" s="128"/>
+      <c r="D307" s="148"/>
+      <c r="E307" s="133"/>
+      <c r="F307" s="133"/>
+      <c r="G307" s="133"/>
+      <c r="H307" s="133"/>
+      <c r="I307" s="133"/>
+      <c r="J307" s="133"/>
+      <c r="K307" s="149"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -24708,16 +24842,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="123" t="s">
+      <c r="D308" s="142" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="124"/>
-      <c r="F308" s="124"/>
-      <c r="G308" s="124"/>
-      <c r="H308" s="124"/>
-      <c r="I308" s="124"/>
-      <c r="J308" s="124"/>
-      <c r="K308" s="125"/>
+      <c r="E308" s="138"/>
+      <c r="F308" s="138"/>
+      <c r="G308" s="138"/>
+      <c r="H308" s="138"/>
+      <c r="I308" s="138"/>
+      <c r="J308" s="138"/>
+      <c r="K308" s="139"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -24729,14 +24863,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="126"/>
-      <c r="E309" s="127"/>
-      <c r="F309" s="127"/>
-      <c r="G309" s="127"/>
-      <c r="H309" s="127"/>
-      <c r="I309" s="127"/>
-      <c r="J309" s="127"/>
-      <c r="K309" s="128"/>
+      <c r="D309" s="148"/>
+      <c r="E309" s="133"/>
+      <c r="F309" s="133"/>
+      <c r="G309" s="133"/>
+      <c r="H309" s="133"/>
+      <c r="I309" s="133"/>
+      <c r="J309" s="133"/>
+      <c r="K309" s="149"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -28616,29 +28750,12 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="D214:K214"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D200:K200"/>
-    <mergeCell ref="D202:K202"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
     <mergeCell ref="D280:K280"/>
     <mergeCell ref="D286:K286"/>
     <mergeCell ref="D296:K296"/>
@@ -28655,12 +28772,29 @@
     <mergeCell ref="D250:K250"/>
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="D214:K214"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="D202:K202"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape"/>

--- a/data/Switches.xlsx
+++ b/data/Switches.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="444">
   <si>
     <t>ID</t>
   </si>
@@ -1328,6 +1328,27 @@
   </si>
   <si>
     <t>Hieroglyph Order 5</t>
+  </si>
+  <si>
+    <t>Gem Reward Amount 1</t>
+  </si>
+  <si>
+    <t>Gem Reward Amount 2</t>
+  </si>
+  <si>
+    <t>Gem Reward Amount 3</t>
+  </si>
+  <si>
+    <t>Gem Reward Amount 4</t>
+  </si>
+  <si>
+    <t>Gem Reward Amount 5</t>
+  </si>
+  <si>
+    <t>Gem Reward Amount 6</t>
+  </si>
+  <si>
+    <t>Gem Reward Amount 7</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -2077,9 +2098,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
@@ -2096,7 +2128,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2466,43 +2498,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="50" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2511,13 +2534,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2535,16 +2558,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2565,34 +2600,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="50" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2905,8 +2952,8 @@
   <dimension ref="A1:O513"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93:K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2979,16 +3026,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="142" t="s">
+      <c r="D2" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="139"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
       <c r="L2" s="119" t="s">
         <v>7</v>
       </c>
@@ -3006,14 +3053,14 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="145"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="142"/>
       <c r="L3" s="119" t="s">
         <v>8</v>
       </c>
@@ -5538,38 +5585,16 @@
         <v>A49</v>
       </c>
       <c r="C75" s="13"/>
-      <c r="D75" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 79</v>
-      </c>
-      <c r="E75" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 78</v>
-      </c>
-      <c r="F75" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 77</v>
-      </c>
-      <c r="G75" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 76</v>
-      </c>
-      <c r="H75" s="62" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 75</v>
-      </c>
-      <c r="I75" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 74</v>
-      </c>
-      <c r="J75" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 73</v>
-      </c>
-      <c r="K75" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 72</v>
-      </c>
+      <c r="D75" s="131" t="s">
+        <v>437</v>
+      </c>
+      <c r="E75" s="132"/>
+      <c r="F75" s="132"/>
+      <c r="G75" s="132"/>
+      <c r="H75" s="132"/>
+      <c r="I75" s="132"/>
+      <c r="J75" s="132"/>
+      <c r="K75" s="133"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="12">
@@ -5581,38 +5606,16 @@
         <v>A4A</v>
       </c>
       <c r="C76" s="13"/>
-      <c r="D76" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 87</v>
-      </c>
-      <c r="E76" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 86</v>
-      </c>
-      <c r="F76" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 85</v>
-      </c>
-      <c r="G76" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 84</v>
-      </c>
-      <c r="H76" s="62" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 83</v>
-      </c>
-      <c r="I76" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 82</v>
-      </c>
-      <c r="J76" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 81</v>
-      </c>
-      <c r="K76" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 80</v>
-      </c>
+      <c r="D76" s="131" t="s">
+        <v>438</v>
+      </c>
+      <c r="E76" s="132"/>
+      <c r="F76" s="132"/>
+      <c r="G76" s="132"/>
+      <c r="H76" s="132"/>
+      <c r="I76" s="132"/>
+      <c r="J76" s="132"/>
+      <c r="K76" s="133"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="12">
@@ -5624,38 +5627,16 @@
         <v>A4B</v>
       </c>
       <c r="C77" s="13"/>
-      <c r="D77" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 95</v>
-      </c>
-      <c r="E77" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 94</v>
-      </c>
-      <c r="F77" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 93</v>
-      </c>
-      <c r="G77" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 92</v>
-      </c>
-      <c r="H77" s="62" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 91</v>
-      </c>
-      <c r="I77" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 90</v>
-      </c>
-      <c r="J77" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 89</v>
-      </c>
-      <c r="K77" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 88</v>
-      </c>
+      <c r="D77" s="131" t="s">
+        <v>439</v>
+      </c>
+      <c r="E77" s="132"/>
+      <c r="F77" s="132"/>
+      <c r="G77" s="132"/>
+      <c r="H77" s="132"/>
+      <c r="I77" s="132"/>
+      <c r="J77" s="132"/>
+      <c r="K77" s="133"/>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="12">
@@ -5667,38 +5648,16 @@
         <v>A4C</v>
       </c>
       <c r="C78" s="13"/>
-      <c r="D78" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 103</v>
-      </c>
-      <c r="E78" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 102</v>
-      </c>
-      <c r="F78" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 101</v>
-      </c>
-      <c r="G78" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 100</v>
-      </c>
-      <c r="H78" s="62" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 99</v>
-      </c>
-      <c r="I78" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 98</v>
-      </c>
-      <c r="J78" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 97</v>
-      </c>
-      <c r="K78" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 96</v>
-      </c>
+      <c r="D78" s="131" t="s">
+        <v>440</v>
+      </c>
+      <c r="E78" s="132"/>
+      <c r="F78" s="132"/>
+      <c r="G78" s="132"/>
+      <c r="H78" s="132"/>
+      <c r="I78" s="132"/>
+      <c r="J78" s="132"/>
+      <c r="K78" s="133"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="12">
@@ -5710,38 +5669,16 @@
         <v>A4D</v>
       </c>
       <c r="C79" s="13"/>
-      <c r="D79" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 111</v>
-      </c>
-      <c r="E79" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 110</v>
-      </c>
-      <c r="F79" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 109</v>
-      </c>
-      <c r="G79" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 108</v>
-      </c>
-      <c r="H79" s="62" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 107</v>
-      </c>
-      <c r="I79" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 106</v>
-      </c>
-      <c r="J79" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 105</v>
-      </c>
-      <c r="K79" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 104</v>
-      </c>
+      <c r="D79" s="131" t="s">
+        <v>441</v>
+      </c>
+      <c r="E79" s="132"/>
+      <c r="F79" s="132"/>
+      <c r="G79" s="132"/>
+      <c r="H79" s="132"/>
+      <c r="I79" s="132"/>
+      <c r="J79" s="132"/>
+      <c r="K79" s="133"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="12">
@@ -5753,38 +5690,16 @@
         <v>A4E</v>
       </c>
       <c r="C80" s="13"/>
-      <c r="D80" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 119</v>
-      </c>
-      <c r="E80" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 118</v>
-      </c>
-      <c r="F80" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 117</v>
-      </c>
-      <c r="G80" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 116</v>
-      </c>
-      <c r="H80" s="62" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 115</v>
-      </c>
-      <c r="I80" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 114</v>
-      </c>
-      <c r="J80" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 113</v>
-      </c>
-      <c r="K80" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 112</v>
-      </c>
+      <c r="D80" s="131" t="s">
+        <v>442</v>
+      </c>
+      <c r="E80" s="132"/>
+      <c r="F80" s="132"/>
+      <c r="G80" s="132"/>
+      <c r="H80" s="132"/>
+      <c r="I80" s="132"/>
+      <c r="J80" s="132"/>
+      <c r="K80" s="133"/>
     </row>
     <row r="81" spans="1:14" s="1" customFormat="1">
       <c r="A81" s="32">
@@ -5796,38 +5711,16 @@
         <v>A4F</v>
       </c>
       <c r="C81" s="33"/>
-      <c r="D81" s="63" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 127</v>
-      </c>
-      <c r="E81" s="63" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 126</v>
-      </c>
-      <c r="F81" s="63" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 125</v>
-      </c>
-      <c r="G81" s="63" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 124</v>
-      </c>
-      <c r="H81" s="64" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 123</v>
-      </c>
-      <c r="I81" s="63" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 122</v>
-      </c>
-      <c r="J81" s="63" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 121</v>
-      </c>
-      <c r="K81" s="63" t="str">
-        <f t="shared" si="6"/>
-        <v>(Unused) Chest 120</v>
-      </c>
+      <c r="D81" s="167" t="s">
+        <v>443</v>
+      </c>
+      <c r="E81" s="168"/>
+      <c r="F81" s="168"/>
+      <c r="G81" s="168"/>
+      <c r="H81" s="168"/>
+      <c r="I81" s="168"/>
+      <c r="J81" s="168"/>
+      <c r="K81" s="169"/>
       <c r="L81" s="57"/>
       <c r="M81" s="58"/>
       <c r="N81" s="58"/>
@@ -6022,16 +5915,16 @@
         <v>A58</v>
       </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="158" t="s">
+      <c r="D90" s="131" t="s">
         <v>432</v>
       </c>
-      <c r="E90" s="159"/>
-      <c r="F90" s="159"/>
-      <c r="G90" s="159"/>
-      <c r="H90" s="159"/>
-      <c r="I90" s="159"/>
-      <c r="J90" s="159"/>
-      <c r="K90" s="160"/>
+      <c r="E90" s="132"/>
+      <c r="F90" s="132"/>
+      <c r="G90" s="132"/>
+      <c r="H90" s="132"/>
+      <c r="I90" s="132"/>
+      <c r="J90" s="132"/>
+      <c r="K90" s="133"/>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="12">
@@ -6043,16 +5936,16 @@
         <v>A59</v>
       </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="158" t="s">
+      <c r="D91" s="131" t="s">
         <v>433</v>
       </c>
-      <c r="E91" s="159"/>
-      <c r="F91" s="159"/>
-      <c r="G91" s="159"/>
-      <c r="H91" s="159"/>
-      <c r="I91" s="159"/>
-      <c r="J91" s="159"/>
-      <c r="K91" s="160"/>
+      <c r="E91" s="132"/>
+      <c r="F91" s="132"/>
+      <c r="G91" s="132"/>
+      <c r="H91" s="132"/>
+      <c r="I91" s="132"/>
+      <c r="J91" s="132"/>
+      <c r="K91" s="133"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="12">
@@ -6064,16 +5957,16 @@
         <v>A5A</v>
       </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="158" t="s">
+      <c r="D92" s="131" t="s">
         <v>434</v>
       </c>
-      <c r="E92" s="159"/>
-      <c r="F92" s="159"/>
-      <c r="G92" s="159"/>
-      <c r="H92" s="159"/>
-      <c r="I92" s="159"/>
-      <c r="J92" s="159"/>
-      <c r="K92" s="160"/>
+      <c r="E92" s="132"/>
+      <c r="F92" s="132"/>
+      <c r="G92" s="132"/>
+      <c r="H92" s="132"/>
+      <c r="I92" s="132"/>
+      <c r="J92" s="132"/>
+      <c r="K92" s="133"/>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="12">
@@ -6085,16 +5978,16 @@
         <v>A5B</v>
       </c>
       <c r="C93" s="13"/>
-      <c r="D93" s="161" t="s">
+      <c r="D93" s="128" t="s">
         <v>435</v>
       </c>
-      <c r="E93" s="162"/>
-      <c r="F93" s="162"/>
-      <c r="G93" s="162"/>
-      <c r="H93" s="162"/>
-      <c r="I93" s="162"/>
-      <c r="J93" s="162"/>
-      <c r="K93" s="163"/>
+      <c r="E93" s="129"/>
+      <c r="F93" s="129"/>
+      <c r="G93" s="129"/>
+      <c r="H93" s="129"/>
+      <c r="I93" s="129"/>
+      <c r="J93" s="129"/>
+      <c r="K93" s="130"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="12">
@@ -6106,16 +5999,16 @@
         <v>A5C</v>
       </c>
       <c r="C94" s="13"/>
-      <c r="D94" s="161" t="s">
+      <c r="D94" s="128" t="s">
         <v>436</v>
       </c>
-      <c r="E94" s="162"/>
-      <c r="F94" s="162"/>
-      <c r="G94" s="162"/>
-      <c r="H94" s="162"/>
-      <c r="I94" s="162"/>
-      <c r="J94" s="162"/>
-      <c r="K94" s="163"/>
+      <c r="E94" s="129"/>
+      <c r="F94" s="129"/>
+      <c r="G94" s="129"/>
+      <c r="H94" s="129"/>
+      <c r="I94" s="129"/>
+      <c r="J94" s="129"/>
+      <c r="K94" s="130"/>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="12">
@@ -6127,16 +6020,16 @@
         <v>A5D</v>
       </c>
       <c r="C95" s="13"/>
-      <c r="D95" s="161" t="s">
+      <c r="D95" s="128" t="s">
         <v>431</v>
       </c>
-      <c r="E95" s="162"/>
-      <c r="F95" s="162"/>
-      <c r="G95" s="162"/>
-      <c r="H95" s="162"/>
-      <c r="I95" s="162"/>
-      <c r="J95" s="162"/>
-      <c r="K95" s="163"/>
+      <c r="E95" s="129"/>
+      <c r="F95" s="129"/>
+      <c r="G95" s="129"/>
+      <c r="H95" s="129"/>
+      <c r="I95" s="129"/>
+      <c r="J95" s="129"/>
+      <c r="K95" s="130"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="12">
@@ -6148,16 +6041,16 @@
         <v>A5E</v>
       </c>
       <c r="C96" s="13"/>
-      <c r="D96" s="158" t="s">
+      <c r="D96" s="131" t="s">
         <v>430</v>
       </c>
-      <c r="E96" s="159"/>
-      <c r="F96" s="159"/>
-      <c r="G96" s="159"/>
-      <c r="H96" s="159"/>
-      <c r="I96" s="159"/>
-      <c r="J96" s="159"/>
-      <c r="K96" s="160"/>
+      <c r="E96" s="132"/>
+      <c r="F96" s="132"/>
+      <c r="G96" s="132"/>
+      <c r="H96" s="132"/>
+      <c r="I96" s="132"/>
+      <c r="J96" s="132"/>
+      <c r="K96" s="133"/>
     </row>
     <row r="97" spans="1:14" s="1" customFormat="1">
       <c r="A97" s="32">
@@ -6170,23 +6063,23 @@
       </c>
       <c r="C97" s="33"/>
       <c r="D97" s="45"/>
-      <c r="E97" s="164"/>
-      <c r="F97" s="165" t="s">
+      <c r="E97" s="125"/>
+      <c r="F97" s="170" t="s">
         <v>429</v>
       </c>
-      <c r="G97" s="165" t="s">
+      <c r="G97" s="172" t="s">
         <v>428</v>
       </c>
-      <c r="H97" s="166" t="s">
+      <c r="H97" s="172" t="s">
         <v>427</v>
       </c>
-      <c r="I97" s="165" t="s">
+      <c r="I97" s="171" t="s">
         <v>426</v>
       </c>
-      <c r="J97" s="165" t="s">
+      <c r="J97" s="126" t="s">
         <v>425</v>
       </c>
-      <c r="K97" s="167" t="s">
+      <c r="K97" s="127" t="s">
         <v>424</v>
       </c>
       <c r="L97" s="57"/>
@@ -9096,16 +8989,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="125" t="s">
+      <c r="D168" s="166" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="125"/>
-      <c r="F168" s="125"/>
-      <c r="G168" s="125"/>
-      <c r="H168" s="125"/>
-      <c r="I168" s="125"/>
-      <c r="J168" s="125"/>
-      <c r="K168" s="125"/>
+      <c r="E168" s="166"/>
+      <c r="F168" s="166"/>
+      <c r="G168" s="166"/>
+      <c r="H168" s="166"/>
+      <c r="I168" s="166"/>
+      <c r="J168" s="166"/>
+      <c r="K168" s="166"/>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="12">
@@ -9212,16 +9105,16 @@
         <v>AAC</v>
       </c>
       <c r="C174" s="13"/>
-      <c r="D174" s="125" t="s">
+      <c r="D174" s="166" t="s">
         <v>349</v>
       </c>
-      <c r="E174" s="125"/>
-      <c r="F174" s="125"/>
-      <c r="G174" s="125"/>
-      <c r="H174" s="125"/>
-      <c r="I174" s="125"/>
-      <c r="J174" s="125"/>
-      <c r="K174" s="125"/>
+      <c r="E174" s="166"/>
+      <c r="F174" s="166"/>
+      <c r="G174" s="166"/>
+      <c r="H174" s="166"/>
+      <c r="I174" s="166"/>
+      <c r="J174" s="166"/>
+      <c r="K174" s="166"/>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="12">
@@ -9233,16 +9126,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="125" t="s">
+      <c r="D175" s="166" t="s">
         <v>349</v>
       </c>
-      <c r="E175" s="125"/>
-      <c r="F175" s="125"/>
-      <c r="G175" s="125"/>
-      <c r="H175" s="125"/>
-      <c r="I175" s="125"/>
-      <c r="J175" s="125"/>
-      <c r="K175" s="125"/>
+      <c r="E175" s="166"/>
+      <c r="F175" s="166"/>
+      <c r="G175" s="166"/>
+      <c r="H175" s="166"/>
+      <c r="I175" s="166"/>
+      <c r="J175" s="166"/>
+      <c r="K175" s="166"/>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="12">
@@ -9295,16 +9188,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="125" t="s">
+      <c r="D178" s="166" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="125"/>
-      <c r="F178" s="125"/>
-      <c r="G178" s="125"/>
-      <c r="H178" s="125"/>
-      <c r="I178" s="125"/>
-      <c r="J178" s="125"/>
-      <c r="K178" s="125"/>
+      <c r="E178" s="166"/>
+      <c r="F178" s="166"/>
+      <c r="G178" s="166"/>
+      <c r="H178" s="166"/>
+      <c r="I178" s="166"/>
+      <c r="J178" s="166"/>
+      <c r="K178" s="166"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -9373,16 +9266,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="126" t="s">
+      <c r="D182" s="150" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="127"/>
-      <c r="F182" s="127"/>
-      <c r="G182" s="127"/>
-      <c r="H182" s="127"/>
-      <c r="I182" s="127"/>
-      <c r="J182" s="127"/>
-      <c r="K182" s="128"/>
+      <c r="E182" s="151"/>
+      <c r="F182" s="151"/>
+      <c r="G182" s="151"/>
+      <c r="H182" s="151"/>
+      <c r="I182" s="151"/>
+      <c r="J182" s="151"/>
+      <c r="K182" s="152"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -9394,16 +9287,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="126" t="s">
+      <c r="D183" s="150" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="127"/>
-      <c r="F183" s="127"/>
-      <c r="G183" s="127"/>
-      <c r="H183" s="127"/>
-      <c r="I183" s="127"/>
-      <c r="J183" s="127"/>
-      <c r="K183" s="128"/>
+      <c r="E183" s="151"/>
+      <c r="F183" s="151"/>
+      <c r="G183" s="151"/>
+      <c r="H183" s="151"/>
+      <c r="I183" s="151"/>
+      <c r="J183" s="151"/>
+      <c r="K183" s="152"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -9415,16 +9308,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="126" t="s">
+      <c r="D184" s="150" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="127"/>
-      <c r="F184" s="127"/>
-      <c r="G184" s="127"/>
-      <c r="H184" s="127"/>
-      <c r="I184" s="127"/>
-      <c r="J184" s="127"/>
-      <c r="K184" s="128"/>
+      <c r="E184" s="151"/>
+      <c r="F184" s="151"/>
+      <c r="G184" s="151"/>
+      <c r="H184" s="151"/>
+      <c r="I184" s="151"/>
+      <c r="J184" s="151"/>
+      <c r="K184" s="152"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -9436,16 +9329,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="126" t="s">
+      <c r="D185" s="150" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="127"/>
-      <c r="F185" s="127"/>
-      <c r="G185" s="127"/>
-      <c r="H185" s="127"/>
-      <c r="I185" s="127"/>
-      <c r="J185" s="127"/>
-      <c r="K185" s="128"/>
+      <c r="E185" s="151"/>
+      <c r="F185" s="151"/>
+      <c r="G185" s="151"/>
+      <c r="H185" s="151"/>
+      <c r="I185" s="151"/>
+      <c r="J185" s="151"/>
+      <c r="K185" s="152"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -9457,16 +9350,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="126" t="s">
+      <c r="D186" s="150" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="127"/>
-      <c r="F186" s="127"/>
-      <c r="G186" s="127"/>
-      <c r="H186" s="127"/>
-      <c r="I186" s="127"/>
-      <c r="J186" s="127"/>
-      <c r="K186" s="128"/>
+      <c r="E186" s="151"/>
+      <c r="F186" s="151"/>
+      <c r="G186" s="151"/>
+      <c r="H186" s="151"/>
+      <c r="I186" s="151"/>
+      <c r="J186" s="151"/>
+      <c r="K186" s="152"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -9478,16 +9371,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="126" t="s">
+      <c r="D187" s="150" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="127"/>
-      <c r="F187" s="127"/>
-      <c r="G187" s="127"/>
-      <c r="H187" s="127"/>
-      <c r="I187" s="127"/>
-      <c r="J187" s="127"/>
-      <c r="K187" s="128"/>
+      <c r="E187" s="151"/>
+      <c r="F187" s="151"/>
+      <c r="G187" s="151"/>
+      <c r="H187" s="151"/>
+      <c r="I187" s="151"/>
+      <c r="J187" s="151"/>
+      <c r="K187" s="152"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -9499,16 +9392,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="126" t="s">
+      <c r="D188" s="150" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="127"/>
-      <c r="F188" s="127"/>
-      <c r="G188" s="127"/>
-      <c r="H188" s="127"/>
-      <c r="I188" s="127"/>
-      <c r="J188" s="127"/>
-      <c r="K188" s="128"/>
+      <c r="E188" s="151"/>
+      <c r="F188" s="151"/>
+      <c r="G188" s="151"/>
+      <c r="H188" s="151"/>
+      <c r="I188" s="151"/>
+      <c r="J188" s="151"/>
+      <c r="K188" s="152"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -9520,16 +9413,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="126" t="s">
+      <c r="D189" s="150" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="127"/>
-      <c r="F189" s="127"/>
-      <c r="G189" s="127"/>
-      <c r="H189" s="127"/>
-      <c r="I189" s="127"/>
-      <c r="J189" s="127"/>
-      <c r="K189" s="128"/>
+      <c r="E189" s="151"/>
+      <c r="F189" s="151"/>
+      <c r="G189" s="151"/>
+      <c r="H189" s="151"/>
+      <c r="I189" s="151"/>
+      <c r="J189" s="151"/>
+      <c r="K189" s="152"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -9541,16 +9434,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="126" t="s">
+      <c r="D190" s="150" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="127"/>
-      <c r="F190" s="127"/>
-      <c r="G190" s="127"/>
-      <c r="H190" s="127"/>
-      <c r="I190" s="127"/>
-      <c r="J190" s="127"/>
-      <c r="K190" s="128"/>
+      <c r="E190" s="151"/>
+      <c r="F190" s="151"/>
+      <c r="G190" s="151"/>
+      <c r="H190" s="151"/>
+      <c r="I190" s="151"/>
+      <c r="J190" s="151"/>
+      <c r="K190" s="152"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -9562,16 +9455,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="126" t="s">
+      <c r="D191" s="150" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="127"/>
-      <c r="F191" s="127"/>
-      <c r="G191" s="127"/>
-      <c r="H191" s="127"/>
-      <c r="I191" s="127"/>
-      <c r="J191" s="127"/>
-      <c r="K191" s="128"/>
+      <c r="E191" s="151"/>
+      <c r="F191" s="151"/>
+      <c r="G191" s="151"/>
+      <c r="H191" s="151"/>
+      <c r="I191" s="151"/>
+      <c r="J191" s="151"/>
+      <c r="K191" s="152"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -9583,16 +9476,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="126" t="s">
+      <c r="D192" s="150" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="127"/>
-      <c r="F192" s="127"/>
-      <c r="G192" s="127"/>
-      <c r="H192" s="127"/>
-      <c r="I192" s="127"/>
-      <c r="J192" s="127"/>
-      <c r="K192" s="128"/>
+      <c r="E192" s="151"/>
+      <c r="F192" s="151"/>
+      <c r="G192" s="151"/>
+      <c r="H192" s="151"/>
+      <c r="I192" s="151"/>
+      <c r="J192" s="151"/>
+      <c r="K192" s="152"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -9604,16 +9497,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="129" t="s">
+      <c r="D193" s="163" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="130"/>
-      <c r="F193" s="130"/>
-      <c r="G193" s="130"/>
-      <c r="H193" s="130"/>
-      <c r="I193" s="130"/>
-      <c r="J193" s="130"/>
-      <c r="K193" s="131"/>
+      <c r="E193" s="164"/>
+      <c r="F193" s="164"/>
+      <c r="G193" s="164"/>
+      <c r="H193" s="164"/>
+      <c r="I193" s="164"/>
+      <c r="J193" s="164"/>
+      <c r="K193" s="165"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -9628,16 +9521,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="132" t="s">
+      <c r="D194" s="145" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="133"/>
-      <c r="F194" s="133"/>
-      <c r="G194" s="133"/>
-      <c r="H194" s="133"/>
-      <c r="I194" s="133"/>
-      <c r="J194" s="133"/>
-      <c r="K194" s="134"/>
+      <c r="E194" s="138"/>
+      <c r="F194" s="138"/>
+      <c r="G194" s="138"/>
+      <c r="H194" s="138"/>
+      <c r="I194" s="138"/>
+      <c r="J194" s="138"/>
+      <c r="K194" s="146"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -9649,16 +9542,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="126" t="s">
+      <c r="D195" s="150" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="127"/>
-      <c r="F195" s="127"/>
-      <c r="G195" s="127"/>
-      <c r="H195" s="127"/>
-      <c r="I195" s="127"/>
-      <c r="J195" s="127"/>
-      <c r="K195" s="128"/>
+      <c r="E195" s="151"/>
+      <c r="F195" s="151"/>
+      <c r="G195" s="151"/>
+      <c r="H195" s="151"/>
+      <c r="I195" s="151"/>
+      <c r="J195" s="151"/>
+      <c r="K195" s="152"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -9670,16 +9563,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="126" t="s">
+      <c r="D196" s="150" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="127"/>
-      <c r="F196" s="127"/>
-      <c r="G196" s="127"/>
-      <c r="H196" s="127"/>
-      <c r="I196" s="127"/>
-      <c r="J196" s="127"/>
-      <c r="K196" s="128"/>
+      <c r="E196" s="151"/>
+      <c r="F196" s="151"/>
+      <c r="G196" s="151"/>
+      <c r="H196" s="151"/>
+      <c r="I196" s="151"/>
+      <c r="J196" s="151"/>
+      <c r="K196" s="152"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -9691,16 +9584,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="126" t="s">
+      <c r="D197" s="150" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="127"/>
-      <c r="F197" s="127"/>
-      <c r="G197" s="127"/>
-      <c r="H197" s="127"/>
-      <c r="I197" s="127"/>
-      <c r="J197" s="127"/>
-      <c r="K197" s="128"/>
+      <c r="E197" s="151"/>
+      <c r="F197" s="151"/>
+      <c r="G197" s="151"/>
+      <c r="H197" s="151"/>
+      <c r="I197" s="151"/>
+      <c r="J197" s="151"/>
+      <c r="K197" s="152"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -9712,16 +9605,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="126" t="s">
+      <c r="D198" s="150" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="127"/>
-      <c r="F198" s="127"/>
-      <c r="G198" s="127"/>
-      <c r="H198" s="127"/>
-      <c r="I198" s="127"/>
-      <c r="J198" s="127"/>
-      <c r="K198" s="128"/>
+      <c r="E198" s="151"/>
+      <c r="F198" s="151"/>
+      <c r="G198" s="151"/>
+      <c r="H198" s="151"/>
+      <c r="I198" s="151"/>
+      <c r="J198" s="151"/>
+      <c r="K198" s="152"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -9752,16 +9645,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="126" t="s">
+      <c r="D200" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="127"/>
-      <c r="F200" s="127"/>
-      <c r="G200" s="127"/>
-      <c r="H200" s="127"/>
-      <c r="I200" s="127"/>
-      <c r="J200" s="127"/>
-      <c r="K200" s="128"/>
+      <c r="E200" s="151"/>
+      <c r="F200" s="151"/>
+      <c r="G200" s="151"/>
+      <c r="H200" s="151"/>
+      <c r="I200" s="151"/>
+      <c r="J200" s="151"/>
+      <c r="K200" s="152"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -9792,16 +9685,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="155" t="s">
+      <c r="D202" s="156" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="156"/>
-      <c r="F202" s="156"/>
-      <c r="G202" s="156"/>
-      <c r="H202" s="156"/>
-      <c r="I202" s="156"/>
-      <c r="J202" s="156"/>
-      <c r="K202" s="157"/>
+      <c r="E202" s="157"/>
+      <c r="F202" s="157"/>
+      <c r="G202" s="157"/>
+      <c r="H202" s="157"/>
+      <c r="I202" s="157"/>
+      <c r="J202" s="157"/>
+      <c r="K202" s="158"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -9832,16 +9725,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="126" t="s">
+      <c r="D204" s="150" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="127"/>
-      <c r="F204" s="127"/>
-      <c r="G204" s="127"/>
-      <c r="H204" s="127"/>
-      <c r="I204" s="127"/>
-      <c r="J204" s="127"/>
-      <c r="K204" s="128"/>
+      <c r="E204" s="151"/>
+      <c r="F204" s="151"/>
+      <c r="G204" s="151"/>
+      <c r="H204" s="151"/>
+      <c r="I204" s="151"/>
+      <c r="J204" s="151"/>
+      <c r="K204" s="152"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -9872,16 +9765,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="126" t="s">
+      <c r="D206" s="150" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="127"/>
-      <c r="F206" s="127"/>
-      <c r="G206" s="127"/>
-      <c r="H206" s="127"/>
-      <c r="I206" s="127"/>
-      <c r="J206" s="127"/>
-      <c r="K206" s="128"/>
+      <c r="E206" s="151"/>
+      <c r="F206" s="151"/>
+      <c r="G206" s="151"/>
+      <c r="H206" s="151"/>
+      <c r="I206" s="151"/>
+      <c r="J206" s="151"/>
+      <c r="K206" s="152"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -9912,16 +9805,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="126" t="s">
+      <c r="D208" s="150" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="127"/>
-      <c r="F208" s="127"/>
-      <c r="G208" s="127"/>
-      <c r="H208" s="127"/>
-      <c r="I208" s="127"/>
-      <c r="J208" s="127"/>
-      <c r="K208" s="128"/>
+      <c r="E208" s="151"/>
+      <c r="F208" s="151"/>
+      <c r="G208" s="151"/>
+      <c r="H208" s="151"/>
+      <c r="I208" s="151"/>
+      <c r="J208" s="151"/>
+      <c r="K208" s="152"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -9955,16 +9848,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="132" t="s">
+      <c r="D210" s="145" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="133"/>
-      <c r="F210" s="133"/>
-      <c r="G210" s="133"/>
-      <c r="H210" s="133"/>
-      <c r="I210" s="133"/>
-      <c r="J210" s="133"/>
-      <c r="K210" s="134"/>
+      <c r="E210" s="138"/>
+      <c r="F210" s="138"/>
+      <c r="G210" s="138"/>
+      <c r="H210" s="138"/>
+      <c r="I210" s="138"/>
+      <c r="J210" s="138"/>
+      <c r="K210" s="146"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -10033,16 +9926,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="126" t="s">
+      <c r="D214" s="150" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="127"/>
-      <c r="F214" s="127"/>
-      <c r="G214" s="127"/>
-      <c r="H214" s="127"/>
-      <c r="I214" s="127"/>
-      <c r="J214" s="127"/>
-      <c r="K214" s="128"/>
+      <c r="E214" s="151"/>
+      <c r="F214" s="151"/>
+      <c r="G214" s="151"/>
+      <c r="H214" s="151"/>
+      <c r="I214" s="151"/>
+      <c r="J214" s="151"/>
+      <c r="K214" s="152"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -10073,16 +9966,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="146" t="s">
+      <c r="D216" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="138"/>
-      <c r="F216" s="138"/>
-      <c r="G216" s="138"/>
-      <c r="H216" s="138"/>
-      <c r="I216" s="138"/>
-      <c r="J216" s="138"/>
-      <c r="K216" s="147"/>
+      <c r="E216" s="135"/>
+      <c r="F216" s="135"/>
+      <c r="G216" s="135"/>
+      <c r="H216" s="135"/>
+      <c r="I216" s="135"/>
+      <c r="J216" s="135"/>
+      <c r="K216" s="144"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -10094,14 +9987,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="132"/>
-      <c r="E217" s="133"/>
-      <c r="F217" s="133"/>
-      <c r="G217" s="133"/>
-      <c r="H217" s="133"/>
-      <c r="I217" s="133"/>
-      <c r="J217" s="133"/>
-      <c r="K217" s="134"/>
+      <c r="D217" s="145"/>
+      <c r="E217" s="138"/>
+      <c r="F217" s="138"/>
+      <c r="G217" s="138"/>
+      <c r="H217" s="138"/>
+      <c r="I217" s="138"/>
+      <c r="J217" s="138"/>
+      <c r="K217" s="146"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -10113,16 +10006,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="146" t="s">
+      <c r="D218" s="143" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="138"/>
-      <c r="F218" s="138"/>
-      <c r="G218" s="138"/>
-      <c r="H218" s="138"/>
-      <c r="I218" s="138"/>
-      <c r="J218" s="138"/>
-      <c r="K218" s="147"/>
+      <c r="E218" s="135"/>
+      <c r="F218" s="135"/>
+      <c r="G218" s="135"/>
+      <c r="H218" s="135"/>
+      <c r="I218" s="135"/>
+      <c r="J218" s="135"/>
+      <c r="K218" s="144"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -10134,14 +10027,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="132"/>
-      <c r="E219" s="133"/>
-      <c r="F219" s="133"/>
-      <c r="G219" s="133"/>
-      <c r="H219" s="133"/>
-      <c r="I219" s="133"/>
-      <c r="J219" s="133"/>
-      <c r="K219" s="134"/>
+      <c r="D219" s="145"/>
+      <c r="E219" s="138"/>
+      <c r="F219" s="138"/>
+      <c r="G219" s="138"/>
+      <c r="H219" s="138"/>
+      <c r="I219" s="138"/>
+      <c r="J219" s="138"/>
+      <c r="K219" s="146"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -10153,16 +10046,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="146" t="s">
+      <c r="D220" s="143" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="138"/>
-      <c r="F220" s="138"/>
-      <c r="G220" s="138"/>
-      <c r="H220" s="138"/>
-      <c r="I220" s="138"/>
-      <c r="J220" s="138"/>
-      <c r="K220" s="147"/>
+      <c r="E220" s="135"/>
+      <c r="F220" s="135"/>
+      <c r="G220" s="135"/>
+      <c r="H220" s="135"/>
+      <c r="I220" s="135"/>
+      <c r="J220" s="135"/>
+      <c r="K220" s="144"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -10174,14 +10067,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="132"/>
-      <c r="E221" s="133"/>
-      <c r="F221" s="133"/>
-      <c r="G221" s="133"/>
-      <c r="H221" s="133"/>
-      <c r="I221" s="133"/>
-      <c r="J221" s="133"/>
-      <c r="K221" s="134"/>
+      <c r="D221" s="145"/>
+      <c r="E221" s="138"/>
+      <c r="F221" s="138"/>
+      <c r="G221" s="138"/>
+      <c r="H221" s="138"/>
+      <c r="I221" s="138"/>
+      <c r="J221" s="138"/>
+      <c r="K221" s="146"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -10193,16 +10086,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="126" t="s">
+      <c r="D222" s="150" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="127"/>
-      <c r="F222" s="127"/>
-      <c r="G222" s="127"/>
-      <c r="H222" s="127"/>
-      <c r="I222" s="127"/>
-      <c r="J222" s="127"/>
-      <c r="K222" s="128"/>
+      <c r="E222" s="151"/>
+      <c r="F222" s="151"/>
+      <c r="G222" s="151"/>
+      <c r="H222" s="151"/>
+      <c r="I222" s="151"/>
+      <c r="J222" s="151"/>
+      <c r="K222" s="152"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -10233,16 +10126,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="126" t="s">
+      <c r="D224" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="127"/>
-      <c r="F224" s="127"/>
-      <c r="G224" s="127"/>
-      <c r="H224" s="127"/>
-      <c r="I224" s="127"/>
-      <c r="J224" s="127"/>
-      <c r="K224" s="128"/>
+      <c r="E224" s="151"/>
+      <c r="F224" s="151"/>
+      <c r="G224" s="151"/>
+      <c r="H224" s="151"/>
+      <c r="I224" s="151"/>
+      <c r="J224" s="151"/>
+      <c r="K224" s="152"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -10276,16 +10169,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="152" t="s">
+      <c r="D226" s="153" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="153"/>
-      <c r="F226" s="153"/>
-      <c r="G226" s="153"/>
-      <c r="H226" s="153"/>
-      <c r="I226" s="153"/>
-      <c r="J226" s="153"/>
-      <c r="K226" s="154"/>
+      <c r="E226" s="154"/>
+      <c r="F226" s="154"/>
+      <c r="G226" s="154"/>
+      <c r="H226" s="154"/>
+      <c r="I226" s="154"/>
+      <c r="J226" s="154"/>
+      <c r="K226" s="155"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -10430,16 +10323,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="150" t="s">
+      <c r="D234" s="147" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="136"/>
-      <c r="F234" s="136"/>
-      <c r="G234" s="136"/>
-      <c r="H234" s="136"/>
-      <c r="I234" s="136"/>
-      <c r="J234" s="136"/>
-      <c r="K234" s="151"/>
+      <c r="E234" s="148"/>
+      <c r="F234" s="148"/>
+      <c r="G234" s="148"/>
+      <c r="H234" s="148"/>
+      <c r="I234" s="148"/>
+      <c r="J234" s="148"/>
+      <c r="K234" s="149"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -10508,16 +10401,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="142" t="s">
+      <c r="D238" s="134" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="138"/>
-      <c r="F238" s="138"/>
-      <c r="G238" s="138"/>
-      <c r="H238" s="138"/>
-      <c r="I238" s="138"/>
-      <c r="J238" s="138"/>
-      <c r="K238" s="139"/>
+      <c r="E238" s="135"/>
+      <c r="F238" s="135"/>
+      <c r="G238" s="135"/>
+      <c r="H238" s="135"/>
+      <c r="I238" s="135"/>
+      <c r="J238" s="135"/>
+      <c r="K238" s="136"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -10529,14 +10422,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="148"/>
-      <c r="E239" s="133"/>
-      <c r="F239" s="133"/>
-      <c r="G239" s="133"/>
-      <c r="H239" s="133"/>
-      <c r="I239" s="133"/>
-      <c r="J239" s="133"/>
-      <c r="K239" s="149"/>
+      <c r="D239" s="137"/>
+      <c r="E239" s="138"/>
+      <c r="F239" s="138"/>
+      <c r="G239" s="138"/>
+      <c r="H239" s="138"/>
+      <c r="I239" s="138"/>
+      <c r="J239" s="138"/>
+      <c r="K239" s="139"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -10548,16 +10441,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="138" t="s">
+      <c r="D240" s="135" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="138"/>
-      <c r="F240" s="138"/>
-      <c r="G240" s="138"/>
-      <c r="H240" s="138"/>
-      <c r="I240" s="138"/>
-      <c r="J240" s="138"/>
-      <c r="K240" s="139"/>
+      <c r="E240" s="135"/>
+      <c r="F240" s="135"/>
+      <c r="G240" s="135"/>
+      <c r="H240" s="135"/>
+      <c r="I240" s="135"/>
+      <c r="J240" s="135"/>
+      <c r="K240" s="136"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -10569,14 +10462,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="140"/>
-      <c r="E241" s="140"/>
-      <c r="F241" s="140"/>
-      <c r="G241" s="140"/>
-      <c r="H241" s="140"/>
-      <c r="I241" s="140"/>
-      <c r="J241" s="140"/>
-      <c r="K241" s="141"/>
+      <c r="D241" s="161"/>
+      <c r="E241" s="161"/>
+      <c r="F241" s="161"/>
+      <c r="G241" s="161"/>
+      <c r="H241" s="161"/>
+      <c r="I241" s="161"/>
+      <c r="J241" s="161"/>
+      <c r="K241" s="162"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -10767,16 +10660,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="135" t="s">
+      <c r="D250" s="159" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="136"/>
-      <c r="F250" s="136"/>
-      <c r="G250" s="136"/>
-      <c r="H250" s="136"/>
-      <c r="I250" s="136"/>
-      <c r="J250" s="136"/>
-      <c r="K250" s="137"/>
+      <c r="E250" s="148"/>
+      <c r="F250" s="148"/>
+      <c r="G250" s="148"/>
+      <c r="H250" s="148"/>
+      <c r="I250" s="148"/>
+      <c r="J250" s="148"/>
+      <c r="K250" s="160"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -11345,16 +11238,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="126" t="s">
+      <c r="D280" s="150" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="127"/>
-      <c r="F280" s="127"/>
-      <c r="G280" s="127"/>
-      <c r="H280" s="127"/>
-      <c r="I280" s="127"/>
-      <c r="J280" s="127"/>
-      <c r="K280" s="128"/>
+      <c r="E280" s="151"/>
+      <c r="F280" s="151"/>
+      <c r="G280" s="151"/>
+      <c r="H280" s="151"/>
+      <c r="I280" s="151"/>
+      <c r="J280" s="151"/>
+      <c r="K280" s="152"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -11461,16 +11354,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="126" t="s">
+      <c r="D286" s="150" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="127"/>
-      <c r="F286" s="127"/>
-      <c r="G286" s="127"/>
-      <c r="H286" s="127"/>
-      <c r="I286" s="127"/>
-      <c r="J286" s="127"/>
-      <c r="K286" s="128"/>
+      <c r="E286" s="151"/>
+      <c r="F286" s="151"/>
+      <c r="G286" s="151"/>
+      <c r="H286" s="151"/>
+      <c r="I286" s="151"/>
+      <c r="J286" s="151"/>
+      <c r="K286" s="152"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -11658,16 +11551,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="126" t="s">
+      <c r="D296" s="150" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="127"/>
-      <c r="F296" s="127"/>
-      <c r="G296" s="127"/>
-      <c r="H296" s="127"/>
-      <c r="I296" s="127"/>
-      <c r="J296" s="127"/>
-      <c r="K296" s="128"/>
+      <c r="E296" s="151"/>
+      <c r="F296" s="151"/>
+      <c r="G296" s="151"/>
+      <c r="H296" s="151"/>
+      <c r="I296" s="151"/>
+      <c r="J296" s="151"/>
+      <c r="K296" s="152"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -11698,16 +11591,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="142" t="s">
+      <c r="D298" s="134" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="138"/>
-      <c r="F298" s="138"/>
-      <c r="G298" s="138"/>
-      <c r="H298" s="138"/>
-      <c r="I298" s="138"/>
-      <c r="J298" s="138"/>
-      <c r="K298" s="139"/>
+      <c r="E298" s="135"/>
+      <c r="F298" s="135"/>
+      <c r="G298" s="135"/>
+      <c r="H298" s="135"/>
+      <c r="I298" s="135"/>
+      <c r="J298" s="135"/>
+      <c r="K298" s="136"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -11719,14 +11612,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="148"/>
-      <c r="E299" s="133"/>
-      <c r="F299" s="133"/>
-      <c r="G299" s="133"/>
-      <c r="H299" s="133"/>
-      <c r="I299" s="133"/>
-      <c r="J299" s="133"/>
-      <c r="K299" s="149"/>
+      <c r="D299" s="137"/>
+      <c r="E299" s="138"/>
+      <c r="F299" s="138"/>
+      <c r="G299" s="138"/>
+      <c r="H299" s="138"/>
+      <c r="I299" s="138"/>
+      <c r="J299" s="138"/>
+      <c r="K299" s="139"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -11738,16 +11631,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="142" t="s">
+      <c r="D300" s="134" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="138"/>
-      <c r="F300" s="138"/>
-      <c r="G300" s="138"/>
-      <c r="H300" s="138"/>
-      <c r="I300" s="138"/>
-      <c r="J300" s="138"/>
-      <c r="K300" s="139"/>
+      <c r="E300" s="135"/>
+      <c r="F300" s="135"/>
+      <c r="G300" s="135"/>
+      <c r="H300" s="135"/>
+      <c r="I300" s="135"/>
+      <c r="J300" s="135"/>
+      <c r="K300" s="136"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -11759,14 +11652,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="148"/>
-      <c r="E301" s="133"/>
-      <c r="F301" s="133"/>
-      <c r="G301" s="133"/>
-      <c r="H301" s="133"/>
-      <c r="I301" s="133"/>
-      <c r="J301" s="133"/>
-      <c r="K301" s="149"/>
+      <c r="D301" s="137"/>
+      <c r="E301" s="138"/>
+      <c r="F301" s="138"/>
+      <c r="G301" s="138"/>
+      <c r="H301" s="138"/>
+      <c r="I301" s="138"/>
+      <c r="J301" s="138"/>
+      <c r="K301" s="139"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -11778,16 +11671,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="142" t="s">
+      <c r="D302" s="134" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="138"/>
-      <c r="F302" s="138"/>
-      <c r="G302" s="138"/>
-      <c r="H302" s="138"/>
-      <c r="I302" s="138"/>
-      <c r="J302" s="138"/>
-      <c r="K302" s="139"/>
+      <c r="E302" s="135"/>
+      <c r="F302" s="135"/>
+      <c r="G302" s="135"/>
+      <c r="H302" s="135"/>
+      <c r="I302" s="135"/>
+      <c r="J302" s="135"/>
+      <c r="K302" s="136"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -11799,14 +11692,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="148"/>
-      <c r="E303" s="133"/>
-      <c r="F303" s="133"/>
-      <c r="G303" s="133"/>
-      <c r="H303" s="133"/>
-      <c r="I303" s="133"/>
-      <c r="J303" s="133"/>
-      <c r="K303" s="149"/>
+      <c r="D303" s="137"/>
+      <c r="E303" s="138"/>
+      <c r="F303" s="138"/>
+      <c r="G303" s="138"/>
+      <c r="H303" s="138"/>
+      <c r="I303" s="138"/>
+      <c r="J303" s="138"/>
+      <c r="K303" s="139"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -11818,16 +11711,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="142" t="s">
+      <c r="D304" s="134" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="138"/>
-      <c r="F304" s="138"/>
-      <c r="G304" s="138"/>
-      <c r="H304" s="138"/>
-      <c r="I304" s="138"/>
-      <c r="J304" s="138"/>
-      <c r="K304" s="139"/>
+      <c r="E304" s="135"/>
+      <c r="F304" s="135"/>
+      <c r="G304" s="135"/>
+      <c r="H304" s="135"/>
+      <c r="I304" s="135"/>
+      <c r="J304" s="135"/>
+      <c r="K304" s="136"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -11839,14 +11732,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="148"/>
-      <c r="E305" s="133"/>
-      <c r="F305" s="133"/>
-      <c r="G305" s="133"/>
-      <c r="H305" s="133"/>
-      <c r="I305" s="133"/>
-      <c r="J305" s="133"/>
-      <c r="K305" s="149"/>
+      <c r="D305" s="137"/>
+      <c r="E305" s="138"/>
+      <c r="F305" s="138"/>
+      <c r="G305" s="138"/>
+      <c r="H305" s="138"/>
+      <c r="I305" s="138"/>
+      <c r="J305" s="138"/>
+      <c r="K305" s="139"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -11861,16 +11754,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="142" t="s">
+      <c r="D306" s="134" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="138"/>
-      <c r="F306" s="138"/>
-      <c r="G306" s="138"/>
-      <c r="H306" s="138"/>
-      <c r="I306" s="138"/>
-      <c r="J306" s="138"/>
-      <c r="K306" s="139"/>
+      <c r="E306" s="135"/>
+      <c r="F306" s="135"/>
+      <c r="G306" s="135"/>
+      <c r="H306" s="135"/>
+      <c r="I306" s="135"/>
+      <c r="J306" s="135"/>
+      <c r="K306" s="136"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -11882,14 +11775,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="148"/>
-      <c r="E307" s="133"/>
-      <c r="F307" s="133"/>
-      <c r="G307" s="133"/>
-      <c r="H307" s="133"/>
-      <c r="I307" s="133"/>
-      <c r="J307" s="133"/>
-      <c r="K307" s="149"/>
+      <c r="D307" s="137"/>
+      <c r="E307" s="138"/>
+      <c r="F307" s="138"/>
+      <c r="G307" s="138"/>
+      <c r="H307" s="138"/>
+      <c r="I307" s="138"/>
+      <c r="J307" s="138"/>
+      <c r="K307" s="139"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -11901,16 +11794,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="142" t="s">
+      <c r="D308" s="134" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="138"/>
-      <c r="F308" s="138"/>
-      <c r="G308" s="138"/>
-      <c r="H308" s="138"/>
-      <c r="I308" s="138"/>
-      <c r="J308" s="138"/>
-      <c r="K308" s="139"/>
+      <c r="E308" s="135"/>
+      <c r="F308" s="135"/>
+      <c r="G308" s="135"/>
+      <c r="H308" s="135"/>
+      <c r="I308" s="135"/>
+      <c r="J308" s="135"/>
+      <c r="K308" s="136"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -11922,14 +11815,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="148"/>
-      <c r="E309" s="133"/>
-      <c r="F309" s="133"/>
-      <c r="G309" s="133"/>
-      <c r="H309" s="133"/>
-      <c r="I309" s="133"/>
-      <c r="J309" s="133"/>
-      <c r="K309" s="149"/>
+      <c r="D309" s="137"/>
+      <c r="E309" s="138"/>
+      <c r="F309" s="138"/>
+      <c r="G309" s="138"/>
+      <c r="H309" s="138"/>
+      <c r="I309" s="138"/>
+      <c r="J309" s="138"/>
+      <c r="K309" s="139"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -15808,20 +15701,32 @@
       <c r="K513" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="D93:K93"/>
-    <mergeCell ref="D96:K96"/>
-    <mergeCell ref="D94:K94"/>
-    <mergeCell ref="D95:K95"/>
-    <mergeCell ref="D92:K92"/>
-    <mergeCell ref="D91:K91"/>
-    <mergeCell ref="D90:K90"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
+  <mergeCells count="62">
+    <mergeCell ref="D75:K75"/>
+    <mergeCell ref="D76:K76"/>
+    <mergeCell ref="D77:K77"/>
+    <mergeCell ref="D78:K78"/>
+    <mergeCell ref="D79:K79"/>
+    <mergeCell ref="D80:K80"/>
+    <mergeCell ref="D81:K81"/>
+    <mergeCell ref="D168:K168"/>
+    <mergeCell ref="D175:K175"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D174:K174"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="D216:K217"/>
     <mergeCell ref="D218:K219"/>
@@ -15838,6 +15743,14 @@
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
     <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D91:K91"/>
+    <mergeCell ref="D90:K90"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
     <mergeCell ref="D250:K250"/>
     <mergeCell ref="D280:K280"/>
     <mergeCell ref="D286:K286"/>
@@ -15846,24 +15759,11 @@
     <mergeCell ref="D194:K194"/>
     <mergeCell ref="D195:K195"/>
     <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D168:K168"/>
-    <mergeCell ref="D175:K175"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D174:K174"/>
+    <mergeCell ref="D93:K93"/>
+    <mergeCell ref="D96:K96"/>
+    <mergeCell ref="D94:K94"/>
+    <mergeCell ref="D95:K95"/>
+    <mergeCell ref="D92:K92"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -15949,16 +15849,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="142" t="s">
+      <c r="D2" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="139"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -15980,14 +15880,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="145"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="142"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -22236,16 +22136,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="125" t="s">
+      <c r="D178" s="166" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="125"/>
-      <c r="F178" s="125"/>
-      <c r="G178" s="125"/>
-      <c r="H178" s="125"/>
-      <c r="I178" s="125"/>
-      <c r="J178" s="125"/>
-      <c r="K178" s="125"/>
+      <c r="E178" s="166"/>
+      <c r="F178" s="166"/>
+      <c r="G178" s="166"/>
+      <c r="H178" s="166"/>
+      <c r="I178" s="166"/>
+      <c r="J178" s="166"/>
+      <c r="K178" s="166"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -22314,16 +22214,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="126" t="s">
+      <c r="D182" s="150" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="127"/>
-      <c r="F182" s="127"/>
-      <c r="G182" s="127"/>
-      <c r="H182" s="127"/>
-      <c r="I182" s="127"/>
-      <c r="J182" s="127"/>
-      <c r="K182" s="128"/>
+      <c r="E182" s="151"/>
+      <c r="F182" s="151"/>
+      <c r="G182" s="151"/>
+      <c r="H182" s="151"/>
+      <c r="I182" s="151"/>
+      <c r="J182" s="151"/>
+      <c r="K182" s="152"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -22335,16 +22235,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="126" t="s">
+      <c r="D183" s="150" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="127"/>
-      <c r="F183" s="127"/>
-      <c r="G183" s="127"/>
-      <c r="H183" s="127"/>
-      <c r="I183" s="127"/>
-      <c r="J183" s="127"/>
-      <c r="K183" s="128"/>
+      <c r="E183" s="151"/>
+      <c r="F183" s="151"/>
+      <c r="G183" s="151"/>
+      <c r="H183" s="151"/>
+      <c r="I183" s="151"/>
+      <c r="J183" s="151"/>
+      <c r="K183" s="152"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -22356,16 +22256,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="126" t="s">
+      <c r="D184" s="150" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="127"/>
-      <c r="F184" s="127"/>
-      <c r="G184" s="127"/>
-      <c r="H184" s="127"/>
-      <c r="I184" s="127"/>
-      <c r="J184" s="127"/>
-      <c r="K184" s="128"/>
+      <c r="E184" s="151"/>
+      <c r="F184" s="151"/>
+      <c r="G184" s="151"/>
+      <c r="H184" s="151"/>
+      <c r="I184" s="151"/>
+      <c r="J184" s="151"/>
+      <c r="K184" s="152"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -22377,16 +22277,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="126" t="s">
+      <c r="D185" s="150" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="127"/>
-      <c r="F185" s="127"/>
-      <c r="G185" s="127"/>
-      <c r="H185" s="127"/>
-      <c r="I185" s="127"/>
-      <c r="J185" s="127"/>
-      <c r="K185" s="128"/>
+      <c r="E185" s="151"/>
+      <c r="F185" s="151"/>
+      <c r="G185" s="151"/>
+      <c r="H185" s="151"/>
+      <c r="I185" s="151"/>
+      <c r="J185" s="151"/>
+      <c r="K185" s="152"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -22398,16 +22298,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="126" t="s">
+      <c r="D186" s="150" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="127"/>
-      <c r="F186" s="127"/>
-      <c r="G186" s="127"/>
-      <c r="H186" s="127"/>
-      <c r="I186" s="127"/>
-      <c r="J186" s="127"/>
-      <c r="K186" s="128"/>
+      <c r="E186" s="151"/>
+      <c r="F186" s="151"/>
+      <c r="G186" s="151"/>
+      <c r="H186" s="151"/>
+      <c r="I186" s="151"/>
+      <c r="J186" s="151"/>
+      <c r="K186" s="152"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -22419,16 +22319,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="126" t="s">
+      <c r="D187" s="150" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="127"/>
-      <c r="F187" s="127"/>
-      <c r="G187" s="127"/>
-      <c r="H187" s="127"/>
-      <c r="I187" s="127"/>
-      <c r="J187" s="127"/>
-      <c r="K187" s="128"/>
+      <c r="E187" s="151"/>
+      <c r="F187" s="151"/>
+      <c r="G187" s="151"/>
+      <c r="H187" s="151"/>
+      <c r="I187" s="151"/>
+      <c r="J187" s="151"/>
+      <c r="K187" s="152"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -22440,16 +22340,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="126" t="s">
+      <c r="D188" s="150" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="127"/>
-      <c r="F188" s="127"/>
-      <c r="G188" s="127"/>
-      <c r="H188" s="127"/>
-      <c r="I188" s="127"/>
-      <c r="J188" s="127"/>
-      <c r="K188" s="128"/>
+      <c r="E188" s="151"/>
+      <c r="F188" s="151"/>
+      <c r="G188" s="151"/>
+      <c r="H188" s="151"/>
+      <c r="I188" s="151"/>
+      <c r="J188" s="151"/>
+      <c r="K188" s="152"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -22461,16 +22361,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="126" t="s">
+      <c r="D189" s="150" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="127"/>
-      <c r="F189" s="127"/>
-      <c r="G189" s="127"/>
-      <c r="H189" s="127"/>
-      <c r="I189" s="127"/>
-      <c r="J189" s="127"/>
-      <c r="K189" s="128"/>
+      <c r="E189" s="151"/>
+      <c r="F189" s="151"/>
+      <c r="G189" s="151"/>
+      <c r="H189" s="151"/>
+      <c r="I189" s="151"/>
+      <c r="J189" s="151"/>
+      <c r="K189" s="152"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -22482,16 +22382,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="126" t="s">
+      <c r="D190" s="150" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="127"/>
-      <c r="F190" s="127"/>
-      <c r="G190" s="127"/>
-      <c r="H190" s="127"/>
-      <c r="I190" s="127"/>
-      <c r="J190" s="127"/>
-      <c r="K190" s="128"/>
+      <c r="E190" s="151"/>
+      <c r="F190" s="151"/>
+      <c r="G190" s="151"/>
+      <c r="H190" s="151"/>
+      <c r="I190" s="151"/>
+      <c r="J190" s="151"/>
+      <c r="K190" s="152"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -22503,16 +22403,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="126" t="s">
+      <c r="D191" s="150" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="127"/>
-      <c r="F191" s="127"/>
-      <c r="G191" s="127"/>
-      <c r="H191" s="127"/>
-      <c r="I191" s="127"/>
-      <c r="J191" s="127"/>
-      <c r="K191" s="128"/>
+      <c r="E191" s="151"/>
+      <c r="F191" s="151"/>
+      <c r="G191" s="151"/>
+      <c r="H191" s="151"/>
+      <c r="I191" s="151"/>
+      <c r="J191" s="151"/>
+      <c r="K191" s="152"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -22524,16 +22424,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="126" t="s">
+      <c r="D192" s="150" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="127"/>
-      <c r="F192" s="127"/>
-      <c r="G192" s="127"/>
-      <c r="H192" s="127"/>
-      <c r="I192" s="127"/>
-      <c r="J192" s="127"/>
-      <c r="K192" s="128"/>
+      <c r="E192" s="151"/>
+      <c r="F192" s="151"/>
+      <c r="G192" s="151"/>
+      <c r="H192" s="151"/>
+      <c r="I192" s="151"/>
+      <c r="J192" s="151"/>
+      <c r="K192" s="152"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -22545,16 +22445,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="129" t="s">
+      <c r="D193" s="163" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="130"/>
-      <c r="F193" s="130"/>
-      <c r="G193" s="130"/>
-      <c r="H193" s="130"/>
-      <c r="I193" s="130"/>
-      <c r="J193" s="130"/>
-      <c r="K193" s="131"/>
+      <c r="E193" s="164"/>
+      <c r="F193" s="164"/>
+      <c r="G193" s="164"/>
+      <c r="H193" s="164"/>
+      <c r="I193" s="164"/>
+      <c r="J193" s="164"/>
+      <c r="K193" s="165"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -22569,16 +22469,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="132" t="s">
+      <c r="D194" s="145" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="133"/>
-      <c r="F194" s="133"/>
-      <c r="G194" s="133"/>
-      <c r="H194" s="133"/>
-      <c r="I194" s="133"/>
-      <c r="J194" s="133"/>
-      <c r="K194" s="134"/>
+      <c r="E194" s="138"/>
+      <c r="F194" s="138"/>
+      <c r="G194" s="138"/>
+      <c r="H194" s="138"/>
+      <c r="I194" s="138"/>
+      <c r="J194" s="138"/>
+      <c r="K194" s="146"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -22590,16 +22490,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="126" t="s">
+      <c r="D195" s="150" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="127"/>
-      <c r="F195" s="127"/>
-      <c r="G195" s="127"/>
-      <c r="H195" s="127"/>
-      <c r="I195" s="127"/>
-      <c r="J195" s="127"/>
-      <c r="K195" s="128"/>
+      <c r="E195" s="151"/>
+      <c r="F195" s="151"/>
+      <c r="G195" s="151"/>
+      <c r="H195" s="151"/>
+      <c r="I195" s="151"/>
+      <c r="J195" s="151"/>
+      <c r="K195" s="152"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -22611,16 +22511,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="126" t="s">
+      <c r="D196" s="150" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="127"/>
-      <c r="F196" s="127"/>
-      <c r="G196" s="127"/>
-      <c r="H196" s="127"/>
-      <c r="I196" s="127"/>
-      <c r="J196" s="127"/>
-      <c r="K196" s="128"/>
+      <c r="E196" s="151"/>
+      <c r="F196" s="151"/>
+      <c r="G196" s="151"/>
+      <c r="H196" s="151"/>
+      <c r="I196" s="151"/>
+      <c r="J196" s="151"/>
+      <c r="K196" s="152"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -22632,16 +22532,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="126" t="s">
+      <c r="D197" s="150" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="127"/>
-      <c r="F197" s="127"/>
-      <c r="G197" s="127"/>
-      <c r="H197" s="127"/>
-      <c r="I197" s="127"/>
-      <c r="J197" s="127"/>
-      <c r="K197" s="128"/>
+      <c r="E197" s="151"/>
+      <c r="F197" s="151"/>
+      <c r="G197" s="151"/>
+      <c r="H197" s="151"/>
+      <c r="I197" s="151"/>
+      <c r="J197" s="151"/>
+      <c r="K197" s="152"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -22653,16 +22553,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="126" t="s">
+      <c r="D198" s="150" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="127"/>
-      <c r="F198" s="127"/>
-      <c r="G198" s="127"/>
-      <c r="H198" s="127"/>
-      <c r="I198" s="127"/>
-      <c r="J198" s="127"/>
-      <c r="K198" s="128"/>
+      <c r="E198" s="151"/>
+      <c r="F198" s="151"/>
+      <c r="G198" s="151"/>
+      <c r="H198" s="151"/>
+      <c r="I198" s="151"/>
+      <c r="J198" s="151"/>
+      <c r="K198" s="152"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -22693,16 +22593,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="126" t="s">
+      <c r="D200" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="127"/>
-      <c r="F200" s="127"/>
-      <c r="G200" s="127"/>
-      <c r="H200" s="127"/>
-      <c r="I200" s="127"/>
-      <c r="J200" s="127"/>
-      <c r="K200" s="128"/>
+      <c r="E200" s="151"/>
+      <c r="F200" s="151"/>
+      <c r="G200" s="151"/>
+      <c r="H200" s="151"/>
+      <c r="I200" s="151"/>
+      <c r="J200" s="151"/>
+      <c r="K200" s="152"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -22733,16 +22633,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="155" t="s">
+      <c r="D202" s="156" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="156"/>
-      <c r="F202" s="156"/>
-      <c r="G202" s="156"/>
-      <c r="H202" s="156"/>
-      <c r="I202" s="156"/>
-      <c r="J202" s="156"/>
-      <c r="K202" s="157"/>
+      <c r="E202" s="157"/>
+      <c r="F202" s="157"/>
+      <c r="G202" s="157"/>
+      <c r="H202" s="157"/>
+      <c r="I202" s="157"/>
+      <c r="J202" s="157"/>
+      <c r="K202" s="158"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -22773,16 +22673,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="126" t="s">
+      <c r="D204" s="150" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="127"/>
-      <c r="F204" s="127"/>
-      <c r="G204" s="127"/>
-      <c r="H204" s="127"/>
-      <c r="I204" s="127"/>
-      <c r="J204" s="127"/>
-      <c r="K204" s="128"/>
+      <c r="E204" s="151"/>
+      <c r="F204" s="151"/>
+      <c r="G204" s="151"/>
+      <c r="H204" s="151"/>
+      <c r="I204" s="151"/>
+      <c r="J204" s="151"/>
+      <c r="K204" s="152"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -22813,16 +22713,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="126" t="s">
+      <c r="D206" s="150" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="127"/>
-      <c r="F206" s="127"/>
-      <c r="G206" s="127"/>
-      <c r="H206" s="127"/>
-      <c r="I206" s="127"/>
-      <c r="J206" s="127"/>
-      <c r="K206" s="128"/>
+      <c r="E206" s="151"/>
+      <c r="F206" s="151"/>
+      <c r="G206" s="151"/>
+      <c r="H206" s="151"/>
+      <c r="I206" s="151"/>
+      <c r="J206" s="151"/>
+      <c r="K206" s="152"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -22853,16 +22753,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="126" t="s">
+      <c r="D208" s="150" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="127"/>
-      <c r="F208" s="127"/>
-      <c r="G208" s="127"/>
-      <c r="H208" s="127"/>
-      <c r="I208" s="127"/>
-      <c r="J208" s="127"/>
-      <c r="K208" s="128"/>
+      <c r="E208" s="151"/>
+      <c r="F208" s="151"/>
+      <c r="G208" s="151"/>
+      <c r="H208" s="151"/>
+      <c r="I208" s="151"/>
+      <c r="J208" s="151"/>
+      <c r="K208" s="152"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -22896,16 +22796,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="132" t="s">
+      <c r="D210" s="145" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="133"/>
-      <c r="F210" s="133"/>
-      <c r="G210" s="133"/>
-      <c r="H210" s="133"/>
-      <c r="I210" s="133"/>
-      <c r="J210" s="133"/>
-      <c r="K210" s="134"/>
+      <c r="E210" s="138"/>
+      <c r="F210" s="138"/>
+      <c r="G210" s="138"/>
+      <c r="H210" s="138"/>
+      <c r="I210" s="138"/>
+      <c r="J210" s="138"/>
+      <c r="K210" s="146"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -22974,16 +22874,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="126" t="s">
+      <c r="D214" s="150" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="127"/>
-      <c r="F214" s="127"/>
-      <c r="G214" s="127"/>
-      <c r="H214" s="127"/>
-      <c r="I214" s="127"/>
-      <c r="J214" s="127"/>
-      <c r="K214" s="128"/>
+      <c r="E214" s="151"/>
+      <c r="F214" s="151"/>
+      <c r="G214" s="151"/>
+      <c r="H214" s="151"/>
+      <c r="I214" s="151"/>
+      <c r="J214" s="151"/>
+      <c r="K214" s="152"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -23014,16 +22914,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="146" t="s">
+      <c r="D216" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="138"/>
-      <c r="F216" s="138"/>
-      <c r="G216" s="138"/>
-      <c r="H216" s="138"/>
-      <c r="I216" s="138"/>
-      <c r="J216" s="138"/>
-      <c r="K216" s="147"/>
+      <c r="E216" s="135"/>
+      <c r="F216" s="135"/>
+      <c r="G216" s="135"/>
+      <c r="H216" s="135"/>
+      <c r="I216" s="135"/>
+      <c r="J216" s="135"/>
+      <c r="K216" s="144"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -23035,14 +22935,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="132"/>
-      <c r="E217" s="133"/>
-      <c r="F217" s="133"/>
-      <c r="G217" s="133"/>
-      <c r="H217" s="133"/>
-      <c r="I217" s="133"/>
-      <c r="J217" s="133"/>
-      <c r="K217" s="134"/>
+      <c r="D217" s="145"/>
+      <c r="E217" s="138"/>
+      <c r="F217" s="138"/>
+      <c r="G217" s="138"/>
+      <c r="H217" s="138"/>
+      <c r="I217" s="138"/>
+      <c r="J217" s="138"/>
+      <c r="K217" s="146"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -23054,16 +22954,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="146" t="s">
+      <c r="D218" s="143" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="138"/>
-      <c r="F218" s="138"/>
-      <c r="G218" s="138"/>
-      <c r="H218" s="138"/>
-      <c r="I218" s="138"/>
-      <c r="J218" s="138"/>
-      <c r="K218" s="147"/>
+      <c r="E218" s="135"/>
+      <c r="F218" s="135"/>
+      <c r="G218" s="135"/>
+      <c r="H218" s="135"/>
+      <c r="I218" s="135"/>
+      <c r="J218" s="135"/>
+      <c r="K218" s="144"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -23075,14 +22975,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="132"/>
-      <c r="E219" s="133"/>
-      <c r="F219" s="133"/>
-      <c r="G219" s="133"/>
-      <c r="H219" s="133"/>
-      <c r="I219" s="133"/>
-      <c r="J219" s="133"/>
-      <c r="K219" s="134"/>
+      <c r="D219" s="145"/>
+      <c r="E219" s="138"/>
+      <c r="F219" s="138"/>
+      <c r="G219" s="138"/>
+      <c r="H219" s="138"/>
+      <c r="I219" s="138"/>
+      <c r="J219" s="138"/>
+      <c r="K219" s="146"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -23094,16 +22994,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="146" t="s">
+      <c r="D220" s="143" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="138"/>
-      <c r="F220" s="138"/>
-      <c r="G220" s="138"/>
-      <c r="H220" s="138"/>
-      <c r="I220" s="138"/>
-      <c r="J220" s="138"/>
-      <c r="K220" s="147"/>
+      <c r="E220" s="135"/>
+      <c r="F220" s="135"/>
+      <c r="G220" s="135"/>
+      <c r="H220" s="135"/>
+      <c r="I220" s="135"/>
+      <c r="J220" s="135"/>
+      <c r="K220" s="144"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -23115,14 +23015,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="132"/>
-      <c r="E221" s="133"/>
-      <c r="F221" s="133"/>
-      <c r="G221" s="133"/>
-      <c r="H221" s="133"/>
-      <c r="I221" s="133"/>
-      <c r="J221" s="133"/>
-      <c r="K221" s="134"/>
+      <c r="D221" s="145"/>
+      <c r="E221" s="138"/>
+      <c r="F221" s="138"/>
+      <c r="G221" s="138"/>
+      <c r="H221" s="138"/>
+      <c r="I221" s="138"/>
+      <c r="J221" s="138"/>
+      <c r="K221" s="146"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -23134,16 +23034,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="126" t="s">
+      <c r="D222" s="150" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="127"/>
-      <c r="F222" s="127"/>
-      <c r="G222" s="127"/>
-      <c r="H222" s="127"/>
-      <c r="I222" s="127"/>
-      <c r="J222" s="127"/>
-      <c r="K222" s="128"/>
+      <c r="E222" s="151"/>
+      <c r="F222" s="151"/>
+      <c r="G222" s="151"/>
+      <c r="H222" s="151"/>
+      <c r="I222" s="151"/>
+      <c r="J222" s="151"/>
+      <c r="K222" s="152"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -23174,16 +23074,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="126" t="s">
+      <c r="D224" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="127"/>
-      <c r="F224" s="127"/>
-      <c r="G224" s="127"/>
-      <c r="H224" s="127"/>
-      <c r="I224" s="127"/>
-      <c r="J224" s="127"/>
-      <c r="K224" s="128"/>
+      <c r="E224" s="151"/>
+      <c r="F224" s="151"/>
+      <c r="G224" s="151"/>
+      <c r="H224" s="151"/>
+      <c r="I224" s="151"/>
+      <c r="J224" s="151"/>
+      <c r="K224" s="152"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -23217,16 +23117,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="152" t="s">
+      <c r="D226" s="153" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="153"/>
-      <c r="F226" s="153"/>
-      <c r="G226" s="153"/>
-      <c r="H226" s="153"/>
-      <c r="I226" s="153"/>
-      <c r="J226" s="153"/>
-      <c r="K226" s="154"/>
+      <c r="E226" s="154"/>
+      <c r="F226" s="154"/>
+      <c r="G226" s="154"/>
+      <c r="H226" s="154"/>
+      <c r="I226" s="154"/>
+      <c r="J226" s="154"/>
+      <c r="K226" s="155"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -23371,16 +23271,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="150" t="s">
+      <c r="D234" s="147" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="136"/>
-      <c r="F234" s="136"/>
-      <c r="G234" s="136"/>
-      <c r="H234" s="136"/>
-      <c r="I234" s="136"/>
-      <c r="J234" s="136"/>
-      <c r="K234" s="151"/>
+      <c r="E234" s="148"/>
+      <c r="F234" s="148"/>
+      <c r="G234" s="148"/>
+      <c r="H234" s="148"/>
+      <c r="I234" s="148"/>
+      <c r="J234" s="148"/>
+      <c r="K234" s="149"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -23449,16 +23349,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="142" t="s">
+      <c r="D238" s="134" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="138"/>
-      <c r="F238" s="138"/>
-      <c r="G238" s="138"/>
-      <c r="H238" s="138"/>
-      <c r="I238" s="138"/>
-      <c r="J238" s="138"/>
-      <c r="K238" s="139"/>
+      <c r="E238" s="135"/>
+      <c r="F238" s="135"/>
+      <c r="G238" s="135"/>
+      <c r="H238" s="135"/>
+      <c r="I238" s="135"/>
+      <c r="J238" s="135"/>
+      <c r="K238" s="136"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -23470,14 +23370,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="148"/>
-      <c r="E239" s="133"/>
-      <c r="F239" s="133"/>
-      <c r="G239" s="133"/>
-      <c r="H239" s="133"/>
-      <c r="I239" s="133"/>
-      <c r="J239" s="133"/>
-      <c r="K239" s="149"/>
+      <c r="D239" s="137"/>
+      <c r="E239" s="138"/>
+      <c r="F239" s="138"/>
+      <c r="G239" s="138"/>
+      <c r="H239" s="138"/>
+      <c r="I239" s="138"/>
+      <c r="J239" s="138"/>
+      <c r="K239" s="139"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -23489,16 +23389,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="138" t="s">
+      <c r="D240" s="135" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="138"/>
-      <c r="F240" s="138"/>
-      <c r="G240" s="138"/>
-      <c r="H240" s="138"/>
-      <c r="I240" s="138"/>
-      <c r="J240" s="138"/>
-      <c r="K240" s="139"/>
+      <c r="E240" s="135"/>
+      <c r="F240" s="135"/>
+      <c r="G240" s="135"/>
+      <c r="H240" s="135"/>
+      <c r="I240" s="135"/>
+      <c r="J240" s="135"/>
+      <c r="K240" s="136"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -23510,14 +23410,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="140"/>
-      <c r="E241" s="140"/>
-      <c r="F241" s="140"/>
-      <c r="G241" s="140"/>
-      <c r="H241" s="140"/>
-      <c r="I241" s="140"/>
-      <c r="J241" s="140"/>
-      <c r="K241" s="141"/>
+      <c r="D241" s="161"/>
+      <c r="E241" s="161"/>
+      <c r="F241" s="161"/>
+      <c r="G241" s="161"/>
+      <c r="H241" s="161"/>
+      <c r="I241" s="161"/>
+      <c r="J241" s="161"/>
+      <c r="K241" s="162"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -23708,16 +23608,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="135" t="s">
+      <c r="D250" s="159" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="136"/>
-      <c r="F250" s="136"/>
-      <c r="G250" s="136"/>
-      <c r="H250" s="136"/>
-      <c r="I250" s="136"/>
-      <c r="J250" s="136"/>
-      <c r="K250" s="137"/>
+      <c r="E250" s="148"/>
+      <c r="F250" s="148"/>
+      <c r="G250" s="148"/>
+      <c r="H250" s="148"/>
+      <c r="I250" s="148"/>
+      <c r="J250" s="148"/>
+      <c r="K250" s="160"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -24286,16 +24186,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="126" t="s">
+      <c r="D280" s="150" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="127"/>
-      <c r="F280" s="127"/>
-      <c r="G280" s="127"/>
-      <c r="H280" s="127"/>
-      <c r="I280" s="127"/>
-      <c r="J280" s="127"/>
-      <c r="K280" s="128"/>
+      <c r="E280" s="151"/>
+      <c r="F280" s="151"/>
+      <c r="G280" s="151"/>
+      <c r="H280" s="151"/>
+      <c r="I280" s="151"/>
+      <c r="J280" s="151"/>
+      <c r="K280" s="152"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -24402,16 +24302,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="126" t="s">
+      <c r="D286" s="150" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="127"/>
-      <c r="F286" s="127"/>
-      <c r="G286" s="127"/>
-      <c r="H286" s="127"/>
-      <c r="I286" s="127"/>
-      <c r="J286" s="127"/>
-      <c r="K286" s="128"/>
+      <c r="E286" s="151"/>
+      <c r="F286" s="151"/>
+      <c r="G286" s="151"/>
+      <c r="H286" s="151"/>
+      <c r="I286" s="151"/>
+      <c r="J286" s="151"/>
+      <c r="K286" s="152"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -24599,16 +24499,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="126" t="s">
+      <c r="D296" s="150" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="127"/>
-      <c r="F296" s="127"/>
-      <c r="G296" s="127"/>
-      <c r="H296" s="127"/>
-      <c r="I296" s="127"/>
-      <c r="J296" s="127"/>
-      <c r="K296" s="128"/>
+      <c r="E296" s="151"/>
+      <c r="F296" s="151"/>
+      <c r="G296" s="151"/>
+      <c r="H296" s="151"/>
+      <c r="I296" s="151"/>
+      <c r="J296" s="151"/>
+      <c r="K296" s="152"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -24639,16 +24539,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="142" t="s">
+      <c r="D298" s="134" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="138"/>
-      <c r="F298" s="138"/>
-      <c r="G298" s="138"/>
-      <c r="H298" s="138"/>
-      <c r="I298" s="138"/>
-      <c r="J298" s="138"/>
-      <c r="K298" s="139"/>
+      <c r="E298" s="135"/>
+      <c r="F298" s="135"/>
+      <c r="G298" s="135"/>
+      <c r="H298" s="135"/>
+      <c r="I298" s="135"/>
+      <c r="J298" s="135"/>
+      <c r="K298" s="136"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -24660,14 +24560,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="148"/>
-      <c r="E299" s="133"/>
-      <c r="F299" s="133"/>
-      <c r="G299" s="133"/>
-      <c r="H299" s="133"/>
-      <c r="I299" s="133"/>
-      <c r="J299" s="133"/>
-      <c r="K299" s="149"/>
+      <c r="D299" s="137"/>
+      <c r="E299" s="138"/>
+      <c r="F299" s="138"/>
+      <c r="G299" s="138"/>
+      <c r="H299" s="138"/>
+      <c r="I299" s="138"/>
+      <c r="J299" s="138"/>
+      <c r="K299" s="139"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -24679,16 +24579,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="142" t="s">
+      <c r="D300" s="134" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="138"/>
-      <c r="F300" s="138"/>
-      <c r="G300" s="138"/>
-      <c r="H300" s="138"/>
-      <c r="I300" s="138"/>
-      <c r="J300" s="138"/>
-      <c r="K300" s="139"/>
+      <c r="E300" s="135"/>
+      <c r="F300" s="135"/>
+      <c r="G300" s="135"/>
+      <c r="H300" s="135"/>
+      <c r="I300" s="135"/>
+      <c r="J300" s="135"/>
+      <c r="K300" s="136"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -24700,14 +24600,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="148"/>
-      <c r="E301" s="133"/>
-      <c r="F301" s="133"/>
-      <c r="G301" s="133"/>
-      <c r="H301" s="133"/>
-      <c r="I301" s="133"/>
-      <c r="J301" s="133"/>
-      <c r="K301" s="149"/>
+      <c r="D301" s="137"/>
+      <c r="E301" s="138"/>
+      <c r="F301" s="138"/>
+      <c r="G301" s="138"/>
+      <c r="H301" s="138"/>
+      <c r="I301" s="138"/>
+      <c r="J301" s="138"/>
+      <c r="K301" s="139"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -24719,16 +24619,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="142" t="s">
+      <c r="D302" s="134" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="138"/>
-      <c r="F302" s="138"/>
-      <c r="G302" s="138"/>
-      <c r="H302" s="138"/>
-      <c r="I302" s="138"/>
-      <c r="J302" s="138"/>
-      <c r="K302" s="139"/>
+      <c r="E302" s="135"/>
+      <c r="F302" s="135"/>
+      <c r="G302" s="135"/>
+      <c r="H302" s="135"/>
+      <c r="I302" s="135"/>
+      <c r="J302" s="135"/>
+      <c r="K302" s="136"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -24740,14 +24640,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="148"/>
-      <c r="E303" s="133"/>
-      <c r="F303" s="133"/>
-      <c r="G303" s="133"/>
-      <c r="H303" s="133"/>
-      <c r="I303" s="133"/>
-      <c r="J303" s="133"/>
-      <c r="K303" s="149"/>
+      <c r="D303" s="137"/>
+      <c r="E303" s="138"/>
+      <c r="F303" s="138"/>
+      <c r="G303" s="138"/>
+      <c r="H303" s="138"/>
+      <c r="I303" s="138"/>
+      <c r="J303" s="138"/>
+      <c r="K303" s="139"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -24759,16 +24659,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="142" t="s">
+      <c r="D304" s="134" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="138"/>
-      <c r="F304" s="138"/>
-      <c r="G304" s="138"/>
-      <c r="H304" s="138"/>
-      <c r="I304" s="138"/>
-      <c r="J304" s="138"/>
-      <c r="K304" s="139"/>
+      <c r="E304" s="135"/>
+      <c r="F304" s="135"/>
+      <c r="G304" s="135"/>
+      <c r="H304" s="135"/>
+      <c r="I304" s="135"/>
+      <c r="J304" s="135"/>
+      <c r="K304" s="136"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -24780,14 +24680,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="148"/>
-      <c r="E305" s="133"/>
-      <c r="F305" s="133"/>
-      <c r="G305" s="133"/>
-      <c r="H305" s="133"/>
-      <c r="I305" s="133"/>
-      <c r="J305" s="133"/>
-      <c r="K305" s="149"/>
+      <c r="D305" s="137"/>
+      <c r="E305" s="138"/>
+      <c r="F305" s="138"/>
+      <c r="G305" s="138"/>
+      <c r="H305" s="138"/>
+      <c r="I305" s="138"/>
+      <c r="J305" s="138"/>
+      <c r="K305" s="139"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -24802,16 +24702,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="142" t="s">
+      <c r="D306" s="134" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="138"/>
-      <c r="F306" s="138"/>
-      <c r="G306" s="138"/>
-      <c r="H306" s="138"/>
-      <c r="I306" s="138"/>
-      <c r="J306" s="138"/>
-      <c r="K306" s="139"/>
+      <c r="E306" s="135"/>
+      <c r="F306" s="135"/>
+      <c r="G306" s="135"/>
+      <c r="H306" s="135"/>
+      <c r="I306" s="135"/>
+      <c r="J306" s="135"/>
+      <c r="K306" s="136"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -24823,14 +24723,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="148"/>
-      <c r="E307" s="133"/>
-      <c r="F307" s="133"/>
-      <c r="G307" s="133"/>
-      <c r="H307" s="133"/>
-      <c r="I307" s="133"/>
-      <c r="J307" s="133"/>
-      <c r="K307" s="149"/>
+      <c r="D307" s="137"/>
+      <c r="E307" s="138"/>
+      <c r="F307" s="138"/>
+      <c r="G307" s="138"/>
+      <c r="H307" s="138"/>
+      <c r="I307" s="138"/>
+      <c r="J307" s="138"/>
+      <c r="K307" s="139"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -24842,16 +24742,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="142" t="s">
+      <c r="D308" s="134" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="138"/>
-      <c r="F308" s="138"/>
-      <c r="G308" s="138"/>
-      <c r="H308" s="138"/>
-      <c r="I308" s="138"/>
-      <c r="J308" s="138"/>
-      <c r="K308" s="139"/>
+      <c r="E308" s="135"/>
+      <c r="F308" s="135"/>
+      <c r="G308" s="135"/>
+      <c r="H308" s="135"/>
+      <c r="I308" s="135"/>
+      <c r="J308" s="135"/>
+      <c r="K308" s="136"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -24863,14 +24763,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="148"/>
-      <c r="E309" s="133"/>
-      <c r="F309" s="133"/>
-      <c r="G309" s="133"/>
-      <c r="H309" s="133"/>
-      <c r="I309" s="133"/>
-      <c r="J309" s="133"/>
-      <c r="K309" s="149"/>
+      <c r="D309" s="137"/>
+      <c r="E309" s="138"/>
+      <c r="F309" s="138"/>
+      <c r="G309" s="138"/>
+      <c r="H309" s="138"/>
+      <c r="I309" s="138"/>
+      <c r="J309" s="138"/>
+      <c r="K309" s="139"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -28750,12 +28650,29 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="D214:K214"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="D202:K202"/>
     <mergeCell ref="D280:K280"/>
     <mergeCell ref="D286:K286"/>
     <mergeCell ref="D296:K296"/>
@@ -28772,29 +28689,12 @@
     <mergeCell ref="D250:K250"/>
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="D214:K214"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D200:K200"/>
-    <mergeCell ref="D202:K202"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape"/>

--- a/data/Switches.xlsx
+++ b/data/Switches.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\IoGR\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEB0BF4-5693-4622-A61C-CE7E0ADEF712}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="11805"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Switches_New" sheetId="4" r:id="rId1"/>
@@ -12,12 +18,20 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="446">
   <si>
     <t>ID</t>
   </si>
@@ -1177,9 +1191,6 @@
     <t>First Room Reward?</t>
   </si>
   <si>
-    <t>Input Setting (0x00 = Type1, 0x00 = Type2)</t>
-  </si>
-  <si>
     <t>Hieroglyph slot 1 status (FF not filled, 00-05 filled with tile)</t>
   </si>
   <si>
@@ -1349,12 +1360,21 @@
   </si>
   <si>
     <t>Gem Reward Amount 7</t>
+  </si>
+  <si>
+    <t>Audio Setting (0x00 = Stereo, 0x01 = Mono)</t>
+  </si>
+  <si>
+    <t>Input Setting (0x00 = Type1, 0x01 = Type2)</t>
+  </si>
+  <si>
+    <t>Level Setting (0x00 = Beginner, 0x01 = Intermediate, 0x02 = Advanced, 0x03 = Expert)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -2507,13 +2527,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
@@ -2525,6 +2545,36 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2532,15 +2582,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2561,7 +2602,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2571,15 +2621,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2612,34 +2653,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2654,6 +2674,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2702,7 +2725,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2735,9 +2758,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2770,6 +2810,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2945,15 +3002,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93:K93"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D296" sqref="D296:K296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3026,16 +3083,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="136"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="146"/>
       <c r="L2" s="119" t="s">
         <v>7</v>
       </c>
@@ -3053,14 +3110,14 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="142"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
       <c r="L3" s="119" t="s">
         <v>8</v>
       </c>
@@ -4190,7 +4247,7 @@
         <v>232-239</v>
       </c>
       <c r="D31" s="122" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>215</v>
@@ -4791,7 +4848,7 @@
         <v>320</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H48" s="49" t="s">
         <v>322</v>
@@ -5414,7 +5471,7 @@
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="61" t="str">
-        <f t="shared" ref="D71:K81" si="6">"(Unused) Chest "&amp;8*($A71-64)+D$1</f>
+        <f t="shared" ref="D71:K74" si="6">"(Unused) Chest "&amp;8*($A71-64)+D$1</f>
         <v>(Unused) Chest 47</v>
       </c>
       <c r="E71" s="55" t="str">
@@ -5586,7 +5643,7 @@
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="131" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E75" s="132"/>
       <c r="F75" s="132"/>
@@ -5607,7 +5664,7 @@
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="131" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E76" s="132"/>
       <c r="F76" s="132"/>
@@ -5628,7 +5685,7 @@
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="131" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E77" s="132"/>
       <c r="F77" s="132"/>
@@ -5649,7 +5706,7 @@
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="131" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E78" s="132"/>
       <c r="F78" s="132"/>
@@ -5670,7 +5727,7 @@
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="131" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E79" s="132"/>
       <c r="F79" s="132"/>
@@ -5691,7 +5748,7 @@
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="131" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E80" s="132"/>
       <c r="F80" s="132"/>
@@ -5711,16 +5768,16 @@
         <v>A4F</v>
       </c>
       <c r="C81" s="33"/>
-      <c r="D81" s="167" t="s">
-        <v>443</v>
-      </c>
-      <c r="E81" s="168"/>
-      <c r="F81" s="168"/>
-      <c r="G81" s="168"/>
-      <c r="H81" s="168"/>
-      <c r="I81" s="168"/>
-      <c r="J81" s="168"/>
-      <c r="K81" s="169"/>
+      <c r="D81" s="134" t="s">
+        <v>442</v>
+      </c>
+      <c r="E81" s="135"/>
+      <c r="F81" s="135"/>
+      <c r="G81" s="135"/>
+      <c r="H81" s="135"/>
+      <c r="I81" s="135"/>
+      <c r="J81" s="135"/>
+      <c r="K81" s="136"/>
       <c r="L81" s="57"/>
       <c r="M81" s="58"/>
       <c r="N81" s="58"/>
@@ -5916,7 +5973,7 @@
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="131" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E90" s="132"/>
       <c r="F90" s="132"/>
@@ -5937,7 +5994,7 @@
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="131" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E91" s="132"/>
       <c r="F91" s="132"/>
@@ -5958,7 +6015,7 @@
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="131" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E92" s="132"/>
       <c r="F92" s="132"/>
@@ -5978,16 +6035,16 @@
         <v>A5B</v>
       </c>
       <c r="C93" s="13"/>
-      <c r="D93" s="128" t="s">
-        <v>435</v>
-      </c>
-      <c r="E93" s="129"/>
-      <c r="F93" s="129"/>
-      <c r="G93" s="129"/>
-      <c r="H93" s="129"/>
-      <c r="I93" s="129"/>
-      <c r="J93" s="129"/>
-      <c r="K93" s="130"/>
+      <c r="D93" s="170" t="s">
+        <v>434</v>
+      </c>
+      <c r="E93" s="171"/>
+      <c r="F93" s="171"/>
+      <c r="G93" s="171"/>
+      <c r="H93" s="171"/>
+      <c r="I93" s="171"/>
+      <c r="J93" s="171"/>
+      <c r="K93" s="172"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="12">
@@ -5999,16 +6056,16 @@
         <v>A5C</v>
       </c>
       <c r="C94" s="13"/>
-      <c r="D94" s="128" t="s">
-        <v>436</v>
-      </c>
-      <c r="E94" s="129"/>
-      <c r="F94" s="129"/>
-      <c r="G94" s="129"/>
-      <c r="H94" s="129"/>
-      <c r="I94" s="129"/>
-      <c r="J94" s="129"/>
-      <c r="K94" s="130"/>
+      <c r="D94" s="170" t="s">
+        <v>435</v>
+      </c>
+      <c r="E94" s="171"/>
+      <c r="F94" s="171"/>
+      <c r="G94" s="171"/>
+      <c r="H94" s="171"/>
+      <c r="I94" s="171"/>
+      <c r="J94" s="171"/>
+      <c r="K94" s="172"/>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="12">
@@ -6020,16 +6077,16 @@
         <v>A5D</v>
       </c>
       <c r="C95" s="13"/>
-      <c r="D95" s="128" t="s">
-        <v>431</v>
-      </c>
-      <c r="E95" s="129"/>
-      <c r="F95" s="129"/>
-      <c r="G95" s="129"/>
-      <c r="H95" s="129"/>
-      <c r="I95" s="129"/>
-      <c r="J95" s="129"/>
-      <c r="K95" s="130"/>
+      <c r="D95" s="170" t="s">
+        <v>430</v>
+      </c>
+      <c r="E95" s="171"/>
+      <c r="F95" s="171"/>
+      <c r="G95" s="171"/>
+      <c r="H95" s="171"/>
+      <c r="I95" s="171"/>
+      <c r="J95" s="171"/>
+      <c r="K95" s="172"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="12">
@@ -6042,7 +6099,7 @@
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="131" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E96" s="132"/>
       <c r="F96" s="132"/>
@@ -6064,23 +6121,23 @@
       <c r="C97" s="33"/>
       <c r="D97" s="45"/>
       <c r="E97" s="125"/>
-      <c r="F97" s="170" t="s">
-        <v>429</v>
-      </c>
-      <c r="G97" s="172" t="s">
+      <c r="F97" s="128" t="s">
         <v>428</v>
       </c>
-      <c r="H97" s="172" t="s">
+      <c r="G97" s="130" t="s">
         <v>427</v>
       </c>
-      <c r="I97" s="171" t="s">
+      <c r="H97" s="130" t="s">
         <v>426</v>
       </c>
+      <c r="I97" s="129" t="s">
+        <v>425</v>
+      </c>
       <c r="J97" s="126" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K97" s="127" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L97" s="57"/>
       <c r="M97" s="58"/>
@@ -8989,16 +9046,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="166" t="s">
+      <c r="D168" s="137" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="166"/>
-      <c r="F168" s="166"/>
-      <c r="G168" s="166"/>
-      <c r="H168" s="166"/>
-      <c r="I168" s="166"/>
-      <c r="J168" s="166"/>
-      <c r="K168" s="166"/>
+      <c r="E168" s="137"/>
+      <c r="F168" s="137"/>
+      <c r="G168" s="137"/>
+      <c r="H168" s="137"/>
+      <c r="I168" s="137"/>
+      <c r="J168" s="137"/>
+      <c r="K168" s="137"/>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="12">
@@ -9105,16 +9162,16 @@
         <v>AAC</v>
       </c>
       <c r="C174" s="13"/>
-      <c r="D174" s="166" t="s">
+      <c r="D174" s="137" t="s">
         <v>349</v>
       </c>
-      <c r="E174" s="166"/>
-      <c r="F174" s="166"/>
-      <c r="G174" s="166"/>
-      <c r="H174" s="166"/>
-      <c r="I174" s="166"/>
-      <c r="J174" s="166"/>
-      <c r="K174" s="166"/>
+      <c r="E174" s="137"/>
+      <c r="F174" s="137"/>
+      <c r="G174" s="137"/>
+      <c r="H174" s="137"/>
+      <c r="I174" s="137"/>
+      <c r="J174" s="137"/>
+      <c r="K174" s="137"/>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="12">
@@ -9126,16 +9183,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="166" t="s">
+      <c r="D175" s="137" t="s">
         <v>349</v>
       </c>
-      <c r="E175" s="166"/>
-      <c r="F175" s="166"/>
-      <c r="G175" s="166"/>
-      <c r="H175" s="166"/>
-      <c r="I175" s="166"/>
-      <c r="J175" s="166"/>
-      <c r="K175" s="166"/>
+      <c r="E175" s="137"/>
+      <c r="F175" s="137"/>
+      <c r="G175" s="137"/>
+      <c r="H175" s="137"/>
+      <c r="I175" s="137"/>
+      <c r="J175" s="137"/>
+      <c r="K175" s="137"/>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="12">
@@ -9188,16 +9245,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="166" t="s">
+      <c r="D178" s="137" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="166"/>
-      <c r="F178" s="166"/>
-      <c r="G178" s="166"/>
-      <c r="H178" s="166"/>
-      <c r="I178" s="166"/>
-      <c r="J178" s="166"/>
-      <c r="K178" s="166"/>
+      <c r="E178" s="137"/>
+      <c r="F178" s="137"/>
+      <c r="G178" s="137"/>
+      <c r="H178" s="137"/>
+      <c r="I178" s="137"/>
+      <c r="J178" s="137"/>
+      <c r="K178" s="137"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -9266,16 +9323,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="150" t="s">
+      <c r="D182" s="138" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="151"/>
-      <c r="F182" s="151"/>
-      <c r="G182" s="151"/>
-      <c r="H182" s="151"/>
-      <c r="I182" s="151"/>
-      <c r="J182" s="151"/>
-      <c r="K182" s="152"/>
+      <c r="E182" s="139"/>
+      <c r="F182" s="139"/>
+      <c r="G182" s="139"/>
+      <c r="H182" s="139"/>
+      <c r="I182" s="139"/>
+      <c r="J182" s="139"/>
+      <c r="K182" s="140"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -9287,16 +9344,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="150" t="s">
+      <c r="D183" s="138" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="151"/>
-      <c r="F183" s="151"/>
-      <c r="G183" s="151"/>
-      <c r="H183" s="151"/>
-      <c r="I183" s="151"/>
-      <c r="J183" s="151"/>
-      <c r="K183" s="152"/>
+      <c r="E183" s="139"/>
+      <c r="F183" s="139"/>
+      <c r="G183" s="139"/>
+      <c r="H183" s="139"/>
+      <c r="I183" s="139"/>
+      <c r="J183" s="139"/>
+      <c r="K183" s="140"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -9308,16 +9365,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="150" t="s">
+      <c r="D184" s="138" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="151"/>
-      <c r="F184" s="151"/>
-      <c r="G184" s="151"/>
-      <c r="H184" s="151"/>
-      <c r="I184" s="151"/>
-      <c r="J184" s="151"/>
-      <c r="K184" s="152"/>
+      <c r="E184" s="139"/>
+      <c r="F184" s="139"/>
+      <c r="G184" s="139"/>
+      <c r="H184" s="139"/>
+      <c r="I184" s="139"/>
+      <c r="J184" s="139"/>
+      <c r="K184" s="140"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -9329,16 +9386,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="150" t="s">
+      <c r="D185" s="138" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="151"/>
-      <c r="F185" s="151"/>
-      <c r="G185" s="151"/>
-      <c r="H185" s="151"/>
-      <c r="I185" s="151"/>
-      <c r="J185" s="151"/>
-      <c r="K185" s="152"/>
+      <c r="E185" s="139"/>
+      <c r="F185" s="139"/>
+      <c r="G185" s="139"/>
+      <c r="H185" s="139"/>
+      <c r="I185" s="139"/>
+      <c r="J185" s="139"/>
+      <c r="K185" s="140"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -9350,16 +9407,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="150" t="s">
+      <c r="D186" s="138" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="151"/>
-      <c r="F186" s="151"/>
-      <c r="G186" s="151"/>
-      <c r="H186" s="151"/>
-      <c r="I186" s="151"/>
-      <c r="J186" s="151"/>
-      <c r="K186" s="152"/>
+      <c r="E186" s="139"/>
+      <c r="F186" s="139"/>
+      <c r="G186" s="139"/>
+      <c r="H186" s="139"/>
+      <c r="I186" s="139"/>
+      <c r="J186" s="139"/>
+      <c r="K186" s="140"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -9371,16 +9428,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="150" t="s">
+      <c r="D187" s="138" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="151"/>
-      <c r="F187" s="151"/>
-      <c r="G187" s="151"/>
-      <c r="H187" s="151"/>
-      <c r="I187" s="151"/>
-      <c r="J187" s="151"/>
-      <c r="K187" s="152"/>
+      <c r="E187" s="139"/>
+      <c r="F187" s="139"/>
+      <c r="G187" s="139"/>
+      <c r="H187" s="139"/>
+      <c r="I187" s="139"/>
+      <c r="J187" s="139"/>
+      <c r="K187" s="140"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -9392,16 +9449,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="150" t="s">
+      <c r="D188" s="138" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="151"/>
-      <c r="F188" s="151"/>
-      <c r="G188" s="151"/>
-      <c r="H188" s="151"/>
-      <c r="I188" s="151"/>
-      <c r="J188" s="151"/>
-      <c r="K188" s="152"/>
+      <c r="E188" s="139"/>
+      <c r="F188" s="139"/>
+      <c r="G188" s="139"/>
+      <c r="H188" s="139"/>
+      <c r="I188" s="139"/>
+      <c r="J188" s="139"/>
+      <c r="K188" s="140"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -9413,16 +9470,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="150" t="s">
+      <c r="D189" s="138" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="151"/>
-      <c r="F189" s="151"/>
-      <c r="G189" s="151"/>
-      <c r="H189" s="151"/>
-      <c r="I189" s="151"/>
-      <c r="J189" s="151"/>
-      <c r="K189" s="152"/>
+      <c r="E189" s="139"/>
+      <c r="F189" s="139"/>
+      <c r="G189" s="139"/>
+      <c r="H189" s="139"/>
+      <c r="I189" s="139"/>
+      <c r="J189" s="139"/>
+      <c r="K189" s="140"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -9434,16 +9491,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="150" t="s">
+      <c r="D190" s="138" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="151"/>
-      <c r="F190" s="151"/>
-      <c r="G190" s="151"/>
-      <c r="H190" s="151"/>
-      <c r="I190" s="151"/>
-      <c r="J190" s="151"/>
-      <c r="K190" s="152"/>
+      <c r="E190" s="139"/>
+      <c r="F190" s="139"/>
+      <c r="G190" s="139"/>
+      <c r="H190" s="139"/>
+      <c r="I190" s="139"/>
+      <c r="J190" s="139"/>
+      <c r="K190" s="140"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -9455,16 +9512,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="150" t="s">
+      <c r="D191" s="138" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="151"/>
-      <c r="F191" s="151"/>
-      <c r="G191" s="151"/>
-      <c r="H191" s="151"/>
-      <c r="I191" s="151"/>
-      <c r="J191" s="151"/>
-      <c r="K191" s="152"/>
+      <c r="E191" s="139"/>
+      <c r="F191" s="139"/>
+      <c r="G191" s="139"/>
+      <c r="H191" s="139"/>
+      <c r="I191" s="139"/>
+      <c r="J191" s="139"/>
+      <c r="K191" s="140"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -9476,16 +9533,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="150" t="s">
+      <c r="D192" s="138" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="151"/>
-      <c r="F192" s="151"/>
-      <c r="G192" s="151"/>
-      <c r="H192" s="151"/>
-      <c r="I192" s="151"/>
-      <c r="J192" s="151"/>
-      <c r="K192" s="152"/>
+      <c r="E192" s="139"/>
+      <c r="F192" s="139"/>
+      <c r="G192" s="139"/>
+      <c r="H192" s="139"/>
+      <c r="I192" s="139"/>
+      <c r="J192" s="139"/>
+      <c r="K192" s="140"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -9497,16 +9554,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="163" t="s">
+      <c r="D193" s="141" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="164"/>
-      <c r="F193" s="164"/>
-      <c r="G193" s="164"/>
-      <c r="H193" s="164"/>
-      <c r="I193" s="164"/>
-      <c r="J193" s="164"/>
-      <c r="K193" s="165"/>
+      <c r="E193" s="142"/>
+      <c r="F193" s="142"/>
+      <c r="G193" s="142"/>
+      <c r="H193" s="142"/>
+      <c r="I193" s="142"/>
+      <c r="J193" s="142"/>
+      <c r="K193" s="143"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -9521,16 +9578,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="145" t="s">
+      <c r="D194" s="152" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="138"/>
-      <c r="F194" s="138"/>
-      <c r="G194" s="138"/>
-      <c r="H194" s="138"/>
-      <c r="I194" s="138"/>
-      <c r="J194" s="138"/>
-      <c r="K194" s="146"/>
+      <c r="E194" s="153"/>
+      <c r="F194" s="153"/>
+      <c r="G194" s="153"/>
+      <c r="H194" s="153"/>
+      <c r="I194" s="153"/>
+      <c r="J194" s="153"/>
+      <c r="K194" s="154"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -9542,16 +9599,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="150" t="s">
+      <c r="D195" s="138" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="151"/>
-      <c r="F195" s="151"/>
-      <c r="G195" s="151"/>
-      <c r="H195" s="151"/>
-      <c r="I195" s="151"/>
-      <c r="J195" s="151"/>
-      <c r="K195" s="152"/>
+      <c r="E195" s="139"/>
+      <c r="F195" s="139"/>
+      <c r="G195" s="139"/>
+      <c r="H195" s="139"/>
+      <c r="I195" s="139"/>
+      <c r="J195" s="139"/>
+      <c r="K195" s="140"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -9563,16 +9620,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="150" t="s">
+      <c r="D196" s="138" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="151"/>
-      <c r="F196" s="151"/>
-      <c r="G196" s="151"/>
-      <c r="H196" s="151"/>
-      <c r="I196" s="151"/>
-      <c r="J196" s="151"/>
-      <c r="K196" s="152"/>
+      <c r="E196" s="139"/>
+      <c r="F196" s="139"/>
+      <c r="G196" s="139"/>
+      <c r="H196" s="139"/>
+      <c r="I196" s="139"/>
+      <c r="J196" s="139"/>
+      <c r="K196" s="140"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -9584,16 +9641,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="150" t="s">
+      <c r="D197" s="138" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="151"/>
-      <c r="F197" s="151"/>
-      <c r="G197" s="151"/>
-      <c r="H197" s="151"/>
-      <c r="I197" s="151"/>
-      <c r="J197" s="151"/>
-      <c r="K197" s="152"/>
+      <c r="E197" s="139"/>
+      <c r="F197" s="139"/>
+      <c r="G197" s="139"/>
+      <c r="H197" s="139"/>
+      <c r="I197" s="139"/>
+      <c r="J197" s="139"/>
+      <c r="K197" s="140"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -9605,16 +9662,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="150" t="s">
+      <c r="D198" s="138" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="151"/>
-      <c r="F198" s="151"/>
-      <c r="G198" s="151"/>
-      <c r="H198" s="151"/>
-      <c r="I198" s="151"/>
-      <c r="J198" s="151"/>
-      <c r="K198" s="152"/>
+      <c r="E198" s="139"/>
+      <c r="F198" s="139"/>
+      <c r="G198" s="139"/>
+      <c r="H198" s="139"/>
+      <c r="I198" s="139"/>
+      <c r="J198" s="139"/>
+      <c r="K198" s="140"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -9645,16 +9702,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="150" t="s">
+      <c r="D200" s="138" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="151"/>
-      <c r="F200" s="151"/>
-      <c r="G200" s="151"/>
-      <c r="H200" s="151"/>
-      <c r="I200" s="151"/>
-      <c r="J200" s="151"/>
-      <c r="K200" s="152"/>
+      <c r="E200" s="139"/>
+      <c r="F200" s="139"/>
+      <c r="G200" s="139"/>
+      <c r="H200" s="139"/>
+      <c r="I200" s="139"/>
+      <c r="J200" s="139"/>
+      <c r="K200" s="140"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -9685,16 +9742,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="156" t="s">
+      <c r="D202" s="163" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="157"/>
-      <c r="F202" s="157"/>
-      <c r="G202" s="157"/>
-      <c r="H202" s="157"/>
-      <c r="I202" s="157"/>
-      <c r="J202" s="157"/>
-      <c r="K202" s="158"/>
+      <c r="E202" s="164"/>
+      <c r="F202" s="164"/>
+      <c r="G202" s="164"/>
+      <c r="H202" s="164"/>
+      <c r="I202" s="164"/>
+      <c r="J202" s="164"/>
+      <c r="K202" s="165"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -9725,16 +9782,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="150" t="s">
+      <c r="D204" s="138" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="151"/>
-      <c r="F204" s="151"/>
-      <c r="G204" s="151"/>
-      <c r="H204" s="151"/>
-      <c r="I204" s="151"/>
-      <c r="J204" s="151"/>
-      <c r="K204" s="152"/>
+      <c r="E204" s="139"/>
+      <c r="F204" s="139"/>
+      <c r="G204" s="139"/>
+      <c r="H204" s="139"/>
+      <c r="I204" s="139"/>
+      <c r="J204" s="139"/>
+      <c r="K204" s="140"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -9765,16 +9822,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="150" t="s">
+      <c r="D206" s="138" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="151"/>
-      <c r="F206" s="151"/>
-      <c r="G206" s="151"/>
-      <c r="H206" s="151"/>
-      <c r="I206" s="151"/>
-      <c r="J206" s="151"/>
-      <c r="K206" s="152"/>
+      <c r="E206" s="139"/>
+      <c r="F206" s="139"/>
+      <c r="G206" s="139"/>
+      <c r="H206" s="139"/>
+      <c r="I206" s="139"/>
+      <c r="J206" s="139"/>
+      <c r="K206" s="140"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -9805,16 +9862,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="150" t="s">
+      <c r="D208" s="138" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="151"/>
-      <c r="F208" s="151"/>
-      <c r="G208" s="151"/>
-      <c r="H208" s="151"/>
-      <c r="I208" s="151"/>
-      <c r="J208" s="151"/>
-      <c r="K208" s="152"/>
+      <c r="E208" s="139"/>
+      <c r="F208" s="139"/>
+      <c r="G208" s="139"/>
+      <c r="H208" s="139"/>
+      <c r="I208" s="139"/>
+      <c r="J208" s="139"/>
+      <c r="K208" s="140"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -9848,16 +9905,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="145" t="s">
+      <c r="D210" s="152" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="138"/>
-      <c r="F210" s="138"/>
-      <c r="G210" s="138"/>
-      <c r="H210" s="138"/>
-      <c r="I210" s="138"/>
-      <c r="J210" s="138"/>
-      <c r="K210" s="146"/>
+      <c r="E210" s="153"/>
+      <c r="F210" s="153"/>
+      <c r="G210" s="153"/>
+      <c r="H210" s="153"/>
+      <c r="I210" s="153"/>
+      <c r="J210" s="153"/>
+      <c r="K210" s="154"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -9926,16 +9983,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="150" t="s">
+      <c r="D214" s="138" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="151"/>
-      <c r="F214" s="151"/>
-      <c r="G214" s="151"/>
-      <c r="H214" s="151"/>
-      <c r="I214" s="151"/>
-      <c r="J214" s="151"/>
-      <c r="K214" s="152"/>
+      <c r="E214" s="139"/>
+      <c r="F214" s="139"/>
+      <c r="G214" s="139"/>
+      <c r="H214" s="139"/>
+      <c r="I214" s="139"/>
+      <c r="J214" s="139"/>
+      <c r="K214" s="140"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -9966,16 +10023,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="143" t="s">
+      <c r="D216" s="150" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="135"/>
-      <c r="F216" s="135"/>
-      <c r="G216" s="135"/>
-      <c r="H216" s="135"/>
-      <c r="I216" s="135"/>
-      <c r="J216" s="135"/>
-      <c r="K216" s="144"/>
+      <c r="E216" s="145"/>
+      <c r="F216" s="145"/>
+      <c r="G216" s="145"/>
+      <c r="H216" s="145"/>
+      <c r="I216" s="145"/>
+      <c r="J216" s="145"/>
+      <c r="K216" s="151"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -9987,14 +10044,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="145"/>
-      <c r="E217" s="138"/>
-      <c r="F217" s="138"/>
-      <c r="G217" s="138"/>
-      <c r="H217" s="138"/>
-      <c r="I217" s="138"/>
-      <c r="J217" s="138"/>
-      <c r="K217" s="146"/>
+      <c r="D217" s="152"/>
+      <c r="E217" s="153"/>
+      <c r="F217" s="153"/>
+      <c r="G217" s="153"/>
+      <c r="H217" s="153"/>
+      <c r="I217" s="153"/>
+      <c r="J217" s="153"/>
+      <c r="K217" s="154"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -10006,16 +10063,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="143" t="s">
+      <c r="D218" s="150" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="135"/>
-      <c r="F218" s="135"/>
-      <c r="G218" s="135"/>
-      <c r="H218" s="135"/>
-      <c r="I218" s="135"/>
-      <c r="J218" s="135"/>
-      <c r="K218" s="144"/>
+      <c r="E218" s="145"/>
+      <c r="F218" s="145"/>
+      <c r="G218" s="145"/>
+      <c r="H218" s="145"/>
+      <c r="I218" s="145"/>
+      <c r="J218" s="145"/>
+      <c r="K218" s="151"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -10027,14 +10084,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="145"/>
-      <c r="E219" s="138"/>
-      <c r="F219" s="138"/>
-      <c r="G219" s="138"/>
-      <c r="H219" s="138"/>
-      <c r="I219" s="138"/>
-      <c r="J219" s="138"/>
-      <c r="K219" s="146"/>
+      <c r="D219" s="152"/>
+      <c r="E219" s="153"/>
+      <c r="F219" s="153"/>
+      <c r="G219" s="153"/>
+      <c r="H219" s="153"/>
+      <c r="I219" s="153"/>
+      <c r="J219" s="153"/>
+      <c r="K219" s="154"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -10046,16 +10103,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="143" t="s">
+      <c r="D220" s="150" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="135"/>
-      <c r="F220" s="135"/>
-      <c r="G220" s="135"/>
-      <c r="H220" s="135"/>
-      <c r="I220" s="135"/>
-      <c r="J220" s="135"/>
-      <c r="K220" s="144"/>
+      <c r="E220" s="145"/>
+      <c r="F220" s="145"/>
+      <c r="G220" s="145"/>
+      <c r="H220" s="145"/>
+      <c r="I220" s="145"/>
+      <c r="J220" s="145"/>
+      <c r="K220" s="151"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -10067,14 +10124,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="145"/>
-      <c r="E221" s="138"/>
-      <c r="F221" s="138"/>
-      <c r="G221" s="138"/>
-      <c r="H221" s="138"/>
-      <c r="I221" s="138"/>
-      <c r="J221" s="138"/>
-      <c r="K221" s="146"/>
+      <c r="D221" s="152"/>
+      <c r="E221" s="153"/>
+      <c r="F221" s="153"/>
+      <c r="G221" s="153"/>
+      <c r="H221" s="153"/>
+      <c r="I221" s="153"/>
+      <c r="J221" s="153"/>
+      <c r="K221" s="154"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -10086,16 +10143,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="150" t="s">
+      <c r="D222" s="138" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="151"/>
-      <c r="F222" s="151"/>
-      <c r="G222" s="151"/>
-      <c r="H222" s="151"/>
-      <c r="I222" s="151"/>
-      <c r="J222" s="151"/>
-      <c r="K222" s="152"/>
+      <c r="E222" s="139"/>
+      <c r="F222" s="139"/>
+      <c r="G222" s="139"/>
+      <c r="H222" s="139"/>
+      <c r="I222" s="139"/>
+      <c r="J222" s="139"/>
+      <c r="K222" s="140"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -10126,16 +10183,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="150" t="s">
+      <c r="D224" s="138" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="151"/>
-      <c r="F224" s="151"/>
-      <c r="G224" s="151"/>
-      <c r="H224" s="151"/>
-      <c r="I224" s="151"/>
-      <c r="J224" s="151"/>
-      <c r="K224" s="152"/>
+      <c r="E224" s="139"/>
+      <c r="F224" s="139"/>
+      <c r="G224" s="139"/>
+      <c r="H224" s="139"/>
+      <c r="I224" s="139"/>
+      <c r="J224" s="139"/>
+      <c r="K224" s="140"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -10169,16 +10226,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="153" t="s">
+      <c r="D226" s="160" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="154"/>
-      <c r="F226" s="154"/>
-      <c r="G226" s="154"/>
-      <c r="H226" s="154"/>
-      <c r="I226" s="154"/>
-      <c r="J226" s="154"/>
-      <c r="K226" s="155"/>
+      <c r="E226" s="161"/>
+      <c r="F226" s="161"/>
+      <c r="G226" s="161"/>
+      <c r="H226" s="161"/>
+      <c r="I226" s="161"/>
+      <c r="J226" s="161"/>
+      <c r="K226" s="162"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -10323,16 +10380,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="147" t="s">
+      <c r="D234" s="157" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="148"/>
-      <c r="F234" s="148"/>
-      <c r="G234" s="148"/>
-      <c r="H234" s="148"/>
-      <c r="I234" s="148"/>
-      <c r="J234" s="148"/>
-      <c r="K234" s="149"/>
+      <c r="E234" s="158"/>
+      <c r="F234" s="158"/>
+      <c r="G234" s="158"/>
+      <c r="H234" s="158"/>
+      <c r="I234" s="158"/>
+      <c r="J234" s="158"/>
+      <c r="K234" s="159"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -10401,16 +10458,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="134" t="s">
+      <c r="D238" s="144" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="135"/>
-      <c r="F238" s="135"/>
-      <c r="G238" s="135"/>
-      <c r="H238" s="135"/>
-      <c r="I238" s="135"/>
-      <c r="J238" s="135"/>
-      <c r="K238" s="136"/>
+      <c r="E238" s="145"/>
+      <c r="F238" s="145"/>
+      <c r="G238" s="145"/>
+      <c r="H238" s="145"/>
+      <c r="I238" s="145"/>
+      <c r="J238" s="145"/>
+      <c r="K238" s="146"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -10422,14 +10479,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="137"/>
-      <c r="E239" s="138"/>
-      <c r="F239" s="138"/>
-      <c r="G239" s="138"/>
-      <c r="H239" s="138"/>
-      <c r="I239" s="138"/>
-      <c r="J239" s="138"/>
-      <c r="K239" s="139"/>
+      <c r="D239" s="155"/>
+      <c r="E239" s="153"/>
+      <c r="F239" s="153"/>
+      <c r="G239" s="153"/>
+      <c r="H239" s="153"/>
+      <c r="I239" s="153"/>
+      <c r="J239" s="153"/>
+      <c r="K239" s="156"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -10441,16 +10498,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="135" t="s">
+      <c r="D240" s="145" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="135"/>
-      <c r="F240" s="135"/>
-      <c r="G240" s="135"/>
-      <c r="H240" s="135"/>
-      <c r="I240" s="135"/>
-      <c r="J240" s="135"/>
-      <c r="K240" s="136"/>
+      <c r="E240" s="145"/>
+      <c r="F240" s="145"/>
+      <c r="G240" s="145"/>
+      <c r="H240" s="145"/>
+      <c r="I240" s="145"/>
+      <c r="J240" s="145"/>
+      <c r="K240" s="146"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -10462,14 +10519,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="161"/>
-      <c r="E241" s="161"/>
-      <c r="F241" s="161"/>
-      <c r="G241" s="161"/>
-      <c r="H241" s="161"/>
-      <c r="I241" s="161"/>
-      <c r="J241" s="161"/>
-      <c r="K241" s="162"/>
+      <c r="D241" s="168"/>
+      <c r="E241" s="168"/>
+      <c r="F241" s="168"/>
+      <c r="G241" s="168"/>
+      <c r="H241" s="168"/>
+      <c r="I241" s="168"/>
+      <c r="J241" s="168"/>
+      <c r="K241" s="169"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -10660,16 +10717,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="159" t="s">
+      <c r="D250" s="166" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="148"/>
-      <c r="F250" s="148"/>
-      <c r="G250" s="148"/>
-      <c r="H250" s="148"/>
-      <c r="I250" s="148"/>
-      <c r="J250" s="148"/>
-      <c r="K250" s="160"/>
+      <c r="E250" s="158"/>
+      <c r="F250" s="158"/>
+      <c r="G250" s="158"/>
+      <c r="H250" s="158"/>
+      <c r="I250" s="158"/>
+      <c r="J250" s="158"/>
+      <c r="K250" s="167"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -11238,16 +11295,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="150" t="s">
+      <c r="D280" s="138" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="151"/>
-      <c r="F280" s="151"/>
-      <c r="G280" s="151"/>
-      <c r="H280" s="151"/>
-      <c r="I280" s="151"/>
-      <c r="J280" s="151"/>
-      <c r="K280" s="152"/>
+      <c r="E280" s="139"/>
+      <c r="F280" s="139"/>
+      <c r="G280" s="139"/>
+      <c r="H280" s="139"/>
+      <c r="I280" s="139"/>
+      <c r="J280" s="139"/>
+      <c r="K280" s="140"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -11354,16 +11411,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="150" t="s">
+      <c r="D286" s="138" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="151"/>
-      <c r="F286" s="151"/>
-      <c r="G286" s="151"/>
-      <c r="H286" s="151"/>
-      <c r="I286" s="151"/>
-      <c r="J286" s="151"/>
-      <c r="K286" s="152"/>
+      <c r="E286" s="139"/>
+      <c r="F286" s="139"/>
+      <c r="G286" s="139"/>
+      <c r="H286" s="139"/>
+      <c r="I286" s="139"/>
+      <c r="J286" s="139"/>
+      <c r="K286" s="140"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -11513,14 +11570,16 @@
         <v>B24</v>
       </c>
       <c r="C294" s="13"/>
-      <c r="D294" s="48"/>
-      <c r="E294" s="12"/>
-      <c r="F294" s="12"/>
-      <c r="G294" s="22"/>
-      <c r="H294" s="49"/>
-      <c r="I294" s="12"/>
-      <c r="J294" s="12"/>
-      <c r="K294" s="22"/>
+      <c r="D294" s="138" t="s">
+        <v>445</v>
+      </c>
+      <c r="E294" s="139"/>
+      <c r="F294" s="139"/>
+      <c r="G294" s="139"/>
+      <c r="H294" s="139"/>
+      <c r="I294" s="139"/>
+      <c r="J294" s="139"/>
+      <c r="K294" s="140"/>
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="12">
@@ -11551,16 +11610,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="150" t="s">
-        <v>386</v>
-      </c>
-      <c r="E296" s="151"/>
-      <c r="F296" s="151"/>
-      <c r="G296" s="151"/>
-      <c r="H296" s="151"/>
-      <c r="I296" s="151"/>
-      <c r="J296" s="151"/>
-      <c r="K296" s="152"/>
+      <c r="D296" s="138" t="s">
+        <v>444</v>
+      </c>
+      <c r="E296" s="139"/>
+      <c r="F296" s="139"/>
+      <c r="G296" s="139"/>
+      <c r="H296" s="139"/>
+      <c r="I296" s="139"/>
+      <c r="J296" s="139"/>
+      <c r="K296" s="140"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -11591,16 +11650,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="134" t="s">
-        <v>387</v>
-      </c>
-      <c r="E298" s="135"/>
-      <c r="F298" s="135"/>
-      <c r="G298" s="135"/>
-      <c r="H298" s="135"/>
-      <c r="I298" s="135"/>
-      <c r="J298" s="135"/>
-      <c r="K298" s="136"/>
+      <c r="D298" s="144" t="s">
+        <v>386</v>
+      </c>
+      <c r="E298" s="145"/>
+      <c r="F298" s="145"/>
+      <c r="G298" s="145"/>
+      <c r="H298" s="145"/>
+      <c r="I298" s="145"/>
+      <c r="J298" s="145"/>
+      <c r="K298" s="146"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -11612,14 +11671,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="137"/>
-      <c r="E299" s="138"/>
-      <c r="F299" s="138"/>
-      <c r="G299" s="138"/>
-      <c r="H299" s="138"/>
-      <c r="I299" s="138"/>
-      <c r="J299" s="138"/>
-      <c r="K299" s="139"/>
+      <c r="D299" s="155"/>
+      <c r="E299" s="153"/>
+      <c r="F299" s="153"/>
+      <c r="G299" s="153"/>
+      <c r="H299" s="153"/>
+      <c r="I299" s="153"/>
+      <c r="J299" s="153"/>
+      <c r="K299" s="156"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -11631,16 +11690,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="134" t="s">
-        <v>388</v>
-      </c>
-      <c r="E300" s="135"/>
-      <c r="F300" s="135"/>
-      <c r="G300" s="135"/>
-      <c r="H300" s="135"/>
-      <c r="I300" s="135"/>
-      <c r="J300" s="135"/>
-      <c r="K300" s="136"/>
+      <c r="D300" s="144" t="s">
+        <v>387</v>
+      </c>
+      <c r="E300" s="145"/>
+      <c r="F300" s="145"/>
+      <c r="G300" s="145"/>
+      <c r="H300" s="145"/>
+      <c r="I300" s="145"/>
+      <c r="J300" s="145"/>
+      <c r="K300" s="146"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -11652,14 +11711,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="137"/>
-      <c r="E301" s="138"/>
-      <c r="F301" s="138"/>
-      <c r="G301" s="138"/>
-      <c r="H301" s="138"/>
-      <c r="I301" s="138"/>
-      <c r="J301" s="138"/>
-      <c r="K301" s="139"/>
+      <c r="D301" s="155"/>
+      <c r="E301" s="153"/>
+      <c r="F301" s="153"/>
+      <c r="G301" s="153"/>
+      <c r="H301" s="153"/>
+      <c r="I301" s="153"/>
+      <c r="J301" s="153"/>
+      <c r="K301" s="156"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -11671,16 +11730,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="134" t="s">
-        <v>389</v>
-      </c>
-      <c r="E302" s="135"/>
-      <c r="F302" s="135"/>
-      <c r="G302" s="135"/>
-      <c r="H302" s="135"/>
-      <c r="I302" s="135"/>
-      <c r="J302" s="135"/>
-      <c r="K302" s="136"/>
+      <c r="D302" s="144" t="s">
+        <v>388</v>
+      </c>
+      <c r="E302" s="145"/>
+      <c r="F302" s="145"/>
+      <c r="G302" s="145"/>
+      <c r="H302" s="145"/>
+      <c r="I302" s="145"/>
+      <c r="J302" s="145"/>
+      <c r="K302" s="146"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -11692,14 +11751,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="137"/>
-      <c r="E303" s="138"/>
-      <c r="F303" s="138"/>
-      <c r="G303" s="138"/>
-      <c r="H303" s="138"/>
-      <c r="I303" s="138"/>
-      <c r="J303" s="138"/>
-      <c r="K303" s="139"/>
+      <c r="D303" s="155"/>
+      <c r="E303" s="153"/>
+      <c r="F303" s="153"/>
+      <c r="G303" s="153"/>
+      <c r="H303" s="153"/>
+      <c r="I303" s="153"/>
+      <c r="J303" s="153"/>
+      <c r="K303" s="156"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -11711,16 +11770,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="134" t="s">
-        <v>390</v>
-      </c>
-      <c r="E304" s="135"/>
-      <c r="F304" s="135"/>
-      <c r="G304" s="135"/>
-      <c r="H304" s="135"/>
-      <c r="I304" s="135"/>
-      <c r="J304" s="135"/>
-      <c r="K304" s="136"/>
+      <c r="D304" s="144" t="s">
+        <v>389</v>
+      </c>
+      <c r="E304" s="145"/>
+      <c r="F304" s="145"/>
+      <c r="G304" s="145"/>
+      <c r="H304" s="145"/>
+      <c r="I304" s="145"/>
+      <c r="J304" s="145"/>
+      <c r="K304" s="146"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -11732,14 +11791,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="137"/>
-      <c r="E305" s="138"/>
-      <c r="F305" s="138"/>
-      <c r="G305" s="138"/>
-      <c r="H305" s="138"/>
-      <c r="I305" s="138"/>
-      <c r="J305" s="138"/>
-      <c r="K305" s="139"/>
+      <c r="D305" s="155"/>
+      <c r="E305" s="153"/>
+      <c r="F305" s="153"/>
+      <c r="G305" s="153"/>
+      <c r="H305" s="153"/>
+      <c r="I305" s="153"/>
+      <c r="J305" s="153"/>
+      <c r="K305" s="156"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -11754,16 +11813,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="134" t="s">
-        <v>391</v>
-      </c>
-      <c r="E306" s="135"/>
-      <c r="F306" s="135"/>
-      <c r="G306" s="135"/>
-      <c r="H306" s="135"/>
-      <c r="I306" s="135"/>
-      <c r="J306" s="135"/>
-      <c r="K306" s="136"/>
+      <c r="D306" s="144" t="s">
+        <v>390</v>
+      </c>
+      <c r="E306" s="145"/>
+      <c r="F306" s="145"/>
+      <c r="G306" s="145"/>
+      <c r="H306" s="145"/>
+      <c r="I306" s="145"/>
+      <c r="J306" s="145"/>
+      <c r="K306" s="146"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -11775,14 +11834,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="137"/>
-      <c r="E307" s="138"/>
-      <c r="F307" s="138"/>
-      <c r="G307" s="138"/>
-      <c r="H307" s="138"/>
-      <c r="I307" s="138"/>
-      <c r="J307" s="138"/>
-      <c r="K307" s="139"/>
+      <c r="D307" s="155"/>
+      <c r="E307" s="153"/>
+      <c r="F307" s="153"/>
+      <c r="G307" s="153"/>
+      <c r="H307" s="153"/>
+      <c r="I307" s="153"/>
+      <c r="J307" s="153"/>
+      <c r="K307" s="156"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -11794,16 +11853,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="134" t="s">
-        <v>392</v>
-      </c>
-      <c r="E308" s="135"/>
-      <c r="F308" s="135"/>
-      <c r="G308" s="135"/>
-      <c r="H308" s="135"/>
-      <c r="I308" s="135"/>
-      <c r="J308" s="135"/>
-      <c r="K308" s="136"/>
+      <c r="D308" s="144" t="s">
+        <v>391</v>
+      </c>
+      <c r="E308" s="145"/>
+      <c r="F308" s="145"/>
+      <c r="G308" s="145"/>
+      <c r="H308" s="145"/>
+      <c r="I308" s="145"/>
+      <c r="J308" s="145"/>
+      <c r="K308" s="146"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -11815,14 +11874,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="137"/>
-      <c r="E309" s="138"/>
-      <c r="F309" s="138"/>
-      <c r="G309" s="138"/>
-      <c r="H309" s="138"/>
-      <c r="I309" s="138"/>
-      <c r="J309" s="138"/>
-      <c r="K309" s="139"/>
+      <c r="D309" s="155"/>
+      <c r="E309" s="153"/>
+      <c r="F309" s="153"/>
+      <c r="G309" s="153"/>
+      <c r="H309" s="153"/>
+      <c r="I309" s="153"/>
+      <c r="J309" s="153"/>
+      <c r="K309" s="156"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -15701,32 +15760,19 @@
       <c r="K513" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="D75:K75"/>
-    <mergeCell ref="D76:K76"/>
-    <mergeCell ref="D77:K77"/>
-    <mergeCell ref="D78:K78"/>
-    <mergeCell ref="D79:K79"/>
-    <mergeCell ref="D80:K80"/>
-    <mergeCell ref="D81:K81"/>
-    <mergeCell ref="D168:K168"/>
-    <mergeCell ref="D175:K175"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D174:K174"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
+  <mergeCells count="63">
+    <mergeCell ref="D250:K250"/>
+    <mergeCell ref="D280:K280"/>
+    <mergeCell ref="D286:K286"/>
+    <mergeCell ref="D296:K296"/>
+    <mergeCell ref="D240:K241"/>
+    <mergeCell ref="D294:K294"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="D216:K217"/>
     <mergeCell ref="D218:K219"/>
@@ -15743,27 +15789,41 @@
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
     <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D91:K91"/>
-    <mergeCell ref="D90:K90"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D250:K250"/>
-    <mergeCell ref="D280:K280"/>
-    <mergeCell ref="D286:K286"/>
-    <mergeCell ref="D296:K296"/>
-    <mergeCell ref="D240:K241"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
     <mergeCell ref="D194:K194"/>
     <mergeCell ref="D195:K195"/>
     <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D174:K174"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D80:K80"/>
+    <mergeCell ref="D81:K81"/>
+    <mergeCell ref="D168:K168"/>
+    <mergeCell ref="D175:K175"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D91:K91"/>
+    <mergeCell ref="D90:K90"/>
     <mergeCell ref="D93:K93"/>
     <mergeCell ref="D96:K96"/>
     <mergeCell ref="D94:K94"/>
     <mergeCell ref="D95:K95"/>
     <mergeCell ref="D92:K92"/>
+    <mergeCell ref="D75:K75"/>
+    <mergeCell ref="D76:K76"/>
+    <mergeCell ref="D77:K77"/>
+    <mergeCell ref="D78:K78"/>
+    <mergeCell ref="D79:K79"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -15771,15 +15831,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O513"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D295" sqref="D295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -15849,16 +15909,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="136"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="146"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -15880,14 +15940,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="142"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="149"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -15916,25 +15976,25 @@
         <v>10</v>
       </c>
       <c r="F4" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="J4" s="18" t="s">
         <v>396</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>397</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="120" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M4" s="3">
         <v>18</v>
@@ -15976,7 +16036,7 @@
       </c>
       <c r="K5" s="55"/>
       <c r="L5" s="119" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M5" s="3">
         <v>19</v>
@@ -16060,7 +16120,7 @@
       <c r="J7" s="21"/>
       <c r="K7" s="28"/>
       <c r="L7" s="119" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M7" s="3">
         <v>21</v>
@@ -16102,7 +16162,7 @@
         <v>44</v>
       </c>
       <c r="L8" s="119" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M8" s="3">
         <v>22</v>
@@ -16129,7 +16189,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>47</v>
@@ -16141,12 +16201,12 @@
         <v>49</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="28"/>
       <c r="L9" s="119" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M9" s="3">
         <v>23</v>
@@ -16180,13 +16240,13 @@
         <v>53</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K10" s="31" t="s">
         <v>55</v>
       </c>
       <c r="L10" s="119" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M10" s="3">
         <v>25</v>
@@ -16213,7 +16273,7 @@
         <v>56</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>58</v>
@@ -16234,7 +16294,7 @@
         <v>63</v>
       </c>
       <c r="L11" s="119" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M11" s="3">
         <v>26</v>
@@ -16281,7 +16341,7 @@
         <v>70</v>
       </c>
       <c r="L12" s="119" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M12" s="3">
         <v>27</v>
@@ -16327,7 +16387,7 @@
         <v>77</v>
       </c>
       <c r="L13" s="119" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M13" s="3">
         <v>28</v>
@@ -16375,7 +16435,7 @@
         <v>85</v>
       </c>
       <c r="L14" s="119" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M14" s="3">
         <v>29</v>
@@ -16423,7 +16483,7 @@
         <v>93</v>
       </c>
       <c r="L15" s="119" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M15" s="3">
         <v>39</v>
@@ -16471,7 +16531,7 @@
         <v>101</v>
       </c>
       <c r="L16" s="119" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M16" s="3">
         <v>42</v>
@@ -16519,7 +16579,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="121" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M17" s="58">
         <v>55</v>
@@ -16567,7 +16627,7 @@
         <v>116</v>
       </c>
       <c r="L18" s="119" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M18" s="3">
         <v>58</v>
@@ -16607,7 +16667,7 @@
         <v>121</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K19" s="31" t="s">
         <v>123</v>
@@ -16731,7 +16791,7 @@
         <v>143</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J22" s="31" t="s">
         <v>145</v>
@@ -16815,7 +16875,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>160</v>
@@ -16857,7 +16917,7 @@
         <v>167</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="29"/>
@@ -17000,7 +17060,7 @@
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="21"/>
@@ -17011,7 +17071,7 @@
         <v>204</v>
       </c>
       <c r="L29" s="119" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M29" s="3">
         <v>78</v>
@@ -17135,7 +17195,7 @@
         <v>229</v>
       </c>
       <c r="L32" s="119" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M32" s="3">
         <v>87</v>
@@ -17721,7 +17781,7 @@
       <c r="D50" s="46"/>
       <c r="E50" s="38"/>
       <c r="F50" s="38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G50" s="53"/>
       <c r="H50" s="54"/>
@@ -22136,16 +22196,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="166" t="s">
+      <c r="D178" s="137" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="166"/>
-      <c r="F178" s="166"/>
-      <c r="G178" s="166"/>
-      <c r="H178" s="166"/>
-      <c r="I178" s="166"/>
-      <c r="J178" s="166"/>
-      <c r="K178" s="166"/>
+      <c r="E178" s="137"/>
+      <c r="F178" s="137"/>
+      <c r="G178" s="137"/>
+      <c r="H178" s="137"/>
+      <c r="I178" s="137"/>
+      <c r="J178" s="137"/>
+      <c r="K178" s="137"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -22214,16 +22274,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="150" t="s">
+      <c r="D182" s="138" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="151"/>
-      <c r="F182" s="151"/>
-      <c r="G182" s="151"/>
-      <c r="H182" s="151"/>
-      <c r="I182" s="151"/>
-      <c r="J182" s="151"/>
-      <c r="K182" s="152"/>
+      <c r="E182" s="139"/>
+      <c r="F182" s="139"/>
+      <c r="G182" s="139"/>
+      <c r="H182" s="139"/>
+      <c r="I182" s="139"/>
+      <c r="J182" s="139"/>
+      <c r="K182" s="140"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -22235,16 +22295,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="150" t="s">
+      <c r="D183" s="138" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="151"/>
-      <c r="F183" s="151"/>
-      <c r="G183" s="151"/>
-      <c r="H183" s="151"/>
-      <c r="I183" s="151"/>
-      <c r="J183" s="151"/>
-      <c r="K183" s="152"/>
+      <c r="E183" s="139"/>
+      <c r="F183" s="139"/>
+      <c r="G183" s="139"/>
+      <c r="H183" s="139"/>
+      <c r="I183" s="139"/>
+      <c r="J183" s="139"/>
+      <c r="K183" s="140"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -22256,16 +22316,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="150" t="s">
+      <c r="D184" s="138" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="151"/>
-      <c r="F184" s="151"/>
-      <c r="G184" s="151"/>
-      <c r="H184" s="151"/>
-      <c r="I184" s="151"/>
-      <c r="J184" s="151"/>
-      <c r="K184" s="152"/>
+      <c r="E184" s="139"/>
+      <c r="F184" s="139"/>
+      <c r="G184" s="139"/>
+      <c r="H184" s="139"/>
+      <c r="I184" s="139"/>
+      <c r="J184" s="139"/>
+      <c r="K184" s="140"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -22277,16 +22337,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="150" t="s">
+      <c r="D185" s="138" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="151"/>
-      <c r="F185" s="151"/>
-      <c r="G185" s="151"/>
-      <c r="H185" s="151"/>
-      <c r="I185" s="151"/>
-      <c r="J185" s="151"/>
-      <c r="K185" s="152"/>
+      <c r="E185" s="139"/>
+      <c r="F185" s="139"/>
+      <c r="G185" s="139"/>
+      <c r="H185" s="139"/>
+      <c r="I185" s="139"/>
+      <c r="J185" s="139"/>
+      <c r="K185" s="140"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -22298,16 +22358,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="150" t="s">
+      <c r="D186" s="138" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="151"/>
-      <c r="F186" s="151"/>
-      <c r="G186" s="151"/>
-      <c r="H186" s="151"/>
-      <c r="I186" s="151"/>
-      <c r="J186" s="151"/>
-      <c r="K186" s="152"/>
+      <c r="E186" s="139"/>
+      <c r="F186" s="139"/>
+      <c r="G186" s="139"/>
+      <c r="H186" s="139"/>
+      <c r="I186" s="139"/>
+      <c r="J186" s="139"/>
+      <c r="K186" s="140"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -22319,16 +22379,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="150" t="s">
+      <c r="D187" s="138" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="151"/>
-      <c r="F187" s="151"/>
-      <c r="G187" s="151"/>
-      <c r="H187" s="151"/>
-      <c r="I187" s="151"/>
-      <c r="J187" s="151"/>
-      <c r="K187" s="152"/>
+      <c r="E187" s="139"/>
+      <c r="F187" s="139"/>
+      <c r="G187" s="139"/>
+      <c r="H187" s="139"/>
+      <c r="I187" s="139"/>
+      <c r="J187" s="139"/>
+      <c r="K187" s="140"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -22340,16 +22400,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="150" t="s">
+      <c r="D188" s="138" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="151"/>
-      <c r="F188" s="151"/>
-      <c r="G188" s="151"/>
-      <c r="H188" s="151"/>
-      <c r="I188" s="151"/>
-      <c r="J188" s="151"/>
-      <c r="K188" s="152"/>
+      <c r="E188" s="139"/>
+      <c r="F188" s="139"/>
+      <c r="G188" s="139"/>
+      <c r="H188" s="139"/>
+      <c r="I188" s="139"/>
+      <c r="J188" s="139"/>
+      <c r="K188" s="140"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -22361,16 +22421,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="150" t="s">
+      <c r="D189" s="138" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="151"/>
-      <c r="F189" s="151"/>
-      <c r="G189" s="151"/>
-      <c r="H189" s="151"/>
-      <c r="I189" s="151"/>
-      <c r="J189" s="151"/>
-      <c r="K189" s="152"/>
+      <c r="E189" s="139"/>
+      <c r="F189" s="139"/>
+      <c r="G189" s="139"/>
+      <c r="H189" s="139"/>
+      <c r="I189" s="139"/>
+      <c r="J189" s="139"/>
+      <c r="K189" s="140"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -22382,16 +22442,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="150" t="s">
+      <c r="D190" s="138" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="151"/>
-      <c r="F190" s="151"/>
-      <c r="G190" s="151"/>
-      <c r="H190" s="151"/>
-      <c r="I190" s="151"/>
-      <c r="J190" s="151"/>
-      <c r="K190" s="152"/>
+      <c r="E190" s="139"/>
+      <c r="F190" s="139"/>
+      <c r="G190" s="139"/>
+      <c r="H190" s="139"/>
+      <c r="I190" s="139"/>
+      <c r="J190" s="139"/>
+      <c r="K190" s="140"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -22403,16 +22463,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="150" t="s">
+      <c r="D191" s="138" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="151"/>
-      <c r="F191" s="151"/>
-      <c r="G191" s="151"/>
-      <c r="H191" s="151"/>
-      <c r="I191" s="151"/>
-      <c r="J191" s="151"/>
-      <c r="K191" s="152"/>
+      <c r="E191" s="139"/>
+      <c r="F191" s="139"/>
+      <c r="G191" s="139"/>
+      <c r="H191" s="139"/>
+      <c r="I191" s="139"/>
+      <c r="J191" s="139"/>
+      <c r="K191" s="140"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -22424,16 +22484,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="150" t="s">
+      <c r="D192" s="138" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="151"/>
-      <c r="F192" s="151"/>
-      <c r="G192" s="151"/>
-      <c r="H192" s="151"/>
-      <c r="I192" s="151"/>
-      <c r="J192" s="151"/>
-      <c r="K192" s="152"/>
+      <c r="E192" s="139"/>
+      <c r="F192" s="139"/>
+      <c r="G192" s="139"/>
+      <c r="H192" s="139"/>
+      <c r="I192" s="139"/>
+      <c r="J192" s="139"/>
+      <c r="K192" s="140"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -22445,16 +22505,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="163" t="s">
+      <c r="D193" s="141" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="164"/>
-      <c r="F193" s="164"/>
-      <c r="G193" s="164"/>
-      <c r="H193" s="164"/>
-      <c r="I193" s="164"/>
-      <c r="J193" s="164"/>
-      <c r="K193" s="165"/>
+      <c r="E193" s="142"/>
+      <c r="F193" s="142"/>
+      <c r="G193" s="142"/>
+      <c r="H193" s="142"/>
+      <c r="I193" s="142"/>
+      <c r="J193" s="142"/>
+      <c r="K193" s="143"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -22469,16 +22529,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="145" t="s">
+      <c r="D194" s="152" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="138"/>
-      <c r="F194" s="138"/>
-      <c r="G194" s="138"/>
-      <c r="H194" s="138"/>
-      <c r="I194" s="138"/>
-      <c r="J194" s="138"/>
-      <c r="K194" s="146"/>
+      <c r="E194" s="153"/>
+      <c r="F194" s="153"/>
+      <c r="G194" s="153"/>
+      <c r="H194" s="153"/>
+      <c r="I194" s="153"/>
+      <c r="J194" s="153"/>
+      <c r="K194" s="154"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -22490,16 +22550,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="150" t="s">
+      <c r="D195" s="138" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="151"/>
-      <c r="F195" s="151"/>
-      <c r="G195" s="151"/>
-      <c r="H195" s="151"/>
-      <c r="I195" s="151"/>
-      <c r="J195" s="151"/>
-      <c r="K195" s="152"/>
+      <c r="E195" s="139"/>
+      <c r="F195" s="139"/>
+      <c r="G195" s="139"/>
+      <c r="H195" s="139"/>
+      <c r="I195" s="139"/>
+      <c r="J195" s="139"/>
+      <c r="K195" s="140"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -22511,16 +22571,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="150" t="s">
+      <c r="D196" s="138" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="151"/>
-      <c r="F196" s="151"/>
-      <c r="G196" s="151"/>
-      <c r="H196" s="151"/>
-      <c r="I196" s="151"/>
-      <c r="J196" s="151"/>
-      <c r="K196" s="152"/>
+      <c r="E196" s="139"/>
+      <c r="F196" s="139"/>
+      <c r="G196" s="139"/>
+      <c r="H196" s="139"/>
+      <c r="I196" s="139"/>
+      <c r="J196" s="139"/>
+      <c r="K196" s="140"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -22532,16 +22592,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="150" t="s">
+      <c r="D197" s="138" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="151"/>
-      <c r="F197" s="151"/>
-      <c r="G197" s="151"/>
-      <c r="H197" s="151"/>
-      <c r="I197" s="151"/>
-      <c r="J197" s="151"/>
-      <c r="K197" s="152"/>
+      <c r="E197" s="139"/>
+      <c r="F197" s="139"/>
+      <c r="G197" s="139"/>
+      <c r="H197" s="139"/>
+      <c r="I197" s="139"/>
+      <c r="J197" s="139"/>
+      <c r="K197" s="140"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -22553,16 +22613,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="150" t="s">
+      <c r="D198" s="138" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="151"/>
-      <c r="F198" s="151"/>
-      <c r="G198" s="151"/>
-      <c r="H198" s="151"/>
-      <c r="I198" s="151"/>
-      <c r="J198" s="151"/>
-      <c r="K198" s="152"/>
+      <c r="E198" s="139"/>
+      <c r="F198" s="139"/>
+      <c r="G198" s="139"/>
+      <c r="H198" s="139"/>
+      <c r="I198" s="139"/>
+      <c r="J198" s="139"/>
+      <c r="K198" s="140"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -22593,16 +22653,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="150" t="s">
+      <c r="D200" s="138" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="151"/>
-      <c r="F200" s="151"/>
-      <c r="G200" s="151"/>
-      <c r="H200" s="151"/>
-      <c r="I200" s="151"/>
-      <c r="J200" s="151"/>
-      <c r="K200" s="152"/>
+      <c r="E200" s="139"/>
+      <c r="F200" s="139"/>
+      <c r="G200" s="139"/>
+      <c r="H200" s="139"/>
+      <c r="I200" s="139"/>
+      <c r="J200" s="139"/>
+      <c r="K200" s="140"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -22633,16 +22693,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="156" t="s">
+      <c r="D202" s="163" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="157"/>
-      <c r="F202" s="157"/>
-      <c r="G202" s="157"/>
-      <c r="H202" s="157"/>
-      <c r="I202" s="157"/>
-      <c r="J202" s="157"/>
-      <c r="K202" s="158"/>
+      <c r="E202" s="164"/>
+      <c r="F202" s="164"/>
+      <c r="G202" s="164"/>
+      <c r="H202" s="164"/>
+      <c r="I202" s="164"/>
+      <c r="J202" s="164"/>
+      <c r="K202" s="165"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -22673,16 +22733,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="150" t="s">
+      <c r="D204" s="138" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="151"/>
-      <c r="F204" s="151"/>
-      <c r="G204" s="151"/>
-      <c r="H204" s="151"/>
-      <c r="I204" s="151"/>
-      <c r="J204" s="151"/>
-      <c r="K204" s="152"/>
+      <c r="E204" s="139"/>
+      <c r="F204" s="139"/>
+      <c r="G204" s="139"/>
+      <c r="H204" s="139"/>
+      <c r="I204" s="139"/>
+      <c r="J204" s="139"/>
+      <c r="K204" s="140"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -22713,16 +22773,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="150" t="s">
+      <c r="D206" s="138" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="151"/>
-      <c r="F206" s="151"/>
-      <c r="G206" s="151"/>
-      <c r="H206" s="151"/>
-      <c r="I206" s="151"/>
-      <c r="J206" s="151"/>
-      <c r="K206" s="152"/>
+      <c r="E206" s="139"/>
+      <c r="F206" s="139"/>
+      <c r="G206" s="139"/>
+      <c r="H206" s="139"/>
+      <c r="I206" s="139"/>
+      <c r="J206" s="139"/>
+      <c r="K206" s="140"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -22753,16 +22813,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="150" t="s">
+      <c r="D208" s="138" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="151"/>
-      <c r="F208" s="151"/>
-      <c r="G208" s="151"/>
-      <c r="H208" s="151"/>
-      <c r="I208" s="151"/>
-      <c r="J208" s="151"/>
-      <c r="K208" s="152"/>
+      <c r="E208" s="139"/>
+      <c r="F208" s="139"/>
+      <c r="G208" s="139"/>
+      <c r="H208" s="139"/>
+      <c r="I208" s="139"/>
+      <c r="J208" s="139"/>
+      <c r="K208" s="140"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -22796,16 +22856,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="145" t="s">
+      <c r="D210" s="152" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="138"/>
-      <c r="F210" s="138"/>
-      <c r="G210" s="138"/>
-      <c r="H210" s="138"/>
-      <c r="I210" s="138"/>
-      <c r="J210" s="138"/>
-      <c r="K210" s="146"/>
+      <c r="E210" s="153"/>
+      <c r="F210" s="153"/>
+      <c r="G210" s="153"/>
+      <c r="H210" s="153"/>
+      <c r="I210" s="153"/>
+      <c r="J210" s="153"/>
+      <c r="K210" s="154"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -22874,16 +22934,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="150" t="s">
+      <c r="D214" s="138" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="151"/>
-      <c r="F214" s="151"/>
-      <c r="G214" s="151"/>
-      <c r="H214" s="151"/>
-      <c r="I214" s="151"/>
-      <c r="J214" s="151"/>
-      <c r="K214" s="152"/>
+      <c r="E214" s="139"/>
+      <c r="F214" s="139"/>
+      <c r="G214" s="139"/>
+      <c r="H214" s="139"/>
+      <c r="I214" s="139"/>
+      <c r="J214" s="139"/>
+      <c r="K214" s="140"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -22914,16 +22974,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="143" t="s">
+      <c r="D216" s="150" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="135"/>
-      <c r="F216" s="135"/>
-      <c r="G216" s="135"/>
-      <c r="H216" s="135"/>
-      <c r="I216" s="135"/>
-      <c r="J216" s="135"/>
-      <c r="K216" s="144"/>
+      <c r="E216" s="145"/>
+      <c r="F216" s="145"/>
+      <c r="G216" s="145"/>
+      <c r="H216" s="145"/>
+      <c r="I216" s="145"/>
+      <c r="J216" s="145"/>
+      <c r="K216" s="151"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -22935,14 +22995,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="145"/>
-      <c r="E217" s="138"/>
-      <c r="F217" s="138"/>
-      <c r="G217" s="138"/>
-      <c r="H217" s="138"/>
-      <c r="I217" s="138"/>
-      <c r="J217" s="138"/>
-      <c r="K217" s="146"/>
+      <c r="D217" s="152"/>
+      <c r="E217" s="153"/>
+      <c r="F217" s="153"/>
+      <c r="G217" s="153"/>
+      <c r="H217" s="153"/>
+      <c r="I217" s="153"/>
+      <c r="J217" s="153"/>
+      <c r="K217" s="154"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -22954,16 +23014,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="143" t="s">
+      <c r="D218" s="150" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="135"/>
-      <c r="F218" s="135"/>
-      <c r="G218" s="135"/>
-      <c r="H218" s="135"/>
-      <c r="I218" s="135"/>
-      <c r="J218" s="135"/>
-      <c r="K218" s="144"/>
+      <c r="E218" s="145"/>
+      <c r="F218" s="145"/>
+      <c r="G218" s="145"/>
+      <c r="H218" s="145"/>
+      <c r="I218" s="145"/>
+      <c r="J218" s="145"/>
+      <c r="K218" s="151"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -22975,14 +23035,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="145"/>
-      <c r="E219" s="138"/>
-      <c r="F219" s="138"/>
-      <c r="G219" s="138"/>
-      <c r="H219" s="138"/>
-      <c r="I219" s="138"/>
-      <c r="J219" s="138"/>
-      <c r="K219" s="146"/>
+      <c r="D219" s="152"/>
+      <c r="E219" s="153"/>
+      <c r="F219" s="153"/>
+      <c r="G219" s="153"/>
+      <c r="H219" s="153"/>
+      <c r="I219" s="153"/>
+      <c r="J219" s="153"/>
+      <c r="K219" s="154"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -22994,16 +23054,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="143" t="s">
+      <c r="D220" s="150" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="135"/>
-      <c r="F220" s="135"/>
-      <c r="G220" s="135"/>
-      <c r="H220" s="135"/>
-      <c r="I220" s="135"/>
-      <c r="J220" s="135"/>
-      <c r="K220" s="144"/>
+      <c r="E220" s="145"/>
+      <c r="F220" s="145"/>
+      <c r="G220" s="145"/>
+      <c r="H220" s="145"/>
+      <c r="I220" s="145"/>
+      <c r="J220" s="145"/>
+      <c r="K220" s="151"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -23015,14 +23075,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="145"/>
-      <c r="E221" s="138"/>
-      <c r="F221" s="138"/>
-      <c r="G221" s="138"/>
-      <c r="H221" s="138"/>
-      <c r="I221" s="138"/>
-      <c r="J221" s="138"/>
-      <c r="K221" s="146"/>
+      <c r="D221" s="152"/>
+      <c r="E221" s="153"/>
+      <c r="F221" s="153"/>
+      <c r="G221" s="153"/>
+      <c r="H221" s="153"/>
+      <c r="I221" s="153"/>
+      <c r="J221" s="153"/>
+      <c r="K221" s="154"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -23034,16 +23094,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="150" t="s">
+      <c r="D222" s="138" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="151"/>
-      <c r="F222" s="151"/>
-      <c r="G222" s="151"/>
-      <c r="H222" s="151"/>
-      <c r="I222" s="151"/>
-      <c r="J222" s="151"/>
-      <c r="K222" s="152"/>
+      <c r="E222" s="139"/>
+      <c r="F222" s="139"/>
+      <c r="G222" s="139"/>
+      <c r="H222" s="139"/>
+      <c r="I222" s="139"/>
+      <c r="J222" s="139"/>
+      <c r="K222" s="140"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -23074,16 +23134,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="150" t="s">
+      <c r="D224" s="138" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="151"/>
-      <c r="F224" s="151"/>
-      <c r="G224" s="151"/>
-      <c r="H224" s="151"/>
-      <c r="I224" s="151"/>
-      <c r="J224" s="151"/>
-      <c r="K224" s="152"/>
+      <c r="E224" s="139"/>
+      <c r="F224" s="139"/>
+      <c r="G224" s="139"/>
+      <c r="H224" s="139"/>
+      <c r="I224" s="139"/>
+      <c r="J224" s="139"/>
+      <c r="K224" s="140"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -23117,16 +23177,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="153" t="s">
+      <c r="D226" s="160" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="154"/>
-      <c r="F226" s="154"/>
-      <c r="G226" s="154"/>
-      <c r="H226" s="154"/>
-      <c r="I226" s="154"/>
-      <c r="J226" s="154"/>
-      <c r="K226" s="155"/>
+      <c r="E226" s="161"/>
+      <c r="F226" s="161"/>
+      <c r="G226" s="161"/>
+      <c r="H226" s="161"/>
+      <c r="I226" s="161"/>
+      <c r="J226" s="161"/>
+      <c r="K226" s="162"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -23271,16 +23331,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="147" t="s">
+      <c r="D234" s="157" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="148"/>
-      <c r="F234" s="148"/>
-      <c r="G234" s="148"/>
-      <c r="H234" s="148"/>
-      <c r="I234" s="148"/>
-      <c r="J234" s="148"/>
-      <c r="K234" s="149"/>
+      <c r="E234" s="158"/>
+      <c r="F234" s="158"/>
+      <c r="G234" s="158"/>
+      <c r="H234" s="158"/>
+      <c r="I234" s="158"/>
+      <c r="J234" s="158"/>
+      <c r="K234" s="159"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -23349,16 +23409,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="134" t="s">
+      <c r="D238" s="144" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="135"/>
-      <c r="F238" s="135"/>
-      <c r="G238" s="135"/>
-      <c r="H238" s="135"/>
-      <c r="I238" s="135"/>
-      <c r="J238" s="135"/>
-      <c r="K238" s="136"/>
+      <c r="E238" s="145"/>
+      <c r="F238" s="145"/>
+      <c r="G238" s="145"/>
+      <c r="H238" s="145"/>
+      <c r="I238" s="145"/>
+      <c r="J238" s="145"/>
+      <c r="K238" s="146"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -23370,14 +23430,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="137"/>
-      <c r="E239" s="138"/>
-      <c r="F239" s="138"/>
-      <c r="G239" s="138"/>
-      <c r="H239" s="138"/>
-      <c r="I239" s="138"/>
-      <c r="J239" s="138"/>
-      <c r="K239" s="139"/>
+      <c r="D239" s="155"/>
+      <c r="E239" s="153"/>
+      <c r="F239" s="153"/>
+      <c r="G239" s="153"/>
+      <c r="H239" s="153"/>
+      <c r="I239" s="153"/>
+      <c r="J239" s="153"/>
+      <c r="K239" s="156"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -23389,16 +23449,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="135" t="s">
+      <c r="D240" s="145" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="135"/>
-      <c r="F240" s="135"/>
-      <c r="G240" s="135"/>
-      <c r="H240" s="135"/>
-      <c r="I240" s="135"/>
-      <c r="J240" s="135"/>
-      <c r="K240" s="136"/>
+      <c r="E240" s="145"/>
+      <c r="F240" s="145"/>
+      <c r="G240" s="145"/>
+      <c r="H240" s="145"/>
+      <c r="I240" s="145"/>
+      <c r="J240" s="145"/>
+      <c r="K240" s="146"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -23410,14 +23470,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="161"/>
-      <c r="E241" s="161"/>
-      <c r="F241" s="161"/>
-      <c r="G241" s="161"/>
-      <c r="H241" s="161"/>
-      <c r="I241" s="161"/>
-      <c r="J241" s="161"/>
-      <c r="K241" s="162"/>
+      <c r="D241" s="168"/>
+      <c r="E241" s="168"/>
+      <c r="F241" s="168"/>
+      <c r="G241" s="168"/>
+      <c r="H241" s="168"/>
+      <c r="I241" s="168"/>
+      <c r="J241" s="168"/>
+      <c r="K241" s="169"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -23608,16 +23668,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="159" t="s">
+      <c r="D250" s="166" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="148"/>
-      <c r="F250" s="148"/>
-      <c r="G250" s="148"/>
-      <c r="H250" s="148"/>
-      <c r="I250" s="148"/>
-      <c r="J250" s="148"/>
-      <c r="K250" s="160"/>
+      <c r="E250" s="158"/>
+      <c r="F250" s="158"/>
+      <c r="G250" s="158"/>
+      <c r="H250" s="158"/>
+      <c r="I250" s="158"/>
+      <c r="J250" s="158"/>
+      <c r="K250" s="167"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -24186,16 +24246,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="150" t="s">
+      <c r="D280" s="138" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="151"/>
-      <c r="F280" s="151"/>
-      <c r="G280" s="151"/>
-      <c r="H280" s="151"/>
-      <c r="I280" s="151"/>
-      <c r="J280" s="151"/>
-      <c r="K280" s="152"/>
+      <c r="E280" s="139"/>
+      <c r="F280" s="139"/>
+      <c r="G280" s="139"/>
+      <c r="H280" s="139"/>
+      <c r="I280" s="139"/>
+      <c r="J280" s="139"/>
+      <c r="K280" s="140"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -24302,16 +24362,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="150" t="s">
+      <c r="D286" s="138" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="151"/>
-      <c r="F286" s="151"/>
-      <c r="G286" s="151"/>
-      <c r="H286" s="151"/>
-      <c r="I286" s="151"/>
-      <c r="J286" s="151"/>
-      <c r="K286" s="152"/>
+      <c r="E286" s="139"/>
+      <c r="F286" s="139"/>
+      <c r="G286" s="139"/>
+      <c r="H286" s="139"/>
+      <c r="I286" s="139"/>
+      <c r="J286" s="139"/>
+      <c r="K286" s="140"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -24461,14 +24521,16 @@
         <v>B24</v>
       </c>
       <c r="C294" s="13"/>
-      <c r="D294" s="48"/>
-      <c r="E294" s="12"/>
-      <c r="F294" s="12"/>
-      <c r="G294" s="22"/>
-      <c r="H294" s="49"/>
-      <c r="I294" s="12"/>
-      <c r="J294" s="12"/>
-      <c r="K294" s="22"/>
+      <c r="D294" s="138" t="s">
+        <v>443</v>
+      </c>
+      <c r="E294" s="139"/>
+      <c r="F294" s="139"/>
+      <c r="G294" s="139"/>
+      <c r="H294" s="139"/>
+      <c r="I294" s="139"/>
+      <c r="J294" s="139"/>
+      <c r="K294" s="140"/>
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="12">
@@ -24499,16 +24561,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="150" t="s">
-        <v>386</v>
-      </c>
-      <c r="E296" s="151"/>
-      <c r="F296" s="151"/>
-      <c r="G296" s="151"/>
-      <c r="H296" s="151"/>
-      <c r="I296" s="151"/>
-      <c r="J296" s="151"/>
-      <c r="K296" s="152"/>
+      <c r="D296" s="138" t="s">
+        <v>444</v>
+      </c>
+      <c r="E296" s="139"/>
+      <c r="F296" s="139"/>
+      <c r="G296" s="139"/>
+      <c r="H296" s="139"/>
+      <c r="I296" s="139"/>
+      <c r="J296" s="139"/>
+      <c r="K296" s="140"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -24539,16 +24601,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="134" t="s">
-        <v>387</v>
-      </c>
-      <c r="E298" s="135"/>
-      <c r="F298" s="135"/>
-      <c r="G298" s="135"/>
-      <c r="H298" s="135"/>
-      <c r="I298" s="135"/>
-      <c r="J298" s="135"/>
-      <c r="K298" s="136"/>
+      <c r="D298" s="144" t="s">
+        <v>386</v>
+      </c>
+      <c r="E298" s="145"/>
+      <c r="F298" s="145"/>
+      <c r="G298" s="145"/>
+      <c r="H298" s="145"/>
+      <c r="I298" s="145"/>
+      <c r="J298" s="145"/>
+      <c r="K298" s="146"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -24560,14 +24622,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="137"/>
-      <c r="E299" s="138"/>
-      <c r="F299" s="138"/>
-      <c r="G299" s="138"/>
-      <c r="H299" s="138"/>
-      <c r="I299" s="138"/>
-      <c r="J299" s="138"/>
-      <c r="K299" s="139"/>
+      <c r="D299" s="155"/>
+      <c r="E299" s="153"/>
+      <c r="F299" s="153"/>
+      <c r="G299" s="153"/>
+      <c r="H299" s="153"/>
+      <c r="I299" s="153"/>
+      <c r="J299" s="153"/>
+      <c r="K299" s="156"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -24579,16 +24641,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="134" t="s">
-        <v>388</v>
-      </c>
-      <c r="E300" s="135"/>
-      <c r="F300" s="135"/>
-      <c r="G300" s="135"/>
-      <c r="H300" s="135"/>
-      <c r="I300" s="135"/>
-      <c r="J300" s="135"/>
-      <c r="K300" s="136"/>
+      <c r="D300" s="144" t="s">
+        <v>387</v>
+      </c>
+      <c r="E300" s="145"/>
+      <c r="F300" s="145"/>
+      <c r="G300" s="145"/>
+      <c r="H300" s="145"/>
+      <c r="I300" s="145"/>
+      <c r="J300" s="145"/>
+      <c r="K300" s="146"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -24600,14 +24662,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="137"/>
-      <c r="E301" s="138"/>
-      <c r="F301" s="138"/>
-      <c r="G301" s="138"/>
-      <c r="H301" s="138"/>
-      <c r="I301" s="138"/>
-      <c r="J301" s="138"/>
-      <c r="K301" s="139"/>
+      <c r="D301" s="155"/>
+      <c r="E301" s="153"/>
+      <c r="F301" s="153"/>
+      <c r="G301" s="153"/>
+      <c r="H301" s="153"/>
+      <c r="I301" s="153"/>
+      <c r="J301" s="153"/>
+      <c r="K301" s="156"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -24619,16 +24681,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="134" t="s">
-        <v>389</v>
-      </c>
-      <c r="E302" s="135"/>
-      <c r="F302" s="135"/>
-      <c r="G302" s="135"/>
-      <c r="H302" s="135"/>
-      <c r="I302" s="135"/>
-      <c r="J302" s="135"/>
-      <c r="K302" s="136"/>
+      <c r="D302" s="144" t="s">
+        <v>388</v>
+      </c>
+      <c r="E302" s="145"/>
+      <c r="F302" s="145"/>
+      <c r="G302" s="145"/>
+      <c r="H302" s="145"/>
+      <c r="I302" s="145"/>
+      <c r="J302" s="145"/>
+      <c r="K302" s="146"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -24640,14 +24702,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="137"/>
-      <c r="E303" s="138"/>
-      <c r="F303" s="138"/>
-      <c r="G303" s="138"/>
-      <c r="H303" s="138"/>
-      <c r="I303" s="138"/>
-      <c r="J303" s="138"/>
-      <c r="K303" s="139"/>
+      <c r="D303" s="155"/>
+      <c r="E303" s="153"/>
+      <c r="F303" s="153"/>
+      <c r="G303" s="153"/>
+      <c r="H303" s="153"/>
+      <c r="I303" s="153"/>
+      <c r="J303" s="153"/>
+      <c r="K303" s="156"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -24659,16 +24721,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="134" t="s">
-        <v>390</v>
-      </c>
-      <c r="E304" s="135"/>
-      <c r="F304" s="135"/>
-      <c r="G304" s="135"/>
-      <c r="H304" s="135"/>
-      <c r="I304" s="135"/>
-      <c r="J304" s="135"/>
-      <c r="K304" s="136"/>
+      <c r="D304" s="144" t="s">
+        <v>389</v>
+      </c>
+      <c r="E304" s="145"/>
+      <c r="F304" s="145"/>
+      <c r="G304" s="145"/>
+      <c r="H304" s="145"/>
+      <c r="I304" s="145"/>
+      <c r="J304" s="145"/>
+      <c r="K304" s="146"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -24680,14 +24742,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="137"/>
-      <c r="E305" s="138"/>
-      <c r="F305" s="138"/>
-      <c r="G305" s="138"/>
-      <c r="H305" s="138"/>
-      <c r="I305" s="138"/>
-      <c r="J305" s="138"/>
-      <c r="K305" s="139"/>
+      <c r="D305" s="155"/>
+      <c r="E305" s="153"/>
+      <c r="F305" s="153"/>
+      <c r="G305" s="153"/>
+      <c r="H305" s="153"/>
+      <c r="I305" s="153"/>
+      <c r="J305" s="153"/>
+      <c r="K305" s="156"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -24702,16 +24764,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="134" t="s">
-        <v>391</v>
-      </c>
-      <c r="E306" s="135"/>
-      <c r="F306" s="135"/>
-      <c r="G306" s="135"/>
-      <c r="H306" s="135"/>
-      <c r="I306" s="135"/>
-      <c r="J306" s="135"/>
-      <c r="K306" s="136"/>
+      <c r="D306" s="144" t="s">
+        <v>390</v>
+      </c>
+      <c r="E306" s="145"/>
+      <c r="F306" s="145"/>
+      <c r="G306" s="145"/>
+      <c r="H306" s="145"/>
+      <c r="I306" s="145"/>
+      <c r="J306" s="145"/>
+      <c r="K306" s="146"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -24723,14 +24785,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="137"/>
-      <c r="E307" s="138"/>
-      <c r="F307" s="138"/>
-      <c r="G307" s="138"/>
-      <c r="H307" s="138"/>
-      <c r="I307" s="138"/>
-      <c r="J307" s="138"/>
-      <c r="K307" s="139"/>
+      <c r="D307" s="155"/>
+      <c r="E307" s="153"/>
+      <c r="F307" s="153"/>
+      <c r="G307" s="153"/>
+      <c r="H307" s="153"/>
+      <c r="I307" s="153"/>
+      <c r="J307" s="153"/>
+      <c r="K307" s="156"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -24742,16 +24804,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="134" t="s">
-        <v>392</v>
-      </c>
-      <c r="E308" s="135"/>
-      <c r="F308" s="135"/>
-      <c r="G308" s="135"/>
-      <c r="H308" s="135"/>
-      <c r="I308" s="135"/>
-      <c r="J308" s="135"/>
-      <c r="K308" s="136"/>
+      <c r="D308" s="144" t="s">
+        <v>391</v>
+      </c>
+      <c r="E308" s="145"/>
+      <c r="F308" s="145"/>
+      <c r="G308" s="145"/>
+      <c r="H308" s="145"/>
+      <c r="I308" s="145"/>
+      <c r="J308" s="145"/>
+      <c r="K308" s="146"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -24763,14 +24825,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="137"/>
-      <c r="E309" s="138"/>
-      <c r="F309" s="138"/>
-      <c r="G309" s="138"/>
-      <c r="H309" s="138"/>
-      <c r="I309" s="138"/>
-      <c r="J309" s="138"/>
-      <c r="K309" s="139"/>
+      <c r="D309" s="155"/>
+      <c r="E309" s="153"/>
+      <c r="F309" s="153"/>
+      <c r="G309" s="153"/>
+      <c r="H309" s="153"/>
+      <c r="I309" s="153"/>
+      <c r="J309" s="153"/>
+      <c r="K309" s="156"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -28649,30 +28711,14 @@
       <c r="K513" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="D214:K214"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D200:K200"/>
-    <mergeCell ref="D202:K202"/>
+  <mergeCells count="46">
+    <mergeCell ref="D294:K294"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
     <mergeCell ref="D280:K280"/>
     <mergeCell ref="D286:K286"/>
     <mergeCell ref="D296:K296"/>
@@ -28689,12 +28735,29 @@
     <mergeCell ref="D250:K250"/>
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="D214:K214"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="D202:K202"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape"/>
@@ -28702,7 +28765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -28714,7 +28777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/Switches.xlsx
+++ b/data/Switches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\IoGR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEB0BF4-5693-4622-A61C-CE7E0ADEF712}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00822147-646F-4F84-8137-16DF5A71999E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26490" yWindow="1980" windowWidth="19140" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Switches_New" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="447">
   <si>
     <t>ID</t>
   </si>
@@ -1369,6 +1369,9 @@
   </si>
   <si>
     <t>Level Setting (0x00 = Beginner, 0x01 = Intermediate, 0x02 = Advanced, 0x03 = Expert)</t>
+  </si>
+  <si>
+    <t>Used in credits</t>
   </si>
 </sst>
 </file>
@@ -2536,25 +2539,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2566,22 +2557,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2602,22 +2599,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2641,16 +2626,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
@@ -3008,9 +3011,9 @@
   </sheetPr>
   <dimension ref="A1:O513"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D296" sqref="D296:K296"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3083,16 +3086,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="144" t="s">
+      <c r="D2" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="146"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="138"/>
       <c r="L2" s="119" t="s">
         <v>7</v>
       </c>
@@ -3110,14 +3113,14 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="149"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="147"/>
       <c r="L3" s="119" t="s">
         <v>8</v>
       </c>
@@ -4177,7 +4180,7 @@
         <v>201</v>
       </c>
       <c r="H29" s="116" t="s">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="I29" s="88" t="s">
         <v>202</v>
@@ -5642,16 +5645,16 @@
         <v>A49</v>
       </c>
       <c r="C75" s="13"/>
-      <c r="D75" s="131" t="s">
+      <c r="D75" s="164" t="s">
         <v>436</v>
       </c>
-      <c r="E75" s="132"/>
-      <c r="F75" s="132"/>
-      <c r="G75" s="132"/>
-      <c r="H75" s="132"/>
-      <c r="I75" s="132"/>
-      <c r="J75" s="132"/>
-      <c r="K75" s="133"/>
+      <c r="E75" s="165"/>
+      <c r="F75" s="165"/>
+      <c r="G75" s="165"/>
+      <c r="H75" s="165"/>
+      <c r="I75" s="165"/>
+      <c r="J75" s="165"/>
+      <c r="K75" s="166"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="12">
@@ -5663,16 +5666,16 @@
         <v>A4A</v>
       </c>
       <c r="C76" s="13"/>
-      <c r="D76" s="131" t="s">
+      <c r="D76" s="164" t="s">
         <v>437</v>
       </c>
-      <c r="E76" s="132"/>
-      <c r="F76" s="132"/>
-      <c r="G76" s="132"/>
-      <c r="H76" s="132"/>
-      <c r="I76" s="132"/>
-      <c r="J76" s="132"/>
-      <c r="K76" s="133"/>
+      <c r="E76" s="165"/>
+      <c r="F76" s="165"/>
+      <c r="G76" s="165"/>
+      <c r="H76" s="165"/>
+      <c r="I76" s="165"/>
+      <c r="J76" s="165"/>
+      <c r="K76" s="166"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="12">
@@ -5684,16 +5687,16 @@
         <v>A4B</v>
       </c>
       <c r="C77" s="13"/>
-      <c r="D77" s="131" t="s">
+      <c r="D77" s="164" t="s">
         <v>438</v>
       </c>
-      <c r="E77" s="132"/>
-      <c r="F77" s="132"/>
-      <c r="G77" s="132"/>
-      <c r="H77" s="132"/>
-      <c r="I77" s="132"/>
-      <c r="J77" s="132"/>
-      <c r="K77" s="133"/>
+      <c r="E77" s="165"/>
+      <c r="F77" s="165"/>
+      <c r="G77" s="165"/>
+      <c r="H77" s="165"/>
+      <c r="I77" s="165"/>
+      <c r="J77" s="165"/>
+      <c r="K77" s="166"/>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="12">
@@ -5705,16 +5708,16 @@
         <v>A4C</v>
       </c>
       <c r="C78" s="13"/>
-      <c r="D78" s="131" t="s">
+      <c r="D78" s="164" t="s">
         <v>439</v>
       </c>
-      <c r="E78" s="132"/>
-      <c r="F78" s="132"/>
-      <c r="G78" s="132"/>
-      <c r="H78" s="132"/>
-      <c r="I78" s="132"/>
-      <c r="J78" s="132"/>
-      <c r="K78" s="133"/>
+      <c r="E78" s="165"/>
+      <c r="F78" s="165"/>
+      <c r="G78" s="165"/>
+      <c r="H78" s="165"/>
+      <c r="I78" s="165"/>
+      <c r="J78" s="165"/>
+      <c r="K78" s="166"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="12">
@@ -5726,16 +5729,16 @@
         <v>A4D</v>
       </c>
       <c r="C79" s="13"/>
-      <c r="D79" s="131" t="s">
+      <c r="D79" s="164" t="s">
         <v>440</v>
       </c>
-      <c r="E79" s="132"/>
-      <c r="F79" s="132"/>
-      <c r="G79" s="132"/>
-      <c r="H79" s="132"/>
-      <c r="I79" s="132"/>
-      <c r="J79" s="132"/>
-      <c r="K79" s="133"/>
+      <c r="E79" s="165"/>
+      <c r="F79" s="165"/>
+      <c r="G79" s="165"/>
+      <c r="H79" s="165"/>
+      <c r="I79" s="165"/>
+      <c r="J79" s="165"/>
+      <c r="K79" s="166"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="12">
@@ -5747,16 +5750,16 @@
         <v>A4E</v>
       </c>
       <c r="C80" s="13"/>
-      <c r="D80" s="131" t="s">
+      <c r="D80" s="164" t="s">
         <v>441</v>
       </c>
-      <c r="E80" s="132"/>
-      <c r="F80" s="132"/>
-      <c r="G80" s="132"/>
-      <c r="H80" s="132"/>
-      <c r="I80" s="132"/>
-      <c r="J80" s="132"/>
-      <c r="K80" s="133"/>
+      <c r="E80" s="165"/>
+      <c r="F80" s="165"/>
+      <c r="G80" s="165"/>
+      <c r="H80" s="165"/>
+      <c r="I80" s="165"/>
+      <c r="J80" s="165"/>
+      <c r="K80" s="166"/>
     </row>
     <row r="81" spans="1:14" s="1" customFormat="1">
       <c r="A81" s="32">
@@ -5768,16 +5771,16 @@
         <v>A4F</v>
       </c>
       <c r="C81" s="33"/>
-      <c r="D81" s="134" t="s">
+      <c r="D81" s="167" t="s">
         <v>442</v>
       </c>
-      <c r="E81" s="135"/>
-      <c r="F81" s="135"/>
-      <c r="G81" s="135"/>
-      <c r="H81" s="135"/>
-      <c r="I81" s="135"/>
-      <c r="J81" s="135"/>
-      <c r="K81" s="136"/>
+      <c r="E81" s="168"/>
+      <c r="F81" s="168"/>
+      <c r="G81" s="168"/>
+      <c r="H81" s="168"/>
+      <c r="I81" s="168"/>
+      <c r="J81" s="168"/>
+      <c r="K81" s="169"/>
       <c r="L81" s="57"/>
       <c r="M81" s="58"/>
       <c r="N81" s="58"/>
@@ -5972,16 +5975,16 @@
         <v>A58</v>
       </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="131" t="s">
+      <c r="D90" s="164" t="s">
         <v>431</v>
       </c>
-      <c r="E90" s="132"/>
-      <c r="F90" s="132"/>
-      <c r="G90" s="132"/>
-      <c r="H90" s="132"/>
-      <c r="I90" s="132"/>
-      <c r="J90" s="132"/>
-      <c r="K90" s="133"/>
+      <c r="E90" s="165"/>
+      <c r="F90" s="165"/>
+      <c r="G90" s="165"/>
+      <c r="H90" s="165"/>
+      <c r="I90" s="165"/>
+      <c r="J90" s="165"/>
+      <c r="K90" s="166"/>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="12">
@@ -5993,16 +5996,16 @@
         <v>A59</v>
       </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="131" t="s">
+      <c r="D91" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="E91" s="132"/>
-      <c r="F91" s="132"/>
-      <c r="G91" s="132"/>
-      <c r="H91" s="132"/>
-      <c r="I91" s="132"/>
-      <c r="J91" s="132"/>
-      <c r="K91" s="133"/>
+      <c r="E91" s="165"/>
+      <c r="F91" s="165"/>
+      <c r="G91" s="165"/>
+      <c r="H91" s="165"/>
+      <c r="I91" s="165"/>
+      <c r="J91" s="165"/>
+      <c r="K91" s="166"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="12">
@@ -6014,16 +6017,16 @@
         <v>A5A</v>
       </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="131" t="s">
+      <c r="D92" s="164" t="s">
         <v>433</v>
       </c>
-      <c r="E92" s="132"/>
-      <c r="F92" s="132"/>
-      <c r="G92" s="132"/>
-      <c r="H92" s="132"/>
-      <c r="I92" s="132"/>
-      <c r="J92" s="132"/>
-      <c r="K92" s="133"/>
+      <c r="E92" s="165"/>
+      <c r="F92" s="165"/>
+      <c r="G92" s="165"/>
+      <c r="H92" s="165"/>
+      <c r="I92" s="165"/>
+      <c r="J92" s="165"/>
+      <c r="K92" s="166"/>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="12">
@@ -6098,16 +6101,16 @@
         <v>A5E</v>
       </c>
       <c r="C96" s="13"/>
-      <c r="D96" s="131" t="s">
+      <c r="D96" s="164" t="s">
         <v>429</v>
       </c>
-      <c r="E96" s="132"/>
-      <c r="F96" s="132"/>
-      <c r="G96" s="132"/>
-      <c r="H96" s="132"/>
-      <c r="I96" s="132"/>
-      <c r="J96" s="132"/>
-      <c r="K96" s="133"/>
+      <c r="E96" s="165"/>
+      <c r="F96" s="165"/>
+      <c r="G96" s="165"/>
+      <c r="H96" s="165"/>
+      <c r="I96" s="165"/>
+      <c r="J96" s="165"/>
+      <c r="K96" s="166"/>
     </row>
     <row r="97" spans="1:14" s="1" customFormat="1">
       <c r="A97" s="32">
@@ -9046,16 +9049,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="137" t="s">
+      <c r="D168" s="163" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="137"/>
-      <c r="F168" s="137"/>
-      <c r="G168" s="137"/>
-      <c r="H168" s="137"/>
-      <c r="I168" s="137"/>
-      <c r="J168" s="137"/>
-      <c r="K168" s="137"/>
+      <c r="E168" s="163"/>
+      <c r="F168" s="163"/>
+      <c r="G168" s="163"/>
+      <c r="H168" s="163"/>
+      <c r="I168" s="163"/>
+      <c r="J168" s="163"/>
+      <c r="K168" s="163"/>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="12">
@@ -9162,16 +9165,16 @@
         <v>AAC</v>
       </c>
       <c r="C174" s="13"/>
-      <c r="D174" s="137" t="s">
+      <c r="D174" s="163" t="s">
         <v>349</v>
       </c>
-      <c r="E174" s="137"/>
-      <c r="F174" s="137"/>
-      <c r="G174" s="137"/>
-      <c r="H174" s="137"/>
-      <c r="I174" s="137"/>
-      <c r="J174" s="137"/>
-      <c r="K174" s="137"/>
+      <c r="E174" s="163"/>
+      <c r="F174" s="163"/>
+      <c r="G174" s="163"/>
+      <c r="H174" s="163"/>
+      <c r="I174" s="163"/>
+      <c r="J174" s="163"/>
+      <c r="K174" s="163"/>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="12">
@@ -9183,16 +9186,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="137" t="s">
+      <c r="D175" s="163" t="s">
         <v>349</v>
       </c>
-      <c r="E175" s="137"/>
-      <c r="F175" s="137"/>
-      <c r="G175" s="137"/>
-      <c r="H175" s="137"/>
-      <c r="I175" s="137"/>
-      <c r="J175" s="137"/>
-      <c r="K175" s="137"/>
+      <c r="E175" s="163"/>
+      <c r="F175" s="163"/>
+      <c r="G175" s="163"/>
+      <c r="H175" s="163"/>
+      <c r="I175" s="163"/>
+      <c r="J175" s="163"/>
+      <c r="K175" s="163"/>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="12">
@@ -9245,16 +9248,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="137" t="s">
+      <c r="D178" s="163" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="137"/>
-      <c r="F178" s="137"/>
-      <c r="G178" s="137"/>
-      <c r="H178" s="137"/>
-      <c r="I178" s="137"/>
-      <c r="J178" s="137"/>
-      <c r="K178" s="137"/>
+      <c r="E178" s="163"/>
+      <c r="F178" s="163"/>
+      <c r="G178" s="163"/>
+      <c r="H178" s="163"/>
+      <c r="I178" s="163"/>
+      <c r="J178" s="163"/>
+      <c r="K178" s="163"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -9323,16 +9326,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="138" t="s">
+      <c r="D182" s="134" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="139"/>
-      <c r="F182" s="139"/>
-      <c r="G182" s="139"/>
-      <c r="H182" s="139"/>
-      <c r="I182" s="139"/>
-      <c r="J182" s="139"/>
-      <c r="K182" s="140"/>
+      <c r="E182" s="135"/>
+      <c r="F182" s="135"/>
+      <c r="G182" s="135"/>
+      <c r="H182" s="135"/>
+      <c r="I182" s="135"/>
+      <c r="J182" s="135"/>
+      <c r="K182" s="136"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -9344,16 +9347,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="138" t="s">
+      <c r="D183" s="134" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="139"/>
-      <c r="F183" s="139"/>
-      <c r="G183" s="139"/>
-      <c r="H183" s="139"/>
-      <c r="I183" s="139"/>
-      <c r="J183" s="139"/>
-      <c r="K183" s="140"/>
+      <c r="E183" s="135"/>
+      <c r="F183" s="135"/>
+      <c r="G183" s="135"/>
+      <c r="H183" s="135"/>
+      <c r="I183" s="135"/>
+      <c r="J183" s="135"/>
+      <c r="K183" s="136"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -9365,16 +9368,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="138" t="s">
+      <c r="D184" s="134" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="139"/>
-      <c r="F184" s="139"/>
-      <c r="G184" s="139"/>
-      <c r="H184" s="139"/>
-      <c r="I184" s="139"/>
-      <c r="J184" s="139"/>
-      <c r="K184" s="140"/>
+      <c r="E184" s="135"/>
+      <c r="F184" s="135"/>
+      <c r="G184" s="135"/>
+      <c r="H184" s="135"/>
+      <c r="I184" s="135"/>
+      <c r="J184" s="135"/>
+      <c r="K184" s="136"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -9386,16 +9389,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="138" t="s">
+      <c r="D185" s="134" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="139"/>
-      <c r="F185" s="139"/>
-      <c r="G185" s="139"/>
-      <c r="H185" s="139"/>
-      <c r="I185" s="139"/>
-      <c r="J185" s="139"/>
-      <c r="K185" s="140"/>
+      <c r="E185" s="135"/>
+      <c r="F185" s="135"/>
+      <c r="G185" s="135"/>
+      <c r="H185" s="135"/>
+      <c r="I185" s="135"/>
+      <c r="J185" s="135"/>
+      <c r="K185" s="136"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -9407,16 +9410,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="138" t="s">
+      <c r="D186" s="134" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="139"/>
-      <c r="F186" s="139"/>
-      <c r="G186" s="139"/>
-      <c r="H186" s="139"/>
-      <c r="I186" s="139"/>
-      <c r="J186" s="139"/>
-      <c r="K186" s="140"/>
+      <c r="E186" s="135"/>
+      <c r="F186" s="135"/>
+      <c r="G186" s="135"/>
+      <c r="H186" s="135"/>
+      <c r="I186" s="135"/>
+      <c r="J186" s="135"/>
+      <c r="K186" s="136"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -9428,16 +9431,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="138" t="s">
+      <c r="D187" s="134" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="139"/>
-      <c r="F187" s="139"/>
-      <c r="G187" s="139"/>
-      <c r="H187" s="139"/>
-      <c r="I187" s="139"/>
-      <c r="J187" s="139"/>
-      <c r="K187" s="140"/>
+      <c r="E187" s="135"/>
+      <c r="F187" s="135"/>
+      <c r="G187" s="135"/>
+      <c r="H187" s="135"/>
+      <c r="I187" s="135"/>
+      <c r="J187" s="135"/>
+      <c r="K187" s="136"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -9449,16 +9452,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="138" t="s">
+      <c r="D188" s="134" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="139"/>
-      <c r="F188" s="139"/>
-      <c r="G188" s="139"/>
-      <c r="H188" s="139"/>
-      <c r="I188" s="139"/>
-      <c r="J188" s="139"/>
-      <c r="K188" s="140"/>
+      <c r="E188" s="135"/>
+      <c r="F188" s="135"/>
+      <c r="G188" s="135"/>
+      <c r="H188" s="135"/>
+      <c r="I188" s="135"/>
+      <c r="J188" s="135"/>
+      <c r="K188" s="136"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -9470,16 +9473,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="138" t="s">
+      <c r="D189" s="134" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="139"/>
-      <c r="F189" s="139"/>
-      <c r="G189" s="139"/>
-      <c r="H189" s="139"/>
-      <c r="I189" s="139"/>
-      <c r="J189" s="139"/>
-      <c r="K189" s="140"/>
+      <c r="E189" s="135"/>
+      <c r="F189" s="135"/>
+      <c r="G189" s="135"/>
+      <c r="H189" s="135"/>
+      <c r="I189" s="135"/>
+      <c r="J189" s="135"/>
+      <c r="K189" s="136"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -9491,16 +9494,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="138" t="s">
+      <c r="D190" s="134" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="139"/>
-      <c r="F190" s="139"/>
-      <c r="G190" s="139"/>
-      <c r="H190" s="139"/>
-      <c r="I190" s="139"/>
-      <c r="J190" s="139"/>
-      <c r="K190" s="140"/>
+      <c r="E190" s="135"/>
+      <c r="F190" s="135"/>
+      <c r="G190" s="135"/>
+      <c r="H190" s="135"/>
+      <c r="I190" s="135"/>
+      <c r="J190" s="135"/>
+      <c r="K190" s="136"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -9512,16 +9515,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="138" t="s">
+      <c r="D191" s="134" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="139"/>
-      <c r="F191" s="139"/>
-      <c r="G191" s="139"/>
-      <c r="H191" s="139"/>
-      <c r="I191" s="139"/>
-      <c r="J191" s="139"/>
-      <c r="K191" s="140"/>
+      <c r="E191" s="135"/>
+      <c r="F191" s="135"/>
+      <c r="G191" s="135"/>
+      <c r="H191" s="135"/>
+      <c r="I191" s="135"/>
+      <c r="J191" s="135"/>
+      <c r="K191" s="136"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -9533,16 +9536,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="138" t="s">
+      <c r="D192" s="134" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="139"/>
-      <c r="F192" s="139"/>
-      <c r="G192" s="139"/>
-      <c r="H192" s="139"/>
-      <c r="I192" s="139"/>
-      <c r="J192" s="139"/>
-      <c r="K192" s="140"/>
+      <c r="E192" s="135"/>
+      <c r="F192" s="135"/>
+      <c r="G192" s="135"/>
+      <c r="H192" s="135"/>
+      <c r="I192" s="135"/>
+      <c r="J192" s="135"/>
+      <c r="K192" s="136"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -9554,16 +9557,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="141" t="s">
+      <c r="D193" s="160" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="142"/>
-      <c r="F193" s="142"/>
-      <c r="G193" s="142"/>
-      <c r="H193" s="142"/>
-      <c r="I193" s="142"/>
-      <c r="J193" s="142"/>
-      <c r="K193" s="143"/>
+      <c r="E193" s="161"/>
+      <c r="F193" s="161"/>
+      <c r="G193" s="161"/>
+      <c r="H193" s="161"/>
+      <c r="I193" s="161"/>
+      <c r="J193" s="161"/>
+      <c r="K193" s="162"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -9578,16 +9581,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="152" t="s">
+      <c r="D194" s="150" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="153"/>
-      <c r="F194" s="153"/>
-      <c r="G194" s="153"/>
-      <c r="H194" s="153"/>
-      <c r="I194" s="153"/>
-      <c r="J194" s="153"/>
-      <c r="K194" s="154"/>
+      <c r="E194" s="143"/>
+      <c r="F194" s="143"/>
+      <c r="G194" s="143"/>
+      <c r="H194" s="143"/>
+      <c r="I194" s="143"/>
+      <c r="J194" s="143"/>
+      <c r="K194" s="151"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -9599,16 +9602,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="138" t="s">
+      <c r="D195" s="134" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="139"/>
-      <c r="F195" s="139"/>
-      <c r="G195" s="139"/>
-      <c r="H195" s="139"/>
-      <c r="I195" s="139"/>
-      <c r="J195" s="139"/>
-      <c r="K195" s="140"/>
+      <c r="E195" s="135"/>
+      <c r="F195" s="135"/>
+      <c r="G195" s="135"/>
+      <c r="H195" s="135"/>
+      <c r="I195" s="135"/>
+      <c r="J195" s="135"/>
+      <c r="K195" s="136"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -9620,16 +9623,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="138" t="s">
+      <c r="D196" s="134" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="139"/>
-      <c r="F196" s="139"/>
-      <c r="G196" s="139"/>
-      <c r="H196" s="139"/>
-      <c r="I196" s="139"/>
-      <c r="J196" s="139"/>
-      <c r="K196" s="140"/>
+      <c r="E196" s="135"/>
+      <c r="F196" s="135"/>
+      <c r="G196" s="135"/>
+      <c r="H196" s="135"/>
+      <c r="I196" s="135"/>
+      <c r="J196" s="135"/>
+      <c r="K196" s="136"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -9641,16 +9644,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="138" t="s">
+      <c r="D197" s="134" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="139"/>
-      <c r="F197" s="139"/>
-      <c r="G197" s="139"/>
-      <c r="H197" s="139"/>
-      <c r="I197" s="139"/>
-      <c r="J197" s="139"/>
-      <c r="K197" s="140"/>
+      <c r="E197" s="135"/>
+      <c r="F197" s="135"/>
+      <c r="G197" s="135"/>
+      <c r="H197" s="135"/>
+      <c r="I197" s="135"/>
+      <c r="J197" s="135"/>
+      <c r="K197" s="136"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -9662,16 +9665,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="138" t="s">
+      <c r="D198" s="134" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="139"/>
-      <c r="F198" s="139"/>
-      <c r="G198" s="139"/>
-      <c r="H198" s="139"/>
-      <c r="I198" s="139"/>
-      <c r="J198" s="139"/>
-      <c r="K198" s="140"/>
+      <c r="E198" s="135"/>
+      <c r="F198" s="135"/>
+      <c r="G198" s="135"/>
+      <c r="H198" s="135"/>
+      <c r="I198" s="135"/>
+      <c r="J198" s="135"/>
+      <c r="K198" s="136"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -9702,16 +9705,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="138" t="s">
+      <c r="D200" s="134" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="139"/>
-      <c r="F200" s="139"/>
-      <c r="G200" s="139"/>
-      <c r="H200" s="139"/>
-      <c r="I200" s="139"/>
-      <c r="J200" s="139"/>
-      <c r="K200" s="140"/>
+      <c r="E200" s="135"/>
+      <c r="F200" s="135"/>
+      <c r="G200" s="135"/>
+      <c r="H200" s="135"/>
+      <c r="I200" s="135"/>
+      <c r="J200" s="135"/>
+      <c r="K200" s="136"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -9742,16 +9745,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="163" t="s">
+      <c r="D202" s="157" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="164"/>
-      <c r="F202" s="164"/>
-      <c r="G202" s="164"/>
-      <c r="H202" s="164"/>
-      <c r="I202" s="164"/>
-      <c r="J202" s="164"/>
-      <c r="K202" s="165"/>
+      <c r="E202" s="158"/>
+      <c r="F202" s="158"/>
+      <c r="G202" s="158"/>
+      <c r="H202" s="158"/>
+      <c r="I202" s="158"/>
+      <c r="J202" s="158"/>
+      <c r="K202" s="159"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -9782,16 +9785,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="138" t="s">
+      <c r="D204" s="134" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="139"/>
-      <c r="F204" s="139"/>
-      <c r="G204" s="139"/>
-      <c r="H204" s="139"/>
-      <c r="I204" s="139"/>
-      <c r="J204" s="139"/>
-      <c r="K204" s="140"/>
+      <c r="E204" s="135"/>
+      <c r="F204" s="135"/>
+      <c r="G204" s="135"/>
+      <c r="H204" s="135"/>
+      <c r="I204" s="135"/>
+      <c r="J204" s="135"/>
+      <c r="K204" s="136"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -9822,16 +9825,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="138" t="s">
+      <c r="D206" s="134" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="139"/>
-      <c r="F206" s="139"/>
-      <c r="G206" s="139"/>
-      <c r="H206" s="139"/>
-      <c r="I206" s="139"/>
-      <c r="J206" s="139"/>
-      <c r="K206" s="140"/>
+      <c r="E206" s="135"/>
+      <c r="F206" s="135"/>
+      <c r="G206" s="135"/>
+      <c r="H206" s="135"/>
+      <c r="I206" s="135"/>
+      <c r="J206" s="135"/>
+      <c r="K206" s="136"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -9862,16 +9865,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="138" t="s">
+      <c r="D208" s="134" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="139"/>
-      <c r="F208" s="139"/>
-      <c r="G208" s="139"/>
-      <c r="H208" s="139"/>
-      <c r="I208" s="139"/>
-      <c r="J208" s="139"/>
-      <c r="K208" s="140"/>
+      <c r="E208" s="135"/>
+      <c r="F208" s="135"/>
+      <c r="G208" s="135"/>
+      <c r="H208" s="135"/>
+      <c r="I208" s="135"/>
+      <c r="J208" s="135"/>
+      <c r="K208" s="136"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -9905,16 +9908,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="152" t="s">
+      <c r="D210" s="150" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="153"/>
-      <c r="F210" s="153"/>
-      <c r="G210" s="153"/>
-      <c r="H210" s="153"/>
-      <c r="I210" s="153"/>
-      <c r="J210" s="153"/>
-      <c r="K210" s="154"/>
+      <c r="E210" s="143"/>
+      <c r="F210" s="143"/>
+      <c r="G210" s="143"/>
+      <c r="H210" s="143"/>
+      <c r="I210" s="143"/>
+      <c r="J210" s="143"/>
+      <c r="K210" s="151"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -9983,16 +9986,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="138" t="s">
+      <c r="D214" s="134" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="139"/>
-      <c r="F214" s="139"/>
-      <c r="G214" s="139"/>
-      <c r="H214" s="139"/>
-      <c r="I214" s="139"/>
-      <c r="J214" s="139"/>
-      <c r="K214" s="140"/>
+      <c r="E214" s="135"/>
+      <c r="F214" s="135"/>
+      <c r="G214" s="135"/>
+      <c r="H214" s="135"/>
+      <c r="I214" s="135"/>
+      <c r="J214" s="135"/>
+      <c r="K214" s="136"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -10023,16 +10026,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="150" t="s">
+      <c r="D216" s="148" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="145"/>
-      <c r="F216" s="145"/>
-      <c r="G216" s="145"/>
-      <c r="H216" s="145"/>
-      <c r="I216" s="145"/>
-      <c r="J216" s="145"/>
-      <c r="K216" s="151"/>
+      <c r="E216" s="137"/>
+      <c r="F216" s="137"/>
+      <c r="G216" s="137"/>
+      <c r="H216" s="137"/>
+      <c r="I216" s="137"/>
+      <c r="J216" s="137"/>
+      <c r="K216" s="149"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -10044,14 +10047,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="152"/>
-      <c r="E217" s="153"/>
-      <c r="F217" s="153"/>
-      <c r="G217" s="153"/>
-      <c r="H217" s="153"/>
-      <c r="I217" s="153"/>
-      <c r="J217" s="153"/>
-      <c r="K217" s="154"/>
+      <c r="D217" s="150"/>
+      <c r="E217" s="143"/>
+      <c r="F217" s="143"/>
+      <c r="G217" s="143"/>
+      <c r="H217" s="143"/>
+      <c r="I217" s="143"/>
+      <c r="J217" s="143"/>
+      <c r="K217" s="151"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -10063,16 +10066,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="150" t="s">
+      <c r="D218" s="148" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="145"/>
-      <c r="F218" s="145"/>
-      <c r="G218" s="145"/>
-      <c r="H218" s="145"/>
-      <c r="I218" s="145"/>
-      <c r="J218" s="145"/>
-      <c r="K218" s="151"/>
+      <c r="E218" s="137"/>
+      <c r="F218" s="137"/>
+      <c r="G218" s="137"/>
+      <c r="H218" s="137"/>
+      <c r="I218" s="137"/>
+      <c r="J218" s="137"/>
+      <c r="K218" s="149"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -10084,14 +10087,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="152"/>
-      <c r="E219" s="153"/>
-      <c r="F219" s="153"/>
-      <c r="G219" s="153"/>
-      <c r="H219" s="153"/>
-      <c r="I219" s="153"/>
-      <c r="J219" s="153"/>
-      <c r="K219" s="154"/>
+      <c r="D219" s="150"/>
+      <c r="E219" s="143"/>
+      <c r="F219" s="143"/>
+      <c r="G219" s="143"/>
+      <c r="H219" s="143"/>
+      <c r="I219" s="143"/>
+      <c r="J219" s="143"/>
+      <c r="K219" s="151"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -10103,16 +10106,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="150" t="s">
+      <c r="D220" s="148" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="145"/>
-      <c r="F220" s="145"/>
-      <c r="G220" s="145"/>
-      <c r="H220" s="145"/>
-      <c r="I220" s="145"/>
-      <c r="J220" s="145"/>
-      <c r="K220" s="151"/>
+      <c r="E220" s="137"/>
+      <c r="F220" s="137"/>
+      <c r="G220" s="137"/>
+      <c r="H220" s="137"/>
+      <c r="I220" s="137"/>
+      <c r="J220" s="137"/>
+      <c r="K220" s="149"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -10124,14 +10127,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="152"/>
-      <c r="E221" s="153"/>
-      <c r="F221" s="153"/>
-      <c r="G221" s="153"/>
-      <c r="H221" s="153"/>
-      <c r="I221" s="153"/>
-      <c r="J221" s="153"/>
-      <c r="K221" s="154"/>
+      <c r="D221" s="150"/>
+      <c r="E221" s="143"/>
+      <c r="F221" s="143"/>
+      <c r="G221" s="143"/>
+      <c r="H221" s="143"/>
+      <c r="I221" s="143"/>
+      <c r="J221" s="143"/>
+      <c r="K221" s="151"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -10143,16 +10146,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="138" t="s">
+      <c r="D222" s="134" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="139"/>
-      <c r="F222" s="139"/>
-      <c r="G222" s="139"/>
-      <c r="H222" s="139"/>
-      <c r="I222" s="139"/>
-      <c r="J222" s="139"/>
-      <c r="K222" s="140"/>
+      <c r="E222" s="135"/>
+      <c r="F222" s="135"/>
+      <c r="G222" s="135"/>
+      <c r="H222" s="135"/>
+      <c r="I222" s="135"/>
+      <c r="J222" s="135"/>
+      <c r="K222" s="136"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -10183,16 +10186,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="138" t="s">
+      <c r="D224" s="134" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="139"/>
-      <c r="F224" s="139"/>
-      <c r="G224" s="139"/>
-      <c r="H224" s="139"/>
-      <c r="I224" s="139"/>
-      <c r="J224" s="139"/>
-      <c r="K224" s="140"/>
+      <c r="E224" s="135"/>
+      <c r="F224" s="135"/>
+      <c r="G224" s="135"/>
+      <c r="H224" s="135"/>
+      <c r="I224" s="135"/>
+      <c r="J224" s="135"/>
+      <c r="K224" s="136"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -10226,16 +10229,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="160" t="s">
+      <c r="D226" s="154" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="161"/>
-      <c r="F226" s="161"/>
-      <c r="G226" s="161"/>
-      <c r="H226" s="161"/>
-      <c r="I226" s="161"/>
-      <c r="J226" s="161"/>
-      <c r="K226" s="162"/>
+      <c r="E226" s="155"/>
+      <c r="F226" s="155"/>
+      <c r="G226" s="155"/>
+      <c r="H226" s="155"/>
+      <c r="I226" s="155"/>
+      <c r="J226" s="155"/>
+      <c r="K226" s="156"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -10380,16 +10383,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="157" t="s">
+      <c r="D234" s="152" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="158"/>
-      <c r="F234" s="158"/>
-      <c r="G234" s="158"/>
-      <c r="H234" s="158"/>
-      <c r="I234" s="158"/>
-      <c r="J234" s="158"/>
-      <c r="K234" s="159"/>
+      <c r="E234" s="132"/>
+      <c r="F234" s="132"/>
+      <c r="G234" s="132"/>
+      <c r="H234" s="132"/>
+      <c r="I234" s="132"/>
+      <c r="J234" s="132"/>
+      <c r="K234" s="153"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -10458,16 +10461,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="144" t="s">
+      <c r="D238" s="141" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="145"/>
-      <c r="F238" s="145"/>
-      <c r="G238" s="145"/>
-      <c r="H238" s="145"/>
-      <c r="I238" s="145"/>
-      <c r="J238" s="145"/>
-      <c r="K238" s="146"/>
+      <c r="E238" s="137"/>
+      <c r="F238" s="137"/>
+      <c r="G238" s="137"/>
+      <c r="H238" s="137"/>
+      <c r="I238" s="137"/>
+      <c r="J238" s="137"/>
+      <c r="K238" s="138"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -10479,14 +10482,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="155"/>
-      <c r="E239" s="153"/>
-      <c r="F239" s="153"/>
-      <c r="G239" s="153"/>
-      <c r="H239" s="153"/>
-      <c r="I239" s="153"/>
-      <c r="J239" s="153"/>
-      <c r="K239" s="156"/>
+      <c r="D239" s="142"/>
+      <c r="E239" s="143"/>
+      <c r="F239" s="143"/>
+      <c r="G239" s="143"/>
+      <c r="H239" s="143"/>
+      <c r="I239" s="143"/>
+      <c r="J239" s="143"/>
+      <c r="K239" s="144"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -10498,16 +10501,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="145" t="s">
+      <c r="D240" s="137" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="145"/>
-      <c r="F240" s="145"/>
-      <c r="G240" s="145"/>
-      <c r="H240" s="145"/>
-      <c r="I240" s="145"/>
-      <c r="J240" s="145"/>
-      <c r="K240" s="146"/>
+      <c r="E240" s="137"/>
+      <c r="F240" s="137"/>
+      <c r="G240" s="137"/>
+      <c r="H240" s="137"/>
+      <c r="I240" s="137"/>
+      <c r="J240" s="137"/>
+      <c r="K240" s="138"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -10519,14 +10522,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="168"/>
-      <c r="E241" s="168"/>
-      <c r="F241" s="168"/>
-      <c r="G241" s="168"/>
-      <c r="H241" s="168"/>
-      <c r="I241" s="168"/>
-      <c r="J241" s="168"/>
-      <c r="K241" s="169"/>
+      <c r="D241" s="139"/>
+      <c r="E241" s="139"/>
+      <c r="F241" s="139"/>
+      <c r="G241" s="139"/>
+      <c r="H241" s="139"/>
+      <c r="I241" s="139"/>
+      <c r="J241" s="139"/>
+      <c r="K241" s="140"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -10717,16 +10720,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="166" t="s">
+      <c r="D250" s="131" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="158"/>
-      <c r="F250" s="158"/>
-      <c r="G250" s="158"/>
-      <c r="H250" s="158"/>
-      <c r="I250" s="158"/>
-      <c r="J250" s="158"/>
-      <c r="K250" s="167"/>
+      <c r="E250" s="132"/>
+      <c r="F250" s="132"/>
+      <c r="G250" s="132"/>
+      <c r="H250" s="132"/>
+      <c r="I250" s="132"/>
+      <c r="J250" s="132"/>
+      <c r="K250" s="133"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -11295,16 +11298,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="138" t="s">
+      <c r="D280" s="134" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="139"/>
-      <c r="F280" s="139"/>
-      <c r="G280" s="139"/>
-      <c r="H280" s="139"/>
-      <c r="I280" s="139"/>
-      <c r="J280" s="139"/>
-      <c r="K280" s="140"/>
+      <c r="E280" s="135"/>
+      <c r="F280" s="135"/>
+      <c r="G280" s="135"/>
+      <c r="H280" s="135"/>
+      <c r="I280" s="135"/>
+      <c r="J280" s="135"/>
+      <c r="K280" s="136"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -11411,16 +11414,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="138" t="s">
+      <c r="D286" s="134" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="139"/>
-      <c r="F286" s="139"/>
-      <c r="G286" s="139"/>
-      <c r="H286" s="139"/>
-      <c r="I286" s="139"/>
-      <c r="J286" s="139"/>
-      <c r="K286" s="140"/>
+      <c r="E286" s="135"/>
+      <c r="F286" s="135"/>
+      <c r="G286" s="135"/>
+      <c r="H286" s="135"/>
+      <c r="I286" s="135"/>
+      <c r="J286" s="135"/>
+      <c r="K286" s="136"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -11570,16 +11573,16 @@
         <v>B24</v>
       </c>
       <c r="C294" s="13"/>
-      <c r="D294" s="138" t="s">
+      <c r="D294" s="134" t="s">
         <v>445</v>
       </c>
-      <c r="E294" s="139"/>
-      <c r="F294" s="139"/>
-      <c r="G294" s="139"/>
-      <c r="H294" s="139"/>
-      <c r="I294" s="139"/>
-      <c r="J294" s="139"/>
-      <c r="K294" s="140"/>
+      <c r="E294" s="135"/>
+      <c r="F294" s="135"/>
+      <c r="G294" s="135"/>
+      <c r="H294" s="135"/>
+      <c r="I294" s="135"/>
+      <c r="J294" s="135"/>
+      <c r="K294" s="136"/>
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="12">
@@ -11610,16 +11613,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="138" t="s">
+      <c r="D296" s="134" t="s">
         <v>444</v>
       </c>
-      <c r="E296" s="139"/>
-      <c r="F296" s="139"/>
-      <c r="G296" s="139"/>
-      <c r="H296" s="139"/>
-      <c r="I296" s="139"/>
-      <c r="J296" s="139"/>
-      <c r="K296" s="140"/>
+      <c r="E296" s="135"/>
+      <c r="F296" s="135"/>
+      <c r="G296" s="135"/>
+      <c r="H296" s="135"/>
+      <c r="I296" s="135"/>
+      <c r="J296" s="135"/>
+      <c r="K296" s="136"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -11650,16 +11653,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="144" t="s">
+      <c r="D298" s="141" t="s">
         <v>386</v>
       </c>
-      <c r="E298" s="145"/>
-      <c r="F298" s="145"/>
-      <c r="G298" s="145"/>
-      <c r="H298" s="145"/>
-      <c r="I298" s="145"/>
-      <c r="J298" s="145"/>
-      <c r="K298" s="146"/>
+      <c r="E298" s="137"/>
+      <c r="F298" s="137"/>
+      <c r="G298" s="137"/>
+      <c r="H298" s="137"/>
+      <c r="I298" s="137"/>
+      <c r="J298" s="137"/>
+      <c r="K298" s="138"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -11671,14 +11674,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="155"/>
-      <c r="E299" s="153"/>
-      <c r="F299" s="153"/>
-      <c r="G299" s="153"/>
-      <c r="H299" s="153"/>
-      <c r="I299" s="153"/>
-      <c r="J299" s="153"/>
-      <c r="K299" s="156"/>
+      <c r="D299" s="142"/>
+      <c r="E299" s="143"/>
+      <c r="F299" s="143"/>
+      <c r="G299" s="143"/>
+      <c r="H299" s="143"/>
+      <c r="I299" s="143"/>
+      <c r="J299" s="143"/>
+      <c r="K299" s="144"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -11690,16 +11693,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="144" t="s">
+      <c r="D300" s="141" t="s">
         <v>387</v>
       </c>
-      <c r="E300" s="145"/>
-      <c r="F300" s="145"/>
-      <c r="G300" s="145"/>
-      <c r="H300" s="145"/>
-      <c r="I300" s="145"/>
-      <c r="J300" s="145"/>
-      <c r="K300" s="146"/>
+      <c r="E300" s="137"/>
+      <c r="F300" s="137"/>
+      <c r="G300" s="137"/>
+      <c r="H300" s="137"/>
+      <c r="I300" s="137"/>
+      <c r="J300" s="137"/>
+      <c r="K300" s="138"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -11711,14 +11714,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="155"/>
-      <c r="E301" s="153"/>
-      <c r="F301" s="153"/>
-      <c r="G301" s="153"/>
-      <c r="H301" s="153"/>
-      <c r="I301" s="153"/>
-      <c r="J301" s="153"/>
-      <c r="K301" s="156"/>
+      <c r="D301" s="142"/>
+      <c r="E301" s="143"/>
+      <c r="F301" s="143"/>
+      <c r="G301" s="143"/>
+      <c r="H301" s="143"/>
+      <c r="I301" s="143"/>
+      <c r="J301" s="143"/>
+      <c r="K301" s="144"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -11730,16 +11733,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="144" t="s">
+      <c r="D302" s="141" t="s">
         <v>388</v>
       </c>
-      <c r="E302" s="145"/>
-      <c r="F302" s="145"/>
-      <c r="G302" s="145"/>
-      <c r="H302" s="145"/>
-      <c r="I302" s="145"/>
-      <c r="J302" s="145"/>
-      <c r="K302" s="146"/>
+      <c r="E302" s="137"/>
+      <c r="F302" s="137"/>
+      <c r="G302" s="137"/>
+      <c r="H302" s="137"/>
+      <c r="I302" s="137"/>
+      <c r="J302" s="137"/>
+      <c r="K302" s="138"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -11751,14 +11754,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="155"/>
-      <c r="E303" s="153"/>
-      <c r="F303" s="153"/>
-      <c r="G303" s="153"/>
-      <c r="H303" s="153"/>
-      <c r="I303" s="153"/>
-      <c r="J303" s="153"/>
-      <c r="K303" s="156"/>
+      <c r="D303" s="142"/>
+      <c r="E303" s="143"/>
+      <c r="F303" s="143"/>
+      <c r="G303" s="143"/>
+      <c r="H303" s="143"/>
+      <c r="I303" s="143"/>
+      <c r="J303" s="143"/>
+      <c r="K303" s="144"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -11770,16 +11773,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="144" t="s">
+      <c r="D304" s="141" t="s">
         <v>389</v>
       </c>
-      <c r="E304" s="145"/>
-      <c r="F304" s="145"/>
-      <c r="G304" s="145"/>
-      <c r="H304" s="145"/>
-      <c r="I304" s="145"/>
-      <c r="J304" s="145"/>
-      <c r="K304" s="146"/>
+      <c r="E304" s="137"/>
+      <c r="F304" s="137"/>
+      <c r="G304" s="137"/>
+      <c r="H304" s="137"/>
+      <c r="I304" s="137"/>
+      <c r="J304" s="137"/>
+      <c r="K304" s="138"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -11791,14 +11794,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="155"/>
-      <c r="E305" s="153"/>
-      <c r="F305" s="153"/>
-      <c r="G305" s="153"/>
-      <c r="H305" s="153"/>
-      <c r="I305" s="153"/>
-      <c r="J305" s="153"/>
-      <c r="K305" s="156"/>
+      <c r="D305" s="142"/>
+      <c r="E305" s="143"/>
+      <c r="F305" s="143"/>
+      <c r="G305" s="143"/>
+      <c r="H305" s="143"/>
+      <c r="I305" s="143"/>
+      <c r="J305" s="143"/>
+      <c r="K305" s="144"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -11813,16 +11816,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="144" t="s">
+      <c r="D306" s="141" t="s">
         <v>390</v>
       </c>
-      <c r="E306" s="145"/>
-      <c r="F306" s="145"/>
-      <c r="G306" s="145"/>
-      <c r="H306" s="145"/>
-      <c r="I306" s="145"/>
-      <c r="J306" s="145"/>
-      <c r="K306" s="146"/>
+      <c r="E306" s="137"/>
+      <c r="F306" s="137"/>
+      <c r="G306" s="137"/>
+      <c r="H306" s="137"/>
+      <c r="I306" s="137"/>
+      <c r="J306" s="137"/>
+      <c r="K306" s="138"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -11834,14 +11837,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="155"/>
-      <c r="E307" s="153"/>
-      <c r="F307" s="153"/>
-      <c r="G307" s="153"/>
-      <c r="H307" s="153"/>
-      <c r="I307" s="153"/>
-      <c r="J307" s="153"/>
-      <c r="K307" s="156"/>
+      <c r="D307" s="142"/>
+      <c r="E307" s="143"/>
+      <c r="F307" s="143"/>
+      <c r="G307" s="143"/>
+      <c r="H307" s="143"/>
+      <c r="I307" s="143"/>
+      <c r="J307" s="143"/>
+      <c r="K307" s="144"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -11853,16 +11856,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="144" t="s">
+      <c r="D308" s="141" t="s">
         <v>391</v>
       </c>
-      <c r="E308" s="145"/>
-      <c r="F308" s="145"/>
-      <c r="G308" s="145"/>
-      <c r="H308" s="145"/>
-      <c r="I308" s="145"/>
-      <c r="J308" s="145"/>
-      <c r="K308" s="146"/>
+      <c r="E308" s="137"/>
+      <c r="F308" s="137"/>
+      <c r="G308" s="137"/>
+      <c r="H308" s="137"/>
+      <c r="I308" s="137"/>
+      <c r="J308" s="137"/>
+      <c r="K308" s="138"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -11874,14 +11877,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="155"/>
-      <c r="E309" s="153"/>
-      <c r="F309" s="153"/>
-      <c r="G309" s="153"/>
-      <c r="H309" s="153"/>
-      <c r="I309" s="153"/>
-      <c r="J309" s="153"/>
-      <c r="K309" s="156"/>
+      <c r="D309" s="142"/>
+      <c r="E309" s="143"/>
+      <c r="F309" s="143"/>
+      <c r="G309" s="143"/>
+      <c r="H309" s="143"/>
+      <c r="I309" s="143"/>
+      <c r="J309" s="143"/>
+      <c r="K309" s="144"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -15761,18 +15764,41 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="D250:K250"/>
-    <mergeCell ref="D280:K280"/>
-    <mergeCell ref="D286:K286"/>
-    <mergeCell ref="D296:K296"/>
-    <mergeCell ref="D240:K241"/>
-    <mergeCell ref="D294:K294"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D75:K75"/>
+    <mergeCell ref="D76:K76"/>
+    <mergeCell ref="D77:K77"/>
+    <mergeCell ref="D78:K78"/>
+    <mergeCell ref="D79:K79"/>
+    <mergeCell ref="D80:K80"/>
+    <mergeCell ref="D81:K81"/>
+    <mergeCell ref="D168:K168"/>
+    <mergeCell ref="D175:K175"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D91:K91"/>
+    <mergeCell ref="D90:K90"/>
+    <mergeCell ref="D93:K93"/>
+    <mergeCell ref="D96:K96"/>
+    <mergeCell ref="D94:K94"/>
+    <mergeCell ref="D95:K95"/>
+    <mergeCell ref="D92:K92"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D174:K174"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D196:K196"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="D216:K217"/>
     <mergeCell ref="D218:K219"/>
@@ -15789,41 +15815,18 @@
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
     <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D174:K174"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D80:K80"/>
-    <mergeCell ref="D81:K81"/>
-    <mergeCell ref="D168:K168"/>
-    <mergeCell ref="D175:K175"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D91:K91"/>
-    <mergeCell ref="D90:K90"/>
-    <mergeCell ref="D93:K93"/>
-    <mergeCell ref="D96:K96"/>
-    <mergeCell ref="D94:K94"/>
-    <mergeCell ref="D95:K95"/>
-    <mergeCell ref="D92:K92"/>
-    <mergeCell ref="D75:K75"/>
-    <mergeCell ref="D76:K76"/>
-    <mergeCell ref="D77:K77"/>
-    <mergeCell ref="D78:K78"/>
-    <mergeCell ref="D79:K79"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D250:K250"/>
+    <mergeCell ref="D280:K280"/>
+    <mergeCell ref="D286:K286"/>
+    <mergeCell ref="D296:K296"/>
+    <mergeCell ref="D240:K241"/>
+    <mergeCell ref="D294:K294"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -15837,7 +15840,7 @@
   </sheetPr>
   <dimension ref="A1:O513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D295" sqref="D295"/>
     </sheetView>
@@ -15909,16 +15912,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="144" t="s">
+      <c r="D2" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="146"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="138"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -15940,14 +15943,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="149"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="147"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -22196,16 +22199,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="137" t="s">
+      <c r="D178" s="163" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="137"/>
-      <c r="F178" s="137"/>
-      <c r="G178" s="137"/>
-      <c r="H178" s="137"/>
-      <c r="I178" s="137"/>
-      <c r="J178" s="137"/>
-      <c r="K178" s="137"/>
+      <c r="E178" s="163"/>
+      <c r="F178" s="163"/>
+      <c r="G178" s="163"/>
+      <c r="H178" s="163"/>
+      <c r="I178" s="163"/>
+      <c r="J178" s="163"/>
+      <c r="K178" s="163"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -22274,16 +22277,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="138" t="s">
+      <c r="D182" s="134" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="139"/>
-      <c r="F182" s="139"/>
-      <c r="G182" s="139"/>
-      <c r="H182" s="139"/>
-      <c r="I182" s="139"/>
-      <c r="J182" s="139"/>
-      <c r="K182" s="140"/>
+      <c r="E182" s="135"/>
+      <c r="F182" s="135"/>
+      <c r="G182" s="135"/>
+      <c r="H182" s="135"/>
+      <c r="I182" s="135"/>
+      <c r="J182" s="135"/>
+      <c r="K182" s="136"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -22295,16 +22298,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="138" t="s">
+      <c r="D183" s="134" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="139"/>
-      <c r="F183" s="139"/>
-      <c r="G183" s="139"/>
-      <c r="H183" s="139"/>
-      <c r="I183" s="139"/>
-      <c r="J183" s="139"/>
-      <c r="K183" s="140"/>
+      <c r="E183" s="135"/>
+      <c r="F183" s="135"/>
+      <c r="G183" s="135"/>
+      <c r="H183" s="135"/>
+      <c r="I183" s="135"/>
+      <c r="J183" s="135"/>
+      <c r="K183" s="136"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -22316,16 +22319,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="138" t="s">
+      <c r="D184" s="134" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="139"/>
-      <c r="F184" s="139"/>
-      <c r="G184" s="139"/>
-      <c r="H184" s="139"/>
-      <c r="I184" s="139"/>
-      <c r="J184" s="139"/>
-      <c r="K184" s="140"/>
+      <c r="E184" s="135"/>
+      <c r="F184" s="135"/>
+      <c r="G184" s="135"/>
+      <c r="H184" s="135"/>
+      <c r="I184" s="135"/>
+      <c r="J184" s="135"/>
+      <c r="K184" s="136"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -22337,16 +22340,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="138" t="s">
+      <c r="D185" s="134" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="139"/>
-      <c r="F185" s="139"/>
-      <c r="G185" s="139"/>
-      <c r="H185" s="139"/>
-      <c r="I185" s="139"/>
-      <c r="J185" s="139"/>
-      <c r="K185" s="140"/>
+      <c r="E185" s="135"/>
+      <c r="F185" s="135"/>
+      <c r="G185" s="135"/>
+      <c r="H185" s="135"/>
+      <c r="I185" s="135"/>
+      <c r="J185" s="135"/>
+      <c r="K185" s="136"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -22358,16 +22361,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="138" t="s">
+      <c r="D186" s="134" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="139"/>
-      <c r="F186" s="139"/>
-      <c r="G186" s="139"/>
-      <c r="H186" s="139"/>
-      <c r="I186" s="139"/>
-      <c r="J186" s="139"/>
-      <c r="K186" s="140"/>
+      <c r="E186" s="135"/>
+      <c r="F186" s="135"/>
+      <c r="G186" s="135"/>
+      <c r="H186" s="135"/>
+      <c r="I186" s="135"/>
+      <c r="J186" s="135"/>
+      <c r="K186" s="136"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -22379,16 +22382,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="138" t="s">
+      <c r="D187" s="134" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="139"/>
-      <c r="F187" s="139"/>
-      <c r="G187" s="139"/>
-      <c r="H187" s="139"/>
-      <c r="I187" s="139"/>
-      <c r="J187" s="139"/>
-      <c r="K187" s="140"/>
+      <c r="E187" s="135"/>
+      <c r="F187" s="135"/>
+      <c r="G187" s="135"/>
+      <c r="H187" s="135"/>
+      <c r="I187" s="135"/>
+      <c r="J187" s="135"/>
+      <c r="K187" s="136"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -22400,16 +22403,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="138" t="s">
+      <c r="D188" s="134" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="139"/>
-      <c r="F188" s="139"/>
-      <c r="G188" s="139"/>
-      <c r="H188" s="139"/>
-      <c r="I188" s="139"/>
-      <c r="J188" s="139"/>
-      <c r="K188" s="140"/>
+      <c r="E188" s="135"/>
+      <c r="F188" s="135"/>
+      <c r="G188" s="135"/>
+      <c r="H188" s="135"/>
+      <c r="I188" s="135"/>
+      <c r="J188" s="135"/>
+      <c r="K188" s="136"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -22421,16 +22424,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="138" t="s">
+      <c r="D189" s="134" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="139"/>
-      <c r="F189" s="139"/>
-      <c r="G189" s="139"/>
-      <c r="H189" s="139"/>
-      <c r="I189" s="139"/>
-      <c r="J189" s="139"/>
-      <c r="K189" s="140"/>
+      <c r="E189" s="135"/>
+      <c r="F189" s="135"/>
+      <c r="G189" s="135"/>
+      <c r="H189" s="135"/>
+      <c r="I189" s="135"/>
+      <c r="J189" s="135"/>
+      <c r="K189" s="136"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -22442,16 +22445,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="138" t="s">
+      <c r="D190" s="134" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="139"/>
-      <c r="F190" s="139"/>
-      <c r="G190" s="139"/>
-      <c r="H190" s="139"/>
-      <c r="I190" s="139"/>
-      <c r="J190" s="139"/>
-      <c r="K190" s="140"/>
+      <c r="E190" s="135"/>
+      <c r="F190" s="135"/>
+      <c r="G190" s="135"/>
+      <c r="H190" s="135"/>
+      <c r="I190" s="135"/>
+      <c r="J190" s="135"/>
+      <c r="K190" s="136"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -22463,16 +22466,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="138" t="s">
+      <c r="D191" s="134" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="139"/>
-      <c r="F191" s="139"/>
-      <c r="G191" s="139"/>
-      <c r="H191" s="139"/>
-      <c r="I191" s="139"/>
-      <c r="J191" s="139"/>
-      <c r="K191" s="140"/>
+      <c r="E191" s="135"/>
+      <c r="F191" s="135"/>
+      <c r="G191" s="135"/>
+      <c r="H191" s="135"/>
+      <c r="I191" s="135"/>
+      <c r="J191" s="135"/>
+      <c r="K191" s="136"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -22484,16 +22487,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="138" t="s">
+      <c r="D192" s="134" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="139"/>
-      <c r="F192" s="139"/>
-      <c r="G192" s="139"/>
-      <c r="H192" s="139"/>
-      <c r="I192" s="139"/>
-      <c r="J192" s="139"/>
-      <c r="K192" s="140"/>
+      <c r="E192" s="135"/>
+      <c r="F192" s="135"/>
+      <c r="G192" s="135"/>
+      <c r="H192" s="135"/>
+      <c r="I192" s="135"/>
+      <c r="J192" s="135"/>
+      <c r="K192" s="136"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -22505,16 +22508,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="141" t="s">
+      <c r="D193" s="160" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="142"/>
-      <c r="F193" s="142"/>
-      <c r="G193" s="142"/>
-      <c r="H193" s="142"/>
-      <c r="I193" s="142"/>
-      <c r="J193" s="142"/>
-      <c r="K193" s="143"/>
+      <c r="E193" s="161"/>
+      <c r="F193" s="161"/>
+      <c r="G193" s="161"/>
+      <c r="H193" s="161"/>
+      <c r="I193" s="161"/>
+      <c r="J193" s="161"/>
+      <c r="K193" s="162"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -22529,16 +22532,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="152" t="s">
+      <c r="D194" s="150" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="153"/>
-      <c r="F194" s="153"/>
-      <c r="G194" s="153"/>
-      <c r="H194" s="153"/>
-      <c r="I194" s="153"/>
-      <c r="J194" s="153"/>
-      <c r="K194" s="154"/>
+      <c r="E194" s="143"/>
+      <c r="F194" s="143"/>
+      <c r="G194" s="143"/>
+      <c r="H194" s="143"/>
+      <c r="I194" s="143"/>
+      <c r="J194" s="143"/>
+      <c r="K194" s="151"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -22550,16 +22553,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="138" t="s">
+      <c r="D195" s="134" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="139"/>
-      <c r="F195" s="139"/>
-      <c r="G195" s="139"/>
-      <c r="H195" s="139"/>
-      <c r="I195" s="139"/>
-      <c r="J195" s="139"/>
-      <c r="K195" s="140"/>
+      <c r="E195" s="135"/>
+      <c r="F195" s="135"/>
+      <c r="G195" s="135"/>
+      <c r="H195" s="135"/>
+      <c r="I195" s="135"/>
+      <c r="J195" s="135"/>
+      <c r="K195" s="136"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -22571,16 +22574,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="138" t="s">
+      <c r="D196" s="134" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="139"/>
-      <c r="F196" s="139"/>
-      <c r="G196" s="139"/>
-      <c r="H196" s="139"/>
-      <c r="I196" s="139"/>
-      <c r="J196" s="139"/>
-      <c r="K196" s="140"/>
+      <c r="E196" s="135"/>
+      <c r="F196" s="135"/>
+      <c r="G196" s="135"/>
+      <c r="H196" s="135"/>
+      <c r="I196" s="135"/>
+      <c r="J196" s="135"/>
+      <c r="K196" s="136"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -22592,16 +22595,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="138" t="s">
+      <c r="D197" s="134" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="139"/>
-      <c r="F197" s="139"/>
-      <c r="G197" s="139"/>
-      <c r="H197" s="139"/>
-      <c r="I197" s="139"/>
-      <c r="J197" s="139"/>
-      <c r="K197" s="140"/>
+      <c r="E197" s="135"/>
+      <c r="F197" s="135"/>
+      <c r="G197" s="135"/>
+      <c r="H197" s="135"/>
+      <c r="I197" s="135"/>
+      <c r="J197" s="135"/>
+      <c r="K197" s="136"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -22613,16 +22616,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="138" t="s">
+      <c r="D198" s="134" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="139"/>
-      <c r="F198" s="139"/>
-      <c r="G198" s="139"/>
-      <c r="H198" s="139"/>
-      <c r="I198" s="139"/>
-      <c r="J198" s="139"/>
-      <c r="K198" s="140"/>
+      <c r="E198" s="135"/>
+      <c r="F198" s="135"/>
+      <c r="G198" s="135"/>
+      <c r="H198" s="135"/>
+      <c r="I198" s="135"/>
+      <c r="J198" s="135"/>
+      <c r="K198" s="136"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -22653,16 +22656,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="138" t="s">
+      <c r="D200" s="134" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="139"/>
-      <c r="F200" s="139"/>
-      <c r="G200" s="139"/>
-      <c r="H200" s="139"/>
-      <c r="I200" s="139"/>
-      <c r="J200" s="139"/>
-      <c r="K200" s="140"/>
+      <c r="E200" s="135"/>
+      <c r="F200" s="135"/>
+      <c r="G200" s="135"/>
+      <c r="H200" s="135"/>
+      <c r="I200" s="135"/>
+      <c r="J200" s="135"/>
+      <c r="K200" s="136"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -22693,16 +22696,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="163" t="s">
+      <c r="D202" s="157" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="164"/>
-      <c r="F202" s="164"/>
-      <c r="G202" s="164"/>
-      <c r="H202" s="164"/>
-      <c r="I202" s="164"/>
-      <c r="J202" s="164"/>
-      <c r="K202" s="165"/>
+      <c r="E202" s="158"/>
+      <c r="F202" s="158"/>
+      <c r="G202" s="158"/>
+      <c r="H202" s="158"/>
+      <c r="I202" s="158"/>
+      <c r="J202" s="158"/>
+      <c r="K202" s="159"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -22733,16 +22736,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="138" t="s">
+      <c r="D204" s="134" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="139"/>
-      <c r="F204" s="139"/>
-      <c r="G204" s="139"/>
-      <c r="H204" s="139"/>
-      <c r="I204" s="139"/>
-      <c r="J204" s="139"/>
-      <c r="K204" s="140"/>
+      <c r="E204" s="135"/>
+      <c r="F204" s="135"/>
+      <c r="G204" s="135"/>
+      <c r="H204" s="135"/>
+      <c r="I204" s="135"/>
+      <c r="J204" s="135"/>
+      <c r="K204" s="136"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -22773,16 +22776,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="138" t="s">
+      <c r="D206" s="134" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="139"/>
-      <c r="F206" s="139"/>
-      <c r="G206" s="139"/>
-      <c r="H206" s="139"/>
-      <c r="I206" s="139"/>
-      <c r="J206" s="139"/>
-      <c r="K206" s="140"/>
+      <c r="E206" s="135"/>
+      <c r="F206" s="135"/>
+      <c r="G206" s="135"/>
+      <c r="H206" s="135"/>
+      <c r="I206" s="135"/>
+      <c r="J206" s="135"/>
+      <c r="K206" s="136"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -22813,16 +22816,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="138" t="s">
+      <c r="D208" s="134" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="139"/>
-      <c r="F208" s="139"/>
-      <c r="G208" s="139"/>
-      <c r="H208" s="139"/>
-      <c r="I208" s="139"/>
-      <c r="J208" s="139"/>
-      <c r="K208" s="140"/>
+      <c r="E208" s="135"/>
+      <c r="F208" s="135"/>
+      <c r="G208" s="135"/>
+      <c r="H208" s="135"/>
+      <c r="I208" s="135"/>
+      <c r="J208" s="135"/>
+      <c r="K208" s="136"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -22856,16 +22859,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="152" t="s">
+      <c r="D210" s="150" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="153"/>
-      <c r="F210" s="153"/>
-      <c r="G210" s="153"/>
-      <c r="H210" s="153"/>
-      <c r="I210" s="153"/>
-      <c r="J210" s="153"/>
-      <c r="K210" s="154"/>
+      <c r="E210" s="143"/>
+      <c r="F210" s="143"/>
+      <c r="G210" s="143"/>
+      <c r="H210" s="143"/>
+      <c r="I210" s="143"/>
+      <c r="J210" s="143"/>
+      <c r="K210" s="151"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -22934,16 +22937,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="138" t="s">
+      <c r="D214" s="134" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="139"/>
-      <c r="F214" s="139"/>
-      <c r="G214" s="139"/>
-      <c r="H214" s="139"/>
-      <c r="I214" s="139"/>
-      <c r="J214" s="139"/>
-      <c r="K214" s="140"/>
+      <c r="E214" s="135"/>
+      <c r="F214" s="135"/>
+      <c r="G214" s="135"/>
+      <c r="H214" s="135"/>
+      <c r="I214" s="135"/>
+      <c r="J214" s="135"/>
+      <c r="K214" s="136"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -22974,16 +22977,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="150" t="s">
+      <c r="D216" s="148" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="145"/>
-      <c r="F216" s="145"/>
-      <c r="G216" s="145"/>
-      <c r="H216" s="145"/>
-      <c r="I216" s="145"/>
-      <c r="J216" s="145"/>
-      <c r="K216" s="151"/>
+      <c r="E216" s="137"/>
+      <c r="F216" s="137"/>
+      <c r="G216" s="137"/>
+      <c r="H216" s="137"/>
+      <c r="I216" s="137"/>
+      <c r="J216" s="137"/>
+      <c r="K216" s="149"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -22995,14 +22998,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="152"/>
-      <c r="E217" s="153"/>
-      <c r="F217" s="153"/>
-      <c r="G217" s="153"/>
-      <c r="H217" s="153"/>
-      <c r="I217" s="153"/>
-      <c r="J217" s="153"/>
-      <c r="K217" s="154"/>
+      <c r="D217" s="150"/>
+      <c r="E217" s="143"/>
+      <c r="F217" s="143"/>
+      <c r="G217" s="143"/>
+      <c r="H217" s="143"/>
+      <c r="I217" s="143"/>
+      <c r="J217" s="143"/>
+      <c r="K217" s="151"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -23014,16 +23017,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="150" t="s">
+      <c r="D218" s="148" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="145"/>
-      <c r="F218" s="145"/>
-      <c r="G218" s="145"/>
-      <c r="H218" s="145"/>
-      <c r="I218" s="145"/>
-      <c r="J218" s="145"/>
-      <c r="K218" s="151"/>
+      <c r="E218" s="137"/>
+      <c r="F218" s="137"/>
+      <c r="G218" s="137"/>
+      <c r="H218" s="137"/>
+      <c r="I218" s="137"/>
+      <c r="J218" s="137"/>
+      <c r="K218" s="149"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -23035,14 +23038,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="152"/>
-      <c r="E219" s="153"/>
-      <c r="F219" s="153"/>
-      <c r="G219" s="153"/>
-      <c r="H219" s="153"/>
-      <c r="I219" s="153"/>
-      <c r="J219" s="153"/>
-      <c r="K219" s="154"/>
+      <c r="D219" s="150"/>
+      <c r="E219" s="143"/>
+      <c r="F219" s="143"/>
+      <c r="G219" s="143"/>
+      <c r="H219" s="143"/>
+      <c r="I219" s="143"/>
+      <c r="J219" s="143"/>
+      <c r="K219" s="151"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -23054,16 +23057,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="150" t="s">
+      <c r="D220" s="148" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="145"/>
-      <c r="F220" s="145"/>
-      <c r="G220" s="145"/>
-      <c r="H220" s="145"/>
-      <c r="I220" s="145"/>
-      <c r="J220" s="145"/>
-      <c r="K220" s="151"/>
+      <c r="E220" s="137"/>
+      <c r="F220" s="137"/>
+      <c r="G220" s="137"/>
+      <c r="H220" s="137"/>
+      <c r="I220" s="137"/>
+      <c r="J220" s="137"/>
+      <c r="K220" s="149"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -23075,14 +23078,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="152"/>
-      <c r="E221" s="153"/>
-      <c r="F221" s="153"/>
-      <c r="G221" s="153"/>
-      <c r="H221" s="153"/>
-      <c r="I221" s="153"/>
-      <c r="J221" s="153"/>
-      <c r="K221" s="154"/>
+      <c r="D221" s="150"/>
+      <c r="E221" s="143"/>
+      <c r="F221" s="143"/>
+      <c r="G221" s="143"/>
+      <c r="H221" s="143"/>
+      <c r="I221" s="143"/>
+      <c r="J221" s="143"/>
+      <c r="K221" s="151"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -23094,16 +23097,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="138" t="s">
+      <c r="D222" s="134" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="139"/>
-      <c r="F222" s="139"/>
-      <c r="G222" s="139"/>
-      <c r="H222" s="139"/>
-      <c r="I222" s="139"/>
-      <c r="J222" s="139"/>
-      <c r="K222" s="140"/>
+      <c r="E222" s="135"/>
+      <c r="F222" s="135"/>
+      <c r="G222" s="135"/>
+      <c r="H222" s="135"/>
+      <c r="I222" s="135"/>
+      <c r="J222" s="135"/>
+      <c r="K222" s="136"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -23134,16 +23137,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="138" t="s">
+      <c r="D224" s="134" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="139"/>
-      <c r="F224" s="139"/>
-      <c r="G224" s="139"/>
-      <c r="H224" s="139"/>
-      <c r="I224" s="139"/>
-      <c r="J224" s="139"/>
-      <c r="K224" s="140"/>
+      <c r="E224" s="135"/>
+      <c r="F224" s="135"/>
+      <c r="G224" s="135"/>
+      <c r="H224" s="135"/>
+      <c r="I224" s="135"/>
+      <c r="J224" s="135"/>
+      <c r="K224" s="136"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -23177,16 +23180,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="160" t="s">
+      <c r="D226" s="154" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="161"/>
-      <c r="F226" s="161"/>
-      <c r="G226" s="161"/>
-      <c r="H226" s="161"/>
-      <c r="I226" s="161"/>
-      <c r="J226" s="161"/>
-      <c r="K226" s="162"/>
+      <c r="E226" s="155"/>
+      <c r="F226" s="155"/>
+      <c r="G226" s="155"/>
+      <c r="H226" s="155"/>
+      <c r="I226" s="155"/>
+      <c r="J226" s="155"/>
+      <c r="K226" s="156"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -23331,16 +23334,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="157" t="s">
+      <c r="D234" s="152" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="158"/>
-      <c r="F234" s="158"/>
-      <c r="G234" s="158"/>
-      <c r="H234" s="158"/>
-      <c r="I234" s="158"/>
-      <c r="J234" s="158"/>
-      <c r="K234" s="159"/>
+      <c r="E234" s="132"/>
+      <c r="F234" s="132"/>
+      <c r="G234" s="132"/>
+      <c r="H234" s="132"/>
+      <c r="I234" s="132"/>
+      <c r="J234" s="132"/>
+      <c r="K234" s="153"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -23409,16 +23412,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="144" t="s">
+      <c r="D238" s="141" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="145"/>
-      <c r="F238" s="145"/>
-      <c r="G238" s="145"/>
-      <c r="H238" s="145"/>
-      <c r="I238" s="145"/>
-      <c r="J238" s="145"/>
-      <c r="K238" s="146"/>
+      <c r="E238" s="137"/>
+      <c r="F238" s="137"/>
+      <c r="G238" s="137"/>
+      <c r="H238" s="137"/>
+      <c r="I238" s="137"/>
+      <c r="J238" s="137"/>
+      <c r="K238" s="138"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -23430,14 +23433,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="155"/>
-      <c r="E239" s="153"/>
-      <c r="F239" s="153"/>
-      <c r="G239" s="153"/>
-      <c r="H239" s="153"/>
-      <c r="I239" s="153"/>
-      <c r="J239" s="153"/>
-      <c r="K239" s="156"/>
+      <c r="D239" s="142"/>
+      <c r="E239" s="143"/>
+      <c r="F239" s="143"/>
+      <c r="G239" s="143"/>
+      <c r="H239" s="143"/>
+      <c r="I239" s="143"/>
+      <c r="J239" s="143"/>
+      <c r="K239" s="144"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -23449,16 +23452,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="145" t="s">
+      <c r="D240" s="137" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="145"/>
-      <c r="F240" s="145"/>
-      <c r="G240" s="145"/>
-      <c r="H240" s="145"/>
-      <c r="I240" s="145"/>
-      <c r="J240" s="145"/>
-      <c r="K240" s="146"/>
+      <c r="E240" s="137"/>
+      <c r="F240" s="137"/>
+      <c r="G240" s="137"/>
+      <c r="H240" s="137"/>
+      <c r="I240" s="137"/>
+      <c r="J240" s="137"/>
+      <c r="K240" s="138"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -23470,14 +23473,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="168"/>
-      <c r="E241" s="168"/>
-      <c r="F241" s="168"/>
-      <c r="G241" s="168"/>
-      <c r="H241" s="168"/>
-      <c r="I241" s="168"/>
-      <c r="J241" s="168"/>
-      <c r="K241" s="169"/>
+      <c r="D241" s="139"/>
+      <c r="E241" s="139"/>
+      <c r="F241" s="139"/>
+      <c r="G241" s="139"/>
+      <c r="H241" s="139"/>
+      <c r="I241" s="139"/>
+      <c r="J241" s="139"/>
+      <c r="K241" s="140"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -23668,16 +23671,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="166" t="s">
+      <c r="D250" s="131" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="158"/>
-      <c r="F250" s="158"/>
-      <c r="G250" s="158"/>
-      <c r="H250" s="158"/>
-      <c r="I250" s="158"/>
-      <c r="J250" s="158"/>
-      <c r="K250" s="167"/>
+      <c r="E250" s="132"/>
+      <c r="F250" s="132"/>
+      <c r="G250" s="132"/>
+      <c r="H250" s="132"/>
+      <c r="I250" s="132"/>
+      <c r="J250" s="132"/>
+      <c r="K250" s="133"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -24246,16 +24249,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="138" t="s">
+      <c r="D280" s="134" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="139"/>
-      <c r="F280" s="139"/>
-      <c r="G280" s="139"/>
-      <c r="H280" s="139"/>
-      <c r="I280" s="139"/>
-      <c r="J280" s="139"/>
-      <c r="K280" s="140"/>
+      <c r="E280" s="135"/>
+      <c r="F280" s="135"/>
+      <c r="G280" s="135"/>
+      <c r="H280" s="135"/>
+      <c r="I280" s="135"/>
+      <c r="J280" s="135"/>
+      <c r="K280" s="136"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -24362,16 +24365,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="138" t="s">
+      <c r="D286" s="134" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="139"/>
-      <c r="F286" s="139"/>
-      <c r="G286" s="139"/>
-      <c r="H286" s="139"/>
-      <c r="I286" s="139"/>
-      <c r="J286" s="139"/>
-      <c r="K286" s="140"/>
+      <c r="E286" s="135"/>
+      <c r="F286" s="135"/>
+      <c r="G286" s="135"/>
+      <c r="H286" s="135"/>
+      <c r="I286" s="135"/>
+      <c r="J286" s="135"/>
+      <c r="K286" s="136"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -24521,16 +24524,16 @@
         <v>B24</v>
       </c>
       <c r="C294" s="13"/>
-      <c r="D294" s="138" t="s">
+      <c r="D294" s="134" t="s">
         <v>443</v>
       </c>
-      <c r="E294" s="139"/>
-      <c r="F294" s="139"/>
-      <c r="G294" s="139"/>
-      <c r="H294" s="139"/>
-      <c r="I294" s="139"/>
-      <c r="J294" s="139"/>
-      <c r="K294" s="140"/>
+      <c r="E294" s="135"/>
+      <c r="F294" s="135"/>
+      <c r="G294" s="135"/>
+      <c r="H294" s="135"/>
+      <c r="I294" s="135"/>
+      <c r="J294" s="135"/>
+      <c r="K294" s="136"/>
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="12">
@@ -24561,16 +24564,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="138" t="s">
+      <c r="D296" s="134" t="s">
         <v>444</v>
       </c>
-      <c r="E296" s="139"/>
-      <c r="F296" s="139"/>
-      <c r="G296" s="139"/>
-      <c r="H296" s="139"/>
-      <c r="I296" s="139"/>
-      <c r="J296" s="139"/>
-      <c r="K296" s="140"/>
+      <c r="E296" s="135"/>
+      <c r="F296" s="135"/>
+      <c r="G296" s="135"/>
+      <c r="H296" s="135"/>
+      <c r="I296" s="135"/>
+      <c r="J296" s="135"/>
+      <c r="K296" s="136"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -24601,16 +24604,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="144" t="s">
+      <c r="D298" s="141" t="s">
         <v>386</v>
       </c>
-      <c r="E298" s="145"/>
-      <c r="F298" s="145"/>
-      <c r="G298" s="145"/>
-      <c r="H298" s="145"/>
-      <c r="I298" s="145"/>
-      <c r="J298" s="145"/>
-      <c r="K298" s="146"/>
+      <c r="E298" s="137"/>
+      <c r="F298" s="137"/>
+      <c r="G298" s="137"/>
+      <c r="H298" s="137"/>
+      <c r="I298" s="137"/>
+      <c r="J298" s="137"/>
+      <c r="K298" s="138"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -24622,14 +24625,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="155"/>
-      <c r="E299" s="153"/>
-      <c r="F299" s="153"/>
-      <c r="G299" s="153"/>
-      <c r="H299" s="153"/>
-      <c r="I299" s="153"/>
-      <c r="J299" s="153"/>
-      <c r="K299" s="156"/>
+      <c r="D299" s="142"/>
+      <c r="E299" s="143"/>
+      <c r="F299" s="143"/>
+      <c r="G299" s="143"/>
+      <c r="H299" s="143"/>
+      <c r="I299" s="143"/>
+      <c r="J299" s="143"/>
+      <c r="K299" s="144"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -24641,16 +24644,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="144" t="s">
+      <c r="D300" s="141" t="s">
         <v>387</v>
       </c>
-      <c r="E300" s="145"/>
-      <c r="F300" s="145"/>
-      <c r="G300" s="145"/>
-      <c r="H300" s="145"/>
-      <c r="I300" s="145"/>
-      <c r="J300" s="145"/>
-      <c r="K300" s="146"/>
+      <c r="E300" s="137"/>
+      <c r="F300" s="137"/>
+      <c r="G300" s="137"/>
+      <c r="H300" s="137"/>
+      <c r="I300" s="137"/>
+      <c r="J300" s="137"/>
+      <c r="K300" s="138"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -24662,14 +24665,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="155"/>
-      <c r="E301" s="153"/>
-      <c r="F301" s="153"/>
-      <c r="G301" s="153"/>
-      <c r="H301" s="153"/>
-      <c r="I301" s="153"/>
-      <c r="J301" s="153"/>
-      <c r="K301" s="156"/>
+      <c r="D301" s="142"/>
+      <c r="E301" s="143"/>
+      <c r="F301" s="143"/>
+      <c r="G301" s="143"/>
+      <c r="H301" s="143"/>
+      <c r="I301" s="143"/>
+      <c r="J301" s="143"/>
+      <c r="K301" s="144"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -24681,16 +24684,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="144" t="s">
+      <c r="D302" s="141" t="s">
         <v>388</v>
       </c>
-      <c r="E302" s="145"/>
-      <c r="F302" s="145"/>
-      <c r="G302" s="145"/>
-      <c r="H302" s="145"/>
-      <c r="I302" s="145"/>
-      <c r="J302" s="145"/>
-      <c r="K302" s="146"/>
+      <c r="E302" s="137"/>
+      <c r="F302" s="137"/>
+      <c r="G302" s="137"/>
+      <c r="H302" s="137"/>
+      <c r="I302" s="137"/>
+      <c r="J302" s="137"/>
+      <c r="K302" s="138"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -24702,14 +24705,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="155"/>
-      <c r="E303" s="153"/>
-      <c r="F303" s="153"/>
-      <c r="G303" s="153"/>
-      <c r="H303" s="153"/>
-      <c r="I303" s="153"/>
-      <c r="J303" s="153"/>
-      <c r="K303" s="156"/>
+      <c r="D303" s="142"/>
+      <c r="E303" s="143"/>
+      <c r="F303" s="143"/>
+      <c r="G303" s="143"/>
+      <c r="H303" s="143"/>
+      <c r="I303" s="143"/>
+      <c r="J303" s="143"/>
+      <c r="K303" s="144"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -24721,16 +24724,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="144" t="s">
+      <c r="D304" s="141" t="s">
         <v>389</v>
       </c>
-      <c r="E304" s="145"/>
-      <c r="F304" s="145"/>
-      <c r="G304" s="145"/>
-      <c r="H304" s="145"/>
-      <c r="I304" s="145"/>
-      <c r="J304" s="145"/>
-      <c r="K304" s="146"/>
+      <c r="E304" s="137"/>
+      <c r="F304" s="137"/>
+      <c r="G304" s="137"/>
+      <c r="H304" s="137"/>
+      <c r="I304" s="137"/>
+      <c r="J304" s="137"/>
+      <c r="K304" s="138"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -24742,14 +24745,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="155"/>
-      <c r="E305" s="153"/>
-      <c r="F305" s="153"/>
-      <c r="G305" s="153"/>
-      <c r="H305" s="153"/>
-      <c r="I305" s="153"/>
-      <c r="J305" s="153"/>
-      <c r="K305" s="156"/>
+      <c r="D305" s="142"/>
+      <c r="E305" s="143"/>
+      <c r="F305" s="143"/>
+      <c r="G305" s="143"/>
+      <c r="H305" s="143"/>
+      <c r="I305" s="143"/>
+      <c r="J305" s="143"/>
+      <c r="K305" s="144"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -24764,16 +24767,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="144" t="s">
+      <c r="D306" s="141" t="s">
         <v>390</v>
       </c>
-      <c r="E306" s="145"/>
-      <c r="F306" s="145"/>
-      <c r="G306" s="145"/>
-      <c r="H306" s="145"/>
-      <c r="I306" s="145"/>
-      <c r="J306" s="145"/>
-      <c r="K306" s="146"/>
+      <c r="E306" s="137"/>
+      <c r="F306" s="137"/>
+      <c r="G306" s="137"/>
+      <c r="H306" s="137"/>
+      <c r="I306" s="137"/>
+      <c r="J306" s="137"/>
+      <c r="K306" s="138"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -24785,14 +24788,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="155"/>
-      <c r="E307" s="153"/>
-      <c r="F307" s="153"/>
-      <c r="G307" s="153"/>
-      <c r="H307" s="153"/>
-      <c r="I307" s="153"/>
-      <c r="J307" s="153"/>
-      <c r="K307" s="156"/>
+      <c r="D307" s="142"/>
+      <c r="E307" s="143"/>
+      <c r="F307" s="143"/>
+      <c r="G307" s="143"/>
+      <c r="H307" s="143"/>
+      <c r="I307" s="143"/>
+      <c r="J307" s="143"/>
+      <c r="K307" s="144"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -24804,16 +24807,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="144" t="s">
+      <c r="D308" s="141" t="s">
         <v>391</v>
       </c>
-      <c r="E308" s="145"/>
-      <c r="F308" s="145"/>
-      <c r="G308" s="145"/>
-      <c r="H308" s="145"/>
-      <c r="I308" s="145"/>
-      <c r="J308" s="145"/>
-      <c r="K308" s="146"/>
+      <c r="E308" s="137"/>
+      <c r="F308" s="137"/>
+      <c r="G308" s="137"/>
+      <c r="H308" s="137"/>
+      <c r="I308" s="137"/>
+      <c r="J308" s="137"/>
+      <c r="K308" s="138"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -24825,14 +24828,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="155"/>
-      <c r="E309" s="153"/>
-      <c r="F309" s="153"/>
-      <c r="G309" s="153"/>
-      <c r="H309" s="153"/>
-      <c r="I309" s="153"/>
-      <c r="J309" s="153"/>
-      <c r="K309" s="156"/>
+      <c r="D309" s="142"/>
+      <c r="E309" s="143"/>
+      <c r="F309" s="143"/>
+      <c r="G309" s="143"/>
+      <c r="H309" s="143"/>
+      <c r="I309" s="143"/>
+      <c r="J309" s="143"/>
+      <c r="K309" s="144"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -28712,13 +28715,29 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="D294:K294"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="D214:K214"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="D202:K202"/>
     <mergeCell ref="D280:K280"/>
     <mergeCell ref="D286:K286"/>
     <mergeCell ref="D296:K296"/>
@@ -28735,29 +28754,13 @@
     <mergeCell ref="D250:K250"/>
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="D214:K214"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D200:K200"/>
-    <mergeCell ref="D202:K202"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D294:K294"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape"/>

--- a/data/Switches.xlsx
+++ b/data/Switches.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\IoGR\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bravo Properties\Documents\Gaming\Illusion of Gaia Randomizer\IoGR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00822147-646F-4F84-8137-16DF5A71999E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A595F55B-44D0-4CB8-BEE1-AFA994D3511F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26490" yWindow="1980" windowWidth="19140" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1635" yWindow="1305" windowWidth="24270" windowHeight="10455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Switches_New" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="448">
   <si>
     <t>ID</t>
   </si>
@@ -1372,6 +1372,9 @@
   </si>
   <si>
     <t>Used in credits</t>
+  </si>
+  <si>
+    <t>PIECE OF HEART</t>
   </si>
 </sst>
 </file>
@@ -2151,7 +2154,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2539,13 +2542,40 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2557,28 +2587,31 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2596,13 +2629,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2626,43 +2662,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3012,8 +3027,8 @@
   <dimension ref="A1:O513"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3086,16 +3101,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="138"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="154"/>
       <c r="L2" s="119" t="s">
         <v>7</v>
       </c>
@@ -3113,14 +3128,14 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="147"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="157"/>
       <c r="L3" s="119" t="s">
         <v>8</v>
       </c>
@@ -4286,14 +4301,14 @@
         <f t="shared" si="0"/>
         <v>A1E</v>
       </c>
-      <c r="C32" s="13" t="str">
+      <c r="C32" s="132" t="str">
         <f t="shared" si="1"/>
         <v>240-247</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E32" s="21" t="s">
+      <c r="D32" s="176" t="s">
+        <v>447</v>
+      </c>
+      <c r="E32" s="131" t="s">
         <v>224</v>
       </c>
       <c r="F32" s="90" t="s">
@@ -4331,7 +4346,7 @@
         <f t="shared" si="1"/>
         <v>248-255</v>
       </c>
-      <c r="D33" s="43"/>
+      <c r="D33" s="175"/>
       <c r="E33" s="44" t="s">
         <v>231</v>
       </c>
@@ -5645,16 +5660,16 @@
         <v>A49</v>
       </c>
       <c r="C75" s="13"/>
-      <c r="D75" s="164" t="s">
+      <c r="D75" s="133" t="s">
         <v>436</v>
       </c>
-      <c r="E75" s="165"/>
-      <c r="F75" s="165"/>
-      <c r="G75" s="165"/>
-      <c r="H75" s="165"/>
-      <c r="I75" s="165"/>
-      <c r="J75" s="165"/>
-      <c r="K75" s="166"/>
+      <c r="E75" s="134"/>
+      <c r="F75" s="134"/>
+      <c r="G75" s="134"/>
+      <c r="H75" s="134"/>
+      <c r="I75" s="134"/>
+      <c r="J75" s="134"/>
+      <c r="K75" s="135"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="12">
@@ -5666,16 +5681,16 @@
         <v>A4A</v>
       </c>
       <c r="C76" s="13"/>
-      <c r="D76" s="164" t="s">
+      <c r="D76" s="133" t="s">
         <v>437</v>
       </c>
-      <c r="E76" s="165"/>
-      <c r="F76" s="165"/>
-      <c r="G76" s="165"/>
-      <c r="H76" s="165"/>
-      <c r="I76" s="165"/>
-      <c r="J76" s="165"/>
-      <c r="K76" s="166"/>
+      <c r="E76" s="134"/>
+      <c r="F76" s="134"/>
+      <c r="G76" s="134"/>
+      <c r="H76" s="134"/>
+      <c r="I76" s="134"/>
+      <c r="J76" s="134"/>
+      <c r="K76" s="135"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="12">
@@ -5687,16 +5702,16 @@
         <v>A4B</v>
       </c>
       <c r="C77" s="13"/>
-      <c r="D77" s="164" t="s">
+      <c r="D77" s="133" t="s">
         <v>438</v>
       </c>
-      <c r="E77" s="165"/>
-      <c r="F77" s="165"/>
-      <c r="G77" s="165"/>
-      <c r="H77" s="165"/>
-      <c r="I77" s="165"/>
-      <c r="J77" s="165"/>
-      <c r="K77" s="166"/>
+      <c r="E77" s="134"/>
+      <c r="F77" s="134"/>
+      <c r="G77" s="134"/>
+      <c r="H77" s="134"/>
+      <c r="I77" s="134"/>
+      <c r="J77" s="134"/>
+      <c r="K77" s="135"/>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="12">
@@ -5708,16 +5723,16 @@
         <v>A4C</v>
       </c>
       <c r="C78" s="13"/>
-      <c r="D78" s="164" t="s">
+      <c r="D78" s="133" t="s">
         <v>439</v>
       </c>
-      <c r="E78" s="165"/>
-      <c r="F78" s="165"/>
-      <c r="G78" s="165"/>
-      <c r="H78" s="165"/>
-      <c r="I78" s="165"/>
-      <c r="J78" s="165"/>
-      <c r="K78" s="166"/>
+      <c r="E78" s="134"/>
+      <c r="F78" s="134"/>
+      <c r="G78" s="134"/>
+      <c r="H78" s="134"/>
+      <c r="I78" s="134"/>
+      <c r="J78" s="134"/>
+      <c r="K78" s="135"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="12">
@@ -5729,16 +5744,16 @@
         <v>A4D</v>
       </c>
       <c r="C79" s="13"/>
-      <c r="D79" s="164" t="s">
+      <c r="D79" s="133" t="s">
         <v>440</v>
       </c>
-      <c r="E79" s="165"/>
-      <c r="F79" s="165"/>
-      <c r="G79" s="165"/>
-      <c r="H79" s="165"/>
-      <c r="I79" s="165"/>
-      <c r="J79" s="165"/>
-      <c r="K79" s="166"/>
+      <c r="E79" s="134"/>
+      <c r="F79" s="134"/>
+      <c r="G79" s="134"/>
+      <c r="H79" s="134"/>
+      <c r="I79" s="134"/>
+      <c r="J79" s="134"/>
+      <c r="K79" s="135"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="12">
@@ -5750,16 +5765,16 @@
         <v>A4E</v>
       </c>
       <c r="C80" s="13"/>
-      <c r="D80" s="164" t="s">
+      <c r="D80" s="133" t="s">
         <v>441</v>
       </c>
-      <c r="E80" s="165"/>
-      <c r="F80" s="165"/>
-      <c r="G80" s="165"/>
-      <c r="H80" s="165"/>
-      <c r="I80" s="165"/>
-      <c r="J80" s="165"/>
-      <c r="K80" s="166"/>
+      <c r="E80" s="134"/>
+      <c r="F80" s="134"/>
+      <c r="G80" s="134"/>
+      <c r="H80" s="134"/>
+      <c r="I80" s="134"/>
+      <c r="J80" s="134"/>
+      <c r="K80" s="135"/>
     </row>
     <row r="81" spans="1:14" s="1" customFormat="1">
       <c r="A81" s="32">
@@ -5771,16 +5786,16 @@
         <v>A4F</v>
       </c>
       <c r="C81" s="33"/>
-      <c r="D81" s="167" t="s">
+      <c r="D81" s="136" t="s">
         <v>442</v>
       </c>
-      <c r="E81" s="168"/>
-      <c r="F81" s="168"/>
-      <c r="G81" s="168"/>
-      <c r="H81" s="168"/>
-      <c r="I81" s="168"/>
-      <c r="J81" s="168"/>
-      <c r="K81" s="169"/>
+      <c r="E81" s="137"/>
+      <c r="F81" s="137"/>
+      <c r="G81" s="137"/>
+      <c r="H81" s="137"/>
+      <c r="I81" s="137"/>
+      <c r="J81" s="137"/>
+      <c r="K81" s="138"/>
       <c r="L81" s="57"/>
       <c r="M81" s="58"/>
       <c r="N81" s="58"/>
@@ -5975,16 +5990,16 @@
         <v>A58</v>
       </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="164" t="s">
+      <c r="D90" s="133" t="s">
         <v>431</v>
       </c>
-      <c r="E90" s="165"/>
-      <c r="F90" s="165"/>
-      <c r="G90" s="165"/>
-      <c r="H90" s="165"/>
-      <c r="I90" s="165"/>
-      <c r="J90" s="165"/>
-      <c r="K90" s="166"/>
+      <c r="E90" s="134"/>
+      <c r="F90" s="134"/>
+      <c r="G90" s="134"/>
+      <c r="H90" s="134"/>
+      <c r="I90" s="134"/>
+      <c r="J90" s="134"/>
+      <c r="K90" s="135"/>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="12">
@@ -5996,16 +6011,16 @@
         <v>A59</v>
       </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="164" t="s">
+      <c r="D91" s="133" t="s">
         <v>432</v>
       </c>
-      <c r="E91" s="165"/>
-      <c r="F91" s="165"/>
-      <c r="G91" s="165"/>
-      <c r="H91" s="165"/>
-      <c r="I91" s="165"/>
-      <c r="J91" s="165"/>
-      <c r="K91" s="166"/>
+      <c r="E91" s="134"/>
+      <c r="F91" s="134"/>
+      <c r="G91" s="134"/>
+      <c r="H91" s="134"/>
+      <c r="I91" s="134"/>
+      <c r="J91" s="134"/>
+      <c r="K91" s="135"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="12">
@@ -6017,16 +6032,16 @@
         <v>A5A</v>
       </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="164" t="s">
+      <c r="D92" s="133" t="s">
         <v>433</v>
       </c>
-      <c r="E92" s="165"/>
-      <c r="F92" s="165"/>
-      <c r="G92" s="165"/>
-      <c r="H92" s="165"/>
-      <c r="I92" s="165"/>
-      <c r="J92" s="165"/>
-      <c r="K92" s="166"/>
+      <c r="E92" s="134"/>
+      <c r="F92" s="134"/>
+      <c r="G92" s="134"/>
+      <c r="H92" s="134"/>
+      <c r="I92" s="134"/>
+      <c r="J92" s="134"/>
+      <c r="K92" s="135"/>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="12">
@@ -6038,16 +6053,16 @@
         <v>A5B</v>
       </c>
       <c r="C93" s="13"/>
-      <c r="D93" s="170" t="s">
+      <c r="D93" s="140" t="s">
         <v>434</v>
       </c>
-      <c r="E93" s="171"/>
-      <c r="F93" s="171"/>
-      <c r="G93" s="171"/>
-      <c r="H93" s="171"/>
-      <c r="I93" s="171"/>
-      <c r="J93" s="171"/>
-      <c r="K93" s="172"/>
+      <c r="E93" s="141"/>
+      <c r="F93" s="141"/>
+      <c r="G93" s="141"/>
+      <c r="H93" s="141"/>
+      <c r="I93" s="141"/>
+      <c r="J93" s="141"/>
+      <c r="K93" s="142"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="12">
@@ -6059,16 +6074,16 @@
         <v>A5C</v>
       </c>
       <c r="C94" s="13"/>
-      <c r="D94" s="170" t="s">
+      <c r="D94" s="140" t="s">
         <v>435</v>
       </c>
-      <c r="E94" s="171"/>
-      <c r="F94" s="171"/>
-      <c r="G94" s="171"/>
-      <c r="H94" s="171"/>
-      <c r="I94" s="171"/>
-      <c r="J94" s="171"/>
-      <c r="K94" s="172"/>
+      <c r="E94" s="141"/>
+      <c r="F94" s="141"/>
+      <c r="G94" s="141"/>
+      <c r="H94" s="141"/>
+      <c r="I94" s="141"/>
+      <c r="J94" s="141"/>
+      <c r="K94" s="142"/>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="12">
@@ -6080,16 +6095,16 @@
         <v>A5D</v>
       </c>
       <c r="C95" s="13"/>
-      <c r="D95" s="170" t="s">
+      <c r="D95" s="140" t="s">
         <v>430</v>
       </c>
-      <c r="E95" s="171"/>
-      <c r="F95" s="171"/>
-      <c r="G95" s="171"/>
-      <c r="H95" s="171"/>
-      <c r="I95" s="171"/>
-      <c r="J95" s="171"/>
-      <c r="K95" s="172"/>
+      <c r="E95" s="141"/>
+      <c r="F95" s="141"/>
+      <c r="G95" s="141"/>
+      <c r="H95" s="141"/>
+      <c r="I95" s="141"/>
+      <c r="J95" s="141"/>
+      <c r="K95" s="142"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="12">
@@ -6101,16 +6116,16 @@
         <v>A5E</v>
       </c>
       <c r="C96" s="13"/>
-      <c r="D96" s="164" t="s">
+      <c r="D96" s="133" t="s">
         <v>429</v>
       </c>
-      <c r="E96" s="165"/>
-      <c r="F96" s="165"/>
-      <c r="G96" s="165"/>
-      <c r="H96" s="165"/>
-      <c r="I96" s="165"/>
-      <c r="J96" s="165"/>
-      <c r="K96" s="166"/>
+      <c r="E96" s="134"/>
+      <c r="F96" s="134"/>
+      <c r="G96" s="134"/>
+      <c r="H96" s="134"/>
+      <c r="I96" s="134"/>
+      <c r="J96" s="134"/>
+      <c r="K96" s="135"/>
     </row>
     <row r="97" spans="1:14" s="1" customFormat="1">
       <c r="A97" s="32">
@@ -9049,16 +9064,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="163" t="s">
+      <c r="D168" s="139" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="163"/>
-      <c r="F168" s="163"/>
-      <c r="G168" s="163"/>
-      <c r="H168" s="163"/>
-      <c r="I168" s="163"/>
-      <c r="J168" s="163"/>
-      <c r="K168" s="163"/>
+      <c r="E168" s="139"/>
+      <c r="F168" s="139"/>
+      <c r="G168" s="139"/>
+      <c r="H168" s="139"/>
+      <c r="I168" s="139"/>
+      <c r="J168" s="139"/>
+      <c r="K168" s="139"/>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="12">
@@ -9165,16 +9180,16 @@
         <v>AAC</v>
       </c>
       <c r="C174" s="13"/>
-      <c r="D174" s="163" t="s">
+      <c r="D174" s="139" t="s">
         <v>349</v>
       </c>
-      <c r="E174" s="163"/>
-      <c r="F174" s="163"/>
-      <c r="G174" s="163"/>
-      <c r="H174" s="163"/>
-      <c r="I174" s="163"/>
-      <c r="J174" s="163"/>
-      <c r="K174" s="163"/>
+      <c r="E174" s="139"/>
+      <c r="F174" s="139"/>
+      <c r="G174" s="139"/>
+      <c r="H174" s="139"/>
+      <c r="I174" s="139"/>
+      <c r="J174" s="139"/>
+      <c r="K174" s="139"/>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="12">
@@ -9186,16 +9201,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="163" t="s">
+      <c r="D175" s="139" t="s">
         <v>349</v>
       </c>
-      <c r="E175" s="163"/>
-      <c r="F175" s="163"/>
-      <c r="G175" s="163"/>
-      <c r="H175" s="163"/>
-      <c r="I175" s="163"/>
-      <c r="J175" s="163"/>
-      <c r="K175" s="163"/>
+      <c r="E175" s="139"/>
+      <c r="F175" s="139"/>
+      <c r="G175" s="139"/>
+      <c r="H175" s="139"/>
+      <c r="I175" s="139"/>
+      <c r="J175" s="139"/>
+      <c r="K175" s="139"/>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="12">
@@ -9248,16 +9263,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="163" t="s">
+      <c r="D178" s="139" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="163"/>
-      <c r="F178" s="163"/>
-      <c r="G178" s="163"/>
-      <c r="H178" s="163"/>
-      <c r="I178" s="163"/>
-      <c r="J178" s="163"/>
-      <c r="K178" s="163"/>
+      <c r="E178" s="139"/>
+      <c r="F178" s="139"/>
+      <c r="G178" s="139"/>
+      <c r="H178" s="139"/>
+      <c r="I178" s="139"/>
+      <c r="J178" s="139"/>
+      <c r="K178" s="139"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -9326,16 +9341,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="134" t="s">
+      <c r="D182" s="143" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="135"/>
-      <c r="F182" s="135"/>
-      <c r="G182" s="135"/>
-      <c r="H182" s="135"/>
-      <c r="I182" s="135"/>
-      <c r="J182" s="135"/>
-      <c r="K182" s="136"/>
+      <c r="E182" s="144"/>
+      <c r="F182" s="144"/>
+      <c r="G182" s="144"/>
+      <c r="H182" s="144"/>
+      <c r="I182" s="144"/>
+      <c r="J182" s="144"/>
+      <c r="K182" s="145"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -9347,16 +9362,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="134" t="s">
+      <c r="D183" s="143" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="135"/>
-      <c r="F183" s="135"/>
-      <c r="G183" s="135"/>
-      <c r="H183" s="135"/>
-      <c r="I183" s="135"/>
-      <c r="J183" s="135"/>
-      <c r="K183" s="136"/>
+      <c r="E183" s="144"/>
+      <c r="F183" s="144"/>
+      <c r="G183" s="144"/>
+      <c r="H183" s="144"/>
+      <c r="I183" s="144"/>
+      <c r="J183" s="144"/>
+      <c r="K183" s="145"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -9368,16 +9383,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="134" t="s">
+      <c r="D184" s="143" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="135"/>
-      <c r="F184" s="135"/>
-      <c r="G184" s="135"/>
-      <c r="H184" s="135"/>
-      <c r="I184" s="135"/>
-      <c r="J184" s="135"/>
-      <c r="K184" s="136"/>
+      <c r="E184" s="144"/>
+      <c r="F184" s="144"/>
+      <c r="G184" s="144"/>
+      <c r="H184" s="144"/>
+      <c r="I184" s="144"/>
+      <c r="J184" s="144"/>
+      <c r="K184" s="145"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -9389,16 +9404,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="134" t="s">
+      <c r="D185" s="143" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="135"/>
-      <c r="F185" s="135"/>
-      <c r="G185" s="135"/>
-      <c r="H185" s="135"/>
-      <c r="I185" s="135"/>
-      <c r="J185" s="135"/>
-      <c r="K185" s="136"/>
+      <c r="E185" s="144"/>
+      <c r="F185" s="144"/>
+      <c r="G185" s="144"/>
+      <c r="H185" s="144"/>
+      <c r="I185" s="144"/>
+      <c r="J185" s="144"/>
+      <c r="K185" s="145"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -9410,16 +9425,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="134" t="s">
+      <c r="D186" s="143" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="135"/>
-      <c r="F186" s="135"/>
-      <c r="G186" s="135"/>
-      <c r="H186" s="135"/>
-      <c r="I186" s="135"/>
-      <c r="J186" s="135"/>
-      <c r="K186" s="136"/>
+      <c r="E186" s="144"/>
+      <c r="F186" s="144"/>
+      <c r="G186" s="144"/>
+      <c r="H186" s="144"/>
+      <c r="I186" s="144"/>
+      <c r="J186" s="144"/>
+      <c r="K186" s="145"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -9431,16 +9446,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="134" t="s">
+      <c r="D187" s="143" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="135"/>
-      <c r="F187" s="135"/>
-      <c r="G187" s="135"/>
-      <c r="H187" s="135"/>
-      <c r="I187" s="135"/>
-      <c r="J187" s="135"/>
-      <c r="K187" s="136"/>
+      <c r="E187" s="144"/>
+      <c r="F187" s="144"/>
+      <c r="G187" s="144"/>
+      <c r="H187" s="144"/>
+      <c r="I187" s="144"/>
+      <c r="J187" s="144"/>
+      <c r="K187" s="145"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -9452,16 +9467,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="134" t="s">
+      <c r="D188" s="143" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="135"/>
-      <c r="F188" s="135"/>
-      <c r="G188" s="135"/>
-      <c r="H188" s="135"/>
-      <c r="I188" s="135"/>
-      <c r="J188" s="135"/>
-      <c r="K188" s="136"/>
+      <c r="E188" s="144"/>
+      <c r="F188" s="144"/>
+      <c r="G188" s="144"/>
+      <c r="H188" s="144"/>
+      <c r="I188" s="144"/>
+      <c r="J188" s="144"/>
+      <c r="K188" s="145"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -9473,16 +9488,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="134" t="s">
+      <c r="D189" s="143" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="135"/>
-      <c r="F189" s="135"/>
-      <c r="G189" s="135"/>
-      <c r="H189" s="135"/>
-      <c r="I189" s="135"/>
-      <c r="J189" s="135"/>
-      <c r="K189" s="136"/>
+      <c r="E189" s="144"/>
+      <c r="F189" s="144"/>
+      <c r="G189" s="144"/>
+      <c r="H189" s="144"/>
+      <c r="I189" s="144"/>
+      <c r="J189" s="144"/>
+      <c r="K189" s="145"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -9494,16 +9509,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="134" t="s">
+      <c r="D190" s="143" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="135"/>
-      <c r="F190" s="135"/>
-      <c r="G190" s="135"/>
-      <c r="H190" s="135"/>
-      <c r="I190" s="135"/>
-      <c r="J190" s="135"/>
-      <c r="K190" s="136"/>
+      <c r="E190" s="144"/>
+      <c r="F190" s="144"/>
+      <c r="G190" s="144"/>
+      <c r="H190" s="144"/>
+      <c r="I190" s="144"/>
+      <c r="J190" s="144"/>
+      <c r="K190" s="145"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -9515,16 +9530,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="134" t="s">
+      <c r="D191" s="143" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="135"/>
-      <c r="F191" s="135"/>
-      <c r="G191" s="135"/>
-      <c r="H191" s="135"/>
-      <c r="I191" s="135"/>
-      <c r="J191" s="135"/>
-      <c r="K191" s="136"/>
+      <c r="E191" s="144"/>
+      <c r="F191" s="144"/>
+      <c r="G191" s="144"/>
+      <c r="H191" s="144"/>
+      <c r="I191" s="144"/>
+      <c r="J191" s="144"/>
+      <c r="K191" s="145"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -9536,16 +9551,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="134" t="s">
+      <c r="D192" s="143" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="135"/>
-      <c r="F192" s="135"/>
-      <c r="G192" s="135"/>
-      <c r="H192" s="135"/>
-      <c r="I192" s="135"/>
-      <c r="J192" s="135"/>
-      <c r="K192" s="136"/>
+      <c r="E192" s="144"/>
+      <c r="F192" s="144"/>
+      <c r="G192" s="144"/>
+      <c r="H192" s="144"/>
+      <c r="I192" s="144"/>
+      <c r="J192" s="144"/>
+      <c r="K192" s="145"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -9557,16 +9572,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="160" t="s">
+      <c r="D193" s="146" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="161"/>
-      <c r="F193" s="161"/>
-      <c r="G193" s="161"/>
-      <c r="H193" s="161"/>
-      <c r="I193" s="161"/>
-      <c r="J193" s="161"/>
-      <c r="K193" s="162"/>
+      <c r="E193" s="147"/>
+      <c r="F193" s="147"/>
+      <c r="G193" s="147"/>
+      <c r="H193" s="147"/>
+      <c r="I193" s="147"/>
+      <c r="J193" s="147"/>
+      <c r="K193" s="148"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -9581,15 +9596,15 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="150" t="s">
+      <c r="D194" s="149" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="143"/>
-      <c r="F194" s="143"/>
-      <c r="G194" s="143"/>
-      <c r="H194" s="143"/>
-      <c r="I194" s="143"/>
-      <c r="J194" s="143"/>
+      <c r="E194" s="150"/>
+      <c r="F194" s="150"/>
+      <c r="G194" s="150"/>
+      <c r="H194" s="150"/>
+      <c r="I194" s="150"/>
+      <c r="J194" s="150"/>
       <c r="K194" s="151"/>
     </row>
     <row r="195" spans="1:14">
@@ -9602,16 +9617,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="134" t="s">
+      <c r="D195" s="143" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="135"/>
-      <c r="F195" s="135"/>
-      <c r="G195" s="135"/>
-      <c r="H195" s="135"/>
-      <c r="I195" s="135"/>
-      <c r="J195" s="135"/>
-      <c r="K195" s="136"/>
+      <c r="E195" s="144"/>
+      <c r="F195" s="144"/>
+      <c r="G195" s="144"/>
+      <c r="H195" s="144"/>
+      <c r="I195" s="144"/>
+      <c r="J195" s="144"/>
+      <c r="K195" s="145"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -9623,16 +9638,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="134" t="s">
+      <c r="D196" s="143" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="135"/>
-      <c r="F196" s="135"/>
-      <c r="G196" s="135"/>
-      <c r="H196" s="135"/>
-      <c r="I196" s="135"/>
-      <c r="J196" s="135"/>
-      <c r="K196" s="136"/>
+      <c r="E196" s="144"/>
+      <c r="F196" s="144"/>
+      <c r="G196" s="144"/>
+      <c r="H196" s="144"/>
+      <c r="I196" s="144"/>
+      <c r="J196" s="144"/>
+      <c r="K196" s="145"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -9644,16 +9659,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="134" t="s">
+      <c r="D197" s="143" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="135"/>
-      <c r="F197" s="135"/>
-      <c r="G197" s="135"/>
-      <c r="H197" s="135"/>
-      <c r="I197" s="135"/>
-      <c r="J197" s="135"/>
-      <c r="K197" s="136"/>
+      <c r="E197" s="144"/>
+      <c r="F197" s="144"/>
+      <c r="G197" s="144"/>
+      <c r="H197" s="144"/>
+      <c r="I197" s="144"/>
+      <c r="J197" s="144"/>
+      <c r="K197" s="145"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -9665,16 +9680,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="134" t="s">
+      <c r="D198" s="143" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="135"/>
-      <c r="F198" s="135"/>
-      <c r="G198" s="135"/>
-      <c r="H198" s="135"/>
-      <c r="I198" s="135"/>
-      <c r="J198" s="135"/>
-      <c r="K198" s="136"/>
+      <c r="E198" s="144"/>
+      <c r="F198" s="144"/>
+      <c r="G198" s="144"/>
+      <c r="H198" s="144"/>
+      <c r="I198" s="144"/>
+      <c r="J198" s="144"/>
+      <c r="K198" s="145"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -9705,16 +9720,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="134" t="s">
+      <c r="D200" s="143" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="135"/>
-      <c r="F200" s="135"/>
-      <c r="G200" s="135"/>
-      <c r="H200" s="135"/>
-      <c r="I200" s="135"/>
-      <c r="J200" s="135"/>
-      <c r="K200" s="136"/>
+      <c r="E200" s="144"/>
+      <c r="F200" s="144"/>
+      <c r="G200" s="144"/>
+      <c r="H200" s="144"/>
+      <c r="I200" s="144"/>
+      <c r="J200" s="144"/>
+      <c r="K200" s="145"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -9745,16 +9760,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="157" t="s">
+      <c r="D202" s="168" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="158"/>
-      <c r="F202" s="158"/>
-      <c r="G202" s="158"/>
-      <c r="H202" s="158"/>
-      <c r="I202" s="158"/>
-      <c r="J202" s="158"/>
-      <c r="K202" s="159"/>
+      <c r="E202" s="169"/>
+      <c r="F202" s="169"/>
+      <c r="G202" s="169"/>
+      <c r="H202" s="169"/>
+      <c r="I202" s="169"/>
+      <c r="J202" s="169"/>
+      <c r="K202" s="170"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -9785,16 +9800,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="134" t="s">
+      <c r="D204" s="143" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="135"/>
-      <c r="F204" s="135"/>
-      <c r="G204" s="135"/>
-      <c r="H204" s="135"/>
-      <c r="I204" s="135"/>
-      <c r="J204" s="135"/>
-      <c r="K204" s="136"/>
+      <c r="E204" s="144"/>
+      <c r="F204" s="144"/>
+      <c r="G204" s="144"/>
+      <c r="H204" s="144"/>
+      <c r="I204" s="144"/>
+      <c r="J204" s="144"/>
+      <c r="K204" s="145"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -9825,16 +9840,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="134" t="s">
+      <c r="D206" s="143" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="135"/>
-      <c r="F206" s="135"/>
-      <c r="G206" s="135"/>
-      <c r="H206" s="135"/>
-      <c r="I206" s="135"/>
-      <c r="J206" s="135"/>
-      <c r="K206" s="136"/>
+      <c r="E206" s="144"/>
+      <c r="F206" s="144"/>
+      <c r="G206" s="144"/>
+      <c r="H206" s="144"/>
+      <c r="I206" s="144"/>
+      <c r="J206" s="144"/>
+      <c r="K206" s="145"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -9865,16 +9880,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="134" t="s">
+      <c r="D208" s="143" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="135"/>
-      <c r="F208" s="135"/>
-      <c r="G208" s="135"/>
-      <c r="H208" s="135"/>
-      <c r="I208" s="135"/>
-      <c r="J208" s="135"/>
-      <c r="K208" s="136"/>
+      <c r="E208" s="144"/>
+      <c r="F208" s="144"/>
+      <c r="G208" s="144"/>
+      <c r="H208" s="144"/>
+      <c r="I208" s="144"/>
+      <c r="J208" s="144"/>
+      <c r="K208" s="145"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -9908,15 +9923,15 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="150" t="s">
+      <c r="D210" s="149" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="143"/>
-      <c r="F210" s="143"/>
-      <c r="G210" s="143"/>
-      <c r="H210" s="143"/>
-      <c r="I210" s="143"/>
-      <c r="J210" s="143"/>
+      <c r="E210" s="150"/>
+      <c r="F210" s="150"/>
+      <c r="G210" s="150"/>
+      <c r="H210" s="150"/>
+      <c r="I210" s="150"/>
+      <c r="J210" s="150"/>
       <c r="K210" s="151"/>
     </row>
     <row r="211" spans="1:14">
@@ -9986,16 +10001,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="134" t="s">
+      <c r="D214" s="143" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="135"/>
-      <c r="F214" s="135"/>
-      <c r="G214" s="135"/>
-      <c r="H214" s="135"/>
-      <c r="I214" s="135"/>
-      <c r="J214" s="135"/>
-      <c r="K214" s="136"/>
+      <c r="E214" s="144"/>
+      <c r="F214" s="144"/>
+      <c r="G214" s="144"/>
+      <c r="H214" s="144"/>
+      <c r="I214" s="144"/>
+      <c r="J214" s="144"/>
+      <c r="K214" s="145"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -10026,16 +10041,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="148" t="s">
+      <c r="D216" s="158" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="137"/>
-      <c r="F216" s="137"/>
-      <c r="G216" s="137"/>
-      <c r="H216" s="137"/>
-      <c r="I216" s="137"/>
-      <c r="J216" s="137"/>
-      <c r="K216" s="149"/>
+      <c r="E216" s="153"/>
+      <c r="F216" s="153"/>
+      <c r="G216" s="153"/>
+      <c r="H216" s="153"/>
+      <c r="I216" s="153"/>
+      <c r="J216" s="153"/>
+      <c r="K216" s="159"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -10047,13 +10062,13 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="150"/>
-      <c r="E217" s="143"/>
-      <c r="F217" s="143"/>
-      <c r="G217" s="143"/>
-      <c r="H217" s="143"/>
-      <c r="I217" s="143"/>
-      <c r="J217" s="143"/>
+      <c r="D217" s="149"/>
+      <c r="E217" s="150"/>
+      <c r="F217" s="150"/>
+      <c r="G217" s="150"/>
+      <c r="H217" s="150"/>
+      <c r="I217" s="150"/>
+      <c r="J217" s="150"/>
       <c r="K217" s="151"/>
     </row>
     <row r="218" spans="1:14">
@@ -10066,16 +10081,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="148" t="s">
+      <c r="D218" s="158" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="137"/>
-      <c r="F218" s="137"/>
-      <c r="G218" s="137"/>
-      <c r="H218" s="137"/>
-      <c r="I218" s="137"/>
-      <c r="J218" s="137"/>
-      <c r="K218" s="149"/>
+      <c r="E218" s="153"/>
+      <c r="F218" s="153"/>
+      <c r="G218" s="153"/>
+      <c r="H218" s="153"/>
+      <c r="I218" s="153"/>
+      <c r="J218" s="153"/>
+      <c r="K218" s="159"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -10087,13 +10102,13 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="150"/>
-      <c r="E219" s="143"/>
-      <c r="F219" s="143"/>
-      <c r="G219" s="143"/>
-      <c r="H219" s="143"/>
-      <c r="I219" s="143"/>
-      <c r="J219" s="143"/>
+      <c r="D219" s="149"/>
+      <c r="E219" s="150"/>
+      <c r="F219" s="150"/>
+      <c r="G219" s="150"/>
+      <c r="H219" s="150"/>
+      <c r="I219" s="150"/>
+      <c r="J219" s="150"/>
       <c r="K219" s="151"/>
     </row>
     <row r="220" spans="1:14">
@@ -10106,16 +10121,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="148" t="s">
+      <c r="D220" s="158" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="137"/>
-      <c r="F220" s="137"/>
-      <c r="G220" s="137"/>
-      <c r="H220" s="137"/>
-      <c r="I220" s="137"/>
-      <c r="J220" s="137"/>
-      <c r="K220" s="149"/>
+      <c r="E220" s="153"/>
+      <c r="F220" s="153"/>
+      <c r="G220" s="153"/>
+      <c r="H220" s="153"/>
+      <c r="I220" s="153"/>
+      <c r="J220" s="153"/>
+      <c r="K220" s="159"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -10127,13 +10142,13 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="150"/>
-      <c r="E221" s="143"/>
-      <c r="F221" s="143"/>
-      <c r="G221" s="143"/>
-      <c r="H221" s="143"/>
-      <c r="I221" s="143"/>
-      <c r="J221" s="143"/>
+      <c r="D221" s="149"/>
+      <c r="E221" s="150"/>
+      <c r="F221" s="150"/>
+      <c r="G221" s="150"/>
+      <c r="H221" s="150"/>
+      <c r="I221" s="150"/>
+      <c r="J221" s="150"/>
       <c r="K221" s="151"/>
     </row>
     <row r="222" spans="1:14">
@@ -10146,16 +10161,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="134" t="s">
+      <c r="D222" s="143" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="135"/>
-      <c r="F222" s="135"/>
-      <c r="G222" s="135"/>
-      <c r="H222" s="135"/>
-      <c r="I222" s="135"/>
-      <c r="J222" s="135"/>
-      <c r="K222" s="136"/>
+      <c r="E222" s="144"/>
+      <c r="F222" s="144"/>
+      <c r="G222" s="144"/>
+      <c r="H222" s="144"/>
+      <c r="I222" s="144"/>
+      <c r="J222" s="144"/>
+      <c r="K222" s="145"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -10186,16 +10201,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="134" t="s">
+      <c r="D224" s="143" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="135"/>
-      <c r="F224" s="135"/>
-      <c r="G224" s="135"/>
-      <c r="H224" s="135"/>
-      <c r="I224" s="135"/>
-      <c r="J224" s="135"/>
-      <c r="K224" s="136"/>
+      <c r="E224" s="144"/>
+      <c r="F224" s="144"/>
+      <c r="G224" s="144"/>
+      <c r="H224" s="144"/>
+      <c r="I224" s="144"/>
+      <c r="J224" s="144"/>
+      <c r="K224" s="145"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -10229,16 +10244,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="154" t="s">
+      <c r="D226" s="165" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="155"/>
-      <c r="F226" s="155"/>
-      <c r="G226" s="155"/>
-      <c r="H226" s="155"/>
-      <c r="I226" s="155"/>
-      <c r="J226" s="155"/>
-      <c r="K226" s="156"/>
+      <c r="E226" s="166"/>
+      <c r="F226" s="166"/>
+      <c r="G226" s="166"/>
+      <c r="H226" s="166"/>
+      <c r="I226" s="166"/>
+      <c r="J226" s="166"/>
+      <c r="K226" s="167"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -10383,16 +10398,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="152" t="s">
+      <c r="D234" s="162" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="132"/>
-      <c r="F234" s="132"/>
-      <c r="G234" s="132"/>
-      <c r="H234" s="132"/>
-      <c r="I234" s="132"/>
-      <c r="J234" s="132"/>
-      <c r="K234" s="153"/>
+      <c r="E234" s="163"/>
+      <c r="F234" s="163"/>
+      <c r="G234" s="163"/>
+      <c r="H234" s="163"/>
+      <c r="I234" s="163"/>
+      <c r="J234" s="163"/>
+      <c r="K234" s="164"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -10461,16 +10476,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="141" t="s">
+      <c r="D238" s="152" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="137"/>
-      <c r="F238" s="137"/>
-      <c r="G238" s="137"/>
-      <c r="H238" s="137"/>
-      <c r="I238" s="137"/>
-      <c r="J238" s="137"/>
-      <c r="K238" s="138"/>
+      <c r="E238" s="153"/>
+      <c r="F238" s="153"/>
+      <c r="G238" s="153"/>
+      <c r="H238" s="153"/>
+      <c r="I238" s="153"/>
+      <c r="J238" s="153"/>
+      <c r="K238" s="154"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -10482,14 +10497,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="142"/>
-      <c r="E239" s="143"/>
-      <c r="F239" s="143"/>
-      <c r="G239" s="143"/>
-      <c r="H239" s="143"/>
-      <c r="I239" s="143"/>
-      <c r="J239" s="143"/>
-      <c r="K239" s="144"/>
+      <c r="D239" s="160"/>
+      <c r="E239" s="150"/>
+      <c r="F239" s="150"/>
+      <c r="G239" s="150"/>
+      <c r="H239" s="150"/>
+      <c r="I239" s="150"/>
+      <c r="J239" s="150"/>
+      <c r="K239" s="161"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -10501,16 +10516,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="137" t="s">
+      <c r="D240" s="153" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="137"/>
-      <c r="F240" s="137"/>
-      <c r="G240" s="137"/>
-      <c r="H240" s="137"/>
-      <c r="I240" s="137"/>
-      <c r="J240" s="137"/>
-      <c r="K240" s="138"/>
+      <c r="E240" s="153"/>
+      <c r="F240" s="153"/>
+      <c r="G240" s="153"/>
+      <c r="H240" s="153"/>
+      <c r="I240" s="153"/>
+      <c r="J240" s="153"/>
+      <c r="K240" s="154"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -10522,14 +10537,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="139"/>
-      <c r="E241" s="139"/>
-      <c r="F241" s="139"/>
-      <c r="G241" s="139"/>
-      <c r="H241" s="139"/>
-      <c r="I241" s="139"/>
-      <c r="J241" s="139"/>
-      <c r="K241" s="140"/>
+      <c r="D241" s="173"/>
+      <c r="E241" s="173"/>
+      <c r="F241" s="173"/>
+      <c r="G241" s="173"/>
+      <c r="H241" s="173"/>
+      <c r="I241" s="173"/>
+      <c r="J241" s="173"/>
+      <c r="K241" s="174"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -10720,16 +10735,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="131" t="s">
+      <c r="D250" s="171" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="132"/>
-      <c r="F250" s="132"/>
-      <c r="G250" s="132"/>
-      <c r="H250" s="132"/>
-      <c r="I250" s="132"/>
-      <c r="J250" s="132"/>
-      <c r="K250" s="133"/>
+      <c r="E250" s="163"/>
+      <c r="F250" s="163"/>
+      <c r="G250" s="163"/>
+      <c r="H250" s="163"/>
+      <c r="I250" s="163"/>
+      <c r="J250" s="163"/>
+      <c r="K250" s="172"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -11298,16 +11313,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="134" t="s">
+      <c r="D280" s="143" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="135"/>
-      <c r="F280" s="135"/>
-      <c r="G280" s="135"/>
-      <c r="H280" s="135"/>
-      <c r="I280" s="135"/>
-      <c r="J280" s="135"/>
-      <c r="K280" s="136"/>
+      <c r="E280" s="144"/>
+      <c r="F280" s="144"/>
+      <c r="G280" s="144"/>
+      <c r="H280" s="144"/>
+      <c r="I280" s="144"/>
+      <c r="J280" s="144"/>
+      <c r="K280" s="145"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -11414,16 +11429,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="134" t="s">
+      <c r="D286" s="143" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="135"/>
-      <c r="F286" s="135"/>
-      <c r="G286" s="135"/>
-      <c r="H286" s="135"/>
-      <c r="I286" s="135"/>
-      <c r="J286" s="135"/>
-      <c r="K286" s="136"/>
+      <c r="E286" s="144"/>
+      <c r="F286" s="144"/>
+      <c r="G286" s="144"/>
+      <c r="H286" s="144"/>
+      <c r="I286" s="144"/>
+      <c r="J286" s="144"/>
+      <c r="K286" s="145"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -11573,16 +11588,16 @@
         <v>B24</v>
       </c>
       <c r="C294" s="13"/>
-      <c r="D294" s="134" t="s">
+      <c r="D294" s="143" t="s">
         <v>445</v>
       </c>
-      <c r="E294" s="135"/>
-      <c r="F294" s="135"/>
-      <c r="G294" s="135"/>
-      <c r="H294" s="135"/>
-      <c r="I294" s="135"/>
-      <c r="J294" s="135"/>
-      <c r="K294" s="136"/>
+      <c r="E294" s="144"/>
+      <c r="F294" s="144"/>
+      <c r="G294" s="144"/>
+      <c r="H294" s="144"/>
+      <c r="I294" s="144"/>
+      <c r="J294" s="144"/>
+      <c r="K294" s="145"/>
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="12">
@@ -11613,16 +11628,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="134" t="s">
+      <c r="D296" s="143" t="s">
         <v>444</v>
       </c>
-      <c r="E296" s="135"/>
-      <c r="F296" s="135"/>
-      <c r="G296" s="135"/>
-      <c r="H296" s="135"/>
-      <c r="I296" s="135"/>
-      <c r="J296" s="135"/>
-      <c r="K296" s="136"/>
+      <c r="E296" s="144"/>
+      <c r="F296" s="144"/>
+      <c r="G296" s="144"/>
+      <c r="H296" s="144"/>
+      <c r="I296" s="144"/>
+      <c r="J296" s="144"/>
+      <c r="K296" s="145"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -11653,16 +11668,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="141" t="s">
+      <c r="D298" s="152" t="s">
         <v>386</v>
       </c>
-      <c r="E298" s="137"/>
-      <c r="F298" s="137"/>
-      <c r="G298" s="137"/>
-      <c r="H298" s="137"/>
-      <c r="I298" s="137"/>
-      <c r="J298" s="137"/>
-      <c r="K298" s="138"/>
+      <c r="E298" s="153"/>
+      <c r="F298" s="153"/>
+      <c r="G298" s="153"/>
+      <c r="H298" s="153"/>
+      <c r="I298" s="153"/>
+      <c r="J298" s="153"/>
+      <c r="K298" s="154"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -11674,14 +11689,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="142"/>
-      <c r="E299" s="143"/>
-      <c r="F299" s="143"/>
-      <c r="G299" s="143"/>
-      <c r="H299" s="143"/>
-      <c r="I299" s="143"/>
-      <c r="J299" s="143"/>
-      <c r="K299" s="144"/>
+      <c r="D299" s="160"/>
+      <c r="E299" s="150"/>
+      <c r="F299" s="150"/>
+      <c r="G299" s="150"/>
+      <c r="H299" s="150"/>
+      <c r="I299" s="150"/>
+      <c r="J299" s="150"/>
+      <c r="K299" s="161"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -11693,16 +11708,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="141" t="s">
+      <c r="D300" s="152" t="s">
         <v>387</v>
       </c>
-      <c r="E300" s="137"/>
-      <c r="F300" s="137"/>
-      <c r="G300" s="137"/>
-      <c r="H300" s="137"/>
-      <c r="I300" s="137"/>
-      <c r="J300" s="137"/>
-      <c r="K300" s="138"/>
+      <c r="E300" s="153"/>
+      <c r="F300" s="153"/>
+      <c r="G300" s="153"/>
+      <c r="H300" s="153"/>
+      <c r="I300" s="153"/>
+      <c r="J300" s="153"/>
+      <c r="K300" s="154"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -11714,14 +11729,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="142"/>
-      <c r="E301" s="143"/>
-      <c r="F301" s="143"/>
-      <c r="G301" s="143"/>
-      <c r="H301" s="143"/>
-      <c r="I301" s="143"/>
-      <c r="J301" s="143"/>
-      <c r="K301" s="144"/>
+      <c r="D301" s="160"/>
+      <c r="E301" s="150"/>
+      <c r="F301" s="150"/>
+      <c r="G301" s="150"/>
+      <c r="H301" s="150"/>
+      <c r="I301" s="150"/>
+      <c r="J301" s="150"/>
+      <c r="K301" s="161"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -11733,16 +11748,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="141" t="s">
+      <c r="D302" s="152" t="s">
         <v>388</v>
       </c>
-      <c r="E302" s="137"/>
-      <c r="F302" s="137"/>
-      <c r="G302" s="137"/>
-      <c r="H302" s="137"/>
-      <c r="I302" s="137"/>
-      <c r="J302" s="137"/>
-      <c r="K302" s="138"/>
+      <c r="E302" s="153"/>
+      <c r="F302" s="153"/>
+      <c r="G302" s="153"/>
+      <c r="H302" s="153"/>
+      <c r="I302" s="153"/>
+      <c r="J302" s="153"/>
+      <c r="K302" s="154"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -11754,14 +11769,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="142"/>
-      <c r="E303" s="143"/>
-      <c r="F303" s="143"/>
-      <c r="G303" s="143"/>
-      <c r="H303" s="143"/>
-      <c r="I303" s="143"/>
-      <c r="J303" s="143"/>
-      <c r="K303" s="144"/>
+      <c r="D303" s="160"/>
+      <c r="E303" s="150"/>
+      <c r="F303" s="150"/>
+      <c r="G303" s="150"/>
+      <c r="H303" s="150"/>
+      <c r="I303" s="150"/>
+      <c r="J303" s="150"/>
+      <c r="K303" s="161"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -11773,16 +11788,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="141" t="s">
+      <c r="D304" s="152" t="s">
         <v>389</v>
       </c>
-      <c r="E304" s="137"/>
-      <c r="F304" s="137"/>
-      <c r="G304" s="137"/>
-      <c r="H304" s="137"/>
-      <c r="I304" s="137"/>
-      <c r="J304" s="137"/>
-      <c r="K304" s="138"/>
+      <c r="E304" s="153"/>
+      <c r="F304" s="153"/>
+      <c r="G304" s="153"/>
+      <c r="H304" s="153"/>
+      <c r="I304" s="153"/>
+      <c r="J304" s="153"/>
+      <c r="K304" s="154"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -11794,14 +11809,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="142"/>
-      <c r="E305" s="143"/>
-      <c r="F305" s="143"/>
-      <c r="G305" s="143"/>
-      <c r="H305" s="143"/>
-      <c r="I305" s="143"/>
-      <c r="J305" s="143"/>
-      <c r="K305" s="144"/>
+      <c r="D305" s="160"/>
+      <c r="E305" s="150"/>
+      <c r="F305" s="150"/>
+      <c r="G305" s="150"/>
+      <c r="H305" s="150"/>
+      <c r="I305" s="150"/>
+      <c r="J305" s="150"/>
+      <c r="K305" s="161"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -11816,16 +11831,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="141" t="s">
+      <c r="D306" s="152" t="s">
         <v>390</v>
       </c>
-      <c r="E306" s="137"/>
-      <c r="F306" s="137"/>
-      <c r="G306" s="137"/>
-      <c r="H306" s="137"/>
-      <c r="I306" s="137"/>
-      <c r="J306" s="137"/>
-      <c r="K306" s="138"/>
+      <c r="E306" s="153"/>
+      <c r="F306" s="153"/>
+      <c r="G306" s="153"/>
+      <c r="H306" s="153"/>
+      <c r="I306" s="153"/>
+      <c r="J306" s="153"/>
+      <c r="K306" s="154"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -11837,14 +11852,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="142"/>
-      <c r="E307" s="143"/>
-      <c r="F307" s="143"/>
-      <c r="G307" s="143"/>
-      <c r="H307" s="143"/>
-      <c r="I307" s="143"/>
-      <c r="J307" s="143"/>
-      <c r="K307" s="144"/>
+      <c r="D307" s="160"/>
+      <c r="E307" s="150"/>
+      <c r="F307" s="150"/>
+      <c r="G307" s="150"/>
+      <c r="H307" s="150"/>
+      <c r="I307" s="150"/>
+      <c r="J307" s="150"/>
+      <c r="K307" s="161"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -11856,16 +11871,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="141" t="s">
+      <c r="D308" s="152" t="s">
         <v>391</v>
       </c>
-      <c r="E308" s="137"/>
-      <c r="F308" s="137"/>
-      <c r="G308" s="137"/>
-      <c r="H308" s="137"/>
-      <c r="I308" s="137"/>
-      <c r="J308" s="137"/>
-      <c r="K308" s="138"/>
+      <c r="E308" s="153"/>
+      <c r="F308" s="153"/>
+      <c r="G308" s="153"/>
+      <c r="H308" s="153"/>
+      <c r="I308" s="153"/>
+      <c r="J308" s="153"/>
+      <c r="K308" s="154"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -11877,14 +11892,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="142"/>
-      <c r="E309" s="143"/>
-      <c r="F309" s="143"/>
-      <c r="G309" s="143"/>
-      <c r="H309" s="143"/>
-      <c r="I309" s="143"/>
-      <c r="J309" s="143"/>
-      <c r="K309" s="144"/>
+      <c r="D309" s="160"/>
+      <c r="E309" s="150"/>
+      <c r="F309" s="150"/>
+      <c r="G309" s="150"/>
+      <c r="H309" s="150"/>
+      <c r="I309" s="150"/>
+      <c r="J309" s="150"/>
+      <c r="K309" s="161"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -15764,41 +15779,18 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="D75:K75"/>
-    <mergeCell ref="D76:K76"/>
-    <mergeCell ref="D77:K77"/>
-    <mergeCell ref="D78:K78"/>
-    <mergeCell ref="D79:K79"/>
-    <mergeCell ref="D80:K80"/>
-    <mergeCell ref="D81:K81"/>
-    <mergeCell ref="D168:K168"/>
-    <mergeCell ref="D175:K175"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D91:K91"/>
-    <mergeCell ref="D90:K90"/>
-    <mergeCell ref="D93:K93"/>
-    <mergeCell ref="D96:K96"/>
-    <mergeCell ref="D94:K94"/>
-    <mergeCell ref="D95:K95"/>
-    <mergeCell ref="D92:K92"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D174:K174"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D250:K250"/>
+    <mergeCell ref="D280:K280"/>
+    <mergeCell ref="D286:K286"/>
+    <mergeCell ref="D296:K296"/>
+    <mergeCell ref="D240:K241"/>
+    <mergeCell ref="D294:K294"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="D216:K217"/>
     <mergeCell ref="D218:K219"/>
@@ -15815,18 +15807,41 @@
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
     <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D250:K250"/>
-    <mergeCell ref="D280:K280"/>
-    <mergeCell ref="D286:K286"/>
-    <mergeCell ref="D296:K296"/>
-    <mergeCell ref="D240:K241"/>
-    <mergeCell ref="D294:K294"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D174:K174"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D80:K80"/>
+    <mergeCell ref="D81:K81"/>
+    <mergeCell ref="D168:K168"/>
+    <mergeCell ref="D175:K175"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D91:K91"/>
+    <mergeCell ref="D90:K90"/>
+    <mergeCell ref="D93:K93"/>
+    <mergeCell ref="D96:K96"/>
+    <mergeCell ref="D94:K94"/>
+    <mergeCell ref="D95:K95"/>
+    <mergeCell ref="D92:K92"/>
+    <mergeCell ref="D75:K75"/>
+    <mergeCell ref="D76:K76"/>
+    <mergeCell ref="D77:K77"/>
+    <mergeCell ref="D78:K78"/>
+    <mergeCell ref="D79:K79"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -15912,16 +15927,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="138"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="154"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -15943,14 +15958,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="147"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="157"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -22199,16 +22214,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="163" t="s">
+      <c r="D178" s="139" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="163"/>
-      <c r="F178" s="163"/>
-      <c r="G178" s="163"/>
-      <c r="H178" s="163"/>
-      <c r="I178" s="163"/>
-      <c r="J178" s="163"/>
-      <c r="K178" s="163"/>
+      <c r="E178" s="139"/>
+      <c r="F178" s="139"/>
+      <c r="G178" s="139"/>
+      <c r="H178" s="139"/>
+      <c r="I178" s="139"/>
+      <c r="J178" s="139"/>
+      <c r="K178" s="139"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -22277,16 +22292,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="134" t="s">
+      <c r="D182" s="143" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="135"/>
-      <c r="F182" s="135"/>
-      <c r="G182" s="135"/>
-      <c r="H182" s="135"/>
-      <c r="I182" s="135"/>
-      <c r="J182" s="135"/>
-      <c r="K182" s="136"/>
+      <c r="E182" s="144"/>
+      <c r="F182" s="144"/>
+      <c r="G182" s="144"/>
+      <c r="H182" s="144"/>
+      <c r="I182" s="144"/>
+      <c r="J182" s="144"/>
+      <c r="K182" s="145"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -22298,16 +22313,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="134" t="s">
+      <c r="D183" s="143" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="135"/>
-      <c r="F183" s="135"/>
-      <c r="G183" s="135"/>
-      <c r="H183" s="135"/>
-      <c r="I183" s="135"/>
-      <c r="J183" s="135"/>
-      <c r="K183" s="136"/>
+      <c r="E183" s="144"/>
+      <c r="F183" s="144"/>
+      <c r="G183" s="144"/>
+      <c r="H183" s="144"/>
+      <c r="I183" s="144"/>
+      <c r="J183" s="144"/>
+      <c r="K183" s="145"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -22319,16 +22334,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="134" t="s">
+      <c r="D184" s="143" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="135"/>
-      <c r="F184" s="135"/>
-      <c r="G184" s="135"/>
-      <c r="H184" s="135"/>
-      <c r="I184" s="135"/>
-      <c r="J184" s="135"/>
-      <c r="K184" s="136"/>
+      <c r="E184" s="144"/>
+      <c r="F184" s="144"/>
+      <c r="G184" s="144"/>
+      <c r="H184" s="144"/>
+      <c r="I184" s="144"/>
+      <c r="J184" s="144"/>
+      <c r="K184" s="145"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -22340,16 +22355,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="134" t="s">
+      <c r="D185" s="143" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="135"/>
-      <c r="F185" s="135"/>
-      <c r="G185" s="135"/>
-      <c r="H185" s="135"/>
-      <c r="I185" s="135"/>
-      <c r="J185" s="135"/>
-      <c r="K185" s="136"/>
+      <c r="E185" s="144"/>
+      <c r="F185" s="144"/>
+      <c r="G185" s="144"/>
+      <c r="H185" s="144"/>
+      <c r="I185" s="144"/>
+      <c r="J185" s="144"/>
+      <c r="K185" s="145"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -22361,16 +22376,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="134" t="s">
+      <c r="D186" s="143" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="135"/>
-      <c r="F186" s="135"/>
-      <c r="G186" s="135"/>
-      <c r="H186" s="135"/>
-      <c r="I186" s="135"/>
-      <c r="J186" s="135"/>
-      <c r="K186" s="136"/>
+      <c r="E186" s="144"/>
+      <c r="F186" s="144"/>
+      <c r="G186" s="144"/>
+      <c r="H186" s="144"/>
+      <c r="I186" s="144"/>
+      <c r="J186" s="144"/>
+      <c r="K186" s="145"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -22382,16 +22397,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="134" t="s">
+      <c r="D187" s="143" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="135"/>
-      <c r="F187" s="135"/>
-      <c r="G187" s="135"/>
-      <c r="H187" s="135"/>
-      <c r="I187" s="135"/>
-      <c r="J187" s="135"/>
-      <c r="K187" s="136"/>
+      <c r="E187" s="144"/>
+      <c r="F187" s="144"/>
+      <c r="G187" s="144"/>
+      <c r="H187" s="144"/>
+      <c r="I187" s="144"/>
+      <c r="J187" s="144"/>
+      <c r="K187" s="145"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -22403,16 +22418,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="134" t="s">
+      <c r="D188" s="143" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="135"/>
-      <c r="F188" s="135"/>
-      <c r="G188" s="135"/>
-      <c r="H188" s="135"/>
-      <c r="I188" s="135"/>
-      <c r="J188" s="135"/>
-      <c r="K188" s="136"/>
+      <c r="E188" s="144"/>
+      <c r="F188" s="144"/>
+      <c r="G188" s="144"/>
+      <c r="H188" s="144"/>
+      <c r="I188" s="144"/>
+      <c r="J188" s="144"/>
+      <c r="K188" s="145"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -22424,16 +22439,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="134" t="s">
+      <c r="D189" s="143" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="135"/>
-      <c r="F189" s="135"/>
-      <c r="G189" s="135"/>
-      <c r="H189" s="135"/>
-      <c r="I189" s="135"/>
-      <c r="J189" s="135"/>
-      <c r="K189" s="136"/>
+      <c r="E189" s="144"/>
+      <c r="F189" s="144"/>
+      <c r="G189" s="144"/>
+      <c r="H189" s="144"/>
+      <c r="I189" s="144"/>
+      <c r="J189" s="144"/>
+      <c r="K189" s="145"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -22445,16 +22460,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="134" t="s">
+      <c r="D190" s="143" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="135"/>
-      <c r="F190" s="135"/>
-      <c r="G190" s="135"/>
-      <c r="H190" s="135"/>
-      <c r="I190" s="135"/>
-      <c r="J190" s="135"/>
-      <c r="K190" s="136"/>
+      <c r="E190" s="144"/>
+      <c r="F190" s="144"/>
+      <c r="G190" s="144"/>
+      <c r="H190" s="144"/>
+      <c r="I190" s="144"/>
+      <c r="J190" s="144"/>
+      <c r="K190" s="145"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -22466,16 +22481,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="134" t="s">
+      <c r="D191" s="143" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="135"/>
-      <c r="F191" s="135"/>
-      <c r="G191" s="135"/>
-      <c r="H191" s="135"/>
-      <c r="I191" s="135"/>
-      <c r="J191" s="135"/>
-      <c r="K191" s="136"/>
+      <c r="E191" s="144"/>
+      <c r="F191" s="144"/>
+      <c r="G191" s="144"/>
+      <c r="H191" s="144"/>
+      <c r="I191" s="144"/>
+      <c r="J191" s="144"/>
+      <c r="K191" s="145"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -22487,16 +22502,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="134" t="s">
+      <c r="D192" s="143" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="135"/>
-      <c r="F192" s="135"/>
-      <c r="G192" s="135"/>
-      <c r="H192" s="135"/>
-      <c r="I192" s="135"/>
-      <c r="J192" s="135"/>
-      <c r="K192" s="136"/>
+      <c r="E192" s="144"/>
+      <c r="F192" s="144"/>
+      <c r="G192" s="144"/>
+      <c r="H192" s="144"/>
+      <c r="I192" s="144"/>
+      <c r="J192" s="144"/>
+      <c r="K192" s="145"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -22508,16 +22523,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="160" t="s">
+      <c r="D193" s="146" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="161"/>
-      <c r="F193" s="161"/>
-      <c r="G193" s="161"/>
-      <c r="H193" s="161"/>
-      <c r="I193" s="161"/>
-      <c r="J193" s="161"/>
-      <c r="K193" s="162"/>
+      <c r="E193" s="147"/>
+      <c r="F193" s="147"/>
+      <c r="G193" s="147"/>
+      <c r="H193" s="147"/>
+      <c r="I193" s="147"/>
+      <c r="J193" s="147"/>
+      <c r="K193" s="148"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -22532,15 +22547,15 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="150" t="s">
+      <c r="D194" s="149" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="143"/>
-      <c r="F194" s="143"/>
-      <c r="G194" s="143"/>
-      <c r="H194" s="143"/>
-      <c r="I194" s="143"/>
-      <c r="J194" s="143"/>
+      <c r="E194" s="150"/>
+      <c r="F194" s="150"/>
+      <c r="G194" s="150"/>
+      <c r="H194" s="150"/>
+      <c r="I194" s="150"/>
+      <c r="J194" s="150"/>
       <c r="K194" s="151"/>
     </row>
     <row r="195" spans="1:14">
@@ -22553,16 +22568,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="134" t="s">
+      <c r="D195" s="143" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="135"/>
-      <c r="F195" s="135"/>
-      <c r="G195" s="135"/>
-      <c r="H195" s="135"/>
-      <c r="I195" s="135"/>
-      <c r="J195" s="135"/>
-      <c r="K195" s="136"/>
+      <c r="E195" s="144"/>
+      <c r="F195" s="144"/>
+      <c r="G195" s="144"/>
+      <c r="H195" s="144"/>
+      <c r="I195" s="144"/>
+      <c r="J195" s="144"/>
+      <c r="K195" s="145"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -22574,16 +22589,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="134" t="s">
+      <c r="D196" s="143" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="135"/>
-      <c r="F196" s="135"/>
-      <c r="G196" s="135"/>
-      <c r="H196" s="135"/>
-      <c r="I196" s="135"/>
-      <c r="J196" s="135"/>
-      <c r="K196" s="136"/>
+      <c r="E196" s="144"/>
+      <c r="F196" s="144"/>
+      <c r="G196" s="144"/>
+      <c r="H196" s="144"/>
+      <c r="I196" s="144"/>
+      <c r="J196" s="144"/>
+      <c r="K196" s="145"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -22595,16 +22610,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="134" t="s">
+      <c r="D197" s="143" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="135"/>
-      <c r="F197" s="135"/>
-      <c r="G197" s="135"/>
-      <c r="H197" s="135"/>
-      <c r="I197" s="135"/>
-      <c r="J197" s="135"/>
-      <c r="K197" s="136"/>
+      <c r="E197" s="144"/>
+      <c r="F197" s="144"/>
+      <c r="G197" s="144"/>
+      <c r="H197" s="144"/>
+      <c r="I197" s="144"/>
+      <c r="J197" s="144"/>
+      <c r="K197" s="145"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -22616,16 +22631,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="134" t="s">
+      <c r="D198" s="143" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="135"/>
-      <c r="F198" s="135"/>
-      <c r="G198" s="135"/>
-      <c r="H198" s="135"/>
-      <c r="I198" s="135"/>
-      <c r="J198" s="135"/>
-      <c r="K198" s="136"/>
+      <c r="E198" s="144"/>
+      <c r="F198" s="144"/>
+      <c r="G198" s="144"/>
+      <c r="H198" s="144"/>
+      <c r="I198" s="144"/>
+      <c r="J198" s="144"/>
+      <c r="K198" s="145"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -22656,16 +22671,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="134" t="s">
+      <c r="D200" s="143" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="135"/>
-      <c r="F200" s="135"/>
-      <c r="G200" s="135"/>
-      <c r="H200" s="135"/>
-      <c r="I200" s="135"/>
-      <c r="J200" s="135"/>
-      <c r="K200" s="136"/>
+      <c r="E200" s="144"/>
+      <c r="F200" s="144"/>
+      <c r="G200" s="144"/>
+      <c r="H200" s="144"/>
+      <c r="I200" s="144"/>
+      <c r="J200" s="144"/>
+      <c r="K200" s="145"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -22696,16 +22711,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="157" t="s">
+      <c r="D202" s="168" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="158"/>
-      <c r="F202" s="158"/>
-      <c r="G202" s="158"/>
-      <c r="H202" s="158"/>
-      <c r="I202" s="158"/>
-      <c r="J202" s="158"/>
-      <c r="K202" s="159"/>
+      <c r="E202" s="169"/>
+      <c r="F202" s="169"/>
+      <c r="G202" s="169"/>
+      <c r="H202" s="169"/>
+      <c r="I202" s="169"/>
+      <c r="J202" s="169"/>
+      <c r="K202" s="170"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -22736,16 +22751,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="134" t="s">
+      <c r="D204" s="143" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="135"/>
-      <c r="F204" s="135"/>
-      <c r="G204" s="135"/>
-      <c r="H204" s="135"/>
-      <c r="I204" s="135"/>
-      <c r="J204" s="135"/>
-      <c r="K204" s="136"/>
+      <c r="E204" s="144"/>
+      <c r="F204" s="144"/>
+      <c r="G204" s="144"/>
+      <c r="H204" s="144"/>
+      <c r="I204" s="144"/>
+      <c r="J204" s="144"/>
+      <c r="K204" s="145"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -22776,16 +22791,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="134" t="s">
+      <c r="D206" s="143" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="135"/>
-      <c r="F206" s="135"/>
-      <c r="G206" s="135"/>
-      <c r="H206" s="135"/>
-      <c r="I206" s="135"/>
-      <c r="J206" s="135"/>
-      <c r="K206" s="136"/>
+      <c r="E206" s="144"/>
+      <c r="F206" s="144"/>
+      <c r="G206" s="144"/>
+      <c r="H206" s="144"/>
+      <c r="I206" s="144"/>
+      <c r="J206" s="144"/>
+      <c r="K206" s="145"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -22816,16 +22831,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="134" t="s">
+      <c r="D208" s="143" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="135"/>
-      <c r="F208" s="135"/>
-      <c r="G208" s="135"/>
-      <c r="H208" s="135"/>
-      <c r="I208" s="135"/>
-      <c r="J208" s="135"/>
-      <c r="K208" s="136"/>
+      <c r="E208" s="144"/>
+      <c r="F208" s="144"/>
+      <c r="G208" s="144"/>
+      <c r="H208" s="144"/>
+      <c r="I208" s="144"/>
+      <c r="J208" s="144"/>
+      <c r="K208" s="145"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -22859,15 +22874,15 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="150" t="s">
+      <c r="D210" s="149" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="143"/>
-      <c r="F210" s="143"/>
-      <c r="G210" s="143"/>
-      <c r="H210" s="143"/>
-      <c r="I210" s="143"/>
-      <c r="J210" s="143"/>
+      <c r="E210" s="150"/>
+      <c r="F210" s="150"/>
+      <c r="G210" s="150"/>
+      <c r="H210" s="150"/>
+      <c r="I210" s="150"/>
+      <c r="J210" s="150"/>
       <c r="K210" s="151"/>
     </row>
     <row r="211" spans="1:14">
@@ -22937,16 +22952,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="134" t="s">
+      <c r="D214" s="143" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="135"/>
-      <c r="F214" s="135"/>
-      <c r="G214" s="135"/>
-      <c r="H214" s="135"/>
-      <c r="I214" s="135"/>
-      <c r="J214" s="135"/>
-      <c r="K214" s="136"/>
+      <c r="E214" s="144"/>
+      <c r="F214" s="144"/>
+      <c r="G214" s="144"/>
+      <c r="H214" s="144"/>
+      <c r="I214" s="144"/>
+      <c r="J214" s="144"/>
+      <c r="K214" s="145"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -22977,16 +22992,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="148" t="s">
+      <c r="D216" s="158" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="137"/>
-      <c r="F216" s="137"/>
-      <c r="G216" s="137"/>
-      <c r="H216" s="137"/>
-      <c r="I216" s="137"/>
-      <c r="J216" s="137"/>
-      <c r="K216" s="149"/>
+      <c r="E216" s="153"/>
+      <c r="F216" s="153"/>
+      <c r="G216" s="153"/>
+      <c r="H216" s="153"/>
+      <c r="I216" s="153"/>
+      <c r="J216" s="153"/>
+      <c r="K216" s="159"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -22998,13 +23013,13 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="150"/>
-      <c r="E217" s="143"/>
-      <c r="F217" s="143"/>
-      <c r="G217" s="143"/>
-      <c r="H217" s="143"/>
-      <c r="I217" s="143"/>
-      <c r="J217" s="143"/>
+      <c r="D217" s="149"/>
+      <c r="E217" s="150"/>
+      <c r="F217" s="150"/>
+      <c r="G217" s="150"/>
+      <c r="H217" s="150"/>
+      <c r="I217" s="150"/>
+      <c r="J217" s="150"/>
       <c r="K217" s="151"/>
     </row>
     <row r="218" spans="1:14">
@@ -23017,16 +23032,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="148" t="s">
+      <c r="D218" s="158" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="137"/>
-      <c r="F218" s="137"/>
-      <c r="G218" s="137"/>
-      <c r="H218" s="137"/>
-      <c r="I218" s="137"/>
-      <c r="J218" s="137"/>
-      <c r="K218" s="149"/>
+      <c r="E218" s="153"/>
+      <c r="F218" s="153"/>
+      <c r="G218" s="153"/>
+      <c r="H218" s="153"/>
+      <c r="I218" s="153"/>
+      <c r="J218" s="153"/>
+      <c r="K218" s="159"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -23038,13 +23053,13 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="150"/>
-      <c r="E219" s="143"/>
-      <c r="F219" s="143"/>
-      <c r="G219" s="143"/>
-      <c r="H219" s="143"/>
-      <c r="I219" s="143"/>
-      <c r="J219" s="143"/>
+      <c r="D219" s="149"/>
+      <c r="E219" s="150"/>
+      <c r="F219" s="150"/>
+      <c r="G219" s="150"/>
+      <c r="H219" s="150"/>
+      <c r="I219" s="150"/>
+      <c r="J219" s="150"/>
       <c r="K219" s="151"/>
     </row>
     <row r="220" spans="1:14">
@@ -23057,16 +23072,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="148" t="s">
+      <c r="D220" s="158" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="137"/>
-      <c r="F220" s="137"/>
-      <c r="G220" s="137"/>
-      <c r="H220" s="137"/>
-      <c r="I220" s="137"/>
-      <c r="J220" s="137"/>
-      <c r="K220" s="149"/>
+      <c r="E220" s="153"/>
+      <c r="F220" s="153"/>
+      <c r="G220" s="153"/>
+      <c r="H220" s="153"/>
+      <c r="I220" s="153"/>
+      <c r="J220" s="153"/>
+      <c r="K220" s="159"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -23078,13 +23093,13 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="150"/>
-      <c r="E221" s="143"/>
-      <c r="F221" s="143"/>
-      <c r="G221" s="143"/>
-      <c r="H221" s="143"/>
-      <c r="I221" s="143"/>
-      <c r="J221" s="143"/>
+      <c r="D221" s="149"/>
+      <c r="E221" s="150"/>
+      <c r="F221" s="150"/>
+      <c r="G221" s="150"/>
+      <c r="H221" s="150"/>
+      <c r="I221" s="150"/>
+      <c r="J221" s="150"/>
       <c r="K221" s="151"/>
     </row>
     <row r="222" spans="1:14">
@@ -23097,16 +23112,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="134" t="s">
+      <c r="D222" s="143" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="135"/>
-      <c r="F222" s="135"/>
-      <c r="G222" s="135"/>
-      <c r="H222" s="135"/>
-      <c r="I222" s="135"/>
-      <c r="J222" s="135"/>
-      <c r="K222" s="136"/>
+      <c r="E222" s="144"/>
+      <c r="F222" s="144"/>
+      <c r="G222" s="144"/>
+      <c r="H222" s="144"/>
+      <c r="I222" s="144"/>
+      <c r="J222" s="144"/>
+      <c r="K222" s="145"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -23137,16 +23152,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="134" t="s">
+      <c r="D224" s="143" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="135"/>
-      <c r="F224" s="135"/>
-      <c r="G224" s="135"/>
-      <c r="H224" s="135"/>
-      <c r="I224" s="135"/>
-      <c r="J224" s="135"/>
-      <c r="K224" s="136"/>
+      <c r="E224" s="144"/>
+      <c r="F224" s="144"/>
+      <c r="G224" s="144"/>
+      <c r="H224" s="144"/>
+      <c r="I224" s="144"/>
+      <c r="J224" s="144"/>
+      <c r="K224" s="145"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -23180,16 +23195,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="154" t="s">
+      <c r="D226" s="165" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="155"/>
-      <c r="F226" s="155"/>
-      <c r="G226" s="155"/>
-      <c r="H226" s="155"/>
-      <c r="I226" s="155"/>
-      <c r="J226" s="155"/>
-      <c r="K226" s="156"/>
+      <c r="E226" s="166"/>
+      <c r="F226" s="166"/>
+      <c r="G226" s="166"/>
+      <c r="H226" s="166"/>
+      <c r="I226" s="166"/>
+      <c r="J226" s="166"/>
+      <c r="K226" s="167"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -23334,16 +23349,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="152" t="s">
+      <c r="D234" s="162" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="132"/>
-      <c r="F234" s="132"/>
-      <c r="G234" s="132"/>
-      <c r="H234" s="132"/>
-      <c r="I234" s="132"/>
-      <c r="J234" s="132"/>
-      <c r="K234" s="153"/>
+      <c r="E234" s="163"/>
+      <c r="F234" s="163"/>
+      <c r="G234" s="163"/>
+      <c r="H234" s="163"/>
+      <c r="I234" s="163"/>
+      <c r="J234" s="163"/>
+      <c r="K234" s="164"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -23412,16 +23427,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="141" t="s">
+      <c r="D238" s="152" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="137"/>
-      <c r="F238" s="137"/>
-      <c r="G238" s="137"/>
-      <c r="H238" s="137"/>
-      <c r="I238" s="137"/>
-      <c r="J238" s="137"/>
-      <c r="K238" s="138"/>
+      <c r="E238" s="153"/>
+      <c r="F238" s="153"/>
+      <c r="G238" s="153"/>
+      <c r="H238" s="153"/>
+      <c r="I238" s="153"/>
+      <c r="J238" s="153"/>
+      <c r="K238" s="154"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -23433,14 +23448,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="142"/>
-      <c r="E239" s="143"/>
-      <c r="F239" s="143"/>
-      <c r="G239" s="143"/>
-      <c r="H239" s="143"/>
-      <c r="I239" s="143"/>
-      <c r="J239" s="143"/>
-      <c r="K239" s="144"/>
+      <c r="D239" s="160"/>
+      <c r="E239" s="150"/>
+      <c r="F239" s="150"/>
+      <c r="G239" s="150"/>
+      <c r="H239" s="150"/>
+      <c r="I239" s="150"/>
+      <c r="J239" s="150"/>
+      <c r="K239" s="161"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -23452,16 +23467,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="137" t="s">
+      <c r="D240" s="153" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="137"/>
-      <c r="F240" s="137"/>
-      <c r="G240" s="137"/>
-      <c r="H240" s="137"/>
-      <c r="I240" s="137"/>
-      <c r="J240" s="137"/>
-      <c r="K240" s="138"/>
+      <c r="E240" s="153"/>
+      <c r="F240" s="153"/>
+      <c r="G240" s="153"/>
+      <c r="H240" s="153"/>
+      <c r="I240" s="153"/>
+      <c r="J240" s="153"/>
+      <c r="K240" s="154"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -23473,14 +23488,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="139"/>
-      <c r="E241" s="139"/>
-      <c r="F241" s="139"/>
-      <c r="G241" s="139"/>
-      <c r="H241" s="139"/>
-      <c r="I241" s="139"/>
-      <c r="J241" s="139"/>
-      <c r="K241" s="140"/>
+      <c r="D241" s="173"/>
+      <c r="E241" s="173"/>
+      <c r="F241" s="173"/>
+      <c r="G241" s="173"/>
+      <c r="H241" s="173"/>
+      <c r="I241" s="173"/>
+      <c r="J241" s="173"/>
+      <c r="K241" s="174"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -23671,16 +23686,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="131" t="s">
+      <c r="D250" s="171" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="132"/>
-      <c r="F250" s="132"/>
-      <c r="G250" s="132"/>
-      <c r="H250" s="132"/>
-      <c r="I250" s="132"/>
-      <c r="J250" s="132"/>
-      <c r="K250" s="133"/>
+      <c r="E250" s="163"/>
+      <c r="F250" s="163"/>
+      <c r="G250" s="163"/>
+      <c r="H250" s="163"/>
+      <c r="I250" s="163"/>
+      <c r="J250" s="163"/>
+      <c r="K250" s="172"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -24249,16 +24264,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="134" t="s">
+      <c r="D280" s="143" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="135"/>
-      <c r="F280" s="135"/>
-      <c r="G280" s="135"/>
-      <c r="H280" s="135"/>
-      <c r="I280" s="135"/>
-      <c r="J280" s="135"/>
-      <c r="K280" s="136"/>
+      <c r="E280" s="144"/>
+      <c r="F280" s="144"/>
+      <c r="G280" s="144"/>
+      <c r="H280" s="144"/>
+      <c r="I280" s="144"/>
+      <c r="J280" s="144"/>
+      <c r="K280" s="145"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -24365,16 +24380,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="134" t="s">
+      <c r="D286" s="143" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="135"/>
-      <c r="F286" s="135"/>
-      <c r="G286" s="135"/>
-      <c r="H286" s="135"/>
-      <c r="I286" s="135"/>
-      <c r="J286" s="135"/>
-      <c r="K286" s="136"/>
+      <c r="E286" s="144"/>
+      <c r="F286" s="144"/>
+      <c r="G286" s="144"/>
+      <c r="H286" s="144"/>
+      <c r="I286" s="144"/>
+      <c r="J286" s="144"/>
+      <c r="K286" s="145"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -24524,16 +24539,16 @@
         <v>B24</v>
       </c>
       <c r="C294" s="13"/>
-      <c r="D294" s="134" t="s">
+      <c r="D294" s="143" t="s">
         <v>443</v>
       </c>
-      <c r="E294" s="135"/>
-      <c r="F294" s="135"/>
-      <c r="G294" s="135"/>
-      <c r="H294" s="135"/>
-      <c r="I294" s="135"/>
-      <c r="J294" s="135"/>
-      <c r="K294" s="136"/>
+      <c r="E294" s="144"/>
+      <c r="F294" s="144"/>
+      <c r="G294" s="144"/>
+      <c r="H294" s="144"/>
+      <c r="I294" s="144"/>
+      <c r="J294" s="144"/>
+      <c r="K294" s="145"/>
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="12">
@@ -24564,16 +24579,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="134" t="s">
+      <c r="D296" s="143" t="s">
         <v>444</v>
       </c>
-      <c r="E296" s="135"/>
-      <c r="F296" s="135"/>
-      <c r="G296" s="135"/>
-      <c r="H296" s="135"/>
-      <c r="I296" s="135"/>
-      <c r="J296" s="135"/>
-      <c r="K296" s="136"/>
+      <c r="E296" s="144"/>
+      <c r="F296" s="144"/>
+      <c r="G296" s="144"/>
+      <c r="H296" s="144"/>
+      <c r="I296" s="144"/>
+      <c r="J296" s="144"/>
+      <c r="K296" s="145"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -24604,16 +24619,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="141" t="s">
+      <c r="D298" s="152" t="s">
         <v>386</v>
       </c>
-      <c r="E298" s="137"/>
-      <c r="F298" s="137"/>
-      <c r="G298" s="137"/>
-      <c r="H298" s="137"/>
-      <c r="I298" s="137"/>
-      <c r="J298" s="137"/>
-      <c r="K298" s="138"/>
+      <c r="E298" s="153"/>
+      <c r="F298" s="153"/>
+      <c r="G298" s="153"/>
+      <c r="H298" s="153"/>
+      <c r="I298" s="153"/>
+      <c r="J298" s="153"/>
+      <c r="K298" s="154"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -24625,14 +24640,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="142"/>
-      <c r="E299" s="143"/>
-      <c r="F299" s="143"/>
-      <c r="G299" s="143"/>
-      <c r="H299" s="143"/>
-      <c r="I299" s="143"/>
-      <c r="J299" s="143"/>
-      <c r="K299" s="144"/>
+      <c r="D299" s="160"/>
+      <c r="E299" s="150"/>
+      <c r="F299" s="150"/>
+      <c r="G299" s="150"/>
+      <c r="H299" s="150"/>
+      <c r="I299" s="150"/>
+      <c r="J299" s="150"/>
+      <c r="K299" s="161"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -24644,16 +24659,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="141" t="s">
+      <c r="D300" s="152" t="s">
         <v>387</v>
       </c>
-      <c r="E300" s="137"/>
-      <c r="F300" s="137"/>
-      <c r="G300" s="137"/>
-      <c r="H300" s="137"/>
-      <c r="I300" s="137"/>
-      <c r="J300" s="137"/>
-      <c r="K300" s="138"/>
+      <c r="E300" s="153"/>
+      <c r="F300" s="153"/>
+      <c r="G300" s="153"/>
+      <c r="H300" s="153"/>
+      <c r="I300" s="153"/>
+      <c r="J300" s="153"/>
+      <c r="K300" s="154"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -24665,14 +24680,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="142"/>
-      <c r="E301" s="143"/>
-      <c r="F301" s="143"/>
-      <c r="G301" s="143"/>
-      <c r="H301" s="143"/>
-      <c r="I301" s="143"/>
-      <c r="J301" s="143"/>
-      <c r="K301" s="144"/>
+      <c r="D301" s="160"/>
+      <c r="E301" s="150"/>
+      <c r="F301" s="150"/>
+      <c r="G301" s="150"/>
+      <c r="H301" s="150"/>
+      <c r="I301" s="150"/>
+      <c r="J301" s="150"/>
+      <c r="K301" s="161"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -24684,16 +24699,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="141" t="s">
+      <c r="D302" s="152" t="s">
         <v>388</v>
       </c>
-      <c r="E302" s="137"/>
-      <c r="F302" s="137"/>
-      <c r="G302" s="137"/>
-      <c r="H302" s="137"/>
-      <c r="I302" s="137"/>
-      <c r="J302" s="137"/>
-      <c r="K302" s="138"/>
+      <c r="E302" s="153"/>
+      <c r="F302" s="153"/>
+      <c r="G302" s="153"/>
+      <c r="H302" s="153"/>
+      <c r="I302" s="153"/>
+      <c r="J302" s="153"/>
+      <c r="K302" s="154"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -24705,14 +24720,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="142"/>
-      <c r="E303" s="143"/>
-      <c r="F303" s="143"/>
-      <c r="G303" s="143"/>
-      <c r="H303" s="143"/>
-      <c r="I303" s="143"/>
-      <c r="J303" s="143"/>
-      <c r="K303" s="144"/>
+      <c r="D303" s="160"/>
+      <c r="E303" s="150"/>
+      <c r="F303" s="150"/>
+      <c r="G303" s="150"/>
+      <c r="H303" s="150"/>
+      <c r="I303" s="150"/>
+      <c r="J303" s="150"/>
+      <c r="K303" s="161"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -24724,16 +24739,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="141" t="s">
+      <c r="D304" s="152" t="s">
         <v>389</v>
       </c>
-      <c r="E304" s="137"/>
-      <c r="F304" s="137"/>
-      <c r="G304" s="137"/>
-      <c r="H304" s="137"/>
-      <c r="I304" s="137"/>
-      <c r="J304" s="137"/>
-      <c r="K304" s="138"/>
+      <c r="E304" s="153"/>
+      <c r="F304" s="153"/>
+      <c r="G304" s="153"/>
+      <c r="H304" s="153"/>
+      <c r="I304" s="153"/>
+      <c r="J304" s="153"/>
+      <c r="K304" s="154"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -24745,14 +24760,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="142"/>
-      <c r="E305" s="143"/>
-      <c r="F305" s="143"/>
-      <c r="G305" s="143"/>
-      <c r="H305" s="143"/>
-      <c r="I305" s="143"/>
-      <c r="J305" s="143"/>
-      <c r="K305" s="144"/>
+      <c r="D305" s="160"/>
+      <c r="E305" s="150"/>
+      <c r="F305" s="150"/>
+      <c r="G305" s="150"/>
+      <c r="H305" s="150"/>
+      <c r="I305" s="150"/>
+      <c r="J305" s="150"/>
+      <c r="K305" s="161"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -24767,16 +24782,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="141" t="s">
+      <c r="D306" s="152" t="s">
         <v>390</v>
       </c>
-      <c r="E306" s="137"/>
-      <c r="F306" s="137"/>
-      <c r="G306" s="137"/>
-      <c r="H306" s="137"/>
-      <c r="I306" s="137"/>
-      <c r="J306" s="137"/>
-      <c r="K306" s="138"/>
+      <c r="E306" s="153"/>
+      <c r="F306" s="153"/>
+      <c r="G306" s="153"/>
+      <c r="H306" s="153"/>
+      <c r="I306" s="153"/>
+      <c r="J306" s="153"/>
+      <c r="K306" s="154"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -24788,14 +24803,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="142"/>
-      <c r="E307" s="143"/>
-      <c r="F307" s="143"/>
-      <c r="G307" s="143"/>
-      <c r="H307" s="143"/>
-      <c r="I307" s="143"/>
-      <c r="J307" s="143"/>
-      <c r="K307" s="144"/>
+      <c r="D307" s="160"/>
+      <c r="E307" s="150"/>
+      <c r="F307" s="150"/>
+      <c r="G307" s="150"/>
+      <c r="H307" s="150"/>
+      <c r="I307" s="150"/>
+      <c r="J307" s="150"/>
+      <c r="K307" s="161"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -24807,16 +24822,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="141" t="s">
+      <c r="D308" s="152" t="s">
         <v>391</v>
       </c>
-      <c r="E308" s="137"/>
-      <c r="F308" s="137"/>
-      <c r="G308" s="137"/>
-      <c r="H308" s="137"/>
-      <c r="I308" s="137"/>
-      <c r="J308" s="137"/>
-      <c r="K308" s="138"/>
+      <c r="E308" s="153"/>
+      <c r="F308" s="153"/>
+      <c r="G308" s="153"/>
+      <c r="H308" s="153"/>
+      <c r="I308" s="153"/>
+      <c r="J308" s="153"/>
+      <c r="K308" s="154"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -24828,14 +24843,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="142"/>
-      <c r="E309" s="143"/>
-      <c r="F309" s="143"/>
-      <c r="G309" s="143"/>
-      <c r="H309" s="143"/>
-      <c r="I309" s="143"/>
-      <c r="J309" s="143"/>
-      <c r="K309" s="144"/>
+      <c r="D309" s="160"/>
+      <c r="E309" s="150"/>
+      <c r="F309" s="150"/>
+      <c r="G309" s="150"/>
+      <c r="H309" s="150"/>
+      <c r="I309" s="150"/>
+      <c r="J309" s="150"/>
+      <c r="K309" s="161"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -28715,29 +28730,13 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="D214:K214"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D200:K200"/>
-    <mergeCell ref="D202:K202"/>
+    <mergeCell ref="D294:K294"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
     <mergeCell ref="D280:K280"/>
     <mergeCell ref="D286:K286"/>
     <mergeCell ref="D296:K296"/>
@@ -28754,13 +28753,29 @@
     <mergeCell ref="D250:K250"/>
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D294:K294"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="D214:K214"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="D202:K202"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape"/>

--- a/data/Switches.xlsx
+++ b/data/Switches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bravo Properties\Documents\Gaming\Illusion of Gaia Randomizer\IoGR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A595F55B-44D0-4CB8-BEE1-AFA994D3511F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3BFF05-928F-490C-BDB5-BEE0B9B2A502}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="1305" windowWidth="24270" windowHeight="10455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8910" yWindow="3915" windowWidth="13635" windowHeight="10455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Switches_New" sheetId="4" r:id="rId1"/>
@@ -1188,9 +1188,6 @@
     <t>Dark Friar Upgrade Status (0x00 = no upgrade, 0x01 = explodes on impact, 0x02 = explodes on button input)</t>
   </si>
   <si>
-    <t>First Room Reward?</t>
-  </si>
-  <si>
     <t>Hieroglyph slot 1 status (FF not filled, 00-05 filled with tile)</t>
   </si>
   <si>
@@ -1375,6 +1372,9 @@
   </si>
   <si>
     <t>PIECE OF HEART</t>
+  </si>
+  <si>
+    <t>HP to fill</t>
   </si>
 </sst>
 </file>
@@ -2548,34 +2548,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2587,31 +2572,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2629,16 +2611,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2662,22 +2641,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3027,8 +3027,8 @@
   <dimension ref="A1:O513"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B294" sqref="A294:XFD294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3101,16 +3101,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="152" t="s">
+      <c r="D2" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="154"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="142"/>
       <c r="L2" s="119" t="s">
         <v>7</v>
       </c>
@@ -3128,14 +3128,14 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="157"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="151"/>
       <c r="L3" s="119" t="s">
         <v>8</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>201</v>
       </c>
       <c r="H29" s="116" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I29" s="88" t="s">
         <v>202</v>
@@ -4265,7 +4265,7 @@
         <v>232-239</v>
       </c>
       <c r="D31" s="122" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>215</v>
@@ -4305,8 +4305,8 @@
         <f t="shared" si="1"/>
         <v>240-247</v>
       </c>
-      <c r="D32" s="176" t="s">
-        <v>447</v>
+      <c r="D32" s="134" t="s">
+        <v>446</v>
       </c>
       <c r="E32" s="131" t="s">
         <v>224</v>
@@ -4346,7 +4346,7 @@
         <f t="shared" si="1"/>
         <v>248-255</v>
       </c>
-      <c r="D33" s="175"/>
+      <c r="D33" s="133"/>
       <c r="E33" s="44" t="s">
         <v>231</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>320</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H48" s="49" t="s">
         <v>322</v>
@@ -5660,16 +5660,16 @@
         <v>A49</v>
       </c>
       <c r="C75" s="13"/>
-      <c r="D75" s="133" t="s">
-        <v>436</v>
-      </c>
-      <c r="E75" s="134"/>
-      <c r="F75" s="134"/>
-      <c r="G75" s="134"/>
-      <c r="H75" s="134"/>
-      <c r="I75" s="134"/>
-      <c r="J75" s="134"/>
-      <c r="K75" s="135"/>
+      <c r="D75" s="168" t="s">
+        <v>435</v>
+      </c>
+      <c r="E75" s="169"/>
+      <c r="F75" s="169"/>
+      <c r="G75" s="169"/>
+      <c r="H75" s="169"/>
+      <c r="I75" s="169"/>
+      <c r="J75" s="169"/>
+      <c r="K75" s="170"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="12">
@@ -5681,16 +5681,16 @@
         <v>A4A</v>
       </c>
       <c r="C76" s="13"/>
-      <c r="D76" s="133" t="s">
-        <v>437</v>
-      </c>
-      <c r="E76" s="134"/>
-      <c r="F76" s="134"/>
-      <c r="G76" s="134"/>
-      <c r="H76" s="134"/>
-      <c r="I76" s="134"/>
-      <c r="J76" s="134"/>
-      <c r="K76" s="135"/>
+      <c r="D76" s="168" t="s">
+        <v>436</v>
+      </c>
+      <c r="E76" s="169"/>
+      <c r="F76" s="169"/>
+      <c r="G76" s="169"/>
+      <c r="H76" s="169"/>
+      <c r="I76" s="169"/>
+      <c r="J76" s="169"/>
+      <c r="K76" s="170"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="12">
@@ -5702,16 +5702,16 @@
         <v>A4B</v>
       </c>
       <c r="C77" s="13"/>
-      <c r="D77" s="133" t="s">
-        <v>438</v>
-      </c>
-      <c r="E77" s="134"/>
-      <c r="F77" s="134"/>
-      <c r="G77" s="134"/>
-      <c r="H77" s="134"/>
-      <c r="I77" s="134"/>
-      <c r="J77" s="134"/>
-      <c r="K77" s="135"/>
+      <c r="D77" s="168" t="s">
+        <v>437</v>
+      </c>
+      <c r="E77" s="169"/>
+      <c r="F77" s="169"/>
+      <c r="G77" s="169"/>
+      <c r="H77" s="169"/>
+      <c r="I77" s="169"/>
+      <c r="J77" s="169"/>
+      <c r="K77" s="170"/>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="12">
@@ -5723,16 +5723,16 @@
         <v>A4C</v>
       </c>
       <c r="C78" s="13"/>
-      <c r="D78" s="133" t="s">
-        <v>439</v>
-      </c>
-      <c r="E78" s="134"/>
-      <c r="F78" s="134"/>
-      <c r="G78" s="134"/>
-      <c r="H78" s="134"/>
-      <c r="I78" s="134"/>
-      <c r="J78" s="134"/>
-      <c r="K78" s="135"/>
+      <c r="D78" s="168" t="s">
+        <v>438</v>
+      </c>
+      <c r="E78" s="169"/>
+      <c r="F78" s="169"/>
+      <c r="G78" s="169"/>
+      <c r="H78" s="169"/>
+      <c r="I78" s="169"/>
+      <c r="J78" s="169"/>
+      <c r="K78" s="170"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="12">
@@ -5744,16 +5744,16 @@
         <v>A4D</v>
       </c>
       <c r="C79" s="13"/>
-      <c r="D79" s="133" t="s">
-        <v>440</v>
-      </c>
-      <c r="E79" s="134"/>
-      <c r="F79" s="134"/>
-      <c r="G79" s="134"/>
-      <c r="H79" s="134"/>
-      <c r="I79" s="134"/>
-      <c r="J79" s="134"/>
-      <c r="K79" s="135"/>
+      <c r="D79" s="168" t="s">
+        <v>439</v>
+      </c>
+      <c r="E79" s="169"/>
+      <c r="F79" s="169"/>
+      <c r="G79" s="169"/>
+      <c r="H79" s="169"/>
+      <c r="I79" s="169"/>
+      <c r="J79" s="169"/>
+      <c r="K79" s="170"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="12">
@@ -5765,16 +5765,16 @@
         <v>A4E</v>
       </c>
       <c r="C80" s="13"/>
-      <c r="D80" s="133" t="s">
-        <v>441</v>
-      </c>
-      <c r="E80" s="134"/>
-      <c r="F80" s="134"/>
-      <c r="G80" s="134"/>
-      <c r="H80" s="134"/>
-      <c r="I80" s="134"/>
-      <c r="J80" s="134"/>
-      <c r="K80" s="135"/>
+      <c r="D80" s="168" t="s">
+        <v>440</v>
+      </c>
+      <c r="E80" s="169"/>
+      <c r="F80" s="169"/>
+      <c r="G80" s="169"/>
+      <c r="H80" s="169"/>
+      <c r="I80" s="169"/>
+      <c r="J80" s="169"/>
+      <c r="K80" s="170"/>
     </row>
     <row r="81" spans="1:14" s="1" customFormat="1">
       <c r="A81" s="32">
@@ -5786,16 +5786,16 @@
         <v>A4F</v>
       </c>
       <c r="C81" s="33"/>
-      <c r="D81" s="136" t="s">
-        <v>442</v>
-      </c>
-      <c r="E81" s="137"/>
-      <c r="F81" s="137"/>
-      <c r="G81" s="137"/>
-      <c r="H81" s="137"/>
-      <c r="I81" s="137"/>
-      <c r="J81" s="137"/>
-      <c r="K81" s="138"/>
+      <c r="D81" s="171" t="s">
+        <v>441</v>
+      </c>
+      <c r="E81" s="172"/>
+      <c r="F81" s="172"/>
+      <c r="G81" s="172"/>
+      <c r="H81" s="172"/>
+      <c r="I81" s="172"/>
+      <c r="J81" s="172"/>
+      <c r="K81" s="173"/>
       <c r="L81" s="57"/>
       <c r="M81" s="58"/>
       <c r="N81" s="58"/>
@@ -5990,16 +5990,16 @@
         <v>A58</v>
       </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="133" t="s">
-        <v>431</v>
-      </c>
-      <c r="E90" s="134"/>
-      <c r="F90" s="134"/>
-      <c r="G90" s="134"/>
-      <c r="H90" s="134"/>
-      <c r="I90" s="134"/>
-      <c r="J90" s="134"/>
-      <c r="K90" s="135"/>
+      <c r="D90" s="168" t="s">
+        <v>430</v>
+      </c>
+      <c r="E90" s="169"/>
+      <c r="F90" s="169"/>
+      <c r="G90" s="169"/>
+      <c r="H90" s="169"/>
+      <c r="I90" s="169"/>
+      <c r="J90" s="169"/>
+      <c r="K90" s="170"/>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="12">
@@ -6011,16 +6011,16 @@
         <v>A59</v>
       </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="133" t="s">
-        <v>432</v>
-      </c>
-      <c r="E91" s="134"/>
-      <c r="F91" s="134"/>
-      <c r="G91" s="134"/>
-      <c r="H91" s="134"/>
-      <c r="I91" s="134"/>
-      <c r="J91" s="134"/>
-      <c r="K91" s="135"/>
+      <c r="D91" s="168" t="s">
+        <v>431</v>
+      </c>
+      <c r="E91" s="169"/>
+      <c r="F91" s="169"/>
+      <c r="G91" s="169"/>
+      <c r="H91" s="169"/>
+      <c r="I91" s="169"/>
+      <c r="J91" s="169"/>
+      <c r="K91" s="170"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="12">
@@ -6032,16 +6032,16 @@
         <v>A5A</v>
       </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="133" t="s">
-        <v>433</v>
-      </c>
-      <c r="E92" s="134"/>
-      <c r="F92" s="134"/>
-      <c r="G92" s="134"/>
-      <c r="H92" s="134"/>
-      <c r="I92" s="134"/>
-      <c r="J92" s="134"/>
-      <c r="K92" s="135"/>
+      <c r="D92" s="168" t="s">
+        <v>432</v>
+      </c>
+      <c r="E92" s="169"/>
+      <c r="F92" s="169"/>
+      <c r="G92" s="169"/>
+      <c r="H92" s="169"/>
+      <c r="I92" s="169"/>
+      <c r="J92" s="169"/>
+      <c r="K92" s="170"/>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="12">
@@ -6053,16 +6053,16 @@
         <v>A5B</v>
       </c>
       <c r="C93" s="13"/>
-      <c r="D93" s="140" t="s">
-        <v>434</v>
-      </c>
-      <c r="E93" s="141"/>
-      <c r="F93" s="141"/>
-      <c r="G93" s="141"/>
-      <c r="H93" s="141"/>
-      <c r="I93" s="141"/>
-      <c r="J93" s="141"/>
-      <c r="K93" s="142"/>
+      <c r="D93" s="174" t="s">
+        <v>433</v>
+      </c>
+      <c r="E93" s="175"/>
+      <c r="F93" s="175"/>
+      <c r="G93" s="175"/>
+      <c r="H93" s="175"/>
+      <c r="I93" s="175"/>
+      <c r="J93" s="175"/>
+      <c r="K93" s="176"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="12">
@@ -6074,16 +6074,16 @@
         <v>A5C</v>
       </c>
       <c r="C94" s="13"/>
-      <c r="D94" s="140" t="s">
-        <v>435</v>
-      </c>
-      <c r="E94" s="141"/>
-      <c r="F94" s="141"/>
-      <c r="G94" s="141"/>
-      <c r="H94" s="141"/>
-      <c r="I94" s="141"/>
-      <c r="J94" s="141"/>
-      <c r="K94" s="142"/>
+      <c r="D94" s="174" t="s">
+        <v>434</v>
+      </c>
+      <c r="E94" s="175"/>
+      <c r="F94" s="175"/>
+      <c r="G94" s="175"/>
+      <c r="H94" s="175"/>
+      <c r="I94" s="175"/>
+      <c r="J94" s="175"/>
+      <c r="K94" s="176"/>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="12">
@@ -6095,16 +6095,16 @@
         <v>A5D</v>
       </c>
       <c r="C95" s="13"/>
-      <c r="D95" s="140" t="s">
-        <v>430</v>
-      </c>
-      <c r="E95" s="141"/>
-      <c r="F95" s="141"/>
-      <c r="G95" s="141"/>
-      <c r="H95" s="141"/>
-      <c r="I95" s="141"/>
-      <c r="J95" s="141"/>
-      <c r="K95" s="142"/>
+      <c r="D95" s="174" t="s">
+        <v>429</v>
+      </c>
+      <c r="E95" s="175"/>
+      <c r="F95" s="175"/>
+      <c r="G95" s="175"/>
+      <c r="H95" s="175"/>
+      <c r="I95" s="175"/>
+      <c r="J95" s="175"/>
+      <c r="K95" s="176"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="12">
@@ -6116,16 +6116,16 @@
         <v>A5E</v>
       </c>
       <c r="C96" s="13"/>
-      <c r="D96" s="133" t="s">
-        <v>429</v>
-      </c>
-      <c r="E96" s="134"/>
-      <c r="F96" s="134"/>
-      <c r="G96" s="134"/>
-      <c r="H96" s="134"/>
-      <c r="I96" s="134"/>
-      <c r="J96" s="134"/>
-      <c r="K96" s="135"/>
+      <c r="D96" s="168" t="s">
+        <v>428</v>
+      </c>
+      <c r="E96" s="169"/>
+      <c r="F96" s="169"/>
+      <c r="G96" s="169"/>
+      <c r="H96" s="169"/>
+      <c r="I96" s="169"/>
+      <c r="J96" s="169"/>
+      <c r="K96" s="170"/>
     </row>
     <row r="97" spans="1:14" s="1" customFormat="1">
       <c r="A97" s="32">
@@ -6140,22 +6140,22 @@
       <c r="D97" s="45"/>
       <c r="E97" s="125"/>
       <c r="F97" s="128" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G97" s="130" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H97" s="130" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I97" s="129" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J97" s="126" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K97" s="127" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L97" s="57"/>
       <c r="M97" s="58"/>
@@ -9064,16 +9064,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="139" t="s">
+      <c r="D168" s="167" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="139"/>
-      <c r="F168" s="139"/>
-      <c r="G168" s="139"/>
-      <c r="H168" s="139"/>
-      <c r="I168" s="139"/>
-      <c r="J168" s="139"/>
-      <c r="K168" s="139"/>
+      <c r="E168" s="167"/>
+      <c r="F168" s="167"/>
+      <c r="G168" s="167"/>
+      <c r="H168" s="167"/>
+      <c r="I168" s="167"/>
+      <c r="J168" s="167"/>
+      <c r="K168" s="167"/>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="12">
@@ -9180,16 +9180,16 @@
         <v>AAC</v>
       </c>
       <c r="C174" s="13"/>
-      <c r="D174" s="139" t="s">
+      <c r="D174" s="167" t="s">
         <v>349</v>
       </c>
-      <c r="E174" s="139"/>
-      <c r="F174" s="139"/>
-      <c r="G174" s="139"/>
-      <c r="H174" s="139"/>
-      <c r="I174" s="139"/>
-      <c r="J174" s="139"/>
-      <c r="K174" s="139"/>
+      <c r="E174" s="167"/>
+      <c r="F174" s="167"/>
+      <c r="G174" s="167"/>
+      <c r="H174" s="167"/>
+      <c r="I174" s="167"/>
+      <c r="J174" s="167"/>
+      <c r="K174" s="167"/>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="12">
@@ -9201,16 +9201,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="139" t="s">
+      <c r="D175" s="167" t="s">
         <v>349</v>
       </c>
-      <c r="E175" s="139"/>
-      <c r="F175" s="139"/>
-      <c r="G175" s="139"/>
-      <c r="H175" s="139"/>
-      <c r="I175" s="139"/>
-      <c r="J175" s="139"/>
-      <c r="K175" s="139"/>
+      <c r="E175" s="167"/>
+      <c r="F175" s="167"/>
+      <c r="G175" s="167"/>
+      <c r="H175" s="167"/>
+      <c r="I175" s="167"/>
+      <c r="J175" s="167"/>
+      <c r="K175" s="167"/>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="12">
@@ -9263,16 +9263,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="139" t="s">
+      <c r="D178" s="167" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="139"/>
-      <c r="F178" s="139"/>
-      <c r="G178" s="139"/>
-      <c r="H178" s="139"/>
-      <c r="I178" s="139"/>
-      <c r="J178" s="139"/>
-      <c r="K178" s="139"/>
+      <c r="E178" s="167"/>
+      <c r="F178" s="167"/>
+      <c r="G178" s="167"/>
+      <c r="H178" s="167"/>
+      <c r="I178" s="167"/>
+      <c r="J178" s="167"/>
+      <c r="K178" s="167"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -9341,16 +9341,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="143" t="s">
+      <c r="D182" s="138" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="144"/>
-      <c r="F182" s="144"/>
-      <c r="G182" s="144"/>
-      <c r="H182" s="144"/>
-      <c r="I182" s="144"/>
-      <c r="J182" s="144"/>
-      <c r="K182" s="145"/>
+      <c r="E182" s="139"/>
+      <c r="F182" s="139"/>
+      <c r="G182" s="139"/>
+      <c r="H182" s="139"/>
+      <c r="I182" s="139"/>
+      <c r="J182" s="139"/>
+      <c r="K182" s="140"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -9362,16 +9362,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="143" t="s">
+      <c r="D183" s="138" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="144"/>
-      <c r="F183" s="144"/>
-      <c r="G183" s="144"/>
-      <c r="H183" s="144"/>
-      <c r="I183" s="144"/>
-      <c r="J183" s="144"/>
-      <c r="K183" s="145"/>
+      <c r="E183" s="139"/>
+      <c r="F183" s="139"/>
+      <c r="G183" s="139"/>
+      <c r="H183" s="139"/>
+      <c r="I183" s="139"/>
+      <c r="J183" s="139"/>
+      <c r="K183" s="140"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -9383,16 +9383,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="143" t="s">
+      <c r="D184" s="138" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="144"/>
-      <c r="F184" s="144"/>
-      <c r="G184" s="144"/>
-      <c r="H184" s="144"/>
-      <c r="I184" s="144"/>
-      <c r="J184" s="144"/>
-      <c r="K184" s="145"/>
+      <c r="E184" s="139"/>
+      <c r="F184" s="139"/>
+      <c r="G184" s="139"/>
+      <c r="H184" s="139"/>
+      <c r="I184" s="139"/>
+      <c r="J184" s="139"/>
+      <c r="K184" s="140"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -9404,16 +9404,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="143" t="s">
+      <c r="D185" s="138" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="144"/>
-      <c r="F185" s="144"/>
-      <c r="G185" s="144"/>
-      <c r="H185" s="144"/>
-      <c r="I185" s="144"/>
-      <c r="J185" s="144"/>
-      <c r="K185" s="145"/>
+      <c r="E185" s="139"/>
+      <c r="F185" s="139"/>
+      <c r="G185" s="139"/>
+      <c r="H185" s="139"/>
+      <c r="I185" s="139"/>
+      <c r="J185" s="139"/>
+      <c r="K185" s="140"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -9425,16 +9425,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="143" t="s">
+      <c r="D186" s="138" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="144"/>
-      <c r="F186" s="144"/>
-      <c r="G186" s="144"/>
-      <c r="H186" s="144"/>
-      <c r="I186" s="144"/>
-      <c r="J186" s="144"/>
-      <c r="K186" s="145"/>
+      <c r="E186" s="139"/>
+      <c r="F186" s="139"/>
+      <c r="G186" s="139"/>
+      <c r="H186" s="139"/>
+      <c r="I186" s="139"/>
+      <c r="J186" s="139"/>
+      <c r="K186" s="140"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -9446,16 +9446,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="143" t="s">
+      <c r="D187" s="138" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="144"/>
-      <c r="F187" s="144"/>
-      <c r="G187" s="144"/>
-      <c r="H187" s="144"/>
-      <c r="I187" s="144"/>
-      <c r="J187" s="144"/>
-      <c r="K187" s="145"/>
+      <c r="E187" s="139"/>
+      <c r="F187" s="139"/>
+      <c r="G187" s="139"/>
+      <c r="H187" s="139"/>
+      <c r="I187" s="139"/>
+      <c r="J187" s="139"/>
+      <c r="K187" s="140"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -9467,16 +9467,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="143" t="s">
+      <c r="D188" s="138" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="144"/>
-      <c r="F188" s="144"/>
-      <c r="G188" s="144"/>
-      <c r="H188" s="144"/>
-      <c r="I188" s="144"/>
-      <c r="J188" s="144"/>
-      <c r="K188" s="145"/>
+      <c r="E188" s="139"/>
+      <c r="F188" s="139"/>
+      <c r="G188" s="139"/>
+      <c r="H188" s="139"/>
+      <c r="I188" s="139"/>
+      <c r="J188" s="139"/>
+      <c r="K188" s="140"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -9488,16 +9488,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="143" t="s">
+      <c r="D189" s="138" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="144"/>
-      <c r="F189" s="144"/>
-      <c r="G189" s="144"/>
-      <c r="H189" s="144"/>
-      <c r="I189" s="144"/>
-      <c r="J189" s="144"/>
-      <c r="K189" s="145"/>
+      <c r="E189" s="139"/>
+      <c r="F189" s="139"/>
+      <c r="G189" s="139"/>
+      <c r="H189" s="139"/>
+      <c r="I189" s="139"/>
+      <c r="J189" s="139"/>
+      <c r="K189" s="140"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -9509,16 +9509,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="143" t="s">
+      <c r="D190" s="138" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="144"/>
-      <c r="F190" s="144"/>
-      <c r="G190" s="144"/>
-      <c r="H190" s="144"/>
-      <c r="I190" s="144"/>
-      <c r="J190" s="144"/>
-      <c r="K190" s="145"/>
+      <c r="E190" s="139"/>
+      <c r="F190" s="139"/>
+      <c r="G190" s="139"/>
+      <c r="H190" s="139"/>
+      <c r="I190" s="139"/>
+      <c r="J190" s="139"/>
+      <c r="K190" s="140"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -9530,16 +9530,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="143" t="s">
+      <c r="D191" s="138" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="144"/>
-      <c r="F191" s="144"/>
-      <c r="G191" s="144"/>
-      <c r="H191" s="144"/>
-      <c r="I191" s="144"/>
-      <c r="J191" s="144"/>
-      <c r="K191" s="145"/>
+      <c r="E191" s="139"/>
+      <c r="F191" s="139"/>
+      <c r="G191" s="139"/>
+      <c r="H191" s="139"/>
+      <c r="I191" s="139"/>
+      <c r="J191" s="139"/>
+      <c r="K191" s="140"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -9551,16 +9551,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="143" t="s">
+      <c r="D192" s="138" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="144"/>
-      <c r="F192" s="144"/>
-      <c r="G192" s="144"/>
-      <c r="H192" s="144"/>
-      <c r="I192" s="144"/>
-      <c r="J192" s="144"/>
-      <c r="K192" s="145"/>
+      <c r="E192" s="139"/>
+      <c r="F192" s="139"/>
+      <c r="G192" s="139"/>
+      <c r="H192" s="139"/>
+      <c r="I192" s="139"/>
+      <c r="J192" s="139"/>
+      <c r="K192" s="140"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -9572,16 +9572,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="146" t="s">
+      <c r="D193" s="164" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="147"/>
-      <c r="F193" s="147"/>
-      <c r="G193" s="147"/>
-      <c r="H193" s="147"/>
-      <c r="I193" s="147"/>
-      <c r="J193" s="147"/>
-      <c r="K193" s="148"/>
+      <c r="E193" s="165"/>
+      <c r="F193" s="165"/>
+      <c r="G193" s="165"/>
+      <c r="H193" s="165"/>
+      <c r="I193" s="165"/>
+      <c r="J193" s="165"/>
+      <c r="K193" s="166"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -9596,16 +9596,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="149" t="s">
+      <c r="D194" s="154" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="150"/>
-      <c r="F194" s="150"/>
-      <c r="G194" s="150"/>
-      <c r="H194" s="150"/>
-      <c r="I194" s="150"/>
-      <c r="J194" s="150"/>
-      <c r="K194" s="151"/>
+      <c r="E194" s="147"/>
+      <c r="F194" s="147"/>
+      <c r="G194" s="147"/>
+      <c r="H194" s="147"/>
+      <c r="I194" s="147"/>
+      <c r="J194" s="147"/>
+      <c r="K194" s="155"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -9617,16 +9617,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="143" t="s">
+      <c r="D195" s="138" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="144"/>
-      <c r="F195" s="144"/>
-      <c r="G195" s="144"/>
-      <c r="H195" s="144"/>
-      <c r="I195" s="144"/>
-      <c r="J195" s="144"/>
-      <c r="K195" s="145"/>
+      <c r="E195" s="139"/>
+      <c r="F195" s="139"/>
+      <c r="G195" s="139"/>
+      <c r="H195" s="139"/>
+      <c r="I195" s="139"/>
+      <c r="J195" s="139"/>
+      <c r="K195" s="140"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -9638,16 +9638,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="143" t="s">
+      <c r="D196" s="138" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="144"/>
-      <c r="F196" s="144"/>
-      <c r="G196" s="144"/>
-      <c r="H196" s="144"/>
-      <c r="I196" s="144"/>
-      <c r="J196" s="144"/>
-      <c r="K196" s="145"/>
+      <c r="E196" s="139"/>
+      <c r="F196" s="139"/>
+      <c r="G196" s="139"/>
+      <c r="H196" s="139"/>
+      <c r="I196" s="139"/>
+      <c r="J196" s="139"/>
+      <c r="K196" s="140"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -9659,16 +9659,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="143" t="s">
+      <c r="D197" s="138" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="144"/>
-      <c r="F197" s="144"/>
-      <c r="G197" s="144"/>
-      <c r="H197" s="144"/>
-      <c r="I197" s="144"/>
-      <c r="J197" s="144"/>
-      <c r="K197" s="145"/>
+      <c r="E197" s="139"/>
+      <c r="F197" s="139"/>
+      <c r="G197" s="139"/>
+      <c r="H197" s="139"/>
+      <c r="I197" s="139"/>
+      <c r="J197" s="139"/>
+      <c r="K197" s="140"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -9680,16 +9680,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="143" t="s">
+      <c r="D198" s="138" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="144"/>
-      <c r="F198" s="144"/>
-      <c r="G198" s="144"/>
-      <c r="H198" s="144"/>
-      <c r="I198" s="144"/>
-      <c r="J198" s="144"/>
-      <c r="K198" s="145"/>
+      <c r="E198" s="139"/>
+      <c r="F198" s="139"/>
+      <c r="G198" s="139"/>
+      <c r="H198" s="139"/>
+      <c r="I198" s="139"/>
+      <c r="J198" s="139"/>
+      <c r="K198" s="140"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -9720,16 +9720,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="143" t="s">
+      <c r="D200" s="138" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="144"/>
-      <c r="F200" s="144"/>
-      <c r="G200" s="144"/>
-      <c r="H200" s="144"/>
-      <c r="I200" s="144"/>
-      <c r="J200" s="144"/>
-      <c r="K200" s="145"/>
+      <c r="E200" s="139"/>
+      <c r="F200" s="139"/>
+      <c r="G200" s="139"/>
+      <c r="H200" s="139"/>
+      <c r="I200" s="139"/>
+      <c r="J200" s="139"/>
+      <c r="K200" s="140"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -9760,16 +9760,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="168" t="s">
+      <c r="D202" s="161" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="169"/>
-      <c r="F202" s="169"/>
-      <c r="G202" s="169"/>
-      <c r="H202" s="169"/>
-      <c r="I202" s="169"/>
-      <c r="J202" s="169"/>
-      <c r="K202" s="170"/>
+      <c r="E202" s="162"/>
+      <c r="F202" s="162"/>
+      <c r="G202" s="162"/>
+      <c r="H202" s="162"/>
+      <c r="I202" s="162"/>
+      <c r="J202" s="162"/>
+      <c r="K202" s="163"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -9800,16 +9800,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="143" t="s">
+      <c r="D204" s="138" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="144"/>
-      <c r="F204" s="144"/>
-      <c r="G204" s="144"/>
-      <c r="H204" s="144"/>
-      <c r="I204" s="144"/>
-      <c r="J204" s="144"/>
-      <c r="K204" s="145"/>
+      <c r="E204" s="139"/>
+      <c r="F204" s="139"/>
+      <c r="G204" s="139"/>
+      <c r="H204" s="139"/>
+      <c r="I204" s="139"/>
+      <c r="J204" s="139"/>
+      <c r="K204" s="140"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -9840,16 +9840,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="143" t="s">
+      <c r="D206" s="138" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="144"/>
-      <c r="F206" s="144"/>
-      <c r="G206" s="144"/>
-      <c r="H206" s="144"/>
-      <c r="I206" s="144"/>
-      <c r="J206" s="144"/>
-      <c r="K206" s="145"/>
+      <c r="E206" s="139"/>
+      <c r="F206" s="139"/>
+      <c r="G206" s="139"/>
+      <c r="H206" s="139"/>
+      <c r="I206" s="139"/>
+      <c r="J206" s="139"/>
+      <c r="K206" s="140"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -9880,16 +9880,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="143" t="s">
+      <c r="D208" s="138" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="144"/>
-      <c r="F208" s="144"/>
-      <c r="G208" s="144"/>
-      <c r="H208" s="144"/>
-      <c r="I208" s="144"/>
-      <c r="J208" s="144"/>
-      <c r="K208" s="145"/>
+      <c r="E208" s="139"/>
+      <c r="F208" s="139"/>
+      <c r="G208" s="139"/>
+      <c r="H208" s="139"/>
+      <c r="I208" s="139"/>
+      <c r="J208" s="139"/>
+      <c r="K208" s="140"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -9923,16 +9923,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="149" t="s">
+      <c r="D210" s="154" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="150"/>
-      <c r="F210" s="150"/>
-      <c r="G210" s="150"/>
-      <c r="H210" s="150"/>
-      <c r="I210" s="150"/>
-      <c r="J210" s="150"/>
-      <c r="K210" s="151"/>
+      <c r="E210" s="147"/>
+      <c r="F210" s="147"/>
+      <c r="G210" s="147"/>
+      <c r="H210" s="147"/>
+      <c r="I210" s="147"/>
+      <c r="J210" s="147"/>
+      <c r="K210" s="155"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -10001,16 +10001,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="143" t="s">
+      <c r="D214" s="138" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="144"/>
-      <c r="F214" s="144"/>
-      <c r="G214" s="144"/>
-      <c r="H214" s="144"/>
-      <c r="I214" s="144"/>
-      <c r="J214" s="144"/>
-      <c r="K214" s="145"/>
+      <c r="E214" s="139"/>
+      <c r="F214" s="139"/>
+      <c r="G214" s="139"/>
+      <c r="H214" s="139"/>
+      <c r="I214" s="139"/>
+      <c r="J214" s="139"/>
+      <c r="K214" s="140"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -10041,16 +10041,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="158" t="s">
+      <c r="D216" s="152" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="153"/>
-      <c r="F216" s="153"/>
-      <c r="G216" s="153"/>
-      <c r="H216" s="153"/>
-      <c r="I216" s="153"/>
-      <c r="J216" s="153"/>
-      <c r="K216" s="159"/>
+      <c r="E216" s="141"/>
+      <c r="F216" s="141"/>
+      <c r="G216" s="141"/>
+      <c r="H216" s="141"/>
+      <c r="I216" s="141"/>
+      <c r="J216" s="141"/>
+      <c r="K216" s="153"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -10062,14 +10062,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="149"/>
-      <c r="E217" s="150"/>
-      <c r="F217" s="150"/>
-      <c r="G217" s="150"/>
-      <c r="H217" s="150"/>
-      <c r="I217" s="150"/>
-      <c r="J217" s="150"/>
-      <c r="K217" s="151"/>
+      <c r="D217" s="154"/>
+      <c r="E217" s="147"/>
+      <c r="F217" s="147"/>
+      <c r="G217" s="147"/>
+      <c r="H217" s="147"/>
+      <c r="I217" s="147"/>
+      <c r="J217" s="147"/>
+      <c r="K217" s="155"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -10081,16 +10081,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="158" t="s">
+      <c r="D218" s="152" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="153"/>
-      <c r="F218" s="153"/>
-      <c r="G218" s="153"/>
-      <c r="H218" s="153"/>
-      <c r="I218" s="153"/>
-      <c r="J218" s="153"/>
-      <c r="K218" s="159"/>
+      <c r="E218" s="141"/>
+      <c r="F218" s="141"/>
+      <c r="G218" s="141"/>
+      <c r="H218" s="141"/>
+      <c r="I218" s="141"/>
+      <c r="J218" s="141"/>
+      <c r="K218" s="153"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -10102,14 +10102,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="149"/>
-      <c r="E219" s="150"/>
-      <c r="F219" s="150"/>
-      <c r="G219" s="150"/>
-      <c r="H219" s="150"/>
-      <c r="I219" s="150"/>
-      <c r="J219" s="150"/>
-      <c r="K219" s="151"/>
+      <c r="D219" s="154"/>
+      <c r="E219" s="147"/>
+      <c r="F219" s="147"/>
+      <c r="G219" s="147"/>
+      <c r="H219" s="147"/>
+      <c r="I219" s="147"/>
+      <c r="J219" s="147"/>
+      <c r="K219" s="155"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -10121,16 +10121,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="158" t="s">
+      <c r="D220" s="152" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="153"/>
-      <c r="F220" s="153"/>
-      <c r="G220" s="153"/>
-      <c r="H220" s="153"/>
-      <c r="I220" s="153"/>
-      <c r="J220" s="153"/>
-      <c r="K220" s="159"/>
+      <c r="E220" s="141"/>
+      <c r="F220" s="141"/>
+      <c r="G220" s="141"/>
+      <c r="H220" s="141"/>
+      <c r="I220" s="141"/>
+      <c r="J220" s="141"/>
+      <c r="K220" s="153"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -10142,14 +10142,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="149"/>
-      <c r="E221" s="150"/>
-      <c r="F221" s="150"/>
-      <c r="G221" s="150"/>
-      <c r="H221" s="150"/>
-      <c r="I221" s="150"/>
-      <c r="J221" s="150"/>
-      <c r="K221" s="151"/>
+      <c r="D221" s="154"/>
+      <c r="E221" s="147"/>
+      <c r="F221" s="147"/>
+      <c r="G221" s="147"/>
+      <c r="H221" s="147"/>
+      <c r="I221" s="147"/>
+      <c r="J221" s="147"/>
+      <c r="K221" s="155"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -10161,16 +10161,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="143" t="s">
+      <c r="D222" s="138" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="144"/>
-      <c r="F222" s="144"/>
-      <c r="G222" s="144"/>
-      <c r="H222" s="144"/>
-      <c r="I222" s="144"/>
-      <c r="J222" s="144"/>
-      <c r="K222" s="145"/>
+      <c r="E222" s="139"/>
+      <c r="F222" s="139"/>
+      <c r="G222" s="139"/>
+      <c r="H222" s="139"/>
+      <c r="I222" s="139"/>
+      <c r="J222" s="139"/>
+      <c r="K222" s="140"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -10201,16 +10201,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="143" t="s">
+      <c r="D224" s="138" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="144"/>
-      <c r="F224" s="144"/>
-      <c r="G224" s="144"/>
-      <c r="H224" s="144"/>
-      <c r="I224" s="144"/>
-      <c r="J224" s="144"/>
-      <c r="K224" s="145"/>
+      <c r="E224" s="139"/>
+      <c r="F224" s="139"/>
+      <c r="G224" s="139"/>
+      <c r="H224" s="139"/>
+      <c r="I224" s="139"/>
+      <c r="J224" s="139"/>
+      <c r="K224" s="140"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -10244,16 +10244,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="165" t="s">
+      <c r="D226" s="158" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="166"/>
-      <c r="F226" s="166"/>
-      <c r="G226" s="166"/>
-      <c r="H226" s="166"/>
-      <c r="I226" s="166"/>
-      <c r="J226" s="166"/>
-      <c r="K226" s="167"/>
+      <c r="E226" s="159"/>
+      <c r="F226" s="159"/>
+      <c r="G226" s="159"/>
+      <c r="H226" s="159"/>
+      <c r="I226" s="159"/>
+      <c r="J226" s="159"/>
+      <c r="K226" s="160"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -10398,16 +10398,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="162" t="s">
+      <c r="D234" s="156" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="163"/>
-      <c r="F234" s="163"/>
-      <c r="G234" s="163"/>
-      <c r="H234" s="163"/>
-      <c r="I234" s="163"/>
-      <c r="J234" s="163"/>
-      <c r="K234" s="164"/>
+      <c r="E234" s="136"/>
+      <c r="F234" s="136"/>
+      <c r="G234" s="136"/>
+      <c r="H234" s="136"/>
+      <c r="I234" s="136"/>
+      <c r="J234" s="136"/>
+      <c r="K234" s="157"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -10476,16 +10476,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="152" t="s">
+      <c r="D238" s="145" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="153"/>
-      <c r="F238" s="153"/>
-      <c r="G238" s="153"/>
-      <c r="H238" s="153"/>
-      <c r="I238" s="153"/>
-      <c r="J238" s="153"/>
-      <c r="K238" s="154"/>
+      <c r="E238" s="141"/>
+      <c r="F238" s="141"/>
+      <c r="G238" s="141"/>
+      <c r="H238" s="141"/>
+      <c r="I238" s="141"/>
+      <c r="J238" s="141"/>
+      <c r="K238" s="142"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -10497,14 +10497,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="160"/>
-      <c r="E239" s="150"/>
-      <c r="F239" s="150"/>
-      <c r="G239" s="150"/>
-      <c r="H239" s="150"/>
-      <c r="I239" s="150"/>
-      <c r="J239" s="150"/>
-      <c r="K239" s="161"/>
+      <c r="D239" s="146"/>
+      <c r="E239" s="147"/>
+      <c r="F239" s="147"/>
+      <c r="G239" s="147"/>
+      <c r="H239" s="147"/>
+      <c r="I239" s="147"/>
+      <c r="J239" s="147"/>
+      <c r="K239" s="148"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -10516,16 +10516,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="153" t="s">
+      <c r="D240" s="141" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="153"/>
-      <c r="F240" s="153"/>
-      <c r="G240" s="153"/>
-      <c r="H240" s="153"/>
-      <c r="I240" s="153"/>
-      <c r="J240" s="153"/>
-      <c r="K240" s="154"/>
+      <c r="E240" s="141"/>
+      <c r="F240" s="141"/>
+      <c r="G240" s="141"/>
+      <c r="H240" s="141"/>
+      <c r="I240" s="141"/>
+      <c r="J240" s="141"/>
+      <c r="K240" s="142"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -10537,14 +10537,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="173"/>
-      <c r="E241" s="173"/>
-      <c r="F241" s="173"/>
-      <c r="G241" s="173"/>
-      <c r="H241" s="173"/>
-      <c r="I241" s="173"/>
-      <c r="J241" s="173"/>
-      <c r="K241" s="174"/>
+      <c r="D241" s="143"/>
+      <c r="E241" s="143"/>
+      <c r="F241" s="143"/>
+      <c r="G241" s="143"/>
+      <c r="H241" s="143"/>
+      <c r="I241" s="143"/>
+      <c r="J241" s="143"/>
+      <c r="K241" s="144"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -10735,16 +10735,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="171" t="s">
+      <c r="D250" s="135" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="163"/>
-      <c r="F250" s="163"/>
-      <c r="G250" s="163"/>
-      <c r="H250" s="163"/>
-      <c r="I250" s="163"/>
-      <c r="J250" s="163"/>
-      <c r="K250" s="172"/>
+      <c r="E250" s="136"/>
+      <c r="F250" s="136"/>
+      <c r="G250" s="136"/>
+      <c r="H250" s="136"/>
+      <c r="I250" s="136"/>
+      <c r="J250" s="136"/>
+      <c r="K250" s="137"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -11313,16 +11313,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="143" t="s">
+      <c r="D280" s="138" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="144"/>
-      <c r="F280" s="144"/>
-      <c r="G280" s="144"/>
-      <c r="H280" s="144"/>
-      <c r="I280" s="144"/>
-      <c r="J280" s="144"/>
-      <c r="K280" s="145"/>
+      <c r="E280" s="139"/>
+      <c r="F280" s="139"/>
+      <c r="G280" s="139"/>
+      <c r="H280" s="139"/>
+      <c r="I280" s="139"/>
+      <c r="J280" s="139"/>
+      <c r="K280" s="140"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -11429,16 +11429,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="143" t="s">
+      <c r="D286" s="138" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="144"/>
-      <c r="F286" s="144"/>
-      <c r="G286" s="144"/>
-      <c r="H286" s="144"/>
-      <c r="I286" s="144"/>
-      <c r="J286" s="144"/>
-      <c r="K286" s="145"/>
+      <c r="E286" s="139"/>
+      <c r="F286" s="139"/>
+      <c r="G286" s="139"/>
+      <c r="H286" s="139"/>
+      <c r="I286" s="139"/>
+      <c r="J286" s="139"/>
+      <c r="K286" s="140"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -11548,16 +11548,16 @@
         <v>B22</v>
       </c>
       <c r="C292" s="13"/>
-      <c r="D292" s="48"/>
-      <c r="E292" s="12"/>
-      <c r="F292" s="12"/>
-      <c r="G292" s="22"/>
-      <c r="H292" s="49"/>
-      <c r="I292" s="12"/>
-      <c r="J292" s="12"/>
-      <c r="K292" s="78" t="s">
-        <v>385</v>
-      </c>
+      <c r="D292" s="138" t="s">
+        <v>447</v>
+      </c>
+      <c r="E292" s="139"/>
+      <c r="F292" s="139"/>
+      <c r="G292" s="139"/>
+      <c r="H292" s="139"/>
+      <c r="I292" s="139"/>
+      <c r="J292" s="139"/>
+      <c r="K292" s="140"/>
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="12">
@@ -11588,16 +11588,16 @@
         <v>B24</v>
       </c>
       <c r="C294" s="13"/>
-      <c r="D294" s="143" t="s">
-        <v>445</v>
-      </c>
-      <c r="E294" s="144"/>
-      <c r="F294" s="144"/>
-      <c r="G294" s="144"/>
-      <c r="H294" s="144"/>
-      <c r="I294" s="144"/>
-      <c r="J294" s="144"/>
-      <c r="K294" s="145"/>
+      <c r="D294" s="138" t="s">
+        <v>444</v>
+      </c>
+      <c r="E294" s="139"/>
+      <c r="F294" s="139"/>
+      <c r="G294" s="139"/>
+      <c r="H294" s="139"/>
+      <c r="I294" s="139"/>
+      <c r="J294" s="139"/>
+      <c r="K294" s="140"/>
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="12">
@@ -11628,16 +11628,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="143" t="s">
-        <v>444</v>
-      </c>
-      <c r="E296" s="144"/>
-      <c r="F296" s="144"/>
-      <c r="G296" s="144"/>
-      <c r="H296" s="144"/>
-      <c r="I296" s="144"/>
-      <c r="J296" s="144"/>
-      <c r="K296" s="145"/>
+      <c r="D296" s="138" t="s">
+        <v>443</v>
+      </c>
+      <c r="E296" s="139"/>
+      <c r="F296" s="139"/>
+      <c r="G296" s="139"/>
+      <c r="H296" s="139"/>
+      <c r="I296" s="139"/>
+      <c r="J296" s="139"/>
+      <c r="K296" s="140"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -11668,16 +11668,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="152" t="s">
-        <v>386</v>
-      </c>
-      <c r="E298" s="153"/>
-      <c r="F298" s="153"/>
-      <c r="G298" s="153"/>
-      <c r="H298" s="153"/>
-      <c r="I298" s="153"/>
-      <c r="J298" s="153"/>
-      <c r="K298" s="154"/>
+      <c r="D298" s="145" t="s">
+        <v>385</v>
+      </c>
+      <c r="E298" s="141"/>
+      <c r="F298" s="141"/>
+      <c r="G298" s="141"/>
+      <c r="H298" s="141"/>
+      <c r="I298" s="141"/>
+      <c r="J298" s="141"/>
+      <c r="K298" s="142"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -11689,14 +11689,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="160"/>
-      <c r="E299" s="150"/>
-      <c r="F299" s="150"/>
-      <c r="G299" s="150"/>
-      <c r="H299" s="150"/>
-      <c r="I299" s="150"/>
-      <c r="J299" s="150"/>
-      <c r="K299" s="161"/>
+      <c r="D299" s="146"/>
+      <c r="E299" s="147"/>
+      <c r="F299" s="147"/>
+      <c r="G299" s="147"/>
+      <c r="H299" s="147"/>
+      <c r="I299" s="147"/>
+      <c r="J299" s="147"/>
+      <c r="K299" s="148"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -11708,16 +11708,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="152" t="s">
-        <v>387</v>
-      </c>
-      <c r="E300" s="153"/>
-      <c r="F300" s="153"/>
-      <c r="G300" s="153"/>
-      <c r="H300" s="153"/>
-      <c r="I300" s="153"/>
-      <c r="J300" s="153"/>
-      <c r="K300" s="154"/>
+      <c r="D300" s="145" t="s">
+        <v>386</v>
+      </c>
+      <c r="E300" s="141"/>
+      <c r="F300" s="141"/>
+      <c r="G300" s="141"/>
+      <c r="H300" s="141"/>
+      <c r="I300" s="141"/>
+      <c r="J300" s="141"/>
+      <c r="K300" s="142"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -11729,14 +11729,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="160"/>
-      <c r="E301" s="150"/>
-      <c r="F301" s="150"/>
-      <c r="G301" s="150"/>
-      <c r="H301" s="150"/>
-      <c r="I301" s="150"/>
-      <c r="J301" s="150"/>
-      <c r="K301" s="161"/>
+      <c r="D301" s="146"/>
+      <c r="E301" s="147"/>
+      <c r="F301" s="147"/>
+      <c r="G301" s="147"/>
+      <c r="H301" s="147"/>
+      <c r="I301" s="147"/>
+      <c r="J301" s="147"/>
+      <c r="K301" s="148"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -11748,16 +11748,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="152" t="s">
-        <v>388</v>
-      </c>
-      <c r="E302" s="153"/>
-      <c r="F302" s="153"/>
-      <c r="G302" s="153"/>
-      <c r="H302" s="153"/>
-      <c r="I302" s="153"/>
-      <c r="J302" s="153"/>
-      <c r="K302" s="154"/>
+      <c r="D302" s="145" t="s">
+        <v>387</v>
+      </c>
+      <c r="E302" s="141"/>
+      <c r="F302" s="141"/>
+      <c r="G302" s="141"/>
+      <c r="H302" s="141"/>
+      <c r="I302" s="141"/>
+      <c r="J302" s="141"/>
+      <c r="K302" s="142"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -11769,14 +11769,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="160"/>
-      <c r="E303" s="150"/>
-      <c r="F303" s="150"/>
-      <c r="G303" s="150"/>
-      <c r="H303" s="150"/>
-      <c r="I303" s="150"/>
-      <c r="J303" s="150"/>
-      <c r="K303" s="161"/>
+      <c r="D303" s="146"/>
+      <c r="E303" s="147"/>
+      <c r="F303" s="147"/>
+      <c r="G303" s="147"/>
+      <c r="H303" s="147"/>
+      <c r="I303" s="147"/>
+      <c r="J303" s="147"/>
+      <c r="K303" s="148"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -11788,16 +11788,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="152" t="s">
-        <v>389</v>
-      </c>
-      <c r="E304" s="153"/>
-      <c r="F304" s="153"/>
-      <c r="G304" s="153"/>
-      <c r="H304" s="153"/>
-      <c r="I304" s="153"/>
-      <c r="J304" s="153"/>
-      <c r="K304" s="154"/>
+      <c r="D304" s="145" t="s">
+        <v>388</v>
+      </c>
+      <c r="E304" s="141"/>
+      <c r="F304" s="141"/>
+      <c r="G304" s="141"/>
+      <c r="H304" s="141"/>
+      <c r="I304" s="141"/>
+      <c r="J304" s="141"/>
+      <c r="K304" s="142"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -11809,14 +11809,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="160"/>
-      <c r="E305" s="150"/>
-      <c r="F305" s="150"/>
-      <c r="G305" s="150"/>
-      <c r="H305" s="150"/>
-      <c r="I305" s="150"/>
-      <c r="J305" s="150"/>
-      <c r="K305" s="161"/>
+      <c r="D305" s="146"/>
+      <c r="E305" s="147"/>
+      <c r="F305" s="147"/>
+      <c r="G305" s="147"/>
+      <c r="H305" s="147"/>
+      <c r="I305" s="147"/>
+      <c r="J305" s="147"/>
+      <c r="K305" s="148"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -11831,16 +11831,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="152" t="s">
-        <v>390</v>
-      </c>
-      <c r="E306" s="153"/>
-      <c r="F306" s="153"/>
-      <c r="G306" s="153"/>
-      <c r="H306" s="153"/>
-      <c r="I306" s="153"/>
-      <c r="J306" s="153"/>
-      <c r="K306" s="154"/>
+      <c r="D306" s="145" t="s">
+        <v>389</v>
+      </c>
+      <c r="E306" s="141"/>
+      <c r="F306" s="141"/>
+      <c r="G306" s="141"/>
+      <c r="H306" s="141"/>
+      <c r="I306" s="141"/>
+      <c r="J306" s="141"/>
+      <c r="K306" s="142"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -11852,14 +11852,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="160"/>
-      <c r="E307" s="150"/>
-      <c r="F307" s="150"/>
-      <c r="G307" s="150"/>
-      <c r="H307" s="150"/>
-      <c r="I307" s="150"/>
-      <c r="J307" s="150"/>
-      <c r="K307" s="161"/>
+      <c r="D307" s="146"/>
+      <c r="E307" s="147"/>
+      <c r="F307" s="147"/>
+      <c r="G307" s="147"/>
+      <c r="H307" s="147"/>
+      <c r="I307" s="147"/>
+      <c r="J307" s="147"/>
+      <c r="K307" s="148"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -11871,16 +11871,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="152" t="s">
-        <v>391</v>
-      </c>
-      <c r="E308" s="153"/>
-      <c r="F308" s="153"/>
-      <c r="G308" s="153"/>
-      <c r="H308" s="153"/>
-      <c r="I308" s="153"/>
-      <c r="J308" s="153"/>
-      <c r="K308" s="154"/>
+      <c r="D308" s="145" t="s">
+        <v>390</v>
+      </c>
+      <c r="E308" s="141"/>
+      <c r="F308" s="141"/>
+      <c r="G308" s="141"/>
+      <c r="H308" s="141"/>
+      <c r="I308" s="141"/>
+      <c r="J308" s="141"/>
+      <c r="K308" s="142"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -11892,14 +11892,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="160"/>
-      <c r="E309" s="150"/>
-      <c r="F309" s="150"/>
-      <c r="G309" s="150"/>
-      <c r="H309" s="150"/>
-      <c r="I309" s="150"/>
-      <c r="J309" s="150"/>
-      <c r="K309" s="161"/>
+      <c r="D309" s="146"/>
+      <c r="E309" s="147"/>
+      <c r="F309" s="147"/>
+      <c r="G309" s="147"/>
+      <c r="H309" s="147"/>
+      <c r="I309" s="147"/>
+      <c r="J309" s="147"/>
+      <c r="K309" s="148"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -15778,19 +15778,42 @@
       <c r="K513" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="D250:K250"/>
-    <mergeCell ref="D280:K280"/>
-    <mergeCell ref="D286:K286"/>
-    <mergeCell ref="D296:K296"/>
-    <mergeCell ref="D240:K241"/>
-    <mergeCell ref="D294:K294"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
+  <mergeCells count="64">
+    <mergeCell ref="D75:K75"/>
+    <mergeCell ref="D76:K76"/>
+    <mergeCell ref="D77:K77"/>
+    <mergeCell ref="D78:K78"/>
+    <mergeCell ref="D79:K79"/>
+    <mergeCell ref="D80:K80"/>
+    <mergeCell ref="D81:K81"/>
+    <mergeCell ref="D168:K168"/>
+    <mergeCell ref="D175:K175"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D91:K91"/>
+    <mergeCell ref="D90:K90"/>
+    <mergeCell ref="D93:K93"/>
+    <mergeCell ref="D96:K96"/>
+    <mergeCell ref="D94:K94"/>
+    <mergeCell ref="D95:K95"/>
+    <mergeCell ref="D92:K92"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D174:K174"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D196:K196"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="D216:K217"/>
     <mergeCell ref="D218:K219"/>
@@ -15807,41 +15830,19 @@
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
     <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D174:K174"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D80:K80"/>
-    <mergeCell ref="D81:K81"/>
-    <mergeCell ref="D168:K168"/>
-    <mergeCell ref="D175:K175"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D91:K91"/>
-    <mergeCell ref="D90:K90"/>
-    <mergeCell ref="D93:K93"/>
-    <mergeCell ref="D96:K96"/>
-    <mergeCell ref="D94:K94"/>
-    <mergeCell ref="D95:K95"/>
-    <mergeCell ref="D92:K92"/>
-    <mergeCell ref="D75:K75"/>
-    <mergeCell ref="D76:K76"/>
-    <mergeCell ref="D77:K77"/>
-    <mergeCell ref="D78:K78"/>
-    <mergeCell ref="D79:K79"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D250:K250"/>
+    <mergeCell ref="D280:K280"/>
+    <mergeCell ref="D286:K286"/>
+    <mergeCell ref="D296:K296"/>
+    <mergeCell ref="D240:K241"/>
+    <mergeCell ref="D294:K294"/>
+    <mergeCell ref="D292:K292"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -15857,7 +15858,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D295" sqref="D295"/>
+      <selection pane="bottomLeft" activeCell="D292" sqref="D292:K292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -15927,16 +15928,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="152" t="s">
+      <c r="D2" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="154"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="142"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -15958,14 +15959,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="160"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="157"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="151"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -15994,25 +15995,25 @@
         <v>10</v>
       </c>
       <c r="F4" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="J4" s="18" t="s">
         <v>395</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>396</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M4" s="3">
         <v>18</v>
@@ -16054,7 +16055,7 @@
       </c>
       <c r="K5" s="55"/>
       <c r="L5" s="119" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M5" s="3">
         <v>19</v>
@@ -16138,7 +16139,7 @@
       <c r="J7" s="21"/>
       <c r="K7" s="28"/>
       <c r="L7" s="119" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M7" s="3">
         <v>21</v>
@@ -16180,7 +16181,7 @@
         <v>44</v>
       </c>
       <c r="L8" s="119" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M8" s="3">
         <v>22</v>
@@ -16207,7 +16208,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>47</v>
@@ -16219,12 +16220,12 @@
         <v>49</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="28"/>
       <c r="L9" s="119" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M9" s="3">
         <v>23</v>
@@ -16258,13 +16259,13 @@
         <v>53</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K10" s="31" t="s">
         <v>55</v>
       </c>
       <c r="L10" s="119" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M10" s="3">
         <v>25</v>
@@ -16291,7 +16292,7 @@
         <v>56</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>58</v>
@@ -16312,7 +16313,7 @@
         <v>63</v>
       </c>
       <c r="L11" s="119" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M11" s="3">
         <v>26</v>
@@ -16359,7 +16360,7 @@
         <v>70</v>
       </c>
       <c r="L12" s="119" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M12" s="3">
         <v>27</v>
@@ -16405,7 +16406,7 @@
         <v>77</v>
       </c>
       <c r="L13" s="119" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M13" s="3">
         <v>28</v>
@@ -16453,7 +16454,7 @@
         <v>85</v>
       </c>
       <c r="L14" s="119" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M14" s="3">
         <v>29</v>
@@ -16501,7 +16502,7 @@
         <v>93</v>
       </c>
       <c r="L15" s="119" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M15" s="3">
         <v>39</v>
@@ -16549,7 +16550,7 @@
         <v>101</v>
       </c>
       <c r="L16" s="119" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M16" s="3">
         <v>42</v>
@@ -16597,7 +16598,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="121" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M17" s="58">
         <v>55</v>
@@ -16645,7 +16646,7 @@
         <v>116</v>
       </c>
       <c r="L18" s="119" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M18" s="3">
         <v>58</v>
@@ -16685,7 +16686,7 @@
         <v>121</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K19" s="31" t="s">
         <v>123</v>
@@ -16809,7 +16810,7 @@
         <v>143</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J22" s="31" t="s">
         <v>145</v>
@@ -16893,7 +16894,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>160</v>
@@ -16935,7 +16936,7 @@
         <v>167</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="29"/>
@@ -17078,7 +17079,7 @@
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="21"/>
@@ -17089,7 +17090,7 @@
         <v>204</v>
       </c>
       <c r="L29" s="119" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M29" s="3">
         <v>78</v>
@@ -17213,7 +17214,7 @@
         <v>229</v>
       </c>
       <c r="L32" s="119" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M32" s="3">
         <v>87</v>
@@ -17799,7 +17800,7 @@
       <c r="D50" s="46"/>
       <c r="E50" s="38"/>
       <c r="F50" s="38" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G50" s="53"/>
       <c r="H50" s="54"/>
@@ -22214,16 +22215,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="139" t="s">
+      <c r="D178" s="167" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="139"/>
-      <c r="F178" s="139"/>
-      <c r="G178" s="139"/>
-      <c r="H178" s="139"/>
-      <c r="I178" s="139"/>
-      <c r="J178" s="139"/>
-      <c r="K178" s="139"/>
+      <c r="E178" s="167"/>
+      <c r="F178" s="167"/>
+      <c r="G178" s="167"/>
+      <c r="H178" s="167"/>
+      <c r="I178" s="167"/>
+      <c r="J178" s="167"/>
+      <c r="K178" s="167"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -22292,16 +22293,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="143" t="s">
+      <c r="D182" s="138" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="144"/>
-      <c r="F182" s="144"/>
-      <c r="G182" s="144"/>
-      <c r="H182" s="144"/>
-      <c r="I182" s="144"/>
-      <c r="J182" s="144"/>
-      <c r="K182" s="145"/>
+      <c r="E182" s="139"/>
+      <c r="F182" s="139"/>
+      <c r="G182" s="139"/>
+      <c r="H182" s="139"/>
+      <c r="I182" s="139"/>
+      <c r="J182" s="139"/>
+      <c r="K182" s="140"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -22313,16 +22314,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="143" t="s">
+      <c r="D183" s="138" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="144"/>
-      <c r="F183" s="144"/>
-      <c r="G183" s="144"/>
-      <c r="H183" s="144"/>
-      <c r="I183" s="144"/>
-      <c r="J183" s="144"/>
-      <c r="K183" s="145"/>
+      <c r="E183" s="139"/>
+      <c r="F183" s="139"/>
+      <c r="G183" s="139"/>
+      <c r="H183" s="139"/>
+      <c r="I183" s="139"/>
+      <c r="J183" s="139"/>
+      <c r="K183" s="140"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -22334,16 +22335,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="143" t="s">
+      <c r="D184" s="138" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="144"/>
-      <c r="F184" s="144"/>
-      <c r="G184" s="144"/>
-      <c r="H184" s="144"/>
-      <c r="I184" s="144"/>
-      <c r="J184" s="144"/>
-      <c r="K184" s="145"/>
+      <c r="E184" s="139"/>
+      <c r="F184" s="139"/>
+      <c r="G184" s="139"/>
+      <c r="H184" s="139"/>
+      <c r="I184" s="139"/>
+      <c r="J184" s="139"/>
+      <c r="K184" s="140"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -22355,16 +22356,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="143" t="s">
+      <c r="D185" s="138" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="144"/>
-      <c r="F185" s="144"/>
-      <c r="G185" s="144"/>
-      <c r="H185" s="144"/>
-      <c r="I185" s="144"/>
-      <c r="J185" s="144"/>
-      <c r="K185" s="145"/>
+      <c r="E185" s="139"/>
+      <c r="F185" s="139"/>
+      <c r="G185" s="139"/>
+      <c r="H185" s="139"/>
+      <c r="I185" s="139"/>
+      <c r="J185" s="139"/>
+      <c r="K185" s="140"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -22376,16 +22377,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="143" t="s">
+      <c r="D186" s="138" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="144"/>
-      <c r="F186" s="144"/>
-      <c r="G186" s="144"/>
-      <c r="H186" s="144"/>
-      <c r="I186" s="144"/>
-      <c r="J186" s="144"/>
-      <c r="K186" s="145"/>
+      <c r="E186" s="139"/>
+      <c r="F186" s="139"/>
+      <c r="G186" s="139"/>
+      <c r="H186" s="139"/>
+      <c r="I186" s="139"/>
+      <c r="J186" s="139"/>
+      <c r="K186" s="140"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -22397,16 +22398,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="143" t="s">
+      <c r="D187" s="138" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="144"/>
-      <c r="F187" s="144"/>
-      <c r="G187" s="144"/>
-      <c r="H187" s="144"/>
-      <c r="I187" s="144"/>
-      <c r="J187" s="144"/>
-      <c r="K187" s="145"/>
+      <c r="E187" s="139"/>
+      <c r="F187" s="139"/>
+      <c r="G187" s="139"/>
+      <c r="H187" s="139"/>
+      <c r="I187" s="139"/>
+      <c r="J187" s="139"/>
+      <c r="K187" s="140"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -22418,16 +22419,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="143" t="s">
+      <c r="D188" s="138" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="144"/>
-      <c r="F188" s="144"/>
-      <c r="G188" s="144"/>
-      <c r="H188" s="144"/>
-      <c r="I188" s="144"/>
-      <c r="J188" s="144"/>
-      <c r="K188" s="145"/>
+      <c r="E188" s="139"/>
+      <c r="F188" s="139"/>
+      <c r="G188" s="139"/>
+      <c r="H188" s="139"/>
+      <c r="I188" s="139"/>
+      <c r="J188" s="139"/>
+      <c r="K188" s="140"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -22439,16 +22440,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="143" t="s">
+      <c r="D189" s="138" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="144"/>
-      <c r="F189" s="144"/>
-      <c r="G189" s="144"/>
-      <c r="H189" s="144"/>
-      <c r="I189" s="144"/>
-      <c r="J189" s="144"/>
-      <c r="K189" s="145"/>
+      <c r="E189" s="139"/>
+      <c r="F189" s="139"/>
+      <c r="G189" s="139"/>
+      <c r="H189" s="139"/>
+      <c r="I189" s="139"/>
+      <c r="J189" s="139"/>
+      <c r="K189" s="140"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -22460,16 +22461,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="143" t="s">
+      <c r="D190" s="138" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="144"/>
-      <c r="F190" s="144"/>
-      <c r="G190" s="144"/>
-      <c r="H190" s="144"/>
-      <c r="I190" s="144"/>
-      <c r="J190" s="144"/>
-      <c r="K190" s="145"/>
+      <c r="E190" s="139"/>
+      <c r="F190" s="139"/>
+      <c r="G190" s="139"/>
+      <c r="H190" s="139"/>
+      <c r="I190" s="139"/>
+      <c r="J190" s="139"/>
+      <c r="K190" s="140"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -22481,16 +22482,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="143" t="s">
+      <c r="D191" s="138" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="144"/>
-      <c r="F191" s="144"/>
-      <c r="G191" s="144"/>
-      <c r="H191" s="144"/>
-      <c r="I191" s="144"/>
-      <c r="J191" s="144"/>
-      <c r="K191" s="145"/>
+      <c r="E191" s="139"/>
+      <c r="F191" s="139"/>
+      <c r="G191" s="139"/>
+      <c r="H191" s="139"/>
+      <c r="I191" s="139"/>
+      <c r="J191" s="139"/>
+      <c r="K191" s="140"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -22502,16 +22503,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="143" t="s">
+      <c r="D192" s="138" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="144"/>
-      <c r="F192" s="144"/>
-      <c r="G192" s="144"/>
-      <c r="H192" s="144"/>
-      <c r="I192" s="144"/>
-      <c r="J192" s="144"/>
-      <c r="K192" s="145"/>
+      <c r="E192" s="139"/>
+      <c r="F192" s="139"/>
+      <c r="G192" s="139"/>
+      <c r="H192" s="139"/>
+      <c r="I192" s="139"/>
+      <c r="J192" s="139"/>
+      <c r="K192" s="140"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -22523,16 +22524,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="146" t="s">
+      <c r="D193" s="164" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="147"/>
-      <c r="F193" s="147"/>
-      <c r="G193" s="147"/>
-      <c r="H193" s="147"/>
-      <c r="I193" s="147"/>
-      <c r="J193" s="147"/>
-      <c r="K193" s="148"/>
+      <c r="E193" s="165"/>
+      <c r="F193" s="165"/>
+      <c r="G193" s="165"/>
+      <c r="H193" s="165"/>
+      <c r="I193" s="165"/>
+      <c r="J193" s="165"/>
+      <c r="K193" s="166"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -22547,16 +22548,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="149" t="s">
+      <c r="D194" s="154" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="150"/>
-      <c r="F194" s="150"/>
-      <c r="G194" s="150"/>
-      <c r="H194" s="150"/>
-      <c r="I194" s="150"/>
-      <c r="J194" s="150"/>
-      <c r="K194" s="151"/>
+      <c r="E194" s="147"/>
+      <c r="F194" s="147"/>
+      <c r="G194" s="147"/>
+      <c r="H194" s="147"/>
+      <c r="I194" s="147"/>
+      <c r="J194" s="147"/>
+      <c r="K194" s="155"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -22568,16 +22569,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="143" t="s">
+      <c r="D195" s="138" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="144"/>
-      <c r="F195" s="144"/>
-      <c r="G195" s="144"/>
-      <c r="H195" s="144"/>
-      <c r="I195" s="144"/>
-      <c r="J195" s="144"/>
-      <c r="K195" s="145"/>
+      <c r="E195" s="139"/>
+      <c r="F195" s="139"/>
+      <c r="G195" s="139"/>
+      <c r="H195" s="139"/>
+      <c r="I195" s="139"/>
+      <c r="J195" s="139"/>
+      <c r="K195" s="140"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -22589,16 +22590,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="143" t="s">
+      <c r="D196" s="138" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="144"/>
-      <c r="F196" s="144"/>
-      <c r="G196" s="144"/>
-      <c r="H196" s="144"/>
-      <c r="I196" s="144"/>
-      <c r="J196" s="144"/>
-      <c r="K196" s="145"/>
+      <c r="E196" s="139"/>
+      <c r="F196" s="139"/>
+      <c r="G196" s="139"/>
+      <c r="H196" s="139"/>
+      <c r="I196" s="139"/>
+      <c r="J196" s="139"/>
+      <c r="K196" s="140"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -22610,16 +22611,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="143" t="s">
+      <c r="D197" s="138" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="144"/>
-      <c r="F197" s="144"/>
-      <c r="G197" s="144"/>
-      <c r="H197" s="144"/>
-      <c r="I197" s="144"/>
-      <c r="J197" s="144"/>
-      <c r="K197" s="145"/>
+      <c r="E197" s="139"/>
+      <c r="F197" s="139"/>
+      <c r="G197" s="139"/>
+      <c r="H197" s="139"/>
+      <c r="I197" s="139"/>
+      <c r="J197" s="139"/>
+      <c r="K197" s="140"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -22631,16 +22632,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="143" t="s">
+      <c r="D198" s="138" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="144"/>
-      <c r="F198" s="144"/>
-      <c r="G198" s="144"/>
-      <c r="H198" s="144"/>
-      <c r="I198" s="144"/>
-      <c r="J198" s="144"/>
-      <c r="K198" s="145"/>
+      <c r="E198" s="139"/>
+      <c r="F198" s="139"/>
+      <c r="G198" s="139"/>
+      <c r="H198" s="139"/>
+      <c r="I198" s="139"/>
+      <c r="J198" s="139"/>
+      <c r="K198" s="140"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -22671,16 +22672,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="143" t="s">
+      <c r="D200" s="138" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="144"/>
-      <c r="F200" s="144"/>
-      <c r="G200" s="144"/>
-      <c r="H200" s="144"/>
-      <c r="I200" s="144"/>
-      <c r="J200" s="144"/>
-      <c r="K200" s="145"/>
+      <c r="E200" s="139"/>
+      <c r="F200" s="139"/>
+      <c r="G200" s="139"/>
+      <c r="H200" s="139"/>
+      <c r="I200" s="139"/>
+      <c r="J200" s="139"/>
+      <c r="K200" s="140"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -22711,16 +22712,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="168" t="s">
+      <c r="D202" s="161" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="169"/>
-      <c r="F202" s="169"/>
-      <c r="G202" s="169"/>
-      <c r="H202" s="169"/>
-      <c r="I202" s="169"/>
-      <c r="J202" s="169"/>
-      <c r="K202" s="170"/>
+      <c r="E202" s="162"/>
+      <c r="F202" s="162"/>
+      <c r="G202" s="162"/>
+      <c r="H202" s="162"/>
+      <c r="I202" s="162"/>
+      <c r="J202" s="162"/>
+      <c r="K202" s="163"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -22751,16 +22752,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="143" t="s">
+      <c r="D204" s="138" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="144"/>
-      <c r="F204" s="144"/>
-      <c r="G204" s="144"/>
-      <c r="H204" s="144"/>
-      <c r="I204" s="144"/>
-      <c r="J204" s="144"/>
-      <c r="K204" s="145"/>
+      <c r="E204" s="139"/>
+      <c r="F204" s="139"/>
+      <c r="G204" s="139"/>
+      <c r="H204" s="139"/>
+      <c r="I204" s="139"/>
+      <c r="J204" s="139"/>
+      <c r="K204" s="140"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -22791,16 +22792,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="143" t="s">
+      <c r="D206" s="138" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="144"/>
-      <c r="F206" s="144"/>
-      <c r="G206" s="144"/>
-      <c r="H206" s="144"/>
-      <c r="I206" s="144"/>
-      <c r="J206" s="144"/>
-      <c r="K206" s="145"/>
+      <c r="E206" s="139"/>
+      <c r="F206" s="139"/>
+      <c r="G206" s="139"/>
+      <c r="H206" s="139"/>
+      <c r="I206" s="139"/>
+      <c r="J206" s="139"/>
+      <c r="K206" s="140"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -22831,16 +22832,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="143" t="s">
+      <c r="D208" s="138" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="144"/>
-      <c r="F208" s="144"/>
-      <c r="G208" s="144"/>
-      <c r="H208" s="144"/>
-      <c r="I208" s="144"/>
-      <c r="J208" s="144"/>
-      <c r="K208" s="145"/>
+      <c r="E208" s="139"/>
+      <c r="F208" s="139"/>
+      <c r="G208" s="139"/>
+      <c r="H208" s="139"/>
+      <c r="I208" s="139"/>
+      <c r="J208" s="139"/>
+      <c r="K208" s="140"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -22874,16 +22875,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="149" t="s">
+      <c r="D210" s="154" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="150"/>
-      <c r="F210" s="150"/>
-      <c r="G210" s="150"/>
-      <c r="H210" s="150"/>
-      <c r="I210" s="150"/>
-      <c r="J210" s="150"/>
-      <c r="K210" s="151"/>
+      <c r="E210" s="147"/>
+      <c r="F210" s="147"/>
+      <c r="G210" s="147"/>
+      <c r="H210" s="147"/>
+      <c r="I210" s="147"/>
+      <c r="J210" s="147"/>
+      <c r="K210" s="155"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -22952,16 +22953,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="143" t="s">
+      <c r="D214" s="138" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="144"/>
-      <c r="F214" s="144"/>
-      <c r="G214" s="144"/>
-      <c r="H214" s="144"/>
-      <c r="I214" s="144"/>
-      <c r="J214" s="144"/>
-      <c r="K214" s="145"/>
+      <c r="E214" s="139"/>
+      <c r="F214" s="139"/>
+      <c r="G214" s="139"/>
+      <c r="H214" s="139"/>
+      <c r="I214" s="139"/>
+      <c r="J214" s="139"/>
+      <c r="K214" s="140"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -22992,16 +22993,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="158" t="s">
+      <c r="D216" s="152" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="153"/>
-      <c r="F216" s="153"/>
-      <c r="G216" s="153"/>
-      <c r="H216" s="153"/>
-      <c r="I216" s="153"/>
-      <c r="J216" s="153"/>
-      <c r="K216" s="159"/>
+      <c r="E216" s="141"/>
+      <c r="F216" s="141"/>
+      <c r="G216" s="141"/>
+      <c r="H216" s="141"/>
+      <c r="I216" s="141"/>
+      <c r="J216" s="141"/>
+      <c r="K216" s="153"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -23013,14 +23014,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="149"/>
-      <c r="E217" s="150"/>
-      <c r="F217" s="150"/>
-      <c r="G217" s="150"/>
-      <c r="H217" s="150"/>
-      <c r="I217" s="150"/>
-      <c r="J217" s="150"/>
-      <c r="K217" s="151"/>
+      <c r="D217" s="154"/>
+      <c r="E217" s="147"/>
+      <c r="F217" s="147"/>
+      <c r="G217" s="147"/>
+      <c r="H217" s="147"/>
+      <c r="I217" s="147"/>
+      <c r="J217" s="147"/>
+      <c r="K217" s="155"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -23032,16 +23033,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="158" t="s">
+      <c r="D218" s="152" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="153"/>
-      <c r="F218" s="153"/>
-      <c r="G218" s="153"/>
-      <c r="H218" s="153"/>
-      <c r="I218" s="153"/>
-      <c r="J218" s="153"/>
-      <c r="K218" s="159"/>
+      <c r="E218" s="141"/>
+      <c r="F218" s="141"/>
+      <c r="G218" s="141"/>
+      <c r="H218" s="141"/>
+      <c r="I218" s="141"/>
+      <c r="J218" s="141"/>
+      <c r="K218" s="153"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -23053,14 +23054,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="149"/>
-      <c r="E219" s="150"/>
-      <c r="F219" s="150"/>
-      <c r="G219" s="150"/>
-      <c r="H219" s="150"/>
-      <c r="I219" s="150"/>
-      <c r="J219" s="150"/>
-      <c r="K219" s="151"/>
+      <c r="D219" s="154"/>
+      <c r="E219" s="147"/>
+      <c r="F219" s="147"/>
+      <c r="G219" s="147"/>
+      <c r="H219" s="147"/>
+      <c r="I219" s="147"/>
+      <c r="J219" s="147"/>
+      <c r="K219" s="155"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -23072,16 +23073,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="158" t="s">
+      <c r="D220" s="152" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="153"/>
-      <c r="F220" s="153"/>
-      <c r="G220" s="153"/>
-      <c r="H220" s="153"/>
-      <c r="I220" s="153"/>
-      <c r="J220" s="153"/>
-      <c r="K220" s="159"/>
+      <c r="E220" s="141"/>
+      <c r="F220" s="141"/>
+      <c r="G220" s="141"/>
+      <c r="H220" s="141"/>
+      <c r="I220" s="141"/>
+      <c r="J220" s="141"/>
+      <c r="K220" s="153"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -23093,14 +23094,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="149"/>
-      <c r="E221" s="150"/>
-      <c r="F221" s="150"/>
-      <c r="G221" s="150"/>
-      <c r="H221" s="150"/>
-      <c r="I221" s="150"/>
-      <c r="J221" s="150"/>
-      <c r="K221" s="151"/>
+      <c r="D221" s="154"/>
+      <c r="E221" s="147"/>
+      <c r="F221" s="147"/>
+      <c r="G221" s="147"/>
+      <c r="H221" s="147"/>
+      <c r="I221" s="147"/>
+      <c r="J221" s="147"/>
+      <c r="K221" s="155"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -23112,16 +23113,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="143" t="s">
+      <c r="D222" s="138" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="144"/>
-      <c r="F222" s="144"/>
-      <c r="G222" s="144"/>
-      <c r="H222" s="144"/>
-      <c r="I222" s="144"/>
-      <c r="J222" s="144"/>
-      <c r="K222" s="145"/>
+      <c r="E222" s="139"/>
+      <c r="F222" s="139"/>
+      <c r="G222" s="139"/>
+      <c r="H222" s="139"/>
+      <c r="I222" s="139"/>
+      <c r="J222" s="139"/>
+      <c r="K222" s="140"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -23152,16 +23153,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="143" t="s">
+      <c r="D224" s="138" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="144"/>
-      <c r="F224" s="144"/>
-      <c r="G224" s="144"/>
-      <c r="H224" s="144"/>
-      <c r="I224" s="144"/>
-      <c r="J224" s="144"/>
-      <c r="K224" s="145"/>
+      <c r="E224" s="139"/>
+      <c r="F224" s="139"/>
+      <c r="G224" s="139"/>
+      <c r="H224" s="139"/>
+      <c r="I224" s="139"/>
+      <c r="J224" s="139"/>
+      <c r="K224" s="140"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -23195,16 +23196,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="165" t="s">
+      <c r="D226" s="158" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="166"/>
-      <c r="F226" s="166"/>
-      <c r="G226" s="166"/>
-      <c r="H226" s="166"/>
-      <c r="I226" s="166"/>
-      <c r="J226" s="166"/>
-      <c r="K226" s="167"/>
+      <c r="E226" s="159"/>
+      <c r="F226" s="159"/>
+      <c r="G226" s="159"/>
+      <c r="H226" s="159"/>
+      <c r="I226" s="159"/>
+      <c r="J226" s="159"/>
+      <c r="K226" s="160"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -23349,16 +23350,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="162" t="s">
+      <c r="D234" s="156" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="163"/>
-      <c r="F234" s="163"/>
-      <c r="G234" s="163"/>
-      <c r="H234" s="163"/>
-      <c r="I234" s="163"/>
-      <c r="J234" s="163"/>
-      <c r="K234" s="164"/>
+      <c r="E234" s="136"/>
+      <c r="F234" s="136"/>
+      <c r="G234" s="136"/>
+      <c r="H234" s="136"/>
+      <c r="I234" s="136"/>
+      <c r="J234" s="136"/>
+      <c r="K234" s="157"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -23427,16 +23428,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="152" t="s">
+      <c r="D238" s="145" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="153"/>
-      <c r="F238" s="153"/>
-      <c r="G238" s="153"/>
-      <c r="H238" s="153"/>
-      <c r="I238" s="153"/>
-      <c r="J238" s="153"/>
-      <c r="K238" s="154"/>
+      <c r="E238" s="141"/>
+      <c r="F238" s="141"/>
+      <c r="G238" s="141"/>
+      <c r="H238" s="141"/>
+      <c r="I238" s="141"/>
+      <c r="J238" s="141"/>
+      <c r="K238" s="142"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -23448,14 +23449,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="160"/>
-      <c r="E239" s="150"/>
-      <c r="F239" s="150"/>
-      <c r="G239" s="150"/>
-      <c r="H239" s="150"/>
-      <c r="I239" s="150"/>
-      <c r="J239" s="150"/>
-      <c r="K239" s="161"/>
+      <c r="D239" s="146"/>
+      <c r="E239" s="147"/>
+      <c r="F239" s="147"/>
+      <c r="G239" s="147"/>
+      <c r="H239" s="147"/>
+      <c r="I239" s="147"/>
+      <c r="J239" s="147"/>
+      <c r="K239" s="148"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -23467,16 +23468,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="153" t="s">
+      <c r="D240" s="141" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="153"/>
-      <c r="F240" s="153"/>
-      <c r="G240" s="153"/>
-      <c r="H240" s="153"/>
-      <c r="I240" s="153"/>
-      <c r="J240" s="153"/>
-      <c r="K240" s="154"/>
+      <c r="E240" s="141"/>
+      <c r="F240" s="141"/>
+      <c r="G240" s="141"/>
+      <c r="H240" s="141"/>
+      <c r="I240" s="141"/>
+      <c r="J240" s="141"/>
+      <c r="K240" s="142"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -23488,14 +23489,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="173"/>
-      <c r="E241" s="173"/>
-      <c r="F241" s="173"/>
-      <c r="G241" s="173"/>
-      <c r="H241" s="173"/>
-      <c r="I241" s="173"/>
-      <c r="J241" s="173"/>
-      <c r="K241" s="174"/>
+      <c r="D241" s="143"/>
+      <c r="E241" s="143"/>
+      <c r="F241" s="143"/>
+      <c r="G241" s="143"/>
+      <c r="H241" s="143"/>
+      <c r="I241" s="143"/>
+      <c r="J241" s="143"/>
+      <c r="K241" s="144"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -23686,16 +23687,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="171" t="s">
+      <c r="D250" s="135" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="163"/>
-      <c r="F250" s="163"/>
-      <c r="G250" s="163"/>
-      <c r="H250" s="163"/>
-      <c r="I250" s="163"/>
-      <c r="J250" s="163"/>
-      <c r="K250" s="172"/>
+      <c r="E250" s="136"/>
+      <c r="F250" s="136"/>
+      <c r="G250" s="136"/>
+      <c r="H250" s="136"/>
+      <c r="I250" s="136"/>
+      <c r="J250" s="136"/>
+      <c r="K250" s="137"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -24264,16 +24265,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="143" t="s">
+      <c r="D280" s="138" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="144"/>
-      <c r="F280" s="144"/>
-      <c r="G280" s="144"/>
-      <c r="H280" s="144"/>
-      <c r="I280" s="144"/>
-      <c r="J280" s="144"/>
-      <c r="K280" s="145"/>
+      <c r="E280" s="139"/>
+      <c r="F280" s="139"/>
+      <c r="G280" s="139"/>
+      <c r="H280" s="139"/>
+      <c r="I280" s="139"/>
+      <c r="J280" s="139"/>
+      <c r="K280" s="140"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -24380,16 +24381,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="143" t="s">
+      <c r="D286" s="138" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="144"/>
-      <c r="F286" s="144"/>
-      <c r="G286" s="144"/>
-      <c r="H286" s="144"/>
-      <c r="I286" s="144"/>
-      <c r="J286" s="144"/>
-      <c r="K286" s="145"/>
+      <c r="E286" s="139"/>
+      <c r="F286" s="139"/>
+      <c r="G286" s="139"/>
+      <c r="H286" s="139"/>
+      <c r="I286" s="139"/>
+      <c r="J286" s="139"/>
+      <c r="K286" s="140"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -24499,16 +24500,16 @@
         <v>B22</v>
       </c>
       <c r="C292" s="13"/>
-      <c r="D292" s="48"/>
-      <c r="E292" s="12"/>
-      <c r="F292" s="12"/>
-      <c r="G292" s="22"/>
-      <c r="H292" s="49"/>
-      <c r="I292" s="12"/>
-      <c r="J292" s="12"/>
-      <c r="K292" s="78" t="s">
-        <v>385</v>
-      </c>
+      <c r="D292" s="138" t="s">
+        <v>447</v>
+      </c>
+      <c r="E292" s="139"/>
+      <c r="F292" s="139"/>
+      <c r="G292" s="139"/>
+      <c r="H292" s="139"/>
+      <c r="I292" s="139"/>
+      <c r="J292" s="139"/>
+      <c r="K292" s="140"/>
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="12">
@@ -24539,16 +24540,16 @@
         <v>B24</v>
       </c>
       <c r="C294" s="13"/>
-      <c r="D294" s="143" t="s">
-        <v>443</v>
-      </c>
-      <c r="E294" s="144"/>
-      <c r="F294" s="144"/>
-      <c r="G294" s="144"/>
-      <c r="H294" s="144"/>
-      <c r="I294" s="144"/>
-      <c r="J294" s="144"/>
-      <c r="K294" s="145"/>
+      <c r="D294" s="138" t="s">
+        <v>442</v>
+      </c>
+      <c r="E294" s="139"/>
+      <c r="F294" s="139"/>
+      <c r="G294" s="139"/>
+      <c r="H294" s="139"/>
+      <c r="I294" s="139"/>
+      <c r="J294" s="139"/>
+      <c r="K294" s="140"/>
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="12">
@@ -24579,16 +24580,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="143" t="s">
-        <v>444</v>
-      </c>
-      <c r="E296" s="144"/>
-      <c r="F296" s="144"/>
-      <c r="G296" s="144"/>
-      <c r="H296" s="144"/>
-      <c r="I296" s="144"/>
-      <c r="J296" s="144"/>
-      <c r="K296" s="145"/>
+      <c r="D296" s="138" t="s">
+        <v>443</v>
+      </c>
+      <c r="E296" s="139"/>
+      <c r="F296" s="139"/>
+      <c r="G296" s="139"/>
+      <c r="H296" s="139"/>
+      <c r="I296" s="139"/>
+      <c r="J296" s="139"/>
+      <c r="K296" s="140"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -24619,16 +24620,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="152" t="s">
-        <v>386</v>
-      </c>
-      <c r="E298" s="153"/>
-      <c r="F298" s="153"/>
-      <c r="G298" s="153"/>
-      <c r="H298" s="153"/>
-      <c r="I298" s="153"/>
-      <c r="J298" s="153"/>
-      <c r="K298" s="154"/>
+      <c r="D298" s="145" t="s">
+        <v>385</v>
+      </c>
+      <c r="E298" s="141"/>
+      <c r="F298" s="141"/>
+      <c r="G298" s="141"/>
+      <c r="H298" s="141"/>
+      <c r="I298" s="141"/>
+      <c r="J298" s="141"/>
+      <c r="K298" s="142"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -24640,14 +24641,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="160"/>
-      <c r="E299" s="150"/>
-      <c r="F299" s="150"/>
-      <c r="G299" s="150"/>
-      <c r="H299" s="150"/>
-      <c r="I299" s="150"/>
-      <c r="J299" s="150"/>
-      <c r="K299" s="161"/>
+      <c r="D299" s="146"/>
+      <c r="E299" s="147"/>
+      <c r="F299" s="147"/>
+      <c r="G299" s="147"/>
+      <c r="H299" s="147"/>
+      <c r="I299" s="147"/>
+      <c r="J299" s="147"/>
+      <c r="K299" s="148"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -24659,16 +24660,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="152" t="s">
-        <v>387</v>
-      </c>
-      <c r="E300" s="153"/>
-      <c r="F300" s="153"/>
-      <c r="G300" s="153"/>
-      <c r="H300" s="153"/>
-      <c r="I300" s="153"/>
-      <c r="J300" s="153"/>
-      <c r="K300" s="154"/>
+      <c r="D300" s="145" t="s">
+        <v>386</v>
+      </c>
+      <c r="E300" s="141"/>
+      <c r="F300" s="141"/>
+      <c r="G300" s="141"/>
+      <c r="H300" s="141"/>
+      <c r="I300" s="141"/>
+      <c r="J300" s="141"/>
+      <c r="K300" s="142"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -24680,14 +24681,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="160"/>
-      <c r="E301" s="150"/>
-      <c r="F301" s="150"/>
-      <c r="G301" s="150"/>
-      <c r="H301" s="150"/>
-      <c r="I301" s="150"/>
-      <c r="J301" s="150"/>
-      <c r="K301" s="161"/>
+      <c r="D301" s="146"/>
+      <c r="E301" s="147"/>
+      <c r="F301" s="147"/>
+      <c r="G301" s="147"/>
+      <c r="H301" s="147"/>
+      <c r="I301" s="147"/>
+      <c r="J301" s="147"/>
+      <c r="K301" s="148"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -24699,16 +24700,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="152" t="s">
-        <v>388</v>
-      </c>
-      <c r="E302" s="153"/>
-      <c r="F302" s="153"/>
-      <c r="G302" s="153"/>
-      <c r="H302" s="153"/>
-      <c r="I302" s="153"/>
-      <c r="J302" s="153"/>
-      <c r="K302" s="154"/>
+      <c r="D302" s="145" t="s">
+        <v>387</v>
+      </c>
+      <c r="E302" s="141"/>
+      <c r="F302" s="141"/>
+      <c r="G302" s="141"/>
+      <c r="H302" s="141"/>
+      <c r="I302" s="141"/>
+      <c r="J302" s="141"/>
+      <c r="K302" s="142"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -24720,14 +24721,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="160"/>
-      <c r="E303" s="150"/>
-      <c r="F303" s="150"/>
-      <c r="G303" s="150"/>
-      <c r="H303" s="150"/>
-      <c r="I303" s="150"/>
-      <c r="J303" s="150"/>
-      <c r="K303" s="161"/>
+      <c r="D303" s="146"/>
+      <c r="E303" s="147"/>
+      <c r="F303" s="147"/>
+      <c r="G303" s="147"/>
+      <c r="H303" s="147"/>
+      <c r="I303" s="147"/>
+      <c r="J303" s="147"/>
+      <c r="K303" s="148"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -24739,16 +24740,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="152" t="s">
-        <v>389</v>
-      </c>
-      <c r="E304" s="153"/>
-      <c r="F304" s="153"/>
-      <c r="G304" s="153"/>
-      <c r="H304" s="153"/>
-      <c r="I304" s="153"/>
-      <c r="J304" s="153"/>
-      <c r="K304" s="154"/>
+      <c r="D304" s="145" t="s">
+        <v>388</v>
+      </c>
+      <c r="E304" s="141"/>
+      <c r="F304" s="141"/>
+      <c r="G304" s="141"/>
+      <c r="H304" s="141"/>
+      <c r="I304" s="141"/>
+      <c r="J304" s="141"/>
+      <c r="K304" s="142"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -24760,14 +24761,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="160"/>
-      <c r="E305" s="150"/>
-      <c r="F305" s="150"/>
-      <c r="G305" s="150"/>
-      <c r="H305" s="150"/>
-      <c r="I305" s="150"/>
-      <c r="J305" s="150"/>
-      <c r="K305" s="161"/>
+      <c r="D305" s="146"/>
+      <c r="E305" s="147"/>
+      <c r="F305" s="147"/>
+      <c r="G305" s="147"/>
+      <c r="H305" s="147"/>
+      <c r="I305" s="147"/>
+      <c r="J305" s="147"/>
+      <c r="K305" s="148"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -24782,16 +24783,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="152" t="s">
-        <v>390</v>
-      </c>
-      <c r="E306" s="153"/>
-      <c r="F306" s="153"/>
-      <c r="G306" s="153"/>
-      <c r="H306" s="153"/>
-      <c r="I306" s="153"/>
-      <c r="J306" s="153"/>
-      <c r="K306" s="154"/>
+      <c r="D306" s="145" t="s">
+        <v>389</v>
+      </c>
+      <c r="E306" s="141"/>
+      <c r="F306" s="141"/>
+      <c r="G306" s="141"/>
+      <c r="H306" s="141"/>
+      <c r="I306" s="141"/>
+      <c r="J306" s="141"/>
+      <c r="K306" s="142"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -24803,14 +24804,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="160"/>
-      <c r="E307" s="150"/>
-      <c r="F307" s="150"/>
-      <c r="G307" s="150"/>
-      <c r="H307" s="150"/>
-      <c r="I307" s="150"/>
-      <c r="J307" s="150"/>
-      <c r="K307" s="161"/>
+      <c r="D307" s="146"/>
+      <c r="E307" s="147"/>
+      <c r="F307" s="147"/>
+      <c r="G307" s="147"/>
+      <c r="H307" s="147"/>
+      <c r="I307" s="147"/>
+      <c r="J307" s="147"/>
+      <c r="K307" s="148"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -24822,16 +24823,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="152" t="s">
-        <v>391</v>
-      </c>
-      <c r="E308" s="153"/>
-      <c r="F308" s="153"/>
-      <c r="G308" s="153"/>
-      <c r="H308" s="153"/>
-      <c r="I308" s="153"/>
-      <c r="J308" s="153"/>
-      <c r="K308" s="154"/>
+      <c r="D308" s="145" t="s">
+        <v>390</v>
+      </c>
+      <c r="E308" s="141"/>
+      <c r="F308" s="141"/>
+      <c r="G308" s="141"/>
+      <c r="H308" s="141"/>
+      <c r="I308" s="141"/>
+      <c r="J308" s="141"/>
+      <c r="K308" s="142"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -24843,14 +24844,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="160"/>
-      <c r="E309" s="150"/>
-      <c r="F309" s="150"/>
-      <c r="G309" s="150"/>
-      <c r="H309" s="150"/>
-      <c r="I309" s="150"/>
-      <c r="J309" s="150"/>
-      <c r="K309" s="161"/>
+      <c r="D309" s="146"/>
+      <c r="E309" s="147"/>
+      <c r="F309" s="147"/>
+      <c r="G309" s="147"/>
+      <c r="H309" s="147"/>
+      <c r="I309" s="147"/>
+      <c r="J309" s="147"/>
+      <c r="K309" s="148"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -28729,14 +28730,31 @@
       <c r="K513" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="D294:K294"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
+  <mergeCells count="47">
+    <mergeCell ref="D292:K292"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="D214:K214"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="D202:K202"/>
     <mergeCell ref="D280:K280"/>
     <mergeCell ref="D286:K286"/>
     <mergeCell ref="D296:K296"/>
@@ -28753,29 +28771,13 @@
     <mergeCell ref="D250:K250"/>
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="D214:K214"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D200:K200"/>
-    <mergeCell ref="D202:K202"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D294:K294"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape"/>

--- a/data/Switches.xlsx
+++ b/data/Switches.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bravo Properties\Documents\Gaming\Illusion of Gaia Randomizer\IoGR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3BFF05-928F-490C-BDB5-BEE0B9B2A502}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AAB713-1562-484C-A0A9-E99B59712094}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8910" yWindow="3915" windowWidth="13635" windowHeight="10455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Switches_New" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="453">
   <si>
     <t>ID</t>
   </si>
@@ -1375,6 +1378,21 @@
   </si>
   <si>
     <t>HP to fill</t>
+  </si>
+  <si>
+    <t>Castoth defeated</t>
+  </si>
+  <si>
+    <t>Viper defeated</t>
+  </si>
+  <si>
+    <t>Vampires defeated</t>
+  </si>
+  <si>
+    <t>Fanger defeated</t>
+  </si>
+  <si>
+    <t>Mummy Queen defeated</t>
   </si>
 </sst>
 </file>
@@ -2554,13 +2572,34 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2572,28 +2611,31 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2611,13 +2653,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2641,43 +2686,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3027,8 +3045,8 @@
   <dimension ref="A1:O513"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B294" sqref="A294:XFD294"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3101,16 +3119,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="145" t="s">
+      <c r="D2" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="142"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="156"/>
       <c r="L2" s="119" t="s">
         <v>7</v>
       </c>
@@ -3128,14 +3146,14 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="151"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="159"/>
       <c r="L3" s="119" t="s">
         <v>8</v>
       </c>
@@ -5660,16 +5678,16 @@
         <v>A49</v>
       </c>
       <c r="C75" s="13"/>
-      <c r="D75" s="168" t="s">
+      <c r="D75" s="135" t="s">
         <v>435</v>
       </c>
-      <c r="E75" s="169"/>
-      <c r="F75" s="169"/>
-      <c r="G75" s="169"/>
-      <c r="H75" s="169"/>
-      <c r="I75" s="169"/>
-      <c r="J75" s="169"/>
-      <c r="K75" s="170"/>
+      <c r="E75" s="136"/>
+      <c r="F75" s="136"/>
+      <c r="G75" s="136"/>
+      <c r="H75" s="136"/>
+      <c r="I75" s="136"/>
+      <c r="J75" s="136"/>
+      <c r="K75" s="137"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="12">
@@ -5681,16 +5699,16 @@
         <v>A4A</v>
       </c>
       <c r="C76" s="13"/>
-      <c r="D76" s="168" t="s">
+      <c r="D76" s="135" t="s">
         <v>436</v>
       </c>
-      <c r="E76" s="169"/>
-      <c r="F76" s="169"/>
-      <c r="G76" s="169"/>
-      <c r="H76" s="169"/>
-      <c r="I76" s="169"/>
-      <c r="J76" s="169"/>
-      <c r="K76" s="170"/>
+      <c r="E76" s="136"/>
+      <c r="F76" s="136"/>
+      <c r="G76" s="136"/>
+      <c r="H76" s="136"/>
+      <c r="I76" s="136"/>
+      <c r="J76" s="136"/>
+      <c r="K76" s="137"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="12">
@@ -5702,16 +5720,16 @@
         <v>A4B</v>
       </c>
       <c r="C77" s="13"/>
-      <c r="D77" s="168" t="s">
+      <c r="D77" s="135" t="s">
         <v>437</v>
       </c>
-      <c r="E77" s="169"/>
-      <c r="F77" s="169"/>
-      <c r="G77" s="169"/>
-      <c r="H77" s="169"/>
-      <c r="I77" s="169"/>
-      <c r="J77" s="169"/>
-      <c r="K77" s="170"/>
+      <c r="E77" s="136"/>
+      <c r="F77" s="136"/>
+      <c r="G77" s="136"/>
+      <c r="H77" s="136"/>
+      <c r="I77" s="136"/>
+      <c r="J77" s="136"/>
+      <c r="K77" s="137"/>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="12">
@@ -5723,16 +5741,16 @@
         <v>A4C</v>
       </c>
       <c r="C78" s="13"/>
-      <c r="D78" s="168" t="s">
+      <c r="D78" s="135" t="s">
         <v>438</v>
       </c>
-      <c r="E78" s="169"/>
-      <c r="F78" s="169"/>
-      <c r="G78" s="169"/>
-      <c r="H78" s="169"/>
-      <c r="I78" s="169"/>
-      <c r="J78" s="169"/>
-      <c r="K78" s="170"/>
+      <c r="E78" s="136"/>
+      <c r="F78" s="136"/>
+      <c r="G78" s="136"/>
+      <c r="H78" s="136"/>
+      <c r="I78" s="136"/>
+      <c r="J78" s="136"/>
+      <c r="K78" s="137"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="12">
@@ -5744,16 +5762,16 @@
         <v>A4D</v>
       </c>
       <c r="C79" s="13"/>
-      <c r="D79" s="168" t="s">
+      <c r="D79" s="135" t="s">
         <v>439</v>
       </c>
-      <c r="E79" s="169"/>
-      <c r="F79" s="169"/>
-      <c r="G79" s="169"/>
-      <c r="H79" s="169"/>
-      <c r="I79" s="169"/>
-      <c r="J79" s="169"/>
-      <c r="K79" s="170"/>
+      <c r="E79" s="136"/>
+      <c r="F79" s="136"/>
+      <c r="G79" s="136"/>
+      <c r="H79" s="136"/>
+      <c r="I79" s="136"/>
+      <c r="J79" s="136"/>
+      <c r="K79" s="137"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="12">
@@ -5765,16 +5783,16 @@
         <v>A4E</v>
       </c>
       <c r="C80" s="13"/>
-      <c r="D80" s="168" t="s">
+      <c r="D80" s="135" t="s">
         <v>440</v>
       </c>
-      <c r="E80" s="169"/>
-      <c r="F80" s="169"/>
-      <c r="G80" s="169"/>
-      <c r="H80" s="169"/>
-      <c r="I80" s="169"/>
-      <c r="J80" s="169"/>
-      <c r="K80" s="170"/>
+      <c r="E80" s="136"/>
+      <c r="F80" s="136"/>
+      <c r="G80" s="136"/>
+      <c r="H80" s="136"/>
+      <c r="I80" s="136"/>
+      <c r="J80" s="136"/>
+      <c r="K80" s="137"/>
     </row>
     <row r="81" spans="1:14" s="1" customFormat="1">
       <c r="A81" s="32">
@@ -5786,16 +5804,16 @@
         <v>A4F</v>
       </c>
       <c r="C81" s="33"/>
-      <c r="D81" s="171" t="s">
+      <c r="D81" s="138" t="s">
         <v>441</v>
       </c>
-      <c r="E81" s="172"/>
-      <c r="F81" s="172"/>
-      <c r="G81" s="172"/>
-      <c r="H81" s="172"/>
-      <c r="I81" s="172"/>
-      <c r="J81" s="172"/>
-      <c r="K81" s="173"/>
+      <c r="E81" s="139"/>
+      <c r="F81" s="139"/>
+      <c r="G81" s="139"/>
+      <c r="H81" s="139"/>
+      <c r="I81" s="139"/>
+      <c r="J81" s="139"/>
+      <c r="K81" s="140"/>
       <c r="L81" s="57"/>
       <c r="M81" s="58"/>
       <c r="N81" s="58"/>
@@ -5990,16 +6008,16 @@
         <v>A58</v>
       </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="168" t="s">
+      <c r="D90" s="135" t="s">
         <v>430</v>
       </c>
-      <c r="E90" s="169"/>
-      <c r="F90" s="169"/>
-      <c r="G90" s="169"/>
-      <c r="H90" s="169"/>
-      <c r="I90" s="169"/>
-      <c r="J90" s="169"/>
-      <c r="K90" s="170"/>
+      <c r="E90" s="136"/>
+      <c r="F90" s="136"/>
+      <c r="G90" s="136"/>
+      <c r="H90" s="136"/>
+      <c r="I90" s="136"/>
+      <c r="J90" s="136"/>
+      <c r="K90" s="137"/>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="12">
@@ -6011,16 +6029,16 @@
         <v>A59</v>
       </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="168" t="s">
+      <c r="D91" s="135" t="s">
         <v>431</v>
       </c>
-      <c r="E91" s="169"/>
-      <c r="F91" s="169"/>
-      <c r="G91" s="169"/>
-      <c r="H91" s="169"/>
-      <c r="I91" s="169"/>
-      <c r="J91" s="169"/>
-      <c r="K91" s="170"/>
+      <c r="E91" s="136"/>
+      <c r="F91" s="136"/>
+      <c r="G91" s="136"/>
+      <c r="H91" s="136"/>
+      <c r="I91" s="136"/>
+      <c r="J91" s="136"/>
+      <c r="K91" s="137"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="12">
@@ -6032,16 +6050,16 @@
         <v>A5A</v>
       </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="168" t="s">
+      <c r="D92" s="135" t="s">
         <v>432</v>
       </c>
-      <c r="E92" s="169"/>
-      <c r="F92" s="169"/>
-      <c r="G92" s="169"/>
-      <c r="H92" s="169"/>
-      <c r="I92" s="169"/>
-      <c r="J92" s="169"/>
-      <c r="K92" s="170"/>
+      <c r="E92" s="136"/>
+      <c r="F92" s="136"/>
+      <c r="G92" s="136"/>
+      <c r="H92" s="136"/>
+      <c r="I92" s="136"/>
+      <c r="J92" s="136"/>
+      <c r="K92" s="137"/>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="12">
@@ -6053,16 +6071,16 @@
         <v>A5B</v>
       </c>
       <c r="C93" s="13"/>
-      <c r="D93" s="174" t="s">
+      <c r="D93" s="142" t="s">
         <v>433</v>
       </c>
-      <c r="E93" s="175"/>
-      <c r="F93" s="175"/>
-      <c r="G93" s="175"/>
-      <c r="H93" s="175"/>
-      <c r="I93" s="175"/>
-      <c r="J93" s="175"/>
-      <c r="K93" s="176"/>
+      <c r="E93" s="143"/>
+      <c r="F93" s="143"/>
+      <c r="G93" s="143"/>
+      <c r="H93" s="143"/>
+      <c r="I93" s="143"/>
+      <c r="J93" s="143"/>
+      <c r="K93" s="144"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="12">
@@ -6074,16 +6092,16 @@
         <v>A5C</v>
       </c>
       <c r="C94" s="13"/>
-      <c r="D94" s="174" t="s">
+      <c r="D94" s="142" t="s">
         <v>434</v>
       </c>
-      <c r="E94" s="175"/>
-      <c r="F94" s="175"/>
-      <c r="G94" s="175"/>
-      <c r="H94" s="175"/>
-      <c r="I94" s="175"/>
-      <c r="J94" s="175"/>
-      <c r="K94" s="176"/>
+      <c r="E94" s="143"/>
+      <c r="F94" s="143"/>
+      <c r="G94" s="143"/>
+      <c r="H94" s="143"/>
+      <c r="I94" s="143"/>
+      <c r="J94" s="143"/>
+      <c r="K94" s="144"/>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="12">
@@ -6095,16 +6113,16 @@
         <v>A5D</v>
       </c>
       <c r="C95" s="13"/>
-      <c r="D95" s="174" t="s">
+      <c r="D95" s="142" t="s">
         <v>429</v>
       </c>
-      <c r="E95" s="175"/>
-      <c r="F95" s="175"/>
-      <c r="G95" s="175"/>
-      <c r="H95" s="175"/>
-      <c r="I95" s="175"/>
-      <c r="J95" s="175"/>
-      <c r="K95" s="176"/>
+      <c r="E95" s="143"/>
+      <c r="F95" s="143"/>
+      <c r="G95" s="143"/>
+      <c r="H95" s="143"/>
+      <c r="I95" s="143"/>
+      <c r="J95" s="143"/>
+      <c r="K95" s="144"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="12">
@@ -6116,16 +6134,16 @@
         <v>A5E</v>
       </c>
       <c r="C96" s="13"/>
-      <c r="D96" s="168" t="s">
+      <c r="D96" s="135" t="s">
         <v>428</v>
       </c>
-      <c r="E96" s="169"/>
-      <c r="F96" s="169"/>
-      <c r="G96" s="169"/>
-      <c r="H96" s="169"/>
-      <c r="I96" s="169"/>
-      <c r="J96" s="169"/>
-      <c r="K96" s="170"/>
+      <c r="E96" s="136"/>
+      <c r="F96" s="136"/>
+      <c r="G96" s="136"/>
+      <c r="H96" s="136"/>
+      <c r="I96" s="136"/>
+      <c r="J96" s="136"/>
+      <c r="K96" s="137"/>
     </row>
     <row r="97" spans="1:14" s="1" customFormat="1">
       <c r="A97" s="32">
@@ -8248,7 +8266,7 @@
       </c>
       <c r="C146" s="39"/>
       <c r="D146" s="61" t="str">
-        <f t="shared" ref="D146:K161" si="12">"Defeated enemy "&amp;8*($A146-128)+D$1</f>
+        <f t="shared" ref="D146:K162" si="12">"Defeated enemy "&amp;8*($A146-128)+D$1</f>
         <v>Defeated enemy 135</v>
       </c>
       <c r="E146" s="61" t="str">
@@ -8941,11 +8959,21 @@
       <c r="D162" s="46"/>
       <c r="E162" s="38"/>
       <c r="F162" s="38"/>
-      <c r="G162" s="53"/>
-      <c r="H162" s="54"/>
-      <c r="I162" s="38"/>
-      <c r="J162" s="38"/>
-      <c r="K162" s="53"/>
+      <c r="G162" s="61" t="s">
+        <v>452</v>
+      </c>
+      <c r="H162" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="I162" s="61" t="s">
+        <v>450</v>
+      </c>
+      <c r="J162" s="61" t="s">
+        <v>449</v>
+      </c>
+      <c r="K162" s="61" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="12">
@@ -9064,16 +9092,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="167" t="s">
+      <c r="D168" s="141" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="167"/>
-      <c r="F168" s="167"/>
-      <c r="G168" s="167"/>
-      <c r="H168" s="167"/>
-      <c r="I168" s="167"/>
-      <c r="J168" s="167"/>
-      <c r="K168" s="167"/>
+      <c r="E168" s="141"/>
+      <c r="F168" s="141"/>
+      <c r="G168" s="141"/>
+      <c r="H168" s="141"/>
+      <c r="I168" s="141"/>
+      <c r="J168" s="141"/>
+      <c r="K168" s="141"/>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="12">
@@ -9180,16 +9208,16 @@
         <v>AAC</v>
       </c>
       <c r="C174" s="13"/>
-      <c r="D174" s="167" t="s">
+      <c r="D174" s="141" t="s">
         <v>349</v>
       </c>
-      <c r="E174" s="167"/>
-      <c r="F174" s="167"/>
-      <c r="G174" s="167"/>
-      <c r="H174" s="167"/>
-      <c r="I174" s="167"/>
-      <c r="J174" s="167"/>
-      <c r="K174" s="167"/>
+      <c r="E174" s="141"/>
+      <c r="F174" s="141"/>
+      <c r="G174" s="141"/>
+      <c r="H174" s="141"/>
+      <c r="I174" s="141"/>
+      <c r="J174" s="141"/>
+      <c r="K174" s="141"/>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="12">
@@ -9201,16 +9229,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="167" t="s">
+      <c r="D175" s="141" t="s">
         <v>349</v>
       </c>
-      <c r="E175" s="167"/>
-      <c r="F175" s="167"/>
-      <c r="G175" s="167"/>
-      <c r="H175" s="167"/>
-      <c r="I175" s="167"/>
-      <c r="J175" s="167"/>
-      <c r="K175" s="167"/>
+      <c r="E175" s="141"/>
+      <c r="F175" s="141"/>
+      <c r="G175" s="141"/>
+      <c r="H175" s="141"/>
+      <c r="I175" s="141"/>
+      <c r="J175" s="141"/>
+      <c r="K175" s="141"/>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="12">
@@ -9263,16 +9291,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="167" t="s">
+      <c r="D178" s="141" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="167"/>
-      <c r="F178" s="167"/>
-      <c r="G178" s="167"/>
-      <c r="H178" s="167"/>
-      <c r="I178" s="167"/>
-      <c r="J178" s="167"/>
-      <c r="K178" s="167"/>
+      <c r="E178" s="141"/>
+      <c r="F178" s="141"/>
+      <c r="G178" s="141"/>
+      <c r="H178" s="141"/>
+      <c r="I178" s="141"/>
+      <c r="J178" s="141"/>
+      <c r="K178" s="141"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -9341,16 +9369,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="138" t="s">
+      <c r="D182" s="145" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="139"/>
-      <c r="F182" s="139"/>
-      <c r="G182" s="139"/>
-      <c r="H182" s="139"/>
-      <c r="I182" s="139"/>
-      <c r="J182" s="139"/>
-      <c r="K182" s="140"/>
+      <c r="E182" s="146"/>
+      <c r="F182" s="146"/>
+      <c r="G182" s="146"/>
+      <c r="H182" s="146"/>
+      <c r="I182" s="146"/>
+      <c r="J182" s="146"/>
+      <c r="K182" s="147"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -9362,16 +9390,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="138" t="s">
+      <c r="D183" s="145" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="139"/>
-      <c r="F183" s="139"/>
-      <c r="G183" s="139"/>
-      <c r="H183" s="139"/>
-      <c r="I183" s="139"/>
-      <c r="J183" s="139"/>
-      <c r="K183" s="140"/>
+      <c r="E183" s="146"/>
+      <c r="F183" s="146"/>
+      <c r="G183" s="146"/>
+      <c r="H183" s="146"/>
+      <c r="I183" s="146"/>
+      <c r="J183" s="146"/>
+      <c r="K183" s="147"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -9383,16 +9411,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="138" t="s">
+      <c r="D184" s="145" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="139"/>
-      <c r="F184" s="139"/>
-      <c r="G184" s="139"/>
-      <c r="H184" s="139"/>
-      <c r="I184" s="139"/>
-      <c r="J184" s="139"/>
-      <c r="K184" s="140"/>
+      <c r="E184" s="146"/>
+      <c r="F184" s="146"/>
+      <c r="G184" s="146"/>
+      <c r="H184" s="146"/>
+      <c r="I184" s="146"/>
+      <c r="J184" s="146"/>
+      <c r="K184" s="147"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -9404,16 +9432,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="138" t="s">
+      <c r="D185" s="145" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="139"/>
-      <c r="F185" s="139"/>
-      <c r="G185" s="139"/>
-      <c r="H185" s="139"/>
-      <c r="I185" s="139"/>
-      <c r="J185" s="139"/>
-      <c r="K185" s="140"/>
+      <c r="E185" s="146"/>
+      <c r="F185" s="146"/>
+      <c r="G185" s="146"/>
+      <c r="H185" s="146"/>
+      <c r="I185" s="146"/>
+      <c r="J185" s="146"/>
+      <c r="K185" s="147"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -9425,16 +9453,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="138" t="s">
+      <c r="D186" s="145" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="139"/>
-      <c r="F186" s="139"/>
-      <c r="G186" s="139"/>
-      <c r="H186" s="139"/>
-      <c r="I186" s="139"/>
-      <c r="J186" s="139"/>
-      <c r="K186" s="140"/>
+      <c r="E186" s="146"/>
+      <c r="F186" s="146"/>
+      <c r="G186" s="146"/>
+      <c r="H186" s="146"/>
+      <c r="I186" s="146"/>
+      <c r="J186" s="146"/>
+      <c r="K186" s="147"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -9446,16 +9474,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="138" t="s">
+      <c r="D187" s="145" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="139"/>
-      <c r="F187" s="139"/>
-      <c r="G187" s="139"/>
-      <c r="H187" s="139"/>
-      <c r="I187" s="139"/>
-      <c r="J187" s="139"/>
-      <c r="K187" s="140"/>
+      <c r="E187" s="146"/>
+      <c r="F187" s="146"/>
+      <c r="G187" s="146"/>
+      <c r="H187" s="146"/>
+      <c r="I187" s="146"/>
+      <c r="J187" s="146"/>
+      <c r="K187" s="147"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -9467,16 +9495,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="138" t="s">
+      <c r="D188" s="145" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="139"/>
-      <c r="F188" s="139"/>
-      <c r="G188" s="139"/>
-      <c r="H188" s="139"/>
-      <c r="I188" s="139"/>
-      <c r="J188" s="139"/>
-      <c r="K188" s="140"/>
+      <c r="E188" s="146"/>
+      <c r="F188" s="146"/>
+      <c r="G188" s="146"/>
+      <c r="H188" s="146"/>
+      <c r="I188" s="146"/>
+      <c r="J188" s="146"/>
+      <c r="K188" s="147"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -9488,16 +9516,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="138" t="s">
+      <c r="D189" s="145" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="139"/>
-      <c r="F189" s="139"/>
-      <c r="G189" s="139"/>
-      <c r="H189" s="139"/>
-      <c r="I189" s="139"/>
-      <c r="J189" s="139"/>
-      <c r="K189" s="140"/>
+      <c r="E189" s="146"/>
+      <c r="F189" s="146"/>
+      <c r="G189" s="146"/>
+      <c r="H189" s="146"/>
+      <c r="I189" s="146"/>
+      <c r="J189" s="146"/>
+      <c r="K189" s="147"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -9509,16 +9537,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="138" t="s">
+      <c r="D190" s="145" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="139"/>
-      <c r="F190" s="139"/>
-      <c r="G190" s="139"/>
-      <c r="H190" s="139"/>
-      <c r="I190" s="139"/>
-      <c r="J190" s="139"/>
-      <c r="K190" s="140"/>
+      <c r="E190" s="146"/>
+      <c r="F190" s="146"/>
+      <c r="G190" s="146"/>
+      <c r="H190" s="146"/>
+      <c r="I190" s="146"/>
+      <c r="J190" s="146"/>
+      <c r="K190" s="147"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -9530,16 +9558,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="138" t="s">
+      <c r="D191" s="145" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="139"/>
-      <c r="F191" s="139"/>
-      <c r="G191" s="139"/>
-      <c r="H191" s="139"/>
-      <c r="I191" s="139"/>
-      <c r="J191" s="139"/>
-      <c r="K191" s="140"/>
+      <c r="E191" s="146"/>
+      <c r="F191" s="146"/>
+      <c r="G191" s="146"/>
+      <c r="H191" s="146"/>
+      <c r="I191" s="146"/>
+      <c r="J191" s="146"/>
+      <c r="K191" s="147"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -9551,16 +9579,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="138" t="s">
+      <c r="D192" s="145" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="139"/>
-      <c r="F192" s="139"/>
-      <c r="G192" s="139"/>
-      <c r="H192" s="139"/>
-      <c r="I192" s="139"/>
-      <c r="J192" s="139"/>
-      <c r="K192" s="140"/>
+      <c r="E192" s="146"/>
+      <c r="F192" s="146"/>
+      <c r="G192" s="146"/>
+      <c r="H192" s="146"/>
+      <c r="I192" s="146"/>
+      <c r="J192" s="146"/>
+      <c r="K192" s="147"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -9572,16 +9600,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="164" t="s">
+      <c r="D193" s="148" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="165"/>
-      <c r="F193" s="165"/>
-      <c r="G193" s="165"/>
-      <c r="H193" s="165"/>
-      <c r="I193" s="165"/>
-      <c r="J193" s="165"/>
-      <c r="K193" s="166"/>
+      <c r="E193" s="149"/>
+      <c r="F193" s="149"/>
+      <c r="G193" s="149"/>
+      <c r="H193" s="149"/>
+      <c r="I193" s="149"/>
+      <c r="J193" s="149"/>
+      <c r="K193" s="150"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -9596,16 +9624,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="154" t="s">
+      <c r="D194" s="151" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="147"/>
-      <c r="F194" s="147"/>
-      <c r="G194" s="147"/>
-      <c r="H194" s="147"/>
-      <c r="I194" s="147"/>
-      <c r="J194" s="147"/>
-      <c r="K194" s="155"/>
+      <c r="E194" s="152"/>
+      <c r="F194" s="152"/>
+      <c r="G194" s="152"/>
+      <c r="H194" s="152"/>
+      <c r="I194" s="152"/>
+      <c r="J194" s="152"/>
+      <c r="K194" s="153"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -9617,16 +9645,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="138" t="s">
+      <c r="D195" s="145" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="139"/>
-      <c r="F195" s="139"/>
-      <c r="G195" s="139"/>
-      <c r="H195" s="139"/>
-      <c r="I195" s="139"/>
-      <c r="J195" s="139"/>
-      <c r="K195" s="140"/>
+      <c r="E195" s="146"/>
+      <c r="F195" s="146"/>
+      <c r="G195" s="146"/>
+      <c r="H195" s="146"/>
+      <c r="I195" s="146"/>
+      <c r="J195" s="146"/>
+      <c r="K195" s="147"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -9638,16 +9666,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="138" t="s">
+      <c r="D196" s="145" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="139"/>
-      <c r="F196" s="139"/>
-      <c r="G196" s="139"/>
-      <c r="H196" s="139"/>
-      <c r="I196" s="139"/>
-      <c r="J196" s="139"/>
-      <c r="K196" s="140"/>
+      <c r="E196" s="146"/>
+      <c r="F196" s="146"/>
+      <c r="G196" s="146"/>
+      <c r="H196" s="146"/>
+      <c r="I196" s="146"/>
+      <c r="J196" s="146"/>
+      <c r="K196" s="147"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -9659,16 +9687,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="138" t="s">
+      <c r="D197" s="145" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="139"/>
-      <c r="F197" s="139"/>
-      <c r="G197" s="139"/>
-      <c r="H197" s="139"/>
-      <c r="I197" s="139"/>
-      <c r="J197" s="139"/>
-      <c r="K197" s="140"/>
+      <c r="E197" s="146"/>
+      <c r="F197" s="146"/>
+      <c r="G197" s="146"/>
+      <c r="H197" s="146"/>
+      <c r="I197" s="146"/>
+      <c r="J197" s="146"/>
+      <c r="K197" s="147"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -9680,16 +9708,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="138" t="s">
+      <c r="D198" s="145" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="139"/>
-      <c r="F198" s="139"/>
-      <c r="G198" s="139"/>
-      <c r="H198" s="139"/>
-      <c r="I198" s="139"/>
-      <c r="J198" s="139"/>
-      <c r="K198" s="140"/>
+      <c r="E198" s="146"/>
+      <c r="F198" s="146"/>
+      <c r="G198" s="146"/>
+      <c r="H198" s="146"/>
+      <c r="I198" s="146"/>
+      <c r="J198" s="146"/>
+      <c r="K198" s="147"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -9720,16 +9748,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="138" t="s">
+      <c r="D200" s="145" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="139"/>
-      <c r="F200" s="139"/>
-      <c r="G200" s="139"/>
-      <c r="H200" s="139"/>
-      <c r="I200" s="139"/>
-      <c r="J200" s="139"/>
-      <c r="K200" s="140"/>
+      <c r="E200" s="146"/>
+      <c r="F200" s="146"/>
+      <c r="G200" s="146"/>
+      <c r="H200" s="146"/>
+      <c r="I200" s="146"/>
+      <c r="J200" s="146"/>
+      <c r="K200" s="147"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -9760,16 +9788,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="161" t="s">
+      <c r="D202" s="170" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="162"/>
-      <c r="F202" s="162"/>
-      <c r="G202" s="162"/>
-      <c r="H202" s="162"/>
-      <c r="I202" s="162"/>
-      <c r="J202" s="162"/>
-      <c r="K202" s="163"/>
+      <c r="E202" s="171"/>
+      <c r="F202" s="171"/>
+      <c r="G202" s="171"/>
+      <c r="H202" s="171"/>
+      <c r="I202" s="171"/>
+      <c r="J202" s="171"/>
+      <c r="K202" s="172"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -9800,16 +9828,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="138" t="s">
+      <c r="D204" s="145" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="139"/>
-      <c r="F204" s="139"/>
-      <c r="G204" s="139"/>
-      <c r="H204" s="139"/>
-      <c r="I204" s="139"/>
-      <c r="J204" s="139"/>
-      <c r="K204" s="140"/>
+      <c r="E204" s="146"/>
+      <c r="F204" s="146"/>
+      <c r="G204" s="146"/>
+      <c r="H204" s="146"/>
+      <c r="I204" s="146"/>
+      <c r="J204" s="146"/>
+      <c r="K204" s="147"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -9840,16 +9868,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="138" t="s">
+      <c r="D206" s="145" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="139"/>
-      <c r="F206" s="139"/>
-      <c r="G206" s="139"/>
-      <c r="H206" s="139"/>
-      <c r="I206" s="139"/>
-      <c r="J206" s="139"/>
-      <c r="K206" s="140"/>
+      <c r="E206" s="146"/>
+      <c r="F206" s="146"/>
+      <c r="G206" s="146"/>
+      <c r="H206" s="146"/>
+      <c r="I206" s="146"/>
+      <c r="J206" s="146"/>
+      <c r="K206" s="147"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -9880,16 +9908,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="138" t="s">
+      <c r="D208" s="145" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="139"/>
-      <c r="F208" s="139"/>
-      <c r="G208" s="139"/>
-      <c r="H208" s="139"/>
-      <c r="I208" s="139"/>
-      <c r="J208" s="139"/>
-      <c r="K208" s="140"/>
+      <c r="E208" s="146"/>
+      <c r="F208" s="146"/>
+      <c r="G208" s="146"/>
+      <c r="H208" s="146"/>
+      <c r="I208" s="146"/>
+      <c r="J208" s="146"/>
+      <c r="K208" s="147"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -9923,16 +9951,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="154" t="s">
+      <c r="D210" s="151" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="147"/>
-      <c r="F210" s="147"/>
-      <c r="G210" s="147"/>
-      <c r="H210" s="147"/>
-      <c r="I210" s="147"/>
-      <c r="J210" s="147"/>
-      <c r="K210" s="155"/>
+      <c r="E210" s="152"/>
+      <c r="F210" s="152"/>
+      <c r="G210" s="152"/>
+      <c r="H210" s="152"/>
+      <c r="I210" s="152"/>
+      <c r="J210" s="152"/>
+      <c r="K210" s="153"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -10001,16 +10029,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="138" t="s">
+      <c r="D214" s="145" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="139"/>
-      <c r="F214" s="139"/>
-      <c r="G214" s="139"/>
-      <c r="H214" s="139"/>
-      <c r="I214" s="139"/>
-      <c r="J214" s="139"/>
-      <c r="K214" s="140"/>
+      <c r="E214" s="146"/>
+      <c r="F214" s="146"/>
+      <c r="G214" s="146"/>
+      <c r="H214" s="146"/>
+      <c r="I214" s="146"/>
+      <c r="J214" s="146"/>
+      <c r="K214" s="147"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -10041,16 +10069,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="152" t="s">
+      <c r="D216" s="160" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="141"/>
-      <c r="F216" s="141"/>
-      <c r="G216" s="141"/>
-      <c r="H216" s="141"/>
-      <c r="I216" s="141"/>
-      <c r="J216" s="141"/>
-      <c r="K216" s="153"/>
+      <c r="E216" s="155"/>
+      <c r="F216" s="155"/>
+      <c r="G216" s="155"/>
+      <c r="H216" s="155"/>
+      <c r="I216" s="155"/>
+      <c r="J216" s="155"/>
+      <c r="K216" s="161"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -10062,14 +10090,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="154"/>
-      <c r="E217" s="147"/>
-      <c r="F217" s="147"/>
-      <c r="G217" s="147"/>
-      <c r="H217" s="147"/>
-      <c r="I217" s="147"/>
-      <c r="J217" s="147"/>
-      <c r="K217" s="155"/>
+      <c r="D217" s="151"/>
+      <c r="E217" s="152"/>
+      <c r="F217" s="152"/>
+      <c r="G217" s="152"/>
+      <c r="H217" s="152"/>
+      <c r="I217" s="152"/>
+      <c r="J217" s="152"/>
+      <c r="K217" s="153"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -10081,16 +10109,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="152" t="s">
+      <c r="D218" s="160" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="141"/>
-      <c r="F218" s="141"/>
-      <c r="G218" s="141"/>
-      <c r="H218" s="141"/>
-      <c r="I218" s="141"/>
-      <c r="J218" s="141"/>
-      <c r="K218" s="153"/>
+      <c r="E218" s="155"/>
+      <c r="F218" s="155"/>
+      <c r="G218" s="155"/>
+      <c r="H218" s="155"/>
+      <c r="I218" s="155"/>
+      <c r="J218" s="155"/>
+      <c r="K218" s="161"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -10102,14 +10130,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="154"/>
-      <c r="E219" s="147"/>
-      <c r="F219" s="147"/>
-      <c r="G219" s="147"/>
-      <c r="H219" s="147"/>
-      <c r="I219" s="147"/>
-      <c r="J219" s="147"/>
-      <c r="K219" s="155"/>
+      <c r="D219" s="151"/>
+      <c r="E219" s="152"/>
+      <c r="F219" s="152"/>
+      <c r="G219" s="152"/>
+      <c r="H219" s="152"/>
+      <c r="I219" s="152"/>
+      <c r="J219" s="152"/>
+      <c r="K219" s="153"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -10121,16 +10149,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="152" t="s">
+      <c r="D220" s="160" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="141"/>
-      <c r="F220" s="141"/>
-      <c r="G220" s="141"/>
-      <c r="H220" s="141"/>
-      <c r="I220" s="141"/>
-      <c r="J220" s="141"/>
-      <c r="K220" s="153"/>
+      <c r="E220" s="155"/>
+      <c r="F220" s="155"/>
+      <c r="G220" s="155"/>
+      <c r="H220" s="155"/>
+      <c r="I220" s="155"/>
+      <c r="J220" s="155"/>
+      <c r="K220" s="161"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -10142,14 +10170,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="154"/>
-      <c r="E221" s="147"/>
-      <c r="F221" s="147"/>
-      <c r="G221" s="147"/>
-      <c r="H221" s="147"/>
-      <c r="I221" s="147"/>
-      <c r="J221" s="147"/>
-      <c r="K221" s="155"/>
+      <c r="D221" s="151"/>
+      <c r="E221" s="152"/>
+      <c r="F221" s="152"/>
+      <c r="G221" s="152"/>
+      <c r="H221" s="152"/>
+      <c r="I221" s="152"/>
+      <c r="J221" s="152"/>
+      <c r="K221" s="153"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -10161,16 +10189,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="138" t="s">
+      <c r="D222" s="145" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="139"/>
-      <c r="F222" s="139"/>
-      <c r="G222" s="139"/>
-      <c r="H222" s="139"/>
-      <c r="I222" s="139"/>
-      <c r="J222" s="139"/>
-      <c r="K222" s="140"/>
+      <c r="E222" s="146"/>
+      <c r="F222" s="146"/>
+      <c r="G222" s="146"/>
+      <c r="H222" s="146"/>
+      <c r="I222" s="146"/>
+      <c r="J222" s="146"/>
+      <c r="K222" s="147"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -10201,16 +10229,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="138" t="s">
+      <c r="D224" s="145" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="139"/>
-      <c r="F224" s="139"/>
-      <c r="G224" s="139"/>
-      <c r="H224" s="139"/>
-      <c r="I224" s="139"/>
-      <c r="J224" s="139"/>
-      <c r="K224" s="140"/>
+      <c r="E224" s="146"/>
+      <c r="F224" s="146"/>
+      <c r="G224" s="146"/>
+      <c r="H224" s="146"/>
+      <c r="I224" s="146"/>
+      <c r="J224" s="146"/>
+      <c r="K224" s="147"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -10244,16 +10272,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="158" t="s">
+      <c r="D226" s="167" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="159"/>
-      <c r="F226" s="159"/>
-      <c r="G226" s="159"/>
-      <c r="H226" s="159"/>
-      <c r="I226" s="159"/>
-      <c r="J226" s="159"/>
-      <c r="K226" s="160"/>
+      <c r="E226" s="168"/>
+      <c r="F226" s="168"/>
+      <c r="G226" s="168"/>
+      <c r="H226" s="168"/>
+      <c r="I226" s="168"/>
+      <c r="J226" s="168"/>
+      <c r="K226" s="169"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -10398,16 +10426,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="156" t="s">
+      <c r="D234" s="164" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="136"/>
-      <c r="F234" s="136"/>
-      <c r="G234" s="136"/>
-      <c r="H234" s="136"/>
-      <c r="I234" s="136"/>
-      <c r="J234" s="136"/>
-      <c r="K234" s="157"/>
+      <c r="E234" s="165"/>
+      <c r="F234" s="165"/>
+      <c r="G234" s="165"/>
+      <c r="H234" s="165"/>
+      <c r="I234" s="165"/>
+      <c r="J234" s="165"/>
+      <c r="K234" s="166"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -10476,16 +10504,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="145" t="s">
+      <c r="D238" s="154" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="141"/>
-      <c r="F238" s="141"/>
-      <c r="G238" s="141"/>
-      <c r="H238" s="141"/>
-      <c r="I238" s="141"/>
-      <c r="J238" s="141"/>
-      <c r="K238" s="142"/>
+      <c r="E238" s="155"/>
+      <c r="F238" s="155"/>
+      <c r="G238" s="155"/>
+      <c r="H238" s="155"/>
+      <c r="I238" s="155"/>
+      <c r="J238" s="155"/>
+      <c r="K238" s="156"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -10497,14 +10525,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="146"/>
-      <c r="E239" s="147"/>
-      <c r="F239" s="147"/>
-      <c r="G239" s="147"/>
-      <c r="H239" s="147"/>
-      <c r="I239" s="147"/>
-      <c r="J239" s="147"/>
-      <c r="K239" s="148"/>
+      <c r="D239" s="162"/>
+      <c r="E239" s="152"/>
+      <c r="F239" s="152"/>
+      <c r="G239" s="152"/>
+      <c r="H239" s="152"/>
+      <c r="I239" s="152"/>
+      <c r="J239" s="152"/>
+      <c r="K239" s="163"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -10516,16 +10544,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="141" t="s">
+      <c r="D240" s="155" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="141"/>
-      <c r="F240" s="141"/>
-      <c r="G240" s="141"/>
-      <c r="H240" s="141"/>
-      <c r="I240" s="141"/>
-      <c r="J240" s="141"/>
-      <c r="K240" s="142"/>
+      <c r="E240" s="155"/>
+      <c r="F240" s="155"/>
+      <c r="G240" s="155"/>
+      <c r="H240" s="155"/>
+      <c r="I240" s="155"/>
+      <c r="J240" s="155"/>
+      <c r="K240" s="156"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -10537,14 +10565,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="143"/>
-      <c r="E241" s="143"/>
-      <c r="F241" s="143"/>
-      <c r="G241" s="143"/>
-      <c r="H241" s="143"/>
-      <c r="I241" s="143"/>
-      <c r="J241" s="143"/>
-      <c r="K241" s="144"/>
+      <c r="D241" s="175"/>
+      <c r="E241" s="175"/>
+      <c r="F241" s="175"/>
+      <c r="G241" s="175"/>
+      <c r="H241" s="175"/>
+      <c r="I241" s="175"/>
+      <c r="J241" s="175"/>
+      <c r="K241" s="176"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -10735,16 +10763,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="135" t="s">
+      <c r="D250" s="173" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="136"/>
-      <c r="F250" s="136"/>
-      <c r="G250" s="136"/>
-      <c r="H250" s="136"/>
-      <c r="I250" s="136"/>
-      <c r="J250" s="136"/>
-      <c r="K250" s="137"/>
+      <c r="E250" s="165"/>
+      <c r="F250" s="165"/>
+      <c r="G250" s="165"/>
+      <c r="H250" s="165"/>
+      <c r="I250" s="165"/>
+      <c r="J250" s="165"/>
+      <c r="K250" s="174"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -11313,16 +11341,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="138" t="s">
+      <c r="D280" s="145" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="139"/>
-      <c r="F280" s="139"/>
-      <c r="G280" s="139"/>
-      <c r="H280" s="139"/>
-      <c r="I280" s="139"/>
-      <c r="J280" s="139"/>
-      <c r="K280" s="140"/>
+      <c r="E280" s="146"/>
+      <c r="F280" s="146"/>
+      <c r="G280" s="146"/>
+      <c r="H280" s="146"/>
+      <c r="I280" s="146"/>
+      <c r="J280" s="146"/>
+      <c r="K280" s="147"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -11429,16 +11457,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="138" t="s">
+      <c r="D286" s="145" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="139"/>
-      <c r="F286" s="139"/>
-      <c r="G286" s="139"/>
-      <c r="H286" s="139"/>
-      <c r="I286" s="139"/>
-      <c r="J286" s="139"/>
-      <c r="K286" s="140"/>
+      <c r="E286" s="146"/>
+      <c r="F286" s="146"/>
+      <c r="G286" s="146"/>
+      <c r="H286" s="146"/>
+      <c r="I286" s="146"/>
+      <c r="J286" s="146"/>
+      <c r="K286" s="147"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -11548,16 +11576,16 @@
         <v>B22</v>
       </c>
       <c r="C292" s="13"/>
-      <c r="D292" s="138" t="s">
+      <c r="D292" s="145" t="s">
         <v>447</v>
       </c>
-      <c r="E292" s="139"/>
-      <c r="F292" s="139"/>
-      <c r="G292" s="139"/>
-      <c r="H292" s="139"/>
-      <c r="I292" s="139"/>
-      <c r="J292" s="139"/>
-      <c r="K292" s="140"/>
+      <c r="E292" s="146"/>
+      <c r="F292" s="146"/>
+      <c r="G292" s="146"/>
+      <c r="H292" s="146"/>
+      <c r="I292" s="146"/>
+      <c r="J292" s="146"/>
+      <c r="K292" s="147"/>
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="12">
@@ -11588,16 +11616,16 @@
         <v>B24</v>
       </c>
       <c r="C294" s="13"/>
-      <c r="D294" s="138" t="s">
+      <c r="D294" s="145" t="s">
         <v>444</v>
       </c>
-      <c r="E294" s="139"/>
-      <c r="F294" s="139"/>
-      <c r="G294" s="139"/>
-      <c r="H294" s="139"/>
-      <c r="I294" s="139"/>
-      <c r="J294" s="139"/>
-      <c r="K294" s="140"/>
+      <c r="E294" s="146"/>
+      <c r="F294" s="146"/>
+      <c r="G294" s="146"/>
+      <c r="H294" s="146"/>
+      <c r="I294" s="146"/>
+      <c r="J294" s="146"/>
+      <c r="K294" s="147"/>
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="12">
@@ -11628,16 +11656,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="138" t="s">
+      <c r="D296" s="145" t="s">
         <v>443</v>
       </c>
-      <c r="E296" s="139"/>
-      <c r="F296" s="139"/>
-      <c r="G296" s="139"/>
-      <c r="H296" s="139"/>
-      <c r="I296" s="139"/>
-      <c r="J296" s="139"/>
-      <c r="K296" s="140"/>
+      <c r="E296" s="146"/>
+      <c r="F296" s="146"/>
+      <c r="G296" s="146"/>
+      <c r="H296" s="146"/>
+      <c r="I296" s="146"/>
+      <c r="J296" s="146"/>
+      <c r="K296" s="147"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -11668,16 +11696,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="145" t="s">
+      <c r="D298" s="154" t="s">
         <v>385</v>
       </c>
-      <c r="E298" s="141"/>
-      <c r="F298" s="141"/>
-      <c r="G298" s="141"/>
-      <c r="H298" s="141"/>
-      <c r="I298" s="141"/>
-      <c r="J298" s="141"/>
-      <c r="K298" s="142"/>
+      <c r="E298" s="155"/>
+      <c r="F298" s="155"/>
+      <c r="G298" s="155"/>
+      <c r="H298" s="155"/>
+      <c r="I298" s="155"/>
+      <c r="J298" s="155"/>
+      <c r="K298" s="156"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -11689,14 +11717,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="146"/>
-      <c r="E299" s="147"/>
-      <c r="F299" s="147"/>
-      <c r="G299" s="147"/>
-      <c r="H299" s="147"/>
-      <c r="I299" s="147"/>
-      <c r="J299" s="147"/>
-      <c r="K299" s="148"/>
+      <c r="D299" s="162"/>
+      <c r="E299" s="152"/>
+      <c r="F299" s="152"/>
+      <c r="G299" s="152"/>
+      <c r="H299" s="152"/>
+      <c r="I299" s="152"/>
+      <c r="J299" s="152"/>
+      <c r="K299" s="163"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -11708,16 +11736,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="145" t="s">
+      <c r="D300" s="154" t="s">
         <v>386</v>
       </c>
-      <c r="E300" s="141"/>
-      <c r="F300" s="141"/>
-      <c r="G300" s="141"/>
-      <c r="H300" s="141"/>
-      <c r="I300" s="141"/>
-      <c r="J300" s="141"/>
-      <c r="K300" s="142"/>
+      <c r="E300" s="155"/>
+      <c r="F300" s="155"/>
+      <c r="G300" s="155"/>
+      <c r="H300" s="155"/>
+      <c r="I300" s="155"/>
+      <c r="J300" s="155"/>
+      <c r="K300" s="156"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -11729,14 +11757,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="146"/>
-      <c r="E301" s="147"/>
-      <c r="F301" s="147"/>
-      <c r="G301" s="147"/>
-      <c r="H301" s="147"/>
-      <c r="I301" s="147"/>
-      <c r="J301" s="147"/>
-      <c r="K301" s="148"/>
+      <c r="D301" s="162"/>
+      <c r="E301" s="152"/>
+      <c r="F301" s="152"/>
+      <c r="G301" s="152"/>
+      <c r="H301" s="152"/>
+      <c r="I301" s="152"/>
+      <c r="J301" s="152"/>
+      <c r="K301" s="163"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -11748,16 +11776,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="145" t="s">
+      <c r="D302" s="154" t="s">
         <v>387</v>
       </c>
-      <c r="E302" s="141"/>
-      <c r="F302" s="141"/>
-      <c r="G302" s="141"/>
-      <c r="H302" s="141"/>
-      <c r="I302" s="141"/>
-      <c r="J302" s="141"/>
-      <c r="K302" s="142"/>
+      <c r="E302" s="155"/>
+      <c r="F302" s="155"/>
+      <c r="G302" s="155"/>
+      <c r="H302" s="155"/>
+      <c r="I302" s="155"/>
+      <c r="J302" s="155"/>
+      <c r="K302" s="156"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -11769,14 +11797,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="146"/>
-      <c r="E303" s="147"/>
-      <c r="F303" s="147"/>
-      <c r="G303" s="147"/>
-      <c r="H303" s="147"/>
-      <c r="I303" s="147"/>
-      <c r="J303" s="147"/>
-      <c r="K303" s="148"/>
+      <c r="D303" s="162"/>
+      <c r="E303" s="152"/>
+      <c r="F303" s="152"/>
+      <c r="G303" s="152"/>
+      <c r="H303" s="152"/>
+      <c r="I303" s="152"/>
+      <c r="J303" s="152"/>
+      <c r="K303" s="163"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -11788,16 +11816,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="145" t="s">
+      <c r="D304" s="154" t="s">
         <v>388</v>
       </c>
-      <c r="E304" s="141"/>
-      <c r="F304" s="141"/>
-      <c r="G304" s="141"/>
-      <c r="H304" s="141"/>
-      <c r="I304" s="141"/>
-      <c r="J304" s="141"/>
-      <c r="K304" s="142"/>
+      <c r="E304" s="155"/>
+      <c r="F304" s="155"/>
+      <c r="G304" s="155"/>
+      <c r="H304" s="155"/>
+      <c r="I304" s="155"/>
+      <c r="J304" s="155"/>
+      <c r="K304" s="156"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -11809,14 +11837,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="146"/>
-      <c r="E305" s="147"/>
-      <c r="F305" s="147"/>
-      <c r="G305" s="147"/>
-      <c r="H305" s="147"/>
-      <c r="I305" s="147"/>
-      <c r="J305" s="147"/>
-      <c r="K305" s="148"/>
+      <c r="D305" s="162"/>
+      <c r="E305" s="152"/>
+      <c r="F305" s="152"/>
+      <c r="G305" s="152"/>
+      <c r="H305" s="152"/>
+      <c r="I305" s="152"/>
+      <c r="J305" s="152"/>
+      <c r="K305" s="163"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -11831,16 +11859,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="145" t="s">
+      <c r="D306" s="154" t="s">
         <v>389</v>
       </c>
-      <c r="E306" s="141"/>
-      <c r="F306" s="141"/>
-      <c r="G306" s="141"/>
-      <c r="H306" s="141"/>
-      <c r="I306" s="141"/>
-      <c r="J306" s="141"/>
-      <c r="K306" s="142"/>
+      <c r="E306" s="155"/>
+      <c r="F306" s="155"/>
+      <c r="G306" s="155"/>
+      <c r="H306" s="155"/>
+      <c r="I306" s="155"/>
+      <c r="J306" s="155"/>
+      <c r="K306" s="156"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -11852,14 +11880,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="146"/>
-      <c r="E307" s="147"/>
-      <c r="F307" s="147"/>
-      <c r="G307" s="147"/>
-      <c r="H307" s="147"/>
-      <c r="I307" s="147"/>
-      <c r="J307" s="147"/>
-      <c r="K307" s="148"/>
+      <c r="D307" s="162"/>
+      <c r="E307" s="152"/>
+      <c r="F307" s="152"/>
+      <c r="G307" s="152"/>
+      <c r="H307" s="152"/>
+      <c r="I307" s="152"/>
+      <c r="J307" s="152"/>
+      <c r="K307" s="163"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -11871,16 +11899,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="145" t="s">
+      <c r="D308" s="154" t="s">
         <v>390</v>
       </c>
-      <c r="E308" s="141"/>
-      <c r="F308" s="141"/>
-      <c r="G308" s="141"/>
-      <c r="H308" s="141"/>
-      <c r="I308" s="141"/>
-      <c r="J308" s="141"/>
-      <c r="K308" s="142"/>
+      <c r="E308" s="155"/>
+      <c r="F308" s="155"/>
+      <c r="G308" s="155"/>
+      <c r="H308" s="155"/>
+      <c r="I308" s="155"/>
+      <c r="J308" s="155"/>
+      <c r="K308" s="156"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -11892,14 +11920,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="146"/>
-      <c r="E309" s="147"/>
-      <c r="F309" s="147"/>
-      <c r="G309" s="147"/>
-      <c r="H309" s="147"/>
-      <c r="I309" s="147"/>
-      <c r="J309" s="147"/>
-      <c r="K309" s="148"/>
+      <c r="D309" s="162"/>
+      <c r="E309" s="152"/>
+      <c r="F309" s="152"/>
+      <c r="G309" s="152"/>
+      <c r="H309" s="152"/>
+      <c r="I309" s="152"/>
+      <c r="J309" s="152"/>
+      <c r="K309" s="163"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -15779,41 +15807,19 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="D75:K75"/>
-    <mergeCell ref="D76:K76"/>
-    <mergeCell ref="D77:K77"/>
-    <mergeCell ref="D78:K78"/>
-    <mergeCell ref="D79:K79"/>
-    <mergeCell ref="D80:K80"/>
-    <mergeCell ref="D81:K81"/>
-    <mergeCell ref="D168:K168"/>
-    <mergeCell ref="D175:K175"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D91:K91"/>
-    <mergeCell ref="D90:K90"/>
-    <mergeCell ref="D93:K93"/>
-    <mergeCell ref="D96:K96"/>
-    <mergeCell ref="D94:K94"/>
-    <mergeCell ref="D95:K95"/>
-    <mergeCell ref="D92:K92"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D174:K174"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D250:K250"/>
+    <mergeCell ref="D280:K280"/>
+    <mergeCell ref="D286:K286"/>
+    <mergeCell ref="D296:K296"/>
+    <mergeCell ref="D240:K241"/>
+    <mergeCell ref="D294:K294"/>
+    <mergeCell ref="D292:K292"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="D216:K217"/>
     <mergeCell ref="D218:K219"/>
@@ -15830,19 +15836,41 @@
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
     <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D250:K250"/>
-    <mergeCell ref="D280:K280"/>
-    <mergeCell ref="D286:K286"/>
-    <mergeCell ref="D296:K296"/>
-    <mergeCell ref="D240:K241"/>
-    <mergeCell ref="D294:K294"/>
-    <mergeCell ref="D292:K292"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D174:K174"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D80:K80"/>
+    <mergeCell ref="D81:K81"/>
+    <mergeCell ref="D168:K168"/>
+    <mergeCell ref="D175:K175"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D91:K91"/>
+    <mergeCell ref="D90:K90"/>
+    <mergeCell ref="D93:K93"/>
+    <mergeCell ref="D96:K96"/>
+    <mergeCell ref="D94:K94"/>
+    <mergeCell ref="D95:K95"/>
+    <mergeCell ref="D92:K92"/>
+    <mergeCell ref="D75:K75"/>
+    <mergeCell ref="D76:K76"/>
+    <mergeCell ref="D77:K77"/>
+    <mergeCell ref="D78:K78"/>
+    <mergeCell ref="D79:K79"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -15928,16 +15956,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="145" t="s">
+      <c r="D2" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="142"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="156"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -15959,14 +15987,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="151"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="159"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -22215,16 +22243,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="39"/>
-      <c r="D178" s="167" t="s">
+      <c r="D178" s="141" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="167"/>
-      <c r="F178" s="167"/>
-      <c r="G178" s="167"/>
-      <c r="H178" s="167"/>
-      <c r="I178" s="167"/>
-      <c r="J178" s="167"/>
-      <c r="K178" s="167"/>
+      <c r="E178" s="141"/>
+      <c r="F178" s="141"/>
+      <c r="G178" s="141"/>
+      <c r="H178" s="141"/>
+      <c r="I178" s="141"/>
+      <c r="J178" s="141"/>
+      <c r="K178" s="141"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -22293,16 +22321,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="138" t="s">
+      <c r="D182" s="145" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="139"/>
-      <c r="F182" s="139"/>
-      <c r="G182" s="139"/>
-      <c r="H182" s="139"/>
-      <c r="I182" s="139"/>
-      <c r="J182" s="139"/>
-      <c r="K182" s="140"/>
+      <c r="E182" s="146"/>
+      <c r="F182" s="146"/>
+      <c r="G182" s="146"/>
+      <c r="H182" s="146"/>
+      <c r="I182" s="146"/>
+      <c r="J182" s="146"/>
+      <c r="K182" s="147"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -22314,16 +22342,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="138" t="s">
+      <c r="D183" s="145" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="139"/>
-      <c r="F183" s="139"/>
-      <c r="G183" s="139"/>
-      <c r="H183" s="139"/>
-      <c r="I183" s="139"/>
-      <c r="J183" s="139"/>
-      <c r="K183" s="140"/>
+      <c r="E183" s="146"/>
+      <c r="F183" s="146"/>
+      <c r="G183" s="146"/>
+      <c r="H183" s="146"/>
+      <c r="I183" s="146"/>
+      <c r="J183" s="146"/>
+      <c r="K183" s="147"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -22335,16 +22363,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="138" t="s">
+      <c r="D184" s="145" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="139"/>
-      <c r="F184" s="139"/>
-      <c r="G184" s="139"/>
-      <c r="H184" s="139"/>
-      <c r="I184" s="139"/>
-      <c r="J184" s="139"/>
-      <c r="K184" s="140"/>
+      <c r="E184" s="146"/>
+      <c r="F184" s="146"/>
+      <c r="G184" s="146"/>
+      <c r="H184" s="146"/>
+      <c r="I184" s="146"/>
+      <c r="J184" s="146"/>
+      <c r="K184" s="147"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -22356,16 +22384,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="138" t="s">
+      <c r="D185" s="145" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="139"/>
-      <c r="F185" s="139"/>
-      <c r="G185" s="139"/>
-      <c r="H185" s="139"/>
-      <c r="I185" s="139"/>
-      <c r="J185" s="139"/>
-      <c r="K185" s="140"/>
+      <c r="E185" s="146"/>
+      <c r="F185" s="146"/>
+      <c r="G185" s="146"/>
+      <c r="H185" s="146"/>
+      <c r="I185" s="146"/>
+      <c r="J185" s="146"/>
+      <c r="K185" s="147"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -22377,16 +22405,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="138" t="s">
+      <c r="D186" s="145" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="139"/>
-      <c r="F186" s="139"/>
-      <c r="G186" s="139"/>
-      <c r="H186" s="139"/>
-      <c r="I186" s="139"/>
-      <c r="J186" s="139"/>
-      <c r="K186" s="140"/>
+      <c r="E186" s="146"/>
+      <c r="F186" s="146"/>
+      <c r="G186" s="146"/>
+      <c r="H186" s="146"/>
+      <c r="I186" s="146"/>
+      <c r="J186" s="146"/>
+      <c r="K186" s="147"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -22398,16 +22426,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="138" t="s">
+      <c r="D187" s="145" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="139"/>
-      <c r="F187" s="139"/>
-      <c r="G187" s="139"/>
-      <c r="H187" s="139"/>
-      <c r="I187" s="139"/>
-      <c r="J187" s="139"/>
-      <c r="K187" s="140"/>
+      <c r="E187" s="146"/>
+      <c r="F187" s="146"/>
+      <c r="G187" s="146"/>
+      <c r="H187" s="146"/>
+      <c r="I187" s="146"/>
+      <c r="J187" s="146"/>
+      <c r="K187" s="147"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -22419,16 +22447,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="138" t="s">
+      <c r="D188" s="145" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="139"/>
-      <c r="F188" s="139"/>
-      <c r="G188" s="139"/>
-      <c r="H188" s="139"/>
-      <c r="I188" s="139"/>
-      <c r="J188" s="139"/>
-      <c r="K188" s="140"/>
+      <c r="E188" s="146"/>
+      <c r="F188" s="146"/>
+      <c r="G188" s="146"/>
+      <c r="H188" s="146"/>
+      <c r="I188" s="146"/>
+      <c r="J188" s="146"/>
+      <c r="K188" s="147"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -22440,16 +22468,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="138" t="s">
+      <c r="D189" s="145" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="139"/>
-      <c r="F189" s="139"/>
-      <c r="G189" s="139"/>
-      <c r="H189" s="139"/>
-      <c r="I189" s="139"/>
-      <c r="J189" s="139"/>
-      <c r="K189" s="140"/>
+      <c r="E189" s="146"/>
+      <c r="F189" s="146"/>
+      <c r="G189" s="146"/>
+      <c r="H189" s="146"/>
+      <c r="I189" s="146"/>
+      <c r="J189" s="146"/>
+      <c r="K189" s="147"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -22461,16 +22489,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="138" t="s">
+      <c r="D190" s="145" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="139"/>
-      <c r="F190" s="139"/>
-      <c r="G190" s="139"/>
-      <c r="H190" s="139"/>
-      <c r="I190" s="139"/>
-      <c r="J190" s="139"/>
-      <c r="K190" s="140"/>
+      <c r="E190" s="146"/>
+      <c r="F190" s="146"/>
+      <c r="G190" s="146"/>
+      <c r="H190" s="146"/>
+      <c r="I190" s="146"/>
+      <c r="J190" s="146"/>
+      <c r="K190" s="147"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -22482,16 +22510,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="138" t="s">
+      <c r="D191" s="145" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="139"/>
-      <c r="F191" s="139"/>
-      <c r="G191" s="139"/>
-      <c r="H191" s="139"/>
-      <c r="I191" s="139"/>
-      <c r="J191" s="139"/>
-      <c r="K191" s="140"/>
+      <c r="E191" s="146"/>
+      <c r="F191" s="146"/>
+      <c r="G191" s="146"/>
+      <c r="H191" s="146"/>
+      <c r="I191" s="146"/>
+      <c r="J191" s="146"/>
+      <c r="K191" s="147"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -22503,16 +22531,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="138" t="s">
+      <c r="D192" s="145" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="139"/>
-      <c r="F192" s="139"/>
-      <c r="G192" s="139"/>
-      <c r="H192" s="139"/>
-      <c r="I192" s="139"/>
-      <c r="J192" s="139"/>
-      <c r="K192" s="140"/>
+      <c r="E192" s="146"/>
+      <c r="F192" s="146"/>
+      <c r="G192" s="146"/>
+      <c r="H192" s="146"/>
+      <c r="I192" s="146"/>
+      <c r="J192" s="146"/>
+      <c r="K192" s="147"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="32">
@@ -22524,16 +22552,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="164" t="s">
+      <c r="D193" s="148" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="165"/>
-      <c r="F193" s="165"/>
-      <c r="G193" s="165"/>
-      <c r="H193" s="165"/>
-      <c r="I193" s="165"/>
-      <c r="J193" s="165"/>
-      <c r="K193" s="166"/>
+      <c r="E193" s="149"/>
+      <c r="F193" s="149"/>
+      <c r="G193" s="149"/>
+      <c r="H193" s="149"/>
+      <c r="I193" s="149"/>
+      <c r="J193" s="149"/>
+      <c r="K193" s="150"/>
       <c r="L193" s="57"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58"/>
@@ -22548,16 +22576,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="39"/>
-      <c r="D194" s="154" t="s">
+      <c r="D194" s="151" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="147"/>
-      <c r="F194" s="147"/>
-      <c r="G194" s="147"/>
-      <c r="H194" s="147"/>
-      <c r="I194" s="147"/>
-      <c r="J194" s="147"/>
-      <c r="K194" s="155"/>
+      <c r="E194" s="152"/>
+      <c r="F194" s="152"/>
+      <c r="G194" s="152"/>
+      <c r="H194" s="152"/>
+      <c r="I194" s="152"/>
+      <c r="J194" s="152"/>
+      <c r="K194" s="153"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -22569,16 +22597,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="138" t="s">
+      <c r="D195" s="145" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="139"/>
-      <c r="F195" s="139"/>
-      <c r="G195" s="139"/>
-      <c r="H195" s="139"/>
-      <c r="I195" s="139"/>
-      <c r="J195" s="139"/>
-      <c r="K195" s="140"/>
+      <c r="E195" s="146"/>
+      <c r="F195" s="146"/>
+      <c r="G195" s="146"/>
+      <c r="H195" s="146"/>
+      <c r="I195" s="146"/>
+      <c r="J195" s="146"/>
+      <c r="K195" s="147"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -22590,16 +22618,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="138" t="s">
+      <c r="D196" s="145" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="139"/>
-      <c r="F196" s="139"/>
-      <c r="G196" s="139"/>
-      <c r="H196" s="139"/>
-      <c r="I196" s="139"/>
-      <c r="J196" s="139"/>
-      <c r="K196" s="140"/>
+      <c r="E196" s="146"/>
+      <c r="F196" s="146"/>
+      <c r="G196" s="146"/>
+      <c r="H196" s="146"/>
+      <c r="I196" s="146"/>
+      <c r="J196" s="146"/>
+      <c r="K196" s="147"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -22611,16 +22639,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="138" t="s">
+      <c r="D197" s="145" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="139"/>
-      <c r="F197" s="139"/>
-      <c r="G197" s="139"/>
-      <c r="H197" s="139"/>
-      <c r="I197" s="139"/>
-      <c r="J197" s="139"/>
-      <c r="K197" s="140"/>
+      <c r="E197" s="146"/>
+      <c r="F197" s="146"/>
+      <c r="G197" s="146"/>
+      <c r="H197" s="146"/>
+      <c r="I197" s="146"/>
+      <c r="J197" s="146"/>
+      <c r="K197" s="147"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -22632,16 +22660,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="138" t="s">
+      <c r="D198" s="145" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="139"/>
-      <c r="F198" s="139"/>
-      <c r="G198" s="139"/>
-      <c r="H198" s="139"/>
-      <c r="I198" s="139"/>
-      <c r="J198" s="139"/>
-      <c r="K198" s="140"/>
+      <c r="E198" s="146"/>
+      <c r="F198" s="146"/>
+      <c r="G198" s="146"/>
+      <c r="H198" s="146"/>
+      <c r="I198" s="146"/>
+      <c r="J198" s="146"/>
+      <c r="K198" s="147"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -22672,16 +22700,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="138" t="s">
+      <c r="D200" s="145" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="139"/>
-      <c r="F200" s="139"/>
-      <c r="G200" s="139"/>
-      <c r="H200" s="139"/>
-      <c r="I200" s="139"/>
-      <c r="J200" s="139"/>
-      <c r="K200" s="140"/>
+      <c r="E200" s="146"/>
+      <c r="F200" s="146"/>
+      <c r="G200" s="146"/>
+      <c r="H200" s="146"/>
+      <c r="I200" s="146"/>
+      <c r="J200" s="146"/>
+      <c r="K200" s="147"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -22712,16 +22740,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="161" t="s">
+      <c r="D202" s="170" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="162"/>
-      <c r="F202" s="162"/>
-      <c r="G202" s="162"/>
-      <c r="H202" s="162"/>
-      <c r="I202" s="162"/>
-      <c r="J202" s="162"/>
-      <c r="K202" s="163"/>
+      <c r="E202" s="171"/>
+      <c r="F202" s="171"/>
+      <c r="G202" s="171"/>
+      <c r="H202" s="171"/>
+      <c r="I202" s="171"/>
+      <c r="J202" s="171"/>
+      <c r="K202" s="172"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -22752,16 +22780,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="138" t="s">
+      <c r="D204" s="145" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="139"/>
-      <c r="F204" s="139"/>
-      <c r="G204" s="139"/>
-      <c r="H204" s="139"/>
-      <c r="I204" s="139"/>
-      <c r="J204" s="139"/>
-      <c r="K204" s="140"/>
+      <c r="E204" s="146"/>
+      <c r="F204" s="146"/>
+      <c r="G204" s="146"/>
+      <c r="H204" s="146"/>
+      <c r="I204" s="146"/>
+      <c r="J204" s="146"/>
+      <c r="K204" s="147"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -22792,16 +22820,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="138" t="s">
+      <c r="D206" s="145" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="139"/>
-      <c r="F206" s="139"/>
-      <c r="G206" s="139"/>
-      <c r="H206" s="139"/>
-      <c r="I206" s="139"/>
-      <c r="J206" s="139"/>
-      <c r="K206" s="140"/>
+      <c r="E206" s="146"/>
+      <c r="F206" s="146"/>
+      <c r="G206" s="146"/>
+      <c r="H206" s="146"/>
+      <c r="I206" s="146"/>
+      <c r="J206" s="146"/>
+      <c r="K206" s="147"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -22832,16 +22860,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="138" t="s">
+      <c r="D208" s="145" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="139"/>
-      <c r="F208" s="139"/>
-      <c r="G208" s="139"/>
-      <c r="H208" s="139"/>
-      <c r="I208" s="139"/>
-      <c r="J208" s="139"/>
-      <c r="K208" s="140"/>
+      <c r="E208" s="146"/>
+      <c r="F208" s="146"/>
+      <c r="G208" s="146"/>
+      <c r="H208" s="146"/>
+      <c r="I208" s="146"/>
+      <c r="J208" s="146"/>
+      <c r="K208" s="147"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="32">
@@ -22875,16 +22903,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="39"/>
-      <c r="D210" s="154" t="s">
+      <c r="D210" s="151" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="147"/>
-      <c r="F210" s="147"/>
-      <c r="G210" s="147"/>
-      <c r="H210" s="147"/>
-      <c r="I210" s="147"/>
-      <c r="J210" s="147"/>
-      <c r="K210" s="155"/>
+      <c r="E210" s="152"/>
+      <c r="F210" s="152"/>
+      <c r="G210" s="152"/>
+      <c r="H210" s="152"/>
+      <c r="I210" s="152"/>
+      <c r="J210" s="152"/>
+      <c r="K210" s="153"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -22953,16 +22981,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="138" t="s">
+      <c r="D214" s="145" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="139"/>
-      <c r="F214" s="139"/>
-      <c r="G214" s="139"/>
-      <c r="H214" s="139"/>
-      <c r="I214" s="139"/>
-      <c r="J214" s="139"/>
-      <c r="K214" s="140"/>
+      <c r="E214" s="146"/>
+      <c r="F214" s="146"/>
+      <c r="G214" s="146"/>
+      <c r="H214" s="146"/>
+      <c r="I214" s="146"/>
+      <c r="J214" s="146"/>
+      <c r="K214" s="147"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -22993,16 +23021,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="152" t="s">
+      <c r="D216" s="160" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="141"/>
-      <c r="F216" s="141"/>
-      <c r="G216" s="141"/>
-      <c r="H216" s="141"/>
-      <c r="I216" s="141"/>
-      <c r="J216" s="141"/>
-      <c r="K216" s="153"/>
+      <c r="E216" s="155"/>
+      <c r="F216" s="155"/>
+      <c r="G216" s="155"/>
+      <c r="H216" s="155"/>
+      <c r="I216" s="155"/>
+      <c r="J216" s="155"/>
+      <c r="K216" s="161"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -23014,14 +23042,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="154"/>
-      <c r="E217" s="147"/>
-      <c r="F217" s="147"/>
-      <c r="G217" s="147"/>
-      <c r="H217" s="147"/>
-      <c r="I217" s="147"/>
-      <c r="J217" s="147"/>
-      <c r="K217" s="155"/>
+      <c r="D217" s="151"/>
+      <c r="E217" s="152"/>
+      <c r="F217" s="152"/>
+      <c r="G217" s="152"/>
+      <c r="H217" s="152"/>
+      <c r="I217" s="152"/>
+      <c r="J217" s="152"/>
+      <c r="K217" s="153"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -23033,16 +23061,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="152" t="s">
+      <c r="D218" s="160" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="141"/>
-      <c r="F218" s="141"/>
-      <c r="G218" s="141"/>
-      <c r="H218" s="141"/>
-      <c r="I218" s="141"/>
-      <c r="J218" s="141"/>
-      <c r="K218" s="153"/>
+      <c r="E218" s="155"/>
+      <c r="F218" s="155"/>
+      <c r="G218" s="155"/>
+      <c r="H218" s="155"/>
+      <c r="I218" s="155"/>
+      <c r="J218" s="155"/>
+      <c r="K218" s="161"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -23054,14 +23082,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="154"/>
-      <c r="E219" s="147"/>
-      <c r="F219" s="147"/>
-      <c r="G219" s="147"/>
-      <c r="H219" s="147"/>
-      <c r="I219" s="147"/>
-      <c r="J219" s="147"/>
-      <c r="K219" s="155"/>
+      <c r="D219" s="151"/>
+      <c r="E219" s="152"/>
+      <c r="F219" s="152"/>
+      <c r="G219" s="152"/>
+      <c r="H219" s="152"/>
+      <c r="I219" s="152"/>
+      <c r="J219" s="152"/>
+      <c r="K219" s="153"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -23073,16 +23101,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="152" t="s">
+      <c r="D220" s="160" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="141"/>
-      <c r="F220" s="141"/>
-      <c r="G220" s="141"/>
-      <c r="H220" s="141"/>
-      <c r="I220" s="141"/>
-      <c r="J220" s="141"/>
-      <c r="K220" s="153"/>
+      <c r="E220" s="155"/>
+      <c r="F220" s="155"/>
+      <c r="G220" s="155"/>
+      <c r="H220" s="155"/>
+      <c r="I220" s="155"/>
+      <c r="J220" s="155"/>
+      <c r="K220" s="161"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -23094,14 +23122,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="154"/>
-      <c r="E221" s="147"/>
-      <c r="F221" s="147"/>
-      <c r="G221" s="147"/>
-      <c r="H221" s="147"/>
-      <c r="I221" s="147"/>
-      <c r="J221" s="147"/>
-      <c r="K221" s="155"/>
+      <c r="D221" s="151"/>
+      <c r="E221" s="152"/>
+      <c r="F221" s="152"/>
+      <c r="G221" s="152"/>
+      <c r="H221" s="152"/>
+      <c r="I221" s="152"/>
+      <c r="J221" s="152"/>
+      <c r="K221" s="153"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -23113,16 +23141,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="138" t="s">
+      <c r="D222" s="145" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="139"/>
-      <c r="F222" s="139"/>
-      <c r="G222" s="139"/>
-      <c r="H222" s="139"/>
-      <c r="I222" s="139"/>
-      <c r="J222" s="139"/>
-      <c r="K222" s="140"/>
+      <c r="E222" s="146"/>
+      <c r="F222" s="146"/>
+      <c r="G222" s="146"/>
+      <c r="H222" s="146"/>
+      <c r="I222" s="146"/>
+      <c r="J222" s="146"/>
+      <c r="K222" s="147"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -23153,16 +23181,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="138" t="s">
+      <c r="D224" s="145" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="139"/>
-      <c r="F224" s="139"/>
-      <c r="G224" s="139"/>
-      <c r="H224" s="139"/>
-      <c r="I224" s="139"/>
-      <c r="J224" s="139"/>
-      <c r="K224" s="140"/>
+      <c r="E224" s="146"/>
+      <c r="F224" s="146"/>
+      <c r="G224" s="146"/>
+      <c r="H224" s="146"/>
+      <c r="I224" s="146"/>
+      <c r="J224" s="146"/>
+      <c r="K224" s="147"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="32">
@@ -23196,16 +23224,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="39"/>
-      <c r="D226" s="158" t="s">
+      <c r="D226" s="167" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="159"/>
-      <c r="F226" s="159"/>
-      <c r="G226" s="159"/>
-      <c r="H226" s="159"/>
-      <c r="I226" s="159"/>
-      <c r="J226" s="159"/>
-      <c r="K226" s="160"/>
+      <c r="E226" s="168"/>
+      <c r="F226" s="168"/>
+      <c r="G226" s="168"/>
+      <c r="H226" s="168"/>
+      <c r="I226" s="168"/>
+      <c r="J226" s="168"/>
+      <c r="K226" s="169"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -23350,16 +23378,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="156" t="s">
+      <c r="D234" s="164" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="136"/>
-      <c r="F234" s="136"/>
-      <c r="G234" s="136"/>
-      <c r="H234" s="136"/>
-      <c r="I234" s="136"/>
-      <c r="J234" s="136"/>
-      <c r="K234" s="157"/>
+      <c r="E234" s="165"/>
+      <c r="F234" s="165"/>
+      <c r="G234" s="165"/>
+      <c r="H234" s="165"/>
+      <c r="I234" s="165"/>
+      <c r="J234" s="165"/>
+      <c r="K234" s="166"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -23428,16 +23456,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="145" t="s">
+      <c r="D238" s="154" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="141"/>
-      <c r="F238" s="141"/>
-      <c r="G238" s="141"/>
-      <c r="H238" s="141"/>
-      <c r="I238" s="141"/>
-      <c r="J238" s="141"/>
-      <c r="K238" s="142"/>
+      <c r="E238" s="155"/>
+      <c r="F238" s="155"/>
+      <c r="G238" s="155"/>
+      <c r="H238" s="155"/>
+      <c r="I238" s="155"/>
+      <c r="J238" s="155"/>
+      <c r="K238" s="156"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -23449,14 +23477,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="146"/>
-      <c r="E239" s="147"/>
-      <c r="F239" s="147"/>
-      <c r="G239" s="147"/>
-      <c r="H239" s="147"/>
-      <c r="I239" s="147"/>
-      <c r="J239" s="147"/>
-      <c r="K239" s="148"/>
+      <c r="D239" s="162"/>
+      <c r="E239" s="152"/>
+      <c r="F239" s="152"/>
+      <c r="G239" s="152"/>
+      <c r="H239" s="152"/>
+      <c r="I239" s="152"/>
+      <c r="J239" s="152"/>
+      <c r="K239" s="163"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -23468,16 +23496,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="70"/>
-      <c r="D240" s="141" t="s">
+      <c r="D240" s="155" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="141"/>
-      <c r="F240" s="141"/>
-      <c r="G240" s="141"/>
-      <c r="H240" s="141"/>
-      <c r="I240" s="141"/>
-      <c r="J240" s="141"/>
-      <c r="K240" s="142"/>
+      <c r="E240" s="155"/>
+      <c r="F240" s="155"/>
+      <c r="G240" s="155"/>
+      <c r="H240" s="155"/>
+      <c r="I240" s="155"/>
+      <c r="J240" s="155"/>
+      <c r="K240" s="156"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="32">
@@ -23489,14 +23517,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="34"/>
-      <c r="D241" s="143"/>
-      <c r="E241" s="143"/>
-      <c r="F241" s="143"/>
-      <c r="G241" s="143"/>
-      <c r="H241" s="143"/>
-      <c r="I241" s="143"/>
-      <c r="J241" s="143"/>
-      <c r="K241" s="144"/>
+      <c r="D241" s="175"/>
+      <c r="E241" s="175"/>
+      <c r="F241" s="175"/>
+      <c r="G241" s="175"/>
+      <c r="H241" s="175"/>
+      <c r="I241" s="175"/>
+      <c r="J241" s="175"/>
+      <c r="K241" s="176"/>
       <c r="L241" s="57"/>
       <c r="M241" s="58"/>
       <c r="N241" s="58"/>
@@ -23687,16 +23715,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="135" t="s">
+      <c r="D250" s="173" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="136"/>
-      <c r="F250" s="136"/>
-      <c r="G250" s="136"/>
-      <c r="H250" s="136"/>
-      <c r="I250" s="136"/>
-      <c r="J250" s="136"/>
-      <c r="K250" s="137"/>
+      <c r="E250" s="165"/>
+      <c r="F250" s="165"/>
+      <c r="G250" s="165"/>
+      <c r="H250" s="165"/>
+      <c r="I250" s="165"/>
+      <c r="J250" s="165"/>
+      <c r="K250" s="174"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -24265,16 +24293,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="138" t="s">
+      <c r="D280" s="145" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="139"/>
-      <c r="F280" s="139"/>
-      <c r="G280" s="139"/>
-      <c r="H280" s="139"/>
-      <c r="I280" s="139"/>
-      <c r="J280" s="139"/>
-      <c r="K280" s="140"/>
+      <c r="E280" s="146"/>
+      <c r="F280" s="146"/>
+      <c r="G280" s="146"/>
+      <c r="H280" s="146"/>
+      <c r="I280" s="146"/>
+      <c r="J280" s="146"/>
+      <c r="K280" s="147"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -24381,16 +24409,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="138" t="s">
+      <c r="D286" s="145" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="139"/>
-      <c r="F286" s="139"/>
-      <c r="G286" s="139"/>
-      <c r="H286" s="139"/>
-      <c r="I286" s="139"/>
-      <c r="J286" s="139"/>
-      <c r="K286" s="140"/>
+      <c r="E286" s="146"/>
+      <c r="F286" s="146"/>
+      <c r="G286" s="146"/>
+      <c r="H286" s="146"/>
+      <c r="I286" s="146"/>
+      <c r="J286" s="146"/>
+      <c r="K286" s="147"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -24500,16 +24528,16 @@
         <v>B22</v>
       </c>
       <c r="C292" s="13"/>
-      <c r="D292" s="138" t="s">
+      <c r="D292" s="145" t="s">
         <v>447</v>
       </c>
-      <c r="E292" s="139"/>
-      <c r="F292" s="139"/>
-      <c r="G292" s="139"/>
-      <c r="H292" s="139"/>
-      <c r="I292" s="139"/>
-      <c r="J292" s="139"/>
-      <c r="K292" s="140"/>
+      <c r="E292" s="146"/>
+      <c r="F292" s="146"/>
+      <c r="G292" s="146"/>
+      <c r="H292" s="146"/>
+      <c r="I292" s="146"/>
+      <c r="J292" s="146"/>
+      <c r="K292" s="147"/>
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="12">
@@ -24540,16 +24568,16 @@
         <v>B24</v>
       </c>
       <c r="C294" s="13"/>
-      <c r="D294" s="138" t="s">
+      <c r="D294" s="145" t="s">
         <v>442</v>
       </c>
-      <c r="E294" s="139"/>
-      <c r="F294" s="139"/>
-      <c r="G294" s="139"/>
-      <c r="H294" s="139"/>
-      <c r="I294" s="139"/>
-      <c r="J294" s="139"/>
-      <c r="K294" s="140"/>
+      <c r="E294" s="146"/>
+      <c r="F294" s="146"/>
+      <c r="G294" s="146"/>
+      <c r="H294" s="146"/>
+      <c r="I294" s="146"/>
+      <c r="J294" s="146"/>
+      <c r="K294" s="147"/>
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="12">
@@ -24580,16 +24608,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="138" t="s">
+      <c r="D296" s="145" t="s">
         <v>443</v>
       </c>
-      <c r="E296" s="139"/>
-      <c r="F296" s="139"/>
-      <c r="G296" s="139"/>
-      <c r="H296" s="139"/>
-      <c r="I296" s="139"/>
-      <c r="J296" s="139"/>
-      <c r="K296" s="140"/>
+      <c r="E296" s="146"/>
+      <c r="F296" s="146"/>
+      <c r="G296" s="146"/>
+      <c r="H296" s="146"/>
+      <c r="I296" s="146"/>
+      <c r="J296" s="146"/>
+      <c r="K296" s="147"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -24620,16 +24648,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="145" t="s">
+      <c r="D298" s="154" t="s">
         <v>385</v>
       </c>
-      <c r="E298" s="141"/>
-      <c r="F298" s="141"/>
-      <c r="G298" s="141"/>
-      <c r="H298" s="141"/>
-      <c r="I298" s="141"/>
-      <c r="J298" s="141"/>
-      <c r="K298" s="142"/>
+      <c r="E298" s="155"/>
+      <c r="F298" s="155"/>
+      <c r="G298" s="155"/>
+      <c r="H298" s="155"/>
+      <c r="I298" s="155"/>
+      <c r="J298" s="155"/>
+      <c r="K298" s="156"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -24641,14 +24669,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="146"/>
-      <c r="E299" s="147"/>
-      <c r="F299" s="147"/>
-      <c r="G299" s="147"/>
-      <c r="H299" s="147"/>
-      <c r="I299" s="147"/>
-      <c r="J299" s="147"/>
-      <c r="K299" s="148"/>
+      <c r="D299" s="162"/>
+      <c r="E299" s="152"/>
+      <c r="F299" s="152"/>
+      <c r="G299" s="152"/>
+      <c r="H299" s="152"/>
+      <c r="I299" s="152"/>
+      <c r="J299" s="152"/>
+      <c r="K299" s="163"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -24660,16 +24688,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="145" t="s">
+      <c r="D300" s="154" t="s">
         <v>386</v>
       </c>
-      <c r="E300" s="141"/>
-      <c r="F300" s="141"/>
-      <c r="G300" s="141"/>
-      <c r="H300" s="141"/>
-      <c r="I300" s="141"/>
-      <c r="J300" s="141"/>
-      <c r="K300" s="142"/>
+      <c r="E300" s="155"/>
+      <c r="F300" s="155"/>
+      <c r="G300" s="155"/>
+      <c r="H300" s="155"/>
+      <c r="I300" s="155"/>
+      <c r="J300" s="155"/>
+      <c r="K300" s="156"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -24681,14 +24709,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="146"/>
-      <c r="E301" s="147"/>
-      <c r="F301" s="147"/>
-      <c r="G301" s="147"/>
-      <c r="H301" s="147"/>
-      <c r="I301" s="147"/>
-      <c r="J301" s="147"/>
-      <c r="K301" s="148"/>
+      <c r="D301" s="162"/>
+      <c r="E301" s="152"/>
+      <c r="F301" s="152"/>
+      <c r="G301" s="152"/>
+      <c r="H301" s="152"/>
+      <c r="I301" s="152"/>
+      <c r="J301" s="152"/>
+      <c r="K301" s="163"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -24700,16 +24728,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="145" t="s">
+      <c r="D302" s="154" t="s">
         <v>387</v>
       </c>
-      <c r="E302" s="141"/>
-      <c r="F302" s="141"/>
-      <c r="G302" s="141"/>
-      <c r="H302" s="141"/>
-      <c r="I302" s="141"/>
-      <c r="J302" s="141"/>
-      <c r="K302" s="142"/>
+      <c r="E302" s="155"/>
+      <c r="F302" s="155"/>
+      <c r="G302" s="155"/>
+      <c r="H302" s="155"/>
+      <c r="I302" s="155"/>
+      <c r="J302" s="155"/>
+      <c r="K302" s="156"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -24721,14 +24749,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="146"/>
-      <c r="E303" s="147"/>
-      <c r="F303" s="147"/>
-      <c r="G303" s="147"/>
-      <c r="H303" s="147"/>
-      <c r="I303" s="147"/>
-      <c r="J303" s="147"/>
-      <c r="K303" s="148"/>
+      <c r="D303" s="162"/>
+      <c r="E303" s="152"/>
+      <c r="F303" s="152"/>
+      <c r="G303" s="152"/>
+      <c r="H303" s="152"/>
+      <c r="I303" s="152"/>
+      <c r="J303" s="152"/>
+      <c r="K303" s="163"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -24740,16 +24768,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="145" t="s">
+      <c r="D304" s="154" t="s">
         <v>388</v>
       </c>
-      <c r="E304" s="141"/>
-      <c r="F304" s="141"/>
-      <c r="G304" s="141"/>
-      <c r="H304" s="141"/>
-      <c r="I304" s="141"/>
-      <c r="J304" s="141"/>
-      <c r="K304" s="142"/>
+      <c r="E304" s="155"/>
+      <c r="F304" s="155"/>
+      <c r="G304" s="155"/>
+      <c r="H304" s="155"/>
+      <c r="I304" s="155"/>
+      <c r="J304" s="155"/>
+      <c r="K304" s="156"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="32">
@@ -24761,14 +24789,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="33"/>
-      <c r="D305" s="146"/>
-      <c r="E305" s="147"/>
-      <c r="F305" s="147"/>
-      <c r="G305" s="147"/>
-      <c r="H305" s="147"/>
-      <c r="I305" s="147"/>
-      <c r="J305" s="147"/>
-      <c r="K305" s="148"/>
+      <c r="D305" s="162"/>
+      <c r="E305" s="152"/>
+      <c r="F305" s="152"/>
+      <c r="G305" s="152"/>
+      <c r="H305" s="152"/>
+      <c r="I305" s="152"/>
+      <c r="J305" s="152"/>
+      <c r="K305" s="163"/>
       <c r="L305" s="57"/>
       <c r="M305" s="58"/>
       <c r="N305" s="58"/>
@@ -24783,16 +24811,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="39"/>
-      <c r="D306" s="145" t="s">
+      <c r="D306" s="154" t="s">
         <v>389</v>
       </c>
-      <c r="E306" s="141"/>
-      <c r="F306" s="141"/>
-      <c r="G306" s="141"/>
-      <c r="H306" s="141"/>
-      <c r="I306" s="141"/>
-      <c r="J306" s="141"/>
-      <c r="K306" s="142"/>
+      <c r="E306" s="155"/>
+      <c r="F306" s="155"/>
+      <c r="G306" s="155"/>
+      <c r="H306" s="155"/>
+      <c r="I306" s="155"/>
+      <c r="J306" s="155"/>
+      <c r="K306" s="156"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -24804,14 +24832,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="146"/>
-      <c r="E307" s="147"/>
-      <c r="F307" s="147"/>
-      <c r="G307" s="147"/>
-      <c r="H307" s="147"/>
-      <c r="I307" s="147"/>
-      <c r="J307" s="147"/>
-      <c r="K307" s="148"/>
+      <c r="D307" s="162"/>
+      <c r="E307" s="152"/>
+      <c r="F307" s="152"/>
+      <c r="G307" s="152"/>
+      <c r="H307" s="152"/>
+      <c r="I307" s="152"/>
+      <c r="J307" s="152"/>
+      <c r="K307" s="163"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -24823,16 +24851,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="145" t="s">
+      <c r="D308" s="154" t="s">
         <v>390</v>
       </c>
-      <c r="E308" s="141"/>
-      <c r="F308" s="141"/>
-      <c r="G308" s="141"/>
-      <c r="H308" s="141"/>
-      <c r="I308" s="141"/>
-      <c r="J308" s="141"/>
-      <c r="K308" s="142"/>
+      <c r="E308" s="155"/>
+      <c r="F308" s="155"/>
+      <c r="G308" s="155"/>
+      <c r="H308" s="155"/>
+      <c r="I308" s="155"/>
+      <c r="J308" s="155"/>
+      <c r="K308" s="156"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -24844,14 +24872,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="146"/>
-      <c r="E309" s="147"/>
-      <c r="F309" s="147"/>
-      <c r="G309" s="147"/>
-      <c r="H309" s="147"/>
-      <c r="I309" s="147"/>
-      <c r="J309" s="147"/>
-      <c r="K309" s="148"/>
+      <c r="D309" s="162"/>
+      <c r="E309" s="152"/>
+      <c r="F309" s="152"/>
+      <c r="G309" s="152"/>
+      <c r="H309" s="152"/>
+      <c r="I309" s="152"/>
+      <c r="J309" s="152"/>
+      <c r="K309" s="163"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -28731,6 +28759,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="D294:K294"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D280:K280"/>
+    <mergeCell ref="D286:K286"/>
+    <mergeCell ref="D296:K296"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="D216:K217"/>
+    <mergeCell ref="D218:K219"/>
+    <mergeCell ref="D220:K221"/>
+    <mergeCell ref="D238:K239"/>
+    <mergeCell ref="D240:K241"/>
+    <mergeCell ref="D222:K222"/>
+    <mergeCell ref="D224:K224"/>
+    <mergeCell ref="D226:K226"/>
+    <mergeCell ref="D234:K234"/>
+    <mergeCell ref="D250:K250"/>
+    <mergeCell ref="D204:K204"/>
+    <mergeCell ref="D206:K206"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="D214:K214"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="D202:K202"/>
     <mergeCell ref="D292:K292"/>
     <mergeCell ref="D178:K178"/>
     <mergeCell ref="D182:K182"/>
@@ -28747,37 +28806,6 @@
     <mergeCell ref="D193:K193"/>
     <mergeCell ref="D194:K194"/>
     <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="D214:K214"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D200:K200"/>
-    <mergeCell ref="D202:K202"/>
-    <mergeCell ref="D280:K280"/>
-    <mergeCell ref="D286:K286"/>
-    <mergeCell ref="D296:K296"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="D216:K217"/>
-    <mergeCell ref="D218:K219"/>
-    <mergeCell ref="D220:K221"/>
-    <mergeCell ref="D238:K239"/>
-    <mergeCell ref="D240:K241"/>
-    <mergeCell ref="D222:K222"/>
-    <mergeCell ref="D224:K224"/>
-    <mergeCell ref="D226:K226"/>
-    <mergeCell ref="D234:K234"/>
-    <mergeCell ref="D250:K250"/>
-    <mergeCell ref="D204:K204"/>
-    <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D294:K294"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape"/>
